--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,15 +8,64 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5889C64C-7E35-4DB0-B0BE-461512280C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30082AFE-59FF-401A-ACE0-7FF4303AF816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_ECO_RANGE_ID01cf1ec7487a4dce9f51587caf1d17e9" localSheetId="2" hidden="1">Planilha2!$G$4:$G$280</definedName>
+    <definedName name="_ECO_RANGE_ID026a22ad38e942f3936a3a5eeb47969b" localSheetId="0" hidden="1">Plan1!$K$4:$K$280</definedName>
+    <definedName name="_ECO_RANGE_ID0557230a046e450fa131b857ce0507b3" localSheetId="0" hidden="1">Plan1!$I$4:$I$280</definedName>
+    <definedName name="_ECO_RANGE_ID0771bbc883dc47edbb03ba73cdee7527" localSheetId="2" hidden="1">Planilha2!$M$4:$M$280</definedName>
+    <definedName name="_ECO_RANGE_ID0ab628688e2b40859b73ac404cc31d72" localSheetId="2" hidden="1">Planilha2!$O$4:$O$280</definedName>
+    <definedName name="_ECO_RANGE_ID0f8153a793e247eda20466836fc988a8" localSheetId="1" hidden="1">Planilha1!$J$4:$J$280</definedName>
+    <definedName name="_ECO_RANGE_ID11269248ba0e46659d482877541a1365" localSheetId="2" hidden="1">Planilha2!$E$4:$E$280</definedName>
+    <definedName name="_ECO_RANGE_ID13340491aada48a8b73e83b90fd4154b" localSheetId="2" hidden="1">Planilha2!$I$4:$I$280</definedName>
+    <definedName name="_ECO_RANGE_ID1bac8b1fa61646149e4a37a77b9e100c" localSheetId="0" hidden="1">Plan1!$A$4:$B$280</definedName>
+    <definedName name="_ECO_RANGE_ID25a8380f06c749fd81a052b7ee4ae2ff" localSheetId="2" hidden="1">Planilha2!$C$4:$C$280</definedName>
+    <definedName name="_ECO_RANGE_ID2ca218bca4fa442c9eb19df7d58aa658" localSheetId="0" hidden="1">Plan1!$J$4:$J$280</definedName>
+    <definedName name="_ECO_RANGE_ID33eed843e0b74a5e855180680c5fdcac" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID35224c152c054596b3869aed78a2c5f6" localSheetId="1" hidden="1">Planilha1!$N$4:$N$280</definedName>
+    <definedName name="_ECO_RANGE_ID407505d8f7bd4414943b80048da3030f" localSheetId="2" hidden="1">Planilha2!$F$4:$F$280</definedName>
+    <definedName name="_ECO_RANGE_ID464dffc48aa0404493b2422669d95736" localSheetId="2" hidden="1">Planilha2!$L$4:$L$280</definedName>
+    <definedName name="_ECO_RANGE_ID46d9ea0764d44be3ab4fce5eeb455d0f" localSheetId="1" hidden="1">Planilha1!$A$4:$B$280</definedName>
+    <definedName name="_ECO_RANGE_ID5846766831d24583acc9c2c2991202ce" localSheetId="2" hidden="1">Planilha2!$Q$4:$Q$280</definedName>
+    <definedName name="_ECO_RANGE_ID5fd08aaa2118420a85b8485bf9a96d27" localSheetId="2" hidden="1">Planilha2!$D$4:$D$280</definedName>
+    <definedName name="_ECO_RANGE_ID613c0ab79edd433081572aff8e888bb3" localSheetId="0" hidden="1">Plan1!$M$4:$M$280</definedName>
+    <definedName name="_ECO_RANGE_ID65318207b80e4a4ba08dcf09153c9c5a" localSheetId="2" hidden="1">Planilha2!$K$4:$K$280</definedName>
+    <definedName name="_ECO_RANGE_ID65f980a81426488f83a8f68571aed7a8" localSheetId="2" hidden="1">Planilha2!$A$4:$B$280</definedName>
+    <definedName name="_ECO_RANGE_ID6c14fa2681ac4045a433c310c1827f95" localSheetId="0" hidden="1">Plan1!$L$4:$L$280</definedName>
+    <definedName name="_ECO_RANGE_ID6ca911b3f89941cdaa2e61ee856886fe" localSheetId="2" hidden="1">Planilha2!$P$4:$P$280</definedName>
+    <definedName name="_ECO_RANGE_ID863c9c4d427848a1b7565c0f38f47068" localSheetId="1" hidden="1">Planilha1!$F$4:$F$280</definedName>
+    <definedName name="_ECO_RANGE_ID8a020d26d7fe4a79a475c3f7c62416f7" localSheetId="1" hidden="1">Planilha1!$M$4:$M$280</definedName>
+    <definedName name="_ECO_RANGE_ID8ddf863e75b5402d8712a29165774762" localSheetId="0" hidden="1">Plan1!$D$4:$D$280</definedName>
+    <definedName name="_ECO_RANGE_ID98d014965d184433b7818e2f92758367" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID9d401c521a0d4cec91f12f48b36e3d04" localSheetId="1" hidden="1">Planilha1!$G$4:$G$280</definedName>
+    <definedName name="_ECO_RANGE_IDa2732d1810504ba2b8dacb514f702288" localSheetId="1" hidden="1">Planilha1!$C$4:$C$280</definedName>
+    <definedName name="_ECO_RANGE_IDa39f90cea0824e0cb9117548e4bb6f37" localSheetId="0" hidden="1">Plan1!$G$4:$G$280</definedName>
+    <definedName name="_ECO_RANGE_IDa642d5534f8f4b849ebc8bbf27dbaf28" localSheetId="1" hidden="1">Planilha1!$O$4:$O$280</definedName>
+    <definedName name="_ECO_RANGE_IDa6576d1bacf142aca4f7a3a91e71d82d" localSheetId="2" hidden="1">Planilha2!$N$4:$N$280</definedName>
+    <definedName name="_ECO_RANGE_IDa9df7f8e6efa457994a95a7a9d59cce2" localSheetId="1" hidden="1">Planilha1!$H$4:$H$280</definedName>
+    <definedName name="_ECO_RANGE_IDae5a752dd5154fcca7b7e230acaed114" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDc3ac018c3cfc445f8a4305a4b1b69b93" localSheetId="0" hidden="1">Plan1!$C$4:$C$280</definedName>
+    <definedName name="_ECO_RANGE_IDc7dac13a004049ee9cc45ae3f385a2b5" localSheetId="0" hidden="1">Plan1!$N$4:$N$280</definedName>
+    <definedName name="_ECO_RANGE_IDca27252969864ae2a3919ef6eaf1584b" localSheetId="1" hidden="1">Planilha1!$D$4:$D$280</definedName>
+    <definedName name="_ECO_RANGE_IDd479bb2622ac4d3e838831a665abdbd7" localSheetId="2" hidden="1">Planilha2!$J$4:$J$280</definedName>
+    <definedName name="_ECO_RANGE_IDd6ace84ecbab4757a6f6f61b30774733" localSheetId="0" hidden="1">Plan1!$H$4:$H$280</definedName>
+    <definedName name="_ECO_RANGE_IDdcef29693fa24f58ac23ef983ef2a9f2" localSheetId="1" hidden="1">Planilha1!$E$4:$E$280</definedName>
+    <definedName name="_ECO_RANGE_IDdf8836cfa8eb43c7b96fb1956ad72c3b" localSheetId="1" hidden="1">Planilha1!$K$4:$K$280</definedName>
+    <definedName name="_ECO_RANGE_IDe3943ca1bb66430685e31b252585b046" localSheetId="1" hidden="1">Planilha1!$L$4:$L$280</definedName>
+    <definedName name="_ECO_RANGE_IDe7d91335ea524c09ac5703eb83ccf31b" localSheetId="2" hidden="1">Planilha2!$H$4:$H$280</definedName>
+    <definedName name="_ECO_RANGE_IDe931a9e8ba21409799e56295d584071f" localSheetId="0" hidden="1">Plan1!$O$4:$O$280</definedName>
+    <definedName name="_ECO_RANGE_IDeb4b1e071267479c8c33b3d7ccc0c1b8" localSheetId="1" hidden="1">Planilha1!$I$4:$I$280</definedName>
+    <definedName name="_ECO_RANGE_IDf6e015ce66e040459564281ba0634cfd" localSheetId="0" hidden="1">Plan1!$F$4:$F$280</definedName>
+    <definedName name="_ECO_RANGE_IDff5fccc12b8446859ea6b9c97c0173d5" localSheetId="0" hidden="1">Plan1!$E$4:$E$280</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -227,340 +276,330 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>6e266b08-973c-46eb-b41e-befbcdabc27a</stp>
+        <stp>c7f6974e-ede8-44d4-a730-c7c2fc9646af</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d321c105-1880-442e-bde3-ddcd63250da7</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>646fd4df-08aa-4eb5-91e9-7588834a9f1a</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1abf1629-a93e-420b-89ae-0d331c3b62dd</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>10801a4e-f380-45af-8c17-6bd5af7efede</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>266d2df4-c5ea-4029-9bee-c894a2cebfe3</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b972719a-f9a8-459b-9a46-8ed47960de45</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c523470e-d0ac-4116-b890-53af685bbc81</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>35aeb2f9-b310-494b-afca-929a7b60b2d7</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>30fd906e-55f1-43fd-b35e-156204af8bce</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a233190a-581a-426c-a544-f0831e066895</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3dd5e2eb-fa2e-4a51-ab71-9f47a3ce6ffb</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fddb90d8-d439-4717-8853-7848354945cc</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e5b4db5f-0a41-495a-a59e-e4413042d138</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>98a865df-eb7e-4ee2-8dcc-a37b272d0496</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3d72b3a9-3c39-405d-9d0c-f9024a850a31</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>127c685c-ab41-4f58-844f-e82043ecdb94</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e5b3b066-767d-4f60-91e5-d232bc7dc9d5</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0079a83d-7794-4171-aee2-a050c74cecf6</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1ebed9a8-ab11-46af-ae51-67fb334cdecf</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f540baa4-c23b-4cbb-b49f-52e194e02f3f</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>651cfe89-2e0d-4e06-bd1c-820ee8610be5</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1596820a-00cb-4c03-94b3-f174cfbbaaac</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d079d920-a130-4236-adcb-495cefb52308</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a1104caa-b759-48d3-9910-a09261804b85</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>21e21318-e731-446e-92c1-fa983431ebe5</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f316f9c7-1b05-4be4-bb5c-097ca7f07be0</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c9ef840a-9fd0-40a2-9556-95d202b24c4c</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f6c12cde-1430-4a57-9751-9400f41f110a</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>96e0682b-6695-4c45-a087-eb576e530e73</stp>
         <tr r="A3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>bf9b5bab-2d83-432d-8851-a8f27ef87e35</stp>
-        <tr r="G3" s="2"/>
+        <stp>c5a76d70-79af-402d-9ba2-4b1d3659cbe4</stp>
+        <tr r="Q3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>a160de6a-5284-40ae-adfe-97c181c928fe</stp>
-        <tr r="N3" s="1"/>
+        <stp>9b1a1f35-6f28-44da-897f-7af853f32cf3</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cce4516d-ea33-4170-9941-720341665ecb</stp>
+        <tr r="K3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>1af06855-c691-4fe7-9e25-da98ad4b6f4e</stp>
+        <stp>745344f2-0fc4-4946-9075-2d55976f48bb</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3520ac46-79ca-4a51-8f34-b923a0138244</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>49984f51-a9fd-4fb4-ac55-cc7913ca4778</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6d171eff-2f91-436d-aa7a-8837bb5ebc33</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d0851b64-487f-45e7-9e9d-f69e3b9d7e2a</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1c0ddd78-438e-4919-a78f-862b29ed7c59</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>521ca9ad-36e9-4127-8704-62a6ae1cf6c9</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>92d95790-bcdb-4754-a0b6-78994e8b52d1</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c8f9ef71-d7be-4cc1-9325-2db2df7ebdb4</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2e2d398f-5c39-4101-9757-a59a32192664</stp>
         <tr r="D3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
+    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>a1f86de0-55a5-49f4-b490-ae67d435ead0</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f9605652-5c09-4dac-8af4-dd0bb1f4d080</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f84c62a2-e7f5-46ce-a4e6-677a042456fc</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>69d043aa-30b2-4667-8a33-239b7e79b09e</stp>
-        <tr r="Q3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>b4a58305-b727-489f-8dde-57b4f8fd6066</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5f892563-671f-483e-8c43-4c2739a9069c</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>3dc877b6-39e9-4551-b4a3-afe587703740</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c07b750e-e12e-464b-89ee-aa32b44e5e6a</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5f063078-4408-4955-a8d0-a7b2fac4e2d7</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>b2040135-35fc-4c3c-b00c-81c2a1a07765</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e221e0dc-d7eb-4840-ab1d-40802d7ccf95</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>83dd693d-5c2c-4f69-b3c8-055a009625b7</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>0aabd783-dbd7-4561-adbe-9ca6e2b6ac4f</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>8e0c2c06-8b92-4108-af6f-42e00b009027</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9ae5bf44-db7f-47be-8f54-416cefafa467</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>2aeca887-9262-40bf-bd58-b222a6e80f66</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>48fdd0bd-ad4b-484b-9d10-864c93cce169</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e09265a6-e9ef-44bb-9334-398b508327ff</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>50e9da1e-ffcf-4098-9a30-f7f4a1b465f5</stp>
+        <stp>e5c5f55d-fec1-4349-b7cd-17f44b4cc400</stp>
         <tr r="K3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6839c625-092d-4054-b385-6dcb084c9be0</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>32ade523-b5ef-465b-a79f-b41be02ee6a1</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>2a5faff0-3156-4498-87c5-6e475f043a6d</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>8b514762-4a6b-426f-8733-09f56b752e1c</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6fec92e2-17ce-4738-8a81-31123fcc58b2</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>4ff97589-867b-47cd-923b-9d8f5adbf3a2</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ac91b816-c880-4578-be0e-5fb97ec2492e</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>0f21bbd0-9926-4dbe-8c0c-bcf3cf907fb7</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>65c3c3a2-3c6c-42be-9e2b-1d78a99c76a5</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>1ed295f0-cdbf-4fb1-a85d-4cb658e1aea1</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c43516e5-667e-404d-865e-2e4f27bd50c7</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d56ef12f-02e2-4ddc-ac61-2fcd9aa74a60</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e054470a-c8cf-410a-88b0-334eb2cb9a52</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>872b3f76-9aa9-4ce8-9ec0-93063f952a9c</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>14766f9a-1adb-40ba-8030-237aad507c07</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>fc945923-8dee-469a-9ee7-8502aa02a0d9</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>328a93a8-fb3c-416c-8195-050468d82298</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>8a7f761e-19d1-4bae-99b1-373eff47736e</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>363d74e9-eeed-4f7c-9870-76abd7c6f21d</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a2daa39c7edd4dbd87eb0d0f704202c3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>0d90b4f8-ca67-451e-9368-eba6272c64d3</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>dd598fa6-1dc1-41b1-8aa7-9439700f3fee</stp>
-        <tr r="L3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -830,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O278"/>
+  <dimension ref="A1:O280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:O278"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13450,6 +13489,94 @@
         <v>7.0759999999999996</v>
       </c>
     </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C279">
+        <v>9.1648999999999994</v>
+      </c>
+      <c r="D279">
+        <v>8.01</v>
+      </c>
+      <c r="E279">
+        <v>7.5359999999999996</v>
+      </c>
+      <c r="F279">
+        <v>7.33</v>
+      </c>
+      <c r="G279">
+        <v>7.33</v>
+      </c>
+      <c r="H279">
+        <v>7.32</v>
+      </c>
+      <c r="I279">
+        <v>7.2832999999999997</v>
+      </c>
+      <c r="J279">
+        <v>7.2215999999999996</v>
+      </c>
+      <c r="K279">
+        <v>7.1272000000000002</v>
+      </c>
+      <c r="L279">
+        <v>7.1700999999999997</v>
+      </c>
+      <c r="M279">
+        <v>7.0968999999999998</v>
+      </c>
+      <c r="N279">
+        <v>7.0860000000000003</v>
+      </c>
+      <c r="O279">
+        <v>7.1161000000000003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>45798</v>
+      </c>
+      <c r="C280">
+        <v>9.2355</v>
+      </c>
+      <c r="D280">
+        <v>8.15</v>
+      </c>
+      <c r="E280">
+        <v>7.6896000000000004</v>
+      </c>
+      <c r="F280">
+        <v>7.4631999999999996</v>
+      </c>
+      <c r="G280">
+        <v>7.4625000000000004</v>
+      </c>
+      <c r="H280">
+        <v>7.4333999999999998</v>
+      </c>
+      <c r="I280">
+        <v>7.3734000000000002</v>
+      </c>
+      <c r="J280">
+        <v>7.3005000000000004</v>
+      </c>
+      <c r="K280">
+        <v>7.1795999999999998</v>
+      </c>
+      <c r="L280">
+        <v>7.2000999999999999</v>
+      </c>
+      <c r="M280">
+        <v>7.1205999999999996</v>
+      </c>
+      <c r="N280">
+        <v>7.1071999999999997</v>
+      </c>
+      <c r="O280">
+        <v>7.1333000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Economatica Excel Add-In" prompt="45045: You are not logged in Economatica" sqref="G3" xr:uid="{6C00A70D-7942-40C6-87A1-4313FAC35B9C}"/>
@@ -13460,10 +13587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O278"/>
+  <dimension ref="A1:O280"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" workbookViewId="0">
-      <selection sqref="A1:O278"/>
+    <sheetView topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A275" sqref="A275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26080,6 +26207,94 @@
         <v>3980.9496340000001</v>
       </c>
     </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C279">
+        <v>4416.945968</v>
+      </c>
+      <c r="D279">
+        <v>4355.8364659999997</v>
+      </c>
+      <c r="E279">
+        <v>4390.1629350000003</v>
+      </c>
+      <c r="F279">
+        <v>4320.7975850000003</v>
+      </c>
+      <c r="G279">
+        <v>4335.9881640000003</v>
+      </c>
+      <c r="H279">
+        <v>4264.6884840000002</v>
+      </c>
+      <c r="I279">
+        <v>4184.5783579999998</v>
+      </c>
+      <c r="J279">
+        <v>4146.9693889999999</v>
+      </c>
+      <c r="K279">
+        <v>4134.6780509999999</v>
+      </c>
+      <c r="L279">
+        <v>3985.5001649999999</v>
+      </c>
+      <c r="M279">
+        <v>4030.9997579999999</v>
+      </c>
+      <c r="N279">
+        <v>3938.183473</v>
+      </c>
+      <c r="O279">
+        <v>3962.477578</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>45798</v>
+      </c>
+      <c r="C280">
+        <v>4415.8024599999999</v>
+      </c>
+      <c r="D280">
+        <v>4347.2372079999996</v>
+      </c>
+      <c r="E280">
+        <v>4373.8218020000004</v>
+      </c>
+      <c r="F280">
+        <v>4303.6330630000002</v>
+      </c>
+      <c r="G280">
+        <v>4314.1406299999999</v>
+      </c>
+      <c r="H280">
+        <v>4240.4884529999999</v>
+      </c>
+      <c r="I280">
+        <v>4164.1214449999998</v>
+      </c>
+      <c r="J280">
+        <v>4125.9514710000003</v>
+      </c>
+      <c r="K280">
+        <v>4116.8644549999999</v>
+      </c>
+      <c r="L280">
+        <v>3974.6064390000001</v>
+      </c>
+      <c r="M280">
+        <v>4021.7687259999998</v>
+      </c>
+      <c r="N280">
+        <v>3929.5727240000001</v>
+      </c>
+      <c r="O280">
+        <v>3955.6026270000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -26087,10 +26302,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z278"/>
+  <dimension ref="A1:Z280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="Q256" sqref="Q256"/>
+    <sheetView topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37955,6 +38170,112 @@
         <v>0.1084</v>
       </c>
     </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B279">
+        <v>6.3E-3</v>
+      </c>
+      <c r="C279">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D279">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E279">
+        <v>3.85E-2</v>
+      </c>
+      <c r="F279">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="G279">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="H279">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="I279">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J279">
+        <v>0.113</v>
+      </c>
+      <c r="K279">
+        <v>0.1197</v>
+      </c>
+      <c r="L279">
+        <v>0.1195</v>
+      </c>
+      <c r="M279">
+        <v>0.1181</v>
+      </c>
+      <c r="N279">
+        <v>0.1134</v>
+      </c>
+      <c r="O279">
+        <v>0.1119</v>
+      </c>
+      <c r="P279">
+        <v>0.1085</v>
+      </c>
+      <c r="Q279">
+        <v>0.1085</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B280">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="C280">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D280">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E280">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F280">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="G280">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="H280">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="I280">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="J280">
+        <v>0.112</v>
+      </c>
+      <c r="K280">
+        <v>0.1197</v>
+      </c>
+      <c r="L280">
+        <v>0.1195</v>
+      </c>
+      <c r="M280">
+        <v>0.1181</v>
+      </c>
+      <c r="N280">
+        <v>0.1132</v>
+      </c>
+      <c r="O280">
+        <v>0.1116</v>
+      </c>
+      <c r="P280">
+        <v>0.1086</v>
+      </c>
+      <c r="Q280">
+        <v>0.1086</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30082AFE-59FF-401A-ACE0-7FF4303AF816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1979202C-98AE-44D1-BDBE-460FBD1D9590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="15195" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,53 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID01cf1ec7487a4dce9f51587caf1d17e9" localSheetId="2" hidden="1">Planilha2!$G$4:$G$280</definedName>
-    <definedName name="_ECO_RANGE_ID026a22ad38e942f3936a3a5eeb47969b" localSheetId="0" hidden="1">Plan1!$K$4:$K$280</definedName>
-    <definedName name="_ECO_RANGE_ID0557230a046e450fa131b857ce0507b3" localSheetId="0" hidden="1">Plan1!$I$4:$I$280</definedName>
-    <definedName name="_ECO_RANGE_ID0771bbc883dc47edbb03ba73cdee7527" localSheetId="2" hidden="1">Planilha2!$M$4:$M$280</definedName>
-    <definedName name="_ECO_RANGE_ID0ab628688e2b40859b73ac404cc31d72" localSheetId="2" hidden="1">Planilha2!$O$4:$O$280</definedName>
-    <definedName name="_ECO_RANGE_ID0f8153a793e247eda20466836fc988a8" localSheetId="1" hidden="1">Planilha1!$J$4:$J$280</definedName>
-    <definedName name="_ECO_RANGE_ID11269248ba0e46659d482877541a1365" localSheetId="2" hidden="1">Planilha2!$E$4:$E$280</definedName>
-    <definedName name="_ECO_RANGE_ID13340491aada48a8b73e83b90fd4154b" localSheetId="2" hidden="1">Planilha2!$I$4:$I$280</definedName>
-    <definedName name="_ECO_RANGE_ID1bac8b1fa61646149e4a37a77b9e100c" localSheetId="0" hidden="1">Plan1!$A$4:$B$280</definedName>
-    <definedName name="_ECO_RANGE_ID25a8380f06c749fd81a052b7ee4ae2ff" localSheetId="2" hidden="1">Planilha2!$C$4:$C$280</definedName>
-    <definedName name="_ECO_RANGE_ID2ca218bca4fa442c9eb19df7d58aa658" localSheetId="0" hidden="1">Plan1!$J$4:$J$280</definedName>
-    <definedName name="_ECO_RANGE_ID33eed843e0b74a5e855180680c5fdcac" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID35224c152c054596b3869aed78a2c5f6" localSheetId="1" hidden="1">Planilha1!$N$4:$N$280</definedName>
-    <definedName name="_ECO_RANGE_ID407505d8f7bd4414943b80048da3030f" localSheetId="2" hidden="1">Planilha2!$F$4:$F$280</definedName>
-    <definedName name="_ECO_RANGE_ID464dffc48aa0404493b2422669d95736" localSheetId="2" hidden="1">Planilha2!$L$4:$L$280</definedName>
-    <definedName name="_ECO_RANGE_ID46d9ea0764d44be3ab4fce5eeb455d0f" localSheetId="1" hidden="1">Planilha1!$A$4:$B$280</definedName>
-    <definedName name="_ECO_RANGE_ID5846766831d24583acc9c2c2991202ce" localSheetId="2" hidden="1">Planilha2!$Q$4:$Q$280</definedName>
-    <definedName name="_ECO_RANGE_ID5fd08aaa2118420a85b8485bf9a96d27" localSheetId="2" hidden="1">Planilha2!$D$4:$D$280</definedName>
-    <definedName name="_ECO_RANGE_ID613c0ab79edd433081572aff8e888bb3" localSheetId="0" hidden="1">Plan1!$M$4:$M$280</definedName>
-    <definedName name="_ECO_RANGE_ID65318207b80e4a4ba08dcf09153c9c5a" localSheetId="2" hidden="1">Planilha2!$K$4:$K$280</definedName>
-    <definedName name="_ECO_RANGE_ID65f980a81426488f83a8f68571aed7a8" localSheetId="2" hidden="1">Planilha2!$A$4:$B$280</definedName>
-    <definedName name="_ECO_RANGE_ID6c14fa2681ac4045a433c310c1827f95" localSheetId="0" hidden="1">Plan1!$L$4:$L$280</definedName>
-    <definedName name="_ECO_RANGE_ID6ca911b3f89941cdaa2e61ee856886fe" localSheetId="2" hidden="1">Planilha2!$P$4:$P$280</definedName>
-    <definedName name="_ECO_RANGE_ID863c9c4d427848a1b7565c0f38f47068" localSheetId="1" hidden="1">Planilha1!$F$4:$F$280</definedName>
-    <definedName name="_ECO_RANGE_ID8a020d26d7fe4a79a475c3f7c62416f7" localSheetId="1" hidden="1">Planilha1!$M$4:$M$280</definedName>
-    <definedName name="_ECO_RANGE_ID8ddf863e75b5402d8712a29165774762" localSheetId="0" hidden="1">Plan1!$D$4:$D$280</definedName>
-    <definedName name="_ECO_RANGE_ID98d014965d184433b7818e2f92758367" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID9d401c521a0d4cec91f12f48b36e3d04" localSheetId="1" hidden="1">Planilha1!$G$4:$G$280</definedName>
-    <definedName name="_ECO_RANGE_IDa2732d1810504ba2b8dacb514f702288" localSheetId="1" hidden="1">Planilha1!$C$4:$C$280</definedName>
-    <definedName name="_ECO_RANGE_IDa39f90cea0824e0cb9117548e4bb6f37" localSheetId="0" hidden="1">Plan1!$G$4:$G$280</definedName>
-    <definedName name="_ECO_RANGE_IDa642d5534f8f4b849ebc8bbf27dbaf28" localSheetId="1" hidden="1">Planilha1!$O$4:$O$280</definedName>
-    <definedName name="_ECO_RANGE_IDa6576d1bacf142aca4f7a3a91e71d82d" localSheetId="2" hidden="1">Planilha2!$N$4:$N$280</definedName>
-    <definedName name="_ECO_RANGE_IDa9df7f8e6efa457994a95a7a9d59cce2" localSheetId="1" hidden="1">Planilha1!$H$4:$H$280</definedName>
-    <definedName name="_ECO_RANGE_IDae5a752dd5154fcca7b7e230acaed114" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDc3ac018c3cfc445f8a4305a4b1b69b93" localSheetId="0" hidden="1">Plan1!$C$4:$C$280</definedName>
-    <definedName name="_ECO_RANGE_IDc7dac13a004049ee9cc45ae3f385a2b5" localSheetId="0" hidden="1">Plan1!$N$4:$N$280</definedName>
-    <definedName name="_ECO_RANGE_IDca27252969864ae2a3919ef6eaf1584b" localSheetId="1" hidden="1">Planilha1!$D$4:$D$280</definedName>
-    <definedName name="_ECO_RANGE_IDd479bb2622ac4d3e838831a665abdbd7" localSheetId="2" hidden="1">Planilha2!$J$4:$J$280</definedName>
-    <definedName name="_ECO_RANGE_IDd6ace84ecbab4757a6f6f61b30774733" localSheetId="0" hidden="1">Plan1!$H$4:$H$280</definedName>
-    <definedName name="_ECO_RANGE_IDdcef29693fa24f58ac23ef983ef2a9f2" localSheetId="1" hidden="1">Planilha1!$E$4:$E$280</definedName>
-    <definedName name="_ECO_RANGE_IDdf8836cfa8eb43c7b96fb1956ad72c3b" localSheetId="1" hidden="1">Planilha1!$K$4:$K$280</definedName>
-    <definedName name="_ECO_RANGE_IDe3943ca1bb66430685e31b252585b046" localSheetId="1" hidden="1">Planilha1!$L$4:$L$280</definedName>
-    <definedName name="_ECO_RANGE_IDe7d91335ea524c09ac5703eb83ccf31b" localSheetId="2" hidden="1">Planilha2!$H$4:$H$280</definedName>
-    <definedName name="_ECO_RANGE_IDe931a9e8ba21409799e56295d584071f" localSheetId="0" hidden="1">Plan1!$O$4:$O$280</definedName>
-    <definedName name="_ECO_RANGE_IDeb4b1e071267479c8c33b3d7ccc0c1b8" localSheetId="1" hidden="1">Planilha1!$I$4:$I$280</definedName>
-    <definedName name="_ECO_RANGE_IDf6e015ce66e040459564281ba0634cfd" localSheetId="0" hidden="1">Plan1!$F$4:$F$280</definedName>
-    <definedName name="_ECO_RANGE_IDff5fccc12b8446859ea6b9c97c0173d5" localSheetId="0" hidden="1">Plan1!$E$4:$E$280</definedName>
+    <definedName name="_ECO_RANGE_ID047c59c0657b4ec09a6e03e5b4312eef" localSheetId="2" hidden="1">Planilha2!$F$4:$F$281</definedName>
+    <definedName name="_ECO_RANGE_ID0721008c7acd4fd4a08ff4cdaac7eb1f" localSheetId="1" hidden="1">Planilha1!$G$4:$G$281</definedName>
+    <definedName name="_ECO_RANGE_ID1cd7f292a2c443c794cdab90e6938602" localSheetId="0" hidden="1">Plan1!$N$4:$N$281</definedName>
+    <definedName name="_ECO_RANGE_ID219caaf9bedb46d29b9514bc60136a95" localSheetId="1" hidden="1">Planilha1!$J$4:$J$281</definedName>
+    <definedName name="_ECO_RANGE_ID23a794e4628c43e5b8dd8e10a794496b" localSheetId="1" hidden="1">Planilha1!$C$4:$C$281</definedName>
+    <definedName name="_ECO_RANGE_ID23fb29f0c0804854a69e0daeed9d540f" localSheetId="2" hidden="1">Planilha2!$D$4:$D$281</definedName>
+    <definedName name="_ECO_RANGE_ID265577219dd248b7a510bec1d3e6f492" localSheetId="2" hidden="1">Planilha2!$A$4:$B$281</definedName>
+    <definedName name="_ECO_RANGE_ID299b5bb9186248cdab3c24deaa2a9a01" localSheetId="0" hidden="1">Plan1!$J$4:$J$281</definedName>
+    <definedName name="_ECO_RANGE_ID2fbf747c38354a26858e059c2128bcab" localSheetId="0" hidden="1">Plan1!$F$4:$F$281</definedName>
+    <definedName name="_ECO_RANGE_ID3724beb2e8a84d3cae74507ce660e6da" localSheetId="2" hidden="1">Planilha2!$C$4:$C$281</definedName>
+    <definedName name="_ECO_RANGE_ID3b1edd6cee304180b6ad8a450e0bbad4" localSheetId="0" hidden="1">Plan1!$D$4:$D$281</definedName>
+    <definedName name="_ECO_RANGE_ID3c9016e53f3a4151a42136e2f642342c" localSheetId="1" hidden="1">Planilha1!$E$4:$E$281</definedName>
+    <definedName name="_ECO_RANGE_ID49cea13e3c96490096666b454462a7a3" localSheetId="1" hidden="1">Planilha1!$N$4:$N$281</definedName>
+    <definedName name="_ECO_RANGE_ID4a4eaadb1b66422785834a8c1b000ecb" localSheetId="1" hidden="1">Planilha1!$L$4:$L$281</definedName>
+    <definedName name="_ECO_RANGE_ID5247178e2c0048b1a8ac854e0c1c2b30" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID534e4c9083104e609b70ebcd02d169b4" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID6a0c8efb5c75440ab7e59335512ce017" localSheetId="0" hidden="1">Plan1!$M$4:$M$281</definedName>
+    <definedName name="_ECO_RANGE_ID7e5c8a73aba84bf692be0d479359c4eb" localSheetId="0" hidden="1">Plan1!$A$4:$B$281</definedName>
+    <definedName name="_ECO_RANGE_ID8610e3cd2b974ce5af813171bd722d84" localSheetId="2" hidden="1">Planilha2!$O$4:$O$281</definedName>
+    <definedName name="_ECO_RANGE_ID89227c2b9bf14f3b8619ba74af3ae5e8" localSheetId="2" hidden="1">Planilha2!$G$4:$G$281</definedName>
+    <definedName name="_ECO_RANGE_ID8bf571cfdea44b22b3159f2fb54cc728" localSheetId="1" hidden="1">Planilha1!$I$4:$I$281</definedName>
+    <definedName name="_ECO_RANGE_ID933ee9c010d5446a9cfbdf40844fa184" localSheetId="1" hidden="1">Planilha1!$K$4:$K$281</definedName>
+    <definedName name="_ECO_RANGE_ID9fc2a85cd1344aeda449c7f4d2a67ae0" localSheetId="0" hidden="1">Plan1!$C$4:$C$281</definedName>
+    <definedName name="_ECO_RANGE_IDa0fee09a4cd2429b99ff97f07ff645c9" localSheetId="2" hidden="1">Planilha2!$K$4:$K$281</definedName>
+    <definedName name="_ECO_RANGE_IDa1e33c365bd745e5ac28e15fd6d033ba" localSheetId="1" hidden="1">Planilha1!$D$4:$D$281</definedName>
+    <definedName name="_ECO_RANGE_IDa5775233bfc64c75a75ba4b03944b856" localSheetId="0" hidden="1">Plan1!$L$4:$L$281</definedName>
+    <definedName name="_ECO_RANGE_IDab1c9f2795e14df584c71d16a3f2452e" localSheetId="1" hidden="1">Planilha1!$M$4:$M$281</definedName>
+    <definedName name="_ECO_RANGE_IDb760d08dcd574bb58c4c114a9ab23c0b" localSheetId="1" hidden="1">Planilha1!$O$4:$O$281</definedName>
+    <definedName name="_ECO_RANGE_IDc4dbd5d1015c43afba78371b4811d14a" localSheetId="2" hidden="1">Planilha2!$J$4:$J$281</definedName>
+    <definedName name="_ECO_RANGE_IDc5d5730cf26749aeafef3ad106c728d3" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDcc6be6e0e2bf4dbfb12c724666b37627" localSheetId="1" hidden="1">Planilha1!$F$4:$F$281</definedName>
+    <definedName name="_ECO_RANGE_IDccd8f25745bc424385e58c27b7742981" localSheetId="2" hidden="1">Planilha2!$E$4:$E$281</definedName>
+    <definedName name="_ECO_RANGE_IDd1bea7c409e54b2aa6653749ca2c29c7" localSheetId="2" hidden="1">Planilha2!$M$4:$M$281</definedName>
+    <definedName name="_ECO_RANGE_IDd56476d0d82c4bf98ac2522c61b62504" localSheetId="2" hidden="1">Planilha2!$L$4:$L$281</definedName>
+    <definedName name="_ECO_RANGE_IDd75d9cb9f8fd4b129f7cbc48148f3c6e" localSheetId="0" hidden="1">Plan1!$I$4:$I$281</definedName>
+    <definedName name="_ECO_RANGE_IDdbfbb7cbba714bc5b2f67f96c4fe8610" localSheetId="0" hidden="1">Plan1!$K$4:$K$281</definedName>
+    <definedName name="_ECO_RANGE_IDe4a9e8a6a9674b1191ad33f0e3de31ed" localSheetId="2" hidden="1">Planilha2!$I$4:$I$281</definedName>
+    <definedName name="_ECO_RANGE_IDe918ca8587724e0486ce5e054bd66867" localSheetId="0" hidden="1">Plan1!$E$4:$E$281</definedName>
+    <definedName name="_ECO_RANGE_IDeaf1759fba314fa78e7e54a11b200cb6" localSheetId="2" hidden="1">Planilha2!$P$4:$P$281</definedName>
+    <definedName name="_ECO_RANGE_IDedc1b1714023493fbb88fc9de2b828de" localSheetId="0" hidden="1">Plan1!$O$4:$O$281</definedName>
+    <definedName name="_ECO_RANGE_IDf19cfc585b0b4eff8400602c6acbd1bc" localSheetId="2" hidden="1">Planilha2!$H$4:$H$281</definedName>
+    <definedName name="_ECO_RANGE_IDf3de2af9370e4967adab9c286e8092c9" localSheetId="0" hidden="1">Plan1!$H$4:$H$281</definedName>
+    <definedName name="_ECO_RANGE_IDf9245a9e4a88490fa7ea9a45c4704feb" localSheetId="2" hidden="1">Planilha2!$N$4:$N$281</definedName>
+    <definedName name="_ECO_RANGE_IDf9f53f2754fc416d9b83986e58c7d3e8" localSheetId="1" hidden="1">Planilha1!$H$4:$H$281</definedName>
+    <definedName name="_ECO_RANGE_IDfd654ea549a7485191b70dc97a828741" localSheetId="1" hidden="1">Planilha1!$A$4:$B$281</definedName>
+    <definedName name="_ECO_RANGE_IDfed268c9060a439dab3d7ad1ca804ff5" localSheetId="0" hidden="1">Plan1!$G$4:$G$281</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Código</t>
   </si>
@@ -276,330 +275,296 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c7f6974e-ede8-44d4-a730-c7c2fc9646af</stp>
-        <tr r="O3" s="1"/>
+        <stp>f9c4172a-2e5b-4029-a728-a669330487e8</stp>
+        <tr r="F3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d321c105-1880-442e-bde3-ddcd63250da7</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>646fd4df-08aa-4eb5-91e9-7588834a9f1a</stp>
-        <tr r="C3" s="1"/>
+        <stp>1c580e21-25c9-4248-b477-f896d3cbd53c</stp>
+        <tr r="K3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>1abf1629-a93e-420b-89ae-0d331c3b62dd</stp>
-        <tr r="N3" s="3"/>
+        <stp>22b040fb-b2b1-49b6-afc1-4a9425366de9</stp>
+        <tr r="E3" s="2"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>10801a4e-f380-45af-8c17-6bd5af7efede</stp>
+        <stp>0515bf4d-49b4-4a35-8d3b-43446d707357</stp>
         <tr r="A3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>266d2df4-c5ea-4029-9bee-c894a2cebfe3</stp>
-        <tr r="F3" s="1"/>
+        <stp>113a3051-1f84-4389-b8a5-05b75ada79d5</stp>
+        <tr r="D3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b972719a-f9a8-459b-9a46-8ed47960de45</stp>
+        <stp>a24548a7-f505-44d7-a4d0-8611999725ac</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>45a8bae8-25ea-484b-aacf-4a072fd98fc0</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5d852ea2-b47b-4475-a42c-621f029ffe90</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5339514a-d350-4ef9-85be-73ed06218876</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>72ce16f4-40d4-44d5-8331-2134f0914733</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8e60c5b2-5513-4b04-9b7a-944cfb19a3f6</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>92a254cd-3b78-4d6b-8ca5-d0048d55ea33</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>153d760b-7e7d-49a0-957d-c169a230b3e2</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>38489986-6a8a-4b9d-b1d0-cf64b677cd30</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0b7f0a09-c55f-4a76-9c99-0abe34900836</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6a49f3cb-af56-45b8-a9c1-a5dd3f308718</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5cd7d9c5-1785-42a4-abbe-ce0bc010adb7</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2408a2b8-2a42-410f-a1f2-d95db4f06652</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b298c042-50ff-4726-949e-cd82ce3696da</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>591290b9-238d-4adf-a2a5-2d60d6cb2a5a</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5254e483-6773-4fc9-a936-1b22bb7ca594</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>96e2a824-3dd7-4651-b6c1-e3aa0c27c0a2</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>549406cb-390d-45f5-b38f-90ada02f5259</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c1ca0386-6605-4757-a276-ead0dbb9b916</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>afdaf828-b7cf-496d-b3e6-bdbd9a7e80d9</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>162583da-a95c-41a2-b1a5-c41ee225098a</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>85de079c-00ec-4038-91c5-5f7ff0f597dd</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f80326a3-12d0-40af-aa93-7a3ec6528b36</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>23f605f8-08c4-4ff3-a42b-4535ffc25150</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f38c5b27-c569-4d4e-a82f-d3b61c10eada</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e26b9a8a-3cf3-4a2b-9dd7-8c5e90423ad0</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bfe80bd0-7485-4f21-9abd-4820e9c560d5</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a835fbe0-29ee-4d37-81db-6c2df9b4e011</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d3afbb38-36f5-4551-9132-16cbfba4fefe</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>74abfe97-e932-4198-90aa-19ac7fb1db8d</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e650bc2d-cc54-49f3-b856-e1c2e1746c3d</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0476949e-87ba-46cc-b391-3350ff056d36</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>12b800d8-fd08-4056-822f-5134c0abf341</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>26a5cd25-8d88-466e-b845-d4081d4a29f0</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ed1fdf3c-4b5a-4282-aca8-476c23e753a4</stp>
         <tr r="C3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c523470e-d0ac-4116-b890-53af685bbc81</stp>
-        <tr r="O3" s="3"/>
+        <stp>fc35e440-0c8c-4cb5-a5ba-b54bf4341c49</stp>
+        <tr r="I3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>35aeb2f9-b310-494b-afca-929a7b60b2d7</stp>
-        <tr r="H3" s="2"/>
+        <stp>eb5574fd-4676-468f-b795-57feeacec779</stp>
+        <tr r="J3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
+    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>30fd906e-55f1-43fd-b35e-156204af8bce</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a233190a-581a-426c-a544-f0831e066895</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3dd5e2eb-fa2e-4a51-ab71-9f47a3ce6ffb</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fddb90d8-d439-4717-8853-7848354945cc</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e5b4db5f-0a41-495a-a59e-e4413042d138</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>98a865df-eb7e-4ee2-8dcc-a37b272d0496</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3d72b3a9-3c39-405d-9d0c-f9024a850a31</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>127c685c-ab41-4f58-844f-e82043ecdb94</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e5b3b066-767d-4f60-91e5-d232bc7dc9d5</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0079a83d-7794-4171-aee2-a050c74cecf6</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1ebed9a8-ab11-46af-ae51-67fb334cdecf</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f540baa4-c23b-4cbb-b49f-52e194e02f3f</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>651cfe89-2e0d-4e06-bd1c-820ee8610be5</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1596820a-00cb-4c03-94b3-f174cfbbaaac</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d079d920-a130-4236-adcb-495cefb52308</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a1104caa-b759-48d3-9910-a09261804b85</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>21e21318-e731-446e-92c1-fa983431ebe5</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f316f9c7-1b05-4be4-bb5c-097ca7f07be0</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c9ef840a-9fd0-40a2-9556-95d202b24c4c</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f6c12cde-1430-4a57-9751-9400f41f110a</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>96e0682b-6695-4c45-a087-eb576e530e73</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c5a76d70-79af-402d-9ba2-4b1d3659cbe4</stp>
-        <tr r="Q3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9b1a1f35-6f28-44da-897f-7af853f32cf3</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cce4516d-ea33-4170-9941-720341665ecb</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>745344f2-0fc4-4946-9075-2d55976f48bb</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3520ac46-79ca-4a51-8f34-b923a0138244</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>49984f51-a9fd-4fb4-ac55-cc7913ca4778</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6d171eff-2f91-436d-aa7a-8837bb5ebc33</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d0851b64-487f-45e7-9e9d-f69e3b9d7e2a</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1c0ddd78-438e-4919-a78f-862b29ed7c59</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>521ca9ad-36e9-4127-8704-62a6ae1cf6c9</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>92d95790-bcdb-4754-a0b6-78994e8b52d1</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c8f9ef71-d7be-4cc1-9325-2db2df7ebdb4</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2e2d398f-5c39-4101-9757-a59a32192664</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_06881fbb366c4d82bebebe807c470932">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e5c5f55d-fec1-4349-b7cd-17f44b4cc400</stp>
-        <tr r="K3" s="3"/>
+        <stp>c449c66c-f595-4b59-9cf1-8ec657f6e1bb</stp>
+        <tr r="O3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -869,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O280"/>
+  <dimension ref="A1:O281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A280" sqref="A280"/>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="G279" sqref="G279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13577,6 +13542,50 @@
         <v>7.1333000000000002</v>
       </c>
     </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>45799</v>
+      </c>
+      <c r="C281">
+        <v>9.2516999999999996</v>
+      </c>
+      <c r="D281">
+        <v>8.1629000000000005</v>
+      </c>
+      <c r="E281">
+        <v>7.7065999999999999</v>
+      </c>
+      <c r="F281">
+        <v>7.4766000000000004</v>
+      </c>
+      <c r="G281">
+        <v>7.4664000000000001</v>
+      </c>
+      <c r="H281">
+        <v>7.4326999999999996</v>
+      </c>
+      <c r="I281">
+        <v>7.35</v>
+      </c>
+      <c r="J281">
+        <v>7.27</v>
+      </c>
+      <c r="K281">
+        <v>7.1406999999999998</v>
+      </c>
+      <c r="L281">
+        <v>7.1463999999999999</v>
+      </c>
+      <c r="M281">
+        <v>7.0721999999999996</v>
+      </c>
+      <c r="N281">
+        <v>7.0648</v>
+      </c>
+      <c r="O281">
+        <v>7.0876999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Economatica Excel Add-In" prompt="45045: You are not logged in Economatica" sqref="G3" xr:uid="{6C00A70D-7942-40C6-87A1-4313FAC35B9C}"/>
@@ -13587,9 +13596,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O280"/>
+  <dimension ref="A1:O281"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
       <selection activeCell="A275" sqref="A275"/>
     </sheetView>
   </sheetViews>
@@ -26295,6 +26304,50 @@
         <v>3955.6026270000002</v>
       </c>
     </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>45799</v>
+      </c>
+      <c r="C281">
+        <v>4417.3105850000002</v>
+      </c>
+      <c r="D281">
+        <v>4348.3414130000001</v>
+      </c>
+      <c r="E281">
+        <v>4373.820901</v>
+      </c>
+      <c r="F281">
+        <v>4303.6699939999999</v>
+      </c>
+      <c r="G281">
+        <v>4315.3971439999996</v>
+      </c>
+      <c r="H281">
+        <v>4242.5670330000003</v>
+      </c>
+      <c r="I281">
+        <v>4171.780154</v>
+      </c>
+      <c r="J281">
+        <v>4136.6122359999999</v>
+      </c>
+      <c r="K281">
+        <v>4133.2564670000002</v>
+      </c>
+      <c r="L281">
+        <v>3999.0753220000001</v>
+      </c>
+      <c r="M281">
+        <v>4046.0696189999999</v>
+      </c>
+      <c r="N281">
+        <v>3952.0314100000001</v>
+      </c>
+      <c r="O281">
+        <v>3980.2803090000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -26302,10 +26355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z280"/>
+  <dimension ref="A1:Z281"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A280" sqref="A280"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26363,62 +26416,57 @@
       <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="1">
-        <v>45717</v>
+        <v>45901</v>
       </c>
       <c r="C2" s="1">
-        <v>45901</v>
+        <v>46082</v>
       </c>
       <c r="D2" s="1">
-        <v>46082</v>
+        <v>46266</v>
       </c>
       <c r="E2" s="1">
-        <v>46266</v>
+        <v>46447</v>
       </c>
       <c r="F2" s="1">
-        <v>46447</v>
+        <v>46631</v>
       </c>
       <c r="G2" s="1">
-        <v>46631</v>
+        <v>46813</v>
       </c>
       <c r="H2" s="1">
-        <v>46813</v>
+        <v>46997</v>
       </c>
       <c r="I2" s="1">
-        <v>46997</v>
+        <v>47178</v>
       </c>
       <c r="J2" s="1">
-        <v>47178</v>
+        <v>47362</v>
       </c>
       <c r="K2" s="1">
-        <v>47362</v>
+        <v>47543</v>
       </c>
       <c r="L2" s="1">
-        <v>47543</v>
+        <v>47635</v>
       </c>
       <c r="M2" s="1">
-        <v>47635</v>
+        <v>47727</v>
       </c>
       <c r="N2" s="1">
-        <v>47727</v>
+        <v>47818</v>
       </c>
       <c r="O2" s="1">
-        <v>47818</v>
+        <v>47908</v>
       </c>
       <c r="P2" s="1">
-        <v>47908</v>
-      </c>
-      <c r="Q2" s="1">
         <v>48000</v>
       </c>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -26484,10 +26532,6 @@
         <f>_xll.ECONOMATICA(P1,"YTM",,"D-0","2024-4-29","D",,,"FALSE","FALSE",,)</f>
         <v/>
       </c>
-      <c r="Q3" t="str">
-        <f>_xll.ECONOMATICA(Q1,"YTM",,"D-0","2024-4-29","D",,,"FALSE","FALSE",,)</f>
-        <v/>
-      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -36324,7 +36368,7 @@
         <v>0.10929999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>45743</v>
       </c>
@@ -36371,7 +36415,7 @@
         <v>0.1091</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>45744</v>
       </c>
@@ -36418,7 +36462,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>45747</v>
       </c>
@@ -36465,7 +36509,7 @@
         <v>0.1087</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>45748</v>
       </c>
@@ -36512,7 +36556,7 @@
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>45749</v>
       </c>
@@ -36561,11 +36605,8 @@
       <c r="P245">
         <v>0.1186</v>
       </c>
-      <c r="Q245">
-        <v>0.1186</v>
-      </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>45750</v>
       </c>
@@ -36614,11 +36655,8 @@
       <c r="P246">
         <v>0.11840000000000001</v>
       </c>
-      <c r="Q246">
-        <v>0.11840000000000001</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>45751</v>
       </c>
@@ -36667,11 +36705,8 @@
       <c r="P247">
         <v>0.11799999999999999</v>
       </c>
-      <c r="Q247">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>45754</v>
       </c>
@@ -36720,11 +36755,8 @@
       <c r="P248">
         <v>0.1174</v>
       </c>
-      <c r="Q248">
-        <v>0.1174</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>45755</v>
       </c>
@@ -36773,11 +36805,8 @@
       <c r="P249">
         <v>0.11550000000000001</v>
       </c>
-      <c r="Q249">
-        <v>0.11550000000000001</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>45756</v>
       </c>
@@ -36826,11 +36855,8 @@
       <c r="P250">
         <v>0.115</v>
       </c>
-      <c r="Q250">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>45757</v>
       </c>
@@ -36879,11 +36905,8 @@
       <c r="P251">
         <v>0.1147</v>
       </c>
-      <c r="Q251">
-        <v>0.1147</v>
-      </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>45758</v>
       </c>
@@ -36932,11 +36955,8 @@
       <c r="P252">
         <v>0.1142</v>
       </c>
-      <c r="Q252">
-        <v>0.1142</v>
-      </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>45761</v>
       </c>
@@ -36985,11 +37005,8 @@
       <c r="P253">
         <v>0.1139</v>
       </c>
-      <c r="Q253">
-        <v>0.1139</v>
-      </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>45762</v>
       </c>
@@ -37038,11 +37055,8 @@
       <c r="P254">
         <v>0.1119</v>
       </c>
-      <c r="Q254">
-        <v>0.1119</v>
-      </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>45763</v>
       </c>
@@ -37091,11 +37105,8 @@
       <c r="P255">
         <v>0.1115</v>
       </c>
-      <c r="Q255">
-        <v>0.1115</v>
-      </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>45764</v>
       </c>
@@ -37144,21 +37155,18 @@
       <c r="P256">
         <v>0.11169999999999999</v>
       </c>
-      <c r="Q256">
-        <v>0.11169999999999999</v>
-      </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>45765</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>45768</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>45769</v>
       </c>
@@ -37207,11 +37215,8 @@
       <c r="P259">
         <v>0.1116</v>
       </c>
-      <c r="Q259">
-        <v>0.1116</v>
-      </c>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>45770</v>
       </c>
@@ -37260,11 +37265,8 @@
       <c r="P260">
         <v>0.11169999999999999</v>
       </c>
-      <c r="Q260">
-        <v>0.11169999999999999</v>
-      </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>45771</v>
       </c>
@@ -37313,11 +37315,8 @@
       <c r="P261">
         <v>0.1115</v>
       </c>
-      <c r="Q261">
-        <v>0.1115</v>
-      </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>45772</v>
       </c>
@@ -37366,11 +37365,8 @@
       <c r="P262">
         <v>0.1118</v>
       </c>
-      <c r="Q262">
-        <v>0.1118</v>
-      </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>45775</v>
       </c>
@@ -37419,11 +37415,8 @@
       <c r="P263">
         <v>0.1124</v>
       </c>
-      <c r="Q263">
-        <v>0.1124</v>
-      </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>45776</v>
       </c>
@@ -37472,11 +37465,8 @@
       <c r="P264">
         <v>0.113</v>
       </c>
-      <c r="Q264">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>45777</v>
       </c>
@@ -37525,16 +37515,13 @@
       <c r="P265">
         <v>0.1137</v>
       </c>
-      <c r="Q265">
-        <v>0.1137</v>
-      </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>45778</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>45779</v>
       </c>
@@ -37583,11 +37570,8 @@
       <c r="P267">
         <v>0.1142</v>
       </c>
-      <c r="Q267">
-        <v>0.1142</v>
-      </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>45782</v>
       </c>
@@ -37636,11 +37620,8 @@
       <c r="P268">
         <v>0.11409999999999999</v>
       </c>
-      <c r="Q268">
-        <v>0.11409999999999999</v>
-      </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>45783</v>
       </c>
@@ -37689,11 +37670,8 @@
       <c r="P269">
         <v>0.1137</v>
       </c>
-      <c r="Q269">
-        <v>0.1137</v>
-      </c>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>45784</v>
       </c>
@@ -37742,11 +37720,8 @@
       <c r="P270">
         <v>0.11360000000000001</v>
       </c>
-      <c r="Q270">
-        <v>0.11360000000000001</v>
-      </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>45785</v>
       </c>
@@ -37795,11 +37770,8 @@
       <c r="P271">
         <v>0.1132</v>
       </c>
-      <c r="Q271">
-        <v>0.1132</v>
-      </c>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>45786</v>
       </c>
@@ -37848,11 +37820,8 @@
       <c r="P272">
         <v>0.11260000000000001</v>
       </c>
-      <c r="Q272">
-        <v>0.11260000000000001</v>
-      </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>45789</v>
       </c>
@@ -37901,11 +37870,8 @@
       <c r="P273">
         <v>0.1125</v>
       </c>
-      <c r="Q273">
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>45790</v>
       </c>
@@ -37954,11 +37920,8 @@
       <c r="P274">
         <v>0.11119999999999999</v>
       </c>
-      <c r="Q274">
-        <v>0.11119999999999999</v>
-      </c>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>45791</v>
       </c>
@@ -38007,11 +37970,8 @@
       <c r="P275">
         <v>0.1105</v>
       </c>
-      <c r="Q275">
-        <v>0.1105</v>
-      </c>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>45792</v>
       </c>
@@ -38060,11 +38020,8 @@
       <c r="P276">
         <v>0.1094</v>
       </c>
-      <c r="Q276">
-        <v>0.1094</v>
-      </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>45793</v>
       </c>
@@ -38113,11 +38070,8 @@
       <c r="P277">
         <v>0.1086</v>
       </c>
-      <c r="Q277">
-        <v>0.1086</v>
-      </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>45796</v>
       </c>
@@ -38166,11 +38120,8 @@
       <c r="P278">
         <v>0.1084</v>
       </c>
-      <c r="Q278">
-        <v>0.1084</v>
-      </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>45797</v>
       </c>
@@ -38219,11 +38170,8 @@
       <c r="P279">
         <v>0.1085</v>
       </c>
-      <c r="Q279">
-        <v>0.1085</v>
-      </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>45798</v>
       </c>
@@ -38272,8 +38220,55 @@
       <c r="P280">
         <v>0.1086</v>
       </c>
-      <c r="Q280">
-        <v>0.1086</v>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B281">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="C281">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D281">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E281">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F281">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="G281">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="H281">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="I281">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="J281">
+        <v>0.1118</v>
+      </c>
+      <c r="K281">
+        <v>0.1195</v>
+      </c>
+      <c r="L281">
+        <v>0.1193</v>
+      </c>
+      <c r="M281">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="N281">
+        <v>0.1129</v>
+      </c>
+      <c r="O281">
+        <v>0.1114</v>
+      </c>
+      <c r="P281">
+        <v>0.1087</v>
       </c>
     </row>
   </sheetData>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1979202C-98AE-44D1-BDBE-460FBD1D9590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C7CE5-E8FB-452C-B4D1-CEC6866FE014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="15195" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID047c59c0657b4ec09a6e03e5b4312eef" localSheetId="2" hidden="1">Planilha2!$F$4:$F$281</definedName>
-    <definedName name="_ECO_RANGE_ID0721008c7acd4fd4a08ff4cdaac7eb1f" localSheetId="1" hidden="1">Planilha1!$G$4:$G$281</definedName>
-    <definedName name="_ECO_RANGE_ID1cd7f292a2c443c794cdab90e6938602" localSheetId="0" hidden="1">Plan1!$N$4:$N$281</definedName>
-    <definedName name="_ECO_RANGE_ID219caaf9bedb46d29b9514bc60136a95" localSheetId="1" hidden="1">Planilha1!$J$4:$J$281</definedName>
-    <definedName name="_ECO_RANGE_ID23a794e4628c43e5b8dd8e10a794496b" localSheetId="1" hidden="1">Planilha1!$C$4:$C$281</definedName>
-    <definedName name="_ECO_RANGE_ID23fb29f0c0804854a69e0daeed9d540f" localSheetId="2" hidden="1">Planilha2!$D$4:$D$281</definedName>
-    <definedName name="_ECO_RANGE_ID265577219dd248b7a510bec1d3e6f492" localSheetId="2" hidden="1">Planilha2!$A$4:$B$281</definedName>
-    <definedName name="_ECO_RANGE_ID299b5bb9186248cdab3c24deaa2a9a01" localSheetId="0" hidden="1">Plan1!$J$4:$J$281</definedName>
-    <definedName name="_ECO_RANGE_ID2fbf747c38354a26858e059c2128bcab" localSheetId="0" hidden="1">Plan1!$F$4:$F$281</definedName>
-    <definedName name="_ECO_RANGE_ID3724beb2e8a84d3cae74507ce660e6da" localSheetId="2" hidden="1">Planilha2!$C$4:$C$281</definedName>
-    <definedName name="_ECO_RANGE_ID3b1edd6cee304180b6ad8a450e0bbad4" localSheetId="0" hidden="1">Plan1!$D$4:$D$281</definedName>
-    <definedName name="_ECO_RANGE_ID3c9016e53f3a4151a42136e2f642342c" localSheetId="1" hidden="1">Planilha1!$E$4:$E$281</definedName>
-    <definedName name="_ECO_RANGE_ID49cea13e3c96490096666b454462a7a3" localSheetId="1" hidden="1">Planilha1!$N$4:$N$281</definedName>
-    <definedName name="_ECO_RANGE_ID4a4eaadb1b66422785834a8c1b000ecb" localSheetId="1" hidden="1">Planilha1!$L$4:$L$281</definedName>
-    <definedName name="_ECO_RANGE_ID5247178e2c0048b1a8ac854e0c1c2b30" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID534e4c9083104e609b70ebcd02d169b4" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID6a0c8efb5c75440ab7e59335512ce017" localSheetId="0" hidden="1">Plan1!$M$4:$M$281</definedName>
-    <definedName name="_ECO_RANGE_ID7e5c8a73aba84bf692be0d479359c4eb" localSheetId="0" hidden="1">Plan1!$A$4:$B$281</definedName>
-    <definedName name="_ECO_RANGE_ID8610e3cd2b974ce5af813171bd722d84" localSheetId="2" hidden="1">Planilha2!$O$4:$O$281</definedName>
-    <definedName name="_ECO_RANGE_ID89227c2b9bf14f3b8619ba74af3ae5e8" localSheetId="2" hidden="1">Planilha2!$G$4:$G$281</definedName>
-    <definedName name="_ECO_RANGE_ID8bf571cfdea44b22b3159f2fb54cc728" localSheetId="1" hidden="1">Planilha1!$I$4:$I$281</definedName>
-    <definedName name="_ECO_RANGE_ID933ee9c010d5446a9cfbdf40844fa184" localSheetId="1" hidden="1">Planilha1!$K$4:$K$281</definedName>
-    <definedName name="_ECO_RANGE_ID9fc2a85cd1344aeda449c7f4d2a67ae0" localSheetId="0" hidden="1">Plan1!$C$4:$C$281</definedName>
-    <definedName name="_ECO_RANGE_IDa0fee09a4cd2429b99ff97f07ff645c9" localSheetId="2" hidden="1">Planilha2!$K$4:$K$281</definedName>
-    <definedName name="_ECO_RANGE_IDa1e33c365bd745e5ac28e15fd6d033ba" localSheetId="1" hidden="1">Planilha1!$D$4:$D$281</definedName>
-    <definedName name="_ECO_RANGE_IDa5775233bfc64c75a75ba4b03944b856" localSheetId="0" hidden="1">Plan1!$L$4:$L$281</definedName>
-    <definedName name="_ECO_RANGE_IDab1c9f2795e14df584c71d16a3f2452e" localSheetId="1" hidden="1">Planilha1!$M$4:$M$281</definedName>
-    <definedName name="_ECO_RANGE_IDb760d08dcd574bb58c4c114a9ab23c0b" localSheetId="1" hidden="1">Planilha1!$O$4:$O$281</definedName>
-    <definedName name="_ECO_RANGE_IDc4dbd5d1015c43afba78371b4811d14a" localSheetId="2" hidden="1">Planilha2!$J$4:$J$281</definedName>
-    <definedName name="_ECO_RANGE_IDc5d5730cf26749aeafef3ad106c728d3" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDcc6be6e0e2bf4dbfb12c724666b37627" localSheetId="1" hidden="1">Planilha1!$F$4:$F$281</definedName>
-    <definedName name="_ECO_RANGE_IDccd8f25745bc424385e58c27b7742981" localSheetId="2" hidden="1">Planilha2!$E$4:$E$281</definedName>
-    <definedName name="_ECO_RANGE_IDd1bea7c409e54b2aa6653749ca2c29c7" localSheetId="2" hidden="1">Planilha2!$M$4:$M$281</definedName>
-    <definedName name="_ECO_RANGE_IDd56476d0d82c4bf98ac2522c61b62504" localSheetId="2" hidden="1">Planilha2!$L$4:$L$281</definedName>
-    <definedName name="_ECO_RANGE_IDd75d9cb9f8fd4b129f7cbc48148f3c6e" localSheetId="0" hidden="1">Plan1!$I$4:$I$281</definedName>
-    <definedName name="_ECO_RANGE_IDdbfbb7cbba714bc5b2f67f96c4fe8610" localSheetId="0" hidden="1">Plan1!$K$4:$K$281</definedName>
-    <definedName name="_ECO_RANGE_IDe4a9e8a6a9674b1191ad33f0e3de31ed" localSheetId="2" hidden="1">Planilha2!$I$4:$I$281</definedName>
-    <definedName name="_ECO_RANGE_IDe918ca8587724e0486ce5e054bd66867" localSheetId="0" hidden="1">Plan1!$E$4:$E$281</definedName>
-    <definedName name="_ECO_RANGE_IDeaf1759fba314fa78e7e54a11b200cb6" localSheetId="2" hidden="1">Planilha2!$P$4:$P$281</definedName>
-    <definedName name="_ECO_RANGE_IDedc1b1714023493fbb88fc9de2b828de" localSheetId="0" hidden="1">Plan1!$O$4:$O$281</definedName>
-    <definedName name="_ECO_RANGE_IDf19cfc585b0b4eff8400602c6acbd1bc" localSheetId="2" hidden="1">Planilha2!$H$4:$H$281</definedName>
-    <definedName name="_ECO_RANGE_IDf3de2af9370e4967adab9c286e8092c9" localSheetId="0" hidden="1">Plan1!$H$4:$H$281</definedName>
-    <definedName name="_ECO_RANGE_IDf9245a9e4a88490fa7ea9a45c4704feb" localSheetId="2" hidden="1">Planilha2!$N$4:$N$281</definedName>
-    <definedName name="_ECO_RANGE_IDf9f53f2754fc416d9b83986e58c7d3e8" localSheetId="1" hidden="1">Planilha1!$H$4:$H$281</definedName>
-    <definedName name="_ECO_RANGE_IDfd654ea549a7485191b70dc97a828741" localSheetId="1" hidden="1">Planilha1!$A$4:$B$281</definedName>
-    <definedName name="_ECO_RANGE_IDfed268c9060a439dab3d7ad1ca804ff5" localSheetId="0" hidden="1">Plan1!$G$4:$G$281</definedName>
+    <definedName name="_ECO_RANGE_ID01917058fccf47ccb5f0c57107d602f7" localSheetId="0" hidden="1">Plan1!$N$4:$N$288</definedName>
+    <definedName name="_ECO_RANGE_ID09f953b0050c4d1e97af4430ee9945f5" localSheetId="1" hidden="1">Planilha1!$L$4:$L$288</definedName>
+    <definedName name="_ECO_RANGE_ID0a2510b6adde4d1dba91ace864313d39" localSheetId="0" hidden="1">Plan1!$M$4:$M$288</definedName>
+    <definedName name="_ECO_RANGE_ID118876a1144d410cbfa80642a6056fc1" localSheetId="1" hidden="1">Planilha1!$C$4:$C$288</definedName>
+    <definedName name="_ECO_RANGE_ID1e2924e928a94c3c9889bc9e993501cc" localSheetId="2" hidden="1">Planilha2!$G$4:$G$288</definedName>
+    <definedName name="_ECO_RANGE_ID203bb86afa1d4f919b7f14973fed3ec0" localSheetId="1" hidden="1">Planilha1!$M$4:$M$288</definedName>
+    <definedName name="_ECO_RANGE_ID24f09f1687b04a7bb8b5dded9e518d91" localSheetId="1" hidden="1">Planilha1!$O$4:$O$288</definedName>
+    <definedName name="_ECO_RANGE_ID263379a8d2bb40848eaebfd9dbefaa99" localSheetId="0" hidden="1">Plan1!$A$4:$B$288</definedName>
+    <definedName name="_ECO_RANGE_ID2d9da02cabf74e5f92a6cc42dd62d2cb" localSheetId="1" hidden="1">Planilha1!$G$4:$G$288</definedName>
+    <definedName name="_ECO_RANGE_ID39adfdb0c8e041f8b6113302338d8048" localSheetId="2" hidden="1">Planilha2!$K$4:$K$288</definedName>
+    <definedName name="_ECO_RANGE_ID3abd77191ee34b4eb3ee9b63186a30bf" localSheetId="2" hidden="1">Planilha2!$N$4:$N$288</definedName>
+    <definedName name="_ECO_RANGE_ID41ac3047933b43ec92e6e9402e4bffae" localSheetId="0" hidden="1">Plan1!$I$4:$I$288</definedName>
+    <definedName name="_ECO_RANGE_ID44cf110bdd5c454d8a855f0a848fa7f3" localSheetId="2" hidden="1">Planilha2!$J$4:$J$288</definedName>
+    <definedName name="_ECO_RANGE_ID4776a4b6ecfa4e0aa1acaddf8aa0561a" localSheetId="0" hidden="1">Plan1!$C$4:$C$288</definedName>
+    <definedName name="_ECO_RANGE_ID4f791fa58abb4951b115f23373955038" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID50c36555bf514370b1f853bd60011745" localSheetId="2" hidden="1">Planilha2!$I$4:$I$288</definedName>
+    <definedName name="_ECO_RANGE_ID68a1e18ec46e4e398ca14677cf960f96" localSheetId="1" hidden="1">Planilha1!$I$4:$I$288</definedName>
+    <definedName name="_ECO_RANGE_ID6d34b00fca7047e6aad7f561f1a747e3" localSheetId="1" hidden="1">Planilha1!$H$4:$H$288</definedName>
+    <definedName name="_ECO_RANGE_ID6fd69a25aee64e289398bc346c42af2b" localSheetId="2" hidden="1">Planilha2!$M$4:$M$288</definedName>
+    <definedName name="_ECO_RANGE_ID71eb3a6088954cdca5299343e911da00" localSheetId="1" hidden="1">Planilha1!$K$4:$K$288</definedName>
+    <definedName name="_ECO_RANGE_ID78442332404e4257b783a4aedf7194b3" localSheetId="1" hidden="1">Planilha1!$D$4:$D$288</definedName>
+    <definedName name="_ECO_RANGE_ID7d44a08258554b5b8f622f72f9bea7e7" localSheetId="0" hidden="1">Plan1!$J$4:$J$288</definedName>
+    <definedName name="_ECO_RANGE_ID8056fb3eba8d4f69a005906405f8a569" localSheetId="1" hidden="1">Planilha1!$E$4:$E$288</definedName>
+    <definedName name="_ECO_RANGE_ID8314b574e571460a89865c325d3becf4" localSheetId="2" hidden="1">Planilha2!$A$4:$B$288</definedName>
+    <definedName name="_ECO_RANGE_ID83ce4fdc1a1641599ce39005942ec03a" localSheetId="0" hidden="1">Plan1!$D$4:$D$288</definedName>
+    <definedName name="_ECO_RANGE_ID87373061e5db4204a47858882521394d" localSheetId="0" hidden="1">Plan1!$O$4:$O$288</definedName>
+    <definedName name="_ECO_RANGE_ID8780724db2d84c32a4837beab3e35af1" localSheetId="2" hidden="1">Planilha2!$C$4:$C$288</definedName>
+    <definedName name="_ECO_RANGE_ID8a50bb8de13f4f9292e3ff136401276f" localSheetId="2" hidden="1">Planilha2!$F$4:$F$288</definedName>
+    <definedName name="_ECO_RANGE_ID8d733f647aee4509b9ec7c3f575033fa" localSheetId="0" hidden="1">Plan1!$E$4:$E$288</definedName>
+    <definedName name="_ECO_RANGE_ID94de6796f1e34805900065e53901bb9c" localSheetId="2" hidden="1">Planilha2!$P$4:$P$288</definedName>
+    <definedName name="_ECO_RANGE_ID971cec915ce045aa9f618f2396ed4874" localSheetId="0" hidden="1">Plan1!$K$4:$K$288</definedName>
+    <definedName name="_ECO_RANGE_ID9ae4d3a7fdf947cd89948b87fd9ad969" localSheetId="1" hidden="1">Planilha1!$A$4:$B$288</definedName>
+    <definedName name="_ECO_RANGE_ID9ae62ec53d2448fa8a24eb223d3ea976" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDa9048ace28f74b88ae128e82a538cc77" localSheetId="0" hidden="1">Plan1!$L$4:$L$288</definedName>
+    <definedName name="_ECO_RANGE_IDb7b725cfb5af49ea80ea88786d534825" localSheetId="1" hidden="1">Planilha1!$J$4:$J$288</definedName>
+    <definedName name="_ECO_RANGE_IDb87268e6aa684fb884908ff383ab3817" localSheetId="2" hidden="1">Planilha2!$H$4:$H$288</definedName>
+    <definedName name="_ECO_RANGE_IDc91cdf8d60e34b2aa54a8ed3de69fabc" localSheetId="1" hidden="1">Planilha1!$F$4:$F$288</definedName>
+    <definedName name="_ECO_RANGE_IDd028f935346645d2b0f7d3cbd8b16679" localSheetId="0" hidden="1">Plan1!$F$4:$F$288</definedName>
+    <definedName name="_ECO_RANGE_IDda551add247f4458bd5679147dd1bf6e" localSheetId="0" hidden="1">Plan1!$H$4:$H$288</definedName>
+    <definedName name="_ECO_RANGE_IDe32eafda452f4ef6893ce9f9cfb24627" localSheetId="0" hidden="1">Plan1!$G$4:$G$288</definedName>
+    <definedName name="_ECO_RANGE_IDf193c1ed00b04878ae383b4c2cadc6e7" localSheetId="1" hidden="1">Planilha1!$N$4:$N$288</definedName>
+    <definedName name="_ECO_RANGE_IDf2a9d006fb3b4f0d872520735fdc3e66" localSheetId="2" hidden="1">Planilha2!$D$4:$D$288</definedName>
+    <definedName name="_ECO_RANGE_IDf330049f2cbe426081852ff33f045e8f" localSheetId="2" hidden="1">Planilha2!$O$4:$O$288</definedName>
+    <definedName name="_ECO_RANGE_IDf48c55f31af149bea016a704f4f796a1" localSheetId="2" hidden="1">Planilha2!$L$4:$L$288</definedName>
+    <definedName name="_ECO_RANGE_IDf5feaa4e136f4541b22c0a1ca5994e83" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDffa5ff379227448092a1ae037531e60b" localSheetId="2" hidden="1">Planilha2!$E$4:$E$288</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -275,296 +275,298 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f9c4172a-2e5b-4029-a728-a669330487e8</stp>
-        <tr r="F3" s="2"/>
+        <stp>d3ce65eb-0ad2-4e03-b075-bf181058ef54</stp>
+        <tr r="D3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>1c580e21-25c9-4248-b477-f896d3cbd53c</stp>
+        <stp>da0cae31-db6c-48d8-9863-a552fac148fa</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c1ce1fc2-3e88-43b7-b369-e3e892176e01</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ab4aa2aa-3bc2-440c-81a0-c2db615dcef5</stp>
         <tr r="K3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>22b040fb-b2b1-49b6-afc1-4a9425366de9</stp>
+        <stp>337bcac2-5bcd-4690-9add-756717d6568b</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>36254312-741e-455c-8523-e2655de17396</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a4f2d051-9f4b-4d7a-b6e7-1fc49c9dc93d</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>27eca80c-bb45-4904-b8f0-aa6278fd1cb5</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>18ed087d-c12b-4017-8460-0f900743c6f6</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>afdc3679-55c3-4aa5-99a8-738f4d219bee</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3d391744-b05f-450e-a70c-2890113abf88</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>14b72682-c369-40dc-9174-d8ff905066c1</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>837eb0af-8356-493d-800d-22b6ee6bb2ff</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a1be32fb-4bd1-4f1a-92ac-2a2d787befaa</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a75b912d-6ee7-423a-b098-be8b3101e45d</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a7768c4c-abb6-43a0-8e82-f2deffa74f30</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9cb0b8cf-3891-4aeb-b5f5-bd6164850222</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5b4398bb-e1fc-4795-9a12-b7267080f162</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c724a0ad-4508-4d8a-be84-e7a27a7cf118</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a0119662-9d85-4240-9ee3-70f5d0ea4f2f</stp>
         <tr r="E3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0515bf4d-49b4-4a35-8d3b-43446d707357</stp>
+        <stp>04c14b5c-d6b8-4ce0-9895-a7b744ce44f4</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>169decce-9cf1-4a7d-ba30-d283458b1021</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b80cee9d-cd16-44d3-8ab7-8b23b5a8e457</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ad107fb3-9a7e-4d7f-8a91-2f255d7b5531</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>00b53621-51a4-4465-a6fd-8ca7659f6ec2</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c511b765-427b-447d-93e6-127e1f0881d4</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9b9916e6-d17c-46d1-b5d4-84c58d94beb0</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7f202c7e-8f74-473c-9de7-e80a6ee5062b</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>82e90f21-bfbc-4185-83dd-ce6be3ff8fcf</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>18e24445-8c62-4ff0-8c85-95c348618fa5</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>63e23288-67bd-4242-9bcd-06c5e2cb1561</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>355b18b4-e91b-44b1-8d3e-8954808696fe</stp>
         <tr r="A3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>113a3051-1f84-4389-b8a5-05b75ada79d5</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a24548a7-f505-44d7-a4d0-8611999725ac</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>45a8bae8-25ea-484b-aacf-4a072fd98fc0</stp>
-        <tr r="N3" s="1"/>
+        <stp>afdaf08d-4887-4d41-83f0-6533dd66e187</stp>
+        <tr r="A3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>5d852ea2-b47b-4475-a42c-621f029ffe90</stp>
-        <tr r="M3" s="2"/>
+        <stp>f5114406-4666-47c4-bb51-c7ecf69a8a45</stp>
+        <tr r="L3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>5339514a-d350-4ef9-85be-73ed06218876</stp>
-        <tr r="M3" s="1"/>
+        <stp>a87225f1-dd58-440b-b07f-12fd687fab5f</stp>
+        <tr r="H3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>72ce16f4-40d4-44d5-8331-2134f0914733</stp>
-        <tr r="P3" s="3"/>
+        <stp>5a6125d4-a2e6-43f6-8fdf-790e0418c0f5</stp>
+        <tr r="A3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>8e60c5b2-5513-4b04-9b7a-944cfb19a3f6</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>92a254cd-3b78-4d6b-8ca5-d0048d55ea33</stp>
+        <stp>1f4c5c34-c302-45f1-ad88-08d6d870067f</stp>
         <tr r="N3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>153d760b-7e7d-49a0-957d-c169a230b3e2</stp>
-        <tr r="K3" s="2"/>
+        <stp>24a63abc-9994-401a-af0e-ab42159fa3a6</stp>
+        <tr r="J3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>38489986-6a8a-4b9d-b1d0-cf64b677cd30</stp>
-        <tr r="M3" s="3"/>
+        <stp>783fbe25-6bdd-4191-91a3-667b8be1d697</stp>
+        <tr r="K3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0b7f0a09-c55f-4a76-9c99-0abe34900836</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6a49f3cb-af56-45b8-a9c1-a5dd3f308718</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5cd7d9c5-1785-42a4-abbe-ce0bc010adb7</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2408a2b8-2a42-410f-a1f2-d95db4f06652</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b298c042-50ff-4726-949e-cd82ce3696da</stp>
-        <tr r="F3" s="3"/>
+        <stp>8c13558e-9bb1-40e7-a23a-5f7091c25d16</stp>
+        <tr r="G3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>591290b9-238d-4adf-a2a5-2d60d6cb2a5a</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5254e483-6773-4fc9-a936-1b22bb7ca594</stp>
+        <stp>d94f6c0a-fd38-4242-a907-f1c7b62dcfb0</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>96e2a824-3dd7-4651-b6c1-e3aa0c27c0a2</stp>
-        <tr r="G3" s="3"/>
+        <stp>133fc84d-3da3-4582-b4a5-9ef84d9825a2</stp>
+        <tr r="L3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>549406cb-390d-45f5-b38f-90ada02f5259</stp>
+        <stp>2f7f04c7-0430-4b36-9437-de3419ee8d29</stp>
         <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c1ca0386-6605-4757-a276-ead0dbb9b916</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>afdaf828-b7cf-496d-b3e6-bdbd9a7e80d9</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>162583da-a95c-41a2-b1a5-c41ee225098a</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>85de079c-00ec-4038-91c5-5f7ff0f597dd</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f80326a3-12d0-40af-aa93-7a3ec6528b36</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>23f605f8-08c4-4ff3-a42b-4535ffc25150</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f38c5b27-c569-4d4e-a82f-d3b61c10eada</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e26b9a8a-3cf3-4a2b-9dd7-8c5e90423ad0</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bfe80bd0-7485-4f21-9abd-4820e9c560d5</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a835fbe0-29ee-4d37-81db-6c2df9b4e011</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d3afbb38-36f5-4551-9132-16cbfba4fefe</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>74abfe97-e932-4198-90aa-19ac7fb1db8d</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e650bc2d-cc54-49f3-b856-e1c2e1746c3d</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0476949e-87ba-46cc-b391-3350ff056d36</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>12b800d8-fd08-4056-822f-5134c0abf341</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>26a5cd25-8d88-466e-b845-d4081d4a29f0</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ed1fdf3c-4b5a-4282-aca8-476c23e753a4</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fc35e440-0c8c-4cb5-a5ba-b54bf4341c49</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>eb5574fd-4676-468f-b795-57feeacec779</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ba46d1add9954d96a0a89fc4da069507">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c449c66c-f595-4b59-9cf1-8ec657f6e1bb</stp>
-        <tr r="O3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O281"/>
+  <dimension ref="A1:O288"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="G279" sqref="G279"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13586,6 +13588,314 @@
         <v>7.0876999999999999</v>
       </c>
     </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>45800</v>
+      </c>
+      <c r="C282">
+        <v>9.1796000000000006</v>
+      </c>
+      <c r="D282">
+        <v>8.17</v>
+      </c>
+      <c r="E282">
+        <v>7.7248000000000001</v>
+      </c>
+      <c r="F282">
+        <v>7.4790000000000001</v>
+      </c>
+      <c r="G282">
+        <v>7.4539</v>
+      </c>
+      <c r="H282">
+        <v>7.4154</v>
+      </c>
+      <c r="I282">
+        <v>7.3216000000000001</v>
+      </c>
+      <c r="J282">
+        <v>7.2526999999999999</v>
+      </c>
+      <c r="K282">
+        <v>7.1307999999999998</v>
+      </c>
+      <c r="L282">
+        <v>7.14</v>
+      </c>
+      <c r="M282">
+        <v>7.0721999999999996</v>
+      </c>
+      <c r="N282">
+        <v>7.0627000000000004</v>
+      </c>
+      <c r="O282">
+        <v>7.0891999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>45803</v>
+      </c>
+      <c r="C283">
+        <v>9.2257999999999996</v>
+      </c>
+      <c r="D283">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="E283">
+        <v>7.7633999999999999</v>
+      </c>
+      <c r="F283">
+        <v>7.5</v>
+      </c>
+      <c r="G283">
+        <v>7.4623999999999997</v>
+      </c>
+      <c r="H283">
+        <v>7.4036999999999997</v>
+      </c>
+      <c r="I283">
+        <v>7.3037000000000001</v>
+      </c>
+      <c r="J283">
+        <v>7.234</v>
+      </c>
+      <c r="K283">
+        <v>7.1256000000000004</v>
+      </c>
+      <c r="L283">
+        <v>7.1375000000000002</v>
+      </c>
+      <c r="M283">
+        <v>7.0602</v>
+      </c>
+      <c r="N283">
+        <v>7.0511999999999997</v>
+      </c>
+      <c r="O283">
+        <v>7.0759999999999996</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>45804</v>
+      </c>
+      <c r="C284">
+        <v>9.2414000000000005</v>
+      </c>
+      <c r="D284">
+        <v>8.1852</v>
+      </c>
+      <c r="E284">
+        <v>7.6909999999999998</v>
+      </c>
+      <c r="F284">
+        <v>7.4290000000000003</v>
+      </c>
+      <c r="G284">
+        <v>7.3929</v>
+      </c>
+      <c r="H284">
+        <v>7.3193000000000001</v>
+      </c>
+      <c r="I284">
+        <v>7.2320000000000002</v>
+      </c>
+      <c r="J284">
+        <v>7.16</v>
+      </c>
+      <c r="K284">
+        <v>7.07</v>
+      </c>
+      <c r="L284">
+        <v>7.085</v>
+      </c>
+      <c r="M284">
+        <v>7.0236999999999998</v>
+      </c>
+      <c r="N284">
+        <v>7.0148000000000001</v>
+      </c>
+      <c r="O284">
+        <v>7.0393999999999997</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>45805</v>
+      </c>
+      <c r="C285">
+        <v>9.27</v>
+      </c>
+      <c r="D285">
+        <v>8.23</v>
+      </c>
+      <c r="E285">
+        <v>7.73</v>
+      </c>
+      <c r="F285">
+        <v>7.4638</v>
+      </c>
+      <c r="G285">
+        <v>7.42</v>
+      </c>
+      <c r="H285">
+        <v>7.3517999999999999</v>
+      </c>
+      <c r="I285">
+        <v>7.29</v>
+      </c>
+      <c r="J285">
+        <v>7.21</v>
+      </c>
+      <c r="K285">
+        <v>7.1188000000000002</v>
+      </c>
+      <c r="L285">
+        <v>7.12</v>
+      </c>
+      <c r="M285">
+        <v>7.0633999999999997</v>
+      </c>
+      <c r="N285">
+        <v>7.0517000000000003</v>
+      </c>
+      <c r="O285">
+        <v>7.0735999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>45806</v>
+      </c>
+      <c r="C286">
+        <v>9.2825000000000006</v>
+      </c>
+      <c r="D286">
+        <v>8.2568000000000001</v>
+      </c>
+      <c r="E286">
+        <v>7.7375999999999996</v>
+      </c>
+      <c r="F286">
+        <v>7.4762000000000004</v>
+      </c>
+      <c r="G286">
+        <v>7.4391999999999996</v>
+      </c>
+      <c r="H286">
+        <v>7.3731999999999998</v>
+      </c>
+      <c r="I286">
+        <v>7.3151999999999999</v>
+      </c>
+      <c r="J286">
+        <v>7.2259000000000002</v>
+      </c>
+      <c r="K286">
+        <v>7.1230000000000002</v>
+      </c>
+      <c r="L286">
+        <v>7.1241000000000003</v>
+      </c>
+      <c r="M286">
+        <v>7.06</v>
+      </c>
+      <c r="N286">
+        <v>7.0545999999999998</v>
+      </c>
+      <c r="O286">
+        <v>7.077</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>45807</v>
+      </c>
+      <c r="C287">
+        <v>9.36</v>
+      </c>
+      <c r="D287">
+        <v>8.3437000000000001</v>
+      </c>
+      <c r="E287">
+        <v>7.7952000000000004</v>
+      </c>
+      <c r="F287">
+        <v>7.5529999999999999</v>
+      </c>
+      <c r="G287">
+        <v>7.51</v>
+      </c>
+      <c r="H287">
+        <v>7.44</v>
+      </c>
+      <c r="I287">
+        <v>7.3746</v>
+      </c>
+      <c r="J287">
+        <v>7.2763</v>
+      </c>
+      <c r="K287">
+        <v>7.16</v>
+      </c>
+      <c r="L287">
+        <v>7.1699000000000002</v>
+      </c>
+      <c r="M287">
+        <v>7.1097999999999999</v>
+      </c>
+      <c r="N287">
+        <v>7.0964</v>
+      </c>
+      <c r="O287">
+        <v>7.1158999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>45810</v>
+      </c>
+      <c r="C288">
+        <v>9.41</v>
+      </c>
+      <c r="D288">
+        <v>8.39</v>
+      </c>
+      <c r="E288">
+        <v>7.8555999999999999</v>
+      </c>
+      <c r="F288">
+        <v>7.6159999999999997</v>
+      </c>
+      <c r="G288">
+        <v>7.5658000000000003</v>
+      </c>
+      <c r="H288">
+        <v>7.4825999999999997</v>
+      </c>
+      <c r="I288">
+        <v>7.42</v>
+      </c>
+      <c r="J288">
+        <v>7.3170000000000002</v>
+      </c>
+      <c r="K288">
+        <v>7.1822999999999997</v>
+      </c>
+      <c r="L288">
+        <v>7.19</v>
+      </c>
+      <c r="M288">
+        <v>7.1374000000000004</v>
+      </c>
+      <c r="N288">
+        <v>7.1273999999999997</v>
+      </c>
+      <c r="O288">
+        <v>7.15</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Economatica Excel Add-In" prompt="45045: You are not logged in Economatica" sqref="G3" xr:uid="{6C00A70D-7942-40C6-87A1-4313FAC35B9C}"/>
@@ -13596,10 +13906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O281"/>
+  <dimension ref="A1:O288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="A275" sqref="A275"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26348,6 +26658,314 @@
         <v>3980.2803090000002</v>
       </c>
     </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>45800</v>
+      </c>
+      <c r="C282">
+        <v>4423.0776640000004</v>
+      </c>
+      <c r="D282">
+        <v>4349.8879639999996</v>
+      </c>
+      <c r="E282">
+        <v>4373.6800300000004</v>
+      </c>
+      <c r="F282">
+        <v>4305.2812240000003</v>
+      </c>
+      <c r="G282">
+        <v>4319.590749</v>
+      </c>
+      <c r="H282">
+        <v>4248.4536449999996</v>
+      </c>
+      <c r="I282">
+        <v>4180.6864070000001</v>
+      </c>
+      <c r="J282">
+        <v>4143.4735229999997</v>
+      </c>
+      <c r="K282">
+        <v>4138.7999200000004</v>
+      </c>
+      <c r="L282">
+        <v>4003.5631840000001</v>
+      </c>
+      <c r="M282">
+        <v>4047.8451169999998</v>
+      </c>
+      <c r="N282">
+        <v>3954.797118</v>
+      </c>
+      <c r="O282">
+        <v>3981.2688360000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>45803</v>
+      </c>
+      <c r="C283">
+        <v>4423.1434419999996</v>
+      </c>
+      <c r="D283">
+        <v>4348.1953270000004</v>
+      </c>
+      <c r="E283">
+        <v>4371.1341160000002</v>
+      </c>
+      <c r="F283">
+        <v>4304.2443560000002</v>
+      </c>
+      <c r="G283">
+        <v>4320.0316929999999</v>
+      </c>
+      <c r="H283">
+        <v>4253.0607179999997</v>
+      </c>
+      <c r="I283">
+        <v>4186.9966469999999</v>
+      </c>
+      <c r="J283">
+        <v>4150.7475860000004</v>
+      </c>
+      <c r="K283">
+        <v>4142.5809440000003</v>
+      </c>
+      <c r="L283">
+        <v>4006.3920400000002</v>
+      </c>
+      <c r="M283">
+        <v>4055.2429959999999</v>
+      </c>
+      <c r="N283">
+        <v>3962.1929110000001</v>
+      </c>
+      <c r="O283">
+        <v>3989.7023119999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>45804</v>
+      </c>
+      <c r="C284">
+        <v>4424.6847740000003</v>
+      </c>
+      <c r="D284">
+        <v>4352.9145660000004</v>
+      </c>
+      <c r="E284">
+        <v>4381.7417850000002</v>
+      </c>
+      <c r="F284">
+        <v>4316.3299909999996</v>
+      </c>
+      <c r="G284">
+        <v>4334.4259750000001</v>
+      </c>
+      <c r="H284">
+        <v>4274.4159010000003</v>
+      </c>
+      <c r="I284">
+        <v>4206.7116480000004</v>
+      </c>
+      <c r="J284">
+        <v>4174.156927</v>
+      </c>
+      <c r="K284">
+        <v>4165.4022610000002</v>
+      </c>
+      <c r="L284">
+        <v>4030.584922</v>
+      </c>
+      <c r="M284">
+        <v>4074.1867670000001</v>
+      </c>
+      <c r="N284">
+        <v>3981.9243240000001</v>
+      </c>
+      <c r="O284">
+        <v>4010.0836610000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>45805</v>
+      </c>
+      <c r="C285">
+        <v>4425.0759900000003</v>
+      </c>
+      <c r="D285">
+        <v>4351.0956930000002</v>
+      </c>
+      <c r="E285">
+        <v>4378.6109660000002</v>
+      </c>
+      <c r="F285">
+        <v>4312.7900280000003</v>
+      </c>
+      <c r="G285">
+        <v>4330.9996600000004</v>
+      </c>
+      <c r="H285">
+        <v>4268.3152019999998</v>
+      </c>
+      <c r="I285">
+        <v>4193.6354019999999</v>
+      </c>
+      <c r="J285">
+        <v>4160.9122189999998</v>
+      </c>
+      <c r="K285">
+        <v>4148.2895820000003</v>
+      </c>
+      <c r="L285">
+        <v>4016.8959169999998</v>
+      </c>
+      <c r="M285">
+        <v>4056.803668</v>
+      </c>
+      <c r="N285">
+        <v>3964.9341559999998</v>
+      </c>
+      <c r="O285">
+        <v>3993.9386930000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>45806</v>
+      </c>
+      <c r="C286">
+        <v>4426.7201580000001</v>
+      </c>
+      <c r="D286">
+        <v>4351.1215990000001</v>
+      </c>
+      <c r="E286">
+        <v>4379.683763</v>
+      </c>
+      <c r="F286">
+        <v>4312.9228640000001</v>
+      </c>
+      <c r="G286">
+        <v>4329.4652679999999</v>
+      </c>
+      <c r="H286">
+        <v>4265.2500490000002</v>
+      </c>
+      <c r="I286">
+        <v>4189.2046419999997</v>
+      </c>
+      <c r="J286">
+        <v>4158.0787440000004</v>
+      </c>
+      <c r="K286">
+        <v>4148.478282</v>
+      </c>
+      <c r="L286">
+        <v>4016.8657440000002</v>
+      </c>
+      <c r="M286">
+        <v>4060.1242430000002</v>
+      </c>
+      <c r="N286">
+        <v>3965.189351</v>
+      </c>
+      <c r="O286">
+        <v>3993.9140050000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>45807</v>
+      </c>
+      <c r="C287">
+        <v>4425.2859680000001</v>
+      </c>
+      <c r="D287">
+        <v>4346.660183</v>
+      </c>
+      <c r="E287">
+        <v>4374.8610950000002</v>
+      </c>
+      <c r="F287">
+        <v>4303.91867</v>
+      </c>
+      <c r="G287">
+        <v>4318.7481879999996</v>
+      </c>
+      <c r="H287">
+        <v>4251.7919009999996</v>
+      </c>
+      <c r="I287">
+        <v>4176.3441929999999</v>
+      </c>
+      <c r="J287">
+        <v>4145.2631499999998</v>
+      </c>
+      <c r="K287">
+        <v>4136.3654390000002</v>
+      </c>
+      <c r="L287">
+        <v>3999.125818</v>
+      </c>
+      <c r="M287">
+        <v>4038.6079970000001</v>
+      </c>
+      <c r="N287">
+        <v>3946.380588</v>
+      </c>
+      <c r="O287">
+        <v>3975.9764220000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>45810</v>
+      </c>
+      <c r="C288">
+        <v>4425.1831570000004</v>
+      </c>
+      <c r="D288">
+        <v>4345.2584630000001</v>
+      </c>
+      <c r="E288">
+        <v>4369.7343279999996</v>
+      </c>
+      <c r="F288">
+        <v>4296.911744</v>
+      </c>
+      <c r="G288">
+        <v>4310.7502469999999</v>
+      </c>
+      <c r="H288">
+        <v>4243.9281099999998</v>
+      </c>
+      <c r="I288">
+        <v>4166.9923520000002</v>
+      </c>
+      <c r="J288">
+        <v>4135.315047</v>
+      </c>
+      <c r="K288">
+        <v>4129.7977060000003</v>
+      </c>
+      <c r="L288">
+        <v>3992.3472790000001</v>
+      </c>
+      <c r="M288">
+        <v>4027.541776</v>
+      </c>
+      <c r="N288">
+        <v>3932.9749069999998</v>
+      </c>
+      <c r="O288">
+        <v>3960.5977339999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -26355,10 +26973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z281"/>
+  <dimension ref="A1:Z288"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38271,6 +38889,356 @@
         <v>0.1087</v>
       </c>
     </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B282">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="C282">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D282">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E282">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="F282">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="G282">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="H282">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="I282">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="J282">
+        <v>0.1118</v>
+      </c>
+      <c r="K282">
+        <v>0.1192</v>
+      </c>
+      <c r="L282">
+        <v>0.1192</v>
+      </c>
+      <c r="M282">
+        <v>0.1179</v>
+      </c>
+      <c r="N282">
+        <v>0.1125</v>
+      </c>
+      <c r="O282">
+        <v>0.1108</v>
+      </c>
+      <c r="P282">
+        <v>0.1089</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B283">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="C283">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D283">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E283">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="F283">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="G283">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="H283">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="I283">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="J283">
+        <v>0.1115</v>
+      </c>
+      <c r="K283">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L283">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="M283">
+        <v>0.1177</v>
+      </c>
+      <c r="N283">
+        <v>0.1123</v>
+      </c>
+      <c r="O283">
+        <v>0.1103</v>
+      </c>
+      <c r="P283">
+        <v>0.10920000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B284">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="C284">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D284">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E284">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="F284">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="G284">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="H284">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="I284">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="J284">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="K284">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L284">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="M284">
+        <v>0.1177</v>
+      </c>
+      <c r="N284">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="O284">
+        <v>0.1101</v>
+      </c>
+      <c r="P284">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B285">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="C285">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="D285">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E285">
+        <v>3.73E-2</v>
+      </c>
+      <c r="F285">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="G285">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H285">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="I285">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="J285">
+        <v>0.111</v>
+      </c>
+      <c r="K285">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L285">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="M285">
+        <v>0.1176</v>
+      </c>
+      <c r="N285">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="O285">
+        <v>0.11</v>
+      </c>
+      <c r="P285">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>45806</v>
+      </c>
+      <c r="B286">
+        <v>1.18E-2</v>
+      </c>
+      <c r="C286">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="D286">
+        <v>8.6E-3</v>
+      </c>
+      <c r="E286">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="F286">
+        <v>4.87E-2</v>
+      </c>
+      <c r="G286">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="H286">
+        <v>7.8E-2</v>
+      </c>
+      <c r="I286">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="J286">
+        <v>0.1116</v>
+      </c>
+      <c r="K286">
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="L286">
+        <v>0.1202</v>
+      </c>
+      <c r="M286">
+        <v>0.1181</v>
+      </c>
+      <c r="N286">
+        <v>0.1114</v>
+      </c>
+      <c r="O286">
+        <v>0.11</v>
+      </c>
+      <c r="P286">
+        <v>0.10929999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B287">
+        <v>1.38E-2</v>
+      </c>
+      <c r="C287">
+        <v>1.29E-2</v>
+      </c>
+      <c r="D287">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E287">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="F287">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="G287">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H287">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="I287">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="J287">
+        <v>0.112</v>
+      </c>
+      <c r="K287">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="L287">
+        <v>0.1205</v>
+      </c>
+      <c r="M287">
+        <v>0.1182</v>
+      </c>
+      <c r="N287">
+        <v>0.1115</v>
+      </c>
+      <c r="O287">
+        <v>0.11</v>
+      </c>
+      <c r="P287">
+        <v>0.1094</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B288">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="C288">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D288">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E288">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="F288">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="G288">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="H288">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="I288">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="J288">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="K288">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="L288">
+        <v>0.1206</v>
+      </c>
+      <c r="M288">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="N288">
+        <v>0.1115</v>
+      </c>
+      <c r="O288">
+        <v>0.11</v>
+      </c>
+      <c r="P288">
+        <v>0.10920000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C7CE5-E8FB-452C-B4D1-CEC6866FE014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB21A8-5989-4509-B2CC-0BDDEA28B053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID01917058fccf47ccb5f0c57107d602f7" localSheetId="0" hidden="1">Plan1!$N$4:$N$288</definedName>
-    <definedName name="_ECO_RANGE_ID09f953b0050c4d1e97af4430ee9945f5" localSheetId="1" hidden="1">Planilha1!$L$4:$L$288</definedName>
-    <definedName name="_ECO_RANGE_ID0a2510b6adde4d1dba91ace864313d39" localSheetId="0" hidden="1">Plan1!$M$4:$M$288</definedName>
-    <definedName name="_ECO_RANGE_ID118876a1144d410cbfa80642a6056fc1" localSheetId="1" hidden="1">Planilha1!$C$4:$C$288</definedName>
-    <definedName name="_ECO_RANGE_ID1e2924e928a94c3c9889bc9e993501cc" localSheetId="2" hidden="1">Planilha2!$G$4:$G$288</definedName>
-    <definedName name="_ECO_RANGE_ID203bb86afa1d4f919b7f14973fed3ec0" localSheetId="1" hidden="1">Planilha1!$M$4:$M$288</definedName>
-    <definedName name="_ECO_RANGE_ID24f09f1687b04a7bb8b5dded9e518d91" localSheetId="1" hidden="1">Planilha1!$O$4:$O$288</definedName>
-    <definedName name="_ECO_RANGE_ID263379a8d2bb40848eaebfd9dbefaa99" localSheetId="0" hidden="1">Plan1!$A$4:$B$288</definedName>
-    <definedName name="_ECO_RANGE_ID2d9da02cabf74e5f92a6cc42dd62d2cb" localSheetId="1" hidden="1">Planilha1!$G$4:$G$288</definedName>
-    <definedName name="_ECO_RANGE_ID39adfdb0c8e041f8b6113302338d8048" localSheetId="2" hidden="1">Planilha2!$K$4:$K$288</definedName>
-    <definedName name="_ECO_RANGE_ID3abd77191ee34b4eb3ee9b63186a30bf" localSheetId="2" hidden="1">Planilha2!$N$4:$N$288</definedName>
-    <definedName name="_ECO_RANGE_ID41ac3047933b43ec92e6e9402e4bffae" localSheetId="0" hidden="1">Plan1!$I$4:$I$288</definedName>
-    <definedName name="_ECO_RANGE_ID44cf110bdd5c454d8a855f0a848fa7f3" localSheetId="2" hidden="1">Planilha2!$J$4:$J$288</definedName>
-    <definedName name="_ECO_RANGE_ID4776a4b6ecfa4e0aa1acaddf8aa0561a" localSheetId="0" hidden="1">Plan1!$C$4:$C$288</definedName>
-    <definedName name="_ECO_RANGE_ID4f791fa58abb4951b115f23373955038" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID50c36555bf514370b1f853bd60011745" localSheetId="2" hidden="1">Planilha2!$I$4:$I$288</definedName>
-    <definedName name="_ECO_RANGE_ID68a1e18ec46e4e398ca14677cf960f96" localSheetId="1" hidden="1">Planilha1!$I$4:$I$288</definedName>
-    <definedName name="_ECO_RANGE_ID6d34b00fca7047e6aad7f561f1a747e3" localSheetId="1" hidden="1">Planilha1!$H$4:$H$288</definedName>
-    <definedName name="_ECO_RANGE_ID6fd69a25aee64e289398bc346c42af2b" localSheetId="2" hidden="1">Planilha2!$M$4:$M$288</definedName>
-    <definedName name="_ECO_RANGE_ID71eb3a6088954cdca5299343e911da00" localSheetId="1" hidden="1">Planilha1!$K$4:$K$288</definedName>
-    <definedName name="_ECO_RANGE_ID78442332404e4257b783a4aedf7194b3" localSheetId="1" hidden="1">Planilha1!$D$4:$D$288</definedName>
-    <definedName name="_ECO_RANGE_ID7d44a08258554b5b8f622f72f9bea7e7" localSheetId="0" hidden="1">Plan1!$J$4:$J$288</definedName>
-    <definedName name="_ECO_RANGE_ID8056fb3eba8d4f69a005906405f8a569" localSheetId="1" hidden="1">Planilha1!$E$4:$E$288</definedName>
-    <definedName name="_ECO_RANGE_ID8314b574e571460a89865c325d3becf4" localSheetId="2" hidden="1">Planilha2!$A$4:$B$288</definedName>
-    <definedName name="_ECO_RANGE_ID83ce4fdc1a1641599ce39005942ec03a" localSheetId="0" hidden="1">Plan1!$D$4:$D$288</definedName>
-    <definedName name="_ECO_RANGE_ID87373061e5db4204a47858882521394d" localSheetId="0" hidden="1">Plan1!$O$4:$O$288</definedName>
-    <definedName name="_ECO_RANGE_ID8780724db2d84c32a4837beab3e35af1" localSheetId="2" hidden="1">Planilha2!$C$4:$C$288</definedName>
-    <definedName name="_ECO_RANGE_ID8a50bb8de13f4f9292e3ff136401276f" localSheetId="2" hidden="1">Planilha2!$F$4:$F$288</definedName>
-    <definedName name="_ECO_RANGE_ID8d733f647aee4509b9ec7c3f575033fa" localSheetId="0" hidden="1">Plan1!$E$4:$E$288</definedName>
-    <definedName name="_ECO_RANGE_ID94de6796f1e34805900065e53901bb9c" localSheetId="2" hidden="1">Planilha2!$P$4:$P$288</definedName>
-    <definedName name="_ECO_RANGE_ID971cec915ce045aa9f618f2396ed4874" localSheetId="0" hidden="1">Plan1!$K$4:$K$288</definedName>
-    <definedName name="_ECO_RANGE_ID9ae4d3a7fdf947cd89948b87fd9ad969" localSheetId="1" hidden="1">Planilha1!$A$4:$B$288</definedName>
-    <definedName name="_ECO_RANGE_ID9ae62ec53d2448fa8a24eb223d3ea976" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDa9048ace28f74b88ae128e82a538cc77" localSheetId="0" hidden="1">Plan1!$L$4:$L$288</definedName>
-    <definedName name="_ECO_RANGE_IDb7b725cfb5af49ea80ea88786d534825" localSheetId="1" hidden="1">Planilha1!$J$4:$J$288</definedName>
-    <definedName name="_ECO_RANGE_IDb87268e6aa684fb884908ff383ab3817" localSheetId="2" hidden="1">Planilha2!$H$4:$H$288</definedName>
-    <definedName name="_ECO_RANGE_IDc91cdf8d60e34b2aa54a8ed3de69fabc" localSheetId="1" hidden="1">Planilha1!$F$4:$F$288</definedName>
-    <definedName name="_ECO_RANGE_IDd028f935346645d2b0f7d3cbd8b16679" localSheetId="0" hidden="1">Plan1!$F$4:$F$288</definedName>
-    <definedName name="_ECO_RANGE_IDda551add247f4458bd5679147dd1bf6e" localSheetId="0" hidden="1">Plan1!$H$4:$H$288</definedName>
-    <definedName name="_ECO_RANGE_IDe32eafda452f4ef6893ce9f9cfb24627" localSheetId="0" hidden="1">Plan1!$G$4:$G$288</definedName>
-    <definedName name="_ECO_RANGE_IDf193c1ed00b04878ae383b4c2cadc6e7" localSheetId="1" hidden="1">Planilha1!$N$4:$N$288</definedName>
-    <definedName name="_ECO_RANGE_IDf2a9d006fb3b4f0d872520735fdc3e66" localSheetId="2" hidden="1">Planilha2!$D$4:$D$288</definedName>
-    <definedName name="_ECO_RANGE_IDf330049f2cbe426081852ff33f045e8f" localSheetId="2" hidden="1">Planilha2!$O$4:$O$288</definedName>
-    <definedName name="_ECO_RANGE_IDf48c55f31af149bea016a704f4f796a1" localSheetId="2" hidden="1">Planilha2!$L$4:$L$288</definedName>
-    <definedName name="_ECO_RANGE_IDf5feaa4e136f4541b22c0a1ca5994e83" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDffa5ff379227448092a1ae037531e60b" localSheetId="2" hidden="1">Planilha2!$E$4:$E$288</definedName>
+    <definedName name="_ECO_RANGE_ID110b0fbbfdd644e998509dfe452cafc4" localSheetId="1" hidden="1">Planilha1!$A$4:$B$292</definedName>
+    <definedName name="_ECO_RANGE_ID1b7756c590c9421db7bd61aec9566626" localSheetId="2" hidden="1">Planilha2!$D$4:$D$292</definedName>
+    <definedName name="_ECO_RANGE_ID1ceaf03168c8479c95ff0dcdd0d105f2" localSheetId="0" hidden="1">Plan1!$G$4:$G$292</definedName>
+    <definedName name="_ECO_RANGE_ID1dcc5c807ed94b2f8772158b3995b6e1" localSheetId="2" hidden="1">Planilha2!$A$4:$B$292</definedName>
+    <definedName name="_ECO_RANGE_ID2024dec0e34947d09f84535f8d337ebc" localSheetId="0" hidden="1">Plan1!$H$4:$H$292</definedName>
+    <definedName name="_ECO_RANGE_ID2130bf7d1d224262a3112396e1af2032" localSheetId="0" hidden="1">Plan1!$K$4:$K$292</definedName>
+    <definedName name="_ECO_RANGE_ID228863c171f648c7b95a4bedf470bfd8" localSheetId="2" hidden="1">Planilha2!$L$4:$L$292</definedName>
+    <definedName name="_ECO_RANGE_ID29e14fed30fe4fa687c375ee09f31e3a" localSheetId="1" hidden="1">Planilha1!$K$4:$K$292</definedName>
+    <definedName name="_ECO_RANGE_ID2a7fc82cb2f04ed3b708de18e28d1cd7" localSheetId="1" hidden="1">Planilha1!$G$4:$G$292</definedName>
+    <definedName name="_ECO_RANGE_ID350c94bc2ad54e43986f1261cd62697f" localSheetId="2" hidden="1">Planilha2!$C$4:$C$292</definedName>
+    <definedName name="_ECO_RANGE_ID35813feb65084ccaa99b2f079001a4f6" localSheetId="2" hidden="1">Planilha2!$M$4:$M$292</definedName>
+    <definedName name="_ECO_RANGE_ID389de469efb24444956c3a29b39399e8" localSheetId="0" hidden="1">Plan1!$O$4:$O$292</definedName>
+    <definedName name="_ECO_RANGE_ID3a36a499ecd5430d89b9dc03f0ec8ef4" localSheetId="2" hidden="1">Planilha2!$J$4:$J$292</definedName>
+    <definedName name="_ECO_RANGE_ID3ca1b24e3224444c98cd4b7c0220cc2b" localSheetId="1" hidden="1">Planilha1!$H$4:$H$292</definedName>
+    <definedName name="_ECO_RANGE_ID41668ee69b654e9ebb44a32886155892" localSheetId="2" hidden="1">Planilha2!$O$4:$O$292</definedName>
+    <definedName name="_ECO_RANGE_ID4db9f8f19a3d454c9e2e0aeae383bd5d" localSheetId="2" hidden="1">Planilha2!$G$4:$G$292</definedName>
+    <definedName name="_ECO_RANGE_ID511cca9ddaf24d5bae0c7a95571e75a6" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID520448281a4b4d638159129a37a0a1a9" localSheetId="0" hidden="1">Plan1!$I$4:$I$292</definedName>
+    <definedName name="_ECO_RANGE_ID56516096c75f44f78606085fb662ec47" localSheetId="1" hidden="1">Planilha1!$L$4:$L$292</definedName>
+    <definedName name="_ECO_RANGE_ID60fcba85a3f1427d93105ddf68b567ac" localSheetId="2" hidden="1">Planilha2!$N$4:$N$292</definedName>
+    <definedName name="_ECO_RANGE_ID610244885c644beca1428c3d01b30385" localSheetId="1" hidden="1">Planilha1!$J$4:$J$292</definedName>
+    <definedName name="_ECO_RANGE_ID6b3e9ffd302e464d958155ebea024b84" localSheetId="1" hidden="1">Planilha1!$F$4:$F$292</definedName>
+    <definedName name="_ECO_RANGE_ID80b97789ce2744269a316a1f801bd748" localSheetId="0" hidden="1">Plan1!$M$4:$M$292</definedName>
+    <definedName name="_ECO_RANGE_ID8623580dfd3245e6b18e849fbbbf00e5" localSheetId="0" hidden="1">Plan1!$E$4:$E$292</definedName>
+    <definedName name="_ECO_RANGE_ID8638efe85dbf43a3a972a3159c54772f" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID960d3849188745248408afeb7ac0b710" localSheetId="0" hidden="1">Plan1!$J$4:$J$292</definedName>
+    <definedName name="_ECO_RANGE_ID984d73104b364ceeba7405842b285b28" localSheetId="1" hidden="1">Planilha1!$C$4:$C$292</definedName>
+    <definedName name="_ECO_RANGE_IDb494f91af8724c4b81ef5297e138c77c" localSheetId="2" hidden="1">Planilha2!$K$4:$K$292</definedName>
+    <definedName name="_ECO_RANGE_IDbe7733d01b7e4c91b519fa8b49bed15b" localSheetId="2" hidden="1">Planilha2!$P$4:$P$292</definedName>
+    <definedName name="_ECO_RANGE_IDbf2958aaad9449aa846a73a20fed09e2" localSheetId="0" hidden="1">Plan1!$N$4:$N$292</definedName>
+    <definedName name="_ECO_RANGE_IDbf8b6dde2714454596f3976a3d72aca0" localSheetId="2" hidden="1">Planilha2!$F$4:$F$292</definedName>
+    <definedName name="_ECO_RANGE_IDc4722da7ca9f4b858c4b97cc14a46a22" localSheetId="1" hidden="1">Planilha1!$N$4:$N$292</definedName>
+    <definedName name="_ECO_RANGE_IDc5ec7be5e34d471cba3ee8848fa122fe" localSheetId="2" hidden="1">Planilha2!$I$4:$I$292</definedName>
+    <definedName name="_ECO_RANGE_IDc943f2b0147a49bb9490fb33479dea38" localSheetId="2" hidden="1">Planilha2!$E$4:$E$292</definedName>
+    <definedName name="_ECO_RANGE_IDcdf3e441e5664d1c82a5d18ff83aae6e" localSheetId="0" hidden="1">Plan1!$F$4:$F$292</definedName>
+    <definedName name="_ECO_RANGE_IDd088bf6f7fdf44ce8135870c087695ef" localSheetId="1" hidden="1">Planilha1!$E$4:$E$292</definedName>
+    <definedName name="_ECO_RANGE_IDd74f2471d79c4a3abd280fea11eee865" localSheetId="1" hidden="1">Planilha1!$I$4:$I$292</definedName>
+    <definedName name="_ECO_RANGE_IDda7ef275e6f54d59b0fa6bf6cc8e0ed8" localSheetId="2" hidden="1">Planilha2!$H$4:$H$292</definedName>
+    <definedName name="_ECO_RANGE_IDdf8b11d775af4c429f3c06e94749c2a8" localSheetId="1" hidden="1">Planilha1!$M$4:$M$292</definedName>
+    <definedName name="_ECO_RANGE_IDe5469878f42d4bbd9ab7ae61177472d4" localSheetId="0" hidden="1">Plan1!$C$4:$C$292</definedName>
+    <definedName name="_ECO_RANGE_IDe8adc95098d74798bbd9a08eead08e24" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDea336b37b2064eeb9eb0d690c6c8f605" localSheetId="0" hidden="1">Plan1!$L$4:$L$292</definedName>
+    <definedName name="_ECO_RANGE_IDf053727d45044d7e880928b0f4a7a3ec" localSheetId="1" hidden="1">Planilha1!$D$4:$D$292</definedName>
+    <definedName name="_ECO_RANGE_IDf3914f03c3fa41bf80afd7001ccceb3c" localSheetId="0" hidden="1">Plan1!$A$4:$B$292</definedName>
+    <definedName name="_ECO_RANGE_IDf508f24ce005413b890c5e50aef1ff1f" localSheetId="1" hidden="1">Planilha1!$O$4:$O$292</definedName>
+    <definedName name="_ECO_RANGE_IDfe3074b3354d4aa895df65fe2447b703" localSheetId="0" hidden="1">Plan1!$D$4:$D$292</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -275,298 +275,328 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d3ce65eb-0ad2-4e03-b075-bf181058ef54</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>da0cae31-db6c-48d8-9863-a552fac148fa</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c1ce1fc2-3e88-43b7-b369-e3e892176e01</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ab4aa2aa-3bc2-440c-81a0-c2db615dcef5</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>337bcac2-5bcd-4690-9add-756717d6568b</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>36254312-741e-455c-8523-e2655de17396</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a4f2d051-9f4b-4d7a-b6e7-1fc49c9dc93d</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>27eca80c-bb45-4904-b8f0-aa6278fd1cb5</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>18ed087d-c12b-4017-8460-0f900743c6f6</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>afdc3679-55c3-4aa5-99a8-738f4d219bee</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3d391744-b05f-450e-a70c-2890113abf88</stp>
+        <stp>4d4ae7cb-f140-4c0a-8b40-6b6f3ac26112</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>14b72682-c369-40dc-9174-d8ff905066c1</stp>
-        <tr r="N3" s="1"/>
+        <stp>ea1f0173-6736-47c3-9074-b825f16ed979</stp>
+        <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>837eb0af-8356-493d-800d-22b6ee6bb2ff</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a1be32fb-4bd1-4f1a-92ac-2a2d787befaa</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a75b912d-6ee7-423a-b098-be8b3101e45d</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a7768c4c-abb6-43a0-8e82-f2deffa74f30</stp>
+        <stp>81657410-536e-4cc9-a6f5-f808453a91a4</stp>
         <tr r="G3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>9cb0b8cf-3891-4aeb-b5f5-bd6164850222</stp>
-        <tr r="H3" s="1"/>
+        <stp>e61602dc-673a-4a43-b352-a601646f1e0d</stp>
+        <tr r="O3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>5b4398bb-e1fc-4795-9a12-b7267080f162</stp>
-        <tr r="O3" s="2"/>
+        <stp>09e2d26f-9ce5-4dfe-8c72-3c4cca95f34a</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4dfbbcab-19a4-4203-adab-d26bb7af4764</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>41f54c84-3e7d-41d4-9df5-7cc8243db32f</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0ca6bdbd-c321-45f8-966b-a5d0a96a31d7</stp>
+        <tr r="L3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c724a0ad-4508-4d8a-be84-e7a27a7cf118</stp>
-        <tr r="I3" s="2"/>
+        <stp>65f48a38-231b-4b9f-9307-9d23e547a621</stp>
+        <tr r="M3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a0119662-9d85-4240-9ee3-70f5d0ea4f2f</stp>
-        <tr r="E3" s="2"/>
+        <stp>f1e2b7a0-17d8-4598-8efb-23c60949679e</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>90355c89-96fd-4db8-8bd2-cc188f53bf35</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0f8f3b68-5000-48bc-8914-c140ab3cfe39</stp>
+        <tr r="M3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>04c14b5c-d6b8-4ce0-9895-a7b744ce44f4</stp>
-        <tr r="P3" s="3"/>
+        <stp>ae1b6759-ba76-43ab-be6e-649591a33415</stp>
+        <tr r="G3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>169decce-9cf1-4a7d-ba30-d283458b1021</stp>
-        <tr r="M3" s="2"/>
+        <stp>b97f4c6a-f61b-4718-9a91-b1a055bc8b9f</stp>
+        <tr r="F3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b80cee9d-cd16-44d3-8ab7-8b23b5a8e457</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ad107fb3-9a7e-4d7f-8a91-2f255d7b5531</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>00b53621-51a4-4465-a6fd-8ca7659f6ec2</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c511b765-427b-447d-93e6-127e1f0881d4</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9b9916e6-d17c-46d1-b5d4-84c58d94beb0</stp>
+        <stp>60a4160b-817d-42bf-b7c4-b21e93086a96</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7f202c7e-8f74-473c-9de7-e80a6ee5062b</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>82e90f21-bfbc-4185-83dd-ce6be3ff8fcf</stp>
-        <tr r="H3" s="3"/>
+        <stp>9f8d1b43-5246-4bb9-92f4-0632ce1a6fec</stp>
+        <tr r="H3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>18e24445-8c62-4ff0-8c85-95c348618fa5</stp>
-        <tr r="M3" s="3"/>
+        <stp>05c64d72-0221-47eb-a109-3c6b9284a953</stp>
+        <tr r="A3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>63e23288-67bd-4242-9bcd-06c5e2cb1561</stp>
-        <tr r="F3" s="3"/>
+        <stp>f21cb155-c5d2-4df8-a001-bfb8d3765ed7</stp>
+        <tr r="J3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>355b18b4-e91b-44b1-8d3e-8954808696fe</stp>
+        <stp>aaa660ff-44fc-43a7-8e6b-b86e410e9571</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a5ec7d0e-bab7-4a05-887d-f67478780f5d</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ac7dad34-f81d-4b3f-968e-86518e1c82b3</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>25a31b31-1d85-4fe8-99c5-101724eb2fd4</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bcbd155a-7306-4009-9b97-9e71f99eaa61</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f6119f7f-2a11-4897-8679-9d26465222ce</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b8feecf9-b55b-4189-abb8-d7fe3191df49</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7993d1f1-6186-4cd8-b453-a20321ed16b9</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>db1e012f-0096-4aa5-a9dc-c0710f577cc2</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7b7ecb60-8a88-42b9-b342-dc7097179ffa</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6f668e8e-9536-4ff9-ac04-e0adc26795db</stp>
         <tr r="A3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>afdaf08d-4887-4d41-83f0-6533dd66e187</stp>
-        <tr r="A3" s="3"/>
+        <stp>86d24ac3-3419-4bee-8816-cf34cb15408f</stp>
+        <tr r="F3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f5114406-4666-47c4-bb51-c7ecf69a8a45</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a87225f1-dd58-440b-b07f-12fd687fab5f</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5a6125d4-a2e6-43f6-8fdf-790e0418c0f5</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e7cf91be2d264e3abb087cbfa1bc9983">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1f4c5c34-c302-45f1-ad88-08d6d870067f</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>24a63abc-9994-401a-af0e-ab42159fa3a6</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>783fbe25-6bdd-4191-91a3-667b8be1d697</stp>
+        <stp>32f6ccb9-a6f1-4dab-a0dd-3faa9e59a09c</stp>
         <tr r="K3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>8c13558e-9bb1-40e7-a23a-5f7091c25d16</stp>
-        <tr r="G3" s="3"/>
+        <stp>e1102dde-d7db-4e3d-9414-2820b8aa6a4e</stp>
+        <tr r="N3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d94f6c0a-fd38-4242-a907-f1c7b62dcfb0</stp>
-        <tr r="F3" s="1"/>
+        <stp>bc626db3-6034-4a54-8b4d-263347eb854d</stp>
+        <tr r="D3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>133fc84d-3da3-4582-b4a5-9ef84d9825a2</stp>
-        <tr r="L3" s="1"/>
+        <stp>87813239-f359-4c09-9a48-9d12faa8da1b</stp>
+        <tr r="I3" s="3"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2f7f04c7-0430-4b36-9437-de3419ee8d29</stp>
-        <tr r="E3" s="1"/>
+        <stp>483ee694-b9b9-46d7-99f7-f3f18dc63a80</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b74a9bb5-c8d8-4c52-8ae5-8dfcb40a49ea</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dcd6e6ab-00a5-4d49-b857-65576ecc90c5</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e91b786b-5419-4b9f-8ab9-742ff46be9b5</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>339bb8f3-eff7-4e4f-a1bb-30f44a897543</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9317e2ca-843b-41f3-97fe-9e69a57572a6</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d99aebb2-5cb0-4a45-976d-da6e5211517a</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9be2b470-796b-4065-ae80-4ff0b0a46643</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>68e94bb7-35f9-4904-8063-b1549e62c288</stp>
+        <tr r="H3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -836,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O288"/>
+  <dimension ref="A1:O292"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13896,6 +13926,182 @@
         <v>7.15</v>
       </c>
     </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>45811</v>
+      </c>
+      <c r="C289">
+        <v>9.4591999999999992</v>
+      </c>
+      <c r="D289">
+        <v>8.44</v>
+      </c>
+      <c r="E289">
+        <v>7.88</v>
+      </c>
+      <c r="F289">
+        <v>7.6134000000000004</v>
+      </c>
+      <c r="G289">
+        <v>7.5377000000000001</v>
+      </c>
+      <c r="H289">
+        <v>7.4592999999999998</v>
+      </c>
+      <c r="I289">
+        <v>7.41</v>
+      </c>
+      <c r="J289">
+        <v>7.3174000000000001</v>
+      </c>
+      <c r="K289">
+        <v>7.19</v>
+      </c>
+      <c r="L289">
+        <v>7.1962999999999999</v>
+      </c>
+      <c r="M289">
+        <v>7.1486000000000001</v>
+      </c>
+      <c r="N289">
+        <v>7.1303999999999998</v>
+      </c>
+      <c r="O289">
+        <v>7.1532999999999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>45812</v>
+      </c>
+      <c r="C290">
+        <v>9.5695999999999994</v>
+      </c>
+      <c r="D290">
+        <v>8.5127000000000006</v>
+      </c>
+      <c r="E290">
+        <v>7.9180999999999999</v>
+      </c>
+      <c r="F290">
+        <v>7.6238000000000001</v>
+      </c>
+      <c r="G290">
+        <v>7.5231000000000003</v>
+      </c>
+      <c r="H290">
+        <v>7.44</v>
+      </c>
+      <c r="I290">
+        <v>7.3895</v>
+      </c>
+      <c r="J290">
+        <v>7.2885999999999997</v>
+      </c>
+      <c r="K290">
+        <v>7.1619000000000002</v>
+      </c>
+      <c r="L290">
+        <v>7.1654</v>
+      </c>
+      <c r="M290">
+        <v>7.1233000000000004</v>
+      </c>
+      <c r="N290">
+        <v>7.1086</v>
+      </c>
+      <c r="O290">
+        <v>7.1313000000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>45813</v>
+      </c>
+      <c r="C291">
+        <v>9.7235999999999994</v>
+      </c>
+      <c r="D291">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E291">
+        <v>8.0090000000000003</v>
+      </c>
+      <c r="F291">
+        <v>7.6935000000000002</v>
+      </c>
+      <c r="G291">
+        <v>7.5650000000000004</v>
+      </c>
+      <c r="H291">
+        <v>7.46</v>
+      </c>
+      <c r="I291">
+        <v>7.3964999999999996</v>
+      </c>
+      <c r="J291">
+        <v>7.3010000000000002</v>
+      </c>
+      <c r="K291">
+        <v>7.1715</v>
+      </c>
+      <c r="L291">
+        <v>7.18</v>
+      </c>
+      <c r="M291">
+        <v>7.14</v>
+      </c>
+      <c r="N291">
+        <v>7.1226000000000003</v>
+      </c>
+      <c r="O291">
+        <v>7.1519000000000004</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>45814</v>
+      </c>
+      <c r="C292">
+        <v>9.6821999999999999</v>
+      </c>
+      <c r="D292">
+        <v>8.5632000000000001</v>
+      </c>
+      <c r="E292">
+        <v>7.9375</v>
+      </c>
+      <c r="F292">
+        <v>7.63</v>
+      </c>
+      <c r="G292">
+        <v>7.5206999999999997</v>
+      </c>
+      <c r="H292">
+        <v>7.4252000000000002</v>
+      </c>
+      <c r="I292">
+        <v>7.3733000000000004</v>
+      </c>
+      <c r="J292">
+        <v>7.2988999999999997</v>
+      </c>
+      <c r="K292">
+        <v>7.1612999999999998</v>
+      </c>
+      <c r="L292">
+        <v>7.1771000000000003</v>
+      </c>
+      <c r="M292">
+        <v>7.14</v>
+      </c>
+      <c r="N292">
+        <v>7.1276999999999999</v>
+      </c>
+      <c r="O292">
+        <v>7.157</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Economatica Excel Add-In" prompt="45045: You are not logged in Economatica" sqref="G3" xr:uid="{6C00A70D-7942-40C6-87A1-4313FAC35B9C}"/>
@@ -13906,10 +14112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O288"/>
+  <dimension ref="A1:O292"/>
   <sheetViews>
     <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+      <selection activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26966,6 +27172,182 @@
         <v>3960.5977339999999</v>
       </c>
     </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>45811</v>
+      </c>
+      <c r="C289">
+        <v>4425.1298809999998</v>
+      </c>
+      <c r="D289">
+        <v>4343.6033269999998</v>
+      </c>
+      <c r="E289">
+        <v>4368.8596699999998</v>
+      </c>
+      <c r="F289">
+        <v>4299.1958750000003</v>
+      </c>
+      <c r="G289">
+        <v>4317.6470490000002</v>
+      </c>
+      <c r="H289">
+        <v>4251.1171539999996</v>
+      </c>
+      <c r="I289">
+        <v>4171.2794739999999</v>
+      </c>
+      <c r="J289">
+        <v>4136.9962340000002</v>
+      </c>
+      <c r="K289">
+        <v>4128.6963669999996</v>
+      </c>
+      <c r="L289">
+        <v>3991.4098760000002</v>
+      </c>
+      <c r="M289">
+        <v>4024.0945550000001</v>
+      </c>
+      <c r="N289">
+        <v>3933.2024270000002</v>
+      </c>
+      <c r="O289">
+        <v>3960.6488869999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>45812</v>
+      </c>
+      <c r="C290">
+        <v>4422.231151</v>
+      </c>
+      <c r="D290">
+        <v>4340.2810239999999</v>
+      </c>
+      <c r="E290">
+        <v>4366.3858319999999</v>
+      </c>
+      <c r="F290">
+        <v>4299.642433</v>
+      </c>
+      <c r="G290">
+        <v>4322.1476679999996</v>
+      </c>
+      <c r="H290">
+        <v>4257.3960029999998</v>
+      </c>
+      <c r="I290">
+        <v>4178.1466849999997</v>
+      </c>
+      <c r="J290">
+        <v>4147.1009329999997</v>
+      </c>
+      <c r="K290">
+        <v>4140.9766909999998</v>
+      </c>
+      <c r="L290">
+        <v>4006.1846540000001</v>
+      </c>
+      <c r="M290">
+        <v>4037.5194550000001</v>
+      </c>
+      <c r="N290">
+        <v>3945.4796849999998</v>
+      </c>
+      <c r="O290">
+        <v>3973.3458900000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>45813</v>
+      </c>
+      <c r="C291">
+        <v>4417.3484129999997</v>
+      </c>
+      <c r="D291">
+        <v>4334.4370509999999</v>
+      </c>
+      <c r="E291">
+        <v>4357.7769040000003</v>
+      </c>
+      <c r="F291">
+        <v>4291.7549779999999</v>
+      </c>
+      <c r="G291">
+        <v>4316.6351619999996</v>
+      </c>
+      <c r="H291">
+        <v>4254.6966929999999</v>
+      </c>
+      <c r="I291">
+        <v>4178.2538180000001</v>
+      </c>
+      <c r="J291">
+        <v>4145.3196449999996</v>
+      </c>
+      <c r="K291">
+        <v>4139.1583220000002</v>
+      </c>
+      <c r="L291">
+        <v>4001.7255690000002</v>
+      </c>
+      <c r="M291">
+        <v>4031.5113230000002</v>
+      </c>
+      <c r="N291">
+        <v>3940.3562550000001</v>
+      </c>
+      <c r="O291">
+        <v>3964.7440750000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>45814</v>
+      </c>
+      <c r="C292">
+        <v>4421.5764589999999</v>
+      </c>
+      <c r="D292">
+        <v>4340.7124199999998</v>
+      </c>
+      <c r="E292">
+        <v>4368.1128550000003</v>
+      </c>
+      <c r="F292">
+        <v>4302.6048060000003</v>
+      </c>
+      <c r="G292">
+        <v>4326.4000400000004</v>
+      </c>
+      <c r="H292">
+        <v>4264.5197820000003</v>
+      </c>
+      <c r="I292">
+        <v>4185.7926600000001</v>
+      </c>
+      <c r="J292">
+        <v>4147.7257069999996</v>
+      </c>
+      <c r="K292">
+        <v>4144.7529969999996</v>
+      </c>
+      <c r="L292">
+        <v>4004.6696809999999</v>
+      </c>
+      <c r="M292">
+        <v>4033.2402259999999</v>
+      </c>
+      <c r="N292">
+        <v>3939.5637160000001</v>
+      </c>
+      <c r="O292">
+        <v>3963.9010859999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -26973,10 +27355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z288"/>
+  <dimension ref="A1:Z292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39239,6 +39621,206 @@
         <v>0.10920000000000001</v>
       </c>
     </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B289">
+        <v>1.34E-2</v>
+      </c>
+      <c r="C289">
+        <v>1.24E-2</v>
+      </c>
+      <c r="D289">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E289">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="F289">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G289">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="H289">
+        <v>7.8E-2</v>
+      </c>
+      <c r="I289">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="J289">
+        <v>0.112</v>
+      </c>
+      <c r="K289">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="L289">
+        <v>0.1207</v>
+      </c>
+      <c r="M289">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="N289">
+        <v>0.1113</v>
+      </c>
+      <c r="O289">
+        <v>0.11</v>
+      </c>
+      <c r="P289">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B290">
+        <v>1.35E-2</v>
+      </c>
+      <c r="C290">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D290">
+        <v>0.01</v>
+      </c>
+      <c r="E290">
+        <v>0.04</v>
+      </c>
+      <c r="F290">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="G290">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="H290">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="I290">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="J290">
+        <v>0.1113</v>
+      </c>
+      <c r="K290">
+        <v>0.1207</v>
+      </c>
+      <c r="L290">
+        <v>0.1207</v>
+      </c>
+      <c r="M290">
+        <v>0.1183</v>
+      </c>
+      <c r="N290">
+        <v>0.1111</v>
+      </c>
+      <c r="O290">
+        <v>0.11</v>
+      </c>
+      <c r="P290">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B291">
+        <v>1.23E-2</v>
+      </c>
+      <c r="C291">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D291">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E291">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="F291">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="G291">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="H291">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="I291">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="J291">
+        <v>0.1111</v>
+      </c>
+      <c r="K291">
+        <v>0.1211</v>
+      </c>
+      <c r="L291">
+        <v>0.121</v>
+      </c>
+      <c r="M291">
+        <v>0.1186</v>
+      </c>
+      <c r="N291">
+        <v>0.1108</v>
+      </c>
+      <c r="O291">
+        <v>0.11</v>
+      </c>
+      <c r="P291">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B292">
+        <v>1.12E-2</v>
+      </c>
+      <c r="C292">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="D292">
+        <v>8.6E-3</v>
+      </c>
+      <c r="E292">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F292">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="G292">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="H292">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="I292">
+        <v>9.74E-2</v>
+      </c>
+      <c r="J292">
+        <v>0.1105</v>
+      </c>
+      <c r="K292">
+        <v>0.121</v>
+      </c>
+      <c r="L292">
+        <v>0.121</v>
+      </c>
+      <c r="M292">
+        <v>0.1186</v>
+      </c>
+      <c r="N292">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="O292">
+        <v>0.1096</v>
+      </c>
+      <c r="P292">
+        <v>0.1087</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB21A8-5989-4509-B2CC-0BDDEA28B053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F466A147-2CD6-435A-A387-EBCB1288BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID110b0fbbfdd644e998509dfe452cafc4" localSheetId="1" hidden="1">Planilha1!$A$4:$B$292</definedName>
-    <definedName name="_ECO_RANGE_ID1b7756c590c9421db7bd61aec9566626" localSheetId="2" hidden="1">Planilha2!$D$4:$D$292</definedName>
-    <definedName name="_ECO_RANGE_ID1ceaf03168c8479c95ff0dcdd0d105f2" localSheetId="0" hidden="1">Plan1!$G$4:$G$292</definedName>
-    <definedName name="_ECO_RANGE_ID1dcc5c807ed94b2f8772158b3995b6e1" localSheetId="2" hidden="1">Planilha2!$A$4:$B$292</definedName>
-    <definedName name="_ECO_RANGE_ID2024dec0e34947d09f84535f8d337ebc" localSheetId="0" hidden="1">Plan1!$H$4:$H$292</definedName>
-    <definedName name="_ECO_RANGE_ID2130bf7d1d224262a3112396e1af2032" localSheetId="0" hidden="1">Plan1!$K$4:$K$292</definedName>
-    <definedName name="_ECO_RANGE_ID228863c171f648c7b95a4bedf470bfd8" localSheetId="2" hidden="1">Planilha2!$L$4:$L$292</definedName>
-    <definedName name="_ECO_RANGE_ID29e14fed30fe4fa687c375ee09f31e3a" localSheetId="1" hidden="1">Planilha1!$K$4:$K$292</definedName>
-    <definedName name="_ECO_RANGE_ID2a7fc82cb2f04ed3b708de18e28d1cd7" localSheetId="1" hidden="1">Planilha1!$G$4:$G$292</definedName>
-    <definedName name="_ECO_RANGE_ID350c94bc2ad54e43986f1261cd62697f" localSheetId="2" hidden="1">Planilha2!$C$4:$C$292</definedName>
-    <definedName name="_ECO_RANGE_ID35813feb65084ccaa99b2f079001a4f6" localSheetId="2" hidden="1">Planilha2!$M$4:$M$292</definedName>
-    <definedName name="_ECO_RANGE_ID389de469efb24444956c3a29b39399e8" localSheetId="0" hidden="1">Plan1!$O$4:$O$292</definedName>
-    <definedName name="_ECO_RANGE_ID3a36a499ecd5430d89b9dc03f0ec8ef4" localSheetId="2" hidden="1">Planilha2!$J$4:$J$292</definedName>
-    <definedName name="_ECO_RANGE_ID3ca1b24e3224444c98cd4b7c0220cc2b" localSheetId="1" hidden="1">Planilha1!$H$4:$H$292</definedName>
-    <definedName name="_ECO_RANGE_ID41668ee69b654e9ebb44a32886155892" localSheetId="2" hidden="1">Planilha2!$O$4:$O$292</definedName>
-    <definedName name="_ECO_RANGE_ID4db9f8f19a3d454c9e2e0aeae383bd5d" localSheetId="2" hidden="1">Planilha2!$G$4:$G$292</definedName>
-    <definedName name="_ECO_RANGE_ID511cca9ddaf24d5bae0c7a95571e75a6" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID520448281a4b4d638159129a37a0a1a9" localSheetId="0" hidden="1">Plan1!$I$4:$I$292</definedName>
-    <definedName name="_ECO_RANGE_ID56516096c75f44f78606085fb662ec47" localSheetId="1" hidden="1">Planilha1!$L$4:$L$292</definedName>
-    <definedName name="_ECO_RANGE_ID60fcba85a3f1427d93105ddf68b567ac" localSheetId="2" hidden="1">Planilha2!$N$4:$N$292</definedName>
-    <definedName name="_ECO_RANGE_ID610244885c644beca1428c3d01b30385" localSheetId="1" hidden="1">Planilha1!$J$4:$J$292</definedName>
-    <definedName name="_ECO_RANGE_ID6b3e9ffd302e464d958155ebea024b84" localSheetId="1" hidden="1">Planilha1!$F$4:$F$292</definedName>
-    <definedName name="_ECO_RANGE_ID80b97789ce2744269a316a1f801bd748" localSheetId="0" hidden="1">Plan1!$M$4:$M$292</definedName>
-    <definedName name="_ECO_RANGE_ID8623580dfd3245e6b18e849fbbbf00e5" localSheetId="0" hidden="1">Plan1!$E$4:$E$292</definedName>
-    <definedName name="_ECO_RANGE_ID8638efe85dbf43a3a972a3159c54772f" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID960d3849188745248408afeb7ac0b710" localSheetId="0" hidden="1">Plan1!$J$4:$J$292</definedName>
-    <definedName name="_ECO_RANGE_ID984d73104b364ceeba7405842b285b28" localSheetId="1" hidden="1">Planilha1!$C$4:$C$292</definedName>
-    <definedName name="_ECO_RANGE_IDb494f91af8724c4b81ef5297e138c77c" localSheetId="2" hidden="1">Planilha2!$K$4:$K$292</definedName>
-    <definedName name="_ECO_RANGE_IDbe7733d01b7e4c91b519fa8b49bed15b" localSheetId="2" hidden="1">Planilha2!$P$4:$P$292</definedName>
-    <definedName name="_ECO_RANGE_IDbf2958aaad9449aa846a73a20fed09e2" localSheetId="0" hidden="1">Plan1!$N$4:$N$292</definedName>
-    <definedName name="_ECO_RANGE_IDbf8b6dde2714454596f3976a3d72aca0" localSheetId="2" hidden="1">Planilha2!$F$4:$F$292</definedName>
-    <definedName name="_ECO_RANGE_IDc4722da7ca9f4b858c4b97cc14a46a22" localSheetId="1" hidden="1">Planilha1!$N$4:$N$292</definedName>
-    <definedName name="_ECO_RANGE_IDc5ec7be5e34d471cba3ee8848fa122fe" localSheetId="2" hidden="1">Planilha2!$I$4:$I$292</definedName>
-    <definedName name="_ECO_RANGE_IDc943f2b0147a49bb9490fb33479dea38" localSheetId="2" hidden="1">Planilha2!$E$4:$E$292</definedName>
-    <definedName name="_ECO_RANGE_IDcdf3e441e5664d1c82a5d18ff83aae6e" localSheetId="0" hidden="1">Plan1!$F$4:$F$292</definedName>
-    <definedName name="_ECO_RANGE_IDd088bf6f7fdf44ce8135870c087695ef" localSheetId="1" hidden="1">Planilha1!$E$4:$E$292</definedName>
-    <definedName name="_ECO_RANGE_IDd74f2471d79c4a3abd280fea11eee865" localSheetId="1" hidden="1">Planilha1!$I$4:$I$292</definedName>
-    <definedName name="_ECO_RANGE_IDda7ef275e6f54d59b0fa6bf6cc8e0ed8" localSheetId="2" hidden="1">Planilha2!$H$4:$H$292</definedName>
-    <definedName name="_ECO_RANGE_IDdf8b11d775af4c429f3c06e94749c2a8" localSheetId="1" hidden="1">Planilha1!$M$4:$M$292</definedName>
-    <definedName name="_ECO_RANGE_IDe5469878f42d4bbd9ab7ae61177472d4" localSheetId="0" hidden="1">Plan1!$C$4:$C$292</definedName>
-    <definedName name="_ECO_RANGE_IDe8adc95098d74798bbd9a08eead08e24" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDea336b37b2064eeb9eb0d690c6c8f605" localSheetId="0" hidden="1">Plan1!$L$4:$L$292</definedName>
-    <definedName name="_ECO_RANGE_IDf053727d45044d7e880928b0f4a7a3ec" localSheetId="1" hidden="1">Planilha1!$D$4:$D$292</definedName>
-    <definedName name="_ECO_RANGE_IDf3914f03c3fa41bf80afd7001ccceb3c" localSheetId="0" hidden="1">Plan1!$A$4:$B$292</definedName>
-    <definedName name="_ECO_RANGE_IDf508f24ce005413b890c5e50aef1ff1f" localSheetId="1" hidden="1">Planilha1!$O$4:$O$292</definedName>
-    <definedName name="_ECO_RANGE_IDfe3074b3354d4aa895df65fe2447b703" localSheetId="0" hidden="1">Plan1!$D$4:$D$292</definedName>
+    <definedName name="_ECO_RANGE_ID00c2a712c0154a33bab6414613a15312" localSheetId="1" hidden="1">Planilha1!$H$4:$H$294</definedName>
+    <definedName name="_ECO_RANGE_ID059a30c435174a1f9607d167fc46f356" localSheetId="0" hidden="1">Plan1!$K$4:$K$294</definedName>
+    <definedName name="_ECO_RANGE_ID06502e88cb024468941914dfc2a82240" localSheetId="2" hidden="1">Planilha2!$D$4:$D$294</definedName>
+    <definedName name="_ECO_RANGE_ID09e1ac7fca704d699f808e4d0db5d6fc" localSheetId="1" hidden="1">Planilha1!$A$4:$B$294</definedName>
+    <definedName name="_ECO_RANGE_ID17c40d30e2fd4fe6aa34904afff10b75" localSheetId="2" hidden="1">Planilha2!$G$4:$G$294</definedName>
+    <definedName name="_ECO_RANGE_ID1f6c7e71144045c1b814843b1326daf4" localSheetId="2" hidden="1">Planilha2!$O$4:$O$294</definedName>
+    <definedName name="_ECO_RANGE_ID2127478b8e38427bbe9948b91105f812" localSheetId="2" hidden="1">Planilha2!$K$4:$K$294</definedName>
+    <definedName name="_ECO_RANGE_ID26d473429f0543529494f048cca8190b" localSheetId="1" hidden="1">Planilha1!$E$4:$E$294</definedName>
+    <definedName name="_ECO_RANGE_ID33c58a38400345f3a133c6c8ef9d80aa" localSheetId="2" hidden="1">Planilha2!$E$4:$E$294</definedName>
+    <definedName name="_ECO_RANGE_ID3bcf8fae1b58444587f73aba841dd8d3" localSheetId="0" hidden="1">Plan1!$H$4:$H$294</definedName>
+    <definedName name="_ECO_RANGE_ID3e1afa9f3d964c0180e66731f0ed72f1" localSheetId="0" hidden="1">Plan1!$O$4:$O$294</definedName>
+    <definedName name="_ECO_RANGE_ID3ec1361d1bd9437489304b699420ae77" localSheetId="2" hidden="1">Planilha2!$P$4:$P$294</definedName>
+    <definedName name="_ECO_RANGE_ID3f9c1a640ea645d19740a62312863cfe" localSheetId="2" hidden="1">Planilha2!$F$4:$F$294</definedName>
+    <definedName name="_ECO_RANGE_ID458d1b6c423c430893a87912d27780cb" localSheetId="0" hidden="1">Plan1!$N$4:$N$294</definedName>
+    <definedName name="_ECO_RANGE_ID46e8d10163e74bc89fae582457146a90" localSheetId="1" hidden="1">Planilha1!$D$4:$D$294</definedName>
+    <definedName name="_ECO_RANGE_ID47ed45178efc4b3b82b8275ed9d5b0b6" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID490cf414030241aebaf8aae1f76ef82a" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID4d9c9569a9bc4561978d2f17115f6161" localSheetId="0" hidden="1">Plan1!$M$4:$M$294</definedName>
+    <definedName name="_ECO_RANGE_ID4f3e3c80b08b43abb71b932c48a600ea" localSheetId="2" hidden="1">Planilha2!$C$4:$C$294</definedName>
+    <definedName name="_ECO_RANGE_ID4f6821d0d69e42f098dba86159458274" localSheetId="2" hidden="1">Planilha2!$L$4:$L$294</definedName>
+    <definedName name="_ECO_RANGE_ID52bf5bb553524a63b2021ded81ee237d" localSheetId="0" hidden="1">Plan1!$L$4:$L$294</definedName>
+    <definedName name="_ECO_RANGE_ID5523885d897645898a7a98e75060af61" localSheetId="0" hidden="1">Plan1!$F$4:$F$294</definedName>
+    <definedName name="_ECO_RANGE_ID55b0b0f7e0384c78a8404a0104d332b5" localSheetId="0" hidden="1">Plan1!$I$4:$I$294</definedName>
+    <definedName name="_ECO_RANGE_ID691e070139a8442690ad47165295fa54" localSheetId="1" hidden="1">Planilha1!$N$4:$N$294</definedName>
+    <definedName name="_ECO_RANGE_ID6fde72e1e38f4d4c90805565c7d0b88b" localSheetId="1" hidden="1">Planilha1!$K$4:$K$294</definedName>
+    <definedName name="_ECO_RANGE_ID7a549cf99fdb491a90d485cfd030acdd" localSheetId="1" hidden="1">Planilha1!$C$4:$C$294</definedName>
+    <definedName name="_ECO_RANGE_ID7b387f37985c45e4be4f83968351c0b2" localSheetId="1" hidden="1">Planilha1!$F$4:$F$294</definedName>
+    <definedName name="_ECO_RANGE_ID8884592fadf54114bd088a9261b4a878" localSheetId="0" hidden="1">Plan1!$C$4:$C$294</definedName>
+    <definedName name="_ECO_RANGE_ID8be47876c7814c7e85ef30378125eed2" localSheetId="0" hidden="1">Plan1!$G$4:$G$294</definedName>
+    <definedName name="_ECO_RANGE_ID9293e28bd8f348f6bfed74de17045f33" localSheetId="2" hidden="1">Planilha2!$H$4:$H$294</definedName>
+    <definedName name="_ECO_RANGE_ID944078e011c2466a94b9f113abd8c55b" localSheetId="0" hidden="1">Plan1!$J$4:$J$294</definedName>
+    <definedName name="_ECO_RANGE_ID950a03ab110c4d979ab44420e52aad26" localSheetId="2" hidden="1">Planilha2!$N$4:$N$294</definedName>
+    <definedName name="_ECO_RANGE_ID9a62ba3b5fbf4e2692c12b5bc9368d57" localSheetId="2" hidden="1">Planilha2!$M$4:$M$294</definedName>
+    <definedName name="_ECO_RANGE_ID9cb1c0bcd64e40358f9fe715177888f8" localSheetId="1" hidden="1">Planilha1!$J$4:$J$294</definedName>
+    <definedName name="_ECO_RANGE_IDa47119e9772b4c329a3ba620de991acb" localSheetId="1" hidden="1">Planilha1!$M$4:$M$294</definedName>
+    <definedName name="_ECO_RANGE_IDa7baafd1fb4a4c1b81271da52e9a1825" localSheetId="1" hidden="1">Planilha1!$I$4:$I$294</definedName>
+    <definedName name="_ECO_RANGE_IDb279edd8695546448cb312bda26dc83b" localSheetId="2" hidden="1">Planilha2!$I$4:$I$294</definedName>
+    <definedName name="_ECO_RANGE_IDb280740be5e24791b5fc676a53d918ec" localSheetId="2" hidden="1">Planilha2!$A$4:$B$294</definedName>
+    <definedName name="_ECO_RANGE_IDbbc51696c55a467484f39c4ffa017f1c" localSheetId="0" hidden="1">Plan1!$D$4:$D$294</definedName>
+    <definedName name="_ECO_RANGE_IDc49babdf9925463e95cd20d3269346d2" localSheetId="0" hidden="1">Plan1!$A$4:$B$294</definedName>
+    <definedName name="_ECO_RANGE_IDc74f258094d1423c87c38fb8e58131fd" localSheetId="1" hidden="1">Planilha1!$O$4:$O$294</definedName>
+    <definedName name="_ECO_RANGE_IDcaf3350c607a4ced8ba7b818a4a67aa4" localSheetId="1" hidden="1">Planilha1!$G$4:$G$294</definedName>
+    <definedName name="_ECO_RANGE_IDd94138c5acc94ccf85a3e1a1e7f2ae9f" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDdc7b6f837a4244558a17bfe785d520ae" localSheetId="1" hidden="1">Planilha1!$L$4:$L$294</definedName>
+    <definedName name="_ECO_RANGE_IDeb5ffc3bf2f940c19b74972c79348b75" localSheetId="0" hidden="1">Plan1!$E$4:$E$294</definedName>
+    <definedName name="_ECO_RANGE_IDef5a3b6c86594768afe178c929999ba3" localSheetId="2" hidden="1">Planilha2!$J$4:$J$294</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -275,328 +275,322 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4d4ae7cb-f140-4c0a-8b40-6b6f3ac26112</stp>
-        <tr r="G3" s="1"/>
+        <stp>3dbe16e3-263f-4dae-b0a7-d68362b274f7</stp>
+        <tr r="N3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ea1f0173-6736-47c3-9074-b825f16ed979</stp>
-        <tr r="C3" s="1"/>
+        <stp>966e42e7-1573-4124-86a4-ec90266bbab1</stp>
+        <tr r="P3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>81657410-536e-4cc9-a6f5-f808453a91a4</stp>
-        <tr r="G3" s="2"/>
+        <stp>2f4001b7-c9eb-4f17-b085-480adb991407</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>262112f9-32de-4b81-83fd-879921fb60e6</stp>
+        <tr r="K3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>e61602dc-673a-4a43-b352-a601646f1e0d</stp>
-        <tr r="O3" s="3"/>
+        <stp>a1348783-3304-4151-befd-f6b610fee20d</stp>
+        <tr r="D3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>09e2d26f-9ce5-4dfe-8c72-3c4cca95f34a</stp>
-        <tr r="A3" s="2"/>
+        <stp>87d5827a-a235-4822-b10a-36fa42b9e51d</stp>
+        <tr r="E3" s="3"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4dfbbcab-19a4-4203-adab-d26bb7af4764</stp>
-        <tr r="I3" s="2"/>
+        <stp>4d64adf6-4394-437c-8a7c-8d73fec20620</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>41f54c84-3e7d-41d4-9df5-7cc8243db32f</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0ca6bdbd-c321-45f8-966b-a5d0a96a31d7</stp>
+        <stp>09352383-56d2-459c-b11a-6aa3c81e0d94</stp>
         <tr r="L3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>65f48a38-231b-4b9f-9307-9d23e547a621</stp>
+        <stp>e40fbc4e-ee0d-49d8-8248-b9eb5ec8626e</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cfa77590-bac7-43f7-ab4b-1bc2912bf0e9</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>eea202e2-5dc4-4957-85dc-02e8a4824e61</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8500b6d1-a4f5-4a63-9274-ed6c95e35dd0</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5e413c84-9f00-43e1-adbf-bae47fee860d</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>54e33157-9ddf-47f5-a072-0c5f463844b0</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bd2c38b4-989a-4467-bf41-7bb778becdf3</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2a2ac8c4-05e3-4dfb-a05e-39bddfb9d83c</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f699c18a-c711-4930-baaa-36713ccc79a8</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>425e2a74-ebd3-48ac-8444-fad30c73b9f3</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d8c931a3-6a85-413f-94bd-566ae0579ff0</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>729bc649-f552-458f-bcd4-e988d206b0ff</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9377e7d8-8cbb-4752-b58c-b4a841f4c755</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>adaf37c3-0eb1-4b17-a6ac-574952dc1479</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1f9e3ea2-b78d-46b5-8acb-d3527494f5bc</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6304fa04-d557-4ef7-ad31-cb322e4fb0d6</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7c8b6171-6a3b-4f85-a6b2-ded3af7aa6a8</stp>
         <tr r="M3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f1e2b7a0-17d8-4598-8efb-23c60949679e</stp>
-        <tr r="M3" s="1"/>
+        <stp>27f777c9-1c60-49ff-baea-8fb5621eeacc</stp>
+        <tr r="H3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>90355c89-96fd-4db8-8bd2-cc188f53bf35</stp>
-        <tr r="J3" s="3"/>
+        <stp>d9110884-afe7-473e-a108-11356fc41ea8</stp>
+        <tr r="H3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0f8f3b68-5000-48bc-8914-c140ab3cfe39</stp>
+        <stp>402d79ad-98e5-4e48-b1a0-ecfe33f768cc</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>637afc34-e674-4236-8b08-36b30b1eff4b</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b1ec98ba-d9c8-4e49-b714-134ea5ec7af5</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>278802a5-f844-4a6d-a471-82d1ebfbbbb2</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>aefb9036-55b5-49c3-9d37-6f9710ab14c2</stp>
         <tr r="M3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ae1b6759-ba76-43ab-be6e-649591a33415</stp>
-        <tr r="G3" s="3"/>
+        <stp>b4a5f7f5-06ed-4d0f-b6c9-e6e8b201d09f</stp>
+        <tr r="O3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b97f4c6a-f61b-4718-9a91-b1a055bc8b9f</stp>
-        <tr r="F3" s="3"/>
+        <stp>7aeba36b-b825-4e09-aa2e-b44c19937582</stp>
+        <tr r="F3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>60a4160b-817d-42bf-b7c4-b21e93086a96</stp>
-        <tr r="C3" s="3"/>
+        <stp>bec5459a-a64a-477f-ac9d-1b75f7fd08db</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>71ecd433-ec03-4745-a049-a1f51610be04</stp>
+        <tr r="I3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>9f8d1b43-5246-4bb9-92f4-0632ce1a6fec</stp>
-        <tr r="H3" s="2"/>
+        <stp>1643db79-cb1c-452e-9b3b-65a85bb425bf</stp>
+        <tr r="N3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>05c64d72-0221-47eb-a109-3c6b9284a953</stp>
+        <stp>ef435940-3a2b-4787-8663-5e3dd2f659aa</stp>
         <tr r="A3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f21cb155-c5d2-4df8-a001-bfb8d3765ed7</stp>
+        <stp>db38d079-9f29-4633-9235-168a90c4aad1</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7d77f7c2-ffc4-49a0-8c54-514658d2447e</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7c946fb2-62d9-4c4e-9940-6d1e79b440e9</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5a231d63-bc3f-41e6-9b40-5b49d9cb559b</stp>
         <tr r="J3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
+    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>aaa660ff-44fc-43a7-8e6b-b86e410e9571</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a5ec7d0e-bab7-4a05-887d-f67478780f5d</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ac7dad34-f81d-4b3f-968e-86518e1c82b3</stp>
+        <stp>43884c9d-7073-498d-87f5-f9d73be805ac</stp>
         <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>25a31b31-1d85-4fe8-99c5-101724eb2fd4</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bcbd155a-7306-4009-9b97-9e71f99eaa61</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f6119f7f-2a11-4897-8679-9d26465222ce</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b8feecf9-b55b-4189-abb8-d7fe3191df49</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7993d1f1-6186-4cd8-b453-a20321ed16b9</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>db1e012f-0096-4aa5-a9dc-c0710f577cc2</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7b7ecb60-8a88-42b9-b342-dc7097179ffa</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6f668e8e-9536-4ff9-ac04-e0adc26795db</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>86d24ac3-3419-4bee-8816-cf34cb15408f</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>32f6ccb9-a6f1-4dab-a0dd-3faa9e59a09c</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e1102dde-d7db-4e3d-9414-2820b8aa6a4e</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bc626db3-6034-4a54-8b4d-263347eb854d</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>87813239-f359-4c09-9a48-9d12faa8da1b</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>483ee694-b9b9-46d7-99f7-f3f18dc63a80</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b74a9bb5-c8d8-4c52-8ae5-8dfcb40a49ea</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>dcd6e6ab-00a5-4d49-b857-65576ecc90c5</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e91b786b-5419-4b9f-8ab9-742ff46be9b5</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>339bb8f3-eff7-4e4f-a1bb-30f44a897543</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9317e2ca-843b-41f3-97fe-9e69a57572a6</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d99aebb2-5cb0-4a45-976d-da6e5211517a</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9be2b470-796b-4065-ae80-4ff0b0a46643</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9081fe9c6f91483791c10ad8ac22937d">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>68e94bb7-35f9-4904-8063-b1549e62c288</stp>
-        <tr r="H3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -866,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O292"/>
+  <dimension ref="A1:O294"/>
   <sheetViews>
     <sheetView topLeftCell="A272" workbookViewId="0">
       <selection activeCell="A292" sqref="A292"/>
@@ -14102,6 +14096,94 @@
         <v>7.157</v>
       </c>
     </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>45817</v>
+      </c>
+      <c r="C293">
+        <v>9.6537000000000006</v>
+      </c>
+      <c r="D293">
+        <v>8.5361999999999991</v>
+      </c>
+      <c r="E293">
+        <v>7.9207000000000001</v>
+      </c>
+      <c r="F293">
+        <v>7.6326000000000001</v>
+      </c>
+      <c r="G293">
+        <v>7.53</v>
+      </c>
+      <c r="H293">
+        <v>7.45</v>
+      </c>
+      <c r="I293">
+        <v>7.3922999999999996</v>
+      </c>
+      <c r="J293">
+        <v>7.3197000000000001</v>
+      </c>
+      <c r="K293">
+        <v>7.1889000000000003</v>
+      </c>
+      <c r="L293">
+        <v>7.21</v>
+      </c>
+      <c r="M293">
+        <v>7.1714000000000002</v>
+      </c>
+      <c r="N293">
+        <v>7.1615000000000002</v>
+      </c>
+      <c r="O293">
+        <v>7.1835000000000004</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>45818</v>
+      </c>
+      <c r="C294">
+        <v>9.6831999999999994</v>
+      </c>
+      <c r="D294">
+        <v>8.58</v>
+      </c>
+      <c r="E294">
+        <v>7.95</v>
+      </c>
+      <c r="F294">
+        <v>7.6612</v>
+      </c>
+      <c r="G294">
+        <v>7.5534999999999997</v>
+      </c>
+      <c r="H294">
+        <v>7.4837999999999996</v>
+      </c>
+      <c r="I294">
+        <v>7.4344000000000001</v>
+      </c>
+      <c r="J294">
+        <v>7.3613</v>
+      </c>
+      <c r="K294">
+        <v>7.2350000000000003</v>
+      </c>
+      <c r="L294">
+        <v>7.2515999999999998</v>
+      </c>
+      <c r="M294">
+        <v>7.21</v>
+      </c>
+      <c r="N294">
+        <v>7.1992000000000003</v>
+      </c>
+      <c r="O294">
+        <v>7.2187000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Economatica Excel Add-In" prompt="45045: You are not logged in Economatica" sqref="G3" xr:uid="{6C00A70D-7942-40C6-87A1-4313FAC35B9C}"/>
@@ -14112,7 +14194,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O292"/>
+  <dimension ref="A1:O294"/>
   <sheetViews>
     <sheetView topLeftCell="A268" workbookViewId="0">
       <selection activeCell="A290" sqref="A290"/>
@@ -27348,6 +27430,94 @@
         <v>3963.9010859999999</v>
       </c>
     </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>45817</v>
+      </c>
+      <c r="C293">
+        <v>4425.2002270000003</v>
+      </c>
+      <c r="D293">
+        <v>4344.7845969999998</v>
+      </c>
+      <c r="E293">
+        <v>4372.0717800000002</v>
+      </c>
+      <c r="F293">
+        <v>4304.158821</v>
+      </c>
+      <c r="G293">
+        <v>4326.6609189999999</v>
+      </c>
+      <c r="H293">
+        <v>4260.7225429999999</v>
+      </c>
+      <c r="I293">
+        <v>4182.941194</v>
+      </c>
+      <c r="J293">
+        <v>4143.5308940000004</v>
+      </c>
+      <c r="K293">
+        <v>4136.2109339999997</v>
+      </c>
+      <c r="L293">
+        <v>3992.5092829999999</v>
+      </c>
+      <c r="M293">
+        <v>4020.4923140000001</v>
+      </c>
+      <c r="N293">
+        <v>3924.894546</v>
+      </c>
+      <c r="O293">
+        <v>3952.4257269999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>45818</v>
+      </c>
+      <c r="C294">
+        <v>4423.2535989999997</v>
+      </c>
+      <c r="D294">
+        <v>4340.8186150000001</v>
+      </c>
+      <c r="E294">
+        <v>4367.803167</v>
+      </c>
+      <c r="F294">
+        <v>4299.2556299999997</v>
+      </c>
+      <c r="G294">
+        <v>4321.5974850000002</v>
+      </c>
+      <c r="H294">
+        <v>4252.1150850000004</v>
+      </c>
+      <c r="I294">
+        <v>4171.7124100000001</v>
+      </c>
+      <c r="J294">
+        <v>4130.6868590000004</v>
+      </c>
+      <c r="K294">
+        <v>4118.1497680000002</v>
+      </c>
+      <c r="L294">
+        <v>3974.1854880000001</v>
+      </c>
+      <c r="M294">
+        <v>4001.9242530000001</v>
+      </c>
+      <c r="N294">
+        <v>3905.9179589999999</v>
+      </c>
+      <c r="O294">
+        <v>3934.1806080000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -27355,11 +27525,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z292"/>
+  <dimension ref="A1:Z294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39821,6 +39989,106 @@
         <v>0.1087</v>
       </c>
     </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B293">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="C293">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="D293">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E293">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F293">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="G293">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="H293">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="I293">
+        <v>9.74E-2</v>
+      </c>
+      <c r="J293">
+        <v>0.1106</v>
+      </c>
+      <c r="K293">
+        <v>0.1229</v>
+      </c>
+      <c r="L293">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="M293">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="N293">
+        <v>0.1105</v>
+      </c>
+      <c r="O293">
+        <v>0.1096</v>
+      </c>
+      <c r="P293">
+        <v>0.10879999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B294">
+        <v>8.6E-3</v>
+      </c>
+      <c r="C294">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="D294">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E294">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="F294">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G294">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H294">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="I294">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="J294">
+        <v>0.1104</v>
+      </c>
+      <c r="K294">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="L294">
+        <v>0.1221</v>
+      </c>
+      <c r="M294">
+        <v>0.1192</v>
+      </c>
+      <c r="N294">
+        <v>0.1105</v>
+      </c>
+      <c r="O294">
+        <v>0.1099</v>
+      </c>
+      <c r="P294">
+        <v>0.1079</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F466A147-2CD6-435A-A387-EBCB1288BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE20CF-4CE4-4F19-A9B3-A0A87397388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID00c2a712c0154a33bab6414613a15312" localSheetId="1" hidden="1">Planilha1!$H$4:$H$294</definedName>
-    <definedName name="_ECO_RANGE_ID059a30c435174a1f9607d167fc46f356" localSheetId="0" hidden="1">Plan1!$K$4:$K$294</definedName>
-    <definedName name="_ECO_RANGE_ID06502e88cb024468941914dfc2a82240" localSheetId="2" hidden="1">Planilha2!$D$4:$D$294</definedName>
-    <definedName name="_ECO_RANGE_ID09e1ac7fca704d699f808e4d0db5d6fc" localSheetId="1" hidden="1">Planilha1!$A$4:$B$294</definedName>
-    <definedName name="_ECO_RANGE_ID17c40d30e2fd4fe6aa34904afff10b75" localSheetId="2" hidden="1">Planilha2!$G$4:$G$294</definedName>
-    <definedName name="_ECO_RANGE_ID1f6c7e71144045c1b814843b1326daf4" localSheetId="2" hidden="1">Planilha2!$O$4:$O$294</definedName>
-    <definedName name="_ECO_RANGE_ID2127478b8e38427bbe9948b91105f812" localSheetId="2" hidden="1">Planilha2!$K$4:$K$294</definedName>
-    <definedName name="_ECO_RANGE_ID26d473429f0543529494f048cca8190b" localSheetId="1" hidden="1">Planilha1!$E$4:$E$294</definedName>
-    <definedName name="_ECO_RANGE_ID33c58a38400345f3a133c6c8ef9d80aa" localSheetId="2" hidden="1">Planilha2!$E$4:$E$294</definedName>
-    <definedName name="_ECO_RANGE_ID3bcf8fae1b58444587f73aba841dd8d3" localSheetId="0" hidden="1">Plan1!$H$4:$H$294</definedName>
-    <definedName name="_ECO_RANGE_ID3e1afa9f3d964c0180e66731f0ed72f1" localSheetId="0" hidden="1">Plan1!$O$4:$O$294</definedName>
-    <definedName name="_ECO_RANGE_ID3ec1361d1bd9437489304b699420ae77" localSheetId="2" hidden="1">Planilha2!$P$4:$P$294</definedName>
-    <definedName name="_ECO_RANGE_ID3f9c1a640ea645d19740a62312863cfe" localSheetId="2" hidden="1">Planilha2!$F$4:$F$294</definedName>
-    <definedName name="_ECO_RANGE_ID458d1b6c423c430893a87912d27780cb" localSheetId="0" hidden="1">Plan1!$N$4:$N$294</definedName>
-    <definedName name="_ECO_RANGE_ID46e8d10163e74bc89fae582457146a90" localSheetId="1" hidden="1">Planilha1!$D$4:$D$294</definedName>
-    <definedName name="_ECO_RANGE_ID47ed45178efc4b3b82b8275ed9d5b0b6" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID490cf414030241aebaf8aae1f76ef82a" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID4d9c9569a9bc4561978d2f17115f6161" localSheetId="0" hidden="1">Plan1!$M$4:$M$294</definedName>
-    <definedName name="_ECO_RANGE_ID4f3e3c80b08b43abb71b932c48a600ea" localSheetId="2" hidden="1">Planilha2!$C$4:$C$294</definedName>
-    <definedName name="_ECO_RANGE_ID4f6821d0d69e42f098dba86159458274" localSheetId="2" hidden="1">Planilha2!$L$4:$L$294</definedName>
-    <definedName name="_ECO_RANGE_ID52bf5bb553524a63b2021ded81ee237d" localSheetId="0" hidden="1">Plan1!$L$4:$L$294</definedName>
-    <definedName name="_ECO_RANGE_ID5523885d897645898a7a98e75060af61" localSheetId="0" hidden="1">Plan1!$F$4:$F$294</definedName>
-    <definedName name="_ECO_RANGE_ID55b0b0f7e0384c78a8404a0104d332b5" localSheetId="0" hidden="1">Plan1!$I$4:$I$294</definedName>
-    <definedName name="_ECO_RANGE_ID691e070139a8442690ad47165295fa54" localSheetId="1" hidden="1">Planilha1!$N$4:$N$294</definedName>
-    <definedName name="_ECO_RANGE_ID6fde72e1e38f4d4c90805565c7d0b88b" localSheetId="1" hidden="1">Planilha1!$K$4:$K$294</definedName>
-    <definedName name="_ECO_RANGE_ID7a549cf99fdb491a90d485cfd030acdd" localSheetId="1" hidden="1">Planilha1!$C$4:$C$294</definedName>
-    <definedName name="_ECO_RANGE_ID7b387f37985c45e4be4f83968351c0b2" localSheetId="1" hidden="1">Planilha1!$F$4:$F$294</definedName>
-    <definedName name="_ECO_RANGE_ID8884592fadf54114bd088a9261b4a878" localSheetId="0" hidden="1">Plan1!$C$4:$C$294</definedName>
-    <definedName name="_ECO_RANGE_ID8be47876c7814c7e85ef30378125eed2" localSheetId="0" hidden="1">Plan1!$G$4:$G$294</definedName>
-    <definedName name="_ECO_RANGE_ID9293e28bd8f348f6bfed74de17045f33" localSheetId="2" hidden="1">Planilha2!$H$4:$H$294</definedName>
-    <definedName name="_ECO_RANGE_ID944078e011c2466a94b9f113abd8c55b" localSheetId="0" hidden="1">Plan1!$J$4:$J$294</definedName>
-    <definedName name="_ECO_RANGE_ID950a03ab110c4d979ab44420e52aad26" localSheetId="2" hidden="1">Planilha2!$N$4:$N$294</definedName>
-    <definedName name="_ECO_RANGE_ID9a62ba3b5fbf4e2692c12b5bc9368d57" localSheetId="2" hidden="1">Planilha2!$M$4:$M$294</definedName>
-    <definedName name="_ECO_RANGE_ID9cb1c0bcd64e40358f9fe715177888f8" localSheetId="1" hidden="1">Planilha1!$J$4:$J$294</definedName>
-    <definedName name="_ECO_RANGE_IDa47119e9772b4c329a3ba620de991acb" localSheetId="1" hidden="1">Planilha1!$M$4:$M$294</definedName>
-    <definedName name="_ECO_RANGE_IDa7baafd1fb4a4c1b81271da52e9a1825" localSheetId="1" hidden="1">Planilha1!$I$4:$I$294</definedName>
-    <definedName name="_ECO_RANGE_IDb279edd8695546448cb312bda26dc83b" localSheetId="2" hidden="1">Planilha2!$I$4:$I$294</definedName>
-    <definedName name="_ECO_RANGE_IDb280740be5e24791b5fc676a53d918ec" localSheetId="2" hidden="1">Planilha2!$A$4:$B$294</definedName>
-    <definedName name="_ECO_RANGE_IDbbc51696c55a467484f39c4ffa017f1c" localSheetId="0" hidden="1">Plan1!$D$4:$D$294</definedName>
-    <definedName name="_ECO_RANGE_IDc49babdf9925463e95cd20d3269346d2" localSheetId="0" hidden="1">Plan1!$A$4:$B$294</definedName>
-    <definedName name="_ECO_RANGE_IDc74f258094d1423c87c38fb8e58131fd" localSheetId="1" hidden="1">Planilha1!$O$4:$O$294</definedName>
-    <definedName name="_ECO_RANGE_IDcaf3350c607a4ced8ba7b818a4a67aa4" localSheetId="1" hidden="1">Planilha1!$G$4:$G$294</definedName>
-    <definedName name="_ECO_RANGE_IDd94138c5acc94ccf85a3e1a1e7f2ae9f" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDdc7b6f837a4244558a17bfe785d520ae" localSheetId="1" hidden="1">Planilha1!$L$4:$L$294</definedName>
-    <definedName name="_ECO_RANGE_IDeb5ffc3bf2f940c19b74972c79348b75" localSheetId="0" hidden="1">Plan1!$E$4:$E$294</definedName>
-    <definedName name="_ECO_RANGE_IDef5a3b6c86594768afe178c929999ba3" localSheetId="2" hidden="1">Planilha2!$J$4:$J$294</definedName>
+    <definedName name="_ECO_RANGE_ID0296b5223a964ddcbc17467d7314a63c" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID10f67ef75dd849a085d8e0e29417c6ec" localSheetId="0" hidden="1">Plan1!$H$4:$H$302</definedName>
+    <definedName name="_ECO_RANGE_ID1620dcdc38ec48149f9bc605e4e8d4d3" localSheetId="1" hidden="1">Planilha1!$N$4:$N$302</definedName>
+    <definedName name="_ECO_RANGE_ID1792fff5cbc64dd0ae4c6facefaf2902" localSheetId="1" hidden="1">Planilha1!$F$4:$F$302</definedName>
+    <definedName name="_ECO_RANGE_ID2c6109d323214da38e15c3ed06f09a33" localSheetId="0" hidden="1">Plan1!$C$4:$C$302</definedName>
+    <definedName name="_ECO_RANGE_ID34334a2867834138b51ab8a1b7aa350d" localSheetId="1" hidden="1">Planilha1!$J$4:$J$302</definedName>
+    <definedName name="_ECO_RANGE_ID367f84feb91746d49246c7eaca1962c0" localSheetId="0" hidden="1">Plan1!$A$4:$B$302</definedName>
+    <definedName name="_ECO_RANGE_ID375eb3815ff942a68cdf2a115b289d87" localSheetId="2" hidden="1">Planilha2!$L$4:$L$302</definedName>
+    <definedName name="_ECO_RANGE_ID490fcb087f3f471cb4782c1f59ab3e9d" localSheetId="1" hidden="1">Planilha1!$E$4:$E$302</definedName>
+    <definedName name="_ECO_RANGE_ID52c023c7625840ee893a428454ebd8bd" localSheetId="0" hidden="1">Plan1!$N$4:$N$302</definedName>
+    <definedName name="_ECO_RANGE_ID583ed32f9e564b478ba80bdf9ec358f2" localSheetId="1" hidden="1">Planilha1!$I$4:$I$302</definedName>
+    <definedName name="_ECO_RANGE_ID58bfe4f3103443a4887579049df2829e" localSheetId="1" hidden="1">Planilha1!$H$4:$H$302</definedName>
+    <definedName name="_ECO_RANGE_ID6327ab2fb87c4511a65b3facc3e2cd2a" localSheetId="0" hidden="1">Plan1!$J$4:$J$302</definedName>
+    <definedName name="_ECO_RANGE_ID6438df61baa4403d80652bc106e9667c" localSheetId="2" hidden="1">Planilha2!$K$4:$K$302</definedName>
+    <definedName name="_ECO_RANGE_ID649793f20e3647228d86fe489797cb00" localSheetId="0" hidden="1">Plan1!$E$4:$E$302</definedName>
+    <definedName name="_ECO_RANGE_ID6bff15bb7dfb48758db2dcc2ef9ec290" localSheetId="1" hidden="1">Planilha1!$C$4:$C$302</definedName>
+    <definedName name="_ECO_RANGE_ID6f542b17529a48bcbee7d4c487c42b53" localSheetId="2" hidden="1">Planilha2!$E$4:$E$302</definedName>
+    <definedName name="_ECO_RANGE_ID70aac4cd7c2c460bbf30e0f94b53d037" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID750cba9a8cb8412ba9614e141aef8864" localSheetId="2" hidden="1">Planilha2!$J$4:$J$302</definedName>
+    <definedName name="_ECO_RANGE_ID7a53d59435034b218aa5e6c207e777d7" localSheetId="1" hidden="1">Planilha1!$L$4:$L$302</definedName>
+    <definedName name="_ECO_RANGE_ID8a45b38e277d4f708a6c26089c7eb4da" localSheetId="2" hidden="1">Planilha2!$I$4:$I$302</definedName>
+    <definedName name="_ECO_RANGE_ID8bcaffb54a8942d3af73568c1734bd8e" localSheetId="1" hidden="1">Planilha1!$M$4:$M$302</definedName>
+    <definedName name="_ECO_RANGE_ID9a8f6b19c3ec4ff88cc398525a45ca69" localSheetId="2" hidden="1">Planilha2!$G$4:$G$302</definedName>
+    <definedName name="_ECO_RANGE_IDa6d1a301890a43469dbe4f436b3df285" localSheetId="2" hidden="1">Planilha2!$P$4:$P$302</definedName>
+    <definedName name="_ECO_RANGE_IDabaf8bf0bdab4425a09be9f6284eee52" localSheetId="2" hidden="1">Planilha2!$H$4:$H$302</definedName>
+    <definedName name="_ECO_RANGE_IDbfe3eebd27014256a50a01f3371b3a8f" localSheetId="0" hidden="1">Plan1!$O$4:$O$302</definedName>
+    <definedName name="_ECO_RANGE_IDc4a67f8de9974bdf9cdc451cb4a55549" localSheetId="0" hidden="1">Plan1!$I$4:$I$302</definedName>
+    <definedName name="_ECO_RANGE_IDc60fedc8d5624f4f8bf793f87e07f64a" localSheetId="1" hidden="1">Planilha1!$G$4:$G$302</definedName>
+    <definedName name="_ECO_RANGE_IDc6cf8d4fe50d4423b1314b2eb4d5b179" localSheetId="2" hidden="1">Planilha2!$F$4:$F$302</definedName>
+    <definedName name="_ECO_RANGE_IDce04780f5459470bb3b00ea4c86a3d6b" localSheetId="1" hidden="1">Planilha1!$D$4:$D$302</definedName>
+    <definedName name="_ECO_RANGE_IDd0e1d58f92fa4edfb742bcbbd7d550c2" localSheetId="1" hidden="1">Planilha1!$A$4:$B$302</definedName>
+    <definedName name="_ECO_RANGE_IDd54dae3ffd954c34a7170a57ce2377e7" localSheetId="2" hidden="1">Planilha2!$D$4:$D$302</definedName>
+    <definedName name="_ECO_RANGE_IDd630bbc340044b81b345890f1b99f10e" localSheetId="2" hidden="1">Planilha2!$A$4:$B$302</definedName>
+    <definedName name="_ECO_RANGE_IDdc0b3f7625974d3a894dd43062d96db1" localSheetId="0" hidden="1">Plan1!$L$4:$L$302</definedName>
+    <definedName name="_ECO_RANGE_IDdc152a2c73644ffc8f9dc250f4cd0bca" localSheetId="0" hidden="1">Plan1!$D$4:$D$302</definedName>
+    <definedName name="_ECO_RANGE_IDe0ddeaa474c24fae867884b4bc6bc4b4" localSheetId="2" hidden="1">Planilha2!$N$4:$N$302</definedName>
+    <definedName name="_ECO_RANGE_IDe33f985b88934a2bb17b619153d4cd22" localSheetId="0" hidden="1">Plan1!$G$4:$G$302</definedName>
+    <definedName name="_ECO_RANGE_IDe75a961cc5c7436f842bacf7e53afe3d" localSheetId="2" hidden="1">Planilha2!$C$4:$C$302</definedName>
+    <definedName name="_ECO_RANGE_IDea336f84ce59481796a8a7d14286b2b3" localSheetId="0" hidden="1">Plan1!$M$4:$M$302</definedName>
+    <definedName name="_ECO_RANGE_IDeaf250fe637144ad84fb9866d0707c59" localSheetId="1" hidden="1">Planilha1!$K$4:$K$302</definedName>
+    <definedName name="_ECO_RANGE_IDece3e23d5c374f1391fefc7a0c0f757d" localSheetId="0" hidden="1">Plan1!$K$4:$K$302</definedName>
+    <definedName name="_ECO_RANGE_IDf2de2ade000a4d84b0a43178a58c776a" localSheetId="1" hidden="1">Planilha1!$O$4:$O$302</definedName>
+    <definedName name="_ECO_RANGE_IDf45d893cd0d049ceb03c4e8cb3854174" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDf4f110608bb44e1bbebe4bcc5c915c74" localSheetId="2" hidden="1">Planilha2!$M$4:$M$302</definedName>
+    <definedName name="_ECO_RANGE_IDf5ceae5ead174c8a85c607963ec19118" localSheetId="0" hidden="1">Plan1!$F$4:$F$302</definedName>
+    <definedName name="_ECO_RANGE_IDfa62642802de4cbfae03edc91e56cb0b" localSheetId="2" hidden="1">Planilha2!$O$4:$O$302</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -275,322 +275,302 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>3dbe16e3-263f-4dae-b0a7-d68362b274f7</stp>
+        <stp>5927430d-406b-45c2-8ef2-beaaa8a1a64b</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>743b4a2f-7365-428c-a075-eb56c11cdd6a</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>2bbe010a-d4ae-47df-87cb-f4f35d2dac4e</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>3612867c-c1b1-4656-a4a7-3f840d86961a</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9d2b6c28-da1b-4efc-9cd1-96fcb1df6ca0</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6ba692a9-2ff6-45a9-825c-79e687f92b36</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>afeaf41b-5fd1-432d-820c-6fc3caa631fd</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>1e47a540-a324-451a-9620-61332f1ea0a7</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c2e07d60-ae7b-452e-a882-4021fd63f902</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>7d0d0c2b-e29b-4906-a54b-0d049539c6aa</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>f7a1d049-f121-45e2-8e99-417bed746898</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c872227f-72c6-453e-85b7-259f3992d1ad</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c02fc846-5584-49a0-81c7-6cf314da50b6</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>03bb15dc-5b4f-4251-8e83-61c388adc9bf</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>d0ac5e4a-71c6-415b-a596-51e7c58e6189</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a2937424-5e18-48e0-8c85-eaf9d4e06b93</stp>
         <tr r="N3" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>966e42e7-1573-4124-86a4-ec90266bbab1</stp>
-        <tr r="P3" s="3"/>
+        <stp>fddb604b-dbb1-4edb-b7d6-fa11bb33f9d0</stp>
+        <tr r="J3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>2f4001b7-c9eb-4f17-b085-480adb991407</stp>
+        <stp>80457f9d-9483-4694-b369-e2f8cea2c428</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>71142d9b-d264-4967-8f08-59ea20f541b6</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>0f04fc53-67c2-4bc0-bafe-3bd6bc3d4552</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6532f20c-9b10-4921-9d8f-bb607bcb7fec</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>2e86756c-93bb-4dc6-9457-086d2d063f4d</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>76d67df7-f9f5-44e6-84a4-d48d03cb54d6</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>2653a90a-341d-4084-84bf-2164002e080c</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>77e09013-a0d2-4101-ac3c-86a3028a22c5</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>cc08e159-eb4d-4660-bcaf-323533f412d4</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a8dcc572-d9cb-4942-b4fa-68e63aa5a1c6</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>b54d67dd-43df-43e7-ac80-32495f19997e</stp>
         <tr r="G3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>262112f9-32de-4b81-83fd-879921fb60e6</stp>
-        <tr r="K3" s="1"/>
+        <stp>26de6308-f855-4afa-99ba-fa9a9bd7d760</stp>
+        <tr r="O3" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>a1348783-3304-4151-befd-f6b610fee20d</stp>
+        <stp>e4b65700-cbaa-46af-98b6-4aed7f02d497</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>5c2d1b88-234a-41f1-b148-df7d913a5787</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>84ce3ede-c043-40ec-8cb2-f2ee0e0482a7</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>e4f40b1d-d463-482e-b0cc-5b59d2b86270</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>07ef7b4e-8d80-4574-93af-7f3c3c47ad71</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>4fe5d2e3-d131-489a-8ed6-ebdbc906a775</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>46c5cc90-087b-4d08-a16e-eafa10ee2bd9</stp>
         <tr r="D3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>87d5827a-a235-4822-b10a-36fa42b9e51d</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4d64adf6-4394-437c-8a7c-8d73fec20620</stp>
+        <stp>76fcff66-f1f3-4b1c-a1a5-2aeaa730285e</stp>
         <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>09352383-56d2-459c-b11a-6aa3c81e0d94</stp>
-        <tr r="L3" s="1"/>
+        <stp>b45299b4-beaf-4686-a6f8-11e2db665637</stp>
+        <tr r="H3" s="3"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>e40fbc4e-ee0d-49d8-8248-b9eb5ec8626e</stp>
-        <tr r="J3" s="3"/>
+        <stp>de507004-29b2-436b-beca-cca45f2299c6</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>f6ac68f7-a133-45e4-a52c-2a3c248fcf11</stp>
+        <tr r="K3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>cfa77590-bac7-43f7-ab4b-1bc2912bf0e9</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>eea202e2-5dc4-4957-85dc-02e8a4824e61</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8500b6d1-a4f5-4a63-9274-ed6c95e35dd0</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5e413c84-9f00-43e1-adbf-bae47fee860d</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>54e33157-9ddf-47f5-a072-0c5f463844b0</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bd2c38b4-989a-4467-bf41-7bb778becdf3</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2a2ac8c4-05e3-4dfb-a05e-39bddfb9d83c</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f699c18a-c711-4930-baaa-36713ccc79a8</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>425e2a74-ebd3-48ac-8444-fad30c73b9f3</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d8c931a3-6a85-413f-94bd-566ae0579ff0</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>729bc649-f552-458f-bcd4-e988d206b0ff</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9377e7d8-8cbb-4752-b58c-b4a841f4c755</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>adaf37c3-0eb1-4b17-a6ac-574952dc1479</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1f9e3ea2-b78d-46b5-8acb-d3527494f5bc</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6304fa04-d557-4ef7-ad31-cb322e4fb0d6</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7c8b6171-6a3b-4f85-a6b2-ded3af7aa6a8</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>27f777c9-1c60-49ff-baea-8fb5621eeacc</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d9110884-afe7-473e-a108-11356fc41ea8</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>402d79ad-98e5-4e48-b1a0-ecfe33f768cc</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>637afc34-e674-4236-8b08-36b30b1eff4b</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b1ec98ba-d9c8-4e49-b714-134ea5ec7af5</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>278802a5-f844-4a6d-a471-82d1ebfbbbb2</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>aefb9036-55b5-49c3-9d37-6f9710ab14c2</stp>
+        <stp>88f34ad4-4477-4434-8ced-61e7048a6e77</stp>
         <tr r="M3" s="3"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>b4a5f7f5-06ed-4d0f-b6c9-e6e8b201d09f</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7aeba36b-b825-4e09-aa2e-b44c19937582</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bec5459a-a64a-477f-ac9d-1b75f7fd08db</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>71ecd433-ec03-4745-a049-a1f51610be04</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1643db79-cb1c-452e-9b3b-65a85bb425bf</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ef435940-3a2b-4787-8663-5e3dd2f659aa</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>db38d079-9f29-4633-9235-168a90c4aad1</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7d77f7c2-ffc4-49a0-8c54-514658d2447e</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7c946fb2-62d9-4c4e-9940-6d1e79b440e9</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5a231d63-bc3f-41e6-9b40-5b49d9cb559b</stp>
+        <stp>5a394539-c07c-4ea8-beb7-5630f7aaf0c0</stp>
         <tr r="J3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_3e998867abbe491f913e77a3d14080bf">
+    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>43884c9d-7073-498d-87f5-f9d73be805ac</stp>
-        <tr r="E3" s="1"/>
+        <stp>e38ffaff-e3b2-40fa-a89f-8c942d3f06c7</stp>
+        <tr r="A3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -860,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O294"/>
+  <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292"/>
+    <sheetView topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="A299" sqref="A299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14184,6 +14164,319 @@
         <v>7.2187000000000001</v>
       </c>
     </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>45819</v>
+      </c>
+      <c r="C295">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="D295">
+        <v>8.673</v>
+      </c>
+      <c r="E295">
+        <v>8.0144000000000002</v>
+      </c>
+      <c r="F295">
+        <v>7.7042999999999999</v>
+      </c>
+      <c r="G295">
+        <v>7.5740999999999996</v>
+      </c>
+      <c r="H295">
+        <v>7.4847000000000001</v>
+      </c>
+      <c r="I295">
+        <v>7.4147999999999996</v>
+      </c>
+      <c r="J295">
+        <v>7.327</v>
+      </c>
+      <c r="K295">
+        <v>7.1992000000000003</v>
+      </c>
+      <c r="L295">
+        <v>7.2138999999999998</v>
+      </c>
+      <c r="M295">
+        <v>7.18</v>
+      </c>
+      <c r="N295">
+        <v>7.1707000000000001</v>
+      </c>
+      <c r="O295">
+        <v>7.1904000000000003</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>45820</v>
+      </c>
+      <c r="C296">
+        <v>9.6827000000000005</v>
+      </c>
+      <c r="D296">
+        <v>8.64</v>
+      </c>
+      <c r="E296">
+        <v>7.9661999999999997</v>
+      </c>
+      <c r="F296">
+        <v>7.66</v>
+      </c>
+      <c r="G296">
+        <v>7.5305999999999997</v>
+      </c>
+      <c r="H296">
+        <v>7.4812000000000003</v>
+      </c>
+      <c r="I296">
+        <v>7.43</v>
+      </c>
+      <c r="J296">
+        <v>7.3597000000000001</v>
+      </c>
+      <c r="K296">
+        <v>7.2160000000000002</v>
+      </c>
+      <c r="L296">
+        <v>7.2259000000000002</v>
+      </c>
+      <c r="M296">
+        <v>7.1951000000000001</v>
+      </c>
+      <c r="N296">
+        <v>7.17</v>
+      </c>
+      <c r="O296">
+        <v>7.1929999999999996</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>45821</v>
+      </c>
+      <c r="C297">
+        <v>9.5328999999999997</v>
+      </c>
+      <c r="D297">
+        <v>8.5488999999999997</v>
+      </c>
+      <c r="E297">
+        <v>7.91</v>
+      </c>
+      <c r="F297">
+        <v>7.6002000000000001</v>
+      </c>
+      <c r="G297">
+        <v>7.5086000000000004</v>
+      </c>
+      <c r="H297">
+        <v>7.4920999999999998</v>
+      </c>
+      <c r="I297">
+        <v>7.45</v>
+      </c>
+      <c r="J297">
+        <v>7.37</v>
+      </c>
+      <c r="K297">
+        <v>7.2148000000000003</v>
+      </c>
+      <c r="L297">
+        <v>7.1944999999999997</v>
+      </c>
+      <c r="M297">
+        <v>7.1661999999999999</v>
+      </c>
+      <c r="N297">
+        <v>7.1371000000000002</v>
+      </c>
+      <c r="O297">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>45824</v>
+      </c>
+      <c r="C298">
+        <v>9.6593999999999998</v>
+      </c>
+      <c r="D298">
+        <v>8.6554000000000002</v>
+      </c>
+      <c r="E298">
+        <v>7.9789000000000003</v>
+      </c>
+      <c r="F298">
+        <v>7.6601999999999997</v>
+      </c>
+      <c r="G298">
+        <v>7.5598000000000001</v>
+      </c>
+      <c r="H298">
+        <v>7.5208000000000004</v>
+      </c>
+      <c r="I298">
+        <v>7.4531000000000001</v>
+      </c>
+      <c r="J298">
+        <v>7.3464999999999998</v>
+      </c>
+      <c r="K298">
+        <v>7.1833</v>
+      </c>
+      <c r="L298">
+        <v>7.1687000000000003</v>
+      </c>
+      <c r="M298">
+        <v>7.1458000000000004</v>
+      </c>
+      <c r="N298">
+        <v>7.1125999999999996</v>
+      </c>
+      <c r="O298">
+        <v>7.1406999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>45825</v>
+      </c>
+      <c r="C299">
+        <v>9.66</v>
+      </c>
+      <c r="D299">
+        <v>8.6629000000000005</v>
+      </c>
+      <c r="E299">
+        <v>8.0174000000000003</v>
+      </c>
+      <c r="F299">
+        <v>7.7096999999999998</v>
+      </c>
+      <c r="G299">
+        <v>7.5900999999999996</v>
+      </c>
+      <c r="H299">
+        <v>7.54</v>
+      </c>
+      <c r="I299">
+        <v>7.4648000000000003</v>
+      </c>
+      <c r="J299">
+        <v>7.3490000000000002</v>
+      </c>
+      <c r="K299">
+        <v>7.18</v>
+      </c>
+      <c r="L299">
+        <v>7.1589</v>
+      </c>
+      <c r="M299">
+        <v>7.1284999999999998</v>
+      </c>
+      <c r="N299">
+        <v>7.0898000000000003</v>
+      </c>
+      <c r="O299">
+        <v>7.1124999999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>45826</v>
+      </c>
+      <c r="C300">
+        <v>9.7156000000000002</v>
+      </c>
+      <c r="D300">
+        <v>8.7189999999999994</v>
+      </c>
+      <c r="E300">
+        <v>8.0356000000000005</v>
+      </c>
+      <c r="F300">
+        <v>7.73</v>
+      </c>
+      <c r="G300">
+        <v>7.6170999999999998</v>
+      </c>
+      <c r="H300">
+        <v>7.5602999999999998</v>
+      </c>
+      <c r="I300">
+        <v>7.4772999999999996</v>
+      </c>
+      <c r="J300">
+        <v>7.3493000000000004</v>
+      </c>
+      <c r="K300">
+        <v>7.1654999999999998</v>
+      </c>
+      <c r="L300">
+        <v>7.1272000000000002</v>
+      </c>
+      <c r="M300">
+        <v>7.0899000000000001</v>
+      </c>
+      <c r="N300">
+        <v>7.0505000000000004</v>
+      </c>
+      <c r="O300">
+        <v>7.0688000000000004</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>45828</v>
+      </c>
+      <c r="C302">
+        <v>9.8401999999999994</v>
+      </c>
+      <c r="D302">
+        <v>8.8070000000000004</v>
+      </c>
+      <c r="E302">
+        <v>8.0246999999999993</v>
+      </c>
+      <c r="F302">
+        <v>7.69</v>
+      </c>
+      <c r="G302">
+        <v>7.5785999999999998</v>
+      </c>
+      <c r="H302">
+        <v>7.5052000000000003</v>
+      </c>
+      <c r="I302">
+        <v>7.4265999999999996</v>
+      </c>
+      <c r="J302">
+        <v>7.2938000000000001</v>
+      </c>
+      <c r="K302">
+        <v>7.1071</v>
+      </c>
+      <c r="L302">
+        <v>7.0762</v>
+      </c>
+      <c r="M302">
+        <v>7.0271999999999997</v>
+      </c>
+      <c r="N302">
+        <v>6.9974999999999996</v>
+      </c>
+      <c r="O302">
+        <v>7.0031999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Economatica Excel Add-In" prompt="45045: You are not logged in Economatica" sqref="G3" xr:uid="{6C00A70D-7942-40C6-87A1-4313FAC35B9C}"/>
@@ -14194,10 +14487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O294"/>
+  <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="A299" sqref="A299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27518,6 +27811,319 @@
         <v>3934.1806080000001</v>
       </c>
     </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>45819</v>
+      </c>
+      <c r="C295">
+        <v>4420.9527420000004</v>
+      </c>
+      <c r="D295">
+        <v>4335.9424980000003</v>
+      </c>
+      <c r="E295">
+        <v>4362.1714169999996</v>
+      </c>
+      <c r="F295">
+        <v>4294.9843719999999</v>
+      </c>
+      <c r="G295">
+        <v>4319.7182380000004</v>
+      </c>
+      <c r="H295">
+        <v>4253.6287689999999</v>
+      </c>
+      <c r="I295">
+        <v>4178.1986070000003</v>
+      </c>
+      <c r="J295">
+        <v>4142.181834</v>
+      </c>
+      <c r="K295">
+        <v>4133.0805309999996</v>
+      </c>
+      <c r="L295">
+        <v>3991.5563830000001</v>
+      </c>
+      <c r="M295">
+        <v>4017.225222</v>
+      </c>
+      <c r="N295">
+        <v>3921.1262929999998</v>
+      </c>
+      <c r="O295">
+        <v>3949.6858689999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>45820</v>
+      </c>
+      <c r="C296">
+        <v>4427.5684490000003</v>
+      </c>
+      <c r="D296">
+        <v>4340.2940330000001</v>
+      </c>
+      <c r="E296">
+        <v>4369.6068530000002</v>
+      </c>
+      <c r="F296">
+        <v>4302.9584709999999</v>
+      </c>
+      <c r="G296">
+        <v>4329.1633819999997</v>
+      </c>
+      <c r="H296">
+        <v>4256.145595</v>
+      </c>
+      <c r="I296">
+        <v>4176.1485640000001</v>
+      </c>
+      <c r="J296">
+        <v>4134.4492819999996</v>
+      </c>
+      <c r="K296">
+        <v>4128.4593299999997</v>
+      </c>
+      <c r="L296">
+        <v>3988.0929769999998</v>
+      </c>
+      <c r="M296">
+        <v>4011.8856449999998</v>
+      </c>
+      <c r="N296">
+        <v>3923.0030670000001</v>
+      </c>
+      <c r="O296">
+        <v>3949.9533350000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>45821</v>
+      </c>
+      <c r="C297">
+        <v>4436.5665580000004</v>
+      </c>
+      <c r="D297">
+        <v>4348.8842699999996</v>
+      </c>
+      <c r="E297">
+        <v>4377.9746580000001</v>
+      </c>
+      <c r="F297">
+        <v>4313.1119930000004</v>
+      </c>
+      <c r="G297">
+        <v>4334.8111900000004</v>
+      </c>
+      <c r="H297">
+        <v>4255.3920360000002</v>
+      </c>
+      <c r="I297">
+        <v>4172.9368919999997</v>
+      </c>
+      <c r="J297">
+        <v>4133.152771</v>
+      </c>
+      <c r="K297">
+        <v>4130.5324220000002</v>
+      </c>
+      <c r="L297">
+        <v>4002.8762630000001</v>
+      </c>
+      <c r="M297">
+        <v>4026.725954</v>
+      </c>
+      <c r="N297">
+        <v>3940.4306430000001</v>
+      </c>
+      <c r="O297">
+        <v>3962.9114279999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>45824</v>
+      </c>
+      <c r="C298">
+        <v>4432.9243159999996</v>
+      </c>
+      <c r="D298">
+        <v>4343.0583390000002</v>
+      </c>
+      <c r="E298">
+        <v>4371.826838</v>
+      </c>
+      <c r="F298">
+        <v>4306.4685310000004</v>
+      </c>
+      <c r="G298">
+        <v>4327.5286809999998</v>
+      </c>
+      <c r="H298">
+        <v>4250.5988139999999</v>
+      </c>
+      <c r="I298">
+        <v>4173.8632369999996</v>
+      </c>
+      <c r="J298">
+        <v>4141.5387760000003</v>
+      </c>
+      <c r="K298">
+        <v>4143.8928500000002</v>
+      </c>
+      <c r="L298">
+        <v>4015.3495760000001</v>
+      </c>
+      <c r="M298">
+        <v>4037.7064989999999</v>
+      </c>
+      <c r="N298">
+        <v>3953.872554</v>
+      </c>
+      <c r="O298">
+        <v>3979.0760540000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>45825</v>
+      </c>
+      <c r="C299">
+        <v>4435.0950780000003</v>
+      </c>
+      <c r="D299">
+        <v>4344.5079560000004</v>
+      </c>
+      <c r="E299">
+        <v>4369.2809079999997</v>
+      </c>
+      <c r="F299">
+        <v>4301.3744589999997</v>
+      </c>
+      <c r="G299">
+        <v>4324.0054229999996</v>
+      </c>
+      <c r="H299">
+        <v>4248.0281070000001</v>
+      </c>
+      <c r="I299">
+        <v>4172.7376720000002</v>
+      </c>
+      <c r="J299">
+        <v>4142.5284080000001</v>
+      </c>
+      <c r="K299">
+        <v>4146.8033459999997</v>
+      </c>
+      <c r="L299">
+        <v>4021.1264799999999</v>
+      </c>
+      <c r="M299">
+        <v>4047.3364630000001</v>
+      </c>
+      <c r="N299">
+        <v>3966.591641</v>
+      </c>
+      <c r="O299">
+        <v>3994.830637</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>45826</v>
+      </c>
+      <c r="C300">
+        <v>4434.7760589999998</v>
+      </c>
+      <c r="D300">
+        <v>4342.4416680000004</v>
+      </c>
+      <c r="E300">
+        <v>4369.0844109999998</v>
+      </c>
+      <c r="F300">
+        <v>4300.3737039999996</v>
+      </c>
+      <c r="G300">
+        <v>4321.0732390000003</v>
+      </c>
+      <c r="H300">
+        <v>4245.2171250000001</v>
+      </c>
+      <c r="I300">
+        <v>4171.4219249999996</v>
+      </c>
+      <c r="J300">
+        <v>4144.1464450000003</v>
+      </c>
+      <c r="K300">
+        <v>4153.9041520000001</v>
+      </c>
+      <c r="L300">
+        <v>4036.2286479999998</v>
+      </c>
+      <c r="M300">
+        <v>4066.9118680000001</v>
+      </c>
+      <c r="N300">
+        <v>3987.4898290000001</v>
+      </c>
+      <c r="O300">
+        <v>4018.5481719999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>45828</v>
+      </c>
+      <c r="C302">
+        <v>4431.3741499999996</v>
+      </c>
+      <c r="D302">
+        <v>4338.096622</v>
+      </c>
+      <c r="E302">
+        <v>4372.2507699999996</v>
+      </c>
+      <c r="F302">
+        <v>4307.775549</v>
+      </c>
+      <c r="G302">
+        <v>4329.6620480000001</v>
+      </c>
+      <c r="H302">
+        <v>4259.4643349999997</v>
+      </c>
+      <c r="I302">
+        <v>4185.5420299999996</v>
+      </c>
+      <c r="J302">
+        <v>4161.7932350000001</v>
+      </c>
+      <c r="K302">
+        <v>4177.5097480000004</v>
+      </c>
+      <c r="L302">
+        <v>4059.6788409999999</v>
+      </c>
+      <c r="M302">
+        <v>4097.9643939999996</v>
+      </c>
+      <c r="N302">
+        <v>4015.3634269999998</v>
+      </c>
+      <c r="O302">
+        <v>4053.752943</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -27525,9 +28131,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z294"/>
+  <dimension ref="A1:Z302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -40089,6 +40697,361 @@
         <v>0.1079</v>
       </c>
     </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B295">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="C295">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D295">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="E295">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="F295">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G295">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="H295">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="I295">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="J295">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="K295">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="L295">
+        <v>0.122</v>
+      </c>
+      <c r="M295">
+        <v>0.12</v>
+      </c>
+      <c r="N295">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="O295">
+        <v>0.1094</v>
+      </c>
+      <c r="P295">
+        <v>0.10639999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B296">
+        <v>6.3E-3</v>
+      </c>
+      <c r="C296">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D296">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E296">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="F296">
+        <v>4.41E-2</v>
+      </c>
+      <c r="G296">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H296">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I296">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="J296">
+        <v>0.11</v>
+      </c>
+      <c r="K296">
+        <v>0.1234</v>
+      </c>
+      <c r="L296">
+        <v>0.1227</v>
+      </c>
+      <c r="M296">
+        <v>0.1207</v>
+      </c>
+      <c r="N296">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="O296">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="P296">
+        <v>0.1057</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B297">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="C297">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D297">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E297">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="F297">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G297">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="H297">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="I297">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="J297">
+        <v>0.1101</v>
+      </c>
+      <c r="K297">
+        <v>0.1234</v>
+      </c>
+      <c r="L297">
+        <v>0.1229</v>
+      </c>
+      <c r="M297">
+        <v>0.1202</v>
+      </c>
+      <c r="N297">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="O297">
+        <v>0.1086</v>
+      </c>
+      <c r="P297">
+        <v>0.1051</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B298">
+        <v>6.3E-3</v>
+      </c>
+      <c r="C298">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D298">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E298">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="F298">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G298">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="H298">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="I298">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J298">
+        <v>0.1101</v>
+      </c>
+      <c r="K298">
+        <v>0.1235</v>
+      </c>
+      <c r="L298">
+        <v>0.1232</v>
+      </c>
+      <c r="M298">
+        <v>0.1202</v>
+      </c>
+      <c r="N298">
+        <v>0.1091</v>
+      </c>
+      <c r="O298">
+        <v>0.108</v>
+      </c>
+      <c r="P298">
+        <v>0.1048</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B299">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C299">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D299">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E299">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="F299">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="G299">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="H299">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I299">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="J299">
+        <v>0.11</v>
+      </c>
+      <c r="K299">
+        <v>0.1235</v>
+      </c>
+      <c r="L299">
+        <v>0.1234</v>
+      </c>
+      <c r="M299">
+        <v>0.1203</v>
+      </c>
+      <c r="N299">
+        <v>0.1086</v>
+      </c>
+      <c r="O299">
+        <v>0.1071</v>
+      </c>
+      <c r="P299">
+        <v>0.1041</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B300">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C300">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D300">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E300">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="F300">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="G300">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="H300">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I300">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="J300">
+        <v>0.1106</v>
+      </c>
+      <c r="K300">
+        <v>0.1236</v>
+      </c>
+      <c r="L300">
+        <v>0.1234</v>
+      </c>
+      <c r="M300">
+        <v>0.1203</v>
+      </c>
+      <c r="N300">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="O300">
+        <v>0.1067</v>
+      </c>
+      <c r="P300">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B302">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="C302">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D302">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E302">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F302">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="G302">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="H302">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="I302">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="J302">
+        <v>0.1115</v>
+      </c>
+      <c r="K302">
+        <v>0.1236</v>
+      </c>
+      <c r="L302">
+        <v>0.1235</v>
+      </c>
+      <c r="M302">
+        <v>0.1203</v>
+      </c>
+      <c r="N302">
+        <v>0.1081</v>
+      </c>
+      <c r="O302">
+        <v>0.1062</v>
+      </c>
+      <c r="P302">
+        <v>0.1037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE20CF-4CE4-4F19-A9B3-A0A87397388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1D9627-CCD4-4AA4-A127-170BEFAD08CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID0296b5223a964ddcbc17467d7314a63c" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID10f67ef75dd849a085d8e0e29417c6ec" localSheetId="0" hidden="1">Plan1!$H$4:$H$302</definedName>
-    <definedName name="_ECO_RANGE_ID1620dcdc38ec48149f9bc605e4e8d4d3" localSheetId="1" hidden="1">Planilha1!$N$4:$N$302</definedName>
-    <definedName name="_ECO_RANGE_ID1792fff5cbc64dd0ae4c6facefaf2902" localSheetId="1" hidden="1">Planilha1!$F$4:$F$302</definedName>
-    <definedName name="_ECO_RANGE_ID2c6109d323214da38e15c3ed06f09a33" localSheetId="0" hidden="1">Plan1!$C$4:$C$302</definedName>
-    <definedName name="_ECO_RANGE_ID34334a2867834138b51ab8a1b7aa350d" localSheetId="1" hidden="1">Planilha1!$J$4:$J$302</definedName>
-    <definedName name="_ECO_RANGE_ID367f84feb91746d49246c7eaca1962c0" localSheetId="0" hidden="1">Plan1!$A$4:$B$302</definedName>
-    <definedName name="_ECO_RANGE_ID375eb3815ff942a68cdf2a115b289d87" localSheetId="2" hidden="1">Planilha2!$L$4:$L$302</definedName>
-    <definedName name="_ECO_RANGE_ID490fcb087f3f471cb4782c1f59ab3e9d" localSheetId="1" hidden="1">Planilha1!$E$4:$E$302</definedName>
-    <definedName name="_ECO_RANGE_ID52c023c7625840ee893a428454ebd8bd" localSheetId="0" hidden="1">Plan1!$N$4:$N$302</definedName>
-    <definedName name="_ECO_RANGE_ID583ed32f9e564b478ba80bdf9ec358f2" localSheetId="1" hidden="1">Planilha1!$I$4:$I$302</definedName>
-    <definedName name="_ECO_RANGE_ID58bfe4f3103443a4887579049df2829e" localSheetId="1" hidden="1">Planilha1!$H$4:$H$302</definedName>
-    <definedName name="_ECO_RANGE_ID6327ab2fb87c4511a65b3facc3e2cd2a" localSheetId="0" hidden="1">Plan1!$J$4:$J$302</definedName>
-    <definedName name="_ECO_RANGE_ID6438df61baa4403d80652bc106e9667c" localSheetId="2" hidden="1">Planilha2!$K$4:$K$302</definedName>
-    <definedName name="_ECO_RANGE_ID649793f20e3647228d86fe489797cb00" localSheetId="0" hidden="1">Plan1!$E$4:$E$302</definedName>
-    <definedName name="_ECO_RANGE_ID6bff15bb7dfb48758db2dcc2ef9ec290" localSheetId="1" hidden="1">Planilha1!$C$4:$C$302</definedName>
-    <definedName name="_ECO_RANGE_ID6f542b17529a48bcbee7d4c487c42b53" localSheetId="2" hidden="1">Planilha2!$E$4:$E$302</definedName>
-    <definedName name="_ECO_RANGE_ID70aac4cd7c2c460bbf30e0f94b53d037" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID750cba9a8cb8412ba9614e141aef8864" localSheetId="2" hidden="1">Planilha2!$J$4:$J$302</definedName>
-    <definedName name="_ECO_RANGE_ID7a53d59435034b218aa5e6c207e777d7" localSheetId="1" hidden="1">Planilha1!$L$4:$L$302</definedName>
-    <definedName name="_ECO_RANGE_ID8a45b38e277d4f708a6c26089c7eb4da" localSheetId="2" hidden="1">Planilha2!$I$4:$I$302</definedName>
-    <definedName name="_ECO_RANGE_ID8bcaffb54a8942d3af73568c1734bd8e" localSheetId="1" hidden="1">Planilha1!$M$4:$M$302</definedName>
-    <definedName name="_ECO_RANGE_ID9a8f6b19c3ec4ff88cc398525a45ca69" localSheetId="2" hidden="1">Planilha2!$G$4:$G$302</definedName>
-    <definedName name="_ECO_RANGE_IDa6d1a301890a43469dbe4f436b3df285" localSheetId="2" hidden="1">Planilha2!$P$4:$P$302</definedName>
-    <definedName name="_ECO_RANGE_IDabaf8bf0bdab4425a09be9f6284eee52" localSheetId="2" hidden="1">Planilha2!$H$4:$H$302</definedName>
-    <definedName name="_ECO_RANGE_IDbfe3eebd27014256a50a01f3371b3a8f" localSheetId="0" hidden="1">Plan1!$O$4:$O$302</definedName>
-    <definedName name="_ECO_RANGE_IDc4a67f8de9974bdf9cdc451cb4a55549" localSheetId="0" hidden="1">Plan1!$I$4:$I$302</definedName>
-    <definedName name="_ECO_RANGE_IDc60fedc8d5624f4f8bf793f87e07f64a" localSheetId="1" hidden="1">Planilha1!$G$4:$G$302</definedName>
-    <definedName name="_ECO_RANGE_IDc6cf8d4fe50d4423b1314b2eb4d5b179" localSheetId="2" hidden="1">Planilha2!$F$4:$F$302</definedName>
-    <definedName name="_ECO_RANGE_IDce04780f5459470bb3b00ea4c86a3d6b" localSheetId="1" hidden="1">Planilha1!$D$4:$D$302</definedName>
-    <definedName name="_ECO_RANGE_IDd0e1d58f92fa4edfb742bcbbd7d550c2" localSheetId="1" hidden="1">Planilha1!$A$4:$B$302</definedName>
-    <definedName name="_ECO_RANGE_IDd54dae3ffd954c34a7170a57ce2377e7" localSheetId="2" hidden="1">Planilha2!$D$4:$D$302</definedName>
-    <definedName name="_ECO_RANGE_IDd630bbc340044b81b345890f1b99f10e" localSheetId="2" hidden="1">Planilha2!$A$4:$B$302</definedName>
-    <definedName name="_ECO_RANGE_IDdc0b3f7625974d3a894dd43062d96db1" localSheetId="0" hidden="1">Plan1!$L$4:$L$302</definedName>
-    <definedName name="_ECO_RANGE_IDdc152a2c73644ffc8f9dc250f4cd0bca" localSheetId="0" hidden="1">Plan1!$D$4:$D$302</definedName>
-    <definedName name="_ECO_RANGE_IDe0ddeaa474c24fae867884b4bc6bc4b4" localSheetId="2" hidden="1">Planilha2!$N$4:$N$302</definedName>
-    <definedName name="_ECO_RANGE_IDe33f985b88934a2bb17b619153d4cd22" localSheetId="0" hidden="1">Plan1!$G$4:$G$302</definedName>
-    <definedName name="_ECO_RANGE_IDe75a961cc5c7436f842bacf7e53afe3d" localSheetId="2" hidden="1">Planilha2!$C$4:$C$302</definedName>
-    <definedName name="_ECO_RANGE_IDea336f84ce59481796a8a7d14286b2b3" localSheetId="0" hidden="1">Plan1!$M$4:$M$302</definedName>
-    <definedName name="_ECO_RANGE_IDeaf250fe637144ad84fb9866d0707c59" localSheetId="1" hidden="1">Planilha1!$K$4:$K$302</definedName>
-    <definedName name="_ECO_RANGE_IDece3e23d5c374f1391fefc7a0c0f757d" localSheetId="0" hidden="1">Plan1!$K$4:$K$302</definedName>
-    <definedName name="_ECO_RANGE_IDf2de2ade000a4d84b0a43178a58c776a" localSheetId="1" hidden="1">Planilha1!$O$4:$O$302</definedName>
-    <definedName name="_ECO_RANGE_IDf45d893cd0d049ceb03c4e8cb3854174" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDf4f110608bb44e1bbebe4bcc5c915c74" localSheetId="2" hidden="1">Planilha2!$M$4:$M$302</definedName>
-    <definedName name="_ECO_RANGE_IDf5ceae5ead174c8a85c607963ec19118" localSheetId="0" hidden="1">Plan1!$F$4:$F$302</definedName>
-    <definedName name="_ECO_RANGE_IDfa62642802de4cbfae03edc91e56cb0b" localSheetId="2" hidden="1">Planilha2!$O$4:$O$302</definedName>
+    <definedName name="_ECO_RANGE_ID0032e1e4d5374925b18487a6932b8185" localSheetId="1" hidden="1">Planilha1!$K$4:$K$308</definedName>
+    <definedName name="_ECO_RANGE_ID0516ac5af5cf4d2c9dca25b315dd7a34" localSheetId="1" hidden="1">Planilha1!$L$4:$L$308</definedName>
+    <definedName name="_ECO_RANGE_ID05ce08d840f04461b472509c807637cf" localSheetId="2" hidden="1">Planilha2!$I$4:$I$308</definedName>
+    <definedName name="_ECO_RANGE_ID12e684bad98e4e2b910c038b1b6cbbb4" localSheetId="2" hidden="1">Planilha2!$F$4:$F$308</definedName>
+    <definedName name="_ECO_RANGE_ID1765f670232a4e3eb6d4fea5693731e4" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID19c502e12f72490285df38d8664a57c9" localSheetId="2" hidden="1">Planilha2!$M$4:$M$308</definedName>
+    <definedName name="_ECO_RANGE_ID1ac53fcadf2743d193c85392b68ccc9d" localSheetId="0" hidden="1">Plan1!$C$4:$C$308</definedName>
+    <definedName name="_ECO_RANGE_ID1fe8b75108b8438a80cab7621d0f4474" localSheetId="2" hidden="1">Planilha2!$H$4:$H$308</definedName>
+    <definedName name="_ECO_RANGE_ID209e509cdedf463db2aede9f4c8c1dec" localSheetId="0" hidden="1">Plan1!$L$4:$L$308</definedName>
+    <definedName name="_ECO_RANGE_ID28d684fcc9804e08af0b25d84c38f136" localSheetId="0" hidden="1">Plan1!$M$4:$M$308</definedName>
+    <definedName name="_ECO_RANGE_ID29f9c03d5f974546bad0e08372bdff80" localSheetId="0" hidden="1">Plan1!$I$4:$I$308</definedName>
+    <definedName name="_ECO_RANGE_ID2c75ae98ff0840e2a1b9fd10c9bf3394" localSheetId="1" hidden="1">Planilha1!$F$4:$F$308</definedName>
+    <definedName name="_ECO_RANGE_ID367dfe050d4242738c753fefbed4217a" localSheetId="2" hidden="1">Planilha2!$D$4:$D$308</definedName>
+    <definedName name="_ECO_RANGE_ID3cb106f5c30241979e77ac4b34ffa705" localSheetId="2" hidden="1">Planilha2!$L$4:$L$308</definedName>
+    <definedName name="_ECO_RANGE_ID48d7169a85344c5aa4cedf783f1d15b6" localSheetId="1" hidden="1">Planilha1!$C$4:$C$308</definedName>
+    <definedName name="_ECO_RANGE_ID4a019c29792d425982f1d078933f6970" localSheetId="0" hidden="1">Plan1!$A$4:$B$308</definedName>
+    <definedName name="_ECO_RANGE_ID4daaf040e565466183a200aa67779104" localSheetId="0" hidden="1">Plan1!$O$4:$O$308</definedName>
+    <definedName name="_ECO_RANGE_ID57da2ae601ca4f3eac91a9a8a9c97004" localSheetId="0" hidden="1">Plan1!$J$4:$J$308</definedName>
+    <definedName name="_ECO_RANGE_ID5c60daf5bcd04fd7b3186d17b55cb6ba" localSheetId="1" hidden="1">Planilha1!$H$4:$H$308</definedName>
+    <definedName name="_ECO_RANGE_ID6b2229089c16488ea9c88315c6230d23" localSheetId="0" hidden="1">Plan1!$F$4:$F$308</definedName>
+    <definedName name="_ECO_RANGE_ID73c882f9c4b44744831a00c637e22d0d" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID7616e1a833cb473897ed4b00c5b94b7a" localSheetId="1" hidden="1">Planilha1!$J$4:$J$308</definedName>
+    <definedName name="_ECO_RANGE_ID7bd8b894f8904034a8a03bf3c0db7c06" localSheetId="2" hidden="1">Planilha2!$G$4:$G$308</definedName>
+    <definedName name="_ECO_RANGE_ID825f323cd83b41ecababb4999de6ac9a" localSheetId="0" hidden="1">Plan1!$G$4:$G$308</definedName>
+    <definedName name="_ECO_RANGE_ID826ece022d20483cb966455e9c324652" localSheetId="2" hidden="1">Planilha2!$E$4:$E$308</definedName>
+    <definedName name="_ECO_RANGE_ID84763f04a44245e7a521bbb9c3510f77" localSheetId="2" hidden="1">Planilha2!$C$4:$C$308</definedName>
+    <definedName name="_ECO_RANGE_ID9029777bbf8744bcbd3190ec2bee3a47" localSheetId="2" hidden="1">Planilha2!$O$4:$O$308</definedName>
+    <definedName name="_ECO_RANGE_ID9114233d453343d3b4c27634881d69f8" localSheetId="1" hidden="1">Planilha1!$I$4:$I$308</definedName>
+    <definedName name="_ECO_RANGE_ID93c6c6af382d42edb08d3d84e28ef409" localSheetId="0" hidden="1">Plan1!$D$4:$D$308</definedName>
+    <definedName name="_ECO_RANGE_ID9b3f4baeb7bf4518a37401566e8f48ef" localSheetId="0" hidden="1">Plan1!$N$4:$N$308</definedName>
+    <definedName name="_ECO_RANGE_IDa2967463b1854799b179f49c366a09d7" localSheetId="2" hidden="1">Planilha2!$N$4:$N$308</definedName>
+    <definedName name="_ECO_RANGE_IDa8474f59a3bc4f2ab309edac8b8f5c2a" localSheetId="1" hidden="1">Planilha1!$A$4:$B$308</definedName>
+    <definedName name="_ECO_RANGE_IDb4170bc6014c46e99ddb86d9f805dd6b" localSheetId="1" hidden="1">Planilha1!$D$4:$D$308</definedName>
+    <definedName name="_ECO_RANGE_IDc1205264e486439a8228adc91e9199b7" localSheetId="0" hidden="1">Plan1!$K$4:$K$308</definedName>
+    <definedName name="_ECO_RANGE_IDc3ce9e94e96f4ea59090480d82a539ff" localSheetId="1" hidden="1">Planilha1!$G$4:$G$308</definedName>
+    <definedName name="_ECO_RANGE_IDd0d8ca7614d14407bf68a55f240daeef" localSheetId="1" hidden="1">Planilha1!$M$4:$M$308</definedName>
+    <definedName name="_ECO_RANGE_IDd4be14ad4220461aa2b1ace6eaa5e190" localSheetId="0" hidden="1">Plan1!$E$4:$E$308</definedName>
+    <definedName name="_ECO_RANGE_IDdafb0aca220a4f7aaf2ae9203597421c" localSheetId="2" hidden="1">Planilha2!$P$4:$P$308</definedName>
+    <definedName name="_ECO_RANGE_IDdd4d7f5287c44ce4952df46d5f78b16e" localSheetId="2" hidden="1">Planilha2!$A$4:$B$308</definedName>
+    <definedName name="_ECO_RANGE_IDdf0286f8738a4154973885cbc5f863f2" localSheetId="1" hidden="1">Planilha1!$N$4:$N$308</definedName>
+    <definedName name="_ECO_RANGE_IDdfea42c0857e4698853e49145b96fa2c" localSheetId="1" hidden="1">Planilha1!$E$4:$E$308</definedName>
+    <definedName name="_ECO_RANGE_IDe351073a4dae4afa97a8f32193d4e1bc" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDea11c555e2e1474d8aa73ddcf740b9de" localSheetId="2" hidden="1">Planilha2!$K$4:$K$308</definedName>
+    <definedName name="_ECO_RANGE_IDf44f5392ad264aada8b1b9e9d6170dda" localSheetId="0" hidden="1">Plan1!$H$4:$H$308</definedName>
+    <definedName name="_ECO_RANGE_IDf487ac955d6946fa90552c2921756d53" localSheetId="1" hidden="1">Planilha1!$O$4:$O$308</definedName>
+    <definedName name="_ECO_RANGE_IDf859638bde384833a6064351636b1d50" localSheetId="2" hidden="1">Planilha2!$J$4:$J$308</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -275,302 +275,310 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>5927430d-406b-45c2-8ef2-beaaa8a1a64b</stp>
+        <stp>1a7ddfd6-ed2f-45bf-a822-64bfb9628d24</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>43275e0e-c6e7-4170-9182-26d6bfeba2f9</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>77701b33-c34e-45b1-ac7a-89ee0f184130</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>00480a6a-0f5b-4457-bbe8-c41dac4ef9a0</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>d39f38ac-aa38-48fc-972e-7a67358b7293</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>006c7afc-9107-4fac-919d-e8fc4ef0f412</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>2228567f-e7e1-4b17-878a-6c9b65b00c48</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6642aada-40e4-4a71-9eaf-aadd594092fd</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>e83c1e40-4cc7-4a55-a221-36b67b68cc94</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>18a1acaa-a53f-4d5a-abee-f0ca3f5660a9</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>38833b8c-9b36-4c38-87a5-badf77adf416</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6f6c503a-85b4-46d6-b977-8e641f87e4aa</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>ee3a3601-fade-4ed0-8f12-02e42faac719</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>d0c8105c-2567-459c-9a11-3465b0ac13ae</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>7635c7bb-2bed-4c0f-aa54-6df8f0921c6a</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>0020e018-ec65-46bb-92c3-97322e48ba9c</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>902c3fef-9361-4368-ac0f-4258df512e3d</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>b4433b8f-70d5-4655-8f6e-65d7b0cdb132</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>1e762555-57d8-4493-b605-dffe31251d2d</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c967b86a-e216-4a47-b5ba-5e8ed55e4454</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>5fb0fa86-4283-4456-81d5-68a68995d429</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>743b4a2f-7365-428c-a075-eb56c11cdd6a</stp>
-        <tr r="H3" s="2"/>
+        <stp>ee96c737-c85c-47e2-86aa-a3d8c403812c</stp>
+        <tr r="O3" s="2"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>2bbe010a-d4ae-47df-87cb-f4f35d2dac4e</stp>
-        <tr r="E3" s="2"/>
+        <stp>15534d18-2bd6-4dac-8cfc-767d7111150c</stp>
+        <tr r="M3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>3612867c-c1b1-4656-a4a7-3f840d86961a</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9d2b6c28-da1b-4efc-9cd1-96fcb1df6ca0</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6ba692a9-2ff6-45a9-825c-79e687f92b36</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>afeaf41b-5fd1-432d-820c-6fc3caa631fd</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>1e47a540-a324-451a-9620-61332f1ea0a7</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c2e07d60-ae7b-452e-a882-4021fd63f902</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>7d0d0c2b-e29b-4906-a54b-0d049539c6aa</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f7a1d049-f121-45e2-8e99-417bed746898</stp>
+        <stp>9cbf8ced-c4ae-445a-8b4a-6b9df903a9db</stp>
         <tr r="C3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>c872227f-72c6-453e-85b7-259f3992d1ad</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c02fc846-5584-49a0-81c7-6cf314da50b6</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>03bb15dc-5b4f-4251-8e83-61c388adc9bf</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d0ac5e4a-71c6-415b-a596-51e7c58e6189</stp>
-        <tr r="L3" s="1"/>
+        <stp>03dbcf29-e975-4a03-9e2a-ec117571f48e</stp>
+        <tr r="D3" s="3"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>a2937424-5e18-48e0-8c85-eaf9d4e06b93</stp>
-        <tr r="N3" s="1"/>
+        <stp>24eee81d-615e-4811-9faa-e85df5ed5415</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a06e0a25-0fba-4d5a-a13c-eb073ebf8e07</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a9430535-7f07-409f-897c-8c813da59c0d</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>8347660f-4fc2-454e-ba99-1ecab373b743</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>fe64abc6-13b8-4734-bc26-f8d5614fd263</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a5c4e02f-3899-428e-8456-827f8f0799a8</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>52acd7d8-1b3f-4226-aa05-1905eaf8acf3</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>f3e85291-3b6d-4e23-b9e0-a81a90fa6d0f</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>f112d276-a11e-4e3e-b4c0-cbd2358b75f8</stp>
+        <tr r="E3" s="2"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>fddb604b-dbb1-4edb-b7d6-fa11bb33f9d0</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>80457f9d-9483-4694-b369-e2f8cea2c428</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>71142d9b-d264-4967-8f08-59ea20f541b6</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>0f04fc53-67c2-4bc0-bafe-3bd6bc3d4552</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6532f20c-9b10-4921-9d8f-bb607bcb7fec</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>2e86756c-93bb-4dc6-9457-086d2d063f4d</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>76d67df7-f9f5-44e6-84a4-d48d03cb54d6</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>2653a90a-341d-4084-84bf-2164002e080c</stp>
+        <stp>c9da8c09-62df-4e46-a294-bd06f1c91085</stp>
         <tr r="L3" s="3"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>77e09013-a0d2-4101-ac3c-86a3028a22c5</stp>
+        <stp>bb8da1b3-5b72-484a-b6db-fbe0b3721408</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a68d7d1d-76da-4d6f-b32b-284d29e0a546</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>60971de2-c563-4953-9b3d-d2d879f7a8a0</stp>
         <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c2de1cc2-db1b-4b91-ac46-261e1fba4c55</stp>
+        <tr r="H3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>cc08e159-eb4d-4660-bcaf-323533f412d4</stp>
-        <tr r="G3" s="3"/>
+        <stp>22321ca0-a249-407e-976b-16e45dc802ac</stp>
+        <tr r="L3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>a8dcc572-d9cb-4942-b4fa-68e63aa5a1c6</stp>
-        <tr r="G3" s="2"/>
+        <stp>677b9877-7151-4eb9-8077-3efeeb1320ec</stp>
+        <tr r="A3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
+    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>b54d67dd-43df-43e7-ac80-32495f19997e</stp>
-        <tr r="G3" s="1"/>
+        <stp>8e2c2cdd-7750-424f-86bc-b557609eb1f2</stp>
+        <tr r="E3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>26de6308-f855-4afa-99ba-fa9a9bd7d760</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e4b65700-cbaa-46af-98b6-4aed7f02d497</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5c2d1b88-234a-41f1-b148-df7d913a5787</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>84ce3ede-c043-40ec-8cb2-f2ee0e0482a7</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e4f40b1d-d463-482e-b0cc-5b59d2b86270</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>07ef7b4e-8d80-4574-93af-7f3c3c47ad71</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>4fe5d2e3-d131-489a-8ed6-ebdbc906a775</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>46c5cc90-087b-4d08-a16e-eafa10ee2bd9</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>76fcff66-f1f3-4b1c-a1a5-2aeaa730285e</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>b45299b4-beaf-4686-a6f8-11e2db665637</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>de507004-29b2-436b-beca-cca45f2299c6</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f6ac68f7-a133-45e4-a52c-2a3c248fcf11</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>88f34ad4-4477-4434-8ced-61e7048a6e77</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5a394539-c07c-4ea8-beb7-5630f7aaf0c0</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a705a8f013824d51b45a9393b2340e18">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e38ffaff-e3b2-40fa-a89f-8c942d3f06c7</stp>
-        <tr r="A3" s="1"/>
+        <stp>5a9e06ad-fe0a-4bc9-8a75-b9bc1dc59b0e</stp>
+        <tr r="N3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -840,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:O308"/>
   <sheetViews>
-    <sheetView topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="A299" sqref="A299"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14477,6 +14485,270 @@
         <v>7.0031999999999996</v>
       </c>
     </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>45831</v>
+      </c>
+      <c r="C303">
+        <v>9.91</v>
+      </c>
+      <c r="D303">
+        <v>8.8405000000000005</v>
+      </c>
+      <c r="E303">
+        <v>8.0242000000000004</v>
+      </c>
+      <c r="F303">
+        <v>7.7000999999999999</v>
+      </c>
+      <c r="G303">
+        <v>7.6002000000000001</v>
+      </c>
+      <c r="H303">
+        <v>7.5343</v>
+      </c>
+      <c r="I303">
+        <v>7.4340000000000002</v>
+      </c>
+      <c r="J303">
+        <v>7.3000999999999996</v>
+      </c>
+      <c r="K303">
+        <v>7.1330999999999998</v>
+      </c>
+      <c r="L303">
+        <v>7.1125999999999996</v>
+      </c>
+      <c r="M303">
+        <v>7.0476000000000001</v>
+      </c>
+      <c r="N303">
+        <v>7.0232999999999999</v>
+      </c>
+      <c r="O303">
+        <v>7.0294999999999996</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>45832</v>
+      </c>
+      <c r="C304">
+        <v>9.9518000000000004</v>
+      </c>
+      <c r="D304">
+        <v>8.84</v>
+      </c>
+      <c r="E304">
+        <v>8.0127000000000006</v>
+      </c>
+      <c r="F304">
+        <v>7.6803999999999997</v>
+      </c>
+      <c r="G304">
+        <v>7.5799000000000003</v>
+      </c>
+      <c r="H304">
+        <v>7.4801000000000002</v>
+      </c>
+      <c r="I304">
+        <v>7.39</v>
+      </c>
+      <c r="J304">
+        <v>7.2994000000000003</v>
+      </c>
+      <c r="K304">
+        <v>7.1584000000000003</v>
+      </c>
+      <c r="L304">
+        <v>7.1623000000000001</v>
+      </c>
+      <c r="M304">
+        <v>7.1036000000000001</v>
+      </c>
+      <c r="N304">
+        <v>7.0838000000000001</v>
+      </c>
+      <c r="O304">
+        <v>7.0978000000000003</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>45833</v>
+      </c>
+      <c r="C305">
+        <v>9.9876000000000005</v>
+      </c>
+      <c r="D305">
+        <v>8.8901000000000003</v>
+      </c>
+      <c r="E305">
+        <v>8.0604999999999993</v>
+      </c>
+      <c r="F305">
+        <v>7.7165999999999997</v>
+      </c>
+      <c r="G305">
+        <v>7.6128</v>
+      </c>
+      <c r="H305">
+        <v>7.5133000000000001</v>
+      </c>
+      <c r="I305">
+        <v>7.415</v>
+      </c>
+      <c r="J305">
+        <v>7.3026999999999997</v>
+      </c>
+      <c r="K305">
+        <v>7.18</v>
+      </c>
+      <c r="L305">
+        <v>7.17</v>
+      </c>
+      <c r="M305">
+        <v>7.1219999999999999</v>
+      </c>
+      <c r="N305">
+        <v>7.1075999999999997</v>
+      </c>
+      <c r="O305">
+        <v>7.1234000000000002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>45834</v>
+      </c>
+      <c r="C306">
+        <v>9.9453999999999994</v>
+      </c>
+      <c r="D306">
+        <v>8.8396000000000008</v>
+      </c>
+      <c r="E306">
+        <v>8.01</v>
+      </c>
+      <c r="F306">
+        <v>7.6794000000000002</v>
+      </c>
+      <c r="G306">
+        <v>7.5823999999999998</v>
+      </c>
+      <c r="H306">
+        <v>7.4806999999999997</v>
+      </c>
+      <c r="I306">
+        <v>7.3912000000000004</v>
+      </c>
+      <c r="J306">
+        <v>7.29</v>
+      </c>
+      <c r="K306">
+        <v>7.149</v>
+      </c>
+      <c r="L306">
+        <v>7.1369999999999996</v>
+      </c>
+      <c r="M306">
+        <v>7.0857999999999999</v>
+      </c>
+      <c r="N306">
+        <v>7.0724</v>
+      </c>
+      <c r="O306">
+        <v>7.0848000000000004</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>45835</v>
+      </c>
+      <c r="C307">
+        <v>9.8771000000000004</v>
+      </c>
+      <c r="D307">
+        <v>8.8194999999999997</v>
+      </c>
+      <c r="E307">
+        <v>8.0126000000000008</v>
+      </c>
+      <c r="F307">
+        <v>7.694</v>
+      </c>
+      <c r="G307">
+        <v>7.6077000000000004</v>
+      </c>
+      <c r="H307">
+        <v>7.4981</v>
+      </c>
+      <c r="I307">
+        <v>7.3971999999999998</v>
+      </c>
+      <c r="J307">
+        <v>7.2751999999999999</v>
+      </c>
+      <c r="K307">
+        <v>7.1104000000000003</v>
+      </c>
+      <c r="L307">
+        <v>7.11</v>
+      </c>
+      <c r="M307">
+        <v>7.0422000000000002</v>
+      </c>
+      <c r="N307">
+        <v>7.0252999999999997</v>
+      </c>
+      <c r="O307">
+        <v>7.0435999999999996</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C308">
+        <v>9.8301999999999996</v>
+      </c>
+      <c r="D308">
+        <v>8.7437000000000005</v>
+      </c>
+      <c r="E308">
+        <v>7.91</v>
+      </c>
+      <c r="F308">
+        <v>7.58</v>
+      </c>
+      <c r="G308">
+        <v>7.4973000000000001</v>
+      </c>
+      <c r="H308">
+        <v>7.39</v>
+      </c>
+      <c r="I308">
+        <v>7.2976999999999999</v>
+      </c>
+      <c r="J308">
+        <v>7.1807999999999996</v>
+      </c>
+      <c r="K308">
+        <v>7.0434000000000001</v>
+      </c>
+      <c r="L308">
+        <v>7.0351999999999997</v>
+      </c>
+      <c r="M308">
+        <v>6.9574999999999996</v>
+      </c>
+      <c r="N308">
+        <v>6.9466000000000001</v>
+      </c>
+      <c r="O308">
+        <v>6.9676</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Economatica Excel Add-In" prompt="45045: You are not logged in Economatica" sqref="G3" xr:uid="{6C00A70D-7942-40C6-87A1-4313FAC35B9C}"/>
@@ -14487,10 +14759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:O308"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="A299" sqref="A299"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28124,6 +28396,270 @@
         <v>4053.752943</v>
       </c>
     </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>45831</v>
+      </c>
+      <c r="C303">
+        <v>4430.4712410000002</v>
+      </c>
+      <c r="D303">
+        <v>4337.7060060000003</v>
+      </c>
+      <c r="E303">
+        <v>4374.215365</v>
+      </c>
+      <c r="F303">
+        <v>4308.1947270000001</v>
+      </c>
+      <c r="G303">
+        <v>4327.6835639999999</v>
+      </c>
+      <c r="H303">
+        <v>4254.6512839999996</v>
+      </c>
+      <c r="I303">
+        <v>4185.4661400000005</v>
+      </c>
+      <c r="J303">
+        <v>4161.6826170000004</v>
+      </c>
+      <c r="K303">
+        <v>4169.4085320000004</v>
+      </c>
+      <c r="L303">
+        <v>4045.7125110000002</v>
+      </c>
+      <c r="M303">
+        <v>4089.992992</v>
+      </c>
+      <c r="N303">
+        <v>4004.1354219999998</v>
+      </c>
+      <c r="O303">
+        <v>4041.8382510000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>45832</v>
+      </c>
+      <c r="C304">
+        <v>4430.8430340000004</v>
+      </c>
+      <c r="D304">
+        <v>4339.761246</v>
+      </c>
+      <c r="E304">
+        <v>4377.4463640000004</v>
+      </c>
+      <c r="F304">
+        <v>4312.7645039999998</v>
+      </c>
+      <c r="G304">
+        <v>4333.0697069999997</v>
+      </c>
+      <c r="H304">
+        <v>4268.7133819999999</v>
+      </c>
+      <c r="I304">
+        <v>4197.9774880000004</v>
+      </c>
+      <c r="J304">
+        <v>4163.5884050000004</v>
+      </c>
+      <c r="K304">
+        <v>4161.6035490000004</v>
+      </c>
+      <c r="L304">
+        <v>4026.1948389999998</v>
+      </c>
+      <c r="M304">
+        <v>4065.4307659999999</v>
+      </c>
+      <c r="N304">
+        <v>3975.9088299999999</v>
+      </c>
+      <c r="O304">
+        <v>4008.6838050000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>45833</v>
+      </c>
+      <c r="C305">
+        <v>4431.4952050000002</v>
+      </c>
+      <c r="D305">
+        <v>4338.1994269999996</v>
+      </c>
+      <c r="E305">
+        <v>4373.8636280000001</v>
+      </c>
+      <c r="F305">
+        <v>4309.5577320000002</v>
+      </c>
+      <c r="G305">
+        <v>4329.1149359999999</v>
+      </c>
+      <c r="H305">
+        <v>4262.964105</v>
+      </c>
+      <c r="I305">
+        <v>4193.58464</v>
+      </c>
+      <c r="J305">
+        <v>4164.3460539999996</v>
+      </c>
+      <c r="K305">
+        <v>4155.2118220000002</v>
+      </c>
+      <c r="L305">
+        <v>4024.560653</v>
+      </c>
+      <c r="M305">
+        <v>4058.5155770000001</v>
+      </c>
+      <c r="N305">
+        <v>3965.8709520000002</v>
+      </c>
+      <c r="O305">
+        <v>3997.397618</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>45834</v>
+      </c>
+      <c r="C306">
+        <v>4435.6162169999998</v>
+      </c>
+      <c r="D306">
+        <v>4343.8369249999996</v>
+      </c>
+      <c r="E306">
+        <v>4381.5725320000001</v>
+      </c>
+      <c r="F306">
+        <v>4316.5573009999998</v>
+      </c>
+      <c r="G306">
+        <v>4336.2708089999996</v>
+      </c>
+      <c r="H306">
+        <v>4272.1284169999999</v>
+      </c>
+      <c r="I306">
+        <v>4201.148029</v>
+      </c>
+      <c r="J306">
+        <v>4169.7077200000003</v>
+      </c>
+      <c r="K306">
+        <v>4168.491172</v>
+      </c>
+      <c r="L306">
+        <v>4040.1973429999998</v>
+      </c>
+      <c r="M306">
+        <v>4077.001319</v>
+      </c>
+      <c r="N306">
+        <v>3984.692896</v>
+      </c>
+      <c r="O306">
+        <v>4018.4848969999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>45835</v>
+      </c>
+      <c r="C307">
+        <v>4439.6420790000002</v>
+      </c>
+      <c r="D307">
+        <v>4346.0813529999996</v>
+      </c>
+      <c r="E307">
+        <v>4381.9573760000003</v>
+      </c>
+      <c r="F307">
+        <v>4315.1521869999997</v>
+      </c>
+      <c r="G307">
+        <v>4332.4435800000001</v>
+      </c>
+      <c r="H307">
+        <v>4268.7720040000004</v>
+      </c>
+      <c r="I307">
+        <v>4200.2394839999997</v>
+      </c>
+      <c r="J307">
+        <v>4174.5103980000004</v>
+      </c>
+      <c r="K307">
+        <v>4183.5087949999997</v>
+      </c>
+      <c r="L307">
+        <v>4052.209061</v>
+      </c>
+      <c r="M307">
+        <v>4097.9381030000004</v>
+      </c>
+      <c r="N307">
+        <v>4008.4198729999998</v>
+      </c>
+      <c r="O307">
+        <v>4039.9504400000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C308">
+        <v>4443.7943100000002</v>
+      </c>
+      <c r="D308">
+        <v>4353.3631359999999</v>
+      </c>
+      <c r="E308">
+        <v>4395.4922960000004</v>
+      </c>
+      <c r="F308">
+        <v>4332.6919900000003</v>
+      </c>
+      <c r="G308">
+        <v>4353.5033249999997</v>
+      </c>
+      <c r="H308">
+        <v>4294.9720109999998</v>
+      </c>
+      <c r="I308">
+        <v>4226.2882749999999</v>
+      </c>
+      <c r="J308">
+        <v>4203.3967110000003</v>
+      </c>
+      <c r="K308">
+        <v>4210.3835680000002</v>
+      </c>
+      <c r="L308">
+        <v>4085.8502039999998</v>
+      </c>
+      <c r="M308">
+        <v>4139.6105580000003</v>
+      </c>
+      <c r="N308">
+        <v>4049.220084</v>
+      </c>
+      <c r="O308">
+        <v>4080.617976</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -28131,10 +28667,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z302"/>
+  <dimension ref="A1:Z308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41052,6 +41588,306 @@
         <v>0.1037</v>
       </c>
     </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B303">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C303">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D303">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E303">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F303">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="G303">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="H303">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="I303">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="J303">
+        <v>0.1119</v>
+      </c>
+      <c r="K303">
+        <v>0.1237</v>
+      </c>
+      <c r="L303">
+        <v>0.1237</v>
+      </c>
+      <c r="M303">
+        <v>0.1201</v>
+      </c>
+      <c r="N303">
+        <v>0.108</v>
+      </c>
+      <c r="O303">
+        <v>0.106</v>
+      </c>
+      <c r="P303">
+        <v>0.10390000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B304">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="C304">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D304">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="E304">
+        <v>3.27E-2</v>
+      </c>
+      <c r="F304">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="G304">
+        <v>4.99E-2</v>
+      </c>
+      <c r="H304">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="I304">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J304">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="K304">
+        <v>0.124</v>
+      </c>
+      <c r="L304">
+        <v>0.124</v>
+      </c>
+      <c r="M304">
+        <v>0.1202</v>
+      </c>
+      <c r="N304">
+        <v>0.1082</v>
+      </c>
+      <c r="O304">
+        <v>0.106</v>
+      </c>
+      <c r="P304">
+        <v>0.1036</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B305">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="C305">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D305">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E305">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="F305">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="G305">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="H305">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="I305">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="J305">
+        <v>0.1134</v>
+      </c>
+      <c r="K305">
+        <v>0.1242</v>
+      </c>
+      <c r="L305">
+        <v>0.1242</v>
+      </c>
+      <c r="M305">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="N305">
+        <v>0.1086</v>
+      </c>
+      <c r="O305">
+        <v>0.1065</v>
+      </c>
+      <c r="P305">
+        <v>0.1041</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B306">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="C306">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D306">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E306">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F306">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G306">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H306">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="I306">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="J306">
+        <v>0.1129</v>
+      </c>
+      <c r="K306">
+        <v>0.1236</v>
+      </c>
+      <c r="L306">
+        <v>0.1239</v>
+      </c>
+      <c r="M306">
+        <v>0.1203</v>
+      </c>
+      <c r="N306">
+        <v>0.1086</v>
+      </c>
+      <c r="O306">
+        <v>0.1062</v>
+      </c>
+      <c r="P306">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B307">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="C307">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D307">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="E307">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="F307">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="G307">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="H307">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="I307">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="J307">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="K307">
+        <v>0.1229</v>
+      </c>
+      <c r="L307">
+        <v>0.1231</v>
+      </c>
+      <c r="M307">
+        <v>0.1196</v>
+      </c>
+      <c r="N307">
+        <v>0.108</v>
+      </c>
+      <c r="O307">
+        <v>0.1057</v>
+      </c>
+      <c r="P307">
+        <v>0.1036</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B308">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="C308">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="D308">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E308">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="F308">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="G308">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="H308">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="I308">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="J308">
+        <v>0.1118</v>
+      </c>
+      <c r="K308">
+        <v>0.122</v>
+      </c>
+      <c r="L308">
+        <v>0.1222</v>
+      </c>
+      <c r="M308">
+        <v>0.1192</v>
+      </c>
+      <c r="N308">
+        <v>0.1075</v>
+      </c>
+      <c r="O308">
+        <v>0.1051</v>
+      </c>
+      <c r="P308">
+        <v>0.1026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1D9627-CCD4-4AA4-A127-170BEFAD08CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ED6A92-3F47-4877-832E-158C921E83F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,57 +18,68 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID0032e1e4d5374925b18487a6932b8185" localSheetId="1" hidden="1">Planilha1!$K$4:$K$308</definedName>
-    <definedName name="_ECO_RANGE_ID0516ac5af5cf4d2c9dca25b315dd7a34" localSheetId="1" hidden="1">Planilha1!$L$4:$L$308</definedName>
-    <definedName name="_ECO_RANGE_ID05ce08d840f04461b472509c807637cf" localSheetId="2" hidden="1">Planilha2!$I$4:$I$308</definedName>
-    <definedName name="_ECO_RANGE_ID12e684bad98e4e2b910c038b1b6cbbb4" localSheetId="2" hidden="1">Planilha2!$F$4:$F$308</definedName>
-    <definedName name="_ECO_RANGE_ID1765f670232a4e3eb6d4fea5693731e4" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID19c502e12f72490285df38d8664a57c9" localSheetId="2" hidden="1">Planilha2!$M$4:$M$308</definedName>
-    <definedName name="_ECO_RANGE_ID1ac53fcadf2743d193c85392b68ccc9d" localSheetId="0" hidden="1">Plan1!$C$4:$C$308</definedName>
-    <definedName name="_ECO_RANGE_ID1fe8b75108b8438a80cab7621d0f4474" localSheetId="2" hidden="1">Planilha2!$H$4:$H$308</definedName>
-    <definedName name="_ECO_RANGE_ID209e509cdedf463db2aede9f4c8c1dec" localSheetId="0" hidden="1">Plan1!$L$4:$L$308</definedName>
-    <definedName name="_ECO_RANGE_ID28d684fcc9804e08af0b25d84c38f136" localSheetId="0" hidden="1">Plan1!$M$4:$M$308</definedName>
-    <definedName name="_ECO_RANGE_ID29f9c03d5f974546bad0e08372bdff80" localSheetId="0" hidden="1">Plan1!$I$4:$I$308</definedName>
-    <definedName name="_ECO_RANGE_ID2c75ae98ff0840e2a1b9fd10c9bf3394" localSheetId="1" hidden="1">Planilha1!$F$4:$F$308</definedName>
-    <definedName name="_ECO_RANGE_ID367dfe050d4242738c753fefbed4217a" localSheetId="2" hidden="1">Planilha2!$D$4:$D$308</definedName>
-    <definedName name="_ECO_RANGE_ID3cb106f5c30241979e77ac4b34ffa705" localSheetId="2" hidden="1">Planilha2!$L$4:$L$308</definedName>
-    <definedName name="_ECO_RANGE_ID48d7169a85344c5aa4cedf783f1d15b6" localSheetId="1" hidden="1">Planilha1!$C$4:$C$308</definedName>
-    <definedName name="_ECO_RANGE_ID4a019c29792d425982f1d078933f6970" localSheetId="0" hidden="1">Plan1!$A$4:$B$308</definedName>
-    <definedName name="_ECO_RANGE_ID4daaf040e565466183a200aa67779104" localSheetId="0" hidden="1">Plan1!$O$4:$O$308</definedName>
-    <definedName name="_ECO_RANGE_ID57da2ae601ca4f3eac91a9a8a9c97004" localSheetId="0" hidden="1">Plan1!$J$4:$J$308</definedName>
-    <definedName name="_ECO_RANGE_ID5c60daf5bcd04fd7b3186d17b55cb6ba" localSheetId="1" hidden="1">Planilha1!$H$4:$H$308</definedName>
-    <definedName name="_ECO_RANGE_ID6b2229089c16488ea9c88315c6230d23" localSheetId="0" hidden="1">Plan1!$F$4:$F$308</definedName>
-    <definedName name="_ECO_RANGE_ID73c882f9c4b44744831a00c637e22d0d" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID7616e1a833cb473897ed4b00c5b94b7a" localSheetId="1" hidden="1">Planilha1!$J$4:$J$308</definedName>
-    <definedName name="_ECO_RANGE_ID7bd8b894f8904034a8a03bf3c0db7c06" localSheetId="2" hidden="1">Planilha2!$G$4:$G$308</definedName>
-    <definedName name="_ECO_RANGE_ID825f323cd83b41ecababb4999de6ac9a" localSheetId="0" hidden="1">Plan1!$G$4:$G$308</definedName>
-    <definedName name="_ECO_RANGE_ID826ece022d20483cb966455e9c324652" localSheetId="2" hidden="1">Planilha2!$E$4:$E$308</definedName>
-    <definedName name="_ECO_RANGE_ID84763f04a44245e7a521bbb9c3510f77" localSheetId="2" hidden="1">Planilha2!$C$4:$C$308</definedName>
-    <definedName name="_ECO_RANGE_ID9029777bbf8744bcbd3190ec2bee3a47" localSheetId="2" hidden="1">Planilha2!$O$4:$O$308</definedName>
-    <definedName name="_ECO_RANGE_ID9114233d453343d3b4c27634881d69f8" localSheetId="1" hidden="1">Planilha1!$I$4:$I$308</definedName>
-    <definedName name="_ECO_RANGE_ID93c6c6af382d42edb08d3d84e28ef409" localSheetId="0" hidden="1">Plan1!$D$4:$D$308</definedName>
-    <definedName name="_ECO_RANGE_ID9b3f4baeb7bf4518a37401566e8f48ef" localSheetId="0" hidden="1">Plan1!$N$4:$N$308</definedName>
-    <definedName name="_ECO_RANGE_IDa2967463b1854799b179f49c366a09d7" localSheetId="2" hidden="1">Planilha2!$N$4:$N$308</definedName>
-    <definedName name="_ECO_RANGE_IDa8474f59a3bc4f2ab309edac8b8f5c2a" localSheetId="1" hidden="1">Planilha1!$A$4:$B$308</definedName>
-    <definedName name="_ECO_RANGE_IDb4170bc6014c46e99ddb86d9f805dd6b" localSheetId="1" hidden="1">Planilha1!$D$4:$D$308</definedName>
-    <definedName name="_ECO_RANGE_IDc1205264e486439a8228adc91e9199b7" localSheetId="0" hidden="1">Plan1!$K$4:$K$308</definedName>
-    <definedName name="_ECO_RANGE_IDc3ce9e94e96f4ea59090480d82a539ff" localSheetId="1" hidden="1">Planilha1!$G$4:$G$308</definedName>
-    <definedName name="_ECO_RANGE_IDd0d8ca7614d14407bf68a55f240daeef" localSheetId="1" hidden="1">Planilha1!$M$4:$M$308</definedName>
-    <definedName name="_ECO_RANGE_IDd4be14ad4220461aa2b1ace6eaa5e190" localSheetId="0" hidden="1">Plan1!$E$4:$E$308</definedName>
-    <definedName name="_ECO_RANGE_IDdafb0aca220a4f7aaf2ae9203597421c" localSheetId="2" hidden="1">Planilha2!$P$4:$P$308</definedName>
-    <definedName name="_ECO_RANGE_IDdd4d7f5287c44ce4952df46d5f78b16e" localSheetId="2" hidden="1">Planilha2!$A$4:$B$308</definedName>
-    <definedName name="_ECO_RANGE_IDdf0286f8738a4154973885cbc5f863f2" localSheetId="1" hidden="1">Planilha1!$N$4:$N$308</definedName>
-    <definedName name="_ECO_RANGE_IDdfea42c0857e4698853e49145b96fa2c" localSheetId="1" hidden="1">Planilha1!$E$4:$E$308</definedName>
-    <definedName name="_ECO_RANGE_IDe351073a4dae4afa97a8f32193d4e1bc" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDea11c555e2e1474d8aa73ddcf740b9de" localSheetId="2" hidden="1">Planilha2!$K$4:$K$308</definedName>
-    <definedName name="_ECO_RANGE_IDf44f5392ad264aada8b1b9e9d6170dda" localSheetId="0" hidden="1">Plan1!$H$4:$H$308</definedName>
-    <definedName name="_ECO_RANGE_IDf487ac955d6946fa90552c2921756d53" localSheetId="1" hidden="1">Planilha1!$O$4:$O$308</definedName>
-    <definedName name="_ECO_RANGE_IDf859638bde384833a6064351636b1d50" localSheetId="2" hidden="1">Planilha2!$J$4:$J$308</definedName>
+    <definedName name="_ECO_RANGE_ID0195f35d774043f3870a82373a1cf7a2" localSheetId="0" hidden="1">Plan1!$M$4:$M$314</definedName>
+    <definedName name="_ECO_RANGE_ID0e5698a8fd394729b6daaa610c6694b6" localSheetId="2" hidden="1">Planilha2!$I$4:$I$314</definedName>
+    <definedName name="_ECO_RANGE_ID1dd23bfbd5104b949e2af629a5e409b2" localSheetId="1" hidden="1">Planilha1!$M$4:$M$314</definedName>
+    <definedName name="_ECO_RANGE_ID2fcf8becb54e4200847708464defa3c8" localSheetId="0" hidden="1">Plan1!$L$4:$L$314</definedName>
+    <definedName name="_ECO_RANGE_ID3760ae367d4f4496bde413abc27c3373" localSheetId="2" hidden="1">Planilha2!$M$4:$M$314</definedName>
+    <definedName name="_ECO_RANGE_ID443b2978553d496bb0bd7717e8da57e9" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID46e0b30be70d4e4595a088ba112d3be9" localSheetId="0" hidden="1">Plan1!$K$4:$K$314</definedName>
+    <definedName name="_ECO_RANGE_ID5094222e3cb74ad397b20abd9ae9d49f" localSheetId="2" hidden="1">Planilha2!$D$4:$D$314</definedName>
+    <definedName name="_ECO_RANGE_ID5105469ed60d4219bd6c79aeb0f86cd6" localSheetId="0" hidden="1">Plan1!$F$4:$F$314</definedName>
+    <definedName name="_ECO_RANGE_ID527f4b2229d94e4cac6388f49c1f50ea" localSheetId="1" hidden="1">Planilha1!$I$4:$I$314</definedName>
+    <definedName name="_ECO_RANGE_ID5b3f2fe022444c3f9bec603cdfc5822e" localSheetId="0" hidden="1">Plan1!$H$4:$H$314</definedName>
+    <definedName name="_ECO_RANGE_ID5cd6735ebc3641a8b7a23f0f81923a1b" localSheetId="2" hidden="1">Planilha2!$H$4:$H$314</definedName>
+    <definedName name="_ECO_RANGE_ID7802a57e745d476b88b3c61ddd67cfc4" localSheetId="2" hidden="1">Planilha2!$L$4:$L$314</definedName>
+    <definedName name="_ECO_RANGE_ID7b3b10bfa97740ef901e966db2a2cf03" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID7e15cdab29b140ecab44591313306c2e" localSheetId="0" hidden="1">Plan1!$E$4:$E$314</definedName>
+    <definedName name="_ECO_RANGE_ID82400976a367453b90c7f311d09cf0c1" localSheetId="0" hidden="1">Plan1!$O$4:$O$314</definedName>
+    <definedName name="_ECO_RANGE_ID8c20b272fced404aa8600945dab1bcef" localSheetId="2" hidden="1">Planilha2!$F$4:$F$314</definedName>
+    <definedName name="_ECO_RANGE_ID9a60d99419c540af80cb134ce5046ef2" localSheetId="1" hidden="1">Planilha1!$G$4:$G$314</definedName>
+    <definedName name="_ECO_RANGE_ID9af549ee59224ef187b45ca9811fb7d9" localSheetId="1" hidden="1">Planilha1!$H$4:$H$314</definedName>
+    <definedName name="_ECO_RANGE_ID9c41f5c528af48e182be277f1e65cbbf" localSheetId="1" hidden="1">Planilha1!$A$4:$B$314</definedName>
+    <definedName name="_ECO_RANGE_ID9e491ade761547599fb3af1877c61a34" localSheetId="1" hidden="1">Planilha1!$C$4:$C$314</definedName>
+    <definedName name="_ECO_RANGE_IDa77ddf1568af4ce8a02125a6dba8439b" localSheetId="2" hidden="1">Planilha2!$N$4:$N$314</definedName>
+    <definedName name="_ECO_RANGE_IDaa134d5f939e471db26d297059fc2208" localSheetId="2" hidden="1">Planilha2!$O$4:$O$314</definedName>
+    <definedName name="_ECO_RANGE_IDb19cdb36540f4f9193dba19882ab2e53" localSheetId="2" hidden="1">Planilha2!$G$4:$G$314</definedName>
+    <definedName name="_ECO_RANGE_IDb41421da937347e393488145c2c98019" localSheetId="0" hidden="1">Plan1!$N$4:$N$314</definedName>
+    <definedName name="_ECO_RANGE_IDb527eb5cfbde4613a3da8b5c829b3c00" localSheetId="1" hidden="1">Planilha1!$D$4:$D$314</definedName>
+    <definedName name="_ECO_RANGE_IDb5585f0d6b7545c2b80ab2e0c9131c75" localSheetId="2" hidden="1">Planilha2!$K$4:$K$314</definedName>
+    <definedName name="_ECO_RANGE_IDb94c1dd0ec84462eb2f95833896cf66b" localSheetId="1" hidden="1">Planilha1!$K$4:$K$314</definedName>
+    <definedName name="_ECO_RANGE_IDbade3d2c2633422caefbe9ab61992840" localSheetId="1" hidden="1">Planilha1!$N$4:$N$314</definedName>
+    <definedName name="_ECO_RANGE_IDc28068c79e3648ba924df5c7fd0e1368" localSheetId="0" hidden="1">Plan1!$J$4:$J$314</definedName>
+    <definedName name="_ECO_RANGE_IDc373e744c03b43b4acd513dd6d4291f8" localSheetId="1" hidden="1">Planilha1!$J$4:$J$314</definedName>
+    <definedName name="_ECO_RANGE_IDc43d0cc19a35409092b0c372582ae8a5" localSheetId="0" hidden="1">Plan1!$I$4:$I$314</definedName>
+    <definedName name="_ECO_RANGE_IDc8b7952808234081b6aac6c1ccf1ccc7" localSheetId="2" hidden="1">Planilha2!$P$4:$P$314</definedName>
+    <definedName name="_ECO_RANGE_IDcb47876620384281aeed6f269792c399" localSheetId="1" hidden="1">Planilha1!$E$4:$E$314</definedName>
+    <definedName name="_ECO_RANGE_IDd3ace5da42c54afda7bd96df300c8e67" localSheetId="2" hidden="1">Planilha2!$A$4:$B$314</definedName>
+    <definedName name="_ECO_RANGE_IDda74c54db95f47d4a2f5f0b444768b31" localSheetId="1" hidden="1">Planilha1!$O$4:$O$314</definedName>
+    <definedName name="_ECO_RANGE_IDe1a086951ca54975b7bbffb7e512ba7a" localSheetId="1" hidden="1">Planilha1!$F$4:$F$314</definedName>
+    <definedName name="_ECO_RANGE_IDe35d1b9c6bcf4dd4908f2ccdfccd265f" localSheetId="0" hidden="1">Plan1!$C$4:$C$314</definedName>
+    <definedName name="_ECO_RANGE_IDec7652d85a2148baab97de67162e7f38" localSheetId="2" hidden="1">Planilha2!$J$4:$J$314</definedName>
+    <definedName name="_ECO_RANGE_IDf085cc12386d4a5cad6dadd8fd3a51a8" localSheetId="2" hidden="1">Planilha2!$E$4:$E$314</definedName>
+    <definedName name="_ECO_RANGE_IDf219b035b33747f48123cb6b22099e5b" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDf22f208d410e43acbb5abbdd60dc07ab" localSheetId="0" hidden="1">Plan1!$G$4:$G$314</definedName>
+    <definedName name="_ECO_RANGE_IDf7d1ccf7eaf74eaf83804e4bb7bef35d" localSheetId="1" hidden="1">Planilha1!$L$4:$L$314</definedName>
+    <definedName name="_ECO_RANGE_IDfc3dfe556b504edd879ba0b1696f45a4" localSheetId="0" hidden="1">Plan1!$A$4:$B$314</definedName>
+    <definedName name="_ECO_RANGE_IDfe1dd7d0b29e4a739237258b95c321bb" localSheetId="2" hidden="1">Planilha2!$C$4:$C$314</definedName>
+    <definedName name="_ECO_RANGE_IDfe408b2f860244bfa7d117fd53fee5c5" localSheetId="0" hidden="1">Plan1!$D$4:$D$314</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -275,310 +286,304 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>1a7ddfd6-ed2f-45bf-a822-64bfb9628d24</stp>
+        <stp>6b97525d-7756-4a26-a428-52a7da895169</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>31c84fc9-6e89-411b-943f-7c15970f6ec7</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6fa667fb-d6e6-48d7-9203-dc54fc3e3369</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>e33eeabd-383d-4d6b-a016-c13370f0112a</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>df278e2a-f753-4c52-a749-4f0d782119e6</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>7d294c23-d4cb-41a5-b451-e0c8ebc685df</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a0d0a2d0-1444-4fcc-a5d0-fc2bfa249266</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>3bc22198-71a8-47ec-bcc9-5a86c77fb47a</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c6425b02-f78c-41c8-bd71-a5e13465a587</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a81698f1-18a6-4975-8f9b-f0103b924f19</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>aa3b224a-29c8-4a1f-8391-420c8f23dbb0</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>3426598c-4f37-40dd-8145-64d1447aaada</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>5160a4db-ac30-426e-af81-7e8f7dc06326</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>47b807b0-5ca6-4307-87c4-ca0e821c9932</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>64450dfa-83e8-45fe-ba19-3da5aa975503</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>1cdecf52-809b-4178-8681-30c6591b4802</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6460e08f-64bb-4503-b595-27ed0667f60a</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>1b1a03f3-833e-4ca7-a247-0214e401fcad</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>01df96d4-d11b-4fe3-ac64-f3ce5997cb56</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>b8c33ed6-bc4e-4c03-9ab6-c355a5e9dfe6</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>127987c6-c985-41f1-8bce-04e61aa8804e</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>1da05530-1c64-4fce-b503-db62eb00eeee</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9679058c-8ed2-4fb0-9bb4-9e5189775f73</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6c42efa4-d459-4635-92f2-4af7cc48cc87</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>bd9e7268-0f24-47ae-bd57-846c8f13d66e</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9a1e4636-96fb-44a5-a90f-778f68be31ae</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c08c0d65-cb99-48ce-8250-a2cc4df08d15</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>25d62507-5f36-4f0f-b042-8d135a92f7b3</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>dbad4f6b-f837-4177-967b-2caef02addb6</stp>
         <tr r="J3" s="3"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>43275e0e-c6e7-4170-9182-26d6bfeba2f9</stp>
-        <tr r="G3" s="1"/>
+        <stp>1bdcf4d2-1e6c-4eef-a38e-acf9c75819c0</stp>
+        <tr r="O3" s="2"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>77701b33-c34e-45b1-ac7a-89ee0f184130</stp>
+        <stp>566333d7-1d0f-45da-b20c-c122441034d9</stp>
         <tr r="H3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>00480a6a-0f5b-4457-bbe8-c41dac4ef9a0</stp>
-        <tr r="D3" s="1"/>
+        <stp>4881adde-0eeb-4961-960e-9a98eb007970</stp>
+        <tr r="L3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>d39f38ac-aa38-48fc-972e-7a67358b7293</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>006c7afc-9107-4fac-919d-e8fc4ef0f412</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>2228567f-e7e1-4b17-878a-6c9b65b00c48</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6642aada-40e4-4a71-9eaf-aadd594092fd</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e83c1e40-4cc7-4a55-a221-36b67b68cc94</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>18a1acaa-a53f-4d5a-abee-f0ca3f5660a9</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>38833b8c-9b36-4c38-87a5-badf77adf416</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6f6c503a-85b4-46d6-b977-8e641f87e4aa</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ee3a3601-fade-4ed0-8f12-02e42faac719</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d0c8105c-2567-459c-9a11-3465b0ac13ae</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>7635c7bb-2bed-4c0f-aa54-6df8f0921c6a</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>0020e018-ec65-46bb-92c3-97322e48ba9c</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>902c3fef-9361-4368-ac0f-4258df512e3d</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>b4433b8f-70d5-4655-8f6e-65d7b0cdb132</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>1e762555-57d8-4493-b605-dffe31251d2d</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c967b86a-e216-4a47-b5ba-5e8ed55e4454</stp>
+        <stp>b2158543-73f4-4338-b463-cfe989110750</stp>
         <tr r="N3" s="2"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>5fb0fa86-4283-4456-81d5-68a68995d429</stp>
-        <tr r="F3" s="1"/>
+        <stp>1d6bed84-1f73-47f6-8e33-86985642cb5f</stp>
+        <tr r="K3" s="3"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>ee96c737-c85c-47e2-86aa-a3d8c403812c</stp>
-        <tr r="O3" s="2"/>
+        <stp>a3ddf1d6-b31e-4eed-8576-bc8b87f401e6</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>8782e593-ec17-48ac-88b6-203a1d3bedb6</stp>
+        <tr r="H3" s="3"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>15534d18-2bd6-4dac-8cfc-767d7111150c</stp>
+        <stp>fcba7036-8b4e-4bfc-b5f9-033e1a0baebb</stp>
         <tr r="M3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>9cbf8ced-c4ae-445a-8b4a-6b9df903a9db</stp>
+        <stp>203ea38b-a90c-4807-9f87-c6f07b436b2d</stp>
         <tr r="C3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>03dbcf29-e975-4a03-9e2a-ec117571f48e</stp>
-        <tr r="D3" s="3"/>
+        <stp>def95800-bb5d-4ec1-aac3-dbe78c5c975e</stp>
+        <tr r="A3" s="3"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>24eee81d-615e-4811-9faa-e85df5ed5415</stp>
-        <tr r="D3" s="2"/>
+        <stp>fb6b0a22-1066-46e0-ae94-f58b64252a7c</stp>
+        <tr r="G3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>a06e0a25-0fba-4d5a-a13c-eb073ebf8e07</stp>
-        <tr r="A3" s="2"/>
+        <stp>30caf4e1-fad3-4ec9-a47d-ce0b17d58c68</stp>
+        <tr r="E3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>a9430535-7f07-409f-897c-8c813da59c0d</stp>
-        <tr r="I3" s="1"/>
+        <stp>077e097c-7efb-4d1a-8a35-63afaee61ad0</stp>
+        <tr r="C3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
+    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>8347660f-4fc2-454e-ba99-1ecab373b743</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>fe64abc6-13b8-4734-bc26-f8d5614fd263</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a5c4e02f-3899-428e-8456-827f8f0799a8</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>52acd7d8-1b3f-4226-aa05-1905eaf8acf3</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f3e85291-3b6d-4e23-b9e0-a81a90fa6d0f</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f112d276-a11e-4e3e-b4c0-cbd2358b75f8</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c9da8c09-62df-4e46-a294-bd06f1c91085</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>bb8da1b3-5b72-484a-b6db-fbe0b3721408</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a68d7d1d-76da-4d6f-b32b-284d29e0a546</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>60971de2-c563-4953-9b3d-d2d879f7a8a0</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c2de1cc2-db1b-4b91-ac46-261e1fba4c55</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>22321ca0-a249-407e-976b-16e45dc802ac</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>677b9877-7151-4eb9-8077-3efeeb1320ec</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_122bd11b5b1f428eb97de6a8a7c8148a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>8e2c2cdd-7750-424f-86bc-b557609eb1f2</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5a9e06ad-fe0a-4bc9-8a75-b9bc1dc59b0e</stp>
-        <tr r="N3" s="1"/>
+        <stp>54b42c0e-7ed4-4fe5-9024-e866ff34ef0a</stp>
+        <tr r="F3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -848,18 +853,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O308"/>
+  <dimension ref="A1:O314"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="A308" sqref="A308"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -953,7 +958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <f>_xll.ECONOMATICA(B1,"YTM",,"D-0","2024-4-29","D",,,,"FALSE",,)</f>
         <v>45411</v>
@@ -1014,7 +1019,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45412</v>
       </c>
@@ -1061,12 +1066,12 @@
         <v>6.2229999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45413</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45414</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>6.1947999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45415</v>
       </c>
@@ -1160,7 +1165,7 @@
         <v>6.1559999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45418</v>
       </c>
@@ -1207,7 +1212,7 @@
         <v>6.1961000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45419</v>
       </c>
@@ -1254,7 +1259,7 @@
         <v>6.1562000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45420</v>
       </c>
@@ -1301,7 +1306,7 @@
         <v>6.1578999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45421</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>6.1402000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45422</v>
       </c>
@@ -1395,7 +1400,7 @@
         <v>6.1749999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45425</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>6.1928999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45426</v>
       </c>
@@ -1489,7 +1494,7 @@
         <v>6.1788999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45427</v>
       </c>
@@ -1536,7 +1541,7 @@
         <v>6.1654999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45428</v>
       </c>
@@ -1583,7 +1588,7 @@
         <v>6.1227</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45429</v>
       </c>
@@ -1630,7 +1635,7 @@
         <v>6.1341000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45432</v>
       </c>
@@ -1677,7 +1682,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45433</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45434</v>
       </c>
@@ -1771,7 +1776,7 @@
         <v>6.1723999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45435</v>
       </c>
@@ -1818,7 +1823,7 @@
         <v>6.1498999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45436</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>6.1643999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45439</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>6.1836000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45440</v>
       </c>
@@ -1959,7 +1964,7 @@
         <v>6.1768000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45441</v>
       </c>
@@ -2006,12 +2011,12 @@
         <v>6.2079000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45442</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45443</v>
       </c>
@@ -2058,7 +2063,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45446</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45447</v>
       </c>
@@ -2152,7 +2157,7 @@
         <v>6.2172999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45448</v>
       </c>
@@ -2199,7 +2204,7 @@
         <v>6.2469999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45449</v>
       </c>
@@ -2246,7 +2251,7 @@
         <v>6.2274000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45450</v>
       </c>
@@ -2293,7 +2298,7 @@
         <v>6.3197999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45453</v>
       </c>
@@ -2340,7 +2345,7 @@
         <v>6.3236999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45454</v>
       </c>
@@ -2387,7 +2392,7 @@
         <v>6.3564999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45455</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>6.4452999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45456</v>
       </c>
@@ -2481,7 +2486,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45457</v>
       </c>
@@ -2528,7 +2533,7 @@
         <v>6.3932000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45460</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>6.3905000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45461</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>6.4010999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45462</v>
       </c>
@@ -2669,7 +2674,7 @@
         <v>6.3982999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45463</v>
       </c>
@@ -2716,7 +2721,7 @@
         <v>6.3941999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45464</v>
       </c>
@@ -2763,7 +2768,7 @@
         <v>6.3444000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45467</v>
       </c>
@@ -2810,7 +2815,7 @@
         <v>6.3574999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45468</v>
       </c>
@@ -2857,7 +2862,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45469</v>
       </c>
@@ -2904,7 +2909,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45470</v>
       </c>
@@ -2951,7 +2956,7 @@
         <v>6.4180999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45471</v>
       </c>
@@ -2998,7 +3003,7 @@
         <v>6.5011999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45474</v>
       </c>
@@ -3045,7 +3050,7 @@
         <v>6.5391000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45475</v>
       </c>
@@ -3092,7 +3097,7 @@
         <v>6.5392000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45476</v>
       </c>
@@ -3139,7 +3144,7 @@
         <v>6.4619</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45477</v>
       </c>
@@ -3186,7 +3191,7 @@
         <v>6.4001000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45478</v>
       </c>
@@ -3233,7 +3238,7 @@
         <v>6.3494000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45481</v>
       </c>
@@ -3280,7 +3285,7 @@
         <v>6.3601000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45482</v>
       </c>
@@ -3327,7 +3332,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45483</v>
       </c>
@@ -3374,7 +3379,7 @@
         <v>6.2694999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45484</v>
       </c>
@@ -3421,7 +3426,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45485</v>
       </c>
@@ -3468,7 +3473,7 @@
         <v>6.2069999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45488</v>
       </c>
@@ -3515,7 +3520,7 @@
         <v>6.2409999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45489</v>
       </c>
@@ -3562,7 +3567,7 @@
         <v>6.2249999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45490</v>
       </c>
@@ -3609,7 +3614,7 @@
         <v>6.2270000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45491</v>
       </c>
@@ -3656,7 +3661,7 @@
         <v>6.2900999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45492</v>
       </c>
@@ -3703,7 +3708,7 @@
         <v>6.3231000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45495</v>
       </c>
@@ -3750,7 +3755,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45496</v>
       </c>
@@ -3797,7 +3802,7 @@
         <v>6.3569000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45497</v>
       </c>
@@ -3844,7 +3849,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45498</v>
       </c>
@@ -3891,7 +3896,7 @@
         <v>6.3563999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45499</v>
       </c>
@@ -3938,7 +3943,7 @@
         <v>6.3159999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45502</v>
       </c>
@@ -3985,7 +3990,7 @@
         <v>6.3262</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45503</v>
       </c>
@@ -4032,7 +4037,7 @@
         <v>6.3042999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45504</v>
       </c>
@@ -4079,7 +4084,7 @@
         <v>6.2584999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45505</v>
       </c>
@@ -4126,7 +4131,7 @@
         <v>6.2278000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45506</v>
       </c>
@@ -4173,7 +4178,7 @@
         <v>6.0919999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45509</v>
       </c>
@@ -4220,7 +4225,7 @@
         <v>6.0952000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45510</v>
       </c>
@@ -4267,7 +4272,7 @@
         <v>6.1539999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45511</v>
       </c>
@@ -4314,7 +4319,7 @@
         <v>6.1441999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>45512</v>
       </c>
@@ -4361,7 +4366,7 @@
         <v>6.0816999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45513</v>
       </c>
@@ -4408,7 +4413,7 @@
         <v>6.0140000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45516</v>
       </c>
@@ -4455,7 +4460,7 @@
         <v>5.9924999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>45517</v>
       </c>
@@ -4502,7 +4507,7 @@
         <v>5.9714</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45518</v>
       </c>
@@ -4549,7 +4554,7 @@
         <v>5.9701000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45519</v>
       </c>
@@ -4596,7 +4601,7 @@
         <v>5.9936999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45520</v>
       </c>
@@ -4643,7 +4648,7 @@
         <v>6.0179</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45523</v>
       </c>
@@ -4690,7 +4695,7 @@
         <v>6.0644999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45524</v>
       </c>
@@ -4737,7 +4742,7 @@
         <v>6.1165000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>45525</v>
       </c>
@@ -4784,7 +4789,7 @@
         <v>6.1212</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>45526</v>
       </c>
@@ -4831,7 +4836,7 @@
         <v>6.1333000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45527</v>
       </c>
@@ -4878,7 +4883,7 @@
         <v>6.1005000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45530</v>
       </c>
@@ -4925,7 +4930,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>45531</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>6.1627000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45532</v>
       </c>
@@ -5019,7 +5024,7 @@
         <v>6.1967999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45533</v>
       </c>
@@ -5066,7 +5071,7 @@
         <v>6.2088000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>45534</v>
       </c>
@@ -5113,7 +5118,7 @@
         <v>6.2613000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45537</v>
       </c>
@@ -5160,7 +5165,7 @@
         <v>6.2869000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>45538</v>
       </c>
@@ -5207,7 +5212,7 @@
         <v>6.3051000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>45539</v>
       </c>
@@ -5254,7 +5259,7 @@
         <v>6.2771999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>45540</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>6.2382999999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>45541</v>
       </c>
@@ -5348,7 +5353,7 @@
         <v>6.2233000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45544</v>
       </c>
@@ -5395,7 +5400,7 @@
         <v>6.2361000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>45545</v>
       </c>
@@ -5442,7 +5447,7 @@
         <v>6.2640000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>45546</v>
       </c>
@@ -5489,7 +5494,7 @@
         <v>6.2710999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>45547</v>
       </c>
@@ -5536,7 +5541,7 @@
         <v>6.3201000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>45548</v>
       </c>
@@ -5583,7 +5588,7 @@
         <v>6.2813999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>45551</v>
       </c>
@@ -5630,7 +5635,7 @@
         <v>6.3159999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>45552</v>
       </c>
@@ -5677,7 +5682,7 @@
         <v>6.3230000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>45553</v>
       </c>
@@ -5724,7 +5729,7 @@
         <v>6.3235999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>45554</v>
       </c>
@@ -5771,7 +5776,7 @@
         <v>6.3971999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45555</v>
       </c>
@@ -5818,7 +5823,7 @@
         <v>6.4428000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>45558</v>
       </c>
@@ -5865,7 +5870,7 @@
         <v>6.4423000000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>45559</v>
       </c>
@@ -5912,7 +5917,7 @@
         <v>6.4123000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>45560</v>
       </c>
@@ -5959,7 +5964,7 @@
         <v>6.4042000000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>45561</v>
       </c>
@@ -6006,7 +6011,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>45562</v>
       </c>
@@ -6053,7 +6058,7 @@
         <v>6.4031000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>45565</v>
       </c>
@@ -6100,7 +6105,7 @@
         <v>6.4432999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>45566</v>
       </c>
@@ -6147,7 +6152,7 @@
         <v>6.4398999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>45567</v>
       </c>
@@ -6194,7 +6199,7 @@
         <v>6.4397000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>45568</v>
       </c>
@@ -6241,7 +6246,7 @@
         <v>6.4631999999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>45569</v>
       </c>
@@ -6288,7 +6293,7 @@
         <v>6.5000999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>45572</v>
       </c>
@@ -6335,7 +6340,7 @@
         <v>6.4603999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>45573</v>
       </c>
@@ -6382,7 +6387,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>45574</v>
       </c>
@@ -6429,7 +6434,7 @@
         <v>6.4866000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>45575</v>
       </c>
@@ -6476,7 +6481,7 @@
         <v>6.4756999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>45576</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>6.4943999999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>45579</v>
       </c>
@@ -6570,7 +6575,7 @@
         <v>6.5210999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>45580</v>
       </c>
@@ -6617,7 +6622,7 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>45581</v>
       </c>
@@ -6664,7 +6669,7 @@
         <v>6.6055000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>45582</v>
       </c>
@@ -6711,7 +6716,7 @@
         <v>6.6215999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>45583</v>
       </c>
@@ -6758,7 +6763,7 @@
         <v>6.6704999999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>45586</v>
       </c>
@@ -6805,7 +6810,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>45587</v>
       </c>
@@ -6852,7 +6857,7 @@
         <v>6.6890000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>45588</v>
       </c>
@@ -6899,7 +6904,7 @@
         <v>6.7232000000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>45589</v>
       </c>
@@ -6946,7 +6951,7 @@
         <v>6.6250999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>45590</v>
       </c>
@@ -6993,7 +6998,7 @@
         <v>6.6670999999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>45593</v>
       </c>
@@ -7040,7 +7045,7 @@
         <v>6.6977000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>45594</v>
       </c>
@@ -7087,7 +7092,7 @@
         <v>6.7328000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>45595</v>
       </c>
@@ -7134,7 +7139,7 @@
         <v>6.7126000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>45596</v>
       </c>
@@ -7181,7 +7186,7 @@
         <v>6.6989000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>45597</v>
       </c>
@@ -7228,7 +7233,7 @@
         <v>6.7512999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>45600</v>
       </c>
@@ -7275,7 +7280,7 @@
         <v>6.6608000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>45601</v>
       </c>
@@ -7322,7 +7327,7 @@
         <v>6.6557000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>45602</v>
       </c>
@@ -7369,7 +7374,7 @@
         <v>6.6454000000000004</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>45603</v>
       </c>
@@ -7416,7 +7421,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>45604</v>
       </c>
@@ -7463,7 +7468,7 @@
         <v>6.5420999999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>45607</v>
       </c>
@@ -7510,7 +7515,7 @@
         <v>6.5732999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>45608</v>
       </c>
@@ -7557,7 +7562,7 @@
         <v>6.7184999999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>45609</v>
       </c>
@@ -7604,7 +7609,7 @@
         <v>6.7069000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>45610</v>
       </c>
@@ -7651,12 +7656,12 @@
         <v>6.6959</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>45611</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>45614</v>
       </c>
@@ -7703,7 +7708,7 @@
         <v>6.6837999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>45615</v>
       </c>
@@ -7750,12 +7755,12 @@
         <v>6.6403999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>45616</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>45617</v>
       </c>
@@ -7802,7 +7807,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>45618</v>
       </c>
@@ -7849,7 +7854,7 @@
         <v>6.6536</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>45621</v>
       </c>
@@ -7896,7 +7901,7 @@
         <v>6.6395</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>45622</v>
       </c>
@@ -7943,7 +7948,7 @@
         <v>6.6467999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>45623</v>
       </c>
@@ -7990,7 +7995,7 @@
         <v>6.7626999999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>45624</v>
       </c>
@@ -8037,7 +8042,7 @@
         <v>6.8528000000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>45625</v>
       </c>
@@ -8084,7 +8089,7 @@
         <v>6.8238000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>45628</v>
       </c>
@@ -8131,7 +8136,7 @@
         <v>6.7979000000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>45629</v>
       </c>
@@ -8178,7 +8183,7 @@
         <v>6.8871000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>45630</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>6.8586999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>45631</v>
       </c>
@@ -8272,7 +8277,7 @@
         <v>6.87</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>45632</v>
       </c>
@@ -8319,7 +8324,7 @@
         <v>6.9276999999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>45635</v>
       </c>
@@ -8366,7 +8371,7 @@
         <v>6.9762000000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>45636</v>
       </c>
@@ -8413,7 +8418,7 @@
         <v>6.8743999999999996</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>45637</v>
       </c>
@@ -8460,7 +8465,7 @@
         <v>6.7321</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>45638</v>
       </c>
@@ -8507,7 +8512,7 @@
         <v>6.8148</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>45639</v>
       </c>
@@ -8554,7 +8559,7 @@
         <v>6.9725999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>45642</v>
       </c>
@@ -8601,7 +8606,7 @@
         <v>7.1673</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>45643</v>
       </c>
@@ -8648,7 +8653,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>45644</v>
       </c>
@@ -8695,7 +8700,7 @@
         <v>7.3803000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>45645</v>
       </c>
@@ -8742,7 +8747,7 @@
         <v>7.2591000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>45646</v>
       </c>
@@ -8789,7 +8794,7 @@
         <v>7.1646000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>45649</v>
       </c>
@@ -8836,7 +8841,7 @@
         <v>7.2100999999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>45650</v>
       </c>
@@ -8883,12 +8888,12 @@
         <v>7.2100999999999997</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>45651</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>45652</v>
       </c>
@@ -8935,7 +8940,7 @@
         <v>7.2554999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>45653</v>
       </c>
@@ -8982,7 +8987,7 @@
         <v>7.3605999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>45656</v>
       </c>
@@ -9029,7 +9034,7 @@
         <v>7.4372999999999996</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>45657</v>
       </c>
@@ -9076,12 +9081,12 @@
         <v>7.4372999999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>45658</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>45659</v>
       </c>
@@ -9128,7 +9133,7 @@
         <v>7.3925999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>45660</v>
       </c>
@@ -9175,7 +9180,7 @@
         <v>7.3712</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>45663</v>
       </c>
@@ -9222,7 +9227,7 @@
         <v>7.3220999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>45664</v>
       </c>
@@ -9269,7 +9274,7 @@
         <v>7.3197999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>45665</v>
       </c>
@@ -9316,7 +9321,7 @@
         <v>7.3102</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>45666</v>
       </c>
@@ -9363,7 +9368,7 @@
         <v>7.3236999999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>45667</v>
       </c>
@@ -9410,7 +9415,7 @@
         <v>7.3765000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>45670</v>
       </c>
@@ -9457,7 +9462,7 @@
         <v>7.4173999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>45671</v>
       </c>
@@ -9504,7 +9509,7 @@
         <v>7.3796999999999997</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>45672</v>
       </c>
@@ -9551,7 +9556,7 @@
         <v>7.3381999999999996</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>45673</v>
       </c>
@@ -9598,7 +9603,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>45674</v>
       </c>
@@ -9645,7 +9650,7 @@
         <v>7.4725999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>45677</v>
       </c>
@@ -9692,7 +9697,7 @@
         <v>7.5232999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>45678</v>
       </c>
@@ -9739,7 +9744,7 @@
         <v>7.5747999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>45679</v>
       </c>
@@ -9786,7 +9791,7 @@
         <v>7.5625</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>45680</v>
       </c>
@@ -9833,7 +9838,7 @@
         <v>7.6021999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>45681</v>
       </c>
@@ -9880,7 +9885,7 @@
         <v>7.5891999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>45684</v>
       </c>
@@ -9927,7 +9932,7 @@
         <v>7.5892999999999997</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>45685</v>
       </c>
@@ -9974,7 +9979,7 @@
         <v>7.5976999999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>45686</v>
       </c>
@@ -10021,7 +10026,7 @@
         <v>7.6035000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>45687</v>
       </c>
@@ -10068,7 +10073,7 @@
         <v>7.4682000000000004</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>45688</v>
       </c>
@@ -10115,7 +10120,7 @@
         <v>7.4941000000000004</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>45691</v>
       </c>
@@ -10162,7 +10167,7 @@
         <v>7.4527999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>45692</v>
       </c>
@@ -10209,7 +10214,7 @@
         <v>7.4653</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>45693</v>
       </c>
@@ -10256,7 +10261,7 @@
         <v>7.5335000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>45694</v>
       </c>
@@ -10303,7 +10308,7 @@
         <v>7.4932999999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>45695</v>
       </c>
@@ -10350,7 +10355,7 @@
         <v>7.5236000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>45698</v>
       </c>
@@ -10397,7 +10402,7 @@
         <v>7.5218999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>45699</v>
       </c>
@@ -10444,7 +10449,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>45700</v>
       </c>
@@ -10491,7 +10496,7 @@
         <v>7.4949000000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>45701</v>
       </c>
@@ -10538,7 +10543,7 @@
         <v>7.4817</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>45702</v>
       </c>
@@ -10585,7 +10590,7 @@
         <v>7.3483000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>45705</v>
       </c>
@@ -10632,7 +10637,7 @@
         <v>7.3048000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>45706</v>
       </c>
@@ -10679,7 +10684,7 @@
         <v>7.3183999999999996</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>45707</v>
       </c>
@@ -10726,7 +10731,7 @@
         <v>7.3380999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>45708</v>
       </c>
@@ -10773,7 +10778,7 @@
         <v>7.3285999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>45709</v>
       </c>
@@ -10820,7 +10825,7 @@
         <v>7.3124000000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>45712</v>
       </c>
@@ -10867,7 +10872,7 @@
         <v>7.4088000000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>45713</v>
       </c>
@@ -10914,7 +10919,7 @@
         <v>7.3627000000000002</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>45714</v>
       </c>
@@ -10961,7 +10966,7 @@
         <v>7.4257999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>45715</v>
       </c>
@@ -11008,7 +11013,7 @@
         <v>7.4863999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>45716</v>
       </c>
@@ -11055,17 +11060,17 @@
         <v>7.5185000000000004</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>45719</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>45720</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>45721</v>
       </c>
@@ -11112,7 +11117,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>45722</v>
       </c>
@@ -11159,7 +11164,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>45723</v>
       </c>
@@ -11206,7 +11211,7 @@
         <v>7.4450000000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>45726</v>
       </c>
@@ -11253,7 +11258,7 @@
         <v>7.4413999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>45727</v>
       </c>
@@ -11300,7 +11305,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>45728</v>
       </c>
@@ -11347,7 +11352,7 @@
         <v>7.4675000000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>45729</v>
       </c>
@@ -11394,7 +11399,7 @@
         <v>7.4409000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>45730</v>
       </c>
@@ -11441,7 +11446,7 @@
         <v>7.4497</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>45733</v>
       </c>
@@ -11488,7 +11493,7 @@
         <v>7.4622000000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>45734</v>
       </c>
@@ -11535,7 +11540,7 @@
         <v>7.4263000000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>45735</v>
       </c>
@@ -11582,7 +11587,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>45736</v>
       </c>
@@ -11629,7 +11634,7 @@
         <v>7.4149000000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>45737</v>
       </c>
@@ -11676,7 +11681,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>45740</v>
       </c>
@@ -11723,7 +11728,7 @@
         <v>7.4462000000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>45741</v>
       </c>
@@ -11770,7 +11775,7 @@
         <v>7.4295</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>45742</v>
       </c>
@@ -11817,7 +11822,7 @@
         <v>7.4358000000000004</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>45743</v>
       </c>
@@ -11864,7 +11869,7 @@
         <v>7.4353999999999996</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>45744</v>
       </c>
@@ -11911,7 +11916,7 @@
         <v>7.4352999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>45747</v>
       </c>
@@ -11958,7 +11963,7 @@
         <v>7.3903999999999996</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>45748</v>
       </c>
@@ -12005,7 +12010,7 @@
         <v>7.4127999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>45749</v>
       </c>
@@ -12052,7 +12057,7 @@
         <v>7.4168000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>45750</v>
       </c>
@@ -12099,7 +12104,7 @@
         <v>7.2930999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>45751</v>
       </c>
@@ -12146,7 +12151,7 @@
         <v>7.2838000000000003</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>45754</v>
       </c>
@@ -12193,7 +12198,7 @@
         <v>7.3330000000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>45755</v>
       </c>
@@ -12240,7 +12245,7 @@
         <v>7.3746</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>45756</v>
       </c>
@@ -12287,7 +12292,7 @@
         <v>7.3754999999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>45757</v>
       </c>
@@ -12334,7 +12339,7 @@
         <v>7.4169999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>45758</v>
       </c>
@@ -12381,7 +12386,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>45761</v>
       </c>
@@ -12428,7 +12433,7 @@
         <v>7.3009000000000004</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>45762</v>
       </c>
@@ -12475,7 +12480,7 @@
         <v>7.3554000000000004</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>45763</v>
       </c>
@@ -12522,7 +12527,7 @@
         <v>7.3998999999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>45764</v>
       </c>
@@ -12569,17 +12574,17 @@
         <v>7.4032999999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>45765</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>45768</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>45769</v>
       </c>
@@ -12626,7 +12631,7 @@
         <v>7.4922000000000004</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>45770</v>
       </c>
@@ -12673,7 +12678,7 @@
         <v>7.4551999999999996</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>45771</v>
       </c>
@@ -12720,7 +12725,7 @@
         <v>7.3647</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>45772</v>
       </c>
@@ -12767,7 +12772,7 @@
         <v>7.3592000000000004</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>45775</v>
       </c>
@@ -12814,7 +12819,7 @@
         <v>7.3460999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>45776</v>
       </c>
@@ -12861,7 +12866,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>45777</v>
       </c>
@@ -12908,12 +12913,12 @@
         <v>7.3209999999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>45778</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>45779</v>
       </c>
@@ -12960,7 +12965,7 @@
         <v>7.3235999999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>45782</v>
       </c>
@@ -13007,7 +13012,7 @@
         <v>7.3532999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>45783</v>
       </c>
@@ -13054,7 +13059,7 @@
         <v>7.2789000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>45784</v>
       </c>
@@ -13101,7 +13106,7 @@
         <v>7.2285000000000004</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>45785</v>
       </c>
@@ -13148,7 +13153,7 @@
         <v>7.1429</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>45786</v>
       </c>
@@ -13195,7 +13200,7 @@
         <v>7.0960999999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>45789</v>
       </c>
@@ -13242,7 +13247,7 @@
         <v>7.1116999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>45790</v>
       </c>
@@ -13289,7 +13294,7 @@
         <v>7.1037999999999997</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>45791</v>
       </c>
@@ -13336,7 +13341,7 @@
         <v>7.1600999999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>45792</v>
       </c>
@@ -13380,7 +13385,7 @@
         <v>7.1432000000000002</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>45793</v>
       </c>
@@ -13424,7 +13429,7 @@
         <v>7.1170999999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>45796</v>
       </c>
@@ -13468,7 +13473,7 @@
         <v>7.0759999999999996</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>45797</v>
       </c>
@@ -13512,7 +13517,7 @@
         <v>7.1161000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>45798</v>
       </c>
@@ -13556,7 +13561,7 @@
         <v>7.1333000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>45799</v>
       </c>
@@ -13600,7 +13605,7 @@
         <v>7.0876999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>45800</v>
       </c>
@@ -13644,7 +13649,7 @@
         <v>7.0891999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>45803</v>
       </c>
@@ -13688,7 +13693,7 @@
         <v>7.0759999999999996</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>45804</v>
       </c>
@@ -13732,7 +13737,7 @@
         <v>7.0393999999999997</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>45805</v>
       </c>
@@ -13776,7 +13781,7 @@
         <v>7.0735999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>45806</v>
       </c>
@@ -13820,7 +13825,7 @@
         <v>7.077</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>45807</v>
       </c>
@@ -13864,7 +13869,7 @@
         <v>7.1158999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>45810</v>
       </c>
@@ -13908,7 +13913,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>45811</v>
       </c>
@@ -13952,7 +13957,7 @@
         <v>7.1532999999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>45812</v>
       </c>
@@ -13996,7 +14001,7 @@
         <v>7.1313000000000004</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>45813</v>
       </c>
@@ -14040,7 +14045,7 @@
         <v>7.1519000000000004</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>45814</v>
       </c>
@@ -14084,7 +14089,7 @@
         <v>7.157</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>45817</v>
       </c>
@@ -14128,7 +14133,7 @@
         <v>7.1835000000000004</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>45818</v>
       </c>
@@ -14172,7 +14177,7 @@
         <v>7.2187000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>45819</v>
       </c>
@@ -14216,7 +14221,7 @@
         <v>7.1904000000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>45820</v>
       </c>
@@ -14260,7 +14265,7 @@
         <v>7.1929999999999996</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>45821</v>
       </c>
@@ -14304,7 +14309,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>45824</v>
       </c>
@@ -14348,7 +14353,7 @@
         <v>7.1406999999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>45825</v>
       </c>
@@ -14392,7 +14397,7 @@
         <v>7.1124999999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>45826</v>
       </c>
@@ -14436,12 +14441,12 @@
         <v>7.0688000000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>45828</v>
       </c>
@@ -14485,7 +14490,7 @@
         <v>7.0031999999999996</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>45831</v>
       </c>
@@ -14529,7 +14534,7 @@
         <v>7.0294999999999996</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>45832</v>
       </c>
@@ -14573,7 +14578,7 @@
         <v>7.0978000000000003</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>45833</v>
       </c>
@@ -14617,7 +14622,7 @@
         <v>7.1234000000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>45834</v>
       </c>
@@ -14661,7 +14666,7 @@
         <v>7.0848000000000004</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>45835</v>
       </c>
@@ -14705,7 +14710,7 @@
         <v>7.0435999999999996</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>45838</v>
       </c>
@@ -14748,6 +14753,229 @@
       <c r="O308">
         <v>6.9676</v>
       </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>45839</v>
+      </c>
+      <c r="C309">
+        <v>9.8338999999999999</v>
+      </c>
+      <c r="D309">
+        <v>8.6928999999999998</v>
+      </c>
+      <c r="E309">
+        <v>7.8994999999999997</v>
+      </c>
+      <c r="F309">
+        <v>7.58</v>
+      </c>
+      <c r="G309">
+        <v>7.4953000000000003</v>
+      </c>
+      <c r="H309">
+        <v>7.3845999999999998</v>
+      </c>
+      <c r="I309">
+        <v>7.2899000000000003</v>
+      </c>
+      <c r="J309">
+        <v>7.1753</v>
+      </c>
+      <c r="K309">
+        <v>7.0396000000000001</v>
+      </c>
+      <c r="L309">
+        <v>7.0251000000000001</v>
+      </c>
+      <c r="M309">
+        <v>6.94</v>
+      </c>
+      <c r="N309">
+        <v>6.9242999999999997</v>
+      </c>
+      <c r="O309">
+        <v>6.9507000000000003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>45840</v>
+      </c>
+      <c r="C310">
+        <v>9.8239999999999998</v>
+      </c>
+      <c r="D310">
+        <v>8.65</v>
+      </c>
+      <c r="E310">
+        <v>7.8928000000000003</v>
+      </c>
+      <c r="F310">
+        <v>7.5690999999999997</v>
+      </c>
+      <c r="G310">
+        <v>7.4823000000000004</v>
+      </c>
+      <c r="H310">
+        <v>7.3777999999999997</v>
+      </c>
+      <c r="I310">
+        <v>7.29</v>
+      </c>
+      <c r="J310">
+        <v>7.1870000000000003</v>
+      </c>
+      <c r="K310">
+        <v>7.0613999999999999</v>
+      </c>
+      <c r="L310">
+        <v>7.0551000000000004</v>
+      </c>
+      <c r="M310">
+        <v>6.9734999999999996</v>
+      </c>
+      <c r="N310">
+        <v>6.9569000000000001</v>
+      </c>
+      <c r="O310">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>45841</v>
+      </c>
+      <c r="C311">
+        <v>9.7880000000000003</v>
+      </c>
+      <c r="D311">
+        <v>8.6</v>
+      </c>
+      <c r="E311">
+        <v>7.8689999999999998</v>
+      </c>
+      <c r="F311">
+        <v>7.55</v>
+      </c>
+      <c r="G311">
+        <v>7.4728000000000003</v>
+      </c>
+      <c r="H311">
+        <v>7.3807</v>
+      </c>
+      <c r="I311">
+        <v>7.2979000000000003</v>
+      </c>
+      <c r="J311">
+        <v>7.1894999999999998</v>
+      </c>
+      <c r="K311">
+        <v>7.0669000000000004</v>
+      </c>
+      <c r="L311">
+        <v>7.05</v>
+      </c>
+      <c r="M311">
+        <v>6.97</v>
+      </c>
+      <c r="N311">
+        <v>6.9576000000000002</v>
+      </c>
+      <c r="O311">
+        <v>6.9894999999999996</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>45842</v>
+      </c>
+      <c r="C312">
+        <v>9.8018999999999998</v>
+      </c>
+      <c r="D312">
+        <v>8.6178000000000008</v>
+      </c>
+      <c r="E312">
+        <v>7.8971999999999998</v>
+      </c>
+      <c r="F312">
+        <v>7.5788000000000002</v>
+      </c>
+      <c r="G312">
+        <v>7.5</v>
+      </c>
+      <c r="H312">
+        <v>7.3962000000000003</v>
+      </c>
+      <c r="I312">
+        <v>7.3144999999999998</v>
+      </c>
+      <c r="J312">
+        <v>7.2077</v>
+      </c>
+      <c r="K312">
+        <v>7.0867000000000004</v>
+      </c>
+      <c r="L312">
+        <v>7.06</v>
+      </c>
+      <c r="M312">
+        <v>6.9744999999999999</v>
+      </c>
+      <c r="N312">
+        <v>6.96</v>
+      </c>
+      <c r="O312">
+        <v>6.9901999999999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>45845</v>
+      </c>
+      <c r="C313">
+        <v>9.8230000000000004</v>
+      </c>
+      <c r="D313">
+        <v>8.6664999999999992</v>
+      </c>
+      <c r="E313">
+        <v>7.96</v>
+      </c>
+      <c r="F313">
+        <v>7.6410999999999998</v>
+      </c>
+      <c r="G313">
+        <v>7.5734000000000004</v>
+      </c>
+      <c r="H313">
+        <v>7.4699</v>
+      </c>
+      <c r="I313">
+        <v>7.3823999999999996</v>
+      </c>
+      <c r="J313">
+        <v>7.2594000000000003</v>
+      </c>
+      <c r="K313">
+        <v>7.1374000000000004</v>
+      </c>
+      <c r="L313">
+        <v>7.0968</v>
+      </c>
+      <c r="M313">
+        <v>7.0037000000000003</v>
+      </c>
+      <c r="N313">
+        <v>6.9893000000000001</v>
+      </c>
+      <c r="O313">
+        <v>7.0197000000000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A314" s="1"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -14759,18 +14987,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O308"/>
+  <dimension ref="A1:O314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O308"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14817,7 +15045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -14864,7 +15092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <f>_xll.ECONOMATICA(B1,"CLOSE",,"D-0","2024-4-29","D",,,,"FALSE",,)</f>
         <v>45411</v>
@@ -14925,7 +15153,7 @@
         <v>3997.8751490999998</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45412</v>
       </c>
@@ -14972,12 +15200,12 @@
         <v>3942.1640615000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45413</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45414</v>
       </c>
@@ -15024,7 +15252,7 @@
         <v>3959.2963370000002</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45415</v>
       </c>
@@ -15071,7 +15299,7 @@
         <v>3982.4521334999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45418</v>
       </c>
@@ -15118,7 +15346,7 @@
         <v>3961.7450217000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45419</v>
       </c>
@@ -15165,7 +15393,7 @@
         <v>3985.5169001999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45420</v>
       </c>
@@ -15212,7 +15440,7 @@
         <v>3986.1571296000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45421</v>
       </c>
@@ -15259,7 +15487,7 @@
         <v>3997.6522353999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45422</v>
       </c>
@@ -15306,7 +15534,7 @@
         <v>3981.1635747999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45425</v>
       </c>
@@ -15353,7 +15581,7 @@
         <v>3972.8835259000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45426</v>
       </c>
@@ -15400,7 +15628,7 @@
         <v>3982.3252438</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45427</v>
       </c>
@@ -15447,7 +15675,7 @@
         <v>3991.4576056999999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45428</v>
       </c>
@@ -15494,7 +15722,7 @@
         <v>4017.0645027999999</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45429</v>
       </c>
@@ -15541,7 +15769,7 @@
         <v>4012.2517978999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45432</v>
       </c>
@@ -15588,7 +15816,7 @@
         <v>4004.9270756000001</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45433</v>
       </c>
@@ -15635,7 +15863,7 @@
         <v>4006.5318587000002</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45434</v>
       </c>
@@ -15682,7 +15910,7 @@
         <v>3995.6133605999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45435</v>
       </c>
@@ -15729,7 +15957,7 @@
         <v>4009.7948341000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45436</v>
       </c>
@@ -15776,7 +16004,7 @@
         <v>4003.2830951000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45439</v>
       </c>
@@ -15823,7 +16051,7 @@
         <v>3994.1844906000001</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45440</v>
       </c>
@@ -15870,7 +16098,7 @@
         <v>3999.5735506999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45441</v>
       </c>
@@ -15917,12 +16145,12 @@
         <v>3984.8131794000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45442</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45443</v>
       </c>
@@ -15969,7 +16197,7 @@
         <v>4001.9973642</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45446</v>
       </c>
@@ -16016,7 +16244,7 @@
         <v>3998.1300878000002</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45447</v>
       </c>
@@ -16063,7 +16291,7 @@
         <v>3984.6987218999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45448</v>
       </c>
@@ -16110,7 +16338,7 @@
         <v>3970.0405636</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45449</v>
       </c>
@@ -16157,7 +16385,7 @@
         <v>3982.5155132</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45450</v>
       </c>
@@ -16204,7 +16432,7 @@
         <v>3933.8129958</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45453</v>
       </c>
@@ -16251,7 +16479,7 @@
         <v>3933.3987407999998</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45454</v>
       </c>
@@ -16298,7 +16526,7 @@
         <v>3919.0657270000002</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45455</v>
       </c>
@@ -16345,7 +16573,7 @@
         <v>3873.7875991000001</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45456</v>
       </c>
@@ -16392,7 +16620,7 @@
         <v>3894.1489019999999</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45457</v>
       </c>
@@ -16439,7 +16667,7 @@
         <v>3904.8245069999998</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45460</v>
       </c>
@@ -16486,7 +16714,7 @@
         <v>3908.0350577999998</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45461</v>
       </c>
@@ -16533,7 +16761,7 @@
         <v>3904.0347608000002</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45462</v>
       </c>
@@ -16580,7 +16808,7 @@
         <v>3907.1423515000001</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45463</v>
       </c>
@@ -16627,7 +16855,7 @@
         <v>3910.9438128000002</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45464</v>
       </c>
@@ -16674,7 +16902,7 @@
         <v>3939.1843545000002</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45467</v>
       </c>
@@ -16721,7 +16949,7 @@
         <v>3933.7837322</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45468</v>
       </c>
@@ -16768,7 +16996,7 @@
         <v>3918.0585388999998</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45469</v>
       </c>
@@ -16815,7 +17043,7 @@
         <v>3909.0683690999999</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45470</v>
       </c>
@@ -16862,7 +17090,7 @@
         <v>3905.6306641000001</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45471</v>
       </c>
@@ -16909,7 +17137,7 @@
         <v>3863.6561658000001</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45474</v>
       </c>
@@ -16956,7 +17184,7 @@
         <v>3845.6140138999999</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45475</v>
       </c>
@@ -17003,7 +17231,7 @@
         <v>3847.0863565999998</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45476</v>
       </c>
@@ -17050,7 +17278,7 @@
         <v>3888.7095036999999</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45477</v>
       </c>
@@ -17097,7 +17325,7 @@
         <v>3922.8289377999999</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45478</v>
       </c>
@@ -17144,7 +17372,7 @@
         <v>3951.4507128999999</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45481</v>
       </c>
@@ -17191,7 +17419,7 @@
         <v>3947.2409922000002</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45482</v>
       </c>
@@ -17238,7 +17466,7 @@
         <v>3948.8336472000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45483</v>
       </c>
@@ -17285,7 +17513,7 @@
         <v>3996.7157655999999</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45484</v>
       </c>
@@ -17332,7 +17560,7 @@
         <v>4030.8973995000001</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45485</v>
       </c>
@@ -17379,7 +17607,7 @@
         <v>4033.9509005999998</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45488</v>
       </c>
@@ -17426,7 +17654,7 @@
         <v>4016.5230539999998</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45489</v>
       </c>
@@ -17473,7 +17701,7 @@
         <v>4026.8835328</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45490</v>
       </c>
@@ -17520,7 +17748,7 @@
         <v>4027.3016725000002</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45491</v>
       </c>
@@ -17567,7 +17795,7 @@
         <v>3994.1785964000001</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45492</v>
       </c>
@@ -17614,7 +17842,7 @@
         <v>3977.7808418</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45495</v>
       </c>
@@ -17661,7 +17889,7 @@
         <v>3991.8319922000001</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45496</v>
       </c>
@@ -17708,7 +17936,7 @@
         <v>3962.6072159999999</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45497</v>
       </c>
@@ -17755,7 +17983,7 @@
         <v>3967.8348348</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45498</v>
       </c>
@@ -17802,7 +18030,7 @@
         <v>3965.9178772999999</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45499</v>
       </c>
@@ -17849,7 +18077,7 @@
         <v>3989.5459857999999</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45502</v>
       </c>
@@ -17896,7 +18124,7 @@
         <v>3985.5805633</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45503</v>
       </c>
@@ -17943,7 +18171,7 @@
         <v>3999.0170640000001</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45504</v>
       </c>
@@ -17990,7 +18218,7 @@
         <v>4025.6188728000002</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45505</v>
       </c>
@@ -18037,7 +18265,7 @@
         <v>4044.1226228999999</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45506</v>
       </c>
@@ -18084,7 +18312,7 @@
         <v>4122.1061376999996</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45509</v>
       </c>
@@ -18131,7 +18359,7 @@
         <v>4121.8531333999999</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45510</v>
       </c>
@@ -18178,7 +18406,7 @@
         <v>4090.0602115000002</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45511</v>
       </c>
@@ -18225,7 +18453,7 @@
         <v>4097.1644706999996</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>45512</v>
       </c>
@@ -18272,7 +18500,7 @@
         <v>4134.3147675</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45513</v>
       </c>
@@ -18319,7 +18547,7 @@
         <v>4176.4046393999997</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45516</v>
       </c>
@@ -18366,7 +18594,7 @@
         <v>4190.6312684000004</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>45517</v>
       </c>
@@ -18413,7 +18641,7 @@
         <v>4204.6883674999999</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45518</v>
       </c>
@@ -18460,7 +18688,7 @@
         <v>4207.1151366000004</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45519</v>
       </c>
@@ -18507,7 +18735,7 @@
         <v>4194.9085707000004</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45520</v>
       </c>
@@ -18554,7 +18782,7 @@
         <v>4181.3584903999999</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45523</v>
       </c>
@@ -18601,7 +18829,7 @@
         <v>4154.5658940000003</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45524</v>
       </c>
@@ -18648,7 +18876,7 @@
         <v>4124.9166907999997</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>45525</v>
       </c>
@@ -18695,7 +18923,7 @@
         <v>4123.1737862999998</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>45526</v>
       </c>
@@ -18742,7 +18970,7 @@
         <v>4117.1111504</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45527</v>
       </c>
@@ -18789,7 +19017,7 @@
         <v>4137.3379320000004</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45530</v>
       </c>
@@ -18836,7 +19064,7 @@
         <v>4115.2262553</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>45531</v>
       </c>
@@ -18883,7 +19111,7 @@
         <v>4103.0422503</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45532</v>
       </c>
@@ -18930,7 +19158,7 @@
         <v>4084.2028398000002</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45533</v>
       </c>
@@ -18977,7 +19205,7 @@
         <v>4078.3089192000002</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>45534</v>
       </c>
@@ -19024,7 +19252,7 @@
         <v>4049.3861741999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45537</v>
       </c>
@@ -19071,7 +19299,7 @@
         <v>4035.9283291000002</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>45538</v>
       </c>
@@ -19118,7 +19346,7 @@
         <v>4026.7025579000001</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>45539</v>
       </c>
@@ -19165,7 +19393,7 @@
         <v>4043.3870295000002</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>45540</v>
       </c>
@@ -19212,7 +19440,7 @@
         <v>4066.4262583</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>45541</v>
       </c>
@@ -19259,7 +19487,7 @@
         <v>4075.9766933000001</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45544</v>
       </c>
@@ -19306,7 +19534,7 @@
         <v>4069.6697439999998</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>45545</v>
       </c>
@@ -19353,7 +19581,7 @@
         <v>4053.8337695</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>45546</v>
       </c>
@@ -19400,7 +19628,7 @@
         <v>4050.7580358</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>45547</v>
       </c>
@@ -19447,7 +19675,7 @@
         <v>4024.187856</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>45548</v>
       </c>
@@ -19494,7 +19722,7 @@
         <v>4046.8327712999999</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>45551</v>
       </c>
@@ -19541,7 +19769,7 @@
         <v>4028.3626451999999</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>45552</v>
       </c>
@@ -19588,7 +19816,7 @@
         <v>4026.5027347</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>45553</v>
       </c>
@@ -19635,7 +19863,7 @@
         <v>4028.2200892999999</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>45554</v>
       </c>
@@ -19682,7 +19910,7 @@
         <v>3989.5373964999999</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45555</v>
       </c>
@@ -19729,7 +19957,7 @@
         <v>3966.6829317000002</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>45558</v>
       </c>
@@ -19776,7 +20004,7 @@
         <v>3968.9943130000001</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>45559</v>
       </c>
@@ -19823,7 +20051,7 @@
         <v>3987.3896255</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>45560</v>
       </c>
@@ -19870,7 +20098,7 @@
         <v>3993.8751689000001</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>45561</v>
       </c>
@@ -19917,7 +20145,7 @@
         <v>3996.7099079</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>45562</v>
       </c>
@@ -19964,7 +20192,7 @@
         <v>3996.8650604999998</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>45565</v>
       </c>
@@ -20011,7 +20239,7 @@
         <v>3976.7708109999999</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>45566</v>
       </c>
@@ -20058,7 +20286,7 @@
         <v>3980.4772847999998</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>45567</v>
       </c>
@@ -20105,7 +20333,7 @@
         <v>3982.4423284999998</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>45568</v>
       </c>
@@ -20152,7 +20380,7 @@
         <v>3971.5406698000002</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>45569</v>
       </c>
@@ -20199,7 +20427,7 @@
         <v>3953.5006779999999</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>45572</v>
       </c>
@@ -20246,7 +20474,7 @@
         <v>3976.7691598000001</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>45573</v>
       </c>
@@ -20293,7 +20521,7 @@
         <v>3995.1616763000002</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>45574</v>
       </c>
@@ -20340,7 +20568,7 @@
         <v>3965.6832510999998</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>45575</v>
       </c>
@@ -20387,7 +20615,7 @@
         <v>3973.3829501</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>45576</v>
       </c>
@@ -20434,7 +20662,7 @@
         <v>3965.1193007000002</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>45579</v>
       </c>
@@ -20481,7 +20709,7 @@
         <v>3952.6157524</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>45580</v>
       </c>
@@ -20528,7 +20756,7 @@
         <v>3933.7175731000002</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>45581</v>
       </c>
@@ -20575,7 +20803,7 @@
         <v>3911.5755371</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>45582</v>
       </c>
@@ -20622,7 +20850,7 @@
         <v>3904.9973421</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>45583</v>
       </c>
@@ -20669,7 +20897,7 @@
         <v>3881.4226555999999</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>45586</v>
       </c>
@@ -20716,7 +20944,7 @@
         <v>3873.2085366000001</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>45587</v>
       </c>
@@ -20763,7 +20991,7 @@
         <v>3875.5784392999999</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>45588</v>
       </c>
@@ -20810,7 +21038,7 @@
         <v>3859.87545</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>45589</v>
       </c>
@@ -20857,7 +21085,7 @@
         <v>3912.4632317000001</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>45590</v>
       </c>
@@ -20904,7 +21132,7 @@
         <v>3893.0006305000002</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>45593</v>
       </c>
@@ -20951,7 +21179,7 @@
         <v>3879.1175678</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>45594</v>
       </c>
@@ -20998,7 +21226,7 @@
         <v>3863.0452690000002</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>45595</v>
       </c>
@@ -21045,7 +21273,7 @@
         <v>3875.3051753</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>45596</v>
       </c>
@@ -21092,7 +21320,7 @@
         <v>3884.2745639999998</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>45597</v>
       </c>
@@ -21139,7 +21367,7 @@
         <v>3859.3715127</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>45600</v>
       </c>
@@ -21186,7 +21414,7 @@
         <v>3907.8379399</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>45601</v>
       </c>
@@ -21233,7 +21461,7 @@
         <v>3912.4256409</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>45602</v>
       </c>
@@ -21280,7 +21508,7 @@
         <v>3919.7261908999999</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>45603</v>
       </c>
@@ -21327,7 +21555,7 @@
         <v>3956.0454657999999</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>45604</v>
       </c>
@@ -21374,7 +21602,7 @@
         <v>3978.4644235000001</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>45607</v>
       </c>
@@ -21421,7 +21649,7 @@
         <v>3963.8083218000002</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>45608</v>
       </c>
@@ -21468,7 +21696,7 @@
         <v>3889.9566878999999</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>45609</v>
       </c>
@@ -21515,7 +21743,7 @@
         <v>3897.8743583</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>45610</v>
       </c>
@@ -21562,12 +21790,12 @@
         <v>3905.4967820000002</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>45611</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>45614</v>
       </c>
@@ -21614,7 +21842,7 @@
         <v>3913.7079165</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>45615</v>
       </c>
@@ -21661,12 +21889,12 @@
         <v>3937.7417111</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>45616</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>45617</v>
       </c>
@@ -21713,7 +21941,7 @@
         <v>3960.4163084000002</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>45618</v>
       </c>
@@ -21760,7 +21988,7 @@
         <v>3933.7214985999999</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>45621</v>
       </c>
@@ -21807,7 +22035,7 @@
         <v>3942.5297338999999</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>45622</v>
       </c>
@@ -21854,7 +22082,7 @@
         <v>3940.1551946999998</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>45623</v>
       </c>
@@ -21901,7 +22129,7 @@
         <v>3883.2841708999999</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>45624</v>
       </c>
@@ -21948,7 +22176,7 @@
         <v>3839.5433853999998</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>45625</v>
       </c>
@@ -21995,7 +22223,7 @@
         <v>3855.7416997</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>45628</v>
       </c>
@@ -22042,7 +22270,7 @@
         <v>3870.469591</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>45629</v>
       </c>
@@ -22089,7 +22317,7 @@
         <v>3827.5132644999999</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>45630</v>
       </c>
@@ -22136,7 +22364,7 @@
         <v>3843.3083913</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>45631</v>
       </c>
@@ -22183,7 +22411,7 @@
         <v>3839.3591470000001</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>45632</v>
       </c>
@@ -22230,7 +22458,7 @@
         <v>3812.5114647999999</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>45635</v>
       </c>
@@ -22277,7 +22505,7 @@
         <v>3790.4953728</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>45636</v>
       </c>
@@ -22324,7 +22552,7 @@
         <v>3844.0185332000001</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>45637</v>
       </c>
@@ -22371,7 +22599,7 @@
         <v>3917.7660977</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>45638</v>
       </c>
@@ -22418,7 +22646,7 @@
         <v>3877.4801763</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>45639</v>
       </c>
@@ -22465,7 +22693,7 @@
         <v>3801.0883070999998</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>45642</v>
       </c>
@@ -22512,7 +22740,7 @@
         <v>3710.1121818000001</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>45643</v>
       </c>
@@ -22559,7 +22787,7 @@
         <v>3674.074298</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>45644</v>
       </c>
@@ -22606,7 +22834,7 @@
         <v>3617.4118497999998</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>45645</v>
       </c>
@@ -22653,7 +22881,7 @@
         <v>3674.2585866999998</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>45646</v>
       </c>
@@ -22700,7 +22928,7 @@
         <v>3720.1160826</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>45649</v>
       </c>
@@ -22747,7 +22975,7 @@
         <v>3701.1545249999999</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>45650</v>
       </c>
@@ -22794,12 +23022,12 @@
         <v>3703.3417226000001</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>45651</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>45652</v>
       </c>
@@ -22846,7 +23074,7 @@
         <v>3684.6206505999999</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>45653</v>
       </c>
@@ -22893,7 +23121,7 @@
         <v>3639.1875481000002</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>45656</v>
       </c>
@@ -22940,7 +23168,7 @@
         <v>3605.8288711999999</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>45657</v>
       </c>
@@ -22987,12 +23215,12 @@
         <v>3607.8255939000001</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>45658</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>45659</v>
       </c>
@@ -23039,7 +23267,7 @@
         <v>3629.6164915999998</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>45660</v>
       </c>
@@ -23086,7 +23314,7 @@
         <v>3641.1654416000001</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>45663</v>
       </c>
@@ -23133,7 +23361,7 @@
         <v>3665.2542718</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>45664</v>
       </c>
@@ -23180,7 +23408,7 @@
         <v>3668.3075754000001</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>45665</v>
       </c>
@@ -23227,7 +23455,7 @@
         <v>3674.6724868000001</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>45666</v>
       </c>
@@ -23274,7 +23502,7 @@
         <v>3670.5765707999999</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>45667</v>
       </c>
@@ -23321,7 +23549,7 @@
         <v>3648.2346496999999</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>45670</v>
       </c>
@@ -23368,7 +23596,7 @@
         <v>3631.9992662999998</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>45671</v>
       </c>
@@ -23415,7 +23643,7 @@
         <v>3650.7558779999999</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>45672</v>
       </c>
@@ -23462,7 +23690,7 @@
         <v>3671.3744311999999</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>45673</v>
       </c>
@@ -23509,7 +23737,7 @@
         <v>3649.2296416999998</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>45674</v>
       </c>
@@ -23556,7 +23784,7 @@
         <v>3613.8105102</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>45677</v>
       </c>
@@ -23603,7 +23831,7 @@
         <v>3592.8196687999998</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>45678</v>
       </c>
@@ -23650,7 +23878,7 @@
         <v>3571.7218711999999</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>45679</v>
       </c>
@@ -23697,7 +23925,7 @@
         <v>3578.0981744000001</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>45680</v>
       </c>
@@ -23744,7 +23972,7 @@
         <v>3562.2131505000002</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>45681</v>
       </c>
@@ -23791,7 +24019,7 @@
         <v>3568.8572125000001</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>45684</v>
       </c>
@@ -23838,7 +24066,7 @@
         <v>3571.3982362000002</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>45685</v>
       </c>
@@ -23885,7 +24113,7 @@
         <v>3569.0998940999998</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>45686</v>
       </c>
@@ -23932,7 +24160,7 @@
         <v>3567.9109125</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>45687</v>
       </c>
@@ -23979,7 +24207,7 @@
         <v>3627.6997446</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>45688</v>
       </c>
@@ -24026,7 +24254,7 @@
         <v>3617.6570946000002</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>45691</v>
       </c>
@@ -24073,7 +24301,7 @@
         <v>3637.0494994000001</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>45692</v>
       </c>
@@ -24120,7 +24348,7 @@
         <v>3632.8410340999999</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>45693</v>
       </c>
@@ -24167,7 +24395,7 @@
         <v>3604.4058144999999</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>45694</v>
       </c>
@@ -24214,7 +24442,7 @@
         <v>3623.1632676999998</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>45695</v>
       </c>
@@ -24261,7 +24489,7 @@
         <v>3611.2748369999999</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>45698</v>
       </c>
@@ -24308,7 +24536,7 @@
         <v>3613.2998137</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>45699</v>
       </c>
@@ -24355,7 +24583,7 @@
         <v>3624.1142448999999</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>45700</v>
       </c>
@@ -24402,7 +24630,7 @@
         <v>3627.6337288</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>45701</v>
       </c>
@@ -24449,7 +24677,7 @@
         <v>3634.6938126</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>45702</v>
       </c>
@@ -24496,7 +24724,7 @@
         <v>3695.2391781000001</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>45705</v>
       </c>
@@ -24543,7 +24771,7 @@
         <v>3716.2333720000001</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>45706</v>
       </c>
@@ -24590,7 +24818,7 @@
         <v>3713.622511</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>45707</v>
       </c>
@@ -24637,7 +24865,7 @@
         <v>3708.1693620000001</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>45708</v>
       </c>
@@ -24684,7 +24912,7 @@
         <v>3716.4085570000002</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>45709</v>
       </c>
@@ -24731,7 +24959,7 @@
         <v>3727.8298319999999</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>45712</v>
       </c>
@@ -24778,7 +25006,7 @@
         <v>3686.6209250000002</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>45713</v>
       </c>
@@ -24825,7 +25053,7 @@
         <v>3711.8145439999998</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>45714</v>
       </c>
@@ -24872,7 +25100,7 @@
         <v>3685.614282</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>45715</v>
       </c>
@@ -24919,7 +25147,7 @@
         <v>3661.5233870000002</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>45716</v>
       </c>
@@ -24966,17 +25194,17 @@
         <v>3650.6110250000002</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>45719</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>45720</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>45721</v>
       </c>
@@ -25023,7 +25251,7 @@
         <v>3685.49773</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>45722</v>
       </c>
@@ -25070,7 +25298,7 @@
         <v>3684.5849229999999</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>45723</v>
       </c>
@@ -25117,7 +25345,7 @@
         <v>3695.1571589999999</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>45726</v>
       </c>
@@ -25164,7 +25392,7 @@
         <v>3700.505635</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>45727</v>
       </c>
@@ -25211,7 +25439,7 @@
         <v>3714.0945769999998</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>45728</v>
       </c>
@@ -25258,7 +25486,7 @@
         <v>3696.4795600000002</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>45729</v>
       </c>
@@ -25305,7 +25533,7 @@
         <v>3712.4721509999999</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>45730</v>
       </c>
@@ -25352,7 +25580,7 @@
         <v>3712.1476429999998</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>45733</v>
       </c>
@@ -25399,7 +25627,7 @@
         <v>3710.1250239999999</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>45734</v>
       </c>
@@ -25446,7 +25674,7 @@
         <v>3728.8227529999999</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>45735</v>
       </c>
@@ -25493,7 +25721,7 @@
         <v>3757.2325700000001</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>45736</v>
       </c>
@@ -25540,7 +25768,7 @@
         <v>3738.3041520000002</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>45737</v>
       </c>
@@ -25587,7 +25815,7 @@
         <v>3747.3525760000002</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>45740</v>
       </c>
@@ -25634,7 +25862,7 @@
         <v>3727.9412430000002</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>45741</v>
       </c>
@@ -25681,7 +25909,7 @@
         <v>3737.7823760000001</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>45742</v>
       </c>
@@ -25728,7 +25956,7 @@
         <v>3736.9474759999998</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>45743</v>
       </c>
@@ -25775,7 +26003,7 @@
         <v>3739.2244919999998</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>45744</v>
       </c>
@@ -25822,7 +26050,7 @@
         <v>3740.8899769999998</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>45747</v>
       </c>
@@ -25869,7 +26097,7 @@
         <v>3763.90182</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>45748</v>
       </c>
@@ -25916,7 +26144,7 @@
         <v>3755.460243</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>45749</v>
       </c>
@@ -25963,7 +26191,7 @@
         <v>3755.6399769999998</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>45750</v>
       </c>
@@ -26010,7 +26238,7 @@
         <v>3816.2350820000001</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>45751</v>
       </c>
@@ -26057,7 +26285,7 @@
         <v>3822.7676569999999</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>45754</v>
       </c>
@@ -26104,7 +26332,7 @@
         <v>3801.295138</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>45755</v>
       </c>
@@ -26151,7 +26379,7 @@
         <v>3783.6469229999998</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>45756</v>
       </c>
@@ -26198,7 +26426,7 @@
         <v>3785.2807330000001</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>45757</v>
       </c>
@@ -26245,7 +26473,7 @@
         <v>3767.847248</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>45758</v>
       </c>
@@ -26292,7 +26520,7 @@
         <v>3816.08878</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>45761</v>
       </c>
@@ -26339,7 +26567,7 @@
         <v>3827.3187459999999</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>45762</v>
       </c>
@@ -26386,7 +26614,7 @@
         <v>3803.4094180000002</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>45763</v>
       </c>
@@ -26433,7 +26661,7 @@
         <v>3784.2914209999999</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>45764</v>
       </c>
@@ -26480,17 +26708,17 @@
         <v>3784.5856910000002</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>45765</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>45768</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>45769</v>
       </c>
@@ -26537,7 +26765,7 @@
         <v>3745.127649</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>45770</v>
       </c>
@@ -26584,7 +26812,7 @@
         <v>3764.1192179999998</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>45771</v>
       </c>
@@ -26631,7 +26859,7 @@
         <v>3808.459257</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>45772</v>
       </c>
@@ -26678,7 +26906,7 @@
         <v>3812.9638829999999</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>45775</v>
       </c>
@@ -26725,7 +26953,7 @@
         <v>3821.2237490000002</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>45776</v>
       </c>
@@ -26772,7 +27000,7 @@
         <v>3826.049587</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>45777</v>
       </c>
@@ -26819,12 +27047,12 @@
         <v>3837.046261</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>45778</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>45779</v>
       </c>
@@ -26871,7 +27099,7 @@
         <v>3837.7218710000002</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>45782</v>
       </c>
@@ -26918,7 +27146,7 @@
         <v>3825.4785870000001</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>45783</v>
       </c>
@@ -26965,7 +27193,7 @@
         <v>3863.076943</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>45784</v>
       </c>
@@ -27012,7 +27240,7 @@
         <v>3889.508589</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>45785</v>
       </c>
@@ -27059,7 +27287,7 @@
         <v>3933.700096</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>45786</v>
       </c>
@@ -27106,7 +27334,7 @@
         <v>3959.4094239999999</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>45789</v>
       </c>
@@ -27153,7 +27381,7 @@
         <v>3953.5349019999999</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>45790</v>
       </c>
@@ -27200,7 +27428,7 @@
         <v>3959.477652</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>45791</v>
       </c>
@@ -27247,7 +27475,7 @@
         <v>3933.3021779999999</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>45792</v>
       </c>
@@ -27291,7 +27519,7 @@
         <v>3943.6816990000002</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>45793</v>
       </c>
@@ -27335,7 +27563,7 @@
         <v>3958.483545</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>45796</v>
       </c>
@@ -27379,7 +27607,7 @@
         <v>3980.9496340000001</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>45797</v>
       </c>
@@ -27423,7 +27651,7 @@
         <v>3962.477578</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>45798</v>
       </c>
@@ -27467,7 +27695,7 @@
         <v>3955.6026270000002</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>45799</v>
       </c>
@@ -27511,7 +27739,7 @@
         <v>3980.2803090000002</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>45800</v>
       </c>
@@ -27555,7 +27783,7 @@
         <v>3981.2688360000002</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>45803</v>
       </c>
@@ -27599,7 +27827,7 @@
         <v>3989.7023119999999</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>45804</v>
       </c>
@@ -27643,7 +27871,7 @@
         <v>4010.0836610000001</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>45805</v>
       </c>
@@ -27687,7 +27915,7 @@
         <v>3993.9386930000001</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>45806</v>
       </c>
@@ -27731,7 +27959,7 @@
         <v>3993.9140050000001</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>45807</v>
       </c>
@@ -27775,7 +28003,7 @@
         <v>3975.9764220000002</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>45810</v>
       </c>
@@ -27819,7 +28047,7 @@
         <v>3960.5977339999999</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>45811</v>
       </c>
@@ -27863,7 +28091,7 @@
         <v>3960.6488869999998</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>45812</v>
       </c>
@@ -27907,7 +28135,7 @@
         <v>3973.3458900000001</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>45813</v>
       </c>
@@ -27951,7 +28179,7 @@
         <v>3964.7440750000001</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>45814</v>
       </c>
@@ -27995,7 +28223,7 @@
         <v>3963.9010859999999</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>45817</v>
       </c>
@@ -28039,7 +28267,7 @@
         <v>3952.4257269999998</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>45818</v>
       </c>
@@ -28083,7 +28311,7 @@
         <v>3934.1806080000001</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>45819</v>
       </c>
@@ -28127,7 +28355,7 @@
         <v>3949.6858689999999</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>45820</v>
       </c>
@@ -28171,7 +28399,7 @@
         <v>3949.9533350000002</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>45821</v>
       </c>
@@ -28215,7 +28443,7 @@
         <v>3962.9114279999999</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>45824</v>
       </c>
@@ -28259,7 +28487,7 @@
         <v>3979.0760540000001</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>45825</v>
       </c>
@@ -28303,7 +28531,7 @@
         <v>3994.830637</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>45826</v>
       </c>
@@ -28347,12 +28575,12 @@
         <v>4018.5481719999998</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>45828</v>
       </c>
@@ -28396,7 +28624,7 @@
         <v>4053.752943</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>45831</v>
       </c>
@@ -28440,7 +28668,7 @@
         <v>4041.8382510000001</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>45832</v>
       </c>
@@ -28484,7 +28712,7 @@
         <v>4008.6838050000001</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>45833</v>
       </c>
@@ -28528,7 +28756,7 @@
         <v>3997.397618</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>45834</v>
       </c>
@@ -28572,7 +28800,7 @@
         <v>4018.4848969999998</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>45835</v>
       </c>
@@ -28616,7 +28844,7 @@
         <v>4039.9504400000001</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>45838</v>
       </c>
@@ -28659,6 +28887,229 @@
       <c r="O308">
         <v>4080.617976</v>
       </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>45839</v>
+      </c>
+      <c r="C309">
+        <v>4445.7040479999996</v>
+      </c>
+      <c r="D309">
+        <v>4358.8462419999996</v>
+      </c>
+      <c r="E309">
+        <v>4398.4421849999999</v>
+      </c>
+      <c r="F309">
+        <v>4334.3605269999998</v>
+      </c>
+      <c r="G309">
+        <v>4355.5175600000002</v>
+      </c>
+      <c r="H309">
+        <v>4297.8264289999997</v>
+      </c>
+      <c r="I309">
+        <v>4229.7964830000001</v>
+      </c>
+      <c r="J309">
+        <v>4206.5545009999996</v>
+      </c>
+      <c r="K309">
+        <v>4213.3611140000003</v>
+      </c>
+      <c r="L309">
+        <v>4091.7104370000002</v>
+      </c>
+      <c r="M309">
+        <v>4149.492021</v>
+      </c>
+      <c r="N309">
+        <v>4061.94677</v>
+      </c>
+      <c r="O309">
+        <v>4090.9008800000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>45840</v>
+      </c>
+      <c r="C310">
+        <v>4448.2156789999999</v>
+      </c>
+      <c r="D310">
+        <v>4363.7604389999997</v>
+      </c>
+      <c r="E310">
+        <v>4400.9583769999999</v>
+      </c>
+      <c r="F310">
+        <v>4337.544578</v>
+      </c>
+      <c r="G310">
+        <v>4359.468022</v>
+      </c>
+      <c r="H310">
+        <v>4300.9979659999999</v>
+      </c>
+      <c r="I310">
+        <v>4231.3513409999996</v>
+      </c>
+      <c r="J310">
+        <v>4204.7103079999997</v>
+      </c>
+      <c r="K310">
+        <v>4206.6281010000002</v>
+      </c>
+      <c r="L310">
+        <v>4080.2437660000001</v>
+      </c>
+      <c r="M310">
+        <v>4134.9686979999997</v>
+      </c>
+      <c r="N310">
+        <v>4046.9628290000001</v>
+      </c>
+      <c r="O310">
+        <v>4071.9529320000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>45841</v>
+      </c>
+      <c r="C311">
+        <v>4451.8676750000004</v>
+      </c>
+      <c r="D311">
+        <v>4369.1731170000003</v>
+      </c>
+      <c r="E311">
+        <v>4405.4336919999996</v>
+      </c>
+      <c r="F311">
+        <v>4341.8736449999997</v>
+      </c>
+      <c r="G311">
+        <v>4362.8039939999999</v>
+      </c>
+      <c r="H311">
+        <v>4301.9625850000002</v>
+      </c>
+      <c r="I311">
+        <v>4230.9884810000003</v>
+      </c>
+      <c r="J311">
+        <v>4205.5391300000001</v>
+      </c>
+      <c r="K311">
+        <v>4206.0864760000004</v>
+      </c>
+      <c r="L311">
+        <v>4083.9332119999999</v>
+      </c>
+      <c r="M311">
+        <v>4138.13861</v>
+      </c>
+      <c r="N311">
+        <v>4048.0752309999998</v>
+      </c>
+      <c r="O311">
+        <v>4073.6919520000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>45842</v>
+      </c>
+      <c r="C312">
+        <v>4453.335255</v>
+      </c>
+      <c r="D312">
+        <v>4369.750677</v>
+      </c>
+      <c r="E312">
+        <v>4403.9427230000001</v>
+      </c>
+      <c r="F312">
+        <v>4339.5351870000004</v>
+      </c>
+      <c r="G312">
+        <v>4359.6803550000004</v>
+      </c>
+      <c r="H312">
+        <v>4300.054639</v>
+      </c>
+      <c r="I312">
+        <v>4228.4811600000003</v>
+      </c>
+      <c r="J312">
+        <v>4201.8169740000003</v>
+      </c>
+      <c r="K312">
+        <v>4200.1385870000004</v>
+      </c>
+      <c r="L312">
+        <v>4081.1133530000002</v>
+      </c>
+      <c r="M312">
+        <v>4137.4908699999996</v>
+      </c>
+      <c r="N312">
+        <v>4048.3327810000001</v>
+      </c>
+      <c r="O312">
+        <v>4074.8069609999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>45845</v>
+      </c>
+      <c r="C313">
+        <v>4454.4954150000003</v>
+      </c>
+      <c r="D313">
+        <v>4368.1475540000001</v>
+      </c>
+      <c r="E313">
+        <v>4398.5106919999998</v>
+      </c>
+      <c r="F313">
+        <v>4332.5587530000003</v>
+      </c>
+      <c r="G313">
+        <v>4348.4800590000004</v>
+      </c>
+      <c r="H313">
+        <v>4284.9441399999996</v>
+      </c>
+      <c r="I313">
+        <v>4213.400063</v>
+      </c>
+      <c r="J313">
+        <v>4188.4345139999996</v>
+      </c>
+      <c r="K313">
+        <v>4182.593535</v>
+      </c>
+      <c r="L313">
+        <v>4066.8009870000001</v>
+      </c>
+      <c r="M313">
+        <v>4125.1112419999999</v>
+      </c>
+      <c r="N313">
+        <v>4035.116728</v>
+      </c>
+      <c r="O313">
+        <v>4061.0640680000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A314" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -28667,19 +29118,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z308"/>
+  <dimension ref="A1:Z314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="17" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28729,7 +29180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -28780,7 +29231,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <f>_xll.ECONOMATICA(B1,"YTM",,"D-0","2024-4-29","D",,,,"FALSE",,)</f>
         <v>45411</v>
@@ -28845,7 +29296,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45412</v>
       </c>
@@ -28883,13 +29334,13 @@
         <v>0.18260000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45413</v>
       </c>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45414</v>
       </c>
@@ -28928,7 +29379,7 @@
       </c>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45415</v>
       </c>
@@ -28967,7 +29418,7 @@
       </c>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45418</v>
       </c>
@@ -29006,7 +29457,7 @@
       </c>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45419</v>
       </c>
@@ -29045,7 +29496,7 @@
       </c>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45420</v>
       </c>
@@ -29084,7 +29535,7 @@
       </c>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45421</v>
       </c>
@@ -29123,7 +29574,7 @@
       </c>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45422</v>
       </c>
@@ -29162,7 +29613,7 @@
       </c>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45425</v>
       </c>
@@ -29201,7 +29652,7 @@
       </c>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45426</v>
       </c>
@@ -29240,7 +29691,7 @@
       </c>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45427</v>
       </c>
@@ -29279,7 +29730,7 @@
       </c>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45428</v>
       </c>
@@ -29318,7 +29769,7 @@
       </c>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45429</v>
       </c>
@@ -29357,7 +29808,7 @@
       </c>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45432</v>
       </c>
@@ -29396,7 +29847,7 @@
       </c>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45433</v>
       </c>
@@ -29435,7 +29886,7 @@
       </c>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45434</v>
       </c>
@@ -29474,7 +29925,7 @@
       </c>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45435</v>
       </c>
@@ -29512,7 +29963,7 @@
         <v>0.18640000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45436</v>
       </c>
@@ -29550,7 +30001,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45439</v>
       </c>
@@ -29588,7 +30039,7 @@
         <v>0.1885</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45440</v>
       </c>
@@ -29626,7 +30077,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45441</v>
       </c>
@@ -29664,12 +30115,12 @@
         <v>0.18720000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45442</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45443</v>
       </c>
@@ -29707,7 +30158,7 @@
         <v>0.18770000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45446</v>
       </c>
@@ -29745,7 +30196,7 @@
         <v>0.1883</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45447</v>
       </c>
@@ -29783,7 +30234,7 @@
         <v>0.18790000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45448</v>
       </c>
@@ -29821,7 +30272,7 @@
         <v>0.18720000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45449</v>
       </c>
@@ -29859,7 +30310,7 @@
         <v>0.18679999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45450</v>
       </c>
@@ -29897,7 +30348,7 @@
         <v>0.18690000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45453</v>
       </c>
@@ -29935,7 +30386,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45454</v>
       </c>
@@ -29973,7 +30424,7 @@
         <v>0.18679999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45455</v>
       </c>
@@ -30011,7 +30462,7 @@
         <v>0.18690000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45456</v>
       </c>
@@ -30049,7 +30500,7 @@
         <v>0.18659999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45457</v>
       </c>
@@ -30087,7 +30538,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45460</v>
       </c>
@@ -30125,7 +30576,7 @@
         <v>0.1865</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45461</v>
       </c>
@@ -30163,7 +30614,7 @@
         <v>0.1865</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45462</v>
       </c>
@@ -30201,7 +30652,7 @@
         <v>0.1865</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45463</v>
       </c>
@@ -30239,7 +30690,7 @@
         <v>0.18640000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45464</v>
       </c>
@@ -30277,7 +30728,7 @@
         <v>0.18640000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45467</v>
       </c>
@@ -30315,7 +30766,7 @@
         <v>0.1865</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45468</v>
       </c>
@@ -30353,7 +30804,7 @@
         <v>0.1845</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45469</v>
       </c>
@@ -30391,7 +30842,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45470</v>
       </c>
@@ -30429,7 +30880,7 @@
         <v>0.18160000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45471</v>
       </c>
@@ -30467,7 +30918,7 @@
         <v>0.18140000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45474</v>
       </c>
@@ -30505,7 +30956,7 @@
         <v>0.18049999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45475</v>
       </c>
@@ -30543,7 +30994,7 @@
         <v>0.18140000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45476</v>
       </c>
@@ -30584,7 +31035,7 @@
         <v>0.1837</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45477</v>
       </c>
@@ -30625,7 +31076,7 @@
         <v>0.18329999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45478</v>
       </c>
@@ -30666,7 +31117,7 @@
         <v>0.18260000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45481</v>
       </c>
@@ -30707,7 +31158,7 @@
         <v>0.1822</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45482</v>
       </c>
@@ -30748,7 +31199,7 @@
         <v>0.18129999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45483</v>
       </c>
@@ -30789,7 +31240,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45484</v>
       </c>
@@ -30830,7 +31281,7 @@
         <v>0.17760000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45485</v>
       </c>
@@ -30871,7 +31322,7 @@
         <v>0.1759</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45488</v>
       </c>
@@ -30912,7 +31363,7 @@
         <v>0.17560000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45489</v>
       </c>
@@ -30953,7 +31404,7 @@
         <v>0.17480000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45490</v>
       </c>
@@ -30994,7 +31445,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45491</v>
       </c>
@@ -31035,7 +31486,7 @@
         <v>0.17280000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45492</v>
       </c>
@@ -31076,7 +31527,7 @@
         <v>0.17230000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45495</v>
       </c>
@@ -31117,7 +31568,7 @@
         <v>0.17230000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45496</v>
       </c>
@@ -31158,7 +31609,7 @@
         <v>0.17219999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45497</v>
       </c>
@@ -31199,7 +31650,7 @@
         <v>0.17169999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45498</v>
       </c>
@@ -31240,7 +31691,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45499</v>
       </c>
@@ -31281,7 +31732,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45502</v>
       </c>
@@ -31322,7 +31773,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>45503</v>
       </c>
@@ -31363,7 +31814,7 @@
         <v>0.1711</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>45504</v>
       </c>
@@ -31404,7 +31855,7 @@
         <v>0.1709</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>45505</v>
       </c>
@@ -31445,7 +31896,7 @@
         <v>0.1704</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>45506</v>
       </c>
@@ -31486,7 +31937,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>45509</v>
       </c>
@@ -31527,7 +31978,7 @@
         <v>0.1696</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>45510</v>
       </c>
@@ -31568,7 +32019,7 @@
         <v>0.16819999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>45511</v>
       </c>
@@ -31609,7 +32060,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>45512</v>
       </c>
@@ -31650,7 +32101,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>45513</v>
       </c>
@@ -31691,7 +32142,7 @@
         <v>0.16819999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45516</v>
       </c>
@@ -31732,7 +32183,7 @@
         <v>0.1701</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>45517</v>
       </c>
@@ -31773,7 +32224,7 @@
         <v>0.1694</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45518</v>
       </c>
@@ -31814,7 +32265,7 @@
         <v>0.16919999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45519</v>
       </c>
@@ -31855,7 +32306,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45520</v>
       </c>
@@ -31896,7 +32347,7 @@
         <v>0.1694</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45523</v>
       </c>
@@ -31937,7 +32388,7 @@
         <v>0.17050000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45524</v>
       </c>
@@ -31978,7 +32429,7 @@
         <v>0.1701</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>45525</v>
       </c>
@@ -32019,7 +32470,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>45526</v>
       </c>
@@ -32060,7 +32511,7 @@
         <v>0.16839999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45527</v>
       </c>
@@ -32101,7 +32552,7 @@
         <v>0.16869999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45530</v>
       </c>
@@ -32142,7 +32593,7 @@
         <v>0.16950000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>45531</v>
       </c>
@@ -32183,7 +32634,7 @@
         <v>0.1691</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45532</v>
       </c>
@@ -32224,7 +32675,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45533</v>
       </c>
@@ -32265,7 +32716,7 @@
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>45534</v>
       </c>
@@ -32306,7 +32757,7 @@
         <v>0.16869999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45537</v>
       </c>
@@ -32347,7 +32798,7 @@
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>45538</v>
       </c>
@@ -32388,7 +32839,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>45539</v>
       </c>
@@ -32429,7 +32880,7 @@
         <v>0.16750000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>45540</v>
       </c>
@@ -32470,7 +32921,7 @@
         <v>0.16689999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>45541</v>
       </c>
@@ -32511,7 +32962,7 @@
         <v>0.16669999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45544</v>
       </c>
@@ -32552,7 +33003,7 @@
         <v>0.16669999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>45545</v>
       </c>
@@ -32593,7 +33044,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>45546</v>
       </c>
@@ -32634,7 +33085,7 @@
         <v>0.16569999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>45547</v>
       </c>
@@ -32675,7 +33126,7 @@
         <v>0.1656</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>45548</v>
       </c>
@@ -32716,7 +33167,7 @@
         <v>0.1651</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>45551</v>
       </c>
@@ -32757,7 +33208,7 @@
         <v>0.1651</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>45552</v>
       </c>
@@ -32798,7 +33249,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>45553</v>
       </c>
@@ -32839,7 +33290,7 @@
         <v>0.16320000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>45554</v>
       </c>
@@ -32880,7 +33331,7 @@
         <v>0.16159999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45555</v>
       </c>
@@ -32921,7 +33372,7 @@
         <v>0.16039999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>45558</v>
       </c>
@@ -32962,7 +33413,7 @@
         <v>0.15959999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>45559</v>
       </c>
@@ -33003,7 +33454,7 @@
         <v>0.15640000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>45560</v>
       </c>
@@ -33044,7 +33495,7 @@
         <v>0.15479999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>45561</v>
       </c>
@@ -33085,7 +33536,7 @@
         <v>0.15459999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>45562</v>
       </c>
@@ -33126,7 +33577,7 @@
         <v>0.1537</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>45565</v>
       </c>
@@ -33167,7 +33618,7 @@
         <v>0.15260000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>45566</v>
       </c>
@@ -33208,7 +33659,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>45567</v>
       </c>
@@ -33252,7 +33703,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>45568</v>
       </c>
@@ -33296,7 +33747,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>45569</v>
       </c>
@@ -33340,7 +33791,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>45572</v>
       </c>
@@ -33384,7 +33835,7 @@
         <v>0.1222</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>45573</v>
       </c>
@@ -33428,7 +33879,7 @@
         <v>0.1108</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>45574</v>
       </c>
@@ -33472,7 +33923,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>45575</v>
       </c>
@@ -33516,7 +33967,7 @@
         <v>0.1182</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>45576</v>
       </c>
@@ -33560,7 +34011,7 @@
         <v>0.12529999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>45579</v>
       </c>
@@ -33604,7 +34055,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>45580</v>
       </c>
@@ -33648,7 +34099,7 @@
         <v>0.13170000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>45581</v>
       </c>
@@ -33692,7 +34143,7 @@
         <v>0.13669999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>45582</v>
       </c>
@@ -33736,7 +34187,7 @@
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>45583</v>
       </c>
@@ -33780,7 +34231,7 @@
         <v>0.14710000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>45586</v>
       </c>
@@ -33824,7 +34275,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>45587</v>
       </c>
@@ -33868,7 +34319,7 @@
         <v>0.1462</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>45588</v>
       </c>
@@ -33912,7 +34363,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>45589</v>
       </c>
@@ -33956,7 +34407,7 @@
         <v>0.1406</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>45590</v>
       </c>
@@ -34000,7 +34451,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>45593</v>
       </c>
@@ -34044,7 +34495,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>45594</v>
       </c>
@@ -34088,7 +34539,7 @@
         <v>0.13370000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>45595</v>
       </c>
@@ -34132,7 +34583,7 @@
         <v>0.13239999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>45596</v>
       </c>
@@ -34176,7 +34627,7 @@
         <v>0.13159999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>45597</v>
       </c>
@@ -34220,7 +34671,7 @@
         <v>0.1305</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>45600</v>
       </c>
@@ -34264,7 +34715,7 @@
         <v>0.13009999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>45601</v>
       </c>
@@ -34308,7 +34759,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>45602</v>
       </c>
@@ -34352,7 +34803,7 @@
         <v>0.12859999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>45603</v>
       </c>
@@ -34396,7 +34847,7 @@
         <v>0.12820000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>45604</v>
       </c>
@@ -34440,7 +34891,7 @@
         <v>0.12790000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>45607</v>
       </c>
@@ -34484,7 +34935,7 @@
         <v>0.12770000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>45608</v>
       </c>
@@ -34528,7 +34979,7 @@
         <v>0.1265</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>45609</v>
       </c>
@@ -34572,7 +35023,7 @@
         <v>0.12609999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>45610</v>
       </c>
@@ -34616,12 +35067,12 @@
         <v>0.12609999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>45611</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>45614</v>
       </c>
@@ -34665,7 +35116,7 @@
         <v>0.12590000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>45615</v>
       </c>
@@ -34709,12 +35160,12 @@
         <v>0.1255</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>45616</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>45617</v>
       </c>
@@ -34758,7 +35209,7 @@
         <v>0.12570000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>45618</v>
       </c>
@@ -34802,7 +35253,7 @@
         <v>0.1258</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>45621</v>
       </c>
@@ -34846,7 +35297,7 @@
         <v>0.12559999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>45622</v>
       </c>
@@ -34890,7 +35341,7 @@
         <v>0.12520000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>45623</v>
       </c>
@@ -34934,7 +35385,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>45624</v>
       </c>
@@ -34978,7 +35429,7 @@
         <v>0.1244</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>45625</v>
       </c>
@@ -35022,7 +35473,7 @@
         <v>0.1237</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>45628</v>
       </c>
@@ -35066,7 +35517,7 @@
         <v>0.12330000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>45629</v>
       </c>
@@ -35110,7 +35561,7 @@
         <v>0.12280000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>45630</v>
       </c>
@@ -35154,7 +35605,7 @@
         <v>0.12230000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>45631</v>
       </c>
@@ -35198,7 +35649,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>45632</v>
       </c>
@@ -35242,7 +35693,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>45635</v>
       </c>
@@ -35286,7 +35737,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>45636</v>
       </c>
@@ -35330,7 +35781,7 @@
         <v>0.1198</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>45637</v>
       </c>
@@ -35374,7 +35825,7 @@
         <v>0.1197</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>45638</v>
       </c>
@@ -35418,7 +35869,7 @@
         <v>0.1197</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>45639</v>
       </c>
@@ -35462,7 +35913,7 @@
         <v>0.1197</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>45642</v>
       </c>
@@ -35506,7 +35957,7 @@
         <v>0.1196</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>45643</v>
       </c>
@@ -35550,7 +36001,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>45644</v>
       </c>
@@ -35594,7 +36045,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>45645</v>
       </c>
@@ -35638,7 +36089,7 @@
         <v>0.1305</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>45646</v>
       </c>
@@ -35682,7 +36133,7 @@
         <v>0.13220000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>45649</v>
       </c>
@@ -35726,7 +36177,7 @@
         <v>0.1321</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>45650</v>
       </c>
@@ -35770,12 +36221,12 @@
         <v>0.1321</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>45651</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>45652</v>
       </c>
@@ -35819,7 +36270,7 @@
         <v>0.1333</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>45653</v>
       </c>
@@ -35863,7 +36314,7 @@
         <v>0.1346</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>45656</v>
       </c>
@@ -35907,7 +36358,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>45657</v>
       </c>
@@ -35951,12 +36402,12 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>45658</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>45659</v>
       </c>
@@ -36000,7 +36451,7 @@
         <v>0.1356</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>45660</v>
       </c>
@@ -36044,7 +36495,7 @@
         <v>0.1331</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>45663</v>
       </c>
@@ -36088,7 +36539,7 @@
         <v>0.12130000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>45664</v>
       </c>
@@ -36132,7 +36583,7 @@
         <v>0.1123</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>45665</v>
       </c>
@@ -36179,7 +36630,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>45666</v>
       </c>
@@ -36226,7 +36677,7 @@
         <v>0.1153</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>45667</v>
       </c>
@@ -36273,7 +36724,7 @@
         <v>0.1148</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>45670</v>
       </c>
@@ -36320,7 +36771,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>45671</v>
       </c>
@@ -36367,7 +36818,7 @@
         <v>0.1134</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>45672</v>
       </c>
@@ -36414,7 +36865,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>45673</v>
       </c>
@@ -36461,7 +36912,7 @@
         <v>0.11219999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>45674</v>
       </c>
@@ -36508,7 +36959,7 @@
         <v>0.11219999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>45677</v>
       </c>
@@ -36555,7 +37006,7 @@
         <v>0.11219999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>45678</v>
       </c>
@@ -36602,7 +37053,7 @@
         <v>0.11219999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>45679</v>
       </c>
@@ -36649,7 +37100,7 @@
         <v>0.11210000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>45680</v>
       </c>
@@ -36696,7 +37147,7 @@
         <v>0.1119</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>45681</v>
       </c>
@@ -36743,7 +37194,7 @@
         <v>0.1115</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>45684</v>
       </c>
@@ -36790,7 +37241,7 @@
         <v>0.11210000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>45685</v>
       </c>
@@ -36837,7 +37288,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>45686</v>
       </c>
@@ -36884,7 +37335,7 @@
         <v>0.1138</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>45687</v>
       </c>
@@ -36931,7 +37382,7 @@
         <v>0.1143</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>45688</v>
       </c>
@@ -36978,7 +37429,7 @@
         <v>0.11459999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>45691</v>
       </c>
@@ -37025,7 +37476,7 @@
         <v>0.1149</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>45692</v>
       </c>
@@ -37072,7 +37523,7 @@
         <v>0.11609999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>45693</v>
       </c>
@@ -37119,7 +37570,7 @@
         <v>0.1187</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>45694</v>
       </c>
@@ -37166,7 +37617,7 @@
         <v>0.1235</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>45695</v>
       </c>
@@ -37213,7 +37664,7 @@
         <v>0.1244</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>45698</v>
       </c>
@@ -37260,7 +37711,7 @@
         <v>0.12590000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>45699</v>
       </c>
@@ -37307,7 +37758,7 @@
         <v>0.1241</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>45700</v>
       </c>
@@ -37354,7 +37805,7 @@
         <v>0.12280000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>45701</v>
       </c>
@@ -37401,7 +37852,7 @@
         <v>0.12180000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>45702</v>
       </c>
@@ -37448,7 +37899,7 @@
         <v>0.1212</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>45705</v>
       </c>
@@ -37495,7 +37946,7 @@
         <v>0.1201</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>45706</v>
       </c>
@@ -37542,7 +37993,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>45707</v>
       </c>
@@ -37589,7 +38040,7 @@
         <v>0.1191</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>45708</v>
       </c>
@@ -37636,7 +38087,7 @@
         <v>0.1193</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>45709</v>
       </c>
@@ -37683,7 +38134,7 @@
         <v>0.11940000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>45712</v>
       </c>
@@ -37730,7 +38181,7 @@
         <v>0.1195</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>45713</v>
       </c>
@@ -37777,7 +38228,7 @@
         <v>0.11849999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>45714</v>
       </c>
@@ -37824,7 +38275,7 @@
         <v>0.11849999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>45715</v>
       </c>
@@ -37871,7 +38322,7 @@
         <v>0.1181</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>45716</v>
       </c>
@@ -37918,17 +38369,17 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>45719</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>45720</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>45721</v>
       </c>
@@ -37975,7 +38426,7 @@
         <v>0.11749999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>45722</v>
       </c>
@@ -38022,7 +38473,7 @@
         <v>0.11650000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>45723</v>
       </c>
@@ -38069,7 +38520,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>45726</v>
       </c>
@@ -38116,7 +38567,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>45727</v>
       </c>
@@ -38163,7 +38614,7 @@
         <v>0.1145</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>45728</v>
       </c>
@@ -38210,7 +38661,7 @@
         <v>0.1143</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>45729</v>
       </c>
@@ -38257,7 +38708,7 @@
         <v>0.1147</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>45730</v>
       </c>
@@ -38304,7 +38755,7 @@
         <v>0.11459999999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>45733</v>
       </c>
@@ -38351,7 +38802,7 @@
         <v>0.11409999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>45734</v>
       </c>
@@ -38398,7 +38849,7 @@
         <v>0.11210000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>45735</v>
       </c>
@@ -38445,7 +38896,7 @@
         <v>0.1118</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>45736</v>
       </c>
@@ -38492,7 +38943,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>45737</v>
       </c>
@@ -38539,7 +38990,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>45740</v>
       </c>
@@ -38586,7 +39037,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>45741</v>
       </c>
@@ -38633,7 +39084,7 @@
         <v>0.1096</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>45742</v>
       </c>
@@ -38680,7 +39131,7 @@
         <v>0.10929999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>45743</v>
       </c>
@@ -38727,7 +39178,7 @@
         <v>0.1091</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>45744</v>
       </c>
@@ -38774,7 +39225,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>45747</v>
       </c>
@@ -38821,7 +39272,7 @@
         <v>0.1087</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>45748</v>
       </c>
@@ -38868,7 +39319,7 @@
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>45749</v>
       </c>
@@ -38918,7 +39369,7 @@
         <v>0.1186</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>45750</v>
       </c>
@@ -38968,7 +39419,7 @@
         <v>0.11840000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>45751</v>
       </c>
@@ -39018,7 +39469,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>45754</v>
       </c>
@@ -39068,7 +39519,7 @@
         <v>0.1174</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>45755</v>
       </c>
@@ -39118,7 +39569,7 @@
         <v>0.11550000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>45756</v>
       </c>
@@ -39168,7 +39619,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>45757</v>
       </c>
@@ -39218,7 +39669,7 @@
         <v>0.1147</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>45758</v>
       </c>
@@ -39268,7 +39719,7 @@
         <v>0.1142</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>45761</v>
       </c>
@@ -39318,7 +39769,7 @@
         <v>0.1139</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>45762</v>
       </c>
@@ -39368,7 +39819,7 @@
         <v>0.1119</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>45763</v>
       </c>
@@ -39418,7 +39869,7 @@
         <v>0.1115</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>45764</v>
       </c>
@@ -39468,17 +39919,17 @@
         <v>0.11169999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>45765</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>45768</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>45769</v>
       </c>
@@ -39528,7 +39979,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>45770</v>
       </c>
@@ -39578,7 +40029,7 @@
         <v>0.11169999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>45771</v>
       </c>
@@ -39628,7 +40079,7 @@
         <v>0.1115</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>45772</v>
       </c>
@@ -39678,7 +40129,7 @@
         <v>0.1118</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>45775</v>
       </c>
@@ -39728,7 +40179,7 @@
         <v>0.1124</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>45776</v>
       </c>
@@ -39778,7 +40229,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>45777</v>
       </c>
@@ -39828,12 +40279,12 @@
         <v>0.1137</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>45778</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>45779</v>
       </c>
@@ -39883,7 +40334,7 @@
         <v>0.1142</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>45782</v>
       </c>
@@ -39933,7 +40384,7 @@
         <v>0.11409999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>45783</v>
       </c>
@@ -39983,7 +40434,7 @@
         <v>0.1137</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>45784</v>
       </c>
@@ -40033,7 +40484,7 @@
         <v>0.11360000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>45785</v>
       </c>
@@ -40083,7 +40534,7 @@
         <v>0.1132</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>45786</v>
       </c>
@@ -40133,7 +40584,7 @@
         <v>0.11260000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>45789</v>
       </c>
@@ -40183,7 +40634,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>45790</v>
       </c>
@@ -40233,7 +40684,7 @@
         <v>0.11119999999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>45791</v>
       </c>
@@ -40283,7 +40734,7 @@
         <v>0.1105</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>45792</v>
       </c>
@@ -40333,7 +40784,7 @@
         <v>0.1094</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>45793</v>
       </c>
@@ -40383,7 +40834,7 @@
         <v>0.1086</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>45796</v>
       </c>
@@ -40433,7 +40884,7 @@
         <v>0.1084</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>45797</v>
       </c>
@@ -40483,7 +40934,7 @@
         <v>0.1085</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>45798</v>
       </c>
@@ -40533,7 +40984,7 @@
         <v>0.1086</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>45799</v>
       </c>
@@ -40583,7 +41034,7 @@
         <v>0.1087</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>45800</v>
       </c>
@@ -40633,7 +41084,7 @@
         <v>0.1089</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>45803</v>
       </c>
@@ -40683,7 +41134,7 @@
         <v>0.10920000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>45804</v>
       </c>
@@ -40733,7 +41184,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>45805</v>
       </c>
@@ -40783,7 +41234,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>45806</v>
       </c>
@@ -40833,7 +41284,7 @@
         <v>0.10929999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>45807</v>
       </c>
@@ -40883,7 +41334,7 @@
         <v>0.1094</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>45810</v>
       </c>
@@ -40933,7 +41384,7 @@
         <v>0.10920000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>45811</v>
       </c>
@@ -40983,7 +41434,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>45812</v>
       </c>
@@ -41033,7 +41484,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>45813</v>
       </c>
@@ -41083,7 +41534,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>45814</v>
       </c>
@@ -41133,7 +41584,7 @@
         <v>0.1087</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>45817</v>
       </c>
@@ -41183,7 +41634,7 @@
         <v>0.10879999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>45818</v>
       </c>
@@ -41233,7 +41684,7 @@
         <v>0.1079</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>45819</v>
       </c>
@@ -41283,7 +41734,7 @@
         <v>0.10639999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>45820</v>
       </c>
@@ -41333,7 +41784,7 @@
         <v>0.1057</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>45821</v>
       </c>
@@ -41383,7 +41834,7 @@
         <v>0.1051</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>45824</v>
       </c>
@@ -41433,7 +41884,7 @@
         <v>0.1048</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>45825</v>
       </c>
@@ -41483,7 +41934,7 @@
         <v>0.1041</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>45826</v>
       </c>
@@ -41533,12 +41984,12 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>45827</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>45828</v>
       </c>
@@ -41588,7 +42039,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>45831</v>
       </c>
@@ -41638,7 +42089,7 @@
         <v>0.10390000000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>45832</v>
       </c>
@@ -41688,7 +42139,7 @@
         <v>0.1036</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>45833</v>
       </c>
@@ -41738,7 +42189,7 @@
         <v>0.1041</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>45834</v>
       </c>
@@ -41788,7 +42239,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>45835</v>
       </c>
@@ -41838,7 +42289,7 @@
         <v>0.1036</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>45838</v>
       </c>
@@ -41887,6 +42338,259 @@
       <c r="P308">
         <v>0.1026</v>
       </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B309">
+        <v>1.72E-2</v>
+      </c>
+      <c r="C309">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D309">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E309">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="F309">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="G309">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="H309">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="I309">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="J309">
+        <v>0.1113</v>
+      </c>
+      <c r="K309">
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="L309">
+        <v>0.1207</v>
+      </c>
+      <c r="M309">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="N309">
+        <v>0.1076</v>
+      </c>
+      <c r="O309">
+        <v>0.1051</v>
+      </c>
+      <c r="P309">
+        <v>0.10290000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B310">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="C310">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D310">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="E310">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="F310">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G310">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="H310">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I310">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J310">
+        <v>0.1108</v>
+      </c>
+      <c r="K310">
+        <v>0.1193</v>
+      </c>
+      <c r="L310">
+        <v>0.1192</v>
+      </c>
+      <c r="M310">
+        <v>0.1183</v>
+      </c>
+      <c r="N310">
+        <v>0.1072</v>
+      </c>
+      <c r="O310">
+        <v>0.1042</v>
+      </c>
+      <c r="P310">
+        <v>0.1022</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B311">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="C311">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D311">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E311">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="F311">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="G311">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="H311">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="I311">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="J311">
+        <v>0.1101</v>
+      </c>
+      <c r="K311">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="L311">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="M311">
+        <v>0.1179</v>
+      </c>
+      <c r="N311">
+        <v>0.1071</v>
+      </c>
+      <c r="O311">
+        <v>0.1038</v>
+      </c>
+      <c r="P311">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B312">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C312">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D312">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E312">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="F312">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G312">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="H312">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="I312">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="J312">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="K312">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="L312">
+        <v>0.1183</v>
+      </c>
+      <c r="M312">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="N312">
+        <v>0.107</v>
+      </c>
+      <c r="O312">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="P312">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B313">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E313">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="F313">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G313">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="H313">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="I313">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="J313">
+        <v>0.1091</v>
+      </c>
+      <c r="K313">
+        <v>0.1178</v>
+      </c>
+      <c r="L313">
+        <v>0.1178</v>
+      </c>
+      <c r="M313">
+        <v>0.1171</v>
+      </c>
+      <c r="N313">
+        <v>0.107</v>
+      </c>
+      <c r="O313">
+        <v>0.1032</v>
+      </c>
+      <c r="P313">
+        <v>0.1024</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A314" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ED6A92-3F47-4877-832E-158C921E83F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD178B-730E-4B4C-8AD4-8E888516690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID0195f35d774043f3870a82373a1cf7a2" localSheetId="0" hidden="1">Plan1!$M$4:$M$314</definedName>
-    <definedName name="_ECO_RANGE_ID0e5698a8fd394729b6daaa610c6694b6" localSheetId="2" hidden="1">Planilha2!$I$4:$I$314</definedName>
-    <definedName name="_ECO_RANGE_ID1dd23bfbd5104b949e2af629a5e409b2" localSheetId="1" hidden="1">Planilha1!$M$4:$M$314</definedName>
-    <definedName name="_ECO_RANGE_ID2fcf8becb54e4200847708464defa3c8" localSheetId="0" hidden="1">Plan1!$L$4:$L$314</definedName>
-    <definedName name="_ECO_RANGE_ID3760ae367d4f4496bde413abc27c3373" localSheetId="2" hidden="1">Planilha2!$M$4:$M$314</definedName>
-    <definedName name="_ECO_RANGE_ID443b2978553d496bb0bd7717e8da57e9" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID46e0b30be70d4e4595a088ba112d3be9" localSheetId="0" hidden="1">Plan1!$K$4:$K$314</definedName>
-    <definedName name="_ECO_RANGE_ID5094222e3cb74ad397b20abd9ae9d49f" localSheetId="2" hidden="1">Planilha2!$D$4:$D$314</definedName>
-    <definedName name="_ECO_RANGE_ID5105469ed60d4219bd6c79aeb0f86cd6" localSheetId="0" hidden="1">Plan1!$F$4:$F$314</definedName>
-    <definedName name="_ECO_RANGE_ID527f4b2229d94e4cac6388f49c1f50ea" localSheetId="1" hidden="1">Planilha1!$I$4:$I$314</definedName>
-    <definedName name="_ECO_RANGE_ID5b3f2fe022444c3f9bec603cdfc5822e" localSheetId="0" hidden="1">Plan1!$H$4:$H$314</definedName>
-    <definedName name="_ECO_RANGE_ID5cd6735ebc3641a8b7a23f0f81923a1b" localSheetId="2" hidden="1">Planilha2!$H$4:$H$314</definedName>
-    <definedName name="_ECO_RANGE_ID7802a57e745d476b88b3c61ddd67cfc4" localSheetId="2" hidden="1">Planilha2!$L$4:$L$314</definedName>
-    <definedName name="_ECO_RANGE_ID7b3b10bfa97740ef901e966db2a2cf03" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID7e15cdab29b140ecab44591313306c2e" localSheetId="0" hidden="1">Plan1!$E$4:$E$314</definedName>
-    <definedName name="_ECO_RANGE_ID82400976a367453b90c7f311d09cf0c1" localSheetId="0" hidden="1">Plan1!$O$4:$O$314</definedName>
-    <definedName name="_ECO_RANGE_ID8c20b272fced404aa8600945dab1bcef" localSheetId="2" hidden="1">Planilha2!$F$4:$F$314</definedName>
-    <definedName name="_ECO_RANGE_ID9a60d99419c540af80cb134ce5046ef2" localSheetId="1" hidden="1">Planilha1!$G$4:$G$314</definedName>
-    <definedName name="_ECO_RANGE_ID9af549ee59224ef187b45ca9811fb7d9" localSheetId="1" hidden="1">Planilha1!$H$4:$H$314</definedName>
-    <definedName name="_ECO_RANGE_ID9c41f5c528af48e182be277f1e65cbbf" localSheetId="1" hidden="1">Planilha1!$A$4:$B$314</definedName>
-    <definedName name="_ECO_RANGE_ID9e491ade761547599fb3af1877c61a34" localSheetId="1" hidden="1">Planilha1!$C$4:$C$314</definedName>
-    <definedName name="_ECO_RANGE_IDa77ddf1568af4ce8a02125a6dba8439b" localSheetId="2" hidden="1">Planilha2!$N$4:$N$314</definedName>
-    <definedName name="_ECO_RANGE_IDaa134d5f939e471db26d297059fc2208" localSheetId="2" hidden="1">Planilha2!$O$4:$O$314</definedName>
-    <definedName name="_ECO_RANGE_IDb19cdb36540f4f9193dba19882ab2e53" localSheetId="2" hidden="1">Planilha2!$G$4:$G$314</definedName>
-    <definedName name="_ECO_RANGE_IDb41421da937347e393488145c2c98019" localSheetId="0" hidden="1">Plan1!$N$4:$N$314</definedName>
-    <definedName name="_ECO_RANGE_IDb527eb5cfbde4613a3da8b5c829b3c00" localSheetId="1" hidden="1">Planilha1!$D$4:$D$314</definedName>
-    <definedName name="_ECO_RANGE_IDb5585f0d6b7545c2b80ab2e0c9131c75" localSheetId="2" hidden="1">Planilha2!$K$4:$K$314</definedName>
-    <definedName name="_ECO_RANGE_IDb94c1dd0ec84462eb2f95833896cf66b" localSheetId="1" hidden="1">Planilha1!$K$4:$K$314</definedName>
-    <definedName name="_ECO_RANGE_IDbade3d2c2633422caefbe9ab61992840" localSheetId="1" hidden="1">Planilha1!$N$4:$N$314</definedName>
-    <definedName name="_ECO_RANGE_IDc28068c79e3648ba924df5c7fd0e1368" localSheetId="0" hidden="1">Plan1!$J$4:$J$314</definedName>
-    <definedName name="_ECO_RANGE_IDc373e744c03b43b4acd513dd6d4291f8" localSheetId="1" hidden="1">Planilha1!$J$4:$J$314</definedName>
-    <definedName name="_ECO_RANGE_IDc43d0cc19a35409092b0c372582ae8a5" localSheetId="0" hidden="1">Plan1!$I$4:$I$314</definedName>
-    <definedName name="_ECO_RANGE_IDc8b7952808234081b6aac6c1ccf1ccc7" localSheetId="2" hidden="1">Planilha2!$P$4:$P$314</definedName>
-    <definedName name="_ECO_RANGE_IDcb47876620384281aeed6f269792c399" localSheetId="1" hidden="1">Planilha1!$E$4:$E$314</definedName>
-    <definedName name="_ECO_RANGE_IDd3ace5da42c54afda7bd96df300c8e67" localSheetId="2" hidden="1">Planilha2!$A$4:$B$314</definedName>
-    <definedName name="_ECO_RANGE_IDda74c54db95f47d4a2f5f0b444768b31" localSheetId="1" hidden="1">Planilha1!$O$4:$O$314</definedName>
-    <definedName name="_ECO_RANGE_IDe1a086951ca54975b7bbffb7e512ba7a" localSheetId="1" hidden="1">Planilha1!$F$4:$F$314</definedName>
-    <definedName name="_ECO_RANGE_IDe35d1b9c6bcf4dd4908f2ccdfccd265f" localSheetId="0" hidden="1">Plan1!$C$4:$C$314</definedName>
-    <definedName name="_ECO_RANGE_IDec7652d85a2148baab97de67162e7f38" localSheetId="2" hidden="1">Planilha2!$J$4:$J$314</definedName>
-    <definedName name="_ECO_RANGE_IDf085cc12386d4a5cad6dadd8fd3a51a8" localSheetId="2" hidden="1">Planilha2!$E$4:$E$314</definedName>
-    <definedName name="_ECO_RANGE_IDf219b035b33747f48123cb6b22099e5b" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDf22f208d410e43acbb5abbdd60dc07ab" localSheetId="0" hidden="1">Plan1!$G$4:$G$314</definedName>
-    <definedName name="_ECO_RANGE_IDf7d1ccf7eaf74eaf83804e4bb7bef35d" localSheetId="1" hidden="1">Planilha1!$L$4:$L$314</definedName>
-    <definedName name="_ECO_RANGE_IDfc3dfe556b504edd879ba0b1696f45a4" localSheetId="0" hidden="1">Plan1!$A$4:$B$314</definedName>
-    <definedName name="_ECO_RANGE_IDfe1dd7d0b29e4a739237258b95c321bb" localSheetId="2" hidden="1">Planilha2!$C$4:$C$314</definedName>
-    <definedName name="_ECO_RANGE_IDfe408b2f860244bfa7d117fd53fee5c5" localSheetId="0" hidden="1">Plan1!$D$4:$D$314</definedName>
+    <definedName name="_ECO_RANGE_ID00ce5a317ab34eebb4d435b9689a53d0" localSheetId="1" hidden="1">Planilha1!$D$4:$D$324</definedName>
+    <definedName name="_ECO_RANGE_ID0515c9da659b4ba1852c9a4765618a9b" localSheetId="1" hidden="1">Planilha1!$E$4:$E$324</definedName>
+    <definedName name="_ECO_RANGE_ID19af9c8ff4d7401c86f8bbf65cc37e13" localSheetId="1" hidden="1">Planilha1!$J$4:$J$324</definedName>
+    <definedName name="_ECO_RANGE_ID246d63f989e04b2e979113419835c550" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID2b691207b4634c2f9acae664ae7b0b18" localSheetId="2" hidden="1">Planilha2!$M$4:$M$324</definedName>
+    <definedName name="_ECO_RANGE_ID3c049a0ee2b7484299ea6a307f89c7b5" localSheetId="0" hidden="1">Plan1!$F$4:$F$324</definedName>
+    <definedName name="_ECO_RANGE_ID3e88bec7e34847c6979297f46c71e73b" localSheetId="2" hidden="1">Planilha2!$N$4:$N$324</definedName>
+    <definedName name="_ECO_RANGE_ID4b2e0a6dd4ee4769a90e3823eed5a708" localSheetId="0" hidden="1">Plan1!$D$4:$D$324</definedName>
+    <definedName name="_ECO_RANGE_ID4bc3ea73dcd24acc9928d41f00b49dd5" localSheetId="2" hidden="1">Planilha2!$P$4:$P$324</definedName>
+    <definedName name="_ECO_RANGE_ID4da119583c7f4e5fbfeadb833b7485b1" localSheetId="2" hidden="1">Planilha2!$L$4:$L$324</definedName>
+    <definedName name="_ECO_RANGE_ID4e3892b02e21464ba606c13ca1aa138c" localSheetId="2" hidden="1">Planilha2!$H$4:$H$324</definedName>
+    <definedName name="_ECO_RANGE_ID6438cceac01f4dd694f859f41efe0488" localSheetId="1" hidden="1">Planilha1!$M$4:$M$324</definedName>
+    <definedName name="_ECO_RANGE_ID65b91b7f82f540fb8fda775a8495d162" localSheetId="2" hidden="1">Planilha2!$D$4:$D$324</definedName>
+    <definedName name="_ECO_RANGE_ID73d41f4bbaeb41f4a050c97ed0f80e7d" localSheetId="1" hidden="1">Planilha1!$N$4:$N$324</definedName>
+    <definedName name="_ECO_RANGE_ID75eae3a3d69840d587a5f3c590b00528" localSheetId="2" hidden="1">Planilha2!$F$4:$F$324</definedName>
+    <definedName name="_ECO_RANGE_ID7719510649524c14991419828407056c" localSheetId="0" hidden="1">Plan1!$E$4:$E$324</definedName>
+    <definedName name="_ECO_RANGE_ID7cc97614d6054a9c82e775b561a5a561" localSheetId="0" hidden="1">Plan1!$K$4:$K$324</definedName>
+    <definedName name="_ECO_RANGE_ID7f41ad8279c7436ebfb9be0964de6f79" localSheetId="1" hidden="1">Planilha1!$I$4:$I$324</definedName>
+    <definedName name="_ECO_RANGE_ID85af42b5f321424cb0292991af42164e" localSheetId="0" hidden="1">Plan1!$O$4:$O$324</definedName>
+    <definedName name="_ECO_RANGE_ID8ea9169f44b14cceace2f5e31dd95975" localSheetId="2" hidden="1">Planilha2!$C$4:$C$324</definedName>
+    <definedName name="_ECO_RANGE_ID985baff3084f4dce8cc2c0c1207a63a9" localSheetId="1" hidden="1">Planilha1!$A$4:$B$324</definedName>
+    <definedName name="_ECO_RANGE_ID98e34b28c06f4f4c97a277943a054180" localSheetId="1" hidden="1">Planilha1!$C$4:$C$324</definedName>
+    <definedName name="_ECO_RANGE_ID9a012cadf21147ddad9a22b0f63ffb86" localSheetId="1" hidden="1">Planilha1!$O$4:$O$324</definedName>
+    <definedName name="_ECO_RANGE_ID9aaefcc82a7d432b9c5bdc4a2702ea5c" localSheetId="0" hidden="1">Plan1!$J$4:$J$324</definedName>
+    <definedName name="_ECO_RANGE_IDa3b6d00c9d27483c81c8fd1d7d7d1135" localSheetId="1" hidden="1">Planilha1!$G$4:$G$324</definedName>
+    <definedName name="_ECO_RANGE_IDa8773e69563c4f9692e5a93fbd43d88a" localSheetId="0" hidden="1">Plan1!$L$4:$L$324</definedName>
+    <definedName name="_ECO_RANGE_IDa97b5f7b807a4b25bf8d733aa9be5a9c" localSheetId="2" hidden="1">Planilha2!$G$4:$G$324</definedName>
+    <definedName name="_ECO_RANGE_IDaa30b8a894974b4984eae72e9d6e3c9d" localSheetId="0" hidden="1">Plan1!$H$4:$H$324</definedName>
+    <definedName name="_ECO_RANGE_IDabdcb2277de4442d9ca86d0d17d05739" localSheetId="2" hidden="1">Planilha2!$A$4:$B$324</definedName>
+    <definedName name="_ECO_RANGE_IDac01cfca9d934f1f80470683f0f1922d" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDb563de6538ea4bee9f014d04d7bfa8c4" localSheetId="2" hidden="1">Planilha2!$J$4:$J$324</definedName>
+    <definedName name="_ECO_RANGE_IDb7053f2eb74448a08d7e68eccc5aa35e" localSheetId="0" hidden="1">Plan1!$N$4:$N$324</definedName>
+    <definedName name="_ECO_RANGE_IDb79c27c27c2041d2aa12814ba162d193" localSheetId="0" hidden="1">Plan1!$C$4:$C$324</definedName>
+    <definedName name="_ECO_RANGE_IDb7ec250b9bf84f3eab1cbc06831d999c" localSheetId="0" hidden="1">Plan1!$G$4:$G$324</definedName>
+    <definedName name="_ECO_RANGE_IDba026a4ea768425cb2a3a7a3fdd5f39f" localSheetId="2" hidden="1">Planilha2!$K$4:$K$324</definedName>
+    <definedName name="_ECO_RANGE_IDbad3cfb0bcf54368a4d489c641d9acdc" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDbe804f6e4c444d579cf9a8e36ee2c5d7" localSheetId="1" hidden="1">Planilha1!$K$4:$K$324</definedName>
+    <definedName name="_ECO_RANGE_IDbf3baa3b13444740894c35b21ab5cf49" localSheetId="0" hidden="1">Plan1!$I$4:$I$324</definedName>
+    <definedName name="_ECO_RANGE_IDd2e0b86f666f42b9aab26b92c6be3b04" localSheetId="0" hidden="1">Plan1!$A$4:$B$324</definedName>
+    <definedName name="_ECO_RANGE_IDdd46c24fd9da4f2497238864f49a484a" localSheetId="1" hidden="1">Planilha1!$L$4:$L$324</definedName>
+    <definedName name="_ECO_RANGE_IDdf8c5d27b58c481d87423a48b21ca968" localSheetId="1" hidden="1">Planilha1!$H$4:$H$324</definedName>
+    <definedName name="_ECO_RANGE_IDf0f7d8eebeb14e608ce7c5eb4eb62cbb" localSheetId="0" hidden="1">Plan1!$M$4:$M$324</definedName>
+    <definedName name="_ECO_RANGE_IDf21b568028c248578a0214e2d346b69d" localSheetId="2" hidden="1">Planilha2!$I$4:$I$324</definedName>
+    <definedName name="_ECO_RANGE_IDf6d4c6a773ba4341a6b7175804e5295e" localSheetId="2" hidden="1">Planilha2!$E$4:$E$324</definedName>
+    <definedName name="_ECO_RANGE_IDf8b9950b42be495d9d043266f1c6a373" localSheetId="2" hidden="1">Planilha2!$O$4:$O$324</definedName>
+    <definedName name="_ECO_RANGE_IDff8a622e45404bf29a19440981f7f1bf" localSheetId="1" hidden="1">Planilha1!$F$4:$F$324</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,303 +286,347 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>6b97525d-7756-4a26-a428-52a7da895169</stp>
-        <tr r="G3" s="1"/>
+        <stp>d0ddb8ea-da2e-4c20-b6c6-03d212f59b1e</stp>
+        <tr r="G3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>31c84fc9-6e89-411b-943f-7c15970f6ec7</stp>
+        <stp>4142dde6-abf7-49a2-9c1f-619398a9bbde</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0d3ed615-9adc-419b-8360-e6bb2f3fe25d</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>68b5e1d3-8ef1-49e3-9064-3316ea139867</stp>
         <tr r="A3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>6fa667fb-d6e6-48d7-9203-dc54fc3e3369</stp>
-        <tr r="E3" s="3"/>
+        <stp>14f9462d-66cd-4de4-b683-1e385607942f</stp>
+        <tr r="E3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>e33eeabd-383d-4d6b-a016-c13370f0112a</stp>
+        <stp>7461b241-19f1-4608-80a3-c7a55b2a5d94</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>310a0412-ba18-4a84-970c-8bc0380fea0c</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9bf15ca6-f7e1-47c8-b856-46734b4b0fe9</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ed6efaf1-8a6f-4860-8f12-801aaf593073</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a8421cb6-f6ca-4b44-adf8-e633771135b1</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2d99840d-4c20-46f7-af59-31fb59e0a56a</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2a5ed0f9-0d40-4508-b4b3-e5d5613cad2a</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c504ab68-22cc-4a1a-9e9e-43fd1b35083b</stp>
         <tr r="I3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>df278e2a-f753-4c52-a749-4f0d782119e6</stp>
-        <tr r="M3" s="3"/>
+        <stp>24d1064f-3183-4e02-98aa-0bd05c00c764</stp>
+        <tr r="D3" s="3"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>7d294c23-d4cb-41a5-b451-e0c8ebc685df</stp>
+        <stp>faadc108-63c9-48cc-bfcb-ac4882332b8a</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>10febaa6-c451-47d2-b2e1-5a910cf9b1c8</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1c329487-a772-4d56-93a5-3bfe734f1f24</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8c366c69-450c-47bf-ab49-68871179b8e6</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9e57add8-63cc-4a86-8cb8-35913395c208</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>25ceffb1-c00d-429f-aff6-434baff575d3</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2daeb4c2-1e62-43a8-b47e-859c88d713d8</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>86def480-2688-493a-b33c-b2037fcebf35</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1f5c56d7-f841-4a36-b53b-be0e34327383</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0360dbba-36dd-4077-b37e-ef3ce156adc1</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e10ea1c0-2319-4037-9fe8-80d3a82e19b8</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c2354d72-2ef4-4646-8c4e-0367930824a6</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4f93aadd-4e89-4755-9ab0-6c780c884728</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>268e4be1-7faa-444a-8530-0012d7b83e9e</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>990af41f-2a82-4420-a754-4f2acad0d16b</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e098a992-0b58-4c06-93bb-ece4976d57ec</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6d4759a7-b7a6-4f0c-aadc-8c20fb4b071d</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>99dbd3cf-149e-4611-ae7e-a364554f455c</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0e5e1c51-805d-4745-916c-c5ba668ca104</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d57ea6f0-10d3-451d-a077-6b1910e7f9fd</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c2b039e4-07ee-48cc-bd14-0afe1d486f4f</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5a8af6aa-54ef-4f66-98fc-09756b18fbd2</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0c354447-d848-42dd-a8d9-ce4dbb76e014</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2a9d6b8d-4b6f-4810-941a-de9d31041f67</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3a674852-2c79-4532-8bb7-6a4dfe8c59d5</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cb1bb770-9825-4cf5-88ed-58ff166e10cb</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a2da8ab5-35cd-49fa-9e00-bc34527acc2b</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8a6dfa5c-f869-4dde-b842-91b4632116ea</stp>
         <tr r="H3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
+    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>a0d0a2d0-1444-4fcc-a5d0-fc2bfa249266</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>3bc22198-71a8-47ec-bcc9-5a86c77fb47a</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c6425b02-f78c-41c8-bd71-a5e13465a587</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a81698f1-18a6-4975-8f9b-f0103b924f19</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>aa3b224a-29c8-4a1f-8391-420c8f23dbb0</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>3426598c-4f37-40dd-8145-64d1447aaada</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5160a4db-ac30-426e-af81-7e8f7dc06326</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>47b807b0-5ca6-4307-87c4-ca0e821c9932</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>64450dfa-83e8-45fe-ba19-3da5aa975503</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>1cdecf52-809b-4178-8681-30c6591b4802</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6460e08f-64bb-4503-b595-27ed0667f60a</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>1b1a03f3-833e-4ca7-a247-0214e401fcad</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>01df96d4-d11b-4fe3-ac64-f3ce5997cb56</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>b8c33ed6-bc4e-4c03-9ab6-c355a5e9dfe6</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>127987c6-c985-41f1-8bce-04e61aa8804e</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>1da05530-1c64-4fce-b503-db62eb00eeee</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9679058c-8ed2-4fb0-9bb4-9e5189775f73</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6c42efa4-d459-4635-92f2-4af7cc48cc87</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>bd9e7268-0f24-47ae-bd57-846c8f13d66e</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9a1e4636-96fb-44a5-a90f-778f68be31ae</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c08c0d65-cb99-48ce-8250-a2cc4df08d15</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>25d62507-5f36-4f0f-b042-8d135a92f7b3</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>dbad4f6b-f837-4177-967b-2caef02addb6</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>1bdcf4d2-1e6c-4eef-a38e-acf9c75819c0</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>566333d7-1d0f-45da-b20c-c122441034d9</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>4881adde-0eeb-4961-960e-9a98eb007970</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>b2158543-73f4-4338-b463-cfe989110750</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>1d6bed84-1f73-47f6-8e33-86985642cb5f</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a3ddf1d6-b31e-4eed-8576-bc8b87f401e6</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>8782e593-ec17-48ac-88b6-203a1d3bedb6</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>fcba7036-8b4e-4bfc-b5f9-033e1a0baebb</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>203ea38b-a90c-4807-9f87-c6f07b436b2d</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>def95800-bb5d-4ec1-aac3-dbe78c5c975e</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>fb6b0a22-1066-46e0-ae94-f58b64252a7c</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>30caf4e1-fad3-4ec9-a47d-ce0b17d58c68</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>077e097c-7efb-4d1a-8a35-63afaee61ad0</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_10bf04e8e32948d792a6b1c0f2774f49">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>54b42c0e-7ed4-4fe5-9024-e866ff34ef0a</stp>
+        <stp>fb6526d8-739c-4844-b95a-7b0b0ab42b90</stp>
         <tr r="F3" s="1"/>
       </tp>
     </main>
@@ -853,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O314"/>
+  <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="A314" sqref="A314"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14975,22 +15019,459 @@
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A314" s="1"/>
+      <c r="A314" s="1">
+        <v>45846</v>
+      </c>
+      <c r="C314">
+        <v>9.8754000000000008</v>
+      </c>
+      <c r="D314">
+        <v>8.68</v>
+      </c>
+      <c r="E314">
+        <v>7.9984999999999999</v>
+      </c>
+      <c r="F314">
+        <v>7.7050999999999998</v>
+      </c>
+      <c r="G314">
+        <v>7.6478999999999999</v>
+      </c>
+      <c r="H314">
+        <v>7.5373000000000001</v>
+      </c>
+      <c r="I314">
+        <v>7.4366000000000003</v>
+      </c>
+      <c r="J314">
+        <v>7.2980999999999998</v>
+      </c>
+      <c r="K314">
+        <v>7.1840999999999999</v>
+      </c>
+      <c r="L314">
+        <v>7.1452999999999998</v>
+      </c>
+      <c r="M314">
+        <v>7.0496999999999996</v>
+      </c>
+      <c r="N314">
+        <v>7.0354999999999999</v>
+      </c>
+      <c r="O314">
+        <v>7.0736999999999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>45847</v>
+      </c>
+      <c r="C315">
+        <v>10</v>
+      </c>
+      <c r="D315">
+        <v>8.7525999999999993</v>
+      </c>
+      <c r="E315">
+        <v>8.0876000000000001</v>
+      </c>
+      <c r="F315">
+        <v>7.79</v>
+      </c>
+      <c r="G315">
+        <v>7.7145000000000001</v>
+      </c>
+      <c r="H315">
+        <v>7.5993000000000004</v>
+      </c>
+      <c r="I315">
+        <v>7.4981999999999998</v>
+      </c>
+      <c r="J315">
+        <v>7.3461999999999996</v>
+      </c>
+      <c r="K315">
+        <v>7.2270000000000003</v>
+      </c>
+      <c r="L315">
+        <v>7.1768000000000001</v>
+      </c>
+      <c r="M315">
+        <v>7.0792000000000002</v>
+      </c>
+      <c r="N315">
+        <v>7.0655999999999999</v>
+      </c>
+      <c r="O315">
+        <v>7.0975999999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>45848</v>
+      </c>
+      <c r="C316">
+        <v>10.1038</v>
+      </c>
+      <c r="D316">
+        <v>8.8848000000000003</v>
+      </c>
+      <c r="E316">
+        <v>8.1928000000000001</v>
+      </c>
+      <c r="F316">
+        <v>7.89</v>
+      </c>
+      <c r="G316">
+        <v>7.79</v>
+      </c>
+      <c r="H316">
+        <v>7.6635999999999997</v>
+      </c>
+      <c r="I316">
+        <v>7.5324999999999998</v>
+      </c>
+      <c r="J316">
+        <v>7.3601000000000001</v>
+      </c>
+      <c r="K316">
+        <v>7.2304000000000004</v>
+      </c>
+      <c r="L316">
+        <v>7.1830999999999996</v>
+      </c>
+      <c r="M316">
+        <v>7.0892999999999997</v>
+      </c>
+      <c r="N316">
+        <v>7.0766999999999998</v>
+      </c>
+      <c r="O316">
+        <v>7.1064999999999996</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>45849</v>
+      </c>
+      <c r="C317">
+        <v>10.1318</v>
+      </c>
+      <c r="D317">
+        <v>8.9054000000000002</v>
+      </c>
+      <c r="E317">
+        <v>8.2201000000000004</v>
+      </c>
+      <c r="F317">
+        <v>7.8792999999999997</v>
+      </c>
+      <c r="G317">
+        <v>7.7622999999999998</v>
+      </c>
+      <c r="H317">
+        <v>7.6296999999999997</v>
+      </c>
+      <c r="I317">
+        <v>7.5105000000000004</v>
+      </c>
+      <c r="J317">
+        <v>7.33</v>
+      </c>
+      <c r="K317">
+        <v>7.1651999999999996</v>
+      </c>
+      <c r="L317">
+        <v>7.1398999999999999</v>
+      </c>
+      <c r="M317">
+        <v>7.05</v>
+      </c>
+      <c r="N317">
+        <v>7.0410000000000004</v>
+      </c>
+      <c r="O317">
+        <v>7.0709</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>45852</v>
+      </c>
+      <c r="C318">
+        <v>10.0657</v>
+      </c>
+      <c r="D318">
+        <v>8.8322000000000003</v>
+      </c>
+      <c r="E318">
+        <v>8.1898999999999997</v>
+      </c>
+      <c r="F318">
+        <v>7.8692000000000002</v>
+      </c>
+      <c r="G318">
+        <v>7.7485999999999997</v>
+      </c>
+      <c r="H318">
+        <v>7.6323999999999996</v>
+      </c>
+      <c r="I318">
+        <v>7.5145</v>
+      </c>
+      <c r="J318">
+        <v>7.3430999999999997</v>
+      </c>
+      <c r="K318">
+        <v>7.1977000000000002</v>
+      </c>
+      <c r="L318">
+        <v>7.1849999999999996</v>
+      </c>
+      <c r="M318">
+        <v>7.09</v>
+      </c>
+      <c r="N318">
+        <v>7.0780000000000003</v>
+      </c>
+      <c r="O318">
+        <v>7.1104000000000003</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>45853</v>
+      </c>
+      <c r="C319">
+        <v>10.116300000000001</v>
+      </c>
+      <c r="D319">
+        <v>8.8249999999999993</v>
+      </c>
+      <c r="E319">
+        <v>8.2550000000000008</v>
+      </c>
+      <c r="F319">
+        <v>7.9204999999999997</v>
+      </c>
+      <c r="G319">
+        <v>7.7727000000000004</v>
+      </c>
+      <c r="H319">
+        <v>7.6699000000000002</v>
+      </c>
+      <c r="I319">
+        <v>7.5510999999999999</v>
+      </c>
+      <c r="J319">
+        <v>7.4230999999999998</v>
+      </c>
+      <c r="K319">
+        <v>7.2794999999999996</v>
+      </c>
+      <c r="L319">
+        <v>7.2678000000000003</v>
+      </c>
+      <c r="M319">
+        <v>7.1657999999999999</v>
+      </c>
+      <c r="N319">
+        <v>7.1402999999999999</v>
+      </c>
+      <c r="O319">
+        <v>7.1527000000000003</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>45854</v>
+      </c>
+      <c r="C320">
+        <v>10.163399999999999</v>
+      </c>
+      <c r="D320">
+        <v>8.8627000000000002</v>
+      </c>
+      <c r="E320">
+        <v>8.3059999999999992</v>
+      </c>
+      <c r="F320">
+        <v>7.97</v>
+      </c>
+      <c r="G320">
+        <v>7.8186</v>
+      </c>
+      <c r="H320">
+        <v>7.7161999999999997</v>
+      </c>
+      <c r="I320">
+        <v>7.5964999999999998</v>
+      </c>
+      <c r="J320">
+        <v>7.4812000000000003</v>
+      </c>
+      <c r="K320">
+        <v>7.3390000000000004</v>
+      </c>
+      <c r="L320">
+        <v>7.3291000000000004</v>
+      </c>
+      <c r="M320">
+        <v>7.2271000000000001</v>
+      </c>
+      <c r="N320">
+        <v>7.1992000000000003</v>
+      </c>
+      <c r="O320">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C321">
+        <v>10.1671</v>
+      </c>
+      <c r="D321">
+        <v>8.8754000000000008</v>
+      </c>
+      <c r="E321">
+        <v>8.2916000000000007</v>
+      </c>
+      <c r="F321">
+        <v>7.9343000000000004</v>
+      </c>
+      <c r="G321">
+        <v>7.78</v>
+      </c>
+      <c r="H321">
+        <v>7.6764000000000001</v>
+      </c>
+      <c r="I321">
+        <v>7.5723000000000003</v>
+      </c>
+      <c r="J321">
+        <v>7.4573999999999998</v>
+      </c>
+      <c r="K321">
+        <v>7.3080999999999996</v>
+      </c>
+      <c r="L321">
+        <v>7.3066000000000004</v>
+      </c>
+      <c r="M321">
+        <v>7.1959999999999997</v>
+      </c>
+      <c r="N321">
+        <v>7.1669</v>
+      </c>
+      <c r="O321">
+        <v>7.1784999999999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>45856</v>
+      </c>
+      <c r="C322">
+        <v>10.131</v>
+      </c>
+      <c r="D322">
+        <v>8.9182000000000006</v>
+      </c>
+      <c r="E322">
+        <v>8.34</v>
+      </c>
+      <c r="F322">
+        <v>7.9763999999999999</v>
+      </c>
+      <c r="G322">
+        <v>7.8392999999999997</v>
+      </c>
+      <c r="H322">
+        <v>7.7306999999999997</v>
+      </c>
+      <c r="I322">
+        <v>7.6201999999999996</v>
+      </c>
+      <c r="J322">
+        <v>7.4931000000000001</v>
+      </c>
+      <c r="K322">
+        <v>7.3326000000000002</v>
+      </c>
+      <c r="L322">
+        <v>7.3354999999999997</v>
+      </c>
+      <c r="M322">
+        <v>7.2229999999999999</v>
+      </c>
+      <c r="N322">
+        <v>7.1957000000000004</v>
+      </c>
+      <c r="O322">
+        <v>7.2046000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>45859</v>
+      </c>
+      <c r="C323">
+        <v>10.1442</v>
+      </c>
+      <c r="D323">
+        <v>8.8966999999999992</v>
+      </c>
+      <c r="E323">
+        <v>8.3398000000000003</v>
+      </c>
+      <c r="F323">
+        <v>7.9649000000000001</v>
+      </c>
+      <c r="G323">
+        <v>7.8470000000000004</v>
+      </c>
+      <c r="H323">
+        <v>7.7538</v>
+      </c>
+      <c r="I323">
+        <v>7.649</v>
+      </c>
+      <c r="J323">
+        <v>7.5002000000000004</v>
+      </c>
+      <c r="K323">
+        <v>7.34</v>
+      </c>
+      <c r="L323">
+        <v>7.3441999999999998</v>
+      </c>
+      <c r="M323">
+        <v>7.23</v>
+      </c>
+      <c r="N323">
+        <v>7.2012</v>
+      </c>
+      <c r="O323">
+        <v>7.2096999999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A324" s="1"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Economatica Excel Add-In" prompt="45045: You are not logged in Economatica" sqref="G3" xr:uid="{6C00A70D-7942-40C6-87A1-4313FAC35B9C}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O314"/>
+  <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="A314" sqref="A314"/>
+    <sheetView topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29109,7 +29590,447 @@
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A314" s="1"/>
+      <c r="A314" s="1">
+        <v>45846</v>
+      </c>
+      <c r="C314">
+        <v>4454.3028359999998</v>
+      </c>
+      <c r="D314">
+        <v>4369.0463090000003</v>
+      </c>
+      <c r="E314">
+        <v>4395.8739249999999</v>
+      </c>
+      <c r="F314">
+        <v>4325.3863879999999</v>
+      </c>
+      <c r="G314">
+        <v>4337.1554269999997</v>
+      </c>
+      <c r="H314">
+        <v>4271.3465470000001</v>
+      </c>
+      <c r="I314">
+        <v>4201.7503980000001</v>
+      </c>
+      <c r="J314">
+        <v>4178.8548440000004</v>
+      </c>
+      <c r="K314">
+        <v>4166.6695229999996</v>
+      </c>
+      <c r="L314">
+        <v>4047.6035940000002</v>
+      </c>
+      <c r="M314">
+        <v>4104.8922510000002</v>
+      </c>
+      <c r="N314">
+        <v>4013.6041489999998</v>
+      </c>
+      <c r="O314">
+        <v>4034.9386420000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>45847</v>
+      </c>
+      <c r="C315">
+        <v>4451.0239650000003</v>
+      </c>
+      <c r="D315">
+        <v>4365.7819719999998</v>
+      </c>
+      <c r="E315">
+        <v>4387.507662</v>
+      </c>
+      <c r="F315">
+        <v>4315.3798219999999</v>
+      </c>
+      <c r="G315">
+        <v>4327.2631090000004</v>
+      </c>
+      <c r="H315">
+        <v>4259.0496039999998</v>
+      </c>
+      <c r="I315">
+        <v>4188.3698420000001</v>
+      </c>
+      <c r="J315">
+        <v>4166.6305769999999</v>
+      </c>
+      <c r="K315">
+        <v>4152.2584070000003</v>
+      </c>
+      <c r="L315">
+        <v>4035.7424639999999</v>
+      </c>
+      <c r="M315">
+        <v>4092.5568830000002</v>
+      </c>
+      <c r="N315">
+        <v>4000.2102599999998</v>
+      </c>
+      <c r="O315">
+        <v>4024.2981249999998</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>45848</v>
+      </c>
+      <c r="C316">
+        <v>4450.5687420000004</v>
+      </c>
+      <c r="D316">
+        <v>4360.2115860000004</v>
+      </c>
+      <c r="E316">
+        <v>4379.2365280000004</v>
+      </c>
+      <c r="F316">
+        <v>4305.1968139999999</v>
+      </c>
+      <c r="G316">
+        <v>4317.7201329999998</v>
+      </c>
+      <c r="H316">
+        <v>4248.1038769999996</v>
+      </c>
+      <c r="I316">
+        <v>4183.4362780000001</v>
+      </c>
+      <c r="J316">
+        <v>4165.9959930000005</v>
+      </c>
+      <c r="K316">
+        <v>4154.3057500000004</v>
+      </c>
+      <c r="L316">
+        <v>4036.2850060000001</v>
+      </c>
+      <c r="M316">
+        <v>4091.0733989999999</v>
+      </c>
+      <c r="N316">
+        <v>3997.9136629999998</v>
+      </c>
+      <c r="O316">
+        <v>4022.9874679999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>45849</v>
+      </c>
+      <c r="C317">
+        <v>4451.6093799999999</v>
+      </c>
+      <c r="D317">
+        <v>4360.7659389999999</v>
+      </c>
+      <c r="E317">
+        <v>4378.0498299999999</v>
+      </c>
+      <c r="F317">
+        <v>4308.4750370000002</v>
+      </c>
+      <c r="G317">
+        <v>4324.3099249999996</v>
+      </c>
+      <c r="H317">
+        <v>4257.4384289999998</v>
+      </c>
+      <c r="I317">
+        <v>4190.4718430000003</v>
+      </c>
+      <c r="J317">
+        <v>4176.2806680000003</v>
+      </c>
+      <c r="K317">
+        <v>4180.2337299999999</v>
+      </c>
+      <c r="L317">
+        <v>4056.2035879999999</v>
+      </c>
+      <c r="M317">
+        <v>4111.0981670000001</v>
+      </c>
+      <c r="N317">
+        <v>4017.0805030000001</v>
+      </c>
+      <c r="O317">
+        <v>4042.6101269999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>45852</v>
+      </c>
+      <c r="C318">
+        <v>4456.6626139999998</v>
+      </c>
+      <c r="D318">
+        <v>4367.8869459999996</v>
+      </c>
+      <c r="E318">
+        <v>4383.3523800000003</v>
+      </c>
+      <c r="F318">
+        <v>4311.6679409999997</v>
+      </c>
+      <c r="G318">
+        <v>4328.4783930000003</v>
+      </c>
+      <c r="H318">
+        <v>4258.5873110000002</v>
+      </c>
+      <c r="I318">
+        <v>4191.2096449999999</v>
+      </c>
+      <c r="J318">
+        <v>4174.2044599999999</v>
+      </c>
+      <c r="K318">
+        <v>4169.7572989999999</v>
+      </c>
+      <c r="L318">
+        <v>4038.670196</v>
+      </c>
+      <c r="M318">
+        <v>4093.9517639999999</v>
+      </c>
+      <c r="N318">
+        <v>4000.402869</v>
+      </c>
+      <c r="O318">
+        <v>4024.1784269999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>45853</v>
+      </c>
+      <c r="C319">
+        <v>4456.7439100000001</v>
+      </c>
+      <c r="D319">
+        <v>4370.3807340000003</v>
+      </c>
+      <c r="E319">
+        <v>4377.9218860000001</v>
+      </c>
+      <c r="F319">
+        <v>4306.4779619999999</v>
+      </c>
+      <c r="G319">
+        <v>4326.1166620000004</v>
+      </c>
+      <c r="H319">
+        <v>4251.9642640000002</v>
+      </c>
+      <c r="I319">
+        <v>4184.0667190000004</v>
+      </c>
+      <c r="J319">
+        <v>4153.0732630000002</v>
+      </c>
+      <c r="K319">
+        <v>4141.1025339999997</v>
+      </c>
+      <c r="L319">
+        <v>4005.497672</v>
+      </c>
+      <c r="M319">
+        <v>4060.4008829999998</v>
+      </c>
+      <c r="N319">
+        <v>3971.560223</v>
+      </c>
+      <c r="O319">
+        <v>4004.514831</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>45854</v>
+      </c>
+      <c r="C320">
+        <v>4457.135593</v>
+      </c>
+      <c r="D320">
+        <v>4369.880494</v>
+      </c>
+      <c r="E320">
+        <v>4374.2473259999997</v>
+      </c>
+      <c r="F320">
+        <v>4301.7008400000004</v>
+      </c>
+      <c r="G320">
+        <v>4320.1511579999997</v>
+      </c>
+      <c r="H320">
+        <v>4243.5504039999996</v>
+      </c>
+      <c r="I320">
+        <v>4174.9675880000004</v>
+      </c>
+      <c r="J320">
+        <v>4138.4293459999999</v>
+      </c>
+      <c r="K320">
+        <v>4121.0435559999996</v>
+      </c>
+      <c r="L320">
+        <v>3981.766987</v>
+      </c>
+      <c r="M320">
+        <v>4034.0511919999999</v>
+      </c>
+      <c r="N320">
+        <v>3944.8482319999998</v>
+      </c>
+      <c r="O320">
+        <v>3977.7534879999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C321">
+        <v>4459.3712450000003</v>
+      </c>
+      <c r="D321">
+        <v>4371.1378729999997</v>
+      </c>
+      <c r="E321">
+        <v>4377.9065849999997</v>
+      </c>
+      <c r="F321">
+        <v>4308.5159649999996</v>
+      </c>
+      <c r="G321">
+        <v>4328.7450790000003</v>
+      </c>
+      <c r="H321">
+        <v>4254.3028439999998</v>
+      </c>
+      <c r="I321">
+        <v>4182.6423949999999</v>
+      </c>
+      <c r="J321">
+        <v>4146.9730069999996</v>
+      </c>
+      <c r="K321">
+        <v>4134.1514180000004</v>
+      </c>
+      <c r="L321">
+        <v>3992.8058599999999</v>
+      </c>
+      <c r="M321">
+        <v>4049.9910530000002</v>
+      </c>
+      <c r="N321">
+        <v>3962.0702919999999</v>
+      </c>
+      <c r="O321">
+        <v>3995.066628</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>45856</v>
+      </c>
+      <c r="C322">
+        <v>4463.2795180000003</v>
+      </c>
+      <c r="D322">
+        <v>4370.306611</v>
+      </c>
+      <c r="E322">
+        <v>4374.5478940000003</v>
+      </c>
+      <c r="F322">
+        <v>4304.7570420000002</v>
+      </c>
+      <c r="G322">
+        <v>4320.4896630000003</v>
+      </c>
+      <c r="H322">
+        <v>4244.1239159999996</v>
+      </c>
+      <c r="I322">
+        <v>4172.9691469999998</v>
+      </c>
+      <c r="J322">
+        <v>4138.7035699999997</v>
+      </c>
+      <c r="K322">
+        <v>4126.9584789999999</v>
+      </c>
+      <c r="L322">
+        <v>3982.5690810000001</v>
+      </c>
+      <c r="M322">
+        <v>4039.377802</v>
+      </c>
+      <c r="N322">
+        <v>3949.9030469999998</v>
+      </c>
+      <c r="O322">
+        <v>3983.8287780000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>45859</v>
+      </c>
+      <c r="C323">
+        <v>4465.1132310000003</v>
+      </c>
+      <c r="D323">
+        <v>4373.9389899999996</v>
+      </c>
+      <c r="E323">
+        <v>4376.6264499999997</v>
+      </c>
+      <c r="F323">
+        <v>4308.2842909999999</v>
+      </c>
+      <c r="G323">
+        <v>4321.1188389999998</v>
+      </c>
+      <c r="H323">
+        <v>4240.9029099999998</v>
+      </c>
+      <c r="I323">
+        <v>4167.9154769999996</v>
+      </c>
+      <c r="J323">
+        <v>4138.5165660000002</v>
+      </c>
+      <c r="K323">
+        <v>4126.035511</v>
+      </c>
+      <c r="L323">
+        <v>3980.7041869999998</v>
+      </c>
+      <c r="M323">
+        <v>4037.9203510000002</v>
+      </c>
+      <c r="N323">
+        <v>3948.9577129999998</v>
+      </c>
+      <c r="O323">
+        <v>3983.0154929999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A324" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -29118,10 +30039,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z314"/>
+  <dimension ref="A1:Z324"/>
   <sheetViews>
-    <sheetView topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="A314" sqref="A314"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42590,7 +43511,507 @@
       </c>
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A314" s="1"/>
+      <c r="A314" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B314">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="F314">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="G314">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="H314">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="I314">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="J314">
+        <v>0.1089</v>
+      </c>
+      <c r="K314">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="L314">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="M314">
+        <v>0.1169</v>
+      </c>
+      <c r="N314">
+        <v>0.107</v>
+      </c>
+      <c r="O314">
+        <v>0.1032</v>
+      </c>
+      <c r="P314">
+        <v>0.1024</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B315">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F315">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="G315">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="H315">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="I315">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J315">
+        <v>0.1086</v>
+      </c>
+      <c r="K315">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="L315">
+        <v>0.1173</v>
+      </c>
+      <c r="M315">
+        <v>0.1166</v>
+      </c>
+      <c r="N315">
+        <v>0.1072</v>
+      </c>
+      <c r="O315">
+        <v>0.1031</v>
+      </c>
+      <c r="P315">
+        <v>0.1024</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B316">
+        <v>1.21E-2</v>
+      </c>
+      <c r="C316">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="D316">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="E316">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="F316">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="G316">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H316">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="I316">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="J316">
+        <v>0.1075</v>
+      </c>
+      <c r="K316">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="L316">
+        <v>0.1181</v>
+      </c>
+      <c r="M316">
+        <v>0.1172</v>
+      </c>
+      <c r="N316">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="O316">
+        <v>0.1032</v>
+      </c>
+      <c r="P316">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B317">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C317">
+        <v>-1E-3</v>
+      </c>
+      <c r="D317">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E317">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F317">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="G317">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="H317">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="I317">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="J317">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="K317">
+        <v>0.1182</v>
+      </c>
+      <c r="L317">
+        <v>0.1186</v>
+      </c>
+      <c r="M317">
+        <v>0.1173</v>
+      </c>
+      <c r="N317">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="O317">
+        <v>0.1036</v>
+      </c>
+      <c r="P317">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B318">
+        <v>1.34E-2</v>
+      </c>
+      <c r="C318">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D318">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="E318">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="F318">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="G318">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="H318">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="I318">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="J318">
+        <v>0.1048</v>
+      </c>
+      <c r="K318">
+        <v>0.1183</v>
+      </c>
+      <c r="L318">
+        <v>0.1186</v>
+      </c>
+      <c r="M318">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="N318">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="O318">
+        <v>0.1036</v>
+      </c>
+      <c r="P318">
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B319">
+        <v>1.38E-2</v>
+      </c>
+      <c r="C319">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D319">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="E319">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F319">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="G319">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="H319">
+        <v>6.93E-2</v>
+      </c>
+      <c r="I319">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="J319">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="K319">
+        <v>0.1183</v>
+      </c>
+      <c r="L319">
+        <v>0.1186</v>
+      </c>
+      <c r="M319">
+        <v>0.1177</v>
+      </c>
+      <c r="N319">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="O319">
+        <v>0.1037</v>
+      </c>
+      <c r="P319">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B320">
+        <v>1.47E-2</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="E320">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="F320">
+        <v>4.65E-2</v>
+      </c>
+      <c r="G320">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="H320">
+        <v>6.93E-2</v>
+      </c>
+      <c r="I320">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="J320">
+        <v>0.1026</v>
+      </c>
+      <c r="K320">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="L320">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="M320">
+        <v>0.1176</v>
+      </c>
+      <c r="N320">
+        <v>0.1072</v>
+      </c>
+      <c r="O320">
+        <v>0.1037</v>
+      </c>
+      <c r="P320">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B321">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C321">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="D321">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="E321">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="F321">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="G321">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="H321">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="I321">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="J321">
+        <v>0.1007</v>
+      </c>
+      <c r="K321">
+        <v>0.1181</v>
+      </c>
+      <c r="L321">
+        <v>0.1182</v>
+      </c>
+      <c r="M321">
+        <v>0.1174</v>
+      </c>
+      <c r="N321">
+        <v>0.107</v>
+      </c>
+      <c r="O321">
+        <v>0.1037</v>
+      </c>
+      <c r="P321">
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B322">
+        <v>1.21E-2</v>
+      </c>
+      <c r="C322">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="D322">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="E322">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="F322">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="G322">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H322">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="I322">
+        <v>0.09</v>
+      </c>
+      <c r="J322">
+        <v>9.98E-2</v>
+      </c>
+      <c r="K322">
+        <v>0.1178</v>
+      </c>
+      <c r="L322">
+        <v>0.1179</v>
+      </c>
+      <c r="M322">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="N322">
+        <v>0.1061</v>
+      </c>
+      <c r="O322">
+        <v>0.1032</v>
+      </c>
+      <c r="P322">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B323">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="C323">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="D323">
+        <v>-4.1000000000000003E-3</v>
+      </c>
+      <c r="E323">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="F323">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="G323">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="H323">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="I323">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="J323">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="K323">
+        <v>0.1174</v>
+      </c>
+      <c r="L323">
+        <v>0.1176</v>
+      </c>
+      <c r="M323">
+        <v>0.1169</v>
+      </c>
+      <c r="N323">
+        <v>0.1061</v>
+      </c>
+      <c r="O323">
+        <v>0.1031</v>
+      </c>
+      <c r="P323">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A324" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD178B-730E-4B4C-8AD4-8E888516690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E52965-EC51-4AAB-84BC-A70B8BD9CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID00ce5a317ab34eebb4d435b9689a53d0" localSheetId="1" hidden="1">Planilha1!$D$4:$D$324</definedName>
-    <definedName name="_ECO_RANGE_ID0515c9da659b4ba1852c9a4765618a9b" localSheetId="1" hidden="1">Planilha1!$E$4:$E$324</definedName>
-    <definedName name="_ECO_RANGE_ID19af9c8ff4d7401c86f8bbf65cc37e13" localSheetId="1" hidden="1">Planilha1!$J$4:$J$324</definedName>
-    <definedName name="_ECO_RANGE_ID246d63f989e04b2e979113419835c550" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID2b691207b4634c2f9acae664ae7b0b18" localSheetId="2" hidden="1">Planilha2!$M$4:$M$324</definedName>
-    <definedName name="_ECO_RANGE_ID3c049a0ee2b7484299ea6a307f89c7b5" localSheetId="0" hidden="1">Plan1!$F$4:$F$324</definedName>
-    <definedName name="_ECO_RANGE_ID3e88bec7e34847c6979297f46c71e73b" localSheetId="2" hidden="1">Planilha2!$N$4:$N$324</definedName>
-    <definedName name="_ECO_RANGE_ID4b2e0a6dd4ee4769a90e3823eed5a708" localSheetId="0" hidden="1">Plan1!$D$4:$D$324</definedName>
-    <definedName name="_ECO_RANGE_ID4bc3ea73dcd24acc9928d41f00b49dd5" localSheetId="2" hidden="1">Planilha2!$P$4:$P$324</definedName>
-    <definedName name="_ECO_RANGE_ID4da119583c7f4e5fbfeadb833b7485b1" localSheetId="2" hidden="1">Planilha2!$L$4:$L$324</definedName>
-    <definedName name="_ECO_RANGE_ID4e3892b02e21464ba606c13ca1aa138c" localSheetId="2" hidden="1">Planilha2!$H$4:$H$324</definedName>
-    <definedName name="_ECO_RANGE_ID6438cceac01f4dd694f859f41efe0488" localSheetId="1" hidden="1">Planilha1!$M$4:$M$324</definedName>
-    <definedName name="_ECO_RANGE_ID65b91b7f82f540fb8fda775a8495d162" localSheetId="2" hidden="1">Planilha2!$D$4:$D$324</definedName>
-    <definedName name="_ECO_RANGE_ID73d41f4bbaeb41f4a050c97ed0f80e7d" localSheetId="1" hidden="1">Planilha1!$N$4:$N$324</definedName>
-    <definedName name="_ECO_RANGE_ID75eae3a3d69840d587a5f3c590b00528" localSheetId="2" hidden="1">Planilha2!$F$4:$F$324</definedName>
-    <definedName name="_ECO_RANGE_ID7719510649524c14991419828407056c" localSheetId="0" hidden="1">Plan1!$E$4:$E$324</definedName>
-    <definedName name="_ECO_RANGE_ID7cc97614d6054a9c82e775b561a5a561" localSheetId="0" hidden="1">Plan1!$K$4:$K$324</definedName>
-    <definedName name="_ECO_RANGE_ID7f41ad8279c7436ebfb9be0964de6f79" localSheetId="1" hidden="1">Planilha1!$I$4:$I$324</definedName>
-    <definedName name="_ECO_RANGE_ID85af42b5f321424cb0292991af42164e" localSheetId="0" hidden="1">Plan1!$O$4:$O$324</definedName>
-    <definedName name="_ECO_RANGE_ID8ea9169f44b14cceace2f5e31dd95975" localSheetId="2" hidden="1">Planilha2!$C$4:$C$324</definedName>
-    <definedName name="_ECO_RANGE_ID985baff3084f4dce8cc2c0c1207a63a9" localSheetId="1" hidden="1">Planilha1!$A$4:$B$324</definedName>
-    <definedName name="_ECO_RANGE_ID98e34b28c06f4f4c97a277943a054180" localSheetId="1" hidden="1">Planilha1!$C$4:$C$324</definedName>
-    <definedName name="_ECO_RANGE_ID9a012cadf21147ddad9a22b0f63ffb86" localSheetId="1" hidden="1">Planilha1!$O$4:$O$324</definedName>
-    <definedName name="_ECO_RANGE_ID9aaefcc82a7d432b9c5bdc4a2702ea5c" localSheetId="0" hidden="1">Plan1!$J$4:$J$324</definedName>
-    <definedName name="_ECO_RANGE_IDa3b6d00c9d27483c81c8fd1d7d7d1135" localSheetId="1" hidden="1">Planilha1!$G$4:$G$324</definedName>
-    <definedName name="_ECO_RANGE_IDa8773e69563c4f9692e5a93fbd43d88a" localSheetId="0" hidden="1">Plan1!$L$4:$L$324</definedName>
-    <definedName name="_ECO_RANGE_IDa97b5f7b807a4b25bf8d733aa9be5a9c" localSheetId="2" hidden="1">Planilha2!$G$4:$G$324</definedName>
-    <definedName name="_ECO_RANGE_IDaa30b8a894974b4984eae72e9d6e3c9d" localSheetId="0" hidden="1">Plan1!$H$4:$H$324</definedName>
-    <definedName name="_ECO_RANGE_IDabdcb2277de4442d9ca86d0d17d05739" localSheetId="2" hidden="1">Planilha2!$A$4:$B$324</definedName>
-    <definedName name="_ECO_RANGE_IDac01cfca9d934f1f80470683f0f1922d" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDb563de6538ea4bee9f014d04d7bfa8c4" localSheetId="2" hidden="1">Planilha2!$J$4:$J$324</definedName>
-    <definedName name="_ECO_RANGE_IDb7053f2eb74448a08d7e68eccc5aa35e" localSheetId="0" hidden="1">Plan1!$N$4:$N$324</definedName>
-    <definedName name="_ECO_RANGE_IDb79c27c27c2041d2aa12814ba162d193" localSheetId="0" hidden="1">Plan1!$C$4:$C$324</definedName>
-    <definedName name="_ECO_RANGE_IDb7ec250b9bf84f3eab1cbc06831d999c" localSheetId="0" hidden="1">Plan1!$G$4:$G$324</definedName>
-    <definedName name="_ECO_RANGE_IDba026a4ea768425cb2a3a7a3fdd5f39f" localSheetId="2" hidden="1">Planilha2!$K$4:$K$324</definedName>
-    <definedName name="_ECO_RANGE_IDbad3cfb0bcf54368a4d489c641d9acdc" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDbe804f6e4c444d579cf9a8e36ee2c5d7" localSheetId="1" hidden="1">Planilha1!$K$4:$K$324</definedName>
-    <definedName name="_ECO_RANGE_IDbf3baa3b13444740894c35b21ab5cf49" localSheetId="0" hidden="1">Plan1!$I$4:$I$324</definedName>
-    <definedName name="_ECO_RANGE_IDd2e0b86f666f42b9aab26b92c6be3b04" localSheetId="0" hidden="1">Plan1!$A$4:$B$324</definedName>
-    <definedName name="_ECO_RANGE_IDdd46c24fd9da4f2497238864f49a484a" localSheetId="1" hidden="1">Planilha1!$L$4:$L$324</definedName>
-    <definedName name="_ECO_RANGE_IDdf8c5d27b58c481d87423a48b21ca968" localSheetId="1" hidden="1">Planilha1!$H$4:$H$324</definedName>
-    <definedName name="_ECO_RANGE_IDf0f7d8eebeb14e608ce7c5eb4eb62cbb" localSheetId="0" hidden="1">Plan1!$M$4:$M$324</definedName>
-    <definedName name="_ECO_RANGE_IDf21b568028c248578a0214e2d346b69d" localSheetId="2" hidden="1">Planilha2!$I$4:$I$324</definedName>
-    <definedName name="_ECO_RANGE_IDf6d4c6a773ba4341a6b7175804e5295e" localSheetId="2" hidden="1">Planilha2!$E$4:$E$324</definedName>
-    <definedName name="_ECO_RANGE_IDf8b9950b42be495d9d043266f1c6a373" localSheetId="2" hidden="1">Planilha2!$O$4:$O$324</definedName>
-    <definedName name="_ECO_RANGE_IDff8a622e45404bf29a19440981f7f1bf" localSheetId="1" hidden="1">Planilha1!$F$4:$F$324</definedName>
+    <definedName name="_ECO_RANGE_ID007ea307c4e74e529e4d50a08ff2e4b2" localSheetId="1" hidden="1">Planilha1!$J$4:$J$329</definedName>
+    <definedName name="_ECO_RANGE_ID00f42fd67aa144849fd851a34991ab4b" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID04d65b0ab56e4fd4affcee8cf6d04cb9" localSheetId="2" hidden="1">Planilha2!$J$4:$J$329</definedName>
+    <definedName name="_ECO_RANGE_ID059f61ac57e44393be319fef10408e1b" localSheetId="2" hidden="1">Planilha2!$M$4:$M$329</definedName>
+    <definedName name="_ECO_RANGE_ID0603b5c9f04f4ce2bb165baf8aae0cd5" localSheetId="2" hidden="1">Planilha2!$F$4:$F$329</definedName>
+    <definedName name="_ECO_RANGE_ID097142d2873943e1b6c55dd98698f633" localSheetId="1" hidden="1">Planilha1!$G$4:$G$329</definedName>
+    <definedName name="_ECO_RANGE_ID12dae1b4df1f47b6b6b10bebb3403fd7" localSheetId="2" hidden="1">Planilha2!$C$4:$C$329</definedName>
+    <definedName name="_ECO_RANGE_ID134212b5fcf2409c9e3d361b723adc52" localSheetId="1" hidden="1">Planilha1!$D$4:$D$329</definedName>
+    <definedName name="_ECO_RANGE_ID156a3b3f5dd843728b944a1362b58d4b" localSheetId="0" hidden="1">Plan1!$O$4:$O$329</definedName>
+    <definedName name="_ECO_RANGE_ID178073675b504d6eaff65051d2d722e2" localSheetId="0" hidden="1">Plan1!$I$4:$I$329</definedName>
+    <definedName name="_ECO_RANGE_ID1abb4011b5c44f8b9c727eda27cbd6d4" localSheetId="2" hidden="1">Planilha2!$N$4:$N$329</definedName>
+    <definedName name="_ECO_RANGE_ID275bebb867ff471d912e3d40f4ca8128" localSheetId="0" hidden="1">Plan1!$H$4:$H$329</definedName>
+    <definedName name="_ECO_RANGE_ID28e5eb2dd84047dbb7f6ddb05e632911" localSheetId="2" hidden="1">Planilha2!$D$4:$D$329</definedName>
+    <definedName name="_ECO_RANGE_ID3cf018cbf91f4e7baa0d832340b4c7cc" localSheetId="1" hidden="1">Planilha1!$N$4:$N$329</definedName>
+    <definedName name="_ECO_RANGE_ID3d0557e0b9cc413dbc023de6954cdffb" localSheetId="0" hidden="1">Plan1!$N$4:$N$329</definedName>
+    <definedName name="_ECO_RANGE_ID504a2c1b8fcd4299902ef9102245a525" localSheetId="2" hidden="1">Planilha2!$L$4:$L$329</definedName>
+    <definedName name="_ECO_RANGE_ID51610a0ae5ca4c76a20eca51fd520ed3" localSheetId="0" hidden="1">Plan1!$E$4:$E$329</definedName>
+    <definedName name="_ECO_RANGE_ID53f8298f34cb4ec1972f17cc01a5d539" localSheetId="0" hidden="1">Plan1!$L$4:$L$329</definedName>
+    <definedName name="_ECO_RANGE_ID5cc2149502d54a11aa579843cb146529" localSheetId="0" hidden="1">Plan1!$A$4:$B$329</definedName>
+    <definedName name="_ECO_RANGE_ID60e836d516f74e6296ead5fb918f0719" localSheetId="1" hidden="1">Planilha1!$E$4:$E$329</definedName>
+    <definedName name="_ECO_RANGE_ID62591b078bac4b9a87aa78b8d7183e7c" localSheetId="1" hidden="1">Planilha1!$M$4:$M$329</definedName>
+    <definedName name="_ECO_RANGE_ID6281be7ea357487092eeef46c4ae745c" localSheetId="1" hidden="1">Planilha1!$H$4:$H$329</definedName>
+    <definedName name="_ECO_RANGE_ID63c2f3d52e5047c2a0630f069f214faf" localSheetId="0" hidden="1">Plan1!$G$4:$G$329</definedName>
+    <definedName name="_ECO_RANGE_ID7b0fb99459dd44fd9bb6aa0d9a9ec89c" localSheetId="2" hidden="1">Planilha2!$E$4:$E$329</definedName>
+    <definedName name="_ECO_RANGE_ID7d07d7f84aef4295b17095cd7a9d937c" localSheetId="2" hidden="1">Planilha2!$I$4:$I$329</definedName>
+    <definedName name="_ECO_RANGE_ID7e22a716f57f4c7ba1d801ff41242da1" localSheetId="1" hidden="1">Planilha1!$K$4:$K$329</definedName>
+    <definedName name="_ECO_RANGE_ID87f8aa6e021e46cdac51f4c2c1feb6c9" localSheetId="1" hidden="1">Planilha1!$O$4:$O$329</definedName>
+    <definedName name="_ECO_RANGE_ID8826bc3494024f29bcb73d8f2786d413" localSheetId="0" hidden="1">Plan1!$J$4:$J$329</definedName>
+    <definedName name="_ECO_RANGE_ID8ff8148dba2848c2b3d4919f5ed9c854" localSheetId="0" hidden="1">Plan1!$K$4:$K$329</definedName>
+    <definedName name="_ECO_RANGE_ID983b034589d844beae01a50d514bc137" localSheetId="2" hidden="1">Planilha2!$O$4:$O$329</definedName>
+    <definedName name="_ECO_RANGE_IDa423a39172b74aa8a32c6a89ad0c949b" localSheetId="2" hidden="1">Planilha2!$K$4:$K$329</definedName>
+    <definedName name="_ECO_RANGE_IDba3234f7cf20451b815904fe55ac32ab" localSheetId="0" hidden="1">Plan1!$C$4:$C$329</definedName>
+    <definedName name="_ECO_RANGE_IDc252ef23264b4766975ad8cc238894ff" localSheetId="1" hidden="1">Planilha1!$A$4:$B$329</definedName>
+    <definedName name="_ECO_RANGE_IDc2572b6cac8f400e95eeb6b35487f9c3" localSheetId="2" hidden="1">Planilha2!$A$4:$B$329</definedName>
+    <definedName name="_ECO_RANGE_IDc33e73cec8f14a45987902f4e5e30919" localSheetId="0" hidden="1">Plan1!$F$4:$F$329</definedName>
+    <definedName name="_ECO_RANGE_IDc883ff635be040d48bf5eb598b6b55e9" localSheetId="0" hidden="1">Plan1!$D$4:$D$329</definedName>
+    <definedName name="_ECO_RANGE_IDd1b2c46778c044ee92ea5c0636e8235a" localSheetId="2" hidden="1">Planilha2!$P$4:$P$329</definedName>
+    <definedName name="_ECO_RANGE_IDd40159ce9bc84a46999b6ded5aa3febb" localSheetId="1" hidden="1">Planilha1!$C$4:$C$329</definedName>
+    <definedName name="_ECO_RANGE_IDd7d5583ef5e5490fa09cbb163b60fdd4" localSheetId="1" hidden="1">Planilha1!$F$4:$F$329</definedName>
+    <definedName name="_ECO_RANGE_IDdd9ee241df674ac6bda25ea9528f7e19" localSheetId="0" hidden="1">Plan1!$M$4:$M$329</definedName>
+    <definedName name="_ECO_RANGE_IDe94eb26bf3524326b47b49a5e8d4d085" localSheetId="2" hidden="1">Planilha2!$H$4:$H$329</definedName>
+    <definedName name="_ECO_RANGE_IDef1006e19cf041a5aa8a253ee3ecfcdc" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDf4173108497642cb85bf1b16142eefd9" localSheetId="1" hidden="1">Planilha1!$L$4:$L$329</definedName>
+    <definedName name="_ECO_RANGE_IDf64706f47ee04c6594bf80eb245f1a5d" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDfe13b2d359624b338760a8c50c4e061b" localSheetId="1" hidden="1">Planilha1!$I$4:$I$329</definedName>
+    <definedName name="_ECO_RANGE_IDffddfd9d1b8346eb94681b46994769f2" localSheetId="2" hidden="1">Planilha2!$G$4:$G$329</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,348 +286,316 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d0ddb8ea-da2e-4c20-b6c6-03d212f59b1e</stp>
-        <tr r="G3" s="2"/>
+        <stp>117dfa83-fb40-451f-b4ce-19450af8980f</stp>
+        <tr r="P3" s="3"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4142dde6-abf7-49a2-9c1f-619398a9bbde</stp>
+        <stp>c4141574-6e34-49aa-afb9-a0c8b66e9aa8</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>07018fda-f42d-4924-88fd-0c3fe6d32c20</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>45b049cc-381f-4a3a-8f99-864a64fef76a</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>62f01566-90e1-432a-9811-86ae39d6a0cd</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c2e5200f-3988-44ac-81e0-786f59fdaf78</stp>
         <tr r="L3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0d3ed615-9adc-419b-8360-e6bb2f3fe25d</stp>
+        <stp>69fad1fa-81ea-4a5d-9fdf-1a72db405cb4</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5d28d378-765c-4368-82f5-63cb2bccf857</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ca99c3ab-e755-4184-b2e4-be4d0ca555e4</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b3beaffb-45ee-4a4e-aedd-ab15d296ee26</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7fb853e3-4c97-43bd-a245-cc654a37df7f</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>106a081b-3e04-4895-b9f6-ed625a1c881e</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>995ac864-1568-4c01-b40a-4f45f5698629</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>86cae6aa-055f-4191-b4c9-1e845ca1b0a2</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b2656635-84bb-46e2-b770-601a0e2b873f</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4f80d906-1683-4070-a933-e136855cc3b0</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f9d0fc86-676b-4166-adb0-d31f4cd55216</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>43dd4469-03cf-4f7e-b62e-99e51b0adaf3</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a201429d-1c7d-4a2e-9f96-cbe79345edde</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>abd26d6c-4c53-4d0f-894d-596cfb9a8e26</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5b6ca56c-ccc0-413d-8be2-c89ca296ea2c</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>198fbfd3-352b-4b30-a456-44805c2a8c66</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6d7726cb-6ae5-4500-a5ef-ae3c212168b3</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5bb8636c-39e0-4830-a994-95158d4d0935</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bf6c4d73-4f47-4a5e-b30e-f1aa069f5f03</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a3be8484-af44-4215-99be-3e21cceb9615</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0fa70c31-409e-42d4-99cf-531d4f12d25e</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f582a2c3-e5c1-46ea-8040-f28963dde6cc</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b4e04c6b-b107-4421-8568-81b59b5a5a4f</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>99d16b28-eee2-452f-bb52-b9609c35b709</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d165349d-2067-4ca0-b849-0ab77ae685b5</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0bb961c1-4843-4b1f-a372-cf91d7928a5b</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4666caf6-ff5f-44e5-bf35-ff5e64119c6a</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6ab73698-2f9a-4ab4-8b4e-5c6c26e824ce</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8c180712-a791-4218-9684-084b1040a9b4</stp>
         <tr r="N3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>68b5e1d3-8ef1-49e3-9064-3316ea139867</stp>
-        <tr r="A3" s="2"/>
+        <stp>af26c84e-ced8-420c-8dd3-8c8440c8fb09</stp>
+        <tr r="F3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>14f9462d-66cd-4de4-b683-1e385607942f</stp>
-        <tr r="E3" s="1"/>
+        <stp>e32a1524-5426-41c9-a213-d10529935850</stp>
+        <tr r="C3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7461b241-19f1-4608-80a3-c7a55b2a5d94</stp>
-        <tr r="H3" s="2"/>
+        <stp>26ed8e62-f3d1-4baa-bcb6-e93ec6c8120e</stp>
+        <tr r="H3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>310a0412-ba18-4a84-970c-8bc0380fea0c</stp>
-        <tr r="M3" s="3"/>
+        <stp>ca5d668d-7690-428d-a714-32d0090066fa</stp>
+        <tr r="D3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>9bf15ca6-f7e1-47c8-b856-46734b4b0fe9</stp>
-        <tr r="N3" s="1"/>
+        <stp>49f4a8bc-d746-42de-b58f-42db4e836aac</stp>
+        <tr r="G3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ed6efaf1-8a6f-4860-8f12-801aaf593073</stp>
-        <tr r="J3" s="1"/>
+        <stp>f2bdb4b0-903b-40b4-9323-05445ceaeaa5</stp>
+        <tr r="G3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a8421cb6-f6ca-4b44-adf8-e633771135b1</stp>
-        <tr r="K3" s="1"/>
+        <stp>bc39af1e-138a-476e-b501-7d94c925507b</stp>
+        <tr r="A3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
+    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2d99840d-4c20-46f7-af59-31fb59e0a56a</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2a5ed0f9-0d40-4508-b4b3-e5d5613cad2a</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c504ab68-22cc-4a1a-9e9e-43fd1b35083b</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>24d1064f-3183-4e02-98aa-0bd05c00c764</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>faadc108-63c9-48cc-bfcb-ac4882332b8a</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>10febaa6-c451-47d2-b2e1-5a910cf9b1c8</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1c329487-a772-4d56-93a5-3bfe734f1f24</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8c366c69-450c-47bf-ab49-68871179b8e6</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9e57add8-63cc-4a86-8cb8-35913395c208</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>25ceffb1-c00d-429f-aff6-434baff575d3</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2daeb4c2-1e62-43a8-b47e-859c88d713d8</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>86def480-2688-493a-b33c-b2037fcebf35</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1f5c56d7-f841-4a36-b53b-be0e34327383</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0360dbba-36dd-4077-b37e-ef3ce156adc1</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e10ea1c0-2319-4037-9fe8-80d3a82e19b8</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c2354d72-2ef4-4646-8c4e-0367930824a6</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4f93aadd-4e89-4755-9ab0-6c780c884728</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>268e4be1-7faa-444a-8530-0012d7b83e9e</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>990af41f-2a82-4420-a754-4f2acad0d16b</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e098a992-0b58-4c06-93bb-ece4976d57ec</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6d4759a7-b7a6-4f0c-aadc-8c20fb4b071d</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>99dbd3cf-149e-4611-ae7e-a364554f455c</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0e5e1c51-805d-4745-916c-c5ba668ca104</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d57ea6f0-10d3-451d-a077-6b1910e7f9fd</stp>
+        <stp>9be155fc-0ed3-4bd9-bada-7ef7b23f7ad2</stp>
         <tr r="I3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c2b039e4-07ee-48cc-bd14-0afe1d486f4f</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5a8af6aa-54ef-4f66-98fc-09756b18fbd2</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0c354447-d848-42dd-a8d9-ce4dbb76e014</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2a9d6b8d-4b6f-4810-941a-de9d31041f67</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3a674852-2c79-4532-8bb7-6a4dfe8c59d5</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cb1bb770-9825-4cf5-88ed-58ff166e10cb</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a2da8ab5-35cd-49fa-9e00-bc34527acc2b</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8a6dfa5c-f869-4dde-b842-91b4632116ea</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9ea8af1affce409882ee28d15247484b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fb6526d8-739c-4844-b95a-7b0b0ab42b90</stp>
-        <tr r="F3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -897,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O324"/>
+  <dimension ref="A1:O329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324"/>
+    <sheetView topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15459,7 +15427,227 @@
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A324" s="1"/>
+      <c r="A324" s="1">
+        <v>45860</v>
+      </c>
+      <c r="C324">
+        <v>10.1327</v>
+      </c>
+      <c r="D324">
+        <v>8.85</v>
+      </c>
+      <c r="E324">
+        <v>8.2972000000000001</v>
+      </c>
+      <c r="F324">
+        <v>7.9393000000000002</v>
+      </c>
+      <c r="G324">
+        <v>7.8352000000000004</v>
+      </c>
+      <c r="H324">
+        <v>7.7370000000000001</v>
+      </c>
+      <c r="I324">
+        <v>7.6348000000000003</v>
+      </c>
+      <c r="J324">
+        <v>7.5068000000000001</v>
+      </c>
+      <c r="K324">
+        <v>7.3522999999999996</v>
+      </c>
+      <c r="L324">
+        <v>7.3548999999999998</v>
+      </c>
+      <c r="M324">
+        <v>7.2409999999999997</v>
+      </c>
+      <c r="N324">
+        <v>7.2115999999999998</v>
+      </c>
+      <c r="O324">
+        <v>7.2275999999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>45861</v>
+      </c>
+      <c r="C325">
+        <v>10.1333</v>
+      </c>
+      <c r="D325">
+        <v>8.8606999999999996</v>
+      </c>
+      <c r="E325">
+        <v>8.3226999999999993</v>
+      </c>
+      <c r="F325">
+        <v>7.9861000000000004</v>
+      </c>
+      <c r="G325">
+        <v>7.8817000000000004</v>
+      </c>
+      <c r="H325">
+        <v>7.7625000000000002</v>
+      </c>
+      <c r="I325">
+        <v>7.6340000000000003</v>
+      </c>
+      <c r="J325">
+        <v>7.4917999999999996</v>
+      </c>
+      <c r="K325">
+        <v>7.3398000000000003</v>
+      </c>
+      <c r="L325">
+        <v>7.3372999999999999</v>
+      </c>
+      <c r="M325">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="N325">
+        <v>7.1890999999999998</v>
+      </c>
+      <c r="O325">
+        <v>7.1965000000000003</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C326">
+        <v>10.167999999999999</v>
+      </c>
+      <c r="D326">
+        <v>8.8371999999999993</v>
+      </c>
+      <c r="E326">
+        <v>8.2924000000000007</v>
+      </c>
+      <c r="F326">
+        <v>7.9730999999999996</v>
+      </c>
+      <c r="G326">
+        <v>7.8758999999999997</v>
+      </c>
+      <c r="H326">
+        <v>7.7343999999999999</v>
+      </c>
+      <c r="I326">
+        <v>7.6087999999999996</v>
+      </c>
+      <c r="J326">
+        <v>7.4817999999999998</v>
+      </c>
+      <c r="K326">
+        <v>7.3353999999999999</v>
+      </c>
+      <c r="L326">
+        <v>7.3308999999999997</v>
+      </c>
+      <c r="M326">
+        <v>7.2168999999999999</v>
+      </c>
+      <c r="N326">
+        <v>7.1887999999999996</v>
+      </c>
+      <c r="O326">
+        <v>7.1989000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C327">
+        <v>10.1157</v>
+      </c>
+      <c r="D327">
+        <v>8.7850000000000001</v>
+      </c>
+      <c r="E327">
+        <v>8.2563999999999993</v>
+      </c>
+      <c r="F327">
+        <v>7.9633000000000003</v>
+      </c>
+      <c r="G327">
+        <v>7.89</v>
+      </c>
+      <c r="H327">
+        <v>7.7603999999999997</v>
+      </c>
+      <c r="I327">
+        <v>7.6348000000000003</v>
+      </c>
+      <c r="J327">
+        <v>7.5176999999999996</v>
+      </c>
+      <c r="K327">
+        <v>7.3700999999999999</v>
+      </c>
+      <c r="L327">
+        <v>7.3548</v>
+      </c>
+      <c r="M327">
+        <v>7.2491000000000003</v>
+      </c>
+      <c r="N327">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="O327">
+        <v>7.2237999999999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>45866</v>
+      </c>
+      <c r="C328">
+        <v>10.1433</v>
+      </c>
+      <c r="D328">
+        <v>8.76</v>
+      </c>
+      <c r="E328">
+        <v>8.2440999999999995</v>
+      </c>
+      <c r="F328">
+        <v>7.9629000000000003</v>
+      </c>
+      <c r="G328">
+        <v>7.8787000000000003</v>
+      </c>
+      <c r="H328">
+        <v>7.7641999999999998</v>
+      </c>
+      <c r="I328">
+        <v>7.64</v>
+      </c>
+      <c r="J328">
+        <v>7.5294999999999996</v>
+      </c>
+      <c r="K328">
+        <v>7.3632</v>
+      </c>
+      <c r="L328">
+        <v>7.3583999999999996</v>
+      </c>
+      <c r="M328">
+        <v>7.2478999999999996</v>
+      </c>
+      <c r="N328">
+        <v>7.2064000000000004</v>
+      </c>
+      <c r="O328">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A329" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15468,10 +15656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O324"/>
+  <dimension ref="A1:O329"/>
   <sheetViews>
-    <sheetView topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324"/>
+    <sheetView topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30030,7 +30218,227 @@
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A324" s="1"/>
+      <c r="A324" s="1">
+        <v>45860</v>
+      </c>
+      <c r="C324">
+        <v>4467.9853789999997</v>
+      </c>
+      <c r="D324">
+        <v>4379.3129140000001</v>
+      </c>
+      <c r="E324">
+        <v>4383.4331039999997</v>
+      </c>
+      <c r="F324">
+        <v>4313.7207630000003</v>
+      </c>
+      <c r="G324">
+        <v>4325.097745</v>
+      </c>
+      <c r="H324">
+        <v>4246.5285830000003</v>
+      </c>
+      <c r="I324">
+        <v>4173.1719819999998</v>
+      </c>
+      <c r="J324">
+        <v>4138.4744549999996</v>
+      </c>
+      <c r="K324">
+        <v>4123.3262990000003</v>
+      </c>
+      <c r="L324">
+        <v>3978.0182220000002</v>
+      </c>
+      <c r="M324">
+        <v>4034.6493009999999</v>
+      </c>
+      <c r="N324">
+        <v>3945.6640819999998</v>
+      </c>
+      <c r="O324">
+        <v>3975.896937</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>45861</v>
+      </c>
+      <c r="C325">
+        <v>4470.3505610000002</v>
+      </c>
+      <c r="D325">
+        <v>4380.7171539999999</v>
+      </c>
+      <c r="E325">
+        <v>4382.6438280000002</v>
+      </c>
+      <c r="F325">
+        <v>4309.3440840000003</v>
+      </c>
+      <c r="G325">
+        <v>4319.0817209999996</v>
+      </c>
+      <c r="H325">
+        <v>4242.780898</v>
+      </c>
+      <c r="I325">
+        <v>4175.2158410000002</v>
+      </c>
+      <c r="J325">
+        <v>4144.5159910000002</v>
+      </c>
+      <c r="K325">
+        <v>4129.6828690000002</v>
+      </c>
+      <c r="L325">
+        <v>3987.0001940000002</v>
+      </c>
+      <c r="M325">
+        <v>4047.3164230000002</v>
+      </c>
+      <c r="N325">
+        <v>3958.1454180000001</v>
+      </c>
+      <c r="O325">
+        <v>3992.9570159999998</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>45862</v>
+      </c>
+      <c r="C326">
+        <v>4471.3062719999998</v>
+      </c>
+      <c r="D326">
+        <v>4384.4794199999997</v>
+      </c>
+      <c r="E326">
+        <v>4388.0749130000004</v>
+      </c>
+      <c r="F326">
+        <v>4313.0683019999997</v>
+      </c>
+      <c r="G326">
+        <v>4322.0320979999997</v>
+      </c>
+      <c r="H326">
+        <v>4250.9066240000002</v>
+      </c>
+      <c r="I326">
+        <v>4183.1136690000003</v>
+      </c>
+      <c r="J326">
+        <v>4149.1582500000004</v>
+      </c>
+      <c r="K326">
+        <v>4133.0805460000001</v>
+      </c>
+      <c r="L326">
+        <v>3991.3736840000001</v>
+      </c>
+      <c r="M326">
+        <v>4049.0965379999998</v>
+      </c>
+      <c r="N326">
+        <v>3959.979996</v>
+      </c>
+      <c r="O326">
+        <v>3993.4774779999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C327">
+        <v>4475.862744</v>
+      </c>
+      <c r="D327">
+        <v>4390.2153349999999</v>
+      </c>
+      <c r="E327">
+        <v>4394.1424100000004</v>
+      </c>
+      <c r="F327">
+        <v>4316.3627539999998</v>
+      </c>
+      <c r="G327">
+        <v>4321.5776910000004</v>
+      </c>
+      <c r="H327">
+        <v>4247.0539710000003</v>
+      </c>
+      <c r="I327">
+        <v>4178.7292230000003</v>
+      </c>
+      <c r="J327">
+        <v>4140.8597090000003</v>
+      </c>
+      <c r="K327">
+        <v>4122.1993030000003</v>
+      </c>
+      <c r="L327">
+        <v>3983.2370970000002</v>
+      </c>
+      <c r="M327">
+        <v>4036.1664430000001</v>
+      </c>
+      <c r="N327">
+        <v>3951.0269229999999</v>
+      </c>
+      <c r="O327">
+        <v>3982.8879229999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>45866</v>
+      </c>
+      <c r="C328">
+        <v>4477.2932899999996</v>
+      </c>
+      <c r="D328">
+        <v>4394.2420309999998</v>
+      </c>
+      <c r="E328">
+        <v>4397.7344389999998</v>
+      </c>
+      <c r="F328">
+        <v>4318.5565770000003</v>
+      </c>
+      <c r="G328">
+        <v>4325.6366390000003</v>
+      </c>
+      <c r="H328">
+        <v>4248.2866219999996</v>
+      </c>
+      <c r="I328">
+        <v>4179.5043420000002</v>
+      </c>
+      <c r="J328">
+        <v>4139.523083</v>
+      </c>
+      <c r="K328">
+        <v>4126.6646739999996</v>
+      </c>
+      <c r="L328">
+        <v>3983.639259</v>
+      </c>
+      <c r="M328">
+        <v>4038.6061199999999</v>
+      </c>
+      <c r="N328">
+        <v>3955.0740890000002</v>
+      </c>
+      <c r="O328">
+        <v>3986.6236800000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A329" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -30039,10 +30447,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z324"/>
+  <dimension ref="A1:Z329"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44011,7 +44419,257 @@
       </c>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A324" s="1"/>
+      <c r="A324" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B324">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C324">
+        <v>-8.2000000000000007E-3</v>
+      </c>
+      <c r="D324">
+        <v>-6.4000000000000003E-3</v>
+      </c>
+      <c r="E324">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="F324">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="G324">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="H324">
+        <v>6.83E-2</v>
+      </c>
+      <c r="I324">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J324">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="K324">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L324">
+        <v>0.1167</v>
+      </c>
+      <c r="M324">
+        <v>0.1162</v>
+      </c>
+      <c r="N324">
+        <v>0.106</v>
+      </c>
+      <c r="O324">
+        <v>0.1041</v>
+      </c>
+      <c r="P324">
+        <v>0.1053</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B325">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="C325">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="D325">
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="E325">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="F325">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G325">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="H325">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="I325">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="J325">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="K325">
+        <v>0.1147</v>
+      </c>
+      <c r="L325">
+        <v>0.1152</v>
+      </c>
+      <c r="M325">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="N325">
+        <v>0.1065</v>
+      </c>
+      <c r="O325">
+        <v>0.1055</v>
+      </c>
+      <c r="P325">
+        <v>0.1057</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B326">
+        <v>1.26E-2</v>
+      </c>
+      <c r="C326">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="D326">
+        <v>-7.6E-3</v>
+      </c>
+      <c r="E326">
+        <v>2.92E-2</v>
+      </c>
+      <c r="F326">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="G326">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="H326">
+        <v>6.83E-2</v>
+      </c>
+      <c r="I326">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="J326">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="K326">
+        <v>0.1144</v>
+      </c>
+      <c r="L326">
+        <v>0.1147</v>
+      </c>
+      <c r="M326">
+        <v>0.1152</v>
+      </c>
+      <c r="N326">
+        <v>0.1065</v>
+      </c>
+      <c r="O326">
+        <v>0.106</v>
+      </c>
+      <c r="P326">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B327">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="C327">
+        <v>-9.7000000000000003E-3</v>
+      </c>
+      <c r="D327">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="E327">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F327">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="G327">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="H327">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="I327">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J327">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="K327">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="L327">
+        <v>0.1143</v>
+      </c>
+      <c r="M327">
+        <v>0.1149</v>
+      </c>
+      <c r="N327">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="O327">
+        <v>0.1062</v>
+      </c>
+      <c r="P327">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B328">
+        <v>1.34E-2</v>
+      </c>
+      <c r="C328">
+        <v>-0.01</v>
+      </c>
+      <c r="D328">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+      <c r="E328">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F328">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="G328">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="H328">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="I328">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="J328">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="K328">
+        <v>0.114</v>
+      </c>
+      <c r="L328">
+        <v>0.114</v>
+      </c>
+      <c r="M328">
+        <v>0.1149</v>
+      </c>
+      <c r="N328">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="O328">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="P328">
+        <v>0.10630000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A329" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E52965-EC51-4AAB-84BC-A70B8BD9CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77904B97-CB26-4E33-A7DA-0F3BE1DCA542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4000" yWindow="4740" windowWidth="17280" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID007ea307c4e74e529e4d50a08ff2e4b2" localSheetId="1" hidden="1">Planilha1!$J$4:$J$329</definedName>
-    <definedName name="_ECO_RANGE_ID00f42fd67aa144849fd851a34991ab4b" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID04d65b0ab56e4fd4affcee8cf6d04cb9" localSheetId="2" hidden="1">Planilha2!$J$4:$J$329</definedName>
-    <definedName name="_ECO_RANGE_ID059f61ac57e44393be319fef10408e1b" localSheetId="2" hidden="1">Planilha2!$M$4:$M$329</definedName>
-    <definedName name="_ECO_RANGE_ID0603b5c9f04f4ce2bb165baf8aae0cd5" localSheetId="2" hidden="1">Planilha2!$F$4:$F$329</definedName>
-    <definedName name="_ECO_RANGE_ID097142d2873943e1b6c55dd98698f633" localSheetId="1" hidden="1">Planilha1!$G$4:$G$329</definedName>
-    <definedName name="_ECO_RANGE_ID12dae1b4df1f47b6b6b10bebb3403fd7" localSheetId="2" hidden="1">Planilha2!$C$4:$C$329</definedName>
-    <definedName name="_ECO_RANGE_ID134212b5fcf2409c9e3d361b723adc52" localSheetId="1" hidden="1">Planilha1!$D$4:$D$329</definedName>
-    <definedName name="_ECO_RANGE_ID156a3b3f5dd843728b944a1362b58d4b" localSheetId="0" hidden="1">Plan1!$O$4:$O$329</definedName>
-    <definedName name="_ECO_RANGE_ID178073675b504d6eaff65051d2d722e2" localSheetId="0" hidden="1">Plan1!$I$4:$I$329</definedName>
-    <definedName name="_ECO_RANGE_ID1abb4011b5c44f8b9c727eda27cbd6d4" localSheetId="2" hidden="1">Planilha2!$N$4:$N$329</definedName>
-    <definedName name="_ECO_RANGE_ID275bebb867ff471d912e3d40f4ca8128" localSheetId="0" hidden="1">Plan1!$H$4:$H$329</definedName>
-    <definedName name="_ECO_RANGE_ID28e5eb2dd84047dbb7f6ddb05e632911" localSheetId="2" hidden="1">Planilha2!$D$4:$D$329</definedName>
-    <definedName name="_ECO_RANGE_ID3cf018cbf91f4e7baa0d832340b4c7cc" localSheetId="1" hidden="1">Planilha1!$N$4:$N$329</definedName>
-    <definedName name="_ECO_RANGE_ID3d0557e0b9cc413dbc023de6954cdffb" localSheetId="0" hidden="1">Plan1!$N$4:$N$329</definedName>
-    <definedName name="_ECO_RANGE_ID504a2c1b8fcd4299902ef9102245a525" localSheetId="2" hidden="1">Planilha2!$L$4:$L$329</definedName>
-    <definedName name="_ECO_RANGE_ID51610a0ae5ca4c76a20eca51fd520ed3" localSheetId="0" hidden="1">Plan1!$E$4:$E$329</definedName>
-    <definedName name="_ECO_RANGE_ID53f8298f34cb4ec1972f17cc01a5d539" localSheetId="0" hidden="1">Plan1!$L$4:$L$329</definedName>
-    <definedName name="_ECO_RANGE_ID5cc2149502d54a11aa579843cb146529" localSheetId="0" hidden="1">Plan1!$A$4:$B$329</definedName>
-    <definedName name="_ECO_RANGE_ID60e836d516f74e6296ead5fb918f0719" localSheetId="1" hidden="1">Planilha1!$E$4:$E$329</definedName>
-    <definedName name="_ECO_RANGE_ID62591b078bac4b9a87aa78b8d7183e7c" localSheetId="1" hidden="1">Planilha1!$M$4:$M$329</definedName>
-    <definedName name="_ECO_RANGE_ID6281be7ea357487092eeef46c4ae745c" localSheetId="1" hidden="1">Planilha1!$H$4:$H$329</definedName>
-    <definedName name="_ECO_RANGE_ID63c2f3d52e5047c2a0630f069f214faf" localSheetId="0" hidden="1">Plan1!$G$4:$G$329</definedName>
-    <definedName name="_ECO_RANGE_ID7b0fb99459dd44fd9bb6aa0d9a9ec89c" localSheetId="2" hidden="1">Planilha2!$E$4:$E$329</definedName>
-    <definedName name="_ECO_RANGE_ID7d07d7f84aef4295b17095cd7a9d937c" localSheetId="2" hidden="1">Planilha2!$I$4:$I$329</definedName>
-    <definedName name="_ECO_RANGE_ID7e22a716f57f4c7ba1d801ff41242da1" localSheetId="1" hidden="1">Planilha1!$K$4:$K$329</definedName>
-    <definedName name="_ECO_RANGE_ID87f8aa6e021e46cdac51f4c2c1feb6c9" localSheetId="1" hidden="1">Planilha1!$O$4:$O$329</definedName>
-    <definedName name="_ECO_RANGE_ID8826bc3494024f29bcb73d8f2786d413" localSheetId="0" hidden="1">Plan1!$J$4:$J$329</definedName>
-    <definedName name="_ECO_RANGE_ID8ff8148dba2848c2b3d4919f5ed9c854" localSheetId="0" hidden="1">Plan1!$K$4:$K$329</definedName>
-    <definedName name="_ECO_RANGE_ID983b034589d844beae01a50d514bc137" localSheetId="2" hidden="1">Planilha2!$O$4:$O$329</definedName>
-    <definedName name="_ECO_RANGE_IDa423a39172b74aa8a32c6a89ad0c949b" localSheetId="2" hidden="1">Planilha2!$K$4:$K$329</definedName>
-    <definedName name="_ECO_RANGE_IDba3234f7cf20451b815904fe55ac32ab" localSheetId="0" hidden="1">Plan1!$C$4:$C$329</definedName>
-    <definedName name="_ECO_RANGE_IDc252ef23264b4766975ad8cc238894ff" localSheetId="1" hidden="1">Planilha1!$A$4:$B$329</definedName>
-    <definedName name="_ECO_RANGE_IDc2572b6cac8f400e95eeb6b35487f9c3" localSheetId="2" hidden="1">Planilha2!$A$4:$B$329</definedName>
-    <definedName name="_ECO_RANGE_IDc33e73cec8f14a45987902f4e5e30919" localSheetId="0" hidden="1">Plan1!$F$4:$F$329</definedName>
-    <definedName name="_ECO_RANGE_IDc883ff635be040d48bf5eb598b6b55e9" localSheetId="0" hidden="1">Plan1!$D$4:$D$329</definedName>
-    <definedName name="_ECO_RANGE_IDd1b2c46778c044ee92ea5c0636e8235a" localSheetId="2" hidden="1">Planilha2!$P$4:$P$329</definedName>
-    <definedName name="_ECO_RANGE_IDd40159ce9bc84a46999b6ded5aa3febb" localSheetId="1" hidden="1">Planilha1!$C$4:$C$329</definedName>
-    <definedName name="_ECO_RANGE_IDd7d5583ef5e5490fa09cbb163b60fdd4" localSheetId="1" hidden="1">Planilha1!$F$4:$F$329</definedName>
-    <definedName name="_ECO_RANGE_IDdd9ee241df674ac6bda25ea9528f7e19" localSheetId="0" hidden="1">Plan1!$M$4:$M$329</definedName>
-    <definedName name="_ECO_RANGE_IDe94eb26bf3524326b47b49a5e8d4d085" localSheetId="2" hidden="1">Planilha2!$H$4:$H$329</definedName>
-    <definedName name="_ECO_RANGE_IDef1006e19cf041a5aa8a253ee3ecfcdc" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDf4173108497642cb85bf1b16142eefd9" localSheetId="1" hidden="1">Planilha1!$L$4:$L$329</definedName>
-    <definedName name="_ECO_RANGE_IDf64706f47ee04c6594bf80eb245f1a5d" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDfe13b2d359624b338760a8c50c4e061b" localSheetId="1" hidden="1">Planilha1!$I$4:$I$329</definedName>
-    <definedName name="_ECO_RANGE_IDffddfd9d1b8346eb94681b46994769f2" localSheetId="2" hidden="1">Planilha2!$G$4:$G$329</definedName>
+    <definedName name="_ECO_RANGE_ID01aa9cf9840c4c5a9a41787a73f0eff5" localSheetId="0" hidden="1">Plan1!$M$4:$M$338</definedName>
+    <definedName name="_ECO_RANGE_ID0a4c4cda86f14f04a055587d3d1a7900" localSheetId="2" hidden="1">Planilha2!$P$4:$P$338</definedName>
+    <definedName name="_ECO_RANGE_ID0e0e872398c4468aa059460a886286d7" localSheetId="0" hidden="1">Plan1!$G$4:$G$338</definedName>
+    <definedName name="_ECO_RANGE_ID11852116ada74fc6abfa6fcde8862d7a" localSheetId="1" hidden="1">Planilha1!$J$4:$J$338</definedName>
+    <definedName name="_ECO_RANGE_ID19b34a36bb944678bf4fb8cf28cf0feb" localSheetId="0" hidden="1">Plan1!$F$4:$F$338</definedName>
+    <definedName name="_ECO_RANGE_ID2172397054ec4fc0a7fc768aa579ee71" localSheetId="1" hidden="1">Planilha1!$H$4:$H$338</definedName>
+    <definedName name="_ECO_RANGE_ID24d478f97531422cbe7b068048327f7d" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID374e969b545e41d9a0e80a6295071b16" localSheetId="2" hidden="1">Planilha2!$D$4:$D$338</definedName>
+    <definedName name="_ECO_RANGE_ID384edb98537e43d08e86bc2684541553" localSheetId="2" hidden="1">Planilha2!$G$4:$G$338</definedName>
+    <definedName name="_ECO_RANGE_ID4985e774b428416f83967c945646c362" localSheetId="2" hidden="1">Planilha2!$I$4:$I$338</definedName>
+    <definedName name="_ECO_RANGE_ID4bfb4911e9c149f2bfdacea805791d41" localSheetId="1" hidden="1">Planilha1!$L$4:$L$338</definedName>
+    <definedName name="_ECO_RANGE_ID4de44905d0e3427883f9ff936e39de40" localSheetId="1" hidden="1">Planilha1!$O$4:$O$338</definedName>
+    <definedName name="_ECO_RANGE_ID4e3b5a410d8d4727a527458d172fa1bc" localSheetId="1" hidden="1">Planilha1!$K$4:$K$338</definedName>
+    <definedName name="_ECO_RANGE_ID54be36110e6340a3af2668c8751c43ca" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID619eb94e5b274ede89244a629e4baa2c" localSheetId="2" hidden="1">Planilha2!$E$4:$E$338</definedName>
+    <definedName name="_ECO_RANGE_ID658e07e737aa4022bf4b72c221a41dbf" localSheetId="0" hidden="1">Plan1!$I$4:$I$338</definedName>
+    <definedName name="_ECO_RANGE_ID69c771eee6544a089529d0429bdf4394" localSheetId="1" hidden="1">Planilha1!$M$4:$M$338</definedName>
+    <definedName name="_ECO_RANGE_ID6b85716bd07547ffb7d85d2cc055fbe9" localSheetId="0" hidden="1">Plan1!$A$4:$B$338</definedName>
+    <definedName name="_ECO_RANGE_ID6b9ecd5c80594c1ba27ec1f04b522346" localSheetId="2" hidden="1">Planilha2!$H$4:$H$338</definedName>
+    <definedName name="_ECO_RANGE_ID6cc66b84357f4689968588f7b20f28cc" localSheetId="1" hidden="1">Planilha1!$N$4:$N$338</definedName>
+    <definedName name="_ECO_RANGE_ID70b7dacaaab94be8a7ea7abca092392d" localSheetId="2" hidden="1">Planilha2!$L$4:$L$338</definedName>
+    <definedName name="_ECO_RANGE_ID73778649b5974c36905749bb938549d5" localSheetId="0" hidden="1">Plan1!$E$4:$E$338</definedName>
+    <definedName name="_ECO_RANGE_ID76044412b345497593e3f063fa037ced" localSheetId="0" hidden="1">Plan1!$C$4:$C$338</definedName>
+    <definedName name="_ECO_RANGE_ID7604ecf2fbe34faf95f2a8a7e7f12475" localSheetId="0" hidden="1">Plan1!$D$4:$D$338</definedName>
+    <definedName name="_ECO_RANGE_ID76af06903f7947d18c21031c188eca0d" localSheetId="1" hidden="1">Planilha1!$F$4:$F$338</definedName>
+    <definedName name="_ECO_RANGE_ID994db0e0d4d54984a033fca36c6f3bdc" localSheetId="0" hidden="1">Plan1!$L$4:$L$338</definedName>
+    <definedName name="_ECO_RANGE_ID99c2474094814471b9fc30b5a51cc54a" localSheetId="2" hidden="1">Planilha2!$J$4:$J$338</definedName>
+    <definedName name="_ECO_RANGE_ID99e1691f005f40f5b28bc75080fd680c" localSheetId="2" hidden="1">Planilha2!$M$4:$M$338</definedName>
+    <definedName name="_ECO_RANGE_ID9e0b33dcdba44e35ad071d554255f618" localSheetId="1" hidden="1">Planilha1!$D$4:$D$338</definedName>
+    <definedName name="_ECO_RANGE_ID9f3aa851384b42658fa31054b3ff089b" localSheetId="2" hidden="1">Planilha2!$N$4:$N$338</definedName>
+    <definedName name="_ECO_RANGE_IDba35b409d4ad4c6091ee432e60dc5dfc" localSheetId="0" hidden="1">Plan1!$H$4:$H$338</definedName>
+    <definedName name="_ECO_RANGE_IDbb2ff36e45f24a1ea73d4c95e31ba599" localSheetId="2" hidden="1">Planilha2!$C$4:$C$338</definedName>
+    <definedName name="_ECO_RANGE_IDc9a538a715f045d9bb887fafd2e9ef7f" localSheetId="2" hidden="1">Planilha2!$F$4:$F$338</definedName>
+    <definedName name="_ECO_RANGE_IDcad6cf61f85b41ff9885975e449c7d01" localSheetId="0" hidden="1">Plan1!$O$4:$O$338</definedName>
+    <definedName name="_ECO_RANGE_IDcb60307e844b449583bfca29da185288" localSheetId="0" hidden="1">Plan1!$N$4:$N$338</definedName>
+    <definedName name="_ECO_RANGE_IDccca23ffbc22467a90159ca5c359f978" localSheetId="2" hidden="1">Planilha2!$O$4:$O$338</definedName>
+    <definedName name="_ECO_RANGE_IDd012d72a96c343eaa9a9e86fd415de35" localSheetId="2" hidden="1">Planilha2!$K$4:$K$338</definedName>
+    <definedName name="_ECO_RANGE_IDd35c74f00c514df9b991e91e935fabc7" localSheetId="1" hidden="1">Planilha1!$A$4:$B$338</definedName>
+    <definedName name="_ECO_RANGE_IDe4309f74dfc249b18a97fbbfbceeb306" localSheetId="1" hidden="1">Planilha1!$E$4:$E$338</definedName>
+    <definedName name="_ECO_RANGE_IDe8df8af6ca7246078b1efd77b2818b11" localSheetId="0" hidden="1">Plan1!$K$4:$K$338</definedName>
+    <definedName name="_ECO_RANGE_IDe9f1437c288a455fa8a23e72280dc15b" localSheetId="0" hidden="1">Plan1!$J$4:$J$338</definedName>
+    <definedName name="_ECO_RANGE_IDef954b921afa47098a2fc8d4da8c6d57" localSheetId="1" hidden="1">Planilha1!$G$4:$G$338</definedName>
+    <definedName name="_ECO_RANGE_IDf131bf524ba940749f00b87ecf2c4aff" localSheetId="1" hidden="1">Planilha1!$I$4:$I$338</definedName>
+    <definedName name="_ECO_RANGE_IDf1ecf432fb874c5a8e2fb2f34aa3ff88" localSheetId="1" hidden="1">Planilha1!$C$4:$C$338</definedName>
+    <definedName name="_ECO_RANGE_IDf55ce5a6037f4d588b0a3cdbf75f5862" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDfe6c53f2fd934fb680934386d6a01a81" localSheetId="2" hidden="1">Planilha2!$A$4:$B$338</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,316 +286,304 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>117dfa83-fb40-451f-b4ce-19450af8980f</stp>
-        <tr r="P3" s="3"/>
+        <stp>6d7b4646-05b3-4bb0-9438-6c9da7921050</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f22c0d6e-684b-4587-ae22-c15be553ae79</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a4f0d29f-c247-482e-bff3-a29853cede48</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>734fe016-7d26-419e-98e9-0130925ca56b</stp>
+        <tr r="G3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c4141574-6e34-49aa-afb9-a0c8b66e9aa8</stp>
+        <stp>1dff511e-9602-4820-a9c2-a6aa8938e17b</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3ef4e651-38b1-4035-9701-ba7b401625a3</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8ab15a84-f244-459f-bfee-ccd4771fb174</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7e7c3f86-d73c-451e-959b-27b90460e7ef</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0ae5c2fe-d754-4148-bc71-83cb1af23d9e</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1478873e-738e-49cb-a7f9-3a954eaf89dd</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>90dae252-42d6-4c68-8210-d8777394b835</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>96c669b2-154a-4834-a55b-34a0a77c16ff</stp>
         <tr r="A3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>07018fda-f42d-4924-88fd-0c3fe6d32c20</stp>
-        <tr r="I3" s="2"/>
+        <stp>e4d705dc-19b8-4f59-90b1-86d92d1e931a</stp>
+        <tr r="E3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>45b049cc-381f-4a3a-8f99-864a64fef76a</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>62f01566-90e1-432a-9811-86ae39d6a0cd</stp>
-        <tr r="G3" s="2"/>
+        <stp>7f96acde-f29b-442b-b374-55d4de963106</stp>
+        <tr r="J3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c2e5200f-3988-44ac-81e0-786f59fdaf78</stp>
-        <tr r="L3" s="2"/>
+        <stp>d1c291b5-9050-4a96-9aab-2b03cb6c19b8</stp>
+        <tr r="N3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>69fad1fa-81ea-4a5d-9fdf-1a72db405cb4</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5d28d378-765c-4368-82f5-63cb2bccf857</stp>
-        <tr r="N3" s="3"/>
+        <stp>a2b52637-2f18-4938-81ac-cc04bcf6188c</stp>
+        <tr r="H3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ca99c3ab-e755-4184-b2e4-be4d0ca555e4</stp>
-        <tr r="L3" s="1"/>
+        <stp>4acc55c3-393b-48c5-ab8b-c3fcc7bb58ec</stp>
+        <tr r="O3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b3beaffb-45ee-4a4e-aedd-ab15d296ee26</stp>
+        <stp>49ebe6d0-eed2-43f3-b3b3-91c9ddfbc838</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>51cb9036-b141-4d11-987e-97b4f5a291ef</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8dbd54c2-bcdb-4dac-9fa6-5646667ebdcd</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>95034631-42a8-4f0f-b037-a1f4b156462a</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>71a8e060-bb7a-4b01-a488-ac640b022878</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a3ce80b4-df66-434b-b1fd-048034d981b7</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fd3e4b8e-d092-4f67-976d-e37df23f10e4</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5861ad91-e1c9-412b-bf8d-c9ad618159f7</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b1e00f74-c570-4fb1-aa62-7cde85b8b789</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3b80ea7d-e70b-45a1-b521-7b23fb66a46a</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>80c98667-bf41-4294-a6db-9e8157679748</stp>
         <tr r="M3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7fb853e3-4c97-43bd-a245-cc654a37df7f</stp>
-        <tr r="N3" s="1"/>
+        <stp>e72c22d8-84b1-4e83-b228-35b288893a4a</stp>
+        <tr r="A3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>106a081b-3e04-4895-b9f6-ed625a1c881e</stp>
-        <tr r="C3" s="2"/>
+        <stp>448b7a7b-99d9-47ad-9976-4b84046ee924</stp>
+        <tr r="K3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>995ac864-1568-4c01-b40a-4f45f5698629</stp>
-        <tr r="F3" s="3"/>
+        <stp>3a651fb0-c135-45a5-b93c-d05a0528e8c1</stp>
+        <tr r="H3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>86cae6aa-055f-4191-b4c9-1e845ca1b0a2</stp>
-        <tr r="O3" s="2"/>
+        <stp>33a8698b-f6f9-41be-ac05-b6edf1f5ea0a</stp>
+        <tr r="E3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b2656635-84bb-46e2-b770-601a0e2b873f</stp>
+        <stp>bf75b148-df1a-4038-8b67-d092bbd4f127</stp>
         <tr r="H3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4f80d906-1683-4070-a933-e136855cc3b0</stp>
-        <tr r="J3" s="2"/>
+        <stp>51eb2550-e138-4fd7-a13f-8dcdc9146f0e</stp>
+        <tr r="M3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f9d0fc86-676b-4166-adb0-d31f4cd55216</stp>
-        <tr r="I3" s="1"/>
+        <stp>f1905eec-67d3-4625-954f-5b56ff0899c9</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d4047b14-fb28-4769-b569-1be35be50b9d</stp>
+        <tr r="L3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>43dd4469-03cf-4f7e-b62e-99e51b0adaf3</stp>
-        <tr r="H3" s="2"/>
+        <stp>735914f2-9258-4f64-b8c4-5f99caf213de</stp>
+        <tr r="F3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a201429d-1c7d-4a2e-9f96-cbe79345edde</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>abd26d6c-4c53-4d0f-894d-596cfb9a8e26</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5b6ca56c-ccc0-413d-8be2-c89ca296ea2c</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>198fbfd3-352b-4b30-a456-44805c2a8c66</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6d7726cb-6ae5-4500-a5ef-ae3c212168b3</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5bb8636c-39e0-4830-a994-95158d4d0935</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bf6c4d73-4f47-4a5e-b30e-f1aa069f5f03</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a3be8484-af44-4215-99be-3e21cceb9615</stp>
-        <tr r="M3" s="2"/>
+        <stp>52523094-7f71-4284-b5be-6474e81f8325</stp>
+        <tr r="I3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0fa70c31-409e-42d4-99cf-531d4f12d25e</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f582a2c3-e5c1-46ea-8040-f28963dde6cc</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b4e04c6b-b107-4421-8568-81b59b5a5a4f</stp>
-        <tr r="E3" s="3"/>
+        <stp>55ed62c2-a6b5-46f9-b459-613ef0994020</stp>
+        <tr r="C3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>99d16b28-eee2-452f-bb52-b9609c35b709</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d165349d-2067-4ca0-b849-0ab77ae685b5</stp>
-        <tr r="A3" s="2"/>
+        <stp>c5470f40-53a9-49a8-a4bd-fa7613f7d55e</stp>
+        <tr r="L3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0bb961c1-4843-4b1f-a372-cf91d7928a5b</stp>
-        <tr r="J3" s="3"/>
+        <stp>d90973f4-0091-417c-aa7b-a20f3a57cfa6</stp>
+        <tr r="C3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4666caf6-ff5f-44e5-bf35-ff5e64119c6a</stp>
-        <tr r="D3" s="1"/>
+        <stp>a2dea27f-da14-433e-8306-9984cbba9101</stp>
+        <tr r="N3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
+    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6ab73698-2f9a-4ab4-8b4e-5c6c26e824ce</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8c180712-a791-4218-9684-084b1040a9b4</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>af26c84e-ced8-420c-8dd3-8c8440c8fb09</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e32a1524-5426-41c9-a213-d10529935850</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>26ed8e62-f3d1-4baa-bcb6-e93ec6c8120e</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ca5d668d-7690-428d-a714-32d0090066fa</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>49f4a8bc-d746-42de-b58f-42db4e836aac</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f2bdb4b0-903b-40b4-9323-05445ceaeaa5</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bc39af1e-138a-476e-b501-7d94c925507b</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_5a0b01c83a234d74ab176b521f81978c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9be155fc-0ed3-4bd9-bada-7ef7b23f7ad2</stp>
-        <tr r="I3" s="3"/>
+        <stp>b783aff2-9a91-4617-bbf3-d47a3bd6e661</stp>
+        <tr r="O3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -865,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O329"/>
+  <dimension ref="A1:O338"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15647,7 +15635,403 @@
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A329" s="1"/>
+      <c r="A329" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C329">
+        <v>10.1029</v>
+      </c>
+      <c r="D329">
+        <v>8.7249999999999996</v>
+      </c>
+      <c r="E329">
+        <v>8.1996000000000002</v>
+      </c>
+      <c r="F329">
+        <v>7.9187000000000003</v>
+      </c>
+      <c r="G329">
+        <v>7.83</v>
+      </c>
+      <c r="H329">
+        <v>7.73</v>
+      </c>
+      <c r="I329">
+        <v>7.6086</v>
+      </c>
+      <c r="J329">
+        <v>7.4874999999999998</v>
+      </c>
+      <c r="K329">
+        <v>7.3201999999999998</v>
+      </c>
+      <c r="L329">
+        <v>7.3166000000000002</v>
+      </c>
+      <c r="M329">
+        <v>7.1988000000000003</v>
+      </c>
+      <c r="N329">
+        <v>7.1593</v>
+      </c>
+      <c r="O329">
+        <v>7.1798000000000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>45868</v>
+      </c>
+      <c r="C330">
+        <v>10.1145</v>
+      </c>
+      <c r="D330">
+        <v>8.7628000000000004</v>
+      </c>
+      <c r="E330">
+        <v>8.24</v>
+      </c>
+      <c r="F330">
+        <v>7.95</v>
+      </c>
+      <c r="G330">
+        <v>7.8573000000000004</v>
+      </c>
+      <c r="H330">
+        <v>7.7610000000000001</v>
+      </c>
+      <c r="I330">
+        <v>7.6258999999999997</v>
+      </c>
+      <c r="J330">
+        <v>7.48</v>
+      </c>
+      <c r="K330">
+        <v>7.3170999999999999</v>
+      </c>
+      <c r="L330">
+        <v>7.3170999999999999</v>
+      </c>
+      <c r="M330">
+        <v>7.1905000000000001</v>
+      </c>
+      <c r="N330">
+        <v>7.1486999999999998</v>
+      </c>
+      <c r="O330">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>45869</v>
+      </c>
+      <c r="C331">
+        <v>10.139799999999999</v>
+      </c>
+      <c r="D331">
+        <v>8.8675999999999995</v>
+      </c>
+      <c r="E331">
+        <v>8.34</v>
+      </c>
+      <c r="F331">
+        <v>8.0381999999999998</v>
+      </c>
+      <c r="G331">
+        <v>7.9325999999999999</v>
+      </c>
+      <c r="H331">
+        <v>7.83</v>
+      </c>
+      <c r="I331">
+        <v>7.6883999999999997</v>
+      </c>
+      <c r="J331">
+        <v>7.53</v>
+      </c>
+      <c r="K331">
+        <v>7.3446999999999996</v>
+      </c>
+      <c r="L331">
+        <v>7.3201999999999998</v>
+      </c>
+      <c r="M331">
+        <v>7.1939000000000002</v>
+      </c>
+      <c r="N331">
+        <v>7.1463000000000001</v>
+      </c>
+      <c r="O331">
+        <v>7.1835000000000004</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>45870</v>
+      </c>
+      <c r="C332">
+        <v>10.1159</v>
+      </c>
+      <c r="D332">
+        <v>8.7922999999999991</v>
+      </c>
+      <c r="E332">
+        <v>8.2522000000000002</v>
+      </c>
+      <c r="F332">
+        <v>7.95</v>
+      </c>
+      <c r="G332">
+        <v>7.8640999999999996</v>
+      </c>
+      <c r="H332">
+        <v>7.7790999999999997</v>
+      </c>
+      <c r="I332">
+        <v>7.6528</v>
+      </c>
+      <c r="J332">
+        <v>7.48</v>
+      </c>
+      <c r="K332">
+        <v>7.2972000000000001</v>
+      </c>
+      <c r="L332">
+        <v>7.28</v>
+      </c>
+      <c r="M332">
+        <v>7.1692999999999998</v>
+      </c>
+      <c r="N332">
+        <v>7.1322999999999999</v>
+      </c>
+      <c r="O332">
+        <v>7.1699000000000002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>45873</v>
+      </c>
+      <c r="C333">
+        <v>10.152699999999999</v>
+      </c>
+      <c r="D333">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="E333">
+        <v>8.2276000000000007</v>
+      </c>
+      <c r="F333">
+        <v>7.9151999999999996</v>
+      </c>
+      <c r="G333">
+        <v>7.8259999999999996</v>
+      </c>
+      <c r="H333">
+        <v>7.7533000000000003</v>
+      </c>
+      <c r="I333">
+        <v>7.6371000000000002</v>
+      </c>
+      <c r="J333">
+        <v>7.4688999999999997</v>
+      </c>
+      <c r="K333">
+        <v>7.2925000000000004</v>
+      </c>
+      <c r="L333">
+        <v>7.2805</v>
+      </c>
+      <c r="M333">
+        <v>7.1666999999999996</v>
+      </c>
+      <c r="N333">
+        <v>7.14</v>
+      </c>
+      <c r="O333">
+        <v>7.1733000000000002</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C334">
+        <v>10.14</v>
+      </c>
+      <c r="D334">
+        <v>8.8063000000000002</v>
+      </c>
+      <c r="E334">
+        <v>8.2348999999999997</v>
+      </c>
+      <c r="F334">
+        <v>7.9292999999999996</v>
+      </c>
+      <c r="G334">
+        <v>7.83</v>
+      </c>
+      <c r="H334">
+        <v>7.7304000000000004</v>
+      </c>
+      <c r="I334">
+        <v>7.6250999999999998</v>
+      </c>
+      <c r="J334">
+        <v>7.47</v>
+      </c>
+      <c r="K334">
+        <v>7.3132999999999999</v>
+      </c>
+      <c r="L334">
+        <v>7.3075000000000001</v>
+      </c>
+      <c r="M334">
+        <v>7.1990999999999996</v>
+      </c>
+      <c r="N334">
+        <v>7.1691000000000003</v>
+      </c>
+      <c r="O334">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C335">
+        <v>10.190099999999999</v>
+      </c>
+      <c r="D335">
+        <v>8.8741000000000003</v>
+      </c>
+      <c r="E335">
+        <v>8.2573000000000008</v>
+      </c>
+      <c r="F335">
+        <v>7.9360999999999997</v>
+      </c>
+      <c r="G335">
+        <v>7.83</v>
+      </c>
+      <c r="H335">
+        <v>7.7294</v>
+      </c>
+      <c r="I335">
+        <v>7.6172000000000004</v>
+      </c>
+      <c r="J335">
+        <v>7.4569000000000001</v>
+      </c>
+      <c r="K335">
+        <v>7.2972000000000001</v>
+      </c>
+      <c r="L335">
+        <v>7.2965</v>
+      </c>
+      <c r="M335">
+        <v>7.1947000000000001</v>
+      </c>
+      <c r="N335">
+        <v>7.17</v>
+      </c>
+      <c r="O335">
+        <v>7.1971999999999996</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C336">
+        <v>10.1898</v>
+      </c>
+      <c r="D336">
+        <v>8.8444000000000003</v>
+      </c>
+      <c r="E336">
+        <v>8.1859000000000002</v>
+      </c>
+      <c r="F336">
+        <v>7.8627000000000002</v>
+      </c>
+      <c r="G336">
+        <v>7.75</v>
+      </c>
+      <c r="H336">
+        <v>7.6300999999999997</v>
+      </c>
+      <c r="I336">
+        <v>7.5293000000000001</v>
+      </c>
+      <c r="J336">
+        <v>7.3738000000000001</v>
+      </c>
+      <c r="K336">
+        <v>7.2115</v>
+      </c>
+      <c r="L336">
+        <v>7.21</v>
+      </c>
+      <c r="M336">
+        <v>7.1273999999999997</v>
+      </c>
+      <c r="N336">
+        <v>7.1045999999999996</v>
+      </c>
+      <c r="O336">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C337">
+        <v>10.165800000000001</v>
+      </c>
+      <c r="D337">
+        <v>8.7997999999999994</v>
+      </c>
+      <c r="E337">
+        <v>8.1586999999999996</v>
+      </c>
+      <c r="F337">
+        <v>7.84</v>
+      </c>
+      <c r="G337">
+        <v>7.7161</v>
+      </c>
+      <c r="H337">
+        <v>7.5941000000000001</v>
+      </c>
+      <c r="I337">
+        <v>7.4969999999999999</v>
+      </c>
+      <c r="J337">
+        <v>7.3566000000000003</v>
+      </c>
+      <c r="K337">
+        <v>7.2041000000000004</v>
+      </c>
+      <c r="L337">
+        <v>7.2076000000000002</v>
+      </c>
+      <c r="M337">
+        <v>7.13</v>
+      </c>
+      <c r="N337">
+        <v>7.1135000000000002</v>
+      </c>
+      <c r="O337">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A338" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15656,10 +16040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O329"/>
+  <dimension ref="A1:O338"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329"/>
+    <sheetView topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30438,7 +30822,403 @@
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A329" s="1"/>
+      <c r="A329" s="1">
+        <v>45867</v>
+      </c>
+      <c r="C329">
+        <v>4481.3678879999998</v>
+      </c>
+      <c r="D329">
+        <v>4398.7981099999997</v>
+      </c>
+      <c r="E329">
+        <v>4404.7633480000004</v>
+      </c>
+      <c r="F329">
+        <v>4326.5212019999999</v>
+      </c>
+      <c r="G329">
+        <v>4335.9431020000002</v>
+      </c>
+      <c r="H329">
+        <v>4257.7780739999998</v>
+      </c>
+      <c r="I329">
+        <v>4188.9033929999996</v>
+      </c>
+      <c r="J329">
+        <v>4153.1890830000002</v>
+      </c>
+      <c r="K329">
+        <v>4144.1981310000001</v>
+      </c>
+      <c r="L329">
+        <v>4002.647348</v>
+      </c>
+      <c r="M329">
+        <v>4062.7624289999999</v>
+      </c>
+      <c r="N329">
+        <v>3979.4623059999999</v>
+      </c>
+      <c r="O329">
+        <v>4008.2632899999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>45868</v>
+      </c>
+      <c r="C330">
+        <v>4483.3021820000004</v>
+      </c>
+      <c r="D330">
+        <v>4398.3511820000003</v>
+      </c>
+      <c r="E330">
+        <v>4402.3301410000004</v>
+      </c>
+      <c r="F330">
+        <v>4324.2753990000001</v>
+      </c>
+      <c r="G330">
+        <v>4333.2496069999997</v>
+      </c>
+      <c r="H330">
+        <v>4252.8446919999997</v>
+      </c>
+      <c r="I330">
+        <v>4186.6315489999997</v>
+      </c>
+      <c r="J330">
+        <v>4157.1409750000003</v>
+      </c>
+      <c r="K330">
+        <v>4147.1459400000003</v>
+      </c>
+      <c r="L330">
+        <v>4004.1892499999999</v>
+      </c>
+      <c r="M330">
+        <v>4068.3244420000001</v>
+      </c>
+      <c r="N330">
+        <v>3986.3134249999998</v>
+      </c>
+      <c r="O330">
+        <v>4009.8922729999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>45869</v>
+      </c>
+      <c r="C331">
+        <v>4484.6879070000005</v>
+      </c>
+      <c r="D331">
+        <v>4393.3390609999997</v>
+      </c>
+      <c r="E331">
+        <v>4393.3118340000001</v>
+      </c>
+      <c r="F331">
+        <v>4314.3781909999998</v>
+      </c>
+      <c r="G331">
+        <v>4322.3872670000001</v>
+      </c>
+      <c r="H331">
+        <v>4239.5602589999999</v>
+      </c>
+      <c r="I331">
+        <v>4173.5681940000004</v>
+      </c>
+      <c r="J331">
+        <v>4144.9034149999998</v>
+      </c>
+      <c r="K331">
+        <v>4138.8500960000001</v>
+      </c>
+      <c r="L331">
+        <v>4004.651558</v>
+      </c>
+      <c r="M331">
+        <v>4068.5199699999998</v>
+      </c>
+      <c r="N331">
+        <v>3989.1915450000001</v>
+      </c>
+      <c r="O331">
+        <v>4009.8790119999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>45870</v>
+      </c>
+      <c r="C332">
+        <v>4488.0799399999996</v>
+      </c>
+      <c r="D332">
+        <v>4400.6471000000001</v>
+      </c>
+      <c r="E332">
+        <v>4405.121991</v>
+      </c>
+      <c r="F332">
+        <v>4328.2546149999998</v>
+      </c>
+      <c r="G332">
+        <v>4336.047098</v>
+      </c>
+      <c r="H332">
+        <v>4252.703383</v>
+      </c>
+      <c r="I332">
+        <v>4183.9461789999996</v>
+      </c>
+      <c r="J332">
+        <v>4160.8228820000004</v>
+      </c>
+      <c r="K332">
+        <v>4158.0771320000003</v>
+      </c>
+      <c r="L332">
+        <v>4023.1042459999999</v>
+      </c>
+      <c r="M332">
+        <v>4081.5909839999999</v>
+      </c>
+      <c r="N332">
+        <v>3997.711734</v>
+      </c>
+      <c r="O332">
+        <v>4018.3842789999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>45873</v>
+      </c>
+      <c r="C333">
+        <v>4489.0081730000002</v>
+      </c>
+      <c r="D333">
+        <v>4402.959726</v>
+      </c>
+      <c r="E333">
+        <v>4409.9227639999999</v>
+      </c>
+      <c r="F333">
+        <v>4334.9407369999999</v>
+      </c>
+      <c r="G333">
+        <v>4344.5319360000003</v>
+      </c>
+      <c r="H333">
+        <v>4260.3263790000001</v>
+      </c>
+      <c r="I333">
+        <v>4189.5793679999997</v>
+      </c>
+      <c r="J333">
+        <v>4165.7988219999997</v>
+      </c>
+      <c r="K333">
+        <v>4161.6182749999998</v>
+      </c>
+      <c r="L333">
+        <v>4024.649774</v>
+      </c>
+      <c r="M333">
+        <v>4084.5527830000001</v>
+      </c>
+      <c r="N333">
+        <v>3995.6855310000001</v>
+      </c>
+      <c r="O333">
+        <v>4018.4220759999998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <v>45874</v>
+      </c>
+      <c r="C334">
+        <v>4491.9431990000003</v>
+      </c>
+      <c r="D334">
+        <v>4404.015429</v>
+      </c>
+      <c r="E334">
+        <v>4411.1883879999996</v>
+      </c>
+      <c r="F334">
+        <v>4335.0279039999996</v>
+      </c>
+      <c r="G334">
+        <v>4345.8282019999997</v>
+      </c>
+      <c r="H334">
+        <v>4267.3160760000001</v>
+      </c>
+      <c r="I334">
+        <v>4194.3289450000002</v>
+      </c>
+      <c r="J334">
+        <v>4167.3304710000002</v>
+      </c>
+      <c r="K334">
+        <v>4155.7856380000003</v>
+      </c>
+      <c r="L334">
+        <v>4015.168396</v>
+      </c>
+      <c r="M334">
+        <v>4071.4125690000001</v>
+      </c>
+      <c r="N334">
+        <v>3983.303206</v>
+      </c>
+      <c r="O334">
+        <v>4006.8831740000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C335">
+        <v>4492.359023</v>
+      </c>
+      <c r="D335">
+        <v>4401.5796659999996</v>
+      </c>
+      <c r="E335">
+        <v>4410.783375</v>
+      </c>
+      <c r="F335">
+        <v>4336.1002930000004</v>
+      </c>
+      <c r="G335">
+        <v>4347.8058490000003</v>
+      </c>
+      <c r="H335">
+        <v>4269.4676179999997</v>
+      </c>
+      <c r="I335">
+        <v>4198.0991430000004</v>
+      </c>
+      <c r="J335">
+        <v>4172.8718079999999</v>
+      </c>
+      <c r="K335">
+        <v>4163.5137199999999</v>
+      </c>
+      <c r="L335">
+        <v>4021.4896359999998</v>
+      </c>
+      <c r="M335">
+        <v>4075.1908039999998</v>
+      </c>
+      <c r="N335">
+        <v>3984.5839890000002</v>
+      </c>
+      <c r="O335">
+        <v>4010.002027</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C336">
+        <v>4494.8048129999997</v>
+      </c>
+      <c r="D336">
+        <v>4405.7596590000003</v>
+      </c>
+      <c r="E336">
+        <v>4420.7640039999997</v>
+      </c>
+      <c r="F336">
+        <v>4347.9856669999999</v>
+      </c>
+      <c r="G336">
+        <v>4363.4713849999998</v>
+      </c>
+      <c r="H336">
+        <v>4293.4314320000003</v>
+      </c>
+      <c r="I336">
+        <v>4221.0981389999997</v>
+      </c>
+      <c r="J336">
+        <v>4198.2918989999998</v>
+      </c>
+      <c r="K336">
+        <v>4197.0203439999996</v>
+      </c>
+      <c r="L336">
+        <v>4059.4608400000002</v>
+      </c>
+      <c r="M336">
+        <v>4108.0296850000004</v>
+      </c>
+      <c r="N336">
+        <v>4018.1080670000001</v>
+      </c>
+      <c r="O336">
+        <v>4045.319336</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C337">
+        <v>4498.1914470000002</v>
+      </c>
+      <c r="D337">
+        <v>4410.9491699999999</v>
+      </c>
+      <c r="E337">
+        <v>4425.8468519999997</v>
+      </c>
+      <c r="F337">
+        <v>4353.0389750000004</v>
+      </c>
+      <c r="G337">
+        <v>4371.261383</v>
+      </c>
+      <c r="H337">
+        <v>4303.3815500000001</v>
+      </c>
+      <c r="I337">
+        <v>4230.7689780000001</v>
+      </c>
+      <c r="J337">
+        <v>4205.0341420000004</v>
+      </c>
+      <c r="K337">
+        <v>4201.591324</v>
+      </c>
+      <c r="L337">
+        <v>4062.229871</v>
+      </c>
+      <c r="M337">
+        <v>4108.5898209999996</v>
+      </c>
+      <c r="N337">
+        <v>4015.4793110000001</v>
+      </c>
+      <c r="O337">
+        <v>4037.0082779999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A338" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -30447,10 +31227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z329"/>
+  <dimension ref="A1:Z338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329"/>
+    <sheetView topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44669,7 +45449,457 @@
       </c>
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A329" s="1"/>
+      <c r="A329" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B329">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="C329">
+        <v>-0.01</v>
+      </c>
+      <c r="D329">
+        <v>-6.4000000000000003E-3</v>
+      </c>
+      <c r="E329">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="F329">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="G329">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H329">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="I329">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="J329">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K329">
+        <v>0.1135</v>
+      </c>
+      <c r="L329">
+        <v>0.1135</v>
+      </c>
+      <c r="M329">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="N329">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="O329">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="P329">
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B330">
+        <v>1.49E-2</v>
+      </c>
+      <c r="C330">
+        <v>-0.01</v>
+      </c>
+      <c r="D330">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="E330">
+        <v>3.04E-2</v>
+      </c>
+      <c r="F330">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="G330">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="H330">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="I330">
+        <v>0.09</v>
+      </c>
+      <c r="J330">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="K330">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="L330">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="M330">
+        <v>0.1134</v>
+      </c>
+      <c r="N330">
+        <v>0.1066</v>
+      </c>
+      <c r="O330">
+        <v>0.1069</v>
+      </c>
+      <c r="P330">
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B331">
+        <v>1.49E-2</v>
+      </c>
+      <c r="C331">
+        <v>-0.01</v>
+      </c>
+      <c r="D331">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+      <c r="E331">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="F331">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G331">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="H331">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="I331">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="J331">
+        <v>0.1</v>
+      </c>
+      <c r="K331">
+        <v>0.1125</v>
+      </c>
+      <c r="L331">
+        <v>0.1125</v>
+      </c>
+      <c r="M331">
+        <v>0.1133</v>
+      </c>
+      <c r="N331">
+        <v>0.1067</v>
+      </c>
+      <c r="O331">
+        <v>0.1067</v>
+      </c>
+      <c r="P331">
+        <v>0.1067</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B332">
+        <v>1.49E-2</v>
+      </c>
+      <c r="C332">
+        <v>-0.01</v>
+      </c>
+      <c r="D332">
+        <v>-6.6E-3</v>
+      </c>
+      <c r="E332">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="F332">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="G332">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="H332">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="I332">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="J332">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="K332">
+        <v>0.1125</v>
+      </c>
+      <c r="L332">
+        <v>0.1125</v>
+      </c>
+      <c r="M332">
+        <v>0.1132</v>
+      </c>
+      <c r="N332">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="O332">
+        <v>0.1067</v>
+      </c>
+      <c r="P332">
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B333">
+        <v>1.49E-2</v>
+      </c>
+      <c r="C333">
+        <v>-9.7999999999999997E-3</v>
+      </c>
+      <c r="D333">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+      <c r="E333">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="F333">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="G333">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="H333">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="I333">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="J333">
+        <v>9.98E-2</v>
+      </c>
+      <c r="K333">
+        <v>0.1124</v>
+      </c>
+      <c r="L333">
+        <v>0.1125</v>
+      </c>
+      <c r="M333">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="N333">
+        <v>0.1069</v>
+      </c>
+      <c r="O333">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="P333">
+        <v>0.1067</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B334">
+        <v>1.49E-2</v>
+      </c>
+      <c r="C334">
+        <v>-9.5999999999999992E-3</v>
+      </c>
+      <c r="D334">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+      <c r="E334">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="F334">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="G334">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="H334">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="I334">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="J334">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="K334">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="L334">
+        <v>0.1123</v>
+      </c>
+      <c r="M334">
+        <v>0.113</v>
+      </c>
+      <c r="N334">
+        <v>0.1069</v>
+      </c>
+      <c r="O334">
+        <v>0.1069</v>
+      </c>
+      <c r="P334">
+        <v>0.1069</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B335">
+        <v>1.49E-2</v>
+      </c>
+      <c r="C335">
+        <v>-8.6E-3</v>
+      </c>
+      <c r="D335">
+        <v>-5.5999999999999999E-3</v>
+      </c>
+      <c r="E335">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="F335">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="G335">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="H335">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="I335">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="J335">
+        <v>0.1</v>
+      </c>
+      <c r="K335">
+        <v>0.1114</v>
+      </c>
+      <c r="L335">
+        <v>0.1119</v>
+      </c>
+      <c r="M335">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="N335">
+        <v>0.1069</v>
+      </c>
+      <c r="O335">
+        <v>0.1069</v>
+      </c>
+      <c r="P335">
+        <v>0.1069</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B336">
+        <v>1.46E-2</v>
+      </c>
+      <c r="C336">
+        <v>-8.0999999999999996E-3</v>
+      </c>
+      <c r="D336">
+        <v>-5.3E-3</v>
+      </c>
+      <c r="E336">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="F336">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G336">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="H336">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="I336">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="J336">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="K336">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="L336">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="M336">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="N336">
+        <v>0.1069</v>
+      </c>
+      <c r="O336">
+        <v>0.1069</v>
+      </c>
+      <c r="P336">
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B337">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="C337">
+        <v>-8.3999999999999995E-3</v>
+      </c>
+      <c r="D337">
+        <v>-5.4000000000000003E-3</v>
+      </c>
+      <c r="E337">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="F337">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="G337">
+        <v>5.04E-2</v>
+      </c>
+      <c r="H337">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="I337">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="J337">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="K337">
+        <v>0.1075</v>
+      </c>
+      <c r="L337">
+        <v>0.1082</v>
+      </c>
+      <c r="M337">
+        <v>0.1094</v>
+      </c>
+      <c r="N337">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="O337">
+        <v>0.1062</v>
+      </c>
+      <c r="P337">
+        <v>0.10630000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A338" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77904B97-CB26-4E33-A7DA-0F3BE1DCA542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4C98B0-34E4-41D9-A3C5-95AB868C7BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="4740" windowWidth="17280" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID01aa9cf9840c4c5a9a41787a73f0eff5" localSheetId="0" hidden="1">Plan1!$M$4:$M$338</definedName>
-    <definedName name="_ECO_RANGE_ID0a4c4cda86f14f04a055587d3d1a7900" localSheetId="2" hidden="1">Planilha2!$P$4:$P$338</definedName>
-    <definedName name="_ECO_RANGE_ID0e0e872398c4468aa059460a886286d7" localSheetId="0" hidden="1">Plan1!$G$4:$G$338</definedName>
-    <definedName name="_ECO_RANGE_ID11852116ada74fc6abfa6fcde8862d7a" localSheetId="1" hidden="1">Planilha1!$J$4:$J$338</definedName>
-    <definedName name="_ECO_RANGE_ID19b34a36bb944678bf4fb8cf28cf0feb" localSheetId="0" hidden="1">Plan1!$F$4:$F$338</definedName>
-    <definedName name="_ECO_RANGE_ID2172397054ec4fc0a7fc768aa579ee71" localSheetId="1" hidden="1">Planilha1!$H$4:$H$338</definedName>
-    <definedName name="_ECO_RANGE_ID24d478f97531422cbe7b068048327f7d" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID374e969b545e41d9a0e80a6295071b16" localSheetId="2" hidden="1">Planilha2!$D$4:$D$338</definedName>
-    <definedName name="_ECO_RANGE_ID384edb98537e43d08e86bc2684541553" localSheetId="2" hidden="1">Planilha2!$G$4:$G$338</definedName>
-    <definedName name="_ECO_RANGE_ID4985e774b428416f83967c945646c362" localSheetId="2" hidden="1">Planilha2!$I$4:$I$338</definedName>
-    <definedName name="_ECO_RANGE_ID4bfb4911e9c149f2bfdacea805791d41" localSheetId="1" hidden="1">Planilha1!$L$4:$L$338</definedName>
-    <definedName name="_ECO_RANGE_ID4de44905d0e3427883f9ff936e39de40" localSheetId="1" hidden="1">Planilha1!$O$4:$O$338</definedName>
-    <definedName name="_ECO_RANGE_ID4e3b5a410d8d4727a527458d172fa1bc" localSheetId="1" hidden="1">Planilha1!$K$4:$K$338</definedName>
-    <definedName name="_ECO_RANGE_ID54be36110e6340a3af2668c8751c43ca" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID619eb94e5b274ede89244a629e4baa2c" localSheetId="2" hidden="1">Planilha2!$E$4:$E$338</definedName>
-    <definedName name="_ECO_RANGE_ID658e07e737aa4022bf4b72c221a41dbf" localSheetId="0" hidden="1">Plan1!$I$4:$I$338</definedName>
-    <definedName name="_ECO_RANGE_ID69c771eee6544a089529d0429bdf4394" localSheetId="1" hidden="1">Planilha1!$M$4:$M$338</definedName>
-    <definedName name="_ECO_RANGE_ID6b85716bd07547ffb7d85d2cc055fbe9" localSheetId="0" hidden="1">Plan1!$A$4:$B$338</definedName>
-    <definedName name="_ECO_RANGE_ID6b9ecd5c80594c1ba27ec1f04b522346" localSheetId="2" hidden="1">Planilha2!$H$4:$H$338</definedName>
-    <definedName name="_ECO_RANGE_ID6cc66b84357f4689968588f7b20f28cc" localSheetId="1" hidden="1">Planilha1!$N$4:$N$338</definedName>
-    <definedName name="_ECO_RANGE_ID70b7dacaaab94be8a7ea7abca092392d" localSheetId="2" hidden="1">Planilha2!$L$4:$L$338</definedName>
-    <definedName name="_ECO_RANGE_ID73778649b5974c36905749bb938549d5" localSheetId="0" hidden="1">Plan1!$E$4:$E$338</definedName>
-    <definedName name="_ECO_RANGE_ID76044412b345497593e3f063fa037ced" localSheetId="0" hidden="1">Plan1!$C$4:$C$338</definedName>
-    <definedName name="_ECO_RANGE_ID7604ecf2fbe34faf95f2a8a7e7f12475" localSheetId="0" hidden="1">Plan1!$D$4:$D$338</definedName>
-    <definedName name="_ECO_RANGE_ID76af06903f7947d18c21031c188eca0d" localSheetId="1" hidden="1">Planilha1!$F$4:$F$338</definedName>
-    <definedName name="_ECO_RANGE_ID994db0e0d4d54984a033fca36c6f3bdc" localSheetId="0" hidden="1">Plan1!$L$4:$L$338</definedName>
-    <definedName name="_ECO_RANGE_ID99c2474094814471b9fc30b5a51cc54a" localSheetId="2" hidden="1">Planilha2!$J$4:$J$338</definedName>
-    <definedName name="_ECO_RANGE_ID99e1691f005f40f5b28bc75080fd680c" localSheetId="2" hidden="1">Planilha2!$M$4:$M$338</definedName>
-    <definedName name="_ECO_RANGE_ID9e0b33dcdba44e35ad071d554255f618" localSheetId="1" hidden="1">Planilha1!$D$4:$D$338</definedName>
-    <definedName name="_ECO_RANGE_ID9f3aa851384b42658fa31054b3ff089b" localSheetId="2" hidden="1">Planilha2!$N$4:$N$338</definedName>
-    <definedName name="_ECO_RANGE_IDba35b409d4ad4c6091ee432e60dc5dfc" localSheetId="0" hidden="1">Plan1!$H$4:$H$338</definedName>
-    <definedName name="_ECO_RANGE_IDbb2ff36e45f24a1ea73d4c95e31ba599" localSheetId="2" hidden="1">Planilha2!$C$4:$C$338</definedName>
-    <definedName name="_ECO_RANGE_IDc9a538a715f045d9bb887fafd2e9ef7f" localSheetId="2" hidden="1">Planilha2!$F$4:$F$338</definedName>
-    <definedName name="_ECO_RANGE_IDcad6cf61f85b41ff9885975e449c7d01" localSheetId="0" hidden="1">Plan1!$O$4:$O$338</definedName>
-    <definedName name="_ECO_RANGE_IDcb60307e844b449583bfca29da185288" localSheetId="0" hidden="1">Plan1!$N$4:$N$338</definedName>
-    <definedName name="_ECO_RANGE_IDccca23ffbc22467a90159ca5c359f978" localSheetId="2" hidden="1">Planilha2!$O$4:$O$338</definedName>
-    <definedName name="_ECO_RANGE_IDd012d72a96c343eaa9a9e86fd415de35" localSheetId="2" hidden="1">Planilha2!$K$4:$K$338</definedName>
-    <definedName name="_ECO_RANGE_IDd35c74f00c514df9b991e91e935fabc7" localSheetId="1" hidden="1">Planilha1!$A$4:$B$338</definedName>
-    <definedName name="_ECO_RANGE_IDe4309f74dfc249b18a97fbbfbceeb306" localSheetId="1" hidden="1">Planilha1!$E$4:$E$338</definedName>
-    <definedName name="_ECO_RANGE_IDe8df8af6ca7246078b1efd77b2818b11" localSheetId="0" hidden="1">Plan1!$K$4:$K$338</definedName>
-    <definedName name="_ECO_RANGE_IDe9f1437c288a455fa8a23e72280dc15b" localSheetId="0" hidden="1">Plan1!$J$4:$J$338</definedName>
-    <definedName name="_ECO_RANGE_IDef954b921afa47098a2fc8d4da8c6d57" localSheetId="1" hidden="1">Planilha1!$G$4:$G$338</definedName>
-    <definedName name="_ECO_RANGE_IDf131bf524ba940749f00b87ecf2c4aff" localSheetId="1" hidden="1">Planilha1!$I$4:$I$338</definedName>
-    <definedName name="_ECO_RANGE_IDf1ecf432fb874c5a8e2fb2f34aa3ff88" localSheetId="1" hidden="1">Planilha1!$C$4:$C$338</definedName>
-    <definedName name="_ECO_RANGE_IDf55ce5a6037f4d588b0a3cdbf75f5862" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDfe6c53f2fd934fb680934386d6a01a81" localSheetId="2" hidden="1">Planilha2!$A$4:$B$338</definedName>
+    <definedName name="_ECO_RANGE_ID00108876c7444ea6a677fe48aa144f5c" localSheetId="2" hidden="1">Planilha2!$F$4:$F$339</definedName>
+    <definedName name="_ECO_RANGE_ID1e09d9ddb1e04a43b222dec195361611" localSheetId="2" hidden="1">Planilha2!$L$4:$L$339</definedName>
+    <definedName name="_ECO_RANGE_ID1e55df611cd447a8b589e63a1db3a58a" localSheetId="2" hidden="1">Planilha2!$J$4:$J$339</definedName>
+    <definedName name="_ECO_RANGE_ID23bddd7e6ede4d408d4dcde94eae9945" localSheetId="2" hidden="1">Planilha2!$M$4:$M$339</definedName>
+    <definedName name="_ECO_RANGE_ID23ca89be7db94750b5b212369c79b190" localSheetId="0" hidden="1">Plan1!$H$4:$H$339</definedName>
+    <definedName name="_ECO_RANGE_ID29eca7cbb96846d281e0bcd56a1bbc17" localSheetId="0" hidden="1">Plan1!$E$4:$E$339</definedName>
+    <definedName name="_ECO_RANGE_ID2d34ddc0022a41f79925ff1f7ac69db0" localSheetId="2" hidden="1">Planilha2!$C$4:$C$339</definedName>
+    <definedName name="_ECO_RANGE_ID3290ad8c3949430e98cb964a11192db0" localSheetId="1" hidden="1">Planilha1!$K$4:$K$339</definedName>
+    <definedName name="_ECO_RANGE_ID3a35c4d477e249fdab3bee18d63791dc" localSheetId="1" hidden="1">Planilha1!$A$4:$B$339</definedName>
+    <definedName name="_ECO_RANGE_ID40285777bc6e418c864fcb9a88577c40" localSheetId="1" hidden="1">Planilha1!$M$4:$M$339</definedName>
+    <definedName name="_ECO_RANGE_ID477ddafa79074cc5af41b288f7c0a893" localSheetId="2" hidden="1">Planilha2!$E$4:$E$339</definedName>
+    <definedName name="_ECO_RANGE_ID488da5c21c8e4c66aace5c2a58524bc8" localSheetId="0" hidden="1">Plan1!$C$4:$C$339</definedName>
+    <definedName name="_ECO_RANGE_ID49e55316f5d444d5b6eead98dc646247" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID4a1d3c3bdd10457698c25d52385bd275" localSheetId="0" hidden="1">Plan1!$D$4:$D$339</definedName>
+    <definedName name="_ECO_RANGE_ID4af8934d0de7481ebfbb7e0eaddb8919" localSheetId="0" hidden="1">Plan1!$N$4:$N$339</definedName>
+    <definedName name="_ECO_RANGE_ID5fbdc036b02047cabe817f3a76c6c7ae" localSheetId="0" hidden="1">Plan1!$O$4:$O$339</definedName>
+    <definedName name="_ECO_RANGE_ID614d689eccc94a319b0c04d0dc192184" localSheetId="1" hidden="1">Planilha1!$D$4:$D$339</definedName>
+    <definedName name="_ECO_RANGE_ID61df838543d94666955816a88e11bf96" localSheetId="1" hidden="1">Planilha1!$J$4:$J$339</definedName>
+    <definedName name="_ECO_RANGE_ID61f1c6ba8e444de49897a3ad9d33c875" localSheetId="0" hidden="1">Plan1!$G$4:$G$339</definedName>
+    <definedName name="_ECO_RANGE_ID6c30664807e7494f8a7094fb1a0fa615" localSheetId="2" hidden="1">Planilha2!$K$4:$K$339</definedName>
+    <definedName name="_ECO_RANGE_ID6ebdf96a9ec34538914bf4e4f3e47a1e" localSheetId="1" hidden="1">Planilha1!$G$4:$G$339</definedName>
+    <definedName name="_ECO_RANGE_ID76f5b4e7d2af4f7b80265cc95c3cb0cf" localSheetId="1" hidden="1">Planilha1!$E$4:$E$339</definedName>
+    <definedName name="_ECO_RANGE_ID7f01e5252b094a1b809f9184704e114c" localSheetId="2" hidden="1">Planilha2!$O$4:$O$339</definedName>
+    <definedName name="_ECO_RANGE_ID86abd698258d4b11afbd4188f9aaea5b" localSheetId="2" hidden="1">Planilha2!$H$4:$H$339</definedName>
+    <definedName name="_ECO_RANGE_ID8ce5c376bd1e4f199beefee058ee711e" localSheetId="1" hidden="1">Planilha1!$O$4:$O$339</definedName>
+    <definedName name="_ECO_RANGE_ID91082d89f56a42bcb45af59e387cfe35" localSheetId="2" hidden="1">Planilha2!$A$4:$B$339</definedName>
+    <definedName name="_ECO_RANGE_ID925618d001394331971d5311e770fa0b" localSheetId="0" hidden="1">Plan1!$J$4:$J$339</definedName>
+    <definedName name="_ECO_RANGE_ID975044ce015945e1b3a1177e57db2111" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID9b6261a44b1e4aa1a9f0d54a00b9e84f" localSheetId="0" hidden="1">Plan1!$K$4:$K$339</definedName>
+    <definedName name="_ECO_RANGE_ID9bdf70f51b1b478a9d7f4dc18d1de246" localSheetId="1" hidden="1">Planilha1!$C$4:$C$339</definedName>
+    <definedName name="_ECO_RANGE_IDa2a53e3f87554339b20f5394f715f4cf" localSheetId="0" hidden="1">Plan1!$M$4:$M$339</definedName>
+    <definedName name="_ECO_RANGE_IDab7eda53461946739c0133446cd8e723" localSheetId="2" hidden="1">Planilha2!$D$4:$D$339</definedName>
+    <definedName name="_ECO_RANGE_IDb1c4fa6aeb4c440d89081701ab991213" localSheetId="1" hidden="1">Planilha1!$F$4:$F$339</definedName>
+    <definedName name="_ECO_RANGE_IDb5d65d32e001457db0a06285b9da07b5" localSheetId="0" hidden="1">Plan1!$L$4:$L$339</definedName>
+    <definedName name="_ECO_RANGE_IDb944cbb7f58e4679b18919d243ec7e5a" localSheetId="1" hidden="1">Planilha1!$I$4:$I$339</definedName>
+    <definedName name="_ECO_RANGE_IDb9cbf79e718f4f7eb60fd564fd9d1d34" localSheetId="0" hidden="1">Plan1!$A$4:$B$339</definedName>
+    <definedName name="_ECO_RANGE_IDbbb6836edaca45b0842cd7f6283974ea" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDbed553e40cd6494eb954ba10abd23107" localSheetId="1" hidden="1">Planilha1!$N$4:$N$339</definedName>
+    <definedName name="_ECO_RANGE_IDc008904a20524e33a69819ae661465e6" localSheetId="2" hidden="1">Planilha2!$P$4:$P$339</definedName>
+    <definedName name="_ECO_RANGE_IDc5f7a6ac5c6d4587839e1fed7f5fdf9c" localSheetId="0" hidden="1">Plan1!$F$4:$F$339</definedName>
+    <definedName name="_ECO_RANGE_IDc7d3c783a63644b786a9ecf52bd93126" localSheetId="2" hidden="1">Planilha2!$G$4:$G$339</definedName>
+    <definedName name="_ECO_RANGE_IDc7f1c15f7e41469cb5017f72361737d9" localSheetId="0" hidden="1">Plan1!$I$4:$I$339</definedName>
+    <definedName name="_ECO_RANGE_IDcbfc135b55ab4686b409a220e03b33e6" localSheetId="2" hidden="1">Planilha2!$N$4:$N$339</definedName>
+    <definedName name="_ECO_RANGE_IDcc58a3bc87ce4f60ac95c64db591cf81" localSheetId="2" hidden="1">Planilha2!$I$4:$I$339</definedName>
+    <definedName name="_ECO_RANGE_IDe56e8c9d64494458a586a260041b9925" localSheetId="1" hidden="1">Planilha1!$L$4:$L$339</definedName>
+    <definedName name="_ECO_RANGE_IDf02612d171ed4fb8a277113b135c8a3c" localSheetId="1" hidden="1">Planilha1!$H$4:$H$339</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,304 +286,304 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6d7b4646-05b3-4bb0-9438-6c9da7921050</stp>
-        <tr r="D3" s="3"/>
+        <stp>7b059e1f-bd10-4e47-9fbb-5f63b300bfab</stp>
+        <tr r="O3" s="3"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f22c0d6e-684b-4587-ae22-c15be553ae79</stp>
-        <tr r="G3" s="1"/>
+        <stp>2d43c5ae-e9cf-4a18-b4c3-89f3ac71f7bf</stp>
+        <tr r="G3" s="3"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a4f0d29f-c247-482e-bff3-a29853cede48</stp>
-        <tr r="L3" s="1"/>
+        <stp>1fad4e8d-ae8e-4e2c-b61d-49c923deb881</stp>
+        <tr r="G3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>734fe016-7d26-419e-98e9-0130925ca56b</stp>
+        <stp>2915e987-cfb5-4c05-812e-0b741e44bbc7</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c5460799-f94c-49b8-9b1b-d848cedf11a5</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bda86178-7fbd-4b69-8259-a94f1d0b2246</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>16297cd5-da34-4392-b480-39f812fdf099</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>38ab5d00-fcc7-4df7-a28e-df86dde3a0fe</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f89bf684-a5e7-46e7-96b6-781f1fba6c20</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>84d5f844-63c4-451f-959b-01f140523b55</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b1cf268c-0023-48f0-b10a-b4e2c5f003ac</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d4cc1f9a-0a6d-43f0-ba39-dde5abd56c32</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8ec2f107-b22d-4398-92f3-2becd7a619ce</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1b52b57c-54ac-4701-8bff-583673084653</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4b74b6d0-06cc-479b-b09b-70827ee10be5</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>309610c2-fddd-45e5-b829-19e16215feb5</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7bd84214-1c79-4486-b28d-a27e9b1760f7</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6dfcf6ae-2eb5-475d-8783-2c2f54823e59</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b9c99d27-e44a-4724-9a2a-4f660dfa62d7</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>252a832b-b526-44e3-af66-ee92284161fe</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4c0efc84-dbb2-4195-bbd8-2965d0c1e1b6</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e3d7fec4-3a0e-42a9-9d62-57e0be751505</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>02cc3225-4162-4ac5-8001-6549a4293c74</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bd9eb37e-37a6-4c77-9ddc-4c8e1b64cee6</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d7de8636-efb0-48de-83b7-b0d5a438f5ab</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>246e6c7f-de30-494e-89fa-63ac34457eec</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f0ac3a76-0098-418d-9f70-95dcae2b6292</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d18e8daf-041a-4a83-be94-7dbefb60198f</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b5efab59-a816-456f-8064-a6a9aecf8bcb</stp>
         <tr r="G3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>1dff511e-9602-4820-a9c2-a6aa8938e17b</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3ef4e651-38b1-4035-9701-ba7b401625a3</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8ab15a84-f244-459f-bfee-ccd4771fb174</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7e7c3f86-d73c-451e-959b-27b90460e7ef</stp>
+        <stp>3523154b-2c64-4195-a5b6-06adb2b2c6d1</stp>
         <tr r="N3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0ae5c2fe-d754-4148-bc71-83cb1af23d9e</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1478873e-738e-49cb-a7f9-3a954eaf89dd</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>90dae252-42d6-4c68-8210-d8777394b835</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>96c669b2-154a-4834-a55b-34a0a77c16ff</stp>
-        <tr r="A3" s="1"/>
+        <stp>e15885c0-27cf-4349-9476-d35d8e0db89e</stp>
+        <tr r="D3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>e4d705dc-19b8-4f59-90b1-86d92d1e931a</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7f96acde-f29b-442b-b374-55d4de963106</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d1c291b5-9050-4a96-9aab-2b03cb6c19b8</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a2b52637-2f18-4938-81ac-cc04bcf6188c</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4acc55c3-393b-48c5-ab8b-c3fcc7bb58ec</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>49ebe6d0-eed2-43f3-b3b3-91c9ddfbc838</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>51cb9036-b141-4d11-987e-97b4f5a291ef</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8dbd54c2-bcdb-4dac-9fa6-5646667ebdcd</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>95034631-42a8-4f0f-b037-a1f4b156462a</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>71a8e060-bb7a-4b01-a488-ac640b022878</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a3ce80b4-df66-434b-b1fd-048034d981b7</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fd3e4b8e-d092-4f67-976d-e37df23f10e4</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5861ad91-e1c9-412b-bf8d-c9ad618159f7</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b1e00f74-c570-4fb1-aa62-7cde85b8b789</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3b80ea7d-e70b-45a1-b521-7b23fb66a46a</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>80c98667-bf41-4294-a6db-9e8157679748</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e72c22d8-84b1-4e83-b228-35b288893a4a</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>448b7a7b-99d9-47ad-9976-4b84046ee924</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3a651fb0-c135-45a5-b93c-d05a0528e8c1</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>33a8698b-f6f9-41be-ac05-b6edf1f5ea0a</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bf75b148-df1a-4038-8b67-d092bbd4f127</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>51eb2550-e138-4fd7-a13f-8dcdc9146f0e</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f1905eec-67d3-4625-954f-5b56ff0899c9</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d4047b14-fb28-4769-b569-1be35be50b9d</stp>
+        <stp>c07900ba-b5a3-44e2-91bd-15d2f44a0e24</stp>
         <tr r="L3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>735914f2-9258-4f64-b8c4-5f99caf213de</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>52523094-7f71-4284-b5be-6474e81f8325</stp>
-        <tr r="I3" s="3"/>
+        <stp>c3a71c30-df7d-44ea-acc0-17834b09b56b</stp>
+        <tr r="J3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>55ed62c2-a6b5-46f9-b459-613ef0994020</stp>
-        <tr r="C3" s="3"/>
+        <stp>ff2fc279-3c41-4d1a-832e-ab2b31939234</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>af3cb399-65a6-4ba8-9cc2-13100f21a7cb</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>95d09b5c-0d10-4f93-9f43-48db881e1942</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d2d095d8-e6fd-4292-ab97-f2b7558d26a7</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b47dd391-8017-439a-9c71-ac0c17296be8</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0b92e420-4cdb-4e20-8539-4eb14b6ac977</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6d439f1d-522f-4a94-b393-3df7688b88ad</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3c2718a7-1d3d-43fb-9797-f51839f3bcc6</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f5b7fe58f144413787aacc754202ada0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>245c3a37-506e-4861-8e9b-7f8cebb1b143</stp>
+        <tr r="E3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c5470f40-53a9-49a8-a4bd-fa7613f7d55e</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d90973f4-0091-417c-aa7b-a20f3a57cfa6</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a2dea27f-da14-433e-8306-9984cbba9101</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_49db124c56d84b1d866b8e7bc21fccae">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b783aff2-9a91-4617-bbf3-d47a3bd6e661</stp>
-        <tr r="O3" s="2"/>
+        <stp>38f15f2c-a175-4bcf-9867-7a536ad7522e</stp>
+        <tr r="M3" s="3"/>
       </tp>
     </main>
   </volType>
@@ -853,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O338"/>
+  <dimension ref="A1:O339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+    <sheetView topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16031,7 +16031,92 @@
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A338" s="1"/>
+      <c r="A338" s="1">
+        <v>45880</v>
+      </c>
+      <c r="C338">
+        <v>10.1526</v>
+      </c>
+      <c r="D338">
+        <v>8.75</v>
+      </c>
+      <c r="E338">
+        <v>8.1004000000000005</v>
+      </c>
+      <c r="F338">
+        <v>7.7934999999999999</v>
+      </c>
+      <c r="G338">
+        <v>7.6702000000000004</v>
+      </c>
+      <c r="H338">
+        <v>7.56</v>
+      </c>
+      <c r="I338">
+        <v>7.4718999999999998</v>
+      </c>
+      <c r="J338">
+        <v>7.3605999999999998</v>
+      </c>
+      <c r="K338">
+        <v>7.1894</v>
+      </c>
+      <c r="L338">
+        <v>7.1856999999999998</v>
+      </c>
+      <c r="M338">
+        <v>7.1181000000000001</v>
+      </c>
+      <c r="N338">
+        <v>7.0971000000000002</v>
+      </c>
+      <c r="O338">
+        <v>7.1353</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C339">
+        <v>10.1556</v>
+      </c>
+      <c r="D339">
+        <v>8.7068999999999992</v>
+      </c>
+      <c r="E339">
+        <v>8.0489999999999995</v>
+      </c>
+      <c r="F339">
+        <v>7.7561999999999998</v>
+      </c>
+      <c r="G339">
+        <v>7.6403999999999996</v>
+      </c>
+      <c r="H339">
+        <v>7.5621999999999998</v>
+      </c>
+      <c r="I339">
+        <v>7.4873000000000003</v>
+      </c>
+      <c r="J339">
+        <v>7.3704000000000001</v>
+      </c>
+      <c r="K339">
+        <v>7.1920000000000002</v>
+      </c>
+      <c r="L339">
+        <v>7.1859000000000002</v>
+      </c>
+      <c r="M339">
+        <v>7.1246999999999998</v>
+      </c>
+      <c r="N339">
+        <v>7.1021000000000001</v>
+      </c>
+      <c r="O339">
+        <v>7.1483999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16040,10 +16125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O338"/>
+  <dimension ref="A1:O339"/>
   <sheetViews>
     <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+      <selection activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31218,7 +31303,92 @@
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A338" s="1"/>
+      <c r="A338" s="1">
+        <v>45880</v>
+      </c>
+      <c r="C338">
+        <v>4501.1474749999998</v>
+      </c>
+      <c r="D338">
+        <v>4416.4763540000004</v>
+      </c>
+      <c r="E338">
+        <v>4434.3745360000003</v>
+      </c>
+      <c r="F338">
+        <v>4361.3054350000002</v>
+      </c>
+      <c r="G338">
+        <v>4381.1160879999998</v>
+      </c>
+      <c r="H338">
+        <v>4312.9212889999999</v>
+      </c>
+      <c r="I338">
+        <v>4238.7119739999998</v>
+      </c>
+      <c r="J338">
+        <v>4205.7366169999996</v>
+      </c>
+      <c r="K338">
+        <v>4208.8846990000002</v>
+      </c>
+      <c r="L338">
+        <v>4073.2401009999999</v>
+      </c>
+      <c r="M338">
+        <v>4115.8868350000002</v>
+      </c>
+      <c r="N338">
+        <v>4025.2329970000001</v>
+      </c>
+      <c r="O338">
+        <v>4046.1293519999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C339">
+        <v>4499.5549099999998</v>
+      </c>
+      <c r="D339">
+        <v>4417.7130440000001</v>
+      </c>
+      <c r="E339">
+        <v>4438.2904019999996</v>
+      </c>
+      <c r="F339">
+        <v>4364.5423879999998</v>
+      </c>
+      <c r="G339">
+        <v>4384.4070499999998</v>
+      </c>
+      <c r="H339">
+        <v>4310.6091020000003</v>
+      </c>
+      <c r="I339">
+        <v>4233.1886679999998</v>
+      </c>
+      <c r="J339">
+        <v>4201.1401029999997</v>
+      </c>
+      <c r="K339">
+        <v>4206.0790319999996</v>
+      </c>
+      <c r="L339">
+        <v>4071.3797319999999</v>
+      </c>
+      <c r="M339">
+        <v>4111.0137290000002</v>
+      </c>
+      <c r="N339">
+        <v>4021.0144599999999</v>
+      </c>
+      <c r="O339">
+        <v>4037.7832130000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -31227,11 +31397,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z338"/>
+  <dimension ref="A1:Z339"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -45899,7 +46067,104 @@
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A338" s="1"/>
+      <c r="A338" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B338">
+        <v>1.21E-2</v>
+      </c>
+      <c r="C338">
+        <v>-8.2000000000000007E-3</v>
+      </c>
+      <c r="D338">
+        <v>-5.4000000000000003E-3</v>
+      </c>
+      <c r="E338">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="F338">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="G338">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="H338">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="I338">
+        <v>8.72E-2</v>
+      </c>
+      <c r="J338">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="K338">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="L338">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="M338">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="N338">
+        <v>0.106</v>
+      </c>
+      <c r="O338">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="P338">
+        <v>0.10580000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B339">
+        <v>1.17E-2</v>
+      </c>
+      <c r="C339">
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="D339">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="E339">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F339">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="G339">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="H339">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I339">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="J339">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K339">
+        <v>0.1055</v>
+      </c>
+      <c r="L339">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="M339">
+        <v>0.1074</v>
+      </c>
+      <c r="N339">
+        <v>0.1055</v>
+      </c>
+      <c r="O339">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="P339">
+        <v>0.10539999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388C1844-E113-4BC8-9D79-94CB241A45C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0395C1A-5ED6-4267-96EC-9C217DE19558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID0a97b99198c840bb9c9db4a69c5797a3" localSheetId="2" hidden="1">Planilha2!$P$4:$P$343</definedName>
-    <definedName name="_ECO_RANGE_ID0d5fc82cee2243e4ab68ffa04d8fe06f" localSheetId="0" hidden="1">Plan1!$K$4:$K$343</definedName>
-    <definedName name="_ECO_RANGE_ID197092b4232b46f7964c3926bbe60455" localSheetId="1" hidden="1">Planilha1!$N$4:$N$343</definedName>
-    <definedName name="_ECO_RANGE_ID1c1c538d49684d718106e0b61c11d0fc" localSheetId="0" hidden="1">Plan1!$A$4:$B$343</definedName>
-    <definedName name="_ECO_RANGE_ID1dd62a80e2e44322abba12d9056348d9" localSheetId="2" hidden="1">Planilha2!$F$4:$F$343</definedName>
-    <definedName name="_ECO_RANGE_ID1fa12c3fbc344254a2d8449e7a562dfa" localSheetId="2" hidden="1">Planilha2!$D$4:$D$343</definedName>
-    <definedName name="_ECO_RANGE_ID2096752755434879a18bee74952359ba" localSheetId="0" hidden="1">Plan1!$I$4:$I$343</definedName>
-    <definedName name="_ECO_RANGE_ID29dd2748caa44467a9921b9112a91b97" localSheetId="1" hidden="1">Planilha1!$M$4:$M$343</definedName>
-    <definedName name="_ECO_RANGE_ID2eb6299fc01f4de2b7ea6d543c90902c" localSheetId="0" hidden="1">Plan1!$G$4:$G$343</definedName>
-    <definedName name="_ECO_RANGE_ID3079918029e643da846575c05b16d074" localSheetId="1" hidden="1">Planilha1!$O$4:$O$343</definedName>
-    <definedName name="_ECO_RANGE_ID33128e43961f41a785ff184743c2f631" localSheetId="0" hidden="1">Plan1!$N$4:$N$343</definedName>
-    <definedName name="_ECO_RANGE_ID33b17de72f8c405f8313dc3f503d77e1" localSheetId="1" hidden="1">Planilha1!$I$4:$I$343</definedName>
-    <definedName name="_ECO_RANGE_ID358826357eb34d349e040eba48c5ba5b" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID35f1505cc6474eb2b2bec024f6d998d8" localSheetId="2" hidden="1">Planilha2!$E$4:$E$343</definedName>
-    <definedName name="_ECO_RANGE_ID417c87f913ed473fbc18b8f2671dac00" localSheetId="0" hidden="1">Plan1!$D$4:$D$343</definedName>
-    <definedName name="_ECO_RANGE_ID456a11b8140444849b03a2f3231b2b59" localSheetId="0" hidden="1">Plan1!$F$4:$F$343</definedName>
-    <definedName name="_ECO_RANGE_ID48bd831561c9412d9e0914bc86a65ca3" localSheetId="0" hidden="1">Plan1!$O$4:$O$343</definedName>
-    <definedName name="_ECO_RANGE_ID4dd2ce84288d482c8074b03f61d531a5" localSheetId="1" hidden="1">Planilha1!$J$4:$J$343</definedName>
-    <definedName name="_ECO_RANGE_ID504e3a6fdbfc409b8eb812a82f30606b" localSheetId="1" hidden="1">Planilha1!$D$4:$D$343</definedName>
-    <definedName name="_ECO_RANGE_ID54567d4c33834787a7d090dc6b5015db" localSheetId="1" hidden="1">Planilha1!$H$4:$H$343</definedName>
-    <definedName name="_ECO_RANGE_ID5ce920df8492473782ebb3525f8383dd" localSheetId="2" hidden="1">Planilha2!$M$4:$M$343</definedName>
-    <definedName name="_ECO_RANGE_ID5dc6567a913b4e0d9898516adf166058" localSheetId="2" hidden="1">Planilha2!$J$4:$J$343</definedName>
-    <definedName name="_ECO_RANGE_ID5fb06b98e3244f1cb8865e92ee48cc7c" localSheetId="2" hidden="1">Planilha2!$G$4:$G$343</definedName>
-    <definedName name="_ECO_RANGE_ID64d1264f79ab48d1b0cd5476130d71b2" localSheetId="0" hidden="1">Plan1!$E$4:$E$343</definedName>
-    <definedName name="_ECO_RANGE_ID68a6d1257f464d77a1ee68fa591d2f46" localSheetId="0" hidden="1">Plan1!$L$4:$L$343</definedName>
-    <definedName name="_ECO_RANGE_ID6926f85de2ae48b59fd8b20cd8cfa80a" localSheetId="1" hidden="1">Planilha1!$C$4:$C$343</definedName>
-    <definedName name="_ECO_RANGE_ID6a50e2a218a34c0eb94cdd3d2081ee31" localSheetId="1" hidden="1">Planilha1!$G$4:$G$343</definedName>
-    <definedName name="_ECO_RANGE_ID7d4cee0834a4499e8e7e731420d50e34" localSheetId="1" hidden="1">Planilha1!$A$4:$B$343</definedName>
-    <definedName name="_ECO_RANGE_ID7f4ad90b26034b8c946bede8d02b81b5" localSheetId="2" hidden="1">Planilha2!$H$4:$H$343</definedName>
-    <definedName name="_ECO_RANGE_ID874c5cbd5fdb46dfb47fc7ccf87bb8b7" localSheetId="2" hidden="1">Planilha2!$C$4:$C$343</definedName>
-    <definedName name="_ECO_RANGE_ID8a7a6199a6ad4a5a8ee22851ad293f5d" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID8ee8eddda0ed4b8a9aa427c1661bb1b5" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDa39739b3167f487f95dc8e9375cd25ed" localSheetId="1" hidden="1">Planilha1!$E$4:$E$343</definedName>
-    <definedName name="_ECO_RANGE_IDa58754e669e44be9af6a1972d3e08fd8" localSheetId="0" hidden="1">Plan1!$C$4:$C$343</definedName>
-    <definedName name="_ECO_RANGE_IDabcc14baeb5a4a738e0ee023ac4331aa" localSheetId="0" hidden="1">Plan1!$J$4:$J$343</definedName>
-    <definedName name="_ECO_RANGE_IDae46f9019c194630ac504310186135f1" localSheetId="2" hidden="1">Planilha2!$A$4:$B$343</definedName>
-    <definedName name="_ECO_RANGE_IDb062fe3279ec4195bb9c90cdc29a61c1" localSheetId="2" hidden="1">Planilha2!$I$4:$I$343</definedName>
-    <definedName name="_ECO_RANGE_IDbaedca09be484387858b5a76c2b89715" localSheetId="2" hidden="1">Planilha2!$O$4:$O$343</definedName>
-    <definedName name="_ECO_RANGE_IDbb5d4cdb87c4486ba43bd02dca2ceb4b" localSheetId="2" hidden="1">Planilha2!$K$4:$K$343</definedName>
-    <definedName name="_ECO_RANGE_IDbd4deabef89e488480a4d973fcd31281" localSheetId="1" hidden="1">Planilha1!$L$4:$L$343</definedName>
-    <definedName name="_ECO_RANGE_IDd600e505c61f4599bcddea3d4505f59e" localSheetId="2" hidden="1">Planilha2!$L$4:$L$343</definedName>
-    <definedName name="_ECO_RANGE_IDddf9a962d65d4fef8658757ef21a965c" localSheetId="1" hidden="1">Planilha1!$F$4:$F$343</definedName>
-    <definedName name="_ECO_RANGE_IDe69a7b6520464fe69aec83c65312fa61" localSheetId="2" hidden="1">Planilha2!$N$4:$N$343</definedName>
-    <definedName name="_ECO_RANGE_IDf16c2c5ce8534006aa198769252958cd" localSheetId="1" hidden="1">Planilha1!$K$4:$K$343</definedName>
-    <definedName name="_ECO_RANGE_IDf316870995fe4a898dfd96964e61ee07" localSheetId="0" hidden="1">Plan1!$M$4:$M$343</definedName>
-    <definedName name="_ECO_RANGE_IDf3c1a94c670e402ea29f3f6ddd0abc13" localSheetId="0" hidden="1">Plan1!$H$4:$H$343</definedName>
+    <definedName name="_ECO_RANGE_ID02d13cec728348e689966b707e06769d" localSheetId="0" hidden="1">Plan1!$L$4:$L$345</definedName>
+    <definedName name="_ECO_RANGE_ID03c22a4dc0a54d379309e77cc83d3b18" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID1e9ca6ed2fbd45f7ae90dfea4c1338c0" localSheetId="1" hidden="1">Planilha1!$L$4:$L$345</definedName>
+    <definedName name="_ECO_RANGE_ID200b506fc040464fb96fc66a99370008" localSheetId="0" hidden="1">Plan1!$J$4:$J$345</definedName>
+    <definedName name="_ECO_RANGE_ID202b1faa546c4173bad1cf38cdec85a7" localSheetId="1" hidden="1">Planilha1!$D$4:$D$345</definedName>
+    <definedName name="_ECO_RANGE_ID23a0fadb890144f5aeda20f5f922d6cd" localSheetId="2" hidden="1">Planilha2!$O$4:$O$345</definedName>
+    <definedName name="_ECO_RANGE_ID265fcf6aa8da4c58bff09997295eb1d5" localSheetId="0" hidden="1">Plan1!$F$4:$F$345</definedName>
+    <definedName name="_ECO_RANGE_ID2b9d25cc430441c88cd54f81fa60f215" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID2e7de4c03ab0412fb73313df040223ff" localSheetId="1" hidden="1">Planilha1!$F$4:$F$345</definedName>
+    <definedName name="_ECO_RANGE_ID364436acfc8d4240a4d02e5a22e14fe8" localSheetId="0" hidden="1">Plan1!$E$4:$E$345</definedName>
+    <definedName name="_ECO_RANGE_ID3d409672508145a2a83ba0473ed7346a" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID3d7626224cef421d8066f7b9614dc034" localSheetId="2" hidden="1">Planilha2!$G$4:$G$345</definedName>
+    <definedName name="_ECO_RANGE_ID40a1937ad18441758692a64b7059eca1" localSheetId="1" hidden="1">Planilha1!$K$4:$K$345</definedName>
+    <definedName name="_ECO_RANGE_ID442a3d72ca5f4dbd95c4a50f9fdadac4" localSheetId="0" hidden="1">Plan1!$H$4:$H$345</definedName>
+    <definedName name="_ECO_RANGE_ID4df42c2289ff4e0d9ddb3058bbf05375" localSheetId="2" hidden="1">Planilha2!$A$4:$B$345</definedName>
+    <definedName name="_ECO_RANGE_ID55e23871e09b469e89022c2fa68c7da1" localSheetId="0" hidden="1">Plan1!$O$4:$O$345</definedName>
+    <definedName name="_ECO_RANGE_ID56df33b99c1c4023b36774776b4a45d1" localSheetId="0" hidden="1">Plan1!$D$4:$D$345</definedName>
+    <definedName name="_ECO_RANGE_ID58989c26b67f4f8fa6d5cc9e3db99810" localSheetId="0" hidden="1">Plan1!$A$4:$B$345</definedName>
+    <definedName name="_ECO_RANGE_ID661316d5587d4ceabf1e865845631f4d" localSheetId="2" hidden="1">Planilha2!$J$4:$J$345</definedName>
+    <definedName name="_ECO_RANGE_ID68a8269b69ec48b29a46236dfe74de3f" localSheetId="2" hidden="1">Planilha2!$K$4:$K$345</definedName>
+    <definedName name="_ECO_RANGE_ID6f5a93fe613947abb096e867b16a5f4a" localSheetId="2" hidden="1">Planilha2!$N$4:$N$345</definedName>
+    <definedName name="_ECO_RANGE_ID70739efddca94116bf767e1430ce6041" localSheetId="1" hidden="1">Planilha1!$J$4:$J$345</definedName>
+    <definedName name="_ECO_RANGE_ID73b447b69a2b444db4ab6b510a5ae2cc" localSheetId="1" hidden="1">Planilha1!$N$4:$N$345</definedName>
+    <definedName name="_ECO_RANGE_ID74c3b2ee8c014dc5b479425b904765d1" localSheetId="2" hidden="1">Planilha2!$M$4:$M$345</definedName>
+    <definedName name="_ECO_RANGE_ID7adcec8de9824e0289cf0cf14ab86e0f" localSheetId="0" hidden="1">Plan1!$I$4:$I$345</definedName>
+    <definedName name="_ECO_RANGE_ID82c6bffe182145e2a05553d4f0f26e01" localSheetId="1" hidden="1">Planilha1!$C$4:$C$345</definedName>
+    <definedName name="_ECO_RANGE_ID8fbaa884cffa43b893349f01f7306b97" localSheetId="2" hidden="1">Planilha2!$P$4:$P$345</definedName>
+    <definedName name="_ECO_RANGE_ID95e0f793ac4e4f3d90f20861d28761bd" localSheetId="2" hidden="1">Planilha2!$F$4:$F$345</definedName>
+    <definedName name="_ECO_RANGE_ID99b55be4b4684180b38f01cd90d81668" localSheetId="2" hidden="1">Planilha2!$C$4:$C$345</definedName>
+    <definedName name="_ECO_RANGE_ID9fe1c13a86e94cb6b26c08479154a9fb" localSheetId="1" hidden="1">Planilha1!$I$4:$I$345</definedName>
+    <definedName name="_ECO_RANGE_IDa565bebe27484e6399afe9afc8a4b0f6" localSheetId="0" hidden="1">Plan1!$M$4:$M$345</definedName>
+    <definedName name="_ECO_RANGE_IDba1719eba66d455c8e88d969283fa3fa" localSheetId="1" hidden="1">Planilha1!$H$4:$H$345</definedName>
+    <definedName name="_ECO_RANGE_IDc42c7726eda44380bb63cb983e95e612" localSheetId="0" hidden="1">Plan1!$C$4:$C$345</definedName>
+    <definedName name="_ECO_RANGE_IDcf52df5aa10c42988ccbde80de61920b" localSheetId="1" hidden="1">Planilha1!$E$4:$E$345</definedName>
+    <definedName name="_ECO_RANGE_IDd3a1b0fb03734d20b925c64d962a80f8" localSheetId="2" hidden="1">Planilha2!$D$4:$D$345</definedName>
+    <definedName name="_ECO_RANGE_IDd5d36c3be3c24e718255766715e79eb3" localSheetId="1" hidden="1">Planilha1!$G$4:$G$345</definedName>
+    <definedName name="_ECO_RANGE_IDd8ed38204e184d02971e97d65f8a4223" localSheetId="0" hidden="1">Plan1!$N$4:$N$345</definedName>
+    <definedName name="_ECO_RANGE_IDda163b1d4fc24fbfa7a565c91bc0e758" localSheetId="2" hidden="1">Planilha2!$E$4:$E$345</definedName>
+    <definedName name="_ECO_RANGE_IDda9f5ab03b6b4ab7983d8427d282568b" localSheetId="1" hidden="1">Planilha1!$A$4:$B$345</definedName>
+    <definedName name="_ECO_RANGE_IDdf87e9afb1674b5a82425f8cc3e4443f" localSheetId="0" hidden="1">Plan1!$K$4:$K$345</definedName>
+    <definedName name="_ECO_RANGE_IDe7d05cb6520e46c0934ad1da06870f58" localSheetId="1" hidden="1">Planilha1!$M$4:$M$345</definedName>
+    <definedName name="_ECO_RANGE_IDec1556b21dc349efbf27997547112bd8" localSheetId="1" hidden="1">Planilha1!$O$4:$O$345</definedName>
+    <definedName name="_ECO_RANGE_IDeec6a526085f461ebee788829cd219a5" localSheetId="2" hidden="1">Planilha2!$L$4:$L$345</definedName>
+    <definedName name="_ECO_RANGE_IDf6781000b15b4eb4879755d61e5ab931" localSheetId="2" hidden="1">Planilha2!$I$4:$I$345</definedName>
+    <definedName name="_ECO_RANGE_IDfc4fedda878143aab2fc56552a570f48" localSheetId="0" hidden="1">Plan1!$G$4:$G$345</definedName>
+    <definedName name="_ECO_RANGE_IDffc5a489f4834294a963c07b7b2aa0c2" localSheetId="2" hidden="1">Planilha2!$H$4:$H$345</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,316 +286,312 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>676e8b75-d10e-4fbc-929b-b874cf94eea0</stp>
+        <stp>2016b795-2994-4351-976b-d03ee52223b2</stp>
         <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>86af3d18-19d9-49c6-b7c4-ed389676b40c</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3bccaeb0-ce78-40aa-8725-05c191045b3f</stp>
-        <tr r="F3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>fbf9c86e-5c4c-4a5f-a84a-6be9299bd793</stp>
-        <tr r="E3" s="2"/>
+        <stp>eb2702df-3fdc-4537-8bc3-84194d084c2d</stp>
+        <tr r="P3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6c8dcb76-dd5f-430e-81f9-3f8707d30fd0</stp>
-        <tr r="D3" s="3"/>
+        <stp>a34f86c3-590a-4f08-9dc2-88c24c851724</stp>
+        <tr r="F3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>5dea62c8-9cfb-4758-9bd3-e317c12d0ccf</stp>
-        <tr r="G3" s="1"/>
+        <stp>3df6dbaf-bc3c-4670-bcea-7e0540b01b4b</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b9ded4c1-97bd-48ac-a9f8-ef47acf33f24</stp>
-        <tr r="I3" s="3"/>
+        <stp>2811efbe-2fff-45b6-8df5-1e22d8520a99</stp>
+        <tr r="G3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>58c71dd5-690f-453d-ac6e-09909a287332</stp>
+        <stp>175b6a45-60bb-48f2-849c-0ebd59fbd78b</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dfd82ee0-be43-46ef-b8b2-1979c2b49c4f</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>46b1736b-93b5-455e-9c87-299f0a65447f</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a2139f64-9753-4336-a687-eceb89a70536</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>de528815-6785-41af-896e-c91898ae661f</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5bb03f0d-0a81-48b9-b0e7-c20b32a74d7d</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f9954a05-ac72-4205-9a51-5bf2b6cd6a99</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7b8a180d-2de3-400d-b02b-c59eee657bf9</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1a2783bc-7ab0-47c3-97aa-434bc96d7272</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>da7908db-d39f-43f9-b291-9cb77ec5b512</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a98b5ee4-94a7-4fc9-9311-7c6324a294dd</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>aab78681-f211-437d-8792-e04647720e3f</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cab416ab-e4cc-493f-affd-44a039e40621</stp>
         <tr r="J3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2c9a7f48-9cf3-4cf8-8285-c613f805ffa3</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>87207b21-a3cd-4656-a50b-80c91c3ab55e</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b55b46da-46ba-4174-bbc3-831ddfa0ac06</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f2d9dffb-ccce-4cb4-8c86-f01ce2a92a92</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1797ad0e-a764-420f-9b2e-b6f8016959a1</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>95b1ec31-3f5a-44aa-98b9-c86b0238d5d4</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>76801cf2-7124-4a1d-8b3e-3b7828c6c4a6</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>194656f0-d5a0-4476-bf76-9521811063f1</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5866af91-2c6b-4b3a-9bfe-80bc406d951c</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8f9c17fe-44d4-4778-a401-5387a07281d7</stp>
+        <stp>473ad6a1-db1f-4334-b0cc-c895a718845c</stp>
         <tr r="L3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>aad2c06f-b7a6-4c67-9536-c465293b5e9e</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7998883f-745a-4ead-a356-ad39d5b7061d</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e1a1300f-fd4b-455b-81a3-d618e5cd0fcd</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ea10ae7e-7ca7-488c-9ca1-3de5acb854d7</stp>
-        <tr r="N3" s="2"/>
+        <stp>9a5034a7-8421-4a61-bca3-27306d1fbfb5</stp>
+        <tr r="O3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b8babf9f-bab2-46ec-993c-00d119adfffc</stp>
+        <stp>61ee5961-2752-45cc-9bf4-1b82fa8224bc</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b15d40ee-5aba-49cb-ba71-a68e19326f54</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>95f0e9b2-82fc-43d0-83a6-6903a2c16e5f</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1f18710b-978a-4aaa-8287-a97aa184f4c5</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>308d2c63-f4df-4063-b8ba-309288e209df</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>034dfb23-e3b6-4133-b3d0-aed0d7e57ebd</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>feda33fc-29e3-4dfc-9bf1-4d30c77bafd6</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d5b4a770-a87a-4fca-b900-4c24a0229606</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6efa705f-7c37-43dd-a43d-6d83fef21b13</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d881a4d7-602a-4234-bb9b-8c325d2eafc2</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>73598276-ae5a-4231-8f5c-f630d65d145f</stp>
         <tr r="M3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>07cedcdf-cf2d-4d65-b178-5cc79e402060</stp>
-        <tr r="O3" s="1"/>
+        <stp>b31850e3-e665-4ba0-8a1a-3a7075932c79</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>20ac1163-05f6-4d52-bd60-07efa31d9b9b</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5c5f4504-e58a-4ab5-96bc-668eb6cd67e4</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f41fe413-4c6a-4726-9a07-bfec82b424ef</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4390d86e-2212-44e1-9cfd-6862550761b7</stp>
+        <tr r="O3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d5ee5456-cc76-483d-a5b0-4719a4642d3e</stp>
-        <tr r="N3" s="1"/>
+        <stp>6e460b1a-ecb8-4fe5-bd15-631c9b4b1e83</stp>
+        <tr r="K3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d7bb840e-0b18-4c65-822e-324d2ff2bd27</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>366afef7-c3e6-4dfc-81d1-92a1f4d9a57a</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>95a7ad0b-f57c-466f-851d-6e78b010d1a5</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>eac2e888-ef7a-4510-a490-08941064b8a3</stp>
-        <tr r="I3" s="1"/>
+        <stp>da3e3208-4093-45fa-b623-23c2acc869a4</stp>
+        <tr r="A3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ef2e1573-6dc9-4cf4-8fcf-accaeedec1f3</stp>
-        <tr r="L3" s="3"/>
+        <stp>a6d4e5dd-85a2-4914-b671-e81c98b8bdd0</stp>
+        <tr r="G3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2b7610ad-769f-4baa-a8e2-ff3fd7bea6b4</stp>
-        <tr r="D3" s="2"/>
+        <stp>3616ad1a-227c-4277-a989-3d01b5994a2a</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ea8baa18-ee28-4d54-a4ac-1a2939caf19c</stp>
+        <tr r="E3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ddc75514-4379-4f3a-9e32-4f2004f70b91</stp>
-        <tr r="L3" s="1"/>
+        <stp>fe1b51bf-7e6a-41aa-8e93-6af8e045e32a</stp>
+        <tr r="L3" s="3"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c9fb0c7e-61c7-48e6-b24a-2a44dd63dc40</stp>
+        <stp>29e7083c-294b-4440-a330-0d43a4630915</stp>
         <tr r="J3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cfe06659-a23a-44d5-81e8-3ede88817422</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e0c126c4-fa1d-4312-be66-c1fc59407e34</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cea125a4-0288-43df-9b05-a92db51a7312</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>02275108-39b0-4b5b-b4a7-172557b0f973</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5260531d-bb11-4859-9a26-4ce7ddf65e32</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b8ab0e5a-3b4c-4d0d-9cd4-1c4d37536186</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8bbfe37d-75c1-4e94-b043-31e8e8f54c2f</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>566d2167-7454-4538-88c4-0cb997fb628e</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f82818db-f885-4ad6-a9d7-0815802da222</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bdc183deed70490fb6485401e2f57dc7">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6b9e8721-d054-474a-9cf2-f4dca9e6c492</stp>
-        <tr r="M3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -865,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O343"/>
+  <dimension ref="A1:O345"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="A345" sqref="A345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16306,6 +16302,53 @@
         <v>7.1608999999999998</v>
       </c>
     </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C344">
+        <v>10.196999999999999</v>
+      </c>
+      <c r="D344">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="E344">
+        <v>8.2370999999999999</v>
+      </c>
+      <c r="F344">
+        <v>7.9863999999999997</v>
+      </c>
+      <c r="G344">
+        <v>7.9053000000000004</v>
+      </c>
+      <c r="H344">
+        <v>7.8155000000000001</v>
+      </c>
+      <c r="I344">
+        <v>7.6978999999999997</v>
+      </c>
+      <c r="J344">
+        <v>7.5366</v>
+      </c>
+      <c r="K344">
+        <v>7.3540000000000001</v>
+      </c>
+      <c r="L344">
+        <v>7.35</v>
+      </c>
+      <c r="M344">
+        <v>7.2702999999999998</v>
+      </c>
+      <c r="N344">
+        <v>7.2591000000000001</v>
+      </c>
+      <c r="O344">
+        <v>7.2839999999999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A345" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16313,10 +16356,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O343"/>
+  <dimension ref="A1:O345"/>
   <sheetViews>
     <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+      <selection activeCell="A345" sqref="A345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31754,6 +31797,53 @@
         <v>3902.815818</v>
       </c>
     </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C344">
+        <v>4373.2719230000002</v>
+      </c>
+      <c r="D344">
+        <v>4415.1578040000004</v>
+      </c>
+      <c r="E344">
+        <v>4291.1165700000001</v>
+      </c>
+      <c r="F344">
+        <v>4341.1480629999996</v>
+      </c>
+      <c r="G344">
+        <v>4212.3801940000003</v>
+      </c>
+      <c r="H344">
+        <v>4127.5277990000004</v>
+      </c>
+      <c r="I344">
+        <v>4189.8367360000002</v>
+      </c>
+      <c r="J344">
+        <v>4161.1363950000004</v>
+      </c>
+      <c r="K344">
+        <v>4018.8333699999998</v>
+      </c>
+      <c r="L344">
+        <v>4009.4028039999998</v>
+      </c>
+      <c r="M344">
+        <v>3916.491066</v>
+      </c>
+      <c r="N344">
+        <v>3951.7296919999999</v>
+      </c>
+      <c r="O344">
+        <v>3842.9489939999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A345" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -31761,10 +31851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z343"/>
+  <dimension ref="A1:Z345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343"/>
+    <sheetView topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="A345" sqref="A345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46732,6 +46822,59 @@
         <v>0.10489999999999999</v>
       </c>
     </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B344">
+        <v>1.47E-2</v>
+      </c>
+      <c r="C344">
+        <v>-1.55E-2</v>
+      </c>
+      <c r="D344">
+        <v>-1.18E-2</v>
+      </c>
+      <c r="E344">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="F344">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="G344">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="H344">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I344">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="J344">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K344">
+        <v>0.1079</v>
+      </c>
+      <c r="L344">
+        <v>0.107</v>
+      </c>
+      <c r="M344">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="N344">
+        <v>0.1055</v>
+      </c>
+      <c r="O344">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="P344">
+        <v>0.1048</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A345" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0395C1A-5ED6-4267-96EC-9C217DE19558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C21FD-2455-4ED4-B47F-DBCB04A6CE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID02d13cec728348e689966b707e06769d" localSheetId="0" hidden="1">Plan1!$L$4:$L$345</definedName>
-    <definedName name="_ECO_RANGE_ID03c22a4dc0a54d379309e77cc83d3b18" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID1e9ca6ed2fbd45f7ae90dfea4c1338c0" localSheetId="1" hidden="1">Planilha1!$L$4:$L$345</definedName>
-    <definedName name="_ECO_RANGE_ID200b506fc040464fb96fc66a99370008" localSheetId="0" hidden="1">Plan1!$J$4:$J$345</definedName>
-    <definedName name="_ECO_RANGE_ID202b1faa546c4173bad1cf38cdec85a7" localSheetId="1" hidden="1">Planilha1!$D$4:$D$345</definedName>
-    <definedName name="_ECO_RANGE_ID23a0fadb890144f5aeda20f5f922d6cd" localSheetId="2" hidden="1">Planilha2!$O$4:$O$345</definedName>
-    <definedName name="_ECO_RANGE_ID265fcf6aa8da4c58bff09997295eb1d5" localSheetId="0" hidden="1">Plan1!$F$4:$F$345</definedName>
-    <definedName name="_ECO_RANGE_ID2b9d25cc430441c88cd54f81fa60f215" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID2e7de4c03ab0412fb73313df040223ff" localSheetId="1" hidden="1">Planilha1!$F$4:$F$345</definedName>
-    <definedName name="_ECO_RANGE_ID364436acfc8d4240a4d02e5a22e14fe8" localSheetId="0" hidden="1">Plan1!$E$4:$E$345</definedName>
-    <definedName name="_ECO_RANGE_ID3d409672508145a2a83ba0473ed7346a" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID3d7626224cef421d8066f7b9614dc034" localSheetId="2" hidden="1">Planilha2!$G$4:$G$345</definedName>
-    <definedName name="_ECO_RANGE_ID40a1937ad18441758692a64b7059eca1" localSheetId="1" hidden="1">Planilha1!$K$4:$K$345</definedName>
-    <definedName name="_ECO_RANGE_ID442a3d72ca5f4dbd95c4a50f9fdadac4" localSheetId="0" hidden="1">Plan1!$H$4:$H$345</definedName>
-    <definedName name="_ECO_RANGE_ID4df42c2289ff4e0d9ddb3058bbf05375" localSheetId="2" hidden="1">Planilha2!$A$4:$B$345</definedName>
-    <definedName name="_ECO_RANGE_ID55e23871e09b469e89022c2fa68c7da1" localSheetId="0" hidden="1">Plan1!$O$4:$O$345</definedName>
-    <definedName name="_ECO_RANGE_ID56df33b99c1c4023b36774776b4a45d1" localSheetId="0" hidden="1">Plan1!$D$4:$D$345</definedName>
-    <definedName name="_ECO_RANGE_ID58989c26b67f4f8fa6d5cc9e3db99810" localSheetId="0" hidden="1">Plan1!$A$4:$B$345</definedName>
-    <definedName name="_ECO_RANGE_ID661316d5587d4ceabf1e865845631f4d" localSheetId="2" hidden="1">Planilha2!$J$4:$J$345</definedName>
-    <definedName name="_ECO_RANGE_ID68a8269b69ec48b29a46236dfe74de3f" localSheetId="2" hidden="1">Planilha2!$K$4:$K$345</definedName>
-    <definedName name="_ECO_RANGE_ID6f5a93fe613947abb096e867b16a5f4a" localSheetId="2" hidden="1">Planilha2!$N$4:$N$345</definedName>
-    <definedName name="_ECO_RANGE_ID70739efddca94116bf767e1430ce6041" localSheetId="1" hidden="1">Planilha1!$J$4:$J$345</definedName>
-    <definedName name="_ECO_RANGE_ID73b447b69a2b444db4ab6b510a5ae2cc" localSheetId="1" hidden="1">Planilha1!$N$4:$N$345</definedName>
-    <definedName name="_ECO_RANGE_ID74c3b2ee8c014dc5b479425b904765d1" localSheetId="2" hidden="1">Planilha2!$M$4:$M$345</definedName>
-    <definedName name="_ECO_RANGE_ID7adcec8de9824e0289cf0cf14ab86e0f" localSheetId="0" hidden="1">Plan1!$I$4:$I$345</definedName>
-    <definedName name="_ECO_RANGE_ID82c6bffe182145e2a05553d4f0f26e01" localSheetId="1" hidden="1">Planilha1!$C$4:$C$345</definedName>
-    <definedName name="_ECO_RANGE_ID8fbaa884cffa43b893349f01f7306b97" localSheetId="2" hidden="1">Planilha2!$P$4:$P$345</definedName>
-    <definedName name="_ECO_RANGE_ID95e0f793ac4e4f3d90f20861d28761bd" localSheetId="2" hidden="1">Planilha2!$F$4:$F$345</definedName>
-    <definedName name="_ECO_RANGE_ID99b55be4b4684180b38f01cd90d81668" localSheetId="2" hidden="1">Planilha2!$C$4:$C$345</definedName>
-    <definedName name="_ECO_RANGE_ID9fe1c13a86e94cb6b26c08479154a9fb" localSheetId="1" hidden="1">Planilha1!$I$4:$I$345</definedName>
-    <definedName name="_ECO_RANGE_IDa565bebe27484e6399afe9afc8a4b0f6" localSheetId="0" hidden="1">Plan1!$M$4:$M$345</definedName>
-    <definedName name="_ECO_RANGE_IDba1719eba66d455c8e88d969283fa3fa" localSheetId="1" hidden="1">Planilha1!$H$4:$H$345</definedName>
-    <definedName name="_ECO_RANGE_IDc42c7726eda44380bb63cb983e95e612" localSheetId="0" hidden="1">Plan1!$C$4:$C$345</definedName>
-    <definedName name="_ECO_RANGE_IDcf52df5aa10c42988ccbde80de61920b" localSheetId="1" hidden="1">Planilha1!$E$4:$E$345</definedName>
-    <definedName name="_ECO_RANGE_IDd3a1b0fb03734d20b925c64d962a80f8" localSheetId="2" hidden="1">Planilha2!$D$4:$D$345</definedName>
-    <definedName name="_ECO_RANGE_IDd5d36c3be3c24e718255766715e79eb3" localSheetId="1" hidden="1">Planilha1!$G$4:$G$345</definedName>
-    <definedName name="_ECO_RANGE_IDd8ed38204e184d02971e97d65f8a4223" localSheetId="0" hidden="1">Plan1!$N$4:$N$345</definedName>
-    <definedName name="_ECO_RANGE_IDda163b1d4fc24fbfa7a565c91bc0e758" localSheetId="2" hidden="1">Planilha2!$E$4:$E$345</definedName>
-    <definedName name="_ECO_RANGE_IDda9f5ab03b6b4ab7983d8427d282568b" localSheetId="1" hidden="1">Planilha1!$A$4:$B$345</definedName>
-    <definedName name="_ECO_RANGE_IDdf87e9afb1674b5a82425f8cc3e4443f" localSheetId="0" hidden="1">Plan1!$K$4:$K$345</definedName>
-    <definedName name="_ECO_RANGE_IDe7d05cb6520e46c0934ad1da06870f58" localSheetId="1" hidden="1">Planilha1!$M$4:$M$345</definedName>
-    <definedName name="_ECO_RANGE_IDec1556b21dc349efbf27997547112bd8" localSheetId="1" hidden="1">Planilha1!$O$4:$O$345</definedName>
-    <definedName name="_ECO_RANGE_IDeec6a526085f461ebee788829cd219a5" localSheetId="2" hidden="1">Planilha2!$L$4:$L$345</definedName>
-    <definedName name="_ECO_RANGE_IDf6781000b15b4eb4879755d61e5ab931" localSheetId="2" hidden="1">Planilha2!$I$4:$I$345</definedName>
-    <definedName name="_ECO_RANGE_IDfc4fedda878143aab2fc56552a570f48" localSheetId="0" hidden="1">Plan1!$G$4:$G$345</definedName>
-    <definedName name="_ECO_RANGE_IDffc5a489f4834294a963c07b7b2aa0c2" localSheetId="2" hidden="1">Planilha2!$H$4:$H$345</definedName>
+    <definedName name="_ECO_RANGE_ID04b34313b50b46f0bcc29f4febb134dc" localSheetId="1" hidden="1">Planilha1!$C$4:$C$351</definedName>
+    <definedName name="_ECO_RANGE_ID0774afe8f44e4ca6a6e78ef863663725" localSheetId="0" hidden="1">Plan1!$O$4:$O$351</definedName>
+    <definedName name="_ECO_RANGE_ID0ba97e16f33b4fefa93f3d8130c45b43" localSheetId="0" hidden="1">Plan1!$F$4:$F$351</definedName>
+    <definedName name="_ECO_RANGE_ID18df794458f6484eb23483af7c894db4" localSheetId="1" hidden="1">Planilha1!$J$4:$J$351</definedName>
+    <definedName name="_ECO_RANGE_ID1a8e27f948c1461e9ed763c05b6c6781" localSheetId="1" hidden="1">Planilha1!$G$4:$G$351</definedName>
+    <definedName name="_ECO_RANGE_ID32168650ecbd454db08dcd54507969bd" localSheetId="1" hidden="1">Planilha1!$I$4:$I$351</definedName>
+    <definedName name="_ECO_RANGE_ID3ba3e8e6dee04cc1880f7dc8aacdcf0b" localSheetId="2" hidden="1">Planilha2!$L$4:$L$351</definedName>
+    <definedName name="_ECO_RANGE_ID3fa9a249bd7c4ec6a3fe510aa9ea2a24" localSheetId="1" hidden="1">Planilha1!$H$4:$H$351</definedName>
+    <definedName name="_ECO_RANGE_ID41e3bb5a776447d0880977bd615be3d9" localSheetId="2" hidden="1">Planilha2!$A$4:$B$351</definedName>
+    <definedName name="_ECO_RANGE_ID4821b593a0004f44b020ef3caa51e06c" localSheetId="0" hidden="1">Plan1!$M$4:$M$351</definedName>
+    <definedName name="_ECO_RANGE_ID4c2a56d9bc5a4709b1db4d29ddd97bd3" localSheetId="2" hidden="1">Planilha2!$H$4:$H$351</definedName>
+    <definedName name="_ECO_RANGE_ID51bbccdb9aa442178f191f4c29354c1e" localSheetId="1" hidden="1">Planilha1!$E$4:$E$351</definedName>
+    <definedName name="_ECO_RANGE_ID5e9455055af54311afceb5d8bc47a4a2" localSheetId="2" hidden="1">Planilha2!$O$4:$O$351</definedName>
+    <definedName name="_ECO_RANGE_ID66ce451f1d0242789e8adfd852cf0283" localSheetId="0" hidden="1">Plan1!$A$4:$B$351</definedName>
+    <definedName name="_ECO_RANGE_ID6ce2c02e90154e1793749aebe4850527" localSheetId="2" hidden="1">Planilha2!$M$4:$M$351</definedName>
+    <definedName name="_ECO_RANGE_ID70828373edd9438ca5b3450e947ce364" localSheetId="2" hidden="1">Planilha2!$E$4:$E$351</definedName>
+    <definedName name="_ECO_RANGE_ID7b9ec1cc933a481d8bbaeef7c3aba1bc" localSheetId="0" hidden="1">Plan1!$K$4:$K$351</definedName>
+    <definedName name="_ECO_RANGE_ID81c5dad97d5d43d3b650f0b005e7fb64" localSheetId="2" hidden="1">Planilha2!$D$4:$D$351</definedName>
+    <definedName name="_ECO_RANGE_ID82a76030b5734223a45ed3446325d331" localSheetId="0" hidden="1">Plan1!$G$4:$G$351</definedName>
+    <definedName name="_ECO_RANGE_ID8754af7c3fc94fbc8a06bfae2eddce3c" localSheetId="0" hidden="1">Plan1!$C$4:$C$351</definedName>
+    <definedName name="_ECO_RANGE_ID8c10bf5576624b1e8c9b82bd43fe9746" localSheetId="0" hidden="1">Plan1!$L$4:$L$351</definedName>
+    <definedName name="_ECO_RANGE_ID8f63e2cce35048ab8942bcab802ea4e0" localSheetId="0" hidden="1">Plan1!$D$4:$D$351</definedName>
+    <definedName name="_ECO_RANGE_ID97b5e4cd158f458db8ce15a6e65e4fe5" localSheetId="2" hidden="1">Planilha2!$C$4:$C$351</definedName>
+    <definedName name="_ECO_RANGE_ID99cb89beb64d431d86022ecd506fc35a" localSheetId="1" hidden="1">Planilha1!$D$4:$D$351</definedName>
+    <definedName name="_ECO_RANGE_IDa0651ac3cc7b43a487abc4fade652d8e" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDa30e8009198d4dde85faa471c877ce35" localSheetId="2" hidden="1">Planilha2!$N$4:$N$351</definedName>
+    <definedName name="_ECO_RANGE_IDa4b3ec19da3246629904eba2be928d8d" localSheetId="0" hidden="1">Plan1!$N$4:$N$351</definedName>
+    <definedName name="_ECO_RANGE_IDae2996fd2e2e4c5e82eaead5b10467ff" localSheetId="1" hidden="1">Planilha1!$A$4:$B$351</definedName>
+    <definedName name="_ECO_RANGE_IDb5dd0cdd5c434af1bb7e322b4eb932c1" localSheetId="2" hidden="1">Planilha2!$P$4:$P$351</definedName>
+    <definedName name="_ECO_RANGE_IDc3877a93c93a46a188c90021bc88f07f" localSheetId="2" hidden="1">Planilha2!$K$4:$K$351</definedName>
+    <definedName name="_ECO_RANGE_IDcadc6c63c1dd4b30b52c94f6f071fbc7" localSheetId="1" hidden="1">Planilha1!$N$4:$N$351</definedName>
+    <definedName name="_ECO_RANGE_IDce43660faa864f06993a1de23417dd85" localSheetId="1" hidden="1">Planilha1!$K$4:$K$351</definedName>
+    <definedName name="_ECO_RANGE_IDd6d5843e029a4b03a01de0ef9718852d" localSheetId="0" hidden="1">Plan1!$E$4:$E$351</definedName>
+    <definedName name="_ECO_RANGE_IDda8db34d5704479db4dbe901b807093d" localSheetId="1" hidden="1">Planilha1!$F$4:$F$351</definedName>
+    <definedName name="_ECO_RANGE_IDdcfe247785e0427f81153b2e2e008eba" localSheetId="2" hidden="1">Planilha2!$G$4:$G$351</definedName>
+    <definedName name="_ECO_RANGE_IDdd50707925814f03b2c718f5876d3fa7" localSheetId="0" hidden="1">Plan1!$H$4:$H$351</definedName>
+    <definedName name="_ECO_RANGE_IDdd73955866434c70936a6119966aff4a" localSheetId="1" hidden="1">Planilha1!$O$4:$O$351</definedName>
+    <definedName name="_ECO_RANGE_IDe29e779643a04191bd371859ad92df24" localSheetId="0" hidden="1">Plan1!$I$4:$I$351</definedName>
+    <definedName name="_ECO_RANGE_IDe4f4a537e656457e9f74aed068deb27d" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDe7f9964f364844118429e1b17e09aa7e" localSheetId="0" hidden="1">Plan1!$J$4:$J$351</definedName>
+    <definedName name="_ECO_RANGE_IDecd4cb7ba2244999a4347fa658b7f9b1" localSheetId="2" hidden="1">Planilha2!$F$4:$F$351</definedName>
+    <definedName name="_ECO_RANGE_IDee5c3da80c034cd0a17c3a265c658a73" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDf0d92ba6838a400b912584399f33f888" localSheetId="2" hidden="1">Planilha2!$I$4:$I$351</definedName>
+    <definedName name="_ECO_RANGE_IDfb5748e9ff5b4a8484f1a809597163d2" localSheetId="1" hidden="1">Planilha1!$M$4:$M$351</definedName>
+    <definedName name="_ECO_RANGE_IDff23fd9ed5a849969a7ef94f1859fc9e" localSheetId="1" hidden="1">Planilha1!$L$4:$L$351</definedName>
+    <definedName name="_ECO_RANGE_IDff9e43999f694960bade8ce0b3ae8e8e" localSheetId="2" hidden="1">Planilha2!$J$4:$J$351</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,312 +286,318 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2016b795-2994-4351-976b-d03ee52223b2</stp>
-        <tr r="H3" s="2"/>
+        <stp>0772ccc6-d2e6-4fe7-9834-321249f595bf</stp>
+        <tr r="N3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>eb2702df-3fdc-4537-8bc3-84194d084c2d</stp>
+        <stp>d19dcc42-7b74-4ceb-959f-a2a5cfc6ba69</stp>
         <tr r="P3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a34f86c3-590a-4f08-9dc2-88c24c851724</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3df6dbaf-bc3c-4670-bcea-7e0540b01b4b</stp>
+        <stp>c6618813-88bc-4fba-9da3-280aa44472cd</stp>
         <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2811efbe-2fff-45b6-8df5-1e22d8520a99</stp>
-        <tr r="G3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>175b6a45-60bb-48f2-849c-0ebd59fbd78b</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>dfd82ee0-be43-46ef-b8b2-1979c2b49c4f</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>46b1736b-93b5-455e-9c87-299f0a65447f</stp>
+        <stp>4932afc7-f181-4a4d-a36b-eba338380856</stp>
         <tr r="M3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a2139f64-9753-4336-a687-eceb89a70536</stp>
-        <tr r="E3" s="3"/>
+        <stp>88f43fb9-2c4b-423e-9fc7-9ef964f8a270</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f7fa29ae-c1b4-4d03-a3df-cad563d01ffa</stp>
+        <tr r="G3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>de528815-6785-41af-896e-c91898ae661f</stp>
+        <stp>46b1663a-6ff5-4905-9878-b8442cb65a27</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>51d6e3cc-8302-4df3-a410-4d0ad60c0ed8</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7de65994-32cf-4307-947a-5722e1aa3d23</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f11dffef-723f-4a8d-a5ee-7067e7205d57</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3bd1eefe-222a-4b01-b551-97014acc2e17</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>768c421c-7e70-4023-887e-55ec93e6325c</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1d3a6848-9754-4c5d-8e26-5c2abcc5c338</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>573a7d16-7b2a-4571-930f-afb02144d276</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6c6740ac-ac30-40eb-b063-56b5f58b2ac3</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7cdfa869-3fe8-4dd8-80fe-c4751008d650</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>33b8b145-446e-487b-b946-ab091e978c00</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>522517c6-d0de-427f-900e-3a8b8aa532b3</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>edb6c855-fe93-4665-8063-38e3ca1d0e42</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3159578f-b4bc-46c2-aca1-7dc9aa478704</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dd53b74e-c328-41e4-9fcc-1005f65ba961</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c021bb60-c39c-4d28-b76b-9b5c8e6bda98</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3b6582eb-4a36-4ee4-a6dd-d8decefb376f</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>38aae2c0-6148-4ce8-9ba2-3ebac9190fd1</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ecd3cbb8-6316-4ccd-8986-e40edf3e0f1e</stp>
         <tr r="C3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>5bb03f0d-0a81-48b9-b0e7-c20b32a74d7d</stp>
-        <tr r="N3" s="1"/>
+        <stp>a83856fb-ed77-4715-b57b-fa8a15611bc9</stp>
+        <tr r="F3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f9954a05-ac72-4205-9a51-5bf2b6cd6a99</stp>
-        <tr r="E3" s="1"/>
+        <stp>9b69b212-7627-453e-adce-89376699e199</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>94b654c4-13ad-4c8a-a043-64e2086df794</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>09f2f46d-0407-4e43-9fd5-0b9fbe7a80f6</stp>
+        <tr r="H3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7b8a180d-2de3-400d-b02b-c59eee657bf9</stp>
-        <tr r="N3" s="2"/>
+        <stp>5ef1b0eb-e4fb-4ade-8e6a-46008fb10a4e</stp>
+        <tr r="O3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>1a2783bc-7ab0-47c3-97aa-434bc96d7272</stp>
-        <tr r="K3" s="3"/>
+        <stp>e0d514b3-33f5-42aa-adca-722517a77bc8</stp>
+        <tr r="I3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>da7908db-d39f-43f9-b291-9cb77ec5b512</stp>
-        <tr r="C3" s="2"/>
+        <stp>b4df58a4-e74d-4404-be06-09f7cd83bb2d</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8ce5be4d-c496-4bf3-ad4e-95ed1fbc7a49</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b3714b98-60ee-4aae-ae21-81d9de4985d6</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ca555dd4-f4be-49f7-8300-1d6cef93d763</stp>
+        <tr r="K3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a98b5ee4-94a7-4fc9-9311-7c6324a294dd</stp>
-        <tr r="A3" s="1"/>
+        <stp>158c14f7-1914-4c9a-be60-4e5c71a93e36</stp>
+        <tr r="D3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>aab78681-f211-437d-8792-e04647720e3f</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cab416ab-e4cc-493f-affd-44a039e40621</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>473ad6a1-db1f-4334-b0cc-c895a718845c</stp>
+        <stp>691e55ac-c45b-4d28-af77-f6220a1f7a1b</stp>
         <tr r="L3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>9a5034a7-8421-4a61-bca3-27306d1fbfb5</stp>
-        <tr r="O3" s="1"/>
+        <stp>d26b2581-f562-4fed-aafe-19571887d493</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fb52e158-e7f5-4403-b4f4-252ddc8a9b0e</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4ce33676-625d-4887-8a0b-b3609568a68d</stp>
+        <tr r="F3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>61ee5961-2752-45cc-9bf4-1b82fa8224bc</stp>
-        <tr r="L3" s="1"/>
+        <stp>5058b57d-10d2-43af-b941-613f414822af</stp>
+        <tr r="E3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b15d40ee-5aba-49cb-ba71-a68e19326f54</stp>
-        <tr r="H3" s="3"/>
+        <stp>4ac9f77a-644d-4567-94a8-9eaa6cb34ec4</stp>
+        <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
+    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>95f0e9b2-82fc-43d0-83a6-6903a2c16e5f</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1f18710b-978a-4aaa-8287-a97aa184f4c5</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>308d2c63-f4df-4063-b8ba-309288e209df</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>034dfb23-e3b6-4133-b3d0-aed0d7e57ebd</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>feda33fc-29e3-4dfc-9bf1-4d30c77bafd6</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d5b4a770-a87a-4fca-b900-4c24a0229606</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6efa705f-7c37-43dd-a43d-6d83fef21b13</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d881a4d7-602a-4234-bb9b-8c325d2eafc2</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>73598276-ae5a-4231-8f5c-f630d65d145f</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b31850e3-e665-4ba0-8a1a-3a7075932c79</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>20ac1163-05f6-4d52-bd60-07efa31d9b9b</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5c5f4504-e58a-4ab5-96bc-668eb6cd67e4</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f41fe413-4c6a-4726-9a07-bfec82b424ef</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4390d86e-2212-44e1-9cfd-6862550761b7</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6e460b1a-ecb8-4fe5-bd15-631c9b4b1e83</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>da3e3208-4093-45fa-b623-23c2acc869a4</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a6d4e5dd-85a2-4914-b671-e81c98b8bdd0</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3616ad1a-227c-4277-a989-3d01b5994a2a</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ea8baa18-ee28-4d54-a4ac-1a2939caf19c</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fe1b51bf-7e6a-41aa-8e93-6af8e045e32a</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_6b15f008ffab45159962e764a25a83da">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>29e7083c-294b-4440-a330-0d43a4630915</stp>
-        <tr r="J3" s="2"/>
+        <stp>54d2f84b-04c8-4193-8a89-c1bb60561cf2</stp>
+        <tr r="K3" s="3"/>
       </tp>
     </main>
   </volType>
@@ -861,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O345"/>
+  <dimension ref="A1:O351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345"/>
+    <sheetView topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16347,7 +16353,271 @@
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A345" s="1"/>
+      <c r="A345" s="1">
+        <v>45889</v>
+      </c>
+      <c r="C345">
+        <v>10.2453</v>
+      </c>
+      <c r="D345">
+        <v>8.8643999999999998</v>
+      </c>
+      <c r="E345">
+        <v>8.1828000000000003</v>
+      </c>
+      <c r="F345">
+        <v>7.9455</v>
+      </c>
+      <c r="G345">
+        <v>7.8940999999999999</v>
+      </c>
+      <c r="H345">
+        <v>7.8109999999999999</v>
+      </c>
+      <c r="I345">
+        <v>7.7352999999999996</v>
+      </c>
+      <c r="J345">
+        <v>7.59</v>
+      </c>
+      <c r="K345">
+        <v>7.3883000000000001</v>
+      </c>
+      <c r="L345">
+        <v>7.3765000000000001</v>
+      </c>
+      <c r="M345">
+        <v>7.3056000000000001</v>
+      </c>
+      <c r="N345">
+        <v>7.2866</v>
+      </c>
+      <c r="O345">
+        <v>7.3087</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>45890</v>
+      </c>
+      <c r="C346">
+        <v>10.25</v>
+      </c>
+      <c r="D346">
+        <v>8.9291999999999998</v>
+      </c>
+      <c r="E346">
+        <v>8.25</v>
+      </c>
+      <c r="F346">
+        <v>8.0104000000000006</v>
+      </c>
+      <c r="G346">
+        <v>7.9701000000000004</v>
+      </c>
+      <c r="H346">
+        <v>7.8944000000000001</v>
+      </c>
+      <c r="I346">
+        <v>7.7861000000000002</v>
+      </c>
+      <c r="J346">
+        <v>7.64</v>
+      </c>
+      <c r="K346">
+        <v>7.4255000000000004</v>
+      </c>
+      <c r="L346">
+        <v>7.4</v>
+      </c>
+      <c r="M346">
+        <v>7.3232999999999997</v>
+      </c>
+      <c r="N346">
+        <v>7.3071999999999999</v>
+      </c>
+      <c r="O346">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <v>45891</v>
+      </c>
+      <c r="C347">
+        <v>10.169499999999999</v>
+      </c>
+      <c r="D347">
+        <v>8.8592999999999993</v>
+      </c>
+      <c r="E347">
+        <v>8.1516000000000002</v>
+      </c>
+      <c r="F347">
+        <v>7.9112</v>
+      </c>
+      <c r="G347">
+        <v>7.8665000000000003</v>
+      </c>
+      <c r="H347">
+        <v>7.7877000000000001</v>
+      </c>
+      <c r="I347">
+        <v>7.7004000000000001</v>
+      </c>
+      <c r="J347">
+        <v>7.57</v>
+      </c>
+      <c r="K347">
+        <v>7.3646000000000003</v>
+      </c>
+      <c r="L347">
+        <v>7.3303000000000003</v>
+      </c>
+      <c r="M347">
+        <v>7.2621000000000002</v>
+      </c>
+      <c r="N347">
+        <v>7.25</v>
+      </c>
+      <c r="O347">
+        <v>7.2731000000000003</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <v>45894</v>
+      </c>
+      <c r="C348">
+        <v>10.1463</v>
+      </c>
+      <c r="D348">
+        <v>8.8566000000000003</v>
+      </c>
+      <c r="E348">
+        <v>8.1395999999999997</v>
+      </c>
+      <c r="F348">
+        <v>7.89</v>
+      </c>
+      <c r="G348">
+        <v>7.8403</v>
+      </c>
+      <c r="H348">
+        <v>7.7561</v>
+      </c>
+      <c r="I348">
+        <v>7.6726999999999999</v>
+      </c>
+      <c r="J348">
+        <v>7.5476999999999999</v>
+      </c>
+      <c r="K348">
+        <v>7.3228999999999997</v>
+      </c>
+      <c r="L348">
+        <v>7.2888000000000002</v>
+      </c>
+      <c r="M348">
+        <v>7.2144000000000004</v>
+      </c>
+      <c r="N348">
+        <v>7.2</v>
+      </c>
+      <c r="O348">
+        <v>7.2252000000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C349">
+        <v>9.9955999999999996</v>
+      </c>
+      <c r="D349">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E349">
+        <v>8.1201000000000008</v>
+      </c>
+      <c r="F349">
+        <v>7.8788</v>
+      </c>
+      <c r="G349">
+        <v>7.8265000000000002</v>
+      </c>
+      <c r="H349">
+        <v>7.7408000000000001</v>
+      </c>
+      <c r="I349">
+        <v>7.67</v>
+      </c>
+      <c r="J349">
+        <v>7.5488</v>
+      </c>
+      <c r="K349">
+        <v>7.3295000000000003</v>
+      </c>
+      <c r="L349">
+        <v>7.29</v>
+      </c>
+      <c r="M349">
+        <v>7.2047999999999996</v>
+      </c>
+      <c r="N349">
+        <v>7.19</v>
+      </c>
+      <c r="O349">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C350">
+        <v>9.9882000000000009</v>
+      </c>
+      <c r="D350">
+        <v>8.7456999999999994</v>
+      </c>
+      <c r="E350">
+        <v>8.0808999999999997</v>
+      </c>
+      <c r="F350">
+        <v>7.8606999999999996</v>
+      </c>
+      <c r="G350">
+        <v>7.82</v>
+      </c>
+      <c r="H350">
+        <v>7.7431999999999999</v>
+      </c>
+      <c r="I350">
+        <v>7.6792999999999996</v>
+      </c>
+      <c r="J350">
+        <v>7.5548999999999999</v>
+      </c>
+      <c r="K350">
+        <v>7.3350999999999997</v>
+      </c>
+      <c r="L350">
+        <v>7.29</v>
+      </c>
+      <c r="M350">
+        <v>7.2032999999999996</v>
+      </c>
+      <c r="N350">
+        <v>7.1959</v>
+      </c>
+      <c r="O350">
+        <v>7.2224000000000004</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A351" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16356,10 +16626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O345"/>
+  <dimension ref="A1:O351"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345"/>
+    <sheetView topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31842,7 +32112,271 @@
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A345" s="1"/>
+      <c r="A345" s="1">
+        <v>45889</v>
+      </c>
+      <c r="C345">
+        <v>4372.8402699999997</v>
+      </c>
+      <c r="D345">
+        <v>4416.7668530000001</v>
+      </c>
+      <c r="E345">
+        <v>4298.1673490000003</v>
+      </c>
+      <c r="F345">
+        <v>4347.6783969999997</v>
+      </c>
+      <c r="G345">
+        <v>4215.3038790000001</v>
+      </c>
+      <c r="H345">
+        <v>4129.5119709999999</v>
+      </c>
+      <c r="I345">
+        <v>4181.9696190000004</v>
+      </c>
+      <c r="J345">
+        <v>4147.1870289999997</v>
+      </c>
+      <c r="K345">
+        <v>4007.2530529999999</v>
+      </c>
+      <c r="L345">
+        <v>3999.4030210000001</v>
+      </c>
+      <c r="M345">
+        <v>3901.438795</v>
+      </c>
+      <c r="N345">
+        <v>3939.5947649999998</v>
+      </c>
+      <c r="O345">
+        <v>3831.8191339999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>45890</v>
+      </c>
+      <c r="C346">
+        <v>4374.1020550000003</v>
+      </c>
+      <c r="D346">
+        <v>4413.7131689999997</v>
+      </c>
+      <c r="E346">
+        <v>4291.9152370000002</v>
+      </c>
+      <c r="F346">
+        <v>4340.1114070000003</v>
+      </c>
+      <c r="G346">
+        <v>4203.5177590000003</v>
+      </c>
+      <c r="H346">
+        <v>4112.3009689999999</v>
+      </c>
+      <c r="I346">
+        <v>4170.9798959999998</v>
+      </c>
+      <c r="J346">
+        <v>4134.2652749999997</v>
+      </c>
+      <c r="K346">
+        <v>3994.6888760000002</v>
+      </c>
+      <c r="L346">
+        <v>3990.6800950000002</v>
+      </c>
+      <c r="M346">
+        <v>3894.3603950000002</v>
+      </c>
+      <c r="N346">
+        <v>3930.7708389999998</v>
+      </c>
+      <c r="O346">
+        <v>3822.388477</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <v>45891</v>
+      </c>
+      <c r="C347">
+        <v>4378.6322639999999</v>
+      </c>
+      <c r="D347">
+        <v>4419.5757839999997</v>
+      </c>
+      <c r="E347">
+        <v>4303.7772139999997</v>
+      </c>
+      <c r="F347">
+        <v>4354.3902870000002</v>
+      </c>
+      <c r="G347">
+        <v>4222.030906</v>
+      </c>
+      <c r="H347">
+        <v>4136.6074429999999</v>
+      </c>
+      <c r="I347">
+        <v>4192.2232610000001</v>
+      </c>
+      <c r="J347">
+        <v>4154.693593</v>
+      </c>
+      <c r="K347">
+        <v>4017.6764840000001</v>
+      </c>
+      <c r="L347">
+        <v>4020.2323329999999</v>
+      </c>
+      <c r="M347">
+        <v>3922.805914</v>
+      </c>
+      <c r="N347">
+        <v>3958.6695129999998</v>
+      </c>
+      <c r="O347">
+        <v>3850.8199519999998</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <v>45894</v>
+      </c>
+      <c r="C348">
+        <v>4380.955774</v>
+      </c>
+      <c r="D348">
+        <v>4420.9890660000001</v>
+      </c>
+      <c r="E348">
+        <v>4306.1821749999999</v>
+      </c>
+      <c r="F348">
+        <v>4358.285828</v>
+      </c>
+      <c r="G348">
+        <v>4227.4865019999997</v>
+      </c>
+      <c r="H348">
+        <v>4144.5328380000001</v>
+      </c>
+      <c r="I348">
+        <v>4199.7868600000002</v>
+      </c>
+      <c r="J348">
+        <v>4161.8825649999999</v>
+      </c>
+      <c r="K348">
+        <v>4033.797822</v>
+      </c>
+      <c r="L348">
+        <v>4038.332719</v>
+      </c>
+      <c r="M348">
+        <v>3945.3741369999998</v>
+      </c>
+      <c r="N348">
+        <v>3983.414616</v>
+      </c>
+      <c r="O348">
+        <v>3875.1490530000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C349">
+        <v>4388.1359229999998</v>
+      </c>
+      <c r="D349">
+        <v>4425.9563470000003</v>
+      </c>
+      <c r="E349">
+        <v>4309.4038979999996</v>
+      </c>
+      <c r="F349">
+        <v>4360.8418519999996</v>
+      </c>
+      <c r="G349">
+        <v>4230.8489</v>
+      </c>
+      <c r="H349">
+        <v>4148.8849799999998</v>
+      </c>
+      <c r="I349">
+        <v>4201.4214149999998</v>
+      </c>
+      <c r="J349">
+        <v>4162.5388249999996</v>
+      </c>
+      <c r="K349">
+        <v>4032.2826</v>
+      </c>
+      <c r="L349">
+        <v>4038.7282319999999</v>
+      </c>
+      <c r="M349">
+        <v>3950.627344</v>
+      </c>
+      <c r="N349">
+        <v>3989.0923309999998</v>
+      </c>
+      <c r="O349">
+        <v>3878.5679089999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C350">
+        <v>4389.65571</v>
+      </c>
+      <c r="D350">
+        <v>4430.5906459999997</v>
+      </c>
+      <c r="E350">
+        <v>4314.61211</v>
+      </c>
+      <c r="F350">
+        <v>4364.152505</v>
+      </c>
+      <c r="G350">
+        <v>4232.8103199999996</v>
+      </c>
+      <c r="H350">
+        <v>4149.188494</v>
+      </c>
+      <c r="I350">
+        <v>4200.0451240000002</v>
+      </c>
+      <c r="J350">
+        <v>4161.6428079999996</v>
+      </c>
+      <c r="K350">
+        <v>4030.9859740000002</v>
+      </c>
+      <c r="L350">
+        <v>4039.473426</v>
+      </c>
+      <c r="M350">
+        <v>3952.0299759999998</v>
+      </c>
+      <c r="N350">
+        <v>3986.9737690000002</v>
+      </c>
+      <c r="O350">
+        <v>3878.0847530000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A351" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -31851,10 +32385,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z345"/>
+  <dimension ref="A1:Z351"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46873,7 +47407,307 @@
       </c>
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A345" s="1"/>
+      <c r="A345" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B345">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C345">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="D345">
+        <v>-1.12E-2</v>
+      </c>
+      <c r="E345">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="F345">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="G345">
+        <v>0.05</v>
+      </c>
+      <c r="H345">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I345">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="J345">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="K345">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="L345">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="M345">
+        <v>0.1071</v>
+      </c>
+      <c r="N345">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="O345">
+        <v>0.1051</v>
+      </c>
+      <c r="P345">
+        <v>0.1047</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B346">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="C346">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="D346">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="E346">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="F346">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G346">
+        <v>0.05</v>
+      </c>
+      <c r="H346">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I346">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="J346">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="K346">
+        <v>0.1094</v>
+      </c>
+      <c r="L346">
+        <v>0.109</v>
+      </c>
+      <c r="M346">
+        <v>0.1072</v>
+      </c>
+      <c r="N346">
+        <v>0.106</v>
+      </c>
+      <c r="O346">
+        <v>0.105</v>
+      </c>
+      <c r="P346">
+        <v>0.10489999999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B347">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="C347">
+        <v>-1.1599999999999999E-2</v>
+      </c>
+      <c r="D347">
+        <v>-1.0699999999999999E-2</v>
+      </c>
+      <c r="E347">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="F347">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="G347">
+        <v>0.05</v>
+      </c>
+      <c r="H347">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="I347">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J347">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="K347">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="L347">
+        <v>0.1091</v>
+      </c>
+      <c r="M347">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="N347">
+        <v>0.1061</v>
+      </c>
+      <c r="O347">
+        <v>0.105</v>
+      </c>
+      <c r="P347">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B348">
+        <v>1.72E-2</v>
+      </c>
+      <c r="C348">
+        <v>-1.4800000000000001E-2</v>
+      </c>
+      <c r="D348">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="E348">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="F348">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="G348">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="H348">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="I348">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="J348">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="K348">
+        <v>0.11</v>
+      </c>
+      <c r="L348">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="M348">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="N348">
+        <v>0.1062</v>
+      </c>
+      <c r="O348">
+        <v>0.1052</v>
+      </c>
+      <c r="P348">
+        <v>0.1052</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B349">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="C349">
+        <v>-1.6500000000000001E-2</v>
+      </c>
+      <c r="D349">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="E349">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="F349">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="G349">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="H349">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="I349">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="J349">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="K349">
+        <v>0.11</v>
+      </c>
+      <c r="L349">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="M349">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="N349">
+        <v>0.1061</v>
+      </c>
+      <c r="O349">
+        <v>0.1055</v>
+      </c>
+      <c r="P349">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B350">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="C350">
+        <v>-1.7500000000000002E-2</v>
+      </c>
+      <c r="D350">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="E350">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="F350">
+        <v>3.85E-2</v>
+      </c>
+      <c r="G350">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="H350">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="I350">
+        <v>8.77E-2</v>
+      </c>
+      <c r="J350">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="K350">
+        <v>0.111</v>
+      </c>
+      <c r="L350">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="M350">
+        <v>0.1075</v>
+      </c>
+      <c r="N350">
+        <v>0.106</v>
+      </c>
+      <c r="O350">
+        <v>0.1055</v>
+      </c>
+      <c r="P350">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A351" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C21FD-2455-4ED4-B47F-DBCB04A6CE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4CA86-2CF2-48AD-9A9B-0FD031865B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID04b34313b50b46f0bcc29f4febb134dc" localSheetId="1" hidden="1">Planilha1!$C$4:$C$351</definedName>
-    <definedName name="_ECO_RANGE_ID0774afe8f44e4ca6a6e78ef863663725" localSheetId="0" hidden="1">Plan1!$O$4:$O$351</definedName>
-    <definedName name="_ECO_RANGE_ID0ba97e16f33b4fefa93f3d8130c45b43" localSheetId="0" hidden="1">Plan1!$F$4:$F$351</definedName>
-    <definedName name="_ECO_RANGE_ID18df794458f6484eb23483af7c894db4" localSheetId="1" hidden="1">Planilha1!$J$4:$J$351</definedName>
-    <definedName name="_ECO_RANGE_ID1a8e27f948c1461e9ed763c05b6c6781" localSheetId="1" hidden="1">Planilha1!$G$4:$G$351</definedName>
-    <definedName name="_ECO_RANGE_ID32168650ecbd454db08dcd54507969bd" localSheetId="1" hidden="1">Planilha1!$I$4:$I$351</definedName>
-    <definedName name="_ECO_RANGE_ID3ba3e8e6dee04cc1880f7dc8aacdcf0b" localSheetId="2" hidden="1">Planilha2!$L$4:$L$351</definedName>
-    <definedName name="_ECO_RANGE_ID3fa9a249bd7c4ec6a3fe510aa9ea2a24" localSheetId="1" hidden="1">Planilha1!$H$4:$H$351</definedName>
-    <definedName name="_ECO_RANGE_ID41e3bb5a776447d0880977bd615be3d9" localSheetId="2" hidden="1">Planilha2!$A$4:$B$351</definedName>
-    <definedName name="_ECO_RANGE_ID4821b593a0004f44b020ef3caa51e06c" localSheetId="0" hidden="1">Plan1!$M$4:$M$351</definedName>
-    <definedName name="_ECO_RANGE_ID4c2a56d9bc5a4709b1db4d29ddd97bd3" localSheetId="2" hidden="1">Planilha2!$H$4:$H$351</definedName>
-    <definedName name="_ECO_RANGE_ID51bbccdb9aa442178f191f4c29354c1e" localSheetId="1" hidden="1">Planilha1!$E$4:$E$351</definedName>
-    <definedName name="_ECO_RANGE_ID5e9455055af54311afceb5d8bc47a4a2" localSheetId="2" hidden="1">Planilha2!$O$4:$O$351</definedName>
-    <definedName name="_ECO_RANGE_ID66ce451f1d0242789e8adfd852cf0283" localSheetId="0" hidden="1">Plan1!$A$4:$B$351</definedName>
-    <definedName name="_ECO_RANGE_ID6ce2c02e90154e1793749aebe4850527" localSheetId="2" hidden="1">Planilha2!$M$4:$M$351</definedName>
-    <definedName name="_ECO_RANGE_ID70828373edd9438ca5b3450e947ce364" localSheetId="2" hidden="1">Planilha2!$E$4:$E$351</definedName>
-    <definedName name="_ECO_RANGE_ID7b9ec1cc933a481d8bbaeef7c3aba1bc" localSheetId="0" hidden="1">Plan1!$K$4:$K$351</definedName>
-    <definedName name="_ECO_RANGE_ID81c5dad97d5d43d3b650f0b005e7fb64" localSheetId="2" hidden="1">Planilha2!$D$4:$D$351</definedName>
-    <definedName name="_ECO_RANGE_ID82a76030b5734223a45ed3446325d331" localSheetId="0" hidden="1">Plan1!$G$4:$G$351</definedName>
-    <definedName name="_ECO_RANGE_ID8754af7c3fc94fbc8a06bfae2eddce3c" localSheetId="0" hidden="1">Plan1!$C$4:$C$351</definedName>
-    <definedName name="_ECO_RANGE_ID8c10bf5576624b1e8c9b82bd43fe9746" localSheetId="0" hidden="1">Plan1!$L$4:$L$351</definedName>
-    <definedName name="_ECO_RANGE_ID8f63e2cce35048ab8942bcab802ea4e0" localSheetId="0" hidden="1">Plan1!$D$4:$D$351</definedName>
-    <definedName name="_ECO_RANGE_ID97b5e4cd158f458db8ce15a6e65e4fe5" localSheetId="2" hidden="1">Planilha2!$C$4:$C$351</definedName>
-    <definedName name="_ECO_RANGE_ID99cb89beb64d431d86022ecd506fc35a" localSheetId="1" hidden="1">Planilha1!$D$4:$D$351</definedName>
-    <definedName name="_ECO_RANGE_IDa0651ac3cc7b43a487abc4fade652d8e" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDa30e8009198d4dde85faa471c877ce35" localSheetId="2" hidden="1">Planilha2!$N$4:$N$351</definedName>
-    <definedName name="_ECO_RANGE_IDa4b3ec19da3246629904eba2be928d8d" localSheetId="0" hidden="1">Plan1!$N$4:$N$351</definedName>
-    <definedName name="_ECO_RANGE_IDae2996fd2e2e4c5e82eaead5b10467ff" localSheetId="1" hidden="1">Planilha1!$A$4:$B$351</definedName>
-    <definedName name="_ECO_RANGE_IDb5dd0cdd5c434af1bb7e322b4eb932c1" localSheetId="2" hidden="1">Planilha2!$P$4:$P$351</definedName>
-    <definedName name="_ECO_RANGE_IDc3877a93c93a46a188c90021bc88f07f" localSheetId="2" hidden="1">Planilha2!$K$4:$K$351</definedName>
-    <definedName name="_ECO_RANGE_IDcadc6c63c1dd4b30b52c94f6f071fbc7" localSheetId="1" hidden="1">Planilha1!$N$4:$N$351</definedName>
-    <definedName name="_ECO_RANGE_IDce43660faa864f06993a1de23417dd85" localSheetId="1" hidden="1">Planilha1!$K$4:$K$351</definedName>
-    <definedName name="_ECO_RANGE_IDd6d5843e029a4b03a01de0ef9718852d" localSheetId="0" hidden="1">Plan1!$E$4:$E$351</definedName>
-    <definedName name="_ECO_RANGE_IDda8db34d5704479db4dbe901b807093d" localSheetId="1" hidden="1">Planilha1!$F$4:$F$351</definedName>
-    <definedName name="_ECO_RANGE_IDdcfe247785e0427f81153b2e2e008eba" localSheetId="2" hidden="1">Planilha2!$G$4:$G$351</definedName>
-    <definedName name="_ECO_RANGE_IDdd50707925814f03b2c718f5876d3fa7" localSheetId="0" hidden="1">Plan1!$H$4:$H$351</definedName>
-    <definedName name="_ECO_RANGE_IDdd73955866434c70936a6119966aff4a" localSheetId="1" hidden="1">Planilha1!$O$4:$O$351</definedName>
-    <definedName name="_ECO_RANGE_IDe29e779643a04191bd371859ad92df24" localSheetId="0" hidden="1">Plan1!$I$4:$I$351</definedName>
-    <definedName name="_ECO_RANGE_IDe4f4a537e656457e9f74aed068deb27d" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDe7f9964f364844118429e1b17e09aa7e" localSheetId="0" hidden="1">Plan1!$J$4:$J$351</definedName>
-    <definedName name="_ECO_RANGE_IDecd4cb7ba2244999a4347fa658b7f9b1" localSheetId="2" hidden="1">Planilha2!$F$4:$F$351</definedName>
-    <definedName name="_ECO_RANGE_IDee5c3da80c034cd0a17c3a265c658a73" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDf0d92ba6838a400b912584399f33f888" localSheetId="2" hidden="1">Planilha2!$I$4:$I$351</definedName>
-    <definedName name="_ECO_RANGE_IDfb5748e9ff5b4a8484f1a809597163d2" localSheetId="1" hidden="1">Planilha1!$M$4:$M$351</definedName>
-    <definedName name="_ECO_RANGE_IDff23fd9ed5a849969a7ef94f1859fc9e" localSheetId="1" hidden="1">Planilha1!$L$4:$L$351</definedName>
-    <definedName name="_ECO_RANGE_IDff9e43999f694960bade8ce0b3ae8e8e" localSheetId="2" hidden="1">Planilha2!$J$4:$J$351</definedName>
+    <definedName name="_ECO_RANGE_ID064e48d4c2ab431db6e9be36aeceb1fd" localSheetId="0" hidden="1">Plan1!$D$4:$D$352</definedName>
+    <definedName name="_ECO_RANGE_ID07a1d80c94c64ae2b69e2f42c9408c4b" localSheetId="2" hidden="1">Planilha2!$O$4:$O$352</definedName>
+    <definedName name="_ECO_RANGE_ID0d8d3fc8e7944230a526d1955eac4089" localSheetId="1" hidden="1">Planilha1!$D$4:$D$352</definedName>
+    <definedName name="_ECO_RANGE_ID0fdb222bc480487f8661d98f781f429b" localSheetId="2" hidden="1">Planilha2!$C$4:$C$352</definedName>
+    <definedName name="_ECO_RANGE_ID105e01afa2f14c658e2a23bb015c93ba" localSheetId="0" hidden="1">Plan1!$A$4:$B$352</definedName>
+    <definedName name="_ECO_RANGE_ID11f3a7a130954574b6eaadcdd883c8d6" localSheetId="1" hidden="1">Planilha1!$E$4:$E$352</definedName>
+    <definedName name="_ECO_RANGE_ID12c166a8162b4357adbeb46a2da1ed23" localSheetId="0" hidden="1">Plan1!$E$4:$E$352</definedName>
+    <definedName name="_ECO_RANGE_ID23d931c38cf044199b7a1dc28369bdb6" localSheetId="1" hidden="1">Planilha1!$L$4:$L$352</definedName>
+    <definedName name="_ECO_RANGE_ID2e9a185de37442a98aa610ff555147c9" localSheetId="0" hidden="1">Plan1!$L$4:$L$352</definedName>
+    <definedName name="_ECO_RANGE_ID3810b721d1c047faa21bad6c10516300" localSheetId="1" hidden="1">Planilha1!$M$4:$M$352</definedName>
+    <definedName name="_ECO_RANGE_ID3db99c6bcd8347029053494d21a41b1b" localSheetId="2" hidden="1">Planilha2!$H$4:$H$352</definedName>
+    <definedName name="_ECO_RANGE_ID406a06986961403c8704322f161aff6c" localSheetId="0" hidden="1">Plan1!$J$4:$J$352</definedName>
+    <definedName name="_ECO_RANGE_ID41df76df2ca44ddca9fcc9057670eaea" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID4961a9f837ba43a2a1e0eeda11ad5cc8" localSheetId="0" hidden="1">Plan1!$G$4:$G$352</definedName>
+    <definedName name="_ECO_RANGE_ID4bc654dc32a04fa7b94df39def3e4c38" localSheetId="0" hidden="1">Plan1!$H$4:$H$352</definedName>
+    <definedName name="_ECO_RANGE_ID579c50236ea848ec9f16d13f2728168c" localSheetId="2" hidden="1">Planilha2!$D$4:$D$352</definedName>
+    <definedName name="_ECO_RANGE_ID58863df546c044caac6563e91e55842a" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID5abd8737c6cf4e98b14e653959cd0060" localSheetId="1" hidden="1">Planilha1!$F$4:$F$352</definedName>
+    <definedName name="_ECO_RANGE_ID5d99e30bf57449e59efbff53e2211786" localSheetId="1" hidden="1">Planilha1!$J$4:$J$352</definedName>
+    <definedName name="_ECO_RANGE_ID61b323f1f4e342659cfe67a275ac9046" localSheetId="1" hidden="1">Planilha1!$A$4:$B$352</definedName>
+    <definedName name="_ECO_RANGE_ID6ca986d13e1d462e9a5c906e623a73d6" localSheetId="0" hidden="1">Plan1!$I$4:$I$352</definedName>
+    <definedName name="_ECO_RANGE_ID77adc27de7814d938906045c6f1cca5b" localSheetId="0" hidden="1">Plan1!$M$4:$M$352</definedName>
+    <definedName name="_ECO_RANGE_ID77e1b2c0dfda4d7587dddbf2d403732f" localSheetId="2" hidden="1">Planilha2!$G$4:$G$352</definedName>
+    <definedName name="_ECO_RANGE_ID8224ca994edf4d7ebf8e193f94d3bdf0" localSheetId="2" hidden="1">Planilha2!$A$4:$B$352</definedName>
+    <definedName name="_ECO_RANGE_ID95af7bf91e8841098208973100a1f45b" localSheetId="2" hidden="1">Planilha2!$L$4:$L$352</definedName>
+    <definedName name="_ECO_RANGE_ID9f4674da29ba4252a63e68ea02a288d5" localSheetId="1" hidden="1">Planilha1!$H$4:$H$352</definedName>
+    <definedName name="_ECO_RANGE_IDaa54f135c5d04829a7f99bb8865ea53d" localSheetId="2" hidden="1">Planilha2!$J$4:$J$352</definedName>
+    <definedName name="_ECO_RANGE_IDad3dcbfe72c84232964d804fa2e5e766" localSheetId="1" hidden="1">Planilha1!$I$4:$I$352</definedName>
+    <definedName name="_ECO_RANGE_IDb0b8820519d74faabe2742e4b5bb9b49" localSheetId="0" hidden="1">Plan1!$F$4:$F$352</definedName>
+    <definedName name="_ECO_RANGE_IDb321ef368a8343f7b3abc50391cf6764" localSheetId="1" hidden="1">Planilha1!$K$4:$K$352</definedName>
+    <definedName name="_ECO_RANGE_IDb9c3785c708848d88e0bbe0aacedd686" localSheetId="2" hidden="1">Planilha2!$P$4:$P$352</definedName>
+    <definedName name="_ECO_RANGE_IDbfa4a05cbba64dd6b30beba829deba66" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDcc266aee041945ceb3bbdfbcd34e4650" localSheetId="2" hidden="1">Planilha2!$K$4:$K$352</definedName>
+    <definedName name="_ECO_RANGE_IDd3db961b905940b4b19932c9f2cff7a4" localSheetId="0" hidden="1">Plan1!$K$4:$K$352</definedName>
+    <definedName name="_ECO_RANGE_IDd41b6e1cb5d04b22b6398c3d05770610" localSheetId="1" hidden="1">Planilha1!$N$4:$N$352</definedName>
+    <definedName name="_ECO_RANGE_IDd8432407e69a4cc794c5b9cc169c6186" localSheetId="0" hidden="1">Plan1!$C$4:$C$352</definedName>
+    <definedName name="_ECO_RANGE_IDdf3ee172599f4900b596c68978cf50cd" localSheetId="1" hidden="1">Planilha1!$C$4:$C$352</definedName>
+    <definedName name="_ECO_RANGE_IDe3926126119a4c0a8ed7d5f5360a9aac" localSheetId="1" hidden="1">Planilha1!$G$4:$G$352</definedName>
+    <definedName name="_ECO_RANGE_IDe3d85ecdc4a043d9a26f2fa375fdd716" localSheetId="2" hidden="1">Planilha2!$F$4:$F$352</definedName>
+    <definedName name="_ECO_RANGE_IDe8ee32dd34a64b06858eb56b273e9bc0" localSheetId="2" hidden="1">Planilha2!$M$4:$M$352</definedName>
+    <definedName name="_ECO_RANGE_IDe978362d69eb41fb94b661a4990ba376" localSheetId="1" hidden="1">Planilha1!$O$4:$O$352</definedName>
+    <definedName name="_ECO_RANGE_IDeb9dd1a2b5944777ae2d81de40c6b7b2" localSheetId="2" hidden="1">Planilha2!$E$4:$E$352</definedName>
+    <definedName name="_ECO_RANGE_IDee4d8d3a986e4e70b268b38ef1fffa09" localSheetId="2" hidden="1">Planilha2!$N$4:$N$352</definedName>
+    <definedName name="_ECO_RANGE_IDef9bbdac15c744f7ac8c30478a6110da" localSheetId="0" hidden="1">Plan1!$N$4:$N$352</definedName>
+    <definedName name="_ECO_RANGE_IDf7f90594fabb4456903d9e3afcbdfdce" localSheetId="2" hidden="1">Planilha2!$I$4:$I$352</definedName>
+    <definedName name="_ECO_RANGE_IDff4ade022cba45ada13963f1e9be07ef" localSheetId="0" hidden="1">Plan1!$O$4:$O$352</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,318 +286,334 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0772ccc6-d2e6-4fe7-9834-321249f595bf</stp>
-        <tr r="N3" s="3"/>
+        <stp>9a230775-e1ca-41af-bd81-38d99100e172</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3668caf6-cf21-4b60-a7c2-65f81f5cda80</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cfac3de5-a282-4685-a261-4ddd0a99710b</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>61f6bcc3-b504-418c-9c57-38dca98d7655</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>72134fdd-94f2-46aa-92b5-5c55ffb5084b</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>aab8fec3-3263-4b0c-9d6a-a57c449db0b7</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f0f604dd-1db7-4105-8e63-2f3c00dde3de</stp>
+        <tr r="J3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d19dcc42-7b74-4ceb-959f-a2a5cfc6ba69</stp>
-        <tr r="P3" s="3"/>
+        <stp>40fb547f-2422-4366-8e0e-c73831584ed0</stp>
+        <tr r="J3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c6618813-88bc-4fba-9da3-280aa44472cd</stp>
-        <tr r="D3" s="1"/>
+        <stp>019a0aa6-2384-40f6-b642-e17fae639ffa</stp>
+        <tr r="M3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4932afc7-f181-4a4d-a36b-eba338380856</stp>
+        <stp>f0d8a598-e265-451d-8820-381bef84f528</stp>
         <tr r="M3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>88f43fb9-2c4b-423e-9fc7-9ef964f8a270</stp>
-        <tr r="N3" s="2"/>
+        <stp>b33534f6-6271-4c92-ae29-8c4f48f536a5</stp>
+        <tr r="G3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f7fa29ae-c1b4-4d03-a3df-cad563d01ffa</stp>
-        <tr r="G3" s="3"/>
+        <stp>0a93a7a9-398a-44f5-961e-335a355e18de</stp>
+        <tr r="I3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>46b1663a-6ff5-4905-9878-b8442cb65a27</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>51d6e3cc-8302-4df3-a410-4d0ad60c0ed8</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7de65994-32cf-4307-947a-5722e1aa3d23</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f11dffef-723f-4a8d-a5ee-7067e7205d57</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3bd1eefe-222a-4b01-b551-97014acc2e17</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>768c421c-7e70-4023-887e-55ec93e6325c</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1d3a6848-9754-4c5d-8e26-5c2abcc5c338</stp>
+        <stp>3124be9b-4d55-4f2f-867f-7aa2b8f3a65b</stp>
         <tr r="L3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>573a7d16-7b2a-4571-930f-afb02144d276</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6c6740ac-ac30-40eb-b063-56b5f58b2ac3</stp>
-        <tr r="M3" s="2"/>
+        <stp>c872a4d1-f28e-4dd3-a978-263f455073e9</stp>
+        <tr r="E3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7cdfa869-3fe8-4dd8-80fe-c4751008d650</stp>
-        <tr r="H3" s="3"/>
+        <stp>ee042cf6-973d-4a1f-a609-00173a6a1f84</stp>
+        <tr r="D3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>33b8b145-446e-487b-b946-ab091e978c00</stp>
-        <tr r="D3" s="3"/>
+        <stp>3fbdd254-e6db-45fb-bc56-f0b228df304a</stp>
+        <tr r="P3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>522517c6-d0de-427f-900e-3a8b8aa532b3</stp>
+        <stp>1daef1a0-5c31-49ac-aac5-fbc0a981cb23</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>77212c17-1d05-4496-baca-7fc1b8ce5542</stp>
         <tr r="O3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>edb6c855-fe93-4665-8063-38e3ca1d0e42</stp>
-        <tr r="J3" s="1"/>
+        <stp>86da3a6e-e768-424d-899a-4121fa07edfb</stp>
+        <tr r="K3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>3159578f-b4bc-46c2-aca1-7dc9aa478704</stp>
-        <tr r="I3" s="2"/>
+        <stp>7fa75a28-194d-4868-bf34-5ddb04e9e64f</stp>
+        <tr r="I3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>dd53b74e-c328-41e4-9fcc-1005f65ba961</stp>
-        <tr r="O3" s="1"/>
+        <stp>02474829-aff2-4df4-83ed-da8013fd52f9</stp>
+        <tr r="H3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c021bb60-c39c-4d28-b76b-9b5c8e6bda98</stp>
-        <tr r="C3" s="3"/>
+        <stp>dbc7156e-b1b4-451f-be96-df9989b9a05b</stp>
+        <tr r="N3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>3b6582eb-4a36-4ee4-a6dd-d8decefb376f</stp>
-        <tr r="K3" s="1"/>
+        <stp>be78d8b4-f507-4239-995e-930499ffa898</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>01a0db3e-0bc3-469c-abaa-ee68cb762bb7</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6d4963b3-89f5-46e8-ad7f-98533d422816</stp>
+        <tr r="O3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>38aae2c0-6148-4ce8-9ba2-3ebac9190fd1</stp>
-        <tr r="N3" s="1"/>
+        <stp>540ad332-c096-43fc-89e2-fb3df5924131</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>feda29bd-5446-4093-8599-c7d1d2ab6a72</stp>
+        <tr r="D3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ecd3cbb8-6316-4ccd-8986-e40edf3e0f1e</stp>
-        <tr r="C3" s="1"/>
+        <stp>31353c0f-e1d2-4997-b48c-70cf26bee971</stp>
+        <tr r="H3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a83856fb-ed77-4715-b57b-fa8a15611bc9</stp>
-        <tr r="F3" s="2"/>
+        <stp>2bb06406-9b42-4ff9-977e-8aeb30f5d708</stp>
+        <tr r="E3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>9b69b212-7627-453e-adce-89376699e199</stp>
+        <stp>93ba89a0-106f-4a9e-9fe6-b3d7d7ab0997</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dd3f2bd5-ddf4-41ae-b42d-fe561f9ca783</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>888b724a-f4e8-4212-82ca-f2feb62108e9</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>32ef1354-7679-43f1-a8fa-16092dee8350</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>81d7602c-78d8-4ed4-9a77-a2ebeac01f5d</stp>
         <tr r="J3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>94b654c4-13ad-4c8a-a043-64e2086df794</stp>
-        <tr r="G3" s="2"/>
+        <stp>2a659fee-6c64-4c71-87ff-ff2f10b77368</stp>
+        <tr r="A3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>09f2f46d-0407-4e43-9fd5-0b9fbe7a80f6</stp>
-        <tr r="H3" s="1"/>
+        <stp>b1fb6b4a-c318-49ed-8a95-0e84a77f9270</stp>
+        <tr r="I3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>5ef1b0eb-e4fb-4ade-8e6a-46008fb10a4e</stp>
-        <tr r="O3" s="3"/>
+        <stp>6b858a4d-1f47-4aa6-86e5-2af954ef1878</stp>
+        <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>e0d514b3-33f5-42aa-adca-722517a77bc8</stp>
-        <tr r="I3" s="3"/>
+        <stp>671a7ee9-97b5-4ae3-b8ba-5a0d5a389531</stp>
+        <tr r="N3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b4df58a4-e74d-4404-be06-09f7cd83bb2d</stp>
+        <stp>d78a86e0-ef39-4a20-9d87-fb473adeca4a</stp>
         <tr r="A3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>8ce5be4d-c496-4bf3-ad4e-95ed1fbc7a49</stp>
-        <tr r="E3" s="1"/>
+        <stp>0d3058e1-b84e-4ab4-af3b-ac1db39f3b73</stp>
+        <tr r="H3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b3714b98-60ee-4aae-ae21-81d9de4985d6</stp>
-        <tr r="F3" s="3"/>
+        <stp>6a645e70-90aa-4d4e-aef7-84315e964e62</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ca555dd4-f4be-49f7-8300-1d6cef93d763</stp>
-        <tr r="K3" s="2"/>
+        <stp>ab6391b9-1ba1-44ab-8f91-c6365acead1d</stp>
+        <tr r="K3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>158c14f7-1914-4c9a-be60-4e5c71a93e36</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>691e55ac-c45b-4d28-af77-f6220a1f7a1b</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d26b2581-f562-4fed-aafe-19571887d493</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fb52e158-e7f5-4403-b4f4-252ddc8a9b0e</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4ce33676-625d-4887-8a0b-b3609568a68d</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5058b57d-10d2-43af-b941-613f414822af</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4ac9f77a-644d-4567-94a8-9eaa6cb34ec4</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8955b85a65ce4a4eada0ab95ae3694d4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>54d2f84b-04c8-4193-8a89-c1bb60561cf2</stp>
-        <tr r="K3" s="3"/>
+        <stp>41843c9f-bad5-4d03-9d02-6f03e9744f51</stp>
+        <tr r="F3" s="3"/>
       </tp>
     </main>
   </volType>
@@ -867,9 +883,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O351"/>
+  <dimension ref="A1:O352"/>
   <sheetViews>
-    <sheetView topLeftCell="A314" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
       <selection activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
@@ -16617,7 +16633,92 @@
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A351" s="1"/>
+      <c r="A351" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C351">
+        <v>9.8905999999999992</v>
+      </c>
+      <c r="D351">
+        <v>8.6425999999999998</v>
+      </c>
+      <c r="E351">
+        <v>8.0063999999999993</v>
+      </c>
+      <c r="F351">
+        <v>7.8</v>
+      </c>
+      <c r="G351">
+        <v>7.7588999999999997</v>
+      </c>
+      <c r="H351">
+        <v>7.6760000000000002</v>
+      </c>
+      <c r="I351">
+        <v>7.6144999999999996</v>
+      </c>
+      <c r="J351">
+        <v>7.4996999999999998</v>
+      </c>
+      <c r="K351">
+        <v>7.2972000000000001</v>
+      </c>
+      <c r="L351">
+        <v>7.26</v>
+      </c>
+      <c r="M351">
+        <v>7.1764999999999999</v>
+      </c>
+      <c r="N351">
+        <v>7.16</v>
+      </c>
+      <c r="O351">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C352">
+        <v>9.8278999999999996</v>
+      </c>
+      <c r="D352">
+        <v>8.6201000000000008</v>
+      </c>
+      <c r="E352">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="F352">
+        <v>7.8361999999999998</v>
+      </c>
+      <c r="G352">
+        <v>7.7907000000000002</v>
+      </c>
+      <c r="H352">
+        <v>7.7133000000000003</v>
+      </c>
+      <c r="I352">
+        <v>7.6436000000000002</v>
+      </c>
+      <c r="J352">
+        <v>7.5349000000000004</v>
+      </c>
+      <c r="K352">
+        <v>7.3422999999999998</v>
+      </c>
+      <c r="L352">
+        <v>7.2967000000000004</v>
+      </c>
+      <c r="M352">
+        <v>7.2121000000000004</v>
+      </c>
+      <c r="N352">
+        <v>7.2004000000000001</v>
+      </c>
+      <c r="O352">
+        <v>7.2249999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16626,7 +16727,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O351"/>
+  <dimension ref="A1:O352"/>
   <sheetViews>
     <sheetView topLeftCell="A318" workbookViewId="0">
       <selection activeCell="A351" sqref="A351"/>
@@ -32376,7 +32477,92 @@
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A351" s="1"/>
+      <c r="A351" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C351">
+        <v>4394.7482639999998</v>
+      </c>
+      <c r="D351">
+        <v>4438.576204</v>
+      </c>
+      <c r="E351">
+        <v>4323.825699</v>
+      </c>
+      <c r="F351">
+        <v>4373.2813329999999</v>
+      </c>
+      <c r="G351">
+        <v>4244.1575160000002</v>
+      </c>
+      <c r="H351">
+        <v>4164.9431780000004</v>
+      </c>
+      <c r="I351">
+        <v>4216.4093510000002</v>
+      </c>
+      <c r="J351">
+        <v>4178.0184909999998</v>
+      </c>
+      <c r="K351">
+        <v>4045.7404409999999</v>
+      </c>
+      <c r="L351">
+        <v>4052.847675</v>
+      </c>
+      <c r="M351">
+        <v>3965.1691030000002</v>
+      </c>
+      <c r="N351">
+        <v>4005.1257340000002</v>
+      </c>
+      <c r="O351">
+        <v>3894.9454609999998</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C352">
+        <v>4398.4968689999996</v>
+      </c>
+      <c r="D352">
+        <v>4441.2420060000004</v>
+      </c>
+      <c r="E352">
+        <v>4322.3007909999997</v>
+      </c>
+      <c r="F352">
+        <v>4369.4933469999996</v>
+      </c>
+      <c r="G352">
+        <v>4239.7694110000002</v>
+      </c>
+      <c r="H352">
+        <v>4157.6963880000003</v>
+      </c>
+      <c r="I352">
+        <v>4210.4572930000004</v>
+      </c>
+      <c r="J352">
+        <v>4169.1144539999996</v>
+      </c>
+      <c r="K352">
+        <v>4030.1235499999998</v>
+      </c>
+      <c r="L352">
+        <v>4038.4465759999998</v>
+      </c>
+      <c r="M352">
+        <v>3949.6978869999998</v>
+      </c>
+      <c r="N352">
+        <v>3986.5206969999999</v>
+      </c>
+      <c r="O352">
+        <v>3878.4711189999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -32385,9 +32571,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z351"/>
+  <dimension ref="A1:Z352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+    <sheetView topLeftCell="A315" workbookViewId="0">
       <selection activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
@@ -47707,7 +47893,104 @@
       </c>
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A351" s="1"/>
+      <c r="A351" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B351">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="C351">
+        <v>-1.7500000000000002E-2</v>
+      </c>
+      <c r="D351">
+        <v>-1.26E-2</v>
+      </c>
+      <c r="E351">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="F351">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="G351">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="H351">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="I351">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="J351">
+        <v>9.98E-2</v>
+      </c>
+      <c r="K351">
+        <v>0.1132</v>
+      </c>
+      <c r="L351">
+        <v>0.1101</v>
+      </c>
+      <c r="M351">
+        <v>0.1084</v>
+      </c>
+      <c r="N351">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="O351">
+        <v>0.1057</v>
+      </c>
+      <c r="P351">
+        <v>0.1057</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B352">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C352">
+        <v>-1.7600000000000001E-2</v>
+      </c>
+      <c r="D352">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="E352">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F352">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="G352">
+        <v>0.05</v>
+      </c>
+      <c r="H352">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="I352">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J352">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="K352">
+        <v>0.1133</v>
+      </c>
+      <c r="L352">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="M352">
+        <v>0.1091</v>
+      </c>
+      <c r="N352">
+        <v>0.1065</v>
+      </c>
+      <c r="O352">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="P352">
+        <v>0.106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4CA86-2CF2-48AD-9A9B-0FD031865B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8BBCCE-D9A8-40D8-8443-0CCB736D7713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID064e48d4c2ab431db6e9be36aeceb1fd" localSheetId="0" hidden="1">Plan1!$D$4:$D$352</definedName>
-    <definedName name="_ECO_RANGE_ID07a1d80c94c64ae2b69e2f42c9408c4b" localSheetId="2" hidden="1">Planilha2!$O$4:$O$352</definedName>
-    <definedName name="_ECO_RANGE_ID0d8d3fc8e7944230a526d1955eac4089" localSheetId="1" hidden="1">Planilha1!$D$4:$D$352</definedName>
-    <definedName name="_ECO_RANGE_ID0fdb222bc480487f8661d98f781f429b" localSheetId="2" hidden="1">Planilha2!$C$4:$C$352</definedName>
-    <definedName name="_ECO_RANGE_ID105e01afa2f14c658e2a23bb015c93ba" localSheetId="0" hidden="1">Plan1!$A$4:$B$352</definedName>
-    <definedName name="_ECO_RANGE_ID11f3a7a130954574b6eaadcdd883c8d6" localSheetId="1" hidden="1">Planilha1!$E$4:$E$352</definedName>
-    <definedName name="_ECO_RANGE_ID12c166a8162b4357adbeb46a2da1ed23" localSheetId="0" hidden="1">Plan1!$E$4:$E$352</definedName>
-    <definedName name="_ECO_RANGE_ID23d931c38cf044199b7a1dc28369bdb6" localSheetId="1" hidden="1">Planilha1!$L$4:$L$352</definedName>
-    <definedName name="_ECO_RANGE_ID2e9a185de37442a98aa610ff555147c9" localSheetId="0" hidden="1">Plan1!$L$4:$L$352</definedName>
-    <definedName name="_ECO_RANGE_ID3810b721d1c047faa21bad6c10516300" localSheetId="1" hidden="1">Planilha1!$M$4:$M$352</definedName>
-    <definedName name="_ECO_RANGE_ID3db99c6bcd8347029053494d21a41b1b" localSheetId="2" hidden="1">Planilha2!$H$4:$H$352</definedName>
-    <definedName name="_ECO_RANGE_ID406a06986961403c8704322f161aff6c" localSheetId="0" hidden="1">Plan1!$J$4:$J$352</definedName>
-    <definedName name="_ECO_RANGE_ID41df76df2ca44ddca9fcc9057670eaea" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID4961a9f837ba43a2a1e0eeda11ad5cc8" localSheetId="0" hidden="1">Plan1!$G$4:$G$352</definedName>
-    <definedName name="_ECO_RANGE_ID4bc654dc32a04fa7b94df39def3e4c38" localSheetId="0" hidden="1">Plan1!$H$4:$H$352</definedName>
-    <definedName name="_ECO_RANGE_ID579c50236ea848ec9f16d13f2728168c" localSheetId="2" hidden="1">Planilha2!$D$4:$D$352</definedName>
-    <definedName name="_ECO_RANGE_ID58863df546c044caac6563e91e55842a" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID5abd8737c6cf4e98b14e653959cd0060" localSheetId="1" hidden="1">Planilha1!$F$4:$F$352</definedName>
-    <definedName name="_ECO_RANGE_ID5d99e30bf57449e59efbff53e2211786" localSheetId="1" hidden="1">Planilha1!$J$4:$J$352</definedName>
-    <definedName name="_ECO_RANGE_ID61b323f1f4e342659cfe67a275ac9046" localSheetId="1" hidden="1">Planilha1!$A$4:$B$352</definedName>
-    <definedName name="_ECO_RANGE_ID6ca986d13e1d462e9a5c906e623a73d6" localSheetId="0" hidden="1">Plan1!$I$4:$I$352</definedName>
-    <definedName name="_ECO_RANGE_ID77adc27de7814d938906045c6f1cca5b" localSheetId="0" hidden="1">Plan1!$M$4:$M$352</definedName>
-    <definedName name="_ECO_RANGE_ID77e1b2c0dfda4d7587dddbf2d403732f" localSheetId="2" hidden="1">Planilha2!$G$4:$G$352</definedName>
-    <definedName name="_ECO_RANGE_ID8224ca994edf4d7ebf8e193f94d3bdf0" localSheetId="2" hidden="1">Planilha2!$A$4:$B$352</definedName>
-    <definedName name="_ECO_RANGE_ID95af7bf91e8841098208973100a1f45b" localSheetId="2" hidden="1">Planilha2!$L$4:$L$352</definedName>
-    <definedName name="_ECO_RANGE_ID9f4674da29ba4252a63e68ea02a288d5" localSheetId="1" hidden="1">Planilha1!$H$4:$H$352</definedName>
-    <definedName name="_ECO_RANGE_IDaa54f135c5d04829a7f99bb8865ea53d" localSheetId="2" hidden="1">Planilha2!$J$4:$J$352</definedName>
-    <definedName name="_ECO_RANGE_IDad3dcbfe72c84232964d804fa2e5e766" localSheetId="1" hidden="1">Planilha1!$I$4:$I$352</definedName>
-    <definedName name="_ECO_RANGE_IDb0b8820519d74faabe2742e4b5bb9b49" localSheetId="0" hidden="1">Plan1!$F$4:$F$352</definedName>
-    <definedName name="_ECO_RANGE_IDb321ef368a8343f7b3abc50391cf6764" localSheetId="1" hidden="1">Planilha1!$K$4:$K$352</definedName>
-    <definedName name="_ECO_RANGE_IDb9c3785c708848d88e0bbe0aacedd686" localSheetId="2" hidden="1">Planilha2!$P$4:$P$352</definedName>
-    <definedName name="_ECO_RANGE_IDbfa4a05cbba64dd6b30beba829deba66" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDcc266aee041945ceb3bbdfbcd34e4650" localSheetId="2" hidden="1">Planilha2!$K$4:$K$352</definedName>
-    <definedName name="_ECO_RANGE_IDd3db961b905940b4b19932c9f2cff7a4" localSheetId="0" hidden="1">Plan1!$K$4:$K$352</definedName>
-    <definedName name="_ECO_RANGE_IDd41b6e1cb5d04b22b6398c3d05770610" localSheetId="1" hidden="1">Planilha1!$N$4:$N$352</definedName>
-    <definedName name="_ECO_RANGE_IDd8432407e69a4cc794c5b9cc169c6186" localSheetId="0" hidden="1">Plan1!$C$4:$C$352</definedName>
-    <definedName name="_ECO_RANGE_IDdf3ee172599f4900b596c68978cf50cd" localSheetId="1" hidden="1">Planilha1!$C$4:$C$352</definedName>
-    <definedName name="_ECO_RANGE_IDe3926126119a4c0a8ed7d5f5360a9aac" localSheetId="1" hidden="1">Planilha1!$G$4:$G$352</definedName>
-    <definedName name="_ECO_RANGE_IDe3d85ecdc4a043d9a26f2fa375fdd716" localSheetId="2" hidden="1">Planilha2!$F$4:$F$352</definedName>
-    <definedName name="_ECO_RANGE_IDe8ee32dd34a64b06858eb56b273e9bc0" localSheetId="2" hidden="1">Planilha2!$M$4:$M$352</definedName>
-    <definedName name="_ECO_RANGE_IDe978362d69eb41fb94b661a4990ba376" localSheetId="1" hidden="1">Planilha1!$O$4:$O$352</definedName>
-    <definedName name="_ECO_RANGE_IDeb9dd1a2b5944777ae2d81de40c6b7b2" localSheetId="2" hidden="1">Planilha2!$E$4:$E$352</definedName>
-    <definedName name="_ECO_RANGE_IDee4d8d3a986e4e70b268b38ef1fffa09" localSheetId="2" hidden="1">Planilha2!$N$4:$N$352</definedName>
-    <definedName name="_ECO_RANGE_IDef9bbdac15c744f7ac8c30478a6110da" localSheetId="0" hidden="1">Plan1!$N$4:$N$352</definedName>
-    <definedName name="_ECO_RANGE_IDf7f90594fabb4456903d9e3afcbdfdce" localSheetId="2" hidden="1">Planilha2!$I$4:$I$352</definedName>
-    <definedName name="_ECO_RANGE_IDff4ade022cba45ada13963f1e9be07ef" localSheetId="0" hidden="1">Plan1!$O$4:$O$352</definedName>
+    <definedName name="_ECO_RANGE_ID069c8357bf21408d8379daab87afedf3" localSheetId="0" hidden="1">Plan1!$N$4:$N$365</definedName>
+    <definedName name="_ECO_RANGE_ID0aa526e01fc9415ca43fc9efce8f30e5" localSheetId="1" hidden="1">Planilha1!$K$4:$K$365</definedName>
+    <definedName name="_ECO_RANGE_ID12715d3ec11c44dba80e7e2a3592aaed" localSheetId="1" hidden="1">Planilha1!$F$4:$F$365</definedName>
+    <definedName name="_ECO_RANGE_ID19ebe89d76164eeaba98e6d1dde14865" localSheetId="0" hidden="1">Plan1!$O$4:$O$365</definedName>
+    <definedName name="_ECO_RANGE_ID1ef767a6a6734291aec20466f12806a1" localSheetId="1" hidden="1">Planilha1!$C$4:$C$365</definedName>
+    <definedName name="_ECO_RANGE_ID2564fe4e894745ba9af999483d79f239" localSheetId="2" hidden="1">Planilha2!$C$4:$C$365</definedName>
+    <definedName name="_ECO_RANGE_ID272730d0208240fbaaa1c46eb9c0acb9" localSheetId="1" hidden="1">Planilha1!$D$4:$D$365</definedName>
+    <definedName name="_ECO_RANGE_ID2d78cbf50cc6417f828944fa0390af2f" localSheetId="2" hidden="1">Planilha2!$O$4:$O$365</definedName>
+    <definedName name="_ECO_RANGE_ID2eeb92d515af4378a54b88baedae3218" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID348f58fe044c49db9455c72d078a7011" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID3723e4b82d3b4c2792d437f95016b2fa" localSheetId="1" hidden="1">Planilha1!$L$4:$L$365</definedName>
+    <definedName name="_ECO_RANGE_ID3d2576e6f962473288d0e036ee00e8b0" localSheetId="1" hidden="1">Planilha1!$O$4:$O$365</definedName>
+    <definedName name="_ECO_RANGE_ID44381c78b55941b4a9759b3e91918664" localSheetId="0" hidden="1">Plan1!$A$4:$B$365</definedName>
+    <definedName name="_ECO_RANGE_ID4602d5b8f9924c0fa0dd5124ca306d42" localSheetId="2" hidden="1">Planilha2!$P$4:$P$365</definedName>
+    <definedName name="_ECO_RANGE_ID48b556df42e7451b82cc873870ab23ae" localSheetId="2" hidden="1">Planilha2!$G$4:$G$365</definedName>
+    <definedName name="_ECO_RANGE_ID4d2864b573584bfda1a21f392041806c" localSheetId="1" hidden="1">Planilha1!$H$4:$H$365</definedName>
+    <definedName name="_ECO_RANGE_ID4e961f7de05647cda41692cc0f42280a" localSheetId="0" hidden="1">Plan1!$E$4:$E$365</definedName>
+    <definedName name="_ECO_RANGE_ID4fa157872f1a4789a22e35a1e8e99bab" localSheetId="1" hidden="1">Planilha1!$I$4:$I$365</definedName>
+    <definedName name="_ECO_RANGE_ID520ef1e18a0b42d6b597283ebe24030e" localSheetId="0" hidden="1">Plan1!$I$4:$I$365</definedName>
+    <definedName name="_ECO_RANGE_ID5281028fc1e24cd0a0064026ce90c39b" localSheetId="1" hidden="1">Planilha1!$G$4:$G$365</definedName>
+    <definedName name="_ECO_RANGE_ID5acc3e8171c8480c9aa3387afd93b878" localSheetId="2" hidden="1">Planilha2!$E$4:$E$365</definedName>
+    <definedName name="_ECO_RANGE_ID5f3faa8cccbb4026bd86c141944f1581" localSheetId="1" hidden="1">Planilha1!$N$4:$N$365</definedName>
+    <definedName name="_ECO_RANGE_ID61704e793b434fa0a815fc74415e1b81" localSheetId="1" hidden="1">Planilha1!$M$4:$M$365</definedName>
+    <definedName name="_ECO_RANGE_ID618282d5659b42cc9ed07a2f92a8bc9a" localSheetId="1" hidden="1">Planilha1!$A$4:$B$365</definedName>
+    <definedName name="_ECO_RANGE_ID6ae5d63218a94299b59ab36eca304a0a" localSheetId="2" hidden="1">Planilha2!$K$4:$K$365</definedName>
+    <definedName name="_ECO_RANGE_ID6bf39f550c064fb7ab5e3054be56e8dd" localSheetId="2" hidden="1">Planilha2!$F$4:$F$365</definedName>
+    <definedName name="_ECO_RANGE_ID789224f3a6c443ac952659154e759baf" localSheetId="2" hidden="1">Planilha2!$H$4:$H$365</definedName>
+    <definedName name="_ECO_RANGE_ID79b4e7f19a2544a39d2552b07792295c" localSheetId="1" hidden="1">Planilha1!$E$4:$E$365</definedName>
+    <definedName name="_ECO_RANGE_ID7b60ad2479524e04ad76f952ba8bf1fe" localSheetId="1" hidden="1">Planilha1!$J$4:$J$365</definedName>
+    <definedName name="_ECO_RANGE_ID7e26d6f1c0b046fd92d046612e6f520a" localSheetId="0" hidden="1">Plan1!$D$4:$D$365</definedName>
+    <definedName name="_ECO_RANGE_ID7fa1ed80293c4b7ebd807b6a3555037a" localSheetId="0" hidden="1">Plan1!$F$4:$F$365</definedName>
+    <definedName name="_ECO_RANGE_ID82745bccca624a7e9b401b4032ef32aa" localSheetId="2" hidden="1">Planilha2!$I$4:$I$365</definedName>
+    <definedName name="_ECO_RANGE_ID86a8b037098241a0a264451e476527b8" localSheetId="2" hidden="1">Planilha2!$J$4:$J$365</definedName>
+    <definedName name="_ECO_RANGE_ID89bfb0202bfe47389df5237caf6d5b66" localSheetId="0" hidden="1">Plan1!$C$4:$C$365</definedName>
+    <definedName name="_ECO_RANGE_ID8b312d55d3a84f4fb0e26ed3620c637f" localSheetId="0" hidden="1">Plan1!$M$4:$M$365</definedName>
+    <definedName name="_ECO_RANGE_ID8c21ebbf2231451695d555be19c9486f" localSheetId="2" hidden="1">Planilha2!$N$4:$N$365</definedName>
+    <definedName name="_ECO_RANGE_ID971be7e03e2e4fbfbec035b8d7b92272" localSheetId="2" hidden="1">Planilha2!$D$4:$D$365</definedName>
+    <definedName name="_ECO_RANGE_ID9f249bdd71c44b39ac7d692ed478d070" localSheetId="2" hidden="1">Planilha2!$A$4:$B$365</definedName>
+    <definedName name="_ECO_RANGE_IDa69ac4f1e5804bf884e8129a9d28d62c" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDac303276f49c4e79b3a2e7cf18c6605f" localSheetId="0" hidden="1">Plan1!$G$4:$G$365</definedName>
+    <definedName name="_ECO_RANGE_IDb1c4c0e163114f7a956dbac2451d9f5e" localSheetId="0" hidden="1">Plan1!$K$4:$K$365</definedName>
+    <definedName name="_ECO_RANGE_IDc58069e78ded46a38c203cb3f00b99ed" localSheetId="0" hidden="1">Plan1!$J$4:$J$365</definedName>
+    <definedName name="_ECO_RANGE_IDc594dba71d7e43e5a6430088e3b2407b" localSheetId="0" hidden="1">Plan1!$H$4:$H$365</definedName>
+    <definedName name="_ECO_RANGE_IDc5cbcb04b63145dc8ac2100aad11ab22" localSheetId="2" hidden="1">Planilha2!$M$4:$M$365</definedName>
+    <definedName name="_ECO_RANGE_IDd521015f42074069983d30e62bb079d6" localSheetId="0" hidden="1">Plan1!$L$4:$L$365</definedName>
+    <definedName name="_ECO_RANGE_IDebeb9c7fdfdf448ba50183d720dc601c" localSheetId="2" hidden="1">Planilha2!$L$4:$L$365</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,334 +286,328 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>9a230775-e1ca-41af-bd81-38d99100e172</stp>
-        <tr r="F3" s="1"/>
+        <stp>da67230f-0573-4261-92ef-9aae8b0a49d9</stp>
+        <tr r="A3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>3668caf6-cf21-4b60-a7c2-65f81f5cda80</stp>
+        <stp>18983eac-927e-4be9-bc59-424fa3d36e24</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9e83a17b-737e-41ca-a646-d3a8d085d834</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5e3934a1-5480-4752-b8ef-960458519305</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>400ec977-0228-42d9-b109-493a4ad56fc9</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d527d4ab-fb24-4042-b6f1-d8dd36ef52f4</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>26481a9b-1a0b-4f80-b728-e8894dfe6740</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>09c50685-02fe-4d57-82fc-3a654a7cbff6</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cab10f9f-9148-4c6e-afb4-948e9dc7ebb3</stp>
         <tr r="N3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>cfac3de5-a282-4685-a261-4ddd0a99710b</stp>
+        <stp>537a5907-cea4-4f96-a434-252edfd8f44a</stp>
         <tr r="L3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>61f6bcc3-b504-418c-9c57-38dca98d7655</stp>
-        <tr r="C3" s="3"/>
+        <stp>f0f7d21e-68ab-452e-946a-3389098e2f66</stp>
+        <tr r="F3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>72134fdd-94f2-46aa-92b5-5c55ffb5084b</stp>
-        <tr r="F3" s="2"/>
+        <stp>bbb35854-f5e1-453d-ac78-3f2aa005e2a0</stp>
+        <tr r="H3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>aab8fec3-3263-4b0c-9d6a-a57c449db0b7</stp>
-        <tr r="O3" s="1"/>
+        <stp>b6f0b1c4-4714-4205-ae0c-b5250ff6da99</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f0f604dd-1db7-4105-8e63-2f3c00dde3de</stp>
+        <stp>1ca1e706-aaad-427c-9d0e-aab9e71ca507</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e1fe527d-d8c7-4249-9b5e-4a47b59d69de</stp>
         <tr r="J3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>40fb547f-2422-4366-8e0e-c73831584ed0</stp>
-        <tr r="J3" s="1"/>
+        <stp>46a1040b-2bb7-48b6-abf3-d4b19f923494</stp>
+        <tr r="L3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>019a0aa6-2384-40f6-b642-e17fae639ffa</stp>
-        <tr r="M3" s="2"/>
+        <stp>3e9f73b5-f426-450c-b348-c22fc0613ba2</stp>
+        <tr r="H3" s="2"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f0d8a598-e265-451d-8820-381bef84f528</stp>
-        <tr r="M3" s="1"/>
+        <stp>37109470-1634-4063-9dfe-a3a40c40d00e</stp>
+        <tr r="K3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b33534f6-6271-4c92-ae29-8c4f48f536a5</stp>
+        <stp>9b830e0a-d403-4e7f-9fc1-2878bff0b8f8</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0a5fbd08-ac88-42ef-b651-2b596c2dd749</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d0b4a830-e55c-42e1-a5cb-de4fc90dabf5</stp>
         <tr r="G3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0a93a7a9-398a-44f5-961e-335a355e18de</stp>
-        <tr r="I3" s="1"/>
+        <stp>132372c8-6262-4393-9cc2-7147e557da7e</stp>
+        <tr r="C3" s="3"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>3124be9b-4d55-4f2f-867f-7aa2b8f3a65b</stp>
+        <stp>0a795022-fecd-4587-81a3-4ac5a06b62c9</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>baf7d323-7176-42d4-90c0-209e10f6b178</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c75068ca-03cf-4516-8ad1-0d1f8717ab98</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f2fba07a-4118-4239-83bd-56b3774d40fc</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3b86ae76-62dc-45d1-9875-6bf7c07d89c1</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9559dab3-9542-4551-ad58-10a4c611b16a</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7dedc17c-8204-4f59-ae21-674a98a8462b</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dd948c4a-e2e9-425f-85fb-278f99266458</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5de0128d-5a77-4c6d-900b-28e0cc51e489</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>50d1ff17-6011-446f-b75e-18eade25777d</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1031da21-bbc2-44df-acd3-c7eea8ceae51</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>08e9e2cd-9fe5-4b31-aaf0-302aa7af2719</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>76460d1e-cb70-458c-a8af-1dfb6bc61c8b</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3081062a-3508-4022-9b43-ed491dd47ea5</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e1980355-e609-422f-9219-ef5c58853981</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f12a9114-11e1-43bd-97ac-6d2cfb41eb26</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>173be16d-7ce0-4159-a123-0943ed1327ff</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>87d40e23-662f-4d5a-b8fc-17171ce70e21</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3e973791-d0ce-486d-9058-9ee0a6e0cf53</stp>
         <tr r="L3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c872a4d1-f28e-4dd3-a978-263f455073e9</stp>
-        <tr r="E3" s="3"/>
+        <stp>0473b57f-7b8f-4307-85c4-1d489a44d409</stp>
+        <tr r="A3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ee042cf6-973d-4a1f-a609-00173a6a1f84</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3fbdd254-e6db-45fb-bc56-f0b228df304a</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1daef1a0-5c31-49ac-aac5-fbc0a981cb23</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>77212c17-1d05-4496-baca-7fc1b8ce5542</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>86da3a6e-e768-424d-899a-4121fa07edfb</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7fa75a28-194d-4868-bf34-5ddb04e9e64f</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>02474829-aff2-4df4-83ed-da8013fd52f9</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>dbc7156e-b1b4-451f-be96-df9989b9a05b</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>be78d8b4-f507-4239-995e-930499ffa898</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>01a0db3e-0bc3-469c-abaa-ee68cb762bb7</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6d4963b3-89f5-46e8-ad7f-98533d422816</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>540ad332-c096-43fc-89e2-fb3df5924131</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>feda29bd-5446-4093-8599-c7d1d2ab6a72</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>31353c0f-e1d2-4997-b48c-70cf26bee971</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2bb06406-9b42-4ff9-977e-8aeb30f5d708</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>93ba89a0-106f-4a9e-9fe6-b3d7d7ab0997</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>dd3f2bd5-ddf4-41ae-b42d-fe561f9ca783</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>888b724a-f4e8-4212-82ca-f2feb62108e9</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>32ef1354-7679-43f1-a8fa-16092dee8350</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>81d7602c-78d8-4ed4-9a77-a2ebeac01f5d</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2a659fee-6c64-4c71-87ff-ff2f10b77368</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b1fb6b4a-c318-49ed-8a95-0e84a77f9270</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6b858a4d-1f47-4aa6-86e5-2af954ef1878</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>671a7ee9-97b5-4ae3-b8ba-5a0d5a389531</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d78a86e0-ef39-4a20-9d87-fb473adeca4a</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0d3058e1-b84e-4ab4-af3b-ac1db39f3b73</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6a645e70-90aa-4d4e-aef7-84315e964e62</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ab6391b9-1ba1-44ab-8f91-c6365acead1d</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_51ba91306abb4cd98596254baf1dfb06">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>41843c9f-bad5-4d03-9d02-6f03e9744f51</stp>
-        <tr r="F3" s="3"/>
+        <stp>67c29daf-6260-4153-9032-1d5f3e561776</stp>
+        <tr r="M3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -883,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O352"/>
+  <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351"/>
+    <sheetView topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="A365" sqref="A365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16720,6 +16714,578 @@
         <v>7.2249999999999996</v>
       </c>
     </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>45901</v>
+      </c>
+      <c r="C353">
+        <v>9.82</v>
+      </c>
+      <c r="D353">
+        <v>8.6251999999999995</v>
+      </c>
+      <c r="E353">
+        <v>8.0737000000000005</v>
+      </c>
+      <c r="F353">
+        <v>7.8784000000000001</v>
+      </c>
+      <c r="G353">
+        <v>7.8409000000000004</v>
+      </c>
+      <c r="H353">
+        <v>7.7460000000000004</v>
+      </c>
+      <c r="I353">
+        <v>7.6977000000000002</v>
+      </c>
+      <c r="J353">
+        <v>7.5989000000000004</v>
+      </c>
+      <c r="K353">
+        <v>7.4497999999999998</v>
+      </c>
+      <c r="L353">
+        <v>7.3882000000000003</v>
+      </c>
+      <c r="M353">
+        <v>7.2858999999999998</v>
+      </c>
+      <c r="N353">
+        <v>7.2746000000000004</v>
+      </c>
+      <c r="O353">
+        <v>7.2857000000000003</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C354">
+        <v>9.7467000000000006</v>
+      </c>
+      <c r="D354">
+        <v>8.6486999999999998</v>
+      </c>
+      <c r="E354">
+        <v>8.11</v>
+      </c>
+      <c r="F354">
+        <v>7.9065000000000003</v>
+      </c>
+      <c r="G354">
+        <v>7.8555000000000001</v>
+      </c>
+      <c r="H354">
+        <v>7.76</v>
+      </c>
+      <c r="I354">
+        <v>7.7122000000000002</v>
+      </c>
+      <c r="J354">
+        <v>7.6311</v>
+      </c>
+      <c r="K354">
+        <v>7.4737</v>
+      </c>
+      <c r="L354">
+        <v>7.4085999999999999</v>
+      </c>
+      <c r="M354">
+        <v>7.3007999999999997</v>
+      </c>
+      <c r="N354">
+        <v>7.2950999999999997</v>
+      </c>
+      <c r="O354">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C355">
+        <v>9.7576000000000001</v>
+      </c>
+      <c r="D355">
+        <v>8.68</v>
+      </c>
+      <c r="E355">
+        <v>8.14</v>
+      </c>
+      <c r="F355">
+        <v>7.9372999999999996</v>
+      </c>
+      <c r="G355">
+        <v>7.88</v>
+      </c>
+      <c r="H355">
+        <v>7.79</v>
+      </c>
+      <c r="I355">
+        <v>7.7312000000000003</v>
+      </c>
+      <c r="J355">
+        <v>7.6360000000000001</v>
+      </c>
+      <c r="K355">
+        <v>7.46</v>
+      </c>
+      <c r="L355">
+        <v>7.4383999999999997</v>
+      </c>
+      <c r="M355">
+        <v>7.3596000000000004</v>
+      </c>
+      <c r="N355">
+        <v>7.3372000000000002</v>
+      </c>
+      <c r="O355">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C356">
+        <v>9.7500999999999998</v>
+      </c>
+      <c r="D356">
+        <v>8.6979000000000006</v>
+      </c>
+      <c r="E356">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="F356">
+        <v>7.9465000000000003</v>
+      </c>
+      <c r="G356">
+        <v>7.8948999999999998</v>
+      </c>
+      <c r="H356">
+        <v>7.8063000000000002</v>
+      </c>
+      <c r="I356">
+        <v>7.74</v>
+      </c>
+      <c r="J356">
+        <v>7.6576000000000004</v>
+      </c>
+      <c r="K356">
+        <v>7.46</v>
+      </c>
+      <c r="L356">
+        <v>7.4409000000000001</v>
+      </c>
+      <c r="M356">
+        <v>7.3673999999999999</v>
+      </c>
+      <c r="N356">
+        <v>7.3434999999999997</v>
+      </c>
+      <c r="O356">
+        <v>7.3787000000000003</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C357">
+        <v>9.7493999999999996</v>
+      </c>
+      <c r="D357">
+        <v>8.6598000000000006</v>
+      </c>
+      <c r="E357">
+        <v>8.0611999999999995</v>
+      </c>
+      <c r="F357">
+        <v>7.8894000000000002</v>
+      </c>
+      <c r="G357">
+        <v>7.8498000000000001</v>
+      </c>
+      <c r="H357">
+        <v>7.7557999999999998</v>
+      </c>
+      <c r="I357">
+        <v>7.7152000000000003</v>
+      </c>
+      <c r="J357">
+        <v>7.6460999999999997</v>
+      </c>
+      <c r="K357">
+        <v>7.4417999999999997</v>
+      </c>
+      <c r="L357">
+        <v>7.4107000000000003</v>
+      </c>
+      <c r="M357">
+        <v>7.3305999999999996</v>
+      </c>
+      <c r="N357">
+        <v>7.31</v>
+      </c>
+      <c r="O357">
+        <v>7.3410000000000002</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>45908</v>
+      </c>
+      <c r="C358">
+        <v>9.6697000000000006</v>
+      </c>
+      <c r="D358">
+        <v>8.6044</v>
+      </c>
+      <c r="E358">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="F358">
+        <v>7.86</v>
+      </c>
+      <c r="G358">
+        <v>7.8262999999999998</v>
+      </c>
+      <c r="H358">
+        <v>7.7530000000000001</v>
+      </c>
+      <c r="I358">
+        <v>7.7</v>
+      </c>
+      <c r="J358">
+        <v>7.6195000000000004</v>
+      </c>
+      <c r="K358">
+        <v>7.4031000000000002</v>
+      </c>
+      <c r="L358">
+        <v>7.3704000000000001</v>
+      </c>
+      <c r="M358">
+        <v>7.2906000000000004</v>
+      </c>
+      <c r="N358">
+        <v>7.2728000000000002</v>
+      </c>
+      <c r="O358">
+        <v>7.3056000000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C359">
+        <v>9.6210000000000004</v>
+      </c>
+      <c r="D359">
+        <v>8.5693999999999999</v>
+      </c>
+      <c r="E359">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="F359">
+        <v>7.87</v>
+      </c>
+      <c r="G359">
+        <v>7.8301999999999996</v>
+      </c>
+      <c r="H359">
+        <v>7.76</v>
+      </c>
+      <c r="I359">
+        <v>7.7092000000000001</v>
+      </c>
+      <c r="J359">
+        <v>7.6070000000000002</v>
+      </c>
+      <c r="K359">
+        <v>7.38</v>
+      </c>
+      <c r="L359">
+        <v>7.35</v>
+      </c>
+      <c r="M359">
+        <v>7.2831999999999999</v>
+      </c>
+      <c r="N359">
+        <v>7.2630999999999997</v>
+      </c>
+      <c r="O359">
+        <v>7.2946999999999997</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C360">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="D360">
+        <v>8.5210000000000008</v>
+      </c>
+      <c r="E360">
+        <v>7.9764999999999997</v>
+      </c>
+      <c r="F360">
+        <v>7.8045999999999998</v>
+      </c>
+      <c r="G360">
+        <v>7.7723000000000004</v>
+      </c>
+      <c r="H360">
+        <v>7.7198000000000002</v>
+      </c>
+      <c r="I360">
+        <v>7.6637000000000004</v>
+      </c>
+      <c r="J360">
+        <v>7.57</v>
+      </c>
+      <c r="K360">
+        <v>7.3305999999999996</v>
+      </c>
+      <c r="L360">
+        <v>7.31</v>
+      </c>
+      <c r="M360">
+        <v>7.2454000000000001</v>
+      </c>
+      <c r="N360">
+        <v>7.2329999999999997</v>
+      </c>
+      <c r="O360">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>45911</v>
+      </c>
+      <c r="C361">
+        <v>9.5222999999999995</v>
+      </c>
+      <c r="D361">
+        <v>8.4846000000000004</v>
+      </c>
+      <c r="E361">
+        <v>7.9385000000000003</v>
+      </c>
+      <c r="F361">
+        <v>7.7695999999999996</v>
+      </c>
+      <c r="G361">
+        <v>7.7488000000000001</v>
+      </c>
+      <c r="H361">
+        <v>7.7169999999999996</v>
+      </c>
+      <c r="I361">
+        <v>7.6696999999999997</v>
+      </c>
+      <c r="J361">
+        <v>7.5674000000000001</v>
+      </c>
+      <c r="K361">
+        <v>7.3155999999999999</v>
+      </c>
+      <c r="L361">
+        <v>7.2846000000000002</v>
+      </c>
+      <c r="M361">
+        <v>7.2298999999999998</v>
+      </c>
+      <c r="N361">
+        <v>7.2138999999999998</v>
+      </c>
+      <c r="O361">
+        <v>7.2361000000000004</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <v>45912</v>
+      </c>
+      <c r="C362">
+        <v>9.4364000000000008</v>
+      </c>
+      <c r="D362">
+        <v>8.4408999999999992</v>
+      </c>
+      <c r="E362">
+        <v>7.9371</v>
+      </c>
+      <c r="F362">
+        <v>7.77</v>
+      </c>
+      <c r="G362">
+        <v>7.7649999999999997</v>
+      </c>
+      <c r="H362">
+        <v>7.7363</v>
+      </c>
+      <c r="I362">
+        <v>7.6832000000000003</v>
+      </c>
+      <c r="J362">
+        <v>7.5593000000000004</v>
+      </c>
+      <c r="K362">
+        <v>7.31</v>
+      </c>
+      <c r="L362">
+        <v>7.28</v>
+      </c>
+      <c r="M362">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="N362">
+        <v>7.1999000000000004</v>
+      </c>
+      <c r="O362">
+        <v>7.2262000000000004</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <v>45915</v>
+      </c>
+      <c r="C363">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D363">
+        <v>8.4</v>
+      </c>
+      <c r="E363">
+        <v>7.91</v>
+      </c>
+      <c r="F363">
+        <v>7.74</v>
+      </c>
+      <c r="G363">
+        <v>7.7295999999999996</v>
+      </c>
+      <c r="H363">
+        <v>7.7028999999999996</v>
+      </c>
+      <c r="I363">
+        <v>7.6506999999999996</v>
+      </c>
+      <c r="J363">
+        <v>7.53</v>
+      </c>
+      <c r="K363">
+        <v>7.29</v>
+      </c>
+      <c r="L363">
+        <v>7.2601000000000004</v>
+      </c>
+      <c r="M363">
+        <v>7.2009999999999996</v>
+      </c>
+      <c r="N363">
+        <v>7.1830999999999996</v>
+      </c>
+      <c r="O363">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C364">
+        <v>9.43</v>
+      </c>
+      <c r="D364">
+        <v>8.4099000000000004</v>
+      </c>
+      <c r="E364">
+        <v>7.9051999999999998</v>
+      </c>
+      <c r="F364">
+        <v>7.7134</v>
+      </c>
+      <c r="G364">
+        <v>7.7000999999999999</v>
+      </c>
+      <c r="H364">
+        <v>7.6711</v>
+      </c>
+      <c r="I364">
+        <v>7.6185</v>
+      </c>
+      <c r="J364">
+        <v>7.4888000000000003</v>
+      </c>
+      <c r="K364">
+        <v>7.2488999999999999</v>
+      </c>
+      <c r="L364">
+        <v>7.2196999999999996</v>
+      </c>
+      <c r="M364">
+        <v>7.1547000000000001</v>
+      </c>
+      <c r="N364">
+        <v>7.1359000000000004</v>
+      </c>
+      <c r="O364">
+        <v>7.1649000000000003</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C365">
+        <v>9.4359999999999999</v>
+      </c>
+      <c r="D365">
+        <v>8.4077999999999999</v>
+      </c>
+      <c r="E365">
+        <v>7.8796999999999997</v>
+      </c>
+      <c r="F365">
+        <v>7.69</v>
+      </c>
+      <c r="G365">
+        <v>7.68</v>
+      </c>
+      <c r="H365">
+        <v>7.63</v>
+      </c>
+      <c r="I365">
+        <v>7.5770999999999997</v>
+      </c>
+      <c r="J365">
+        <v>7.44</v>
+      </c>
+      <c r="K365">
+        <v>7.2081999999999997</v>
+      </c>
+      <c r="L365">
+        <v>7.1928999999999998</v>
+      </c>
+      <c r="M365">
+        <v>7.14</v>
+      </c>
+      <c r="N365">
+        <v>7.1247999999999996</v>
+      </c>
+      <c r="O365">
+        <v>7.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16727,10 +17293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O352"/>
+  <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351"/>
+    <sheetView topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A365" sqref="A365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32564,6 +33130,578 @@
         <v>3878.4711189999998</v>
       </c>
     </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>45901</v>
+      </c>
+      <c r="C353">
+        <v>4400.1575579999999</v>
+      </c>
+      <c r="D353">
+        <v>4442.0877639999999</v>
+      </c>
+      <c r="E353">
+        <v>4318.588788</v>
+      </c>
+      <c r="F353">
+        <v>4364.9207569999999</v>
+      </c>
+      <c r="G353">
+        <v>4232.2915240000002</v>
+      </c>
+      <c r="H353">
+        <v>4151.4896589999998</v>
+      </c>
+      <c r="I353">
+        <v>4198.6112229999999</v>
+      </c>
+      <c r="J353">
+        <v>4152.238413</v>
+      </c>
+      <c r="K353">
+        <v>3992.0777349999998</v>
+      </c>
+      <c r="L353">
+        <v>4001.616403</v>
+      </c>
+      <c r="M353">
+        <v>3917.0526169999998</v>
+      </c>
+      <c r="N353">
+        <v>3952.0534480000001</v>
+      </c>
+      <c r="O353">
+        <v>3849.6012569999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C354">
+        <v>4404.2774149999996</v>
+      </c>
+      <c r="D354">
+        <v>4441.7309290000003</v>
+      </c>
+      <c r="E354">
+        <v>4315.703074</v>
+      </c>
+      <c r="F354">
+        <v>4362.2363660000001</v>
+      </c>
+      <c r="G354">
+        <v>4230.8359689999997</v>
+      </c>
+      <c r="H354">
+        <v>4149.3947669999998</v>
+      </c>
+      <c r="I354">
+        <v>4196.1640150000003</v>
+      </c>
+      <c r="J354">
+        <v>4144.2672560000001</v>
+      </c>
+      <c r="K354">
+        <v>3984.3887559999998</v>
+      </c>
+      <c r="L354">
+        <v>3994.1673270000001</v>
+      </c>
+      <c r="M354">
+        <v>3911.1969469999999</v>
+      </c>
+      <c r="N354">
+        <v>3943.2416189999999</v>
+      </c>
+      <c r="O354">
+        <v>3843.5001950000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C355">
+        <v>4405.2206070000002</v>
+      </c>
+      <c r="D355">
+        <v>4440.875016</v>
+      </c>
+      <c r="E355">
+        <v>4313.511915</v>
+      </c>
+      <c r="F355">
+        <v>4359.2119910000001</v>
+      </c>
+      <c r="G355">
+        <v>4227.7244490000003</v>
+      </c>
+      <c r="H355">
+        <v>4143.8109050000003</v>
+      </c>
+      <c r="I355">
+        <v>4192.6598949999998</v>
+      </c>
+      <c r="J355">
+        <v>4143.8653530000001</v>
+      </c>
+      <c r="K355">
+        <v>3990.199298</v>
+      </c>
+      <c r="L355">
+        <v>3982.9259440000001</v>
+      </c>
+      <c r="M355">
+        <v>3885.7588329999999</v>
+      </c>
+      <c r="N355">
+        <v>3924.3761239999999</v>
+      </c>
+      <c r="O355">
+        <v>3815.4527670000002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C356">
+        <v>4406.8578349999998</v>
+      </c>
+      <c r="D356">
+        <v>4440.9039169999996</v>
+      </c>
+      <c r="E356">
+        <v>4315.6675109999996</v>
+      </c>
+      <c r="F356">
+        <v>4359.0463200000004</v>
+      </c>
+      <c r="G356">
+        <v>4226.2330279999996</v>
+      </c>
+      <c r="H356">
+        <v>4141.2312499999998</v>
+      </c>
+      <c r="I356">
+        <v>4191.5699059999997</v>
+      </c>
+      <c r="J356">
+        <v>4138.8538319999998</v>
+      </c>
+      <c r="K356">
+        <v>3991.0909339999998</v>
+      </c>
+      <c r="L356">
+        <v>3982.8017300000001</v>
+      </c>
+      <c r="M356">
+        <v>3883.1452549999999</v>
+      </c>
+      <c r="N356">
+        <v>3922.300064</v>
+      </c>
+      <c r="O356">
+        <v>3807.3673159999998</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C357">
+        <v>4408.2362480000002</v>
+      </c>
+      <c r="D357">
+        <v>4444.571293</v>
+      </c>
+      <c r="E357">
+        <v>4324.1969959999997</v>
+      </c>
+      <c r="F357">
+        <v>4367.6411699999999</v>
+      </c>
+      <c r="G357">
+        <v>4234.8179570000002</v>
+      </c>
+      <c r="H357">
+        <v>4153.2331009999998</v>
+      </c>
+      <c r="I357">
+        <v>4198.3876399999999</v>
+      </c>
+      <c r="J357">
+        <v>4142.9845219999997</v>
+      </c>
+      <c r="K357">
+        <v>3998.5199400000001</v>
+      </c>
+      <c r="L357">
+        <v>3995.9657350000002</v>
+      </c>
+      <c r="M357">
+        <v>3900.3939959999998</v>
+      </c>
+      <c r="N357">
+        <v>3938.8159580000001</v>
+      </c>
+      <c r="O357">
+        <v>3826.2358429999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>45908</v>
+      </c>
+      <c r="C358">
+        <v>4412.545048</v>
+      </c>
+      <c r="D358">
+        <v>4449.3587109999999</v>
+      </c>
+      <c r="E358">
+        <v>4327.5583370000004</v>
+      </c>
+      <c r="F358">
+        <v>4372.5739839999997</v>
+      </c>
+      <c r="G358">
+        <v>4239.777145</v>
+      </c>
+      <c r="H358">
+        <v>4154.8221899999999</v>
+      </c>
+      <c r="I358">
+        <v>4202.9498729999996</v>
+      </c>
+      <c r="J358">
+        <v>4151.2882589999999</v>
+      </c>
+      <c r="K358">
+        <v>4013.3697160000002</v>
+      </c>
+      <c r="L358">
+        <v>4013.328888</v>
+      </c>
+      <c r="M358">
+        <v>3919.1920650000002</v>
+      </c>
+      <c r="N358">
+        <v>3957.1852170000002</v>
+      </c>
+      <c r="O358">
+        <v>3844.1357440000002</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C359">
+        <v>4415.6920280000004</v>
+      </c>
+      <c r="D359">
+        <v>4452.8118729999997</v>
+      </c>
+      <c r="E359">
+        <v>4328.6193860000003</v>
+      </c>
+      <c r="F359">
+        <v>4372.2940609999996</v>
+      </c>
+      <c r="G359">
+        <v>4240.1269089999996</v>
+      </c>
+      <c r="H359">
+        <v>4154.265437</v>
+      </c>
+      <c r="I359">
+        <v>4201.7596050000002</v>
+      </c>
+      <c r="J359">
+        <v>4155.6988810000003</v>
+      </c>
+      <c r="K359">
+        <v>4022.6154139999999</v>
+      </c>
+      <c r="L359">
+        <v>4022.588197</v>
+      </c>
+      <c r="M359">
+        <v>3923.3766439999999</v>
+      </c>
+      <c r="N359">
+        <v>3962.62851</v>
+      </c>
+      <c r="O359">
+        <v>3850.2528630000002</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C360">
+        <v>4421.1370770000003</v>
+      </c>
+      <c r="D360">
+        <v>4457.8844259999996</v>
+      </c>
+      <c r="E360">
+        <v>4337.303218</v>
+      </c>
+      <c r="F360">
+        <v>4382.7292930000003</v>
+      </c>
+      <c r="G360">
+        <v>4251.5956969999997</v>
+      </c>
+      <c r="H360">
+        <v>4164.7403889999996</v>
+      </c>
+      <c r="I360">
+        <v>4214.190525</v>
+      </c>
+      <c r="J360">
+        <v>4167.6211990000002</v>
+      </c>
+      <c r="K360">
+        <v>4042.1539539999999</v>
+      </c>
+      <c r="L360">
+        <v>4040.6613769999999</v>
+      </c>
+      <c r="M360">
+        <v>3941.9970130000002</v>
+      </c>
+      <c r="N360">
+        <v>3978.4585489999999</v>
+      </c>
+      <c r="O360">
+        <v>3868.6384159999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>45911</v>
+      </c>
+      <c r="C361">
+        <v>4422.7878700000001</v>
+      </c>
+      <c r="D361">
+        <v>4461.4522189999998</v>
+      </c>
+      <c r="E361">
+        <v>4342.5150000000003</v>
+      </c>
+      <c r="F361">
+        <v>4388.4331679999996</v>
+      </c>
+      <c r="G361">
+        <v>4256.5942230000001</v>
+      </c>
+      <c r="H361">
+        <v>4166.3637980000003</v>
+      </c>
+      <c r="I361">
+        <v>4213.7880750000004</v>
+      </c>
+      <c r="J361">
+        <v>4169.3306510000002</v>
+      </c>
+      <c r="K361">
+        <v>4048.5516240000002</v>
+      </c>
+      <c r="L361">
+        <v>4052.1127550000001</v>
+      </c>
+      <c r="M361">
+        <v>3949.9287260000001</v>
+      </c>
+      <c r="N361">
+        <v>3988.466054</v>
+      </c>
+      <c r="O361">
+        <v>3881.2238600000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <v>45912</v>
+      </c>
+      <c r="C362">
+        <v>4427.2963040000004</v>
+      </c>
+      <c r="D362">
+        <v>4465.4823210000004</v>
+      </c>
+      <c r="E362">
+        <v>4343.7570189999997</v>
+      </c>
+      <c r="F362">
+        <v>4389.4550399999998</v>
+      </c>
+      <c r="G362">
+        <v>4254.9058050000003</v>
+      </c>
+      <c r="H362">
+        <v>4163.1559360000001</v>
+      </c>
+      <c r="I362">
+        <v>4211.6210600000004</v>
+      </c>
+      <c r="J362">
+        <v>4172.5686219999998</v>
+      </c>
+      <c r="K362">
+        <v>4051.5192189999998</v>
+      </c>
+      <c r="L362">
+        <v>4054.939539</v>
+      </c>
+      <c r="M362">
+        <v>3955.7774650000001</v>
+      </c>
+      <c r="N362">
+        <v>3996.0592219999999</v>
+      </c>
+      <c r="O362">
+        <v>3886.9627949999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <v>45915</v>
+      </c>
+      <c r="C363">
+        <v>4428.1527779999997</v>
+      </c>
+      <c r="D363">
+        <v>4469.3214779999998</v>
+      </c>
+      <c r="E363">
+        <v>4347.7794629999999</v>
+      </c>
+      <c r="F363">
+        <v>4394.4956869999996</v>
+      </c>
+      <c r="G363">
+        <v>4261.9039849999999</v>
+      </c>
+      <c r="H363">
+        <v>4171.4698310000003</v>
+      </c>
+      <c r="I363">
+        <v>4220.304365</v>
+      </c>
+      <c r="J363">
+        <v>4181.7030379999997</v>
+      </c>
+      <c r="K363">
+        <v>4059.7618560000001</v>
+      </c>
+      <c r="L363">
+        <v>4064.1436279999998</v>
+      </c>
+      <c r="M363">
+        <v>3964.8869610000002</v>
+      </c>
+      <c r="N363">
+        <v>4005.0169190000001</v>
+      </c>
+      <c r="O363">
+        <v>3895.8218849999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C364">
+        <v>4431.6910200000002</v>
+      </c>
+      <c r="D364">
+        <v>4471.3511230000004</v>
+      </c>
+      <c r="E364">
+        <v>4350.8145359999999</v>
+      </c>
+      <c r="F364">
+        <v>4400.5291859999998</v>
+      </c>
+      <c r="G364">
+        <v>4269.3164489999999</v>
+      </c>
+      <c r="H364">
+        <v>4180.8219220000001</v>
+      </c>
+      <c r="I364">
+        <v>4230.3233209999999</v>
+      </c>
+      <c r="J364">
+        <v>4195.5589110000001</v>
+      </c>
+      <c r="K364">
+        <v>4077.1185329999998</v>
+      </c>
+      <c r="L364">
+        <v>4083.2937299999999</v>
+      </c>
+      <c r="M364">
+        <v>3988.3472339999998</v>
+      </c>
+      <c r="N364">
+        <v>4030.0400249999998</v>
+      </c>
+      <c r="O364">
+        <v>3920.3656150000002</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C365">
+        <v>4434.2868719999997</v>
+      </c>
+      <c r="D365">
+        <v>4474.1576349999996</v>
+      </c>
+      <c r="E365">
+        <v>4356.0929779999997</v>
+      </c>
+      <c r="F365">
+        <v>4406.1390670000001</v>
+      </c>
+      <c r="G365">
+        <v>4275.1442100000004</v>
+      </c>
+      <c r="H365">
+        <v>4192.2302710000004</v>
+      </c>
+      <c r="I365">
+        <v>4242.544132</v>
+      </c>
+      <c r="J365">
+        <v>4211.591531</v>
+      </c>
+      <c r="K365">
+        <v>4094.4118819999999</v>
+      </c>
+      <c r="L365">
+        <v>4096.8218280000001</v>
+      </c>
+      <c r="M365">
+        <v>3997.3378080000002</v>
+      </c>
+      <c r="N365">
+        <v>4037.6533439999998</v>
+      </c>
+      <c r="O365">
+        <v>3929.977324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -32571,11 +33709,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z352"/>
+  <dimension ref="A1:Z365"/>
   <sheetViews>
-    <sheetView topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -47992,6 +49128,617 @@
         <v>0.106</v>
       </c>
     </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>45901</v>
+      </c>
+      <c r="C353">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+      <c r="D353">
+        <v>-1.35E-2</v>
+      </c>
+      <c r="E353">
+        <v>2.76E-2</v>
+      </c>
+      <c r="F353">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="G353">
+        <v>0.05</v>
+      </c>
+      <c r="H353">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="I353">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J353">
+        <v>0.1</v>
+      </c>
+      <c r="K353">
+        <v>0.1135</v>
+      </c>
+      <c r="L353">
+        <v>0.1109</v>
+      </c>
+      <c r="M353">
+        <v>0.109</v>
+      </c>
+      <c r="N353">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="O353">
+        <v>0.1056</v>
+      </c>
+      <c r="P353">
+        <v>0.1057</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C354">
+        <v>-1.95E-2</v>
+      </c>
+      <c r="D354">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+      <c r="E354">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="F354">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G354">
+        <v>0.05</v>
+      </c>
+      <c r="H354">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="I354">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="J354">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="K354">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="L354">
+        <v>0.1109</v>
+      </c>
+      <c r="M354">
+        <v>0.109</v>
+      </c>
+      <c r="N354">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="O354">
+        <v>0.1055</v>
+      </c>
+      <c r="P354">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C355">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="D355">
+        <v>-1.52E-2</v>
+      </c>
+      <c r="E355">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="F355">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G355">
+        <v>0.05</v>
+      </c>
+      <c r="H355">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="I355">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="J355">
+        <v>0.1</v>
+      </c>
+      <c r="K355">
+        <v>0.1135</v>
+      </c>
+      <c r="L355">
+        <v>0.1109</v>
+      </c>
+      <c r="M355">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="N355">
+        <v>0.1062</v>
+      </c>
+      <c r="O355">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="P355">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C356">
+        <v>-1.67E-2</v>
+      </c>
+      <c r="D356">
+        <v>-1.21E-2</v>
+      </c>
+      <c r="E356">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="F356">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="G356">
+        <v>0.05</v>
+      </c>
+      <c r="H356">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="I356">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="J356">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="K356">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="L356">
+        <v>0.111</v>
+      </c>
+      <c r="M356">
+        <v>0.1094</v>
+      </c>
+      <c r="N356">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="O356">
+        <v>0.1053</v>
+      </c>
+      <c r="P356">
+        <v>0.1053</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>45905</v>
+      </c>
+      <c r="C357">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="D357">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+      <c r="E357">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="F357">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="G357">
+        <v>0.05</v>
+      </c>
+      <c r="H357">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="I357">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="J357">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="K357">
+        <v>0.1114</v>
+      </c>
+      <c r="L357">
+        <v>0.1109</v>
+      </c>
+      <c r="M357">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="N357">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="O357">
+        <v>0.1053</v>
+      </c>
+      <c r="P357">
+        <v>0.1051</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>45908</v>
+      </c>
+      <c r="C358">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="D358">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="E358">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F358">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="G358">
+        <v>0.05</v>
+      </c>
+      <c r="H358">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="I358">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="J358">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="K358">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="L358">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="M358">
+        <v>0.1096</v>
+      </c>
+      <c r="N358">
+        <v>0.106</v>
+      </c>
+      <c r="O358">
+        <v>0.1051</v>
+      </c>
+      <c r="P358">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C359">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="D359">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="E359">
+        <v>2.87E-2</v>
+      </c>
+      <c r="F359">
+        <v>3.95E-2</v>
+      </c>
+      <c r="G359">
+        <v>0.05</v>
+      </c>
+      <c r="H359">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="I359">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="J359">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="K359">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="L359">
+        <v>0.1105</v>
+      </c>
+      <c r="M359">
+        <v>0.1095</v>
+      </c>
+      <c r="N359">
+        <v>0.1062</v>
+      </c>
+      <c r="O359">
+        <v>0.1052</v>
+      </c>
+      <c r="P359">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C360">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D360">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E360">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F360">
+        <v>0.04</v>
+      </c>
+      <c r="G360">
+        <v>0.05</v>
+      </c>
+      <c r="H360">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="I360">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="J360">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="K360">
+        <v>0.1091</v>
+      </c>
+      <c r="L360">
+        <v>0.1099</v>
+      </c>
+      <c r="M360">
+        <v>0.1091</v>
+      </c>
+      <c r="N360">
+        <v>0.1061</v>
+      </c>
+      <c r="O360">
+        <v>0.1057</v>
+      </c>
+      <c r="P360">
+        <v>0.10580000000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>45911</v>
+      </c>
+      <c r="C361">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D361">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E361">
+        <v>0.03</v>
+      </c>
+      <c r="F361">
+        <v>0.04</v>
+      </c>
+      <c r="G361">
+        <v>0.05</v>
+      </c>
+      <c r="H361">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="I361">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="J361">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="K361">
+        <v>0.1071</v>
+      </c>
+      <c r="L361">
+        <v>0.1087</v>
+      </c>
+      <c r="M361">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="N361">
+        <v>0.1057</v>
+      </c>
+      <c r="O361">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="P361">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <v>45912</v>
+      </c>
+      <c r="C362">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D362">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E362">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="F362">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="G362">
+        <v>0.05</v>
+      </c>
+      <c r="H362">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="I362">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="J362">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="K362">
+        <v>0.1051</v>
+      </c>
+      <c r="L362">
+        <v>0.1069</v>
+      </c>
+      <c r="M362">
+        <v>0.107</v>
+      </c>
+      <c r="N362">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="O362">
+        <v>0.105</v>
+      </c>
+      <c r="P362">
+        <v>0.10489999999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <v>45915</v>
+      </c>
+      <c r="C363">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D363">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E363">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="F363">
+        <v>4.02E-2</v>
+      </c>
+      <c r="G363">
+        <v>0.05</v>
+      </c>
+      <c r="H363">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="I363">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="J363">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="K363">
+        <v>0.1051</v>
+      </c>
+      <c r="L363">
+        <v>0.1066</v>
+      </c>
+      <c r="M363">
+        <v>0.107</v>
+      </c>
+      <c r="N363">
+        <v>0.104</v>
+      </c>
+      <c r="O363">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="P363">
+        <v>0.10440000000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C364">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D364">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E364">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="F364">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="G364">
+        <v>0.05</v>
+      </c>
+      <c r="H364">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="I364">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="J364">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K364">
+        <v>0.1053</v>
+      </c>
+      <c r="L364">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="M364">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="N364">
+        <v>0.1037</v>
+      </c>
+      <c r="O364">
+        <v>0.104</v>
+      </c>
+      <c r="P364">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C365">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="F365">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="G365">
+        <v>0.05</v>
+      </c>
+      <c r="H365">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="I365">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="J365">
+        <v>9.69E-2</v>
+      </c>
+      <c r="K365">
+        <v>0.1052</v>
+      </c>
+      <c r="L365">
+        <v>0.1056</v>
+      </c>
+      <c r="M365">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="N365">
+        <v>0.1036</v>
+      </c>
+      <c r="O365">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="P365">
+        <v>0.10390000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8BBCCE-D9A8-40D8-8443-0CCB736D7713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4422A7-6B6A-477C-9387-D20C89C3F505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="910" yWindow="980" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID069c8357bf21408d8379daab87afedf3" localSheetId="0" hidden="1">Plan1!$N$4:$N$365</definedName>
-    <definedName name="_ECO_RANGE_ID0aa526e01fc9415ca43fc9efce8f30e5" localSheetId="1" hidden="1">Planilha1!$K$4:$K$365</definedName>
-    <definedName name="_ECO_RANGE_ID12715d3ec11c44dba80e7e2a3592aaed" localSheetId="1" hidden="1">Planilha1!$F$4:$F$365</definedName>
-    <definedName name="_ECO_RANGE_ID19ebe89d76164eeaba98e6d1dde14865" localSheetId="0" hidden="1">Plan1!$O$4:$O$365</definedName>
-    <definedName name="_ECO_RANGE_ID1ef767a6a6734291aec20466f12806a1" localSheetId="1" hidden="1">Planilha1!$C$4:$C$365</definedName>
-    <definedName name="_ECO_RANGE_ID2564fe4e894745ba9af999483d79f239" localSheetId="2" hidden="1">Planilha2!$C$4:$C$365</definedName>
-    <definedName name="_ECO_RANGE_ID272730d0208240fbaaa1c46eb9c0acb9" localSheetId="1" hidden="1">Planilha1!$D$4:$D$365</definedName>
-    <definedName name="_ECO_RANGE_ID2d78cbf50cc6417f828944fa0390af2f" localSheetId="2" hidden="1">Planilha2!$O$4:$O$365</definedName>
-    <definedName name="_ECO_RANGE_ID2eeb92d515af4378a54b88baedae3218" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID348f58fe044c49db9455c72d078a7011" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID3723e4b82d3b4c2792d437f95016b2fa" localSheetId="1" hidden="1">Planilha1!$L$4:$L$365</definedName>
-    <definedName name="_ECO_RANGE_ID3d2576e6f962473288d0e036ee00e8b0" localSheetId="1" hidden="1">Planilha1!$O$4:$O$365</definedName>
-    <definedName name="_ECO_RANGE_ID44381c78b55941b4a9759b3e91918664" localSheetId="0" hidden="1">Plan1!$A$4:$B$365</definedName>
-    <definedName name="_ECO_RANGE_ID4602d5b8f9924c0fa0dd5124ca306d42" localSheetId="2" hidden="1">Planilha2!$P$4:$P$365</definedName>
-    <definedName name="_ECO_RANGE_ID48b556df42e7451b82cc873870ab23ae" localSheetId="2" hidden="1">Planilha2!$G$4:$G$365</definedName>
-    <definedName name="_ECO_RANGE_ID4d2864b573584bfda1a21f392041806c" localSheetId="1" hidden="1">Planilha1!$H$4:$H$365</definedName>
-    <definedName name="_ECO_RANGE_ID4e961f7de05647cda41692cc0f42280a" localSheetId="0" hidden="1">Plan1!$E$4:$E$365</definedName>
-    <definedName name="_ECO_RANGE_ID4fa157872f1a4789a22e35a1e8e99bab" localSheetId="1" hidden="1">Planilha1!$I$4:$I$365</definedName>
-    <definedName name="_ECO_RANGE_ID520ef1e18a0b42d6b597283ebe24030e" localSheetId="0" hidden="1">Plan1!$I$4:$I$365</definedName>
-    <definedName name="_ECO_RANGE_ID5281028fc1e24cd0a0064026ce90c39b" localSheetId="1" hidden="1">Planilha1!$G$4:$G$365</definedName>
-    <definedName name="_ECO_RANGE_ID5acc3e8171c8480c9aa3387afd93b878" localSheetId="2" hidden="1">Planilha2!$E$4:$E$365</definedName>
-    <definedName name="_ECO_RANGE_ID5f3faa8cccbb4026bd86c141944f1581" localSheetId="1" hidden="1">Planilha1!$N$4:$N$365</definedName>
-    <definedName name="_ECO_RANGE_ID61704e793b434fa0a815fc74415e1b81" localSheetId="1" hidden="1">Planilha1!$M$4:$M$365</definedName>
-    <definedName name="_ECO_RANGE_ID618282d5659b42cc9ed07a2f92a8bc9a" localSheetId="1" hidden="1">Planilha1!$A$4:$B$365</definedName>
-    <definedName name="_ECO_RANGE_ID6ae5d63218a94299b59ab36eca304a0a" localSheetId="2" hidden="1">Planilha2!$K$4:$K$365</definedName>
-    <definedName name="_ECO_RANGE_ID6bf39f550c064fb7ab5e3054be56e8dd" localSheetId="2" hidden="1">Planilha2!$F$4:$F$365</definedName>
-    <definedName name="_ECO_RANGE_ID789224f3a6c443ac952659154e759baf" localSheetId="2" hidden="1">Planilha2!$H$4:$H$365</definedName>
-    <definedName name="_ECO_RANGE_ID79b4e7f19a2544a39d2552b07792295c" localSheetId="1" hidden="1">Planilha1!$E$4:$E$365</definedName>
-    <definedName name="_ECO_RANGE_ID7b60ad2479524e04ad76f952ba8bf1fe" localSheetId="1" hidden="1">Planilha1!$J$4:$J$365</definedName>
-    <definedName name="_ECO_RANGE_ID7e26d6f1c0b046fd92d046612e6f520a" localSheetId="0" hidden="1">Plan1!$D$4:$D$365</definedName>
-    <definedName name="_ECO_RANGE_ID7fa1ed80293c4b7ebd807b6a3555037a" localSheetId="0" hidden="1">Plan1!$F$4:$F$365</definedName>
-    <definedName name="_ECO_RANGE_ID82745bccca624a7e9b401b4032ef32aa" localSheetId="2" hidden="1">Planilha2!$I$4:$I$365</definedName>
-    <definedName name="_ECO_RANGE_ID86a8b037098241a0a264451e476527b8" localSheetId="2" hidden="1">Planilha2!$J$4:$J$365</definedName>
-    <definedName name="_ECO_RANGE_ID89bfb0202bfe47389df5237caf6d5b66" localSheetId="0" hidden="1">Plan1!$C$4:$C$365</definedName>
-    <definedName name="_ECO_RANGE_ID8b312d55d3a84f4fb0e26ed3620c637f" localSheetId="0" hidden="1">Plan1!$M$4:$M$365</definedName>
-    <definedName name="_ECO_RANGE_ID8c21ebbf2231451695d555be19c9486f" localSheetId="2" hidden="1">Planilha2!$N$4:$N$365</definedName>
-    <definedName name="_ECO_RANGE_ID971be7e03e2e4fbfbec035b8d7b92272" localSheetId="2" hidden="1">Planilha2!$D$4:$D$365</definedName>
-    <definedName name="_ECO_RANGE_ID9f249bdd71c44b39ac7d692ed478d070" localSheetId="2" hidden="1">Planilha2!$A$4:$B$365</definedName>
-    <definedName name="_ECO_RANGE_IDa69ac4f1e5804bf884e8129a9d28d62c" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDac303276f49c4e79b3a2e7cf18c6605f" localSheetId="0" hidden="1">Plan1!$G$4:$G$365</definedName>
-    <definedName name="_ECO_RANGE_IDb1c4c0e163114f7a956dbac2451d9f5e" localSheetId="0" hidden="1">Plan1!$K$4:$K$365</definedName>
-    <definedName name="_ECO_RANGE_IDc58069e78ded46a38c203cb3f00b99ed" localSheetId="0" hidden="1">Plan1!$J$4:$J$365</definedName>
-    <definedName name="_ECO_RANGE_IDc594dba71d7e43e5a6430088e3b2407b" localSheetId="0" hidden="1">Plan1!$H$4:$H$365</definedName>
-    <definedName name="_ECO_RANGE_IDc5cbcb04b63145dc8ac2100aad11ab22" localSheetId="2" hidden="1">Planilha2!$M$4:$M$365</definedName>
-    <definedName name="_ECO_RANGE_IDd521015f42074069983d30e62bb079d6" localSheetId="0" hidden="1">Plan1!$L$4:$L$365</definedName>
-    <definedName name="_ECO_RANGE_IDebeb9c7fdfdf448ba50183d720dc601c" localSheetId="2" hidden="1">Planilha2!$L$4:$L$365</definedName>
+    <definedName name="_ECO_RANGE_ID064e95acb7924d2fb45222e0d0cc5a82" localSheetId="1" hidden="1">Planilha1!$D$4:$D$382</definedName>
+    <definedName name="_ECO_RANGE_ID12443cc36e6e4874bc62836aeccba943" localSheetId="0" hidden="1">Plan1!$F$4:$F$382</definedName>
+    <definedName name="_ECO_RANGE_ID17d4d8e2e9d44b979eb2e9e64787afb2" localSheetId="1" hidden="1">Planilha1!$H$4:$H$382</definedName>
+    <definedName name="_ECO_RANGE_ID2826e291eedb40619e9fd93606b8f6b3" localSheetId="2" hidden="1">Planilha2!$N$4:$N$382</definedName>
+    <definedName name="_ECO_RANGE_ID28ee40839d90456b9a1c8cd6e53fc22e" localSheetId="1" hidden="1">Planilha1!$N$4:$N$382</definedName>
+    <definedName name="_ECO_RANGE_ID29767e1a00094cd2a4a5467f0f25bbaa" localSheetId="2" hidden="1">Planilha2!$G$4:$G$382</definedName>
+    <definedName name="_ECO_RANGE_ID2b9505f53bcd45e0b2b50ed2ce11585f" localSheetId="1" hidden="1">Planilha1!$L$4:$L$382</definedName>
+    <definedName name="_ECO_RANGE_ID2c918ee279604fc19efe575452f88df4" localSheetId="1" hidden="1">Planilha1!$G$4:$G$382</definedName>
+    <definedName name="_ECO_RANGE_ID2efd1cb8605244dfba1d373c235b2d79" localSheetId="1" hidden="1">Planilha1!$K$4:$K$382</definedName>
+    <definedName name="_ECO_RANGE_ID34b62bf021264af6860ce1863ea474c1" localSheetId="2" hidden="1">Planilha2!$P$4:$P$382</definedName>
+    <definedName name="_ECO_RANGE_ID39423c02232f43a8b5b1e2a889f283b3" localSheetId="1" hidden="1">Planilha1!$J$4:$J$382</definedName>
+    <definedName name="_ECO_RANGE_ID3f90e3f742eb4cd986011513535d9971" localSheetId="2" hidden="1">Planilha2!$C$4:$C$382</definedName>
+    <definedName name="_ECO_RANGE_ID443cbf656ad54bc2a9f062b481054dab" localSheetId="1" hidden="1">Planilha1!$O$4:$O$382</definedName>
+    <definedName name="_ECO_RANGE_ID569f3c49e39f4541afb26aafc1024c59" localSheetId="2" hidden="1">Planilha2!$D$4:$D$382</definedName>
+    <definedName name="_ECO_RANGE_ID5cac606e317c4edbaad6f2eee5c49885" localSheetId="2" hidden="1">Planilha2!$K$4:$K$382</definedName>
+    <definedName name="_ECO_RANGE_ID5d22e5a1541b41d7a4247a4b2be2bd51" localSheetId="0" hidden="1">Plan1!$I$4:$I$382</definedName>
+    <definedName name="_ECO_RANGE_ID68e0b91a9dcb400e965c79afe1efd674" localSheetId="1" hidden="1">Planilha1!$I$4:$I$382</definedName>
+    <definedName name="_ECO_RANGE_ID7a6bf434e2954a23b3191d76d11dd4d2" localSheetId="2" hidden="1">Planilha2!$F$4:$F$382</definedName>
+    <definedName name="_ECO_RANGE_ID7ae3c13c31224f2aa0f7364a759a2321" localSheetId="0" hidden="1">Plan1!$M$4:$M$382</definedName>
+    <definedName name="_ECO_RANGE_ID7d99ae61d7c04f70beb58fa466edff07" localSheetId="1" hidden="1">Planilha1!$M$4:$M$382</definedName>
+    <definedName name="_ECO_RANGE_ID80cfd1851f4d4199ae9602e9de43432b" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID8b151bf5d60748d0802c22a88f249f17" localSheetId="0" hidden="1">Plan1!$L$4:$L$382</definedName>
+    <definedName name="_ECO_RANGE_ID9b4a53c09e544440bcf64e153263da74" localSheetId="1" hidden="1">Planilha1!$F$4:$F$382</definedName>
+    <definedName name="_ECO_RANGE_ID9d2c5d5dc6b7417a9369ebf61f2af7ba" localSheetId="0" hidden="1">Plan1!$C$4:$C$382</definedName>
+    <definedName name="_ECO_RANGE_IDa166fd37b3564b62877cee02235da633" localSheetId="0" hidden="1">Plan1!$N$4:$N$382</definedName>
+    <definedName name="_ECO_RANGE_IDa2dea355494e4684b5bf30f1422916a7" localSheetId="2" hidden="1">Planilha2!$I$4:$I$382</definedName>
+    <definedName name="_ECO_RANGE_IDa48dc846cb044574be9436903e090852" localSheetId="0" hidden="1">Plan1!$K$4:$K$382</definedName>
+    <definedName name="_ECO_RANGE_IDa48f922d35e548749e053ecb8b07528e" localSheetId="0" hidden="1">Plan1!$D$4:$D$382</definedName>
+    <definedName name="_ECO_RANGE_IDa5a0b26fd7f84d52824b0f997d1a2697" localSheetId="2" hidden="1">Planilha2!$A$4:$B$382</definedName>
+    <definedName name="_ECO_RANGE_IDadd5d60953254aa0b15c44973316cc3e" localSheetId="2" hidden="1">Planilha2!$H$4:$H$382</definedName>
+    <definedName name="_ECO_RANGE_IDb5aa21b951dc479faf50bd5c5ad951e9" localSheetId="1" hidden="1">Planilha1!$C$4:$C$382</definedName>
+    <definedName name="_ECO_RANGE_IDb98a6aa0ed5e470bb86081862c608ffc" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDbb08b04eab894ab8b93aaf4c09cb9602" localSheetId="0" hidden="1">Plan1!$O$4:$O$382</definedName>
+    <definedName name="_ECO_RANGE_IDbb580229a85d40e8921c5268d8ebb989" localSheetId="0" hidden="1">Plan1!$E$4:$E$382</definedName>
+    <definedName name="_ECO_RANGE_IDc157c3e710d14698b4683d08e2a63ea1" localSheetId="2" hidden="1">Planilha2!$E$4:$E$382</definedName>
+    <definedName name="_ECO_RANGE_IDcc79b3c761584f6994d15328488cff05" localSheetId="2" hidden="1">Planilha2!$M$4:$M$382</definedName>
+    <definedName name="_ECO_RANGE_IDd7b3fe88bf5641aa8a364c20a8e377af" localSheetId="1" hidden="1">Planilha1!$A$4:$B$382</definedName>
+    <definedName name="_ECO_RANGE_IDdc4744b8d368495285bf86a2b028ae43" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDdea1e60cdad24aac85a6c71805826027" localSheetId="0" hidden="1">Plan1!$G$4:$G$382</definedName>
+    <definedName name="_ECO_RANGE_IDdebc64d985b548bab43135e7d8fa25a0" localSheetId="2" hidden="1">Planilha2!$O$4:$O$382</definedName>
+    <definedName name="_ECO_RANGE_IDdf5ce28380a34357970db7c3712fbab7" localSheetId="0" hidden="1">Plan1!$J$4:$J$382</definedName>
+    <definedName name="_ECO_RANGE_IDe1fae42c441c4a678b69abc291f61190" localSheetId="1" hidden="1">Planilha1!$E$4:$E$382</definedName>
+    <definedName name="_ECO_RANGE_IDed38580b0fba41978fcde781fd2561de" localSheetId="2" hidden="1">Planilha2!$J$4:$J$382</definedName>
+    <definedName name="_ECO_RANGE_IDf0edec310a9443ff986da513db2d39b9" localSheetId="2" hidden="1">Planilha2!$L$4:$L$382</definedName>
+    <definedName name="_ECO_RANGE_IDfcac0f29fe024b1c9d32eae09ea5f09e" localSheetId="0" hidden="1">Plan1!$A$4:$B$382</definedName>
+    <definedName name="_ECO_RANGE_IDfdbe1b4b7b8d4cc386db5f40e53ff1df" localSheetId="0" hidden="1">Plan1!$H$4:$H$382</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,328 +286,330 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>da67230f-0573-4261-92ef-9aae8b0a49d9</stp>
-        <tr r="A3" s="3"/>
+        <stp>45708c3e-1f20-41b1-8af0-e34ff064b300</stp>
+        <tr r="F3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>18983eac-927e-4be9-bc59-424fa3d36e24</stp>
+        <stp>89d364ca-e0a3-4b38-8b95-08063a7053ad</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>976f367b-5169-409b-9f72-2fbac01a24be</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f12c79ff-5b4a-4c58-bb3a-4e0edc5e351d</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>44034f61-2efa-4a4f-8348-17ed5d87ed0f</stp>
         <tr r="M3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>9e83a17b-737e-41ca-a646-d3a8d085d834</stp>
-        <tr r="J3" s="2"/>
+        <stp>f9463382-4cff-470c-ae56-ad147884b056</stp>
+        <tr r="N3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>5e3934a1-5480-4752-b8ef-960458519305</stp>
+        <stp>a5050f6d-685e-4386-96b1-ad5497e42f0d</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>aec0c03a-24e2-4596-9a64-861fbb7a94dd</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8523f586-e278-4214-a179-c3ff35af9ff6</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1495dc32-8ad7-4ef8-9ef0-52b9ff613ce0</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>02af89be-3202-42c2-9dc7-ef440429b232</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>68df40df-34f9-4a41-ba63-0a5c6ff5732c</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2098b261-0bc3-44f8-a23c-d120fbf4db3e</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>560edf43-4c16-4ea5-831a-28919b2c3299</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6875e9b2-947e-4eb5-b56e-01e8366b87ff</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1c688157-4437-4c84-80ad-4458c25ff998</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c386c996-5b25-4d6d-83da-2e3d5347fe35</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4b844f8b-8dee-4c3a-ad23-80f6d50d8f2f</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ce1f20c1-4fa9-4516-b91f-6cd3d95a42cc</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>06d8b8d8-2763-4c21-b64f-6b18eb92e7ed</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>40cf656c-b3db-47f0-95e2-60be1c48706b</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a28601b7-93dd-4aac-acf6-1909a0bf0fc6</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>42987282-c44c-45b2-8f0e-220aed550d2b</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f946b8d2-fcf1-4c10-82af-6b803b66ce36</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>668e3120-276c-452d-a4b1-25c15aacd42f</stp>
         <tr r="O3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>400ec977-0228-42d9-b109-493a4ad56fc9</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d527d4ab-fb24-4042-b6f1-d8dd36ef52f4</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>26481a9b-1a0b-4f80-b728-e8894dfe6740</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>09c50685-02fe-4d57-82fc-3a654a7cbff6</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cab10f9f-9148-4c6e-afb4-948e9dc7ebb3</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>537a5907-cea4-4f96-a434-252edfd8f44a</stp>
+        <stp>7abe5a9c-cb79-4873-b127-ea869cb49252</stp>
         <tr r="L3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f0f7d21e-68ab-452e-946a-3389098e2f66</stp>
-        <tr r="F3" s="1"/>
+        <stp>b54fcc39-5cd9-40cb-9d07-fc81dc210c24</stp>
+        <tr r="J3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>bbb35854-f5e1-453d-ac78-3f2aa005e2a0</stp>
-        <tr r="H3" s="3"/>
+        <stp>a03ce66d-f84a-4436-8c29-e22f222bd1df</stp>
+        <tr r="M3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b6f0b1c4-4714-4205-ae0c-b5250ff6da99</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1ca1e706-aaad-427c-9d0e-aab9e71ca507</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e1fe527d-d8c7-4249-9b5e-4a47b59d69de</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>46a1040b-2bb7-48b6-abf3-d4b19f923494</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3e9f73b5-f426-450c-b348-c22fc0613ba2</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>37109470-1634-4063-9dfe-a3a40c40d00e</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9b830e0a-d403-4e7f-9fc1-2878bff0b8f8</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0a5fbd08-ac88-42ef-b651-2b596c2dd749</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d0b4a830-e55c-42e1-a5cb-de4fc90dabf5</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>132372c8-6262-4393-9cc2-7147e557da7e</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0a795022-fecd-4587-81a3-4ac5a06b62c9</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>baf7d323-7176-42d4-90c0-209e10f6b178</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c75068ca-03cf-4516-8ad1-0d1f8717ab98</stp>
+        <stp>df139277-9533-4780-b83b-515113d80970</stp>
         <tr r="F3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f2fba07a-4118-4239-83bd-56b3774d40fc</stp>
-        <tr r="I3" s="3"/>
+        <stp>ad9c9d8c-02bc-4511-aede-6923e0a2690a</stp>
+        <tr r="O3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>3b86ae76-62dc-45d1-9875-6bf7c07d89c1</stp>
-        <tr r="O3" s="2"/>
+        <stp>2bc8911f-9834-45f8-a666-2a4ec6c7af64</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>9559dab3-9542-4551-ad58-10a4c611b16a</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7dedc17c-8204-4f59-ae21-674a98a8462b</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>dd948c4a-e2e9-425f-85fb-278f99266458</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5de0128d-5a77-4c6d-900b-28e0cc51e489</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>50d1ff17-6011-446f-b75e-18eade25777d</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1031da21-bbc2-44df-acd3-c7eea8ceae51</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>08e9e2cd-9fe5-4b31-aaf0-302aa7af2719</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>76460d1e-cb70-458c-a8af-1dfb6bc61c8b</stp>
-        <tr r="J3" s="1"/>
+        <stp>ad0e0fd0-ddfd-428e-b0ec-c101558c77bd</stp>
+        <tr r="K3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>3081062a-3508-4022-9b43-ed491dd47ea5</stp>
-        <tr r="G3" s="1"/>
+        <stp>1a3a40e8-ee5a-44e3-9c70-8be8657d5339</stp>
+        <tr r="G3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>e1980355-e609-422f-9219-ef5c58853981</stp>
-        <tr r="A3" s="1"/>
+        <stp>129991b2-4891-47b7-9107-55e77f949798</stp>
+        <tr r="E3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f12a9114-11e1-43bd-97ac-6d2cfb41eb26</stp>
+        <stp>cf19dc61-cdd5-4e25-b303-3b12432b4e57</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9e54f613-a4ee-4c81-a1c0-f7d7ca908ae7</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1b196b1e-0004-4caa-88ae-2d59591bb458</stp>
         <tr r="P3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>173be16d-7ce0-4159-a123-0943ed1327ff</stp>
-        <tr r="N3" s="2"/>
+        <stp>82c99882-278b-42d8-90c0-b95e01d8e214</stp>
+        <tr r="E3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>87d40e23-662f-4d5a-b8fc-17171ce70e21</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4199822e7bfd4bc0bb33e72b8c54b528">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3e973791-d0ce-486d-9058-9ee0a6e0cf53</stp>
-        <tr r="L3" s="3"/>
+        <stp>117b912d-c797-408a-b0f6-1f4139e0badb</stp>
+        <tr r="J3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0473b57f-7b8f-4307-85c4-1d489a44d409</stp>
-        <tr r="A3" s="2"/>
+        <stp>edc9e060-ef2a-4800-8e70-19c9cb82206d</stp>
+        <tr r="J3" s="3"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>67c29daf-6260-4153-9032-1d5f3e561776</stp>
-        <tr r="M3" s="2"/>
+        <stp>3d7a9f96-ed4a-44f1-84b8-dc87280f0231</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2e9d390a-5412-4edd-a058-ecb66e57bb8a</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>82296386-639a-466a-94da-668b4b75c98d</stp>
+        <tr r="C3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -877,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O365"/>
+  <dimension ref="A1:O382"/>
   <sheetViews>
-    <sheetView topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="A365" sqref="A365"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="A382" sqref="A382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17286,6 +17288,754 @@
         <v>7.15</v>
       </c>
     </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C366">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="D366">
+        <v>8.5444999999999993</v>
+      </c>
+      <c r="E366">
+        <v>8</v>
+      </c>
+      <c r="F366">
+        <v>7.8049999999999997</v>
+      </c>
+      <c r="G366">
+        <v>7.7888999999999999</v>
+      </c>
+      <c r="H366">
+        <v>7.7127999999999997</v>
+      </c>
+      <c r="I366">
+        <v>7.6379000000000001</v>
+      </c>
+      <c r="J366">
+        <v>7.4737</v>
+      </c>
+      <c r="K366">
+        <v>7.2275999999999998</v>
+      </c>
+      <c r="L366">
+        <v>7.2187000000000001</v>
+      </c>
+      <c r="M366">
+        <v>7.1627000000000001</v>
+      </c>
+      <c r="N366">
+        <v>7.15</v>
+      </c>
+      <c r="O366">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C367">
+        <v>9.5388000000000002</v>
+      </c>
+      <c r="D367">
+        <v>8.57</v>
+      </c>
+      <c r="E367">
+        <v>8.0358000000000001</v>
+      </c>
+      <c r="F367">
+        <v>7.84</v>
+      </c>
+      <c r="G367">
+        <v>7.8251999999999997</v>
+      </c>
+      <c r="H367">
+        <v>7.7423999999999999</v>
+      </c>
+      <c r="I367">
+        <v>7.6811999999999996</v>
+      </c>
+      <c r="J367">
+        <v>7.5209000000000001</v>
+      </c>
+      <c r="K367">
+        <v>7.28</v>
+      </c>
+      <c r="L367">
+        <v>7.26</v>
+      </c>
+      <c r="M367">
+        <v>7.2</v>
+      </c>
+      <c r="N367">
+        <v>7.1887999999999996</v>
+      </c>
+      <c r="O367">
+        <v>7.2172000000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>45922</v>
+      </c>
+      <c r="C368">
+        <v>9.6082000000000001</v>
+      </c>
+      <c r="D368">
+        <v>8.66</v>
+      </c>
+      <c r="E368">
+        <v>8.1089000000000002</v>
+      </c>
+      <c r="F368">
+        <v>7.9112</v>
+      </c>
+      <c r="G368">
+        <v>7.8944000000000001</v>
+      </c>
+      <c r="H368">
+        <v>7.8109000000000002</v>
+      </c>
+      <c r="I368">
+        <v>7.7508999999999997</v>
+      </c>
+      <c r="J368">
+        <v>7.5948000000000002</v>
+      </c>
+      <c r="K368">
+        <v>7.34</v>
+      </c>
+      <c r="L368">
+        <v>7.3105000000000002</v>
+      </c>
+      <c r="M368">
+        <v>7.2431000000000001</v>
+      </c>
+      <c r="N368">
+        <v>7.2302999999999997</v>
+      </c>
+      <c r="O368">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C369">
+        <v>9.5938999999999997</v>
+      </c>
+      <c r="D369">
+        <v>8.6182999999999996</v>
+      </c>
+      <c r="E369">
+        <v>8.0547000000000004</v>
+      </c>
+      <c r="F369">
+        <v>7.85</v>
+      </c>
+      <c r="G369">
+        <v>7.8167999999999997</v>
+      </c>
+      <c r="H369">
+        <v>7.73</v>
+      </c>
+      <c r="I369">
+        <v>7.6744000000000003</v>
+      </c>
+      <c r="J369">
+        <v>7.5130999999999997</v>
+      </c>
+      <c r="K369">
+        <v>7.2758000000000003</v>
+      </c>
+      <c r="L369">
+        <v>7.26</v>
+      </c>
+      <c r="M369">
+        <v>7.2015000000000002</v>
+      </c>
+      <c r="N369">
+        <v>7.1951999999999998</v>
+      </c>
+      <c r="O369">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C370">
+        <v>9.5656999999999996</v>
+      </c>
+      <c r="D370">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="E370">
+        <v>8.0764999999999993</v>
+      </c>
+      <c r="F370">
+        <v>7.8829000000000002</v>
+      </c>
+      <c r="G370">
+        <v>7.8403</v>
+      </c>
+      <c r="H370">
+        <v>7.7449000000000003</v>
+      </c>
+      <c r="I370">
+        <v>7.6933999999999996</v>
+      </c>
+      <c r="J370">
+        <v>7.5148999999999999</v>
+      </c>
+      <c r="K370">
+        <v>7.28</v>
+      </c>
+      <c r="L370">
+        <v>7.2587000000000002</v>
+      </c>
+      <c r="M370">
+        <v>7.1966000000000001</v>
+      </c>
+      <c r="N370">
+        <v>7.19</v>
+      </c>
+      <c r="O370">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
+        <v>45925</v>
+      </c>
+      <c r="C371">
+        <v>9.6084999999999994</v>
+      </c>
+      <c r="D371">
+        <v>8.6800999999999995</v>
+      </c>
+      <c r="E371">
+        <v>8.1463999999999999</v>
+      </c>
+      <c r="F371">
+        <v>7.9455</v>
+      </c>
+      <c r="G371">
+        <v>7.8956999999999997</v>
+      </c>
+      <c r="H371">
+        <v>7.7762000000000002</v>
+      </c>
+      <c r="I371">
+        <v>7.7117000000000004</v>
+      </c>
+      <c r="J371">
+        <v>7.5327999999999999</v>
+      </c>
+      <c r="K371">
+        <v>7.2866</v>
+      </c>
+      <c r="L371">
+        <v>7.2648000000000001</v>
+      </c>
+      <c r="M371">
+        <v>7.2</v>
+      </c>
+      <c r="N371">
+        <v>7.1906999999999996</v>
+      </c>
+      <c r="O371">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
+        <v>45926</v>
+      </c>
+      <c r="C372">
+        <v>9.6716999999999995</v>
+      </c>
+      <c r="D372">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E372">
+        <v>8.14</v>
+      </c>
+      <c r="F372">
+        <v>7.9375</v>
+      </c>
+      <c r="G372">
+        <v>7.87</v>
+      </c>
+      <c r="H372">
+        <v>7.766</v>
+      </c>
+      <c r="I372">
+        <v>7.7020999999999997</v>
+      </c>
+      <c r="J372">
+        <v>7.5294999999999996</v>
+      </c>
+      <c r="K372">
+        <v>7.2796000000000003</v>
+      </c>
+      <c r="L372">
+        <v>7.2539999999999996</v>
+      </c>
+      <c r="M372">
+        <v>7.19</v>
+      </c>
+      <c r="N372">
+        <v>7.1848999999999998</v>
+      </c>
+      <c r="O372">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C373">
+        <v>9.7140000000000004</v>
+      </c>
+      <c r="D373">
+        <v>8.7173999999999996</v>
+      </c>
+      <c r="E373">
+        <v>8.1778999999999993</v>
+      </c>
+      <c r="F373">
+        <v>7.9680999999999997</v>
+      </c>
+      <c r="G373">
+        <v>7.9058000000000002</v>
+      </c>
+      <c r="H373">
+        <v>7.8059000000000003</v>
+      </c>
+      <c r="I373">
+        <v>7.7576000000000001</v>
+      </c>
+      <c r="J373">
+        <v>7.5888999999999998</v>
+      </c>
+      <c r="K373">
+        <v>7.3395999999999999</v>
+      </c>
+      <c r="L373">
+        <v>7.2968000000000002</v>
+      </c>
+      <c r="M373">
+        <v>7.2351999999999999</v>
+      </c>
+      <c r="N373">
+        <v>7.2237999999999998</v>
+      </c>
+      <c r="O373">
+        <v>7.2405999999999997</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C374">
+        <v>9.8007000000000009</v>
+      </c>
+      <c r="D374">
+        <v>8.7766999999999999</v>
+      </c>
+      <c r="E374">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F374">
+        <v>7.9790999999999999</v>
+      </c>
+      <c r="G374">
+        <v>7.9131999999999998</v>
+      </c>
+      <c r="H374">
+        <v>7.8102</v>
+      </c>
+      <c r="I374">
+        <v>7.78</v>
+      </c>
+      <c r="J374">
+        <v>7.6177999999999999</v>
+      </c>
+      <c r="K374">
+        <v>7.37</v>
+      </c>
+      <c r="L374">
+        <v>7.3148</v>
+      </c>
+      <c r="M374">
+        <v>7.2487000000000004</v>
+      </c>
+      <c r="N374">
+        <v>7.2314999999999996</v>
+      </c>
+      <c r="O374">
+        <v>7.2446999999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C375">
+        <v>9.8691999999999993</v>
+      </c>
+      <c r="D375">
+        <v>8.82</v>
+      </c>
+      <c r="E375">
+        <v>8.2360000000000007</v>
+      </c>
+      <c r="F375">
+        <v>7.9991000000000003</v>
+      </c>
+      <c r="G375">
+        <v>7.92</v>
+      </c>
+      <c r="H375">
+        <v>7.8049999999999997</v>
+      </c>
+      <c r="I375">
+        <v>7.7622</v>
+      </c>
+      <c r="J375">
+        <v>7.5987</v>
+      </c>
+      <c r="K375">
+        <v>7.3632</v>
+      </c>
+      <c r="L375">
+        <v>7.2969999999999997</v>
+      </c>
+      <c r="M375">
+        <v>7.23</v>
+      </c>
+      <c r="N375">
+        <v>7.2149999999999999</v>
+      </c>
+      <c r="O375">
+        <v>7.2309999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <v>45932</v>
+      </c>
+      <c r="C376">
+        <v>9.9733999999999998</v>
+      </c>
+      <c r="D376">
+        <v>8.9183000000000003</v>
+      </c>
+      <c r="E376">
+        <v>8.3048000000000002</v>
+      </c>
+      <c r="F376">
+        <v>8.0740999999999996</v>
+      </c>
+      <c r="G376">
+        <v>7.99</v>
+      </c>
+      <c r="H376">
+        <v>7.86</v>
+      </c>
+      <c r="I376">
+        <v>7.8205</v>
+      </c>
+      <c r="J376">
+        <v>7.6467999999999998</v>
+      </c>
+      <c r="K376">
+        <v>7.4032</v>
+      </c>
+      <c r="L376">
+        <v>7.3301999999999996</v>
+      </c>
+      <c r="M376">
+        <v>7.2590000000000003</v>
+      </c>
+      <c r="N376">
+        <v>7.2465999999999999</v>
+      </c>
+      <c r="O376">
+        <v>7.2678000000000003</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C377">
+        <v>10.009</v>
+      </c>
+      <c r="D377">
+        <v>8.9230999999999998</v>
+      </c>
+      <c r="E377">
+        <v>8.3204999999999991</v>
+      </c>
+      <c r="F377">
+        <v>8.0991999999999997</v>
+      </c>
+      <c r="G377">
+        <v>8.0123999999999995</v>
+      </c>
+      <c r="H377">
+        <v>7.8872999999999998</v>
+      </c>
+      <c r="I377">
+        <v>7.83</v>
+      </c>
+      <c r="J377">
+        <v>7.6475999999999997</v>
+      </c>
+      <c r="K377">
+        <v>7.4062000000000001</v>
+      </c>
+      <c r="L377">
+        <v>7.3360000000000003</v>
+      </c>
+      <c r="M377">
+        <v>7.27</v>
+      </c>
+      <c r="N377">
+        <v>7.2523</v>
+      </c>
+      <c r="O377">
+        <v>7.2723000000000004</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <v>45936</v>
+      </c>
+      <c r="C378">
+        <v>10.0189</v>
+      </c>
+      <c r="D378">
+        <v>8.8978000000000002</v>
+      </c>
+      <c r="E378">
+        <v>8.3206000000000007</v>
+      </c>
+      <c r="F378">
+        <v>8.1129999999999995</v>
+      </c>
+      <c r="G378">
+        <v>8.0366999999999997</v>
+      </c>
+      <c r="H378">
+        <v>7.9059999999999997</v>
+      </c>
+      <c r="I378">
+        <v>7.8514999999999997</v>
+      </c>
+      <c r="J378">
+        <v>7.6611000000000002</v>
+      </c>
+      <c r="K378">
+        <v>7.39</v>
+      </c>
+      <c r="L378">
+        <v>7.33</v>
+      </c>
+      <c r="M378">
+        <v>7.2733999999999996</v>
+      </c>
+      <c r="N378">
+        <v>7.2598000000000003</v>
+      </c>
+      <c r="O378">
+        <v>7.2773000000000003</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C379">
+        <v>10.0869</v>
+      </c>
+      <c r="D379">
+        <v>8.9192</v>
+      </c>
+      <c r="E379">
+        <v>8.3702000000000005</v>
+      </c>
+      <c r="F379">
+        <v>8.17</v>
+      </c>
+      <c r="G379">
+        <v>8.08</v>
+      </c>
+      <c r="H379">
+        <v>7.9558</v>
+      </c>
+      <c r="I379">
+        <v>7.8986999999999998</v>
+      </c>
+      <c r="J379">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="K379">
+        <v>7.4569000000000001</v>
+      </c>
+      <c r="L379">
+        <v>7.3989000000000003</v>
+      </c>
+      <c r="M379">
+        <v>7.3274999999999997</v>
+      </c>
+      <c r="N379">
+        <v>7.3</v>
+      </c>
+      <c r="O379">
+        <v>7.3158000000000003</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C380">
+        <v>10.06</v>
+      </c>
+      <c r="D380">
+        <v>8.85</v>
+      </c>
+      <c r="E380">
+        <v>8.3354999999999997</v>
+      </c>
+      <c r="F380">
+        <v>8.1340000000000003</v>
+      </c>
+      <c r="G380">
+        <v>8.0448000000000004</v>
+      </c>
+      <c r="H380">
+        <v>7.9196999999999997</v>
+      </c>
+      <c r="I380">
+        <v>7.8632999999999997</v>
+      </c>
+      <c r="J380">
+        <v>7.7</v>
+      </c>
+      <c r="K380">
+        <v>7.4588999999999999</v>
+      </c>
+      <c r="L380">
+        <v>7.4</v>
+      </c>
+      <c r="M380">
+        <v>7.327</v>
+      </c>
+      <c r="N380">
+        <v>7.3</v>
+      </c>
+      <c r="O380">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C381">
+        <v>10.0562</v>
+      </c>
+      <c r="D381">
+        <v>8.8224</v>
+      </c>
+      <c r="E381">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F381">
+        <v>8.09</v>
+      </c>
+      <c r="G381">
+        <v>8.0027000000000008</v>
+      </c>
+      <c r="H381">
+        <v>7.9001999999999999</v>
+      </c>
+      <c r="I381">
+        <v>7.8404999999999996</v>
+      </c>
+      <c r="J381">
+        <v>7.6963999999999997</v>
+      </c>
+      <c r="K381">
+        <v>7.4702000000000002</v>
+      </c>
+      <c r="L381">
+        <v>7.41</v>
+      </c>
+      <c r="M381">
+        <v>7.33</v>
+      </c>
+      <c r="N381">
+        <v>7.2941000000000003</v>
+      </c>
+      <c r="O381">
+        <v>7.3120000000000003</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
+        <v>45940</v>
+      </c>
+      <c r="C382">
+        <v>10.1007</v>
+      </c>
+      <c r="D382">
+        <v>8.8262</v>
+      </c>
+      <c r="E382">
+        <v>8.2856000000000005</v>
+      </c>
+      <c r="F382">
+        <v>8.1029999999999998</v>
+      </c>
+      <c r="G382">
+        <v>8.0355000000000008</v>
+      </c>
+      <c r="H382">
+        <v>7.9402999999999997</v>
+      </c>
+      <c r="I382">
+        <v>7.8929999999999998</v>
+      </c>
+      <c r="J382">
+        <v>7.7603</v>
+      </c>
+      <c r="K382">
+        <v>7.54</v>
+      </c>
+      <c r="L382">
+        <v>7.4576000000000002</v>
+      </c>
+      <c r="M382">
+        <v>7.37</v>
+      </c>
+      <c r="N382">
+        <v>7.3262</v>
+      </c>
+      <c r="O382">
+        <v>7.3475999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17293,10 +18043,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O365"/>
+  <dimension ref="A1:O382"/>
   <sheetViews>
-    <sheetView topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="A365" sqref="A365"/>
+    <sheetView topLeftCell="A360" workbookViewId="0">
+      <selection activeCell="A382" sqref="A382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33702,6 +34452,754 @@
         <v>3929.977324</v>
       </c>
     </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C366">
+        <v>4433.710529</v>
+      </c>
+      <c r="D366">
+        <v>4468.0719669999999</v>
+      </c>
+      <c r="E366">
+        <v>4345.6255789999996</v>
+      </c>
+      <c r="F366">
+        <v>4393.4746420000001</v>
+      </c>
+      <c r="G366">
+        <v>4259.2566580000002</v>
+      </c>
+      <c r="H366">
+        <v>4176.4559879999997</v>
+      </c>
+      <c r="I366">
+        <v>4230.538141</v>
+      </c>
+      <c r="J366">
+        <v>4204.5117010000004</v>
+      </c>
+      <c r="K366">
+        <v>4089.4968990000002</v>
+      </c>
+      <c r="L366">
+        <v>4088.2348459999998</v>
+      </c>
+      <c r="M366">
+        <v>3989.0501840000002</v>
+      </c>
+      <c r="N366">
+        <v>4027.6335989999998</v>
+      </c>
+      <c r="O366">
+        <v>3917.1630960000002</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C367">
+        <v>4436.2214190000004</v>
+      </c>
+      <c r="D367">
+        <v>4469.1346910000002</v>
+      </c>
+      <c r="E367">
+        <v>4344.302205</v>
+      </c>
+      <c r="F367">
+        <v>4391.3970660000005</v>
+      </c>
+      <c r="G367">
+        <v>4255.6207350000004</v>
+      </c>
+      <c r="H367">
+        <v>4172.3793999999998</v>
+      </c>
+      <c r="I367">
+        <v>4222.7256269999998</v>
+      </c>
+      <c r="J367">
+        <v>4193.6949210000002</v>
+      </c>
+      <c r="K367">
+        <v>4072.4634599999999</v>
+      </c>
+      <c r="L367">
+        <v>4073.2081859999998</v>
+      </c>
+      <c r="M367">
+        <v>3974.1141699999998</v>
+      </c>
+      <c r="N367">
+        <v>4011.1234370000002</v>
+      </c>
+      <c r="O367">
+        <v>3900.8857710000002</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>45922</v>
+      </c>
+      <c r="C368">
+        <v>4436.5712370000001</v>
+      </c>
+      <c r="D368">
+        <v>4466.1050759999998</v>
+      </c>
+      <c r="E368">
+        <v>4338.9987380000002</v>
+      </c>
+      <c r="F368">
+        <v>4384.5940430000001</v>
+      </c>
+      <c r="G368">
+        <v>4246.5090389999996</v>
+      </c>
+      <c r="H368">
+        <v>4159.8561570000002</v>
+      </c>
+      <c r="I368">
+        <v>4208.7536920000002</v>
+      </c>
+      <c r="J368">
+        <v>4175.5315309999996</v>
+      </c>
+      <c r="K368">
+        <v>4052.7812300000001</v>
+      </c>
+      <c r="L368">
+        <v>4054.480039</v>
+      </c>
+      <c r="M368">
+        <v>3956.644088</v>
+      </c>
+      <c r="N368">
+        <v>3993.459186</v>
+      </c>
+      <c r="O368">
+        <v>3882.0100520000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C369">
+        <v>4439.92418</v>
+      </c>
+      <c r="D369">
+        <v>4471.4562480000004</v>
+      </c>
+      <c r="E369">
+        <v>4347.3453010000003</v>
+      </c>
+      <c r="F369">
+        <v>4395.1477340000001</v>
+      </c>
+      <c r="G369">
+        <v>4261.9270189999997</v>
+      </c>
+      <c r="H369">
+        <v>4179.8618580000002</v>
+      </c>
+      <c r="I369">
+        <v>4229.1454809999996</v>
+      </c>
+      <c r="J369">
+        <v>4200.6030529999998</v>
+      </c>
+      <c r="K369">
+        <v>4078.5321490000001</v>
+      </c>
+      <c r="L369">
+        <v>4077.7279450000001</v>
+      </c>
+      <c r="M369">
+        <v>3977.8203600000002</v>
+      </c>
+      <c r="N369">
+        <v>4012.4783729999999</v>
+      </c>
+      <c r="O369">
+        <v>3898.8902320000002</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C370">
+        <v>4443.7649300000003</v>
+      </c>
+      <c r="D370">
+        <v>4473.4196309999998</v>
+      </c>
+      <c r="E370">
+        <v>4347.551899</v>
+      </c>
+      <c r="F370">
+        <v>4393.3723890000001</v>
+      </c>
+      <c r="G370">
+        <v>4260.4466110000003</v>
+      </c>
+      <c r="H370">
+        <v>4179.0041209999999</v>
+      </c>
+      <c r="I370">
+        <v>4227.0788229999998</v>
+      </c>
+      <c r="J370">
+        <v>4202.4688299999998</v>
+      </c>
+      <c r="K370">
+        <v>4079.2507059999998</v>
+      </c>
+      <c r="L370">
+        <v>4080.532334</v>
+      </c>
+      <c r="M370">
+        <v>3982.2605170000002</v>
+      </c>
+      <c r="N370">
+        <v>4017.1917100000001</v>
+      </c>
+      <c r="O370">
+        <v>3905.9809</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
+        <v>45925</v>
+      </c>
+      <c r="C371">
+        <v>4445.0935030000001</v>
+      </c>
+      <c r="D371">
+        <v>4472.9607180000003</v>
+      </c>
+      <c r="E371">
+        <v>4342.6257999999998</v>
+      </c>
+      <c r="F371">
+        <v>4387.7315920000001</v>
+      </c>
+      <c r="G371">
+        <v>4253.6598309999999</v>
+      </c>
+      <c r="H371">
+        <v>4174.5769490000002</v>
+      </c>
+      <c r="I371">
+        <v>4225.1879929999996</v>
+      </c>
+      <c r="J371">
+        <v>4199.852922</v>
+      </c>
+      <c r="K371">
+        <v>4079.0965070000002</v>
+      </c>
+      <c r="L371">
+        <v>4080.251201</v>
+      </c>
+      <c r="M371">
+        <v>3982.902337</v>
+      </c>
+      <c r="N371">
+        <v>4019.0751639999999</v>
+      </c>
+      <c r="O371">
+        <v>3908.142738</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
+        <v>45926</v>
+      </c>
+      <c r="C372">
+        <v>4444.4565560000001</v>
+      </c>
+      <c r="D372">
+        <v>4472.5190169999996</v>
+      </c>
+      <c r="E372">
+        <v>4344.6218369999997</v>
+      </c>
+      <c r="F372">
+        <v>4390.0682049999996</v>
+      </c>
+      <c r="G372">
+        <v>4259.1888479999998</v>
+      </c>
+      <c r="H372">
+        <v>4178.0018239999999</v>
+      </c>
+      <c r="I372">
+        <v>4228.6579089999996</v>
+      </c>
+      <c r="J372">
+        <v>4201.9456090000003</v>
+      </c>
+      <c r="K372">
+        <v>4082.7676580000002</v>
+      </c>
+      <c r="L372">
+        <v>4085.8634849999999</v>
+      </c>
+      <c r="M372">
+        <v>3988.5563419999999</v>
+      </c>
+      <c r="N372">
+        <v>4022.9422909999998</v>
+      </c>
+      <c r="O372">
+        <v>3914.1337669999998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C373">
+        <v>4445.6947200000004</v>
+      </c>
+      <c r="D373">
+        <v>4474.6325509999997</v>
+      </c>
+      <c r="E373">
+        <v>4343.002708</v>
+      </c>
+      <c r="F373">
+        <v>4388.4920320000001</v>
+      </c>
+      <c r="G373">
+        <v>4255.5526200000004</v>
+      </c>
+      <c r="H373">
+        <v>4171.5992630000001</v>
+      </c>
+      <c r="I373">
+        <v>4217.9161610000001</v>
+      </c>
+      <c r="J373">
+        <v>4187.6914980000001</v>
+      </c>
+      <c r="K373">
+        <v>4062.9550789999998</v>
+      </c>
+      <c r="L373">
+        <v>4070.1713479999999</v>
+      </c>
+      <c r="M373">
+        <v>3969.9575129999998</v>
+      </c>
+      <c r="N373">
+        <v>4006.3662509999999</v>
+      </c>
+      <c r="O373">
+        <v>3901.0778369999998</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C374">
+        <v>4445.4004729999997</v>
+      </c>
+      <c r="D374">
+        <v>4473.4994180000003</v>
+      </c>
+      <c r="E374">
+        <v>4342.0147299999999</v>
+      </c>
+      <c r="F374">
+        <v>4389.4709290000001</v>
+      </c>
+      <c r="G374">
+        <v>4256.6536100000003</v>
+      </c>
+      <c r="H374">
+        <v>4172.9298509999999</v>
+      </c>
+      <c r="I374">
+        <v>4214.9600149999997</v>
+      </c>
+      <c r="J374">
+        <v>4181.9398890000002</v>
+      </c>
+      <c r="K374">
+        <v>4054.030107</v>
+      </c>
+      <c r="L374">
+        <v>4064.841242</v>
+      </c>
+      <c r="M374">
+        <v>3965.8900199999998</v>
+      </c>
+      <c r="N374">
+        <v>4004.7773590000002</v>
+      </c>
+      <c r="O374">
+        <v>3901.0959809999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C375">
+        <v>4445.7700189999996</v>
+      </c>
+      <c r="D375">
+        <v>4473.3845149999997</v>
+      </c>
+      <c r="E375">
+        <v>4341.6811129999996</v>
+      </c>
+      <c r="F375">
+        <v>4389.2854100000004</v>
+      </c>
+      <c r="G375">
+        <v>4257.8504190000003</v>
+      </c>
+      <c r="H375">
+        <v>4176.3262409999998</v>
+      </c>
+      <c r="I375">
+        <v>4221.4102039999998</v>
+      </c>
+      <c r="J375">
+        <v>4189.4647359999999</v>
+      </c>
+      <c r="K375">
+        <v>4058.639357</v>
+      </c>
+      <c r="L375">
+        <v>4074.3573280000001</v>
+      </c>
+      <c r="M375">
+        <v>3976.4782709999999</v>
+      </c>
+      <c r="N375">
+        <v>4014.7609699999998</v>
+      </c>
+      <c r="O375">
+        <v>3909.880478</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <v>45932</v>
+      </c>
+      <c r="C376">
+        <v>4444.9336089999997</v>
+      </c>
+      <c r="D376">
+        <v>4469.870097</v>
+      </c>
+      <c r="E376">
+        <v>4336.8375720000004</v>
+      </c>
+      <c r="F376">
+        <v>4381.987177</v>
+      </c>
+      <c r="G376">
+        <v>4248.5815149999999</v>
+      </c>
+      <c r="H376">
+        <v>4166.6869919999999</v>
+      </c>
+      <c r="I376">
+        <v>4210.0846730000003</v>
+      </c>
+      <c r="J376">
+        <v>4178.4271639999997</v>
+      </c>
+      <c r="K376">
+        <v>4046.2683259999999</v>
+      </c>
+      <c r="L376">
+        <v>4062.7364189999998</v>
+      </c>
+      <c r="M376">
+        <v>3965.356702</v>
+      </c>
+      <c r="N376">
+        <v>4001.7603340000001</v>
+      </c>
+      <c r="O376">
+        <v>3893.8463160000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C377">
+        <v>4446.4815440000002</v>
+      </c>
+      <c r="D377">
+        <v>4472.1796979999999</v>
+      </c>
+      <c r="E377">
+        <v>4337.6171370000002</v>
+      </c>
+      <c r="F377">
+        <v>4381.1710929999999</v>
+      </c>
+      <c r="G377">
+        <v>4247.2184420000003</v>
+      </c>
+      <c r="H377">
+        <v>4163.0644979999997</v>
+      </c>
+      <c r="I377">
+        <v>4210.1641259999997</v>
+      </c>
+      <c r="J377">
+        <v>4180.45604</v>
+      </c>
+      <c r="K377">
+        <v>4047.3226719999998</v>
+      </c>
+      <c r="L377">
+        <v>4062.479394</v>
+      </c>
+      <c r="M377">
+        <v>3962.445029</v>
+      </c>
+      <c r="N377">
+        <v>4001.1379099999999</v>
+      </c>
+      <c r="O377">
+        <v>3893.6844890000002</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <v>45936</v>
+      </c>
+      <c r="C378">
+        <v>4448.913192</v>
+      </c>
+      <c r="D378">
+        <v>4476.3567620000003</v>
+      </c>
+      <c r="E378">
+        <v>4340.044895</v>
+      </c>
+      <c r="F378">
+        <v>4381.8157570000003</v>
+      </c>
+      <c r="G378">
+        <v>4245.5494179999996</v>
+      </c>
+      <c r="H378">
+        <v>4161.3111339999996</v>
+      </c>
+      <c r="I378">
+        <v>4207.4525709999998</v>
+      </c>
+      <c r="J378">
+        <v>4178.9846470000002</v>
+      </c>
+      <c r="K378">
+        <v>4055.3246859999999</v>
+      </c>
+      <c r="L378">
+        <v>4067.09337</v>
+      </c>
+      <c r="M378">
+        <v>3962.9780740000001</v>
+      </c>
+      <c r="N378">
+        <v>3999.6635889999998</v>
+      </c>
+      <c r="O378">
+        <v>3893.281058</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C379">
+        <v>4449.3830770000004</v>
+      </c>
+      <c r="D379">
+        <v>4477.6484959999998</v>
+      </c>
+      <c r="E379">
+        <v>4337.2731460000005</v>
+      </c>
+      <c r="F379">
+        <v>4376.909396</v>
+      </c>
+      <c r="G379">
+        <v>4240.7645249999996</v>
+      </c>
+      <c r="H379">
+        <v>4152.880795</v>
+      </c>
+      <c r="I379">
+        <v>4198.8012840000001</v>
+      </c>
+      <c r="J379">
+        <v>4168.0813690000004</v>
+      </c>
+      <c r="K379">
+        <v>4033.3208519999998</v>
+      </c>
+      <c r="L379">
+        <v>4040.8938170000001</v>
+      </c>
+      <c r="M379">
+        <v>3940.669296</v>
+      </c>
+      <c r="N379">
+        <v>3982.7281659999999</v>
+      </c>
+      <c r="O379">
+        <v>3876.588264</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C380">
+        <v>4453.0778030000001</v>
+      </c>
+      <c r="D380">
+        <v>4484.5294700000004</v>
+      </c>
+      <c r="E380">
+        <v>4343.3636379999998</v>
+      </c>
+      <c r="F380">
+        <v>4383.9752330000001</v>
+      </c>
+      <c r="G380">
+        <v>4248.9038739999996</v>
+      </c>
+      <c r="H380">
+        <v>4162.9162450000003</v>
+      </c>
+      <c r="I380">
+        <v>4209.298914</v>
+      </c>
+      <c r="J380">
+        <v>4172.7958490000001</v>
+      </c>
+      <c r="K380">
+        <v>4034.741023</v>
+      </c>
+      <c r="L380">
+        <v>4042.5754710000001</v>
+      </c>
+      <c r="M380">
+        <v>3942.968656</v>
+      </c>
+      <c r="N380">
+        <v>3984.8191870000001</v>
+      </c>
+      <c r="O380">
+        <v>3876.5899239999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C381">
+        <v>4453.812218</v>
+      </c>
+      <c r="D381">
+        <v>4486.6451159999997</v>
+      </c>
+      <c r="E381">
+        <v>4348.4555010000004</v>
+      </c>
+      <c r="F381">
+        <v>4389.9224039999999</v>
+      </c>
+      <c r="G381">
+        <v>4256.104437</v>
+      </c>
+      <c r="H381">
+        <v>4167.3508750000001</v>
+      </c>
+      <c r="I381">
+        <v>4214.828794</v>
+      </c>
+      <c r="J381">
+        <v>4173.9948690000001</v>
+      </c>
+      <c r="K381">
+        <v>4030.8507199999999</v>
+      </c>
+      <c r="L381">
+        <v>4038.6468249999998</v>
+      </c>
+      <c r="M381">
+        <v>3941.7647299999999</v>
+      </c>
+      <c r="N381">
+        <v>3987.7444489999998</v>
+      </c>
+      <c r="O381">
+        <v>3880.6071959999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
+        <v>45940</v>
+      </c>
+      <c r="C382">
+        <v>4454.9865749999999</v>
+      </c>
+      <c r="D382">
+        <v>4488.8924399999996</v>
+      </c>
+      <c r="E382">
+        <v>4351.2420959999999</v>
+      </c>
+      <c r="F382">
+        <v>4390.5636080000004</v>
+      </c>
+      <c r="G382">
+        <v>4252.9269290000002</v>
+      </c>
+      <c r="H382">
+        <v>4160.9019289999997</v>
+      </c>
+      <c r="I382">
+        <v>4204.8374439999998</v>
+      </c>
+      <c r="J382">
+        <v>4158.6655259999998</v>
+      </c>
+      <c r="K382">
+        <v>4007.9474869999999</v>
+      </c>
+      <c r="L382">
+        <v>4021.306689</v>
+      </c>
+      <c r="M382">
+        <v>3925.8610399999998</v>
+      </c>
+      <c r="N382">
+        <v>3974.6246350000001</v>
+      </c>
+      <c r="O382">
+        <v>3865.3415300000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -33709,9 +35207,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z365"/>
+  <dimension ref="A1:Z382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -49739,6 +51237,805 @@
         <v>0.10390000000000001</v>
       </c>
     </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="F366">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="G366">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="H366">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="I366">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="J366">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="K366">
+        <v>0.1046</v>
+      </c>
+      <c r="L366">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="M366">
+        <v>0.1061</v>
+      </c>
+      <c r="N366">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="O366">
+        <v>0.1037</v>
+      </c>
+      <c r="P366">
+        <v>0.1037</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>-1E-4</v>
+      </c>
+      <c r="E367">
+        <v>2.93E-2</v>
+      </c>
+      <c r="F367">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="G367">
+        <v>0.05</v>
+      </c>
+      <c r="H367">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="I367">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="J367">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K367">
+        <v>0.1045</v>
+      </c>
+      <c r="L367">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="M367">
+        <v>0.1057</v>
+      </c>
+      <c r="N367">
+        <v>0.1033</v>
+      </c>
+      <c r="O367">
+        <v>0.1036</v>
+      </c>
+      <c r="P367">
+        <v>0.10349999999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>45922</v>
+      </c>
+      <c r="C368">
+        <v>-1E-3</v>
+      </c>
+      <c r="D368">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="E368">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="F368">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="G368">
+        <v>0.05</v>
+      </c>
+      <c r="H368">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="I368">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J368">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K368">
+        <v>0.1045</v>
+      </c>
+      <c r="L368">
+        <v>0.1048</v>
+      </c>
+      <c r="M368">
+        <v>0.1056</v>
+      </c>
+      <c r="N368">
+        <v>0.1032</v>
+      </c>
+      <c r="O368">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="P368">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C369">
+        <v>-1E-3</v>
+      </c>
+      <c r="D369">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="E369">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F369">
+        <v>4.02E-2</v>
+      </c>
+      <c r="G369">
+        <v>0.05</v>
+      </c>
+      <c r="H369">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="I369">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="J369">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="K369">
+        <v>0.1041</v>
+      </c>
+      <c r="L369">
+        <v>0.1047</v>
+      </c>
+      <c r="M369">
+        <v>0.1055</v>
+      </c>
+      <c r="N369">
+        <v>0.1032</v>
+      </c>
+      <c r="O369">
+        <v>0.1036</v>
+      </c>
+      <c r="P369">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C370">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="D370">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+      <c r="E370">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F370">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="G370">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="H370">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="I370">
+        <v>8.43E-2</v>
+      </c>
+      <c r="J370">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="K370">
+        <v>0.104</v>
+      </c>
+      <c r="L370">
+        <v>0.1048</v>
+      </c>
+      <c r="M370">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="N370">
+        <v>0.1031</v>
+      </c>
+      <c r="O370">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="P370">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
+        <v>45925</v>
+      </c>
+      <c r="C371">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="D371">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="E371">
+        <v>2.92E-2</v>
+      </c>
+      <c r="F371">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="G371">
+        <v>0.05</v>
+      </c>
+      <c r="H371">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="I371">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="J371">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K371">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="L371">
+        <v>0.1047</v>
+      </c>
+      <c r="M371">
+        <v>0.1052</v>
+      </c>
+      <c r="N371">
+        <v>0.1031</v>
+      </c>
+      <c r="O371">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="P371">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
+        <v>45926</v>
+      </c>
+      <c r="C372">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="D372">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="E372">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="F372">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="G372">
+        <v>0.05</v>
+      </c>
+      <c r="H372">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="I372">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J372">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="K372">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="L372">
+        <v>0.1046</v>
+      </c>
+      <c r="M372">
+        <v>0.1051</v>
+      </c>
+      <c r="N372">
+        <v>0.1031</v>
+      </c>
+      <c r="O372">
+        <v>0.1033</v>
+      </c>
+      <c r="P372">
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C373">
+        <v>-7.9000000000000008E-3</v>
+      </c>
+      <c r="D373">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E373">
+        <v>2.86E-2</v>
+      </c>
+      <c r="F373">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="G373">
+        <v>0.05</v>
+      </c>
+      <c r="H373">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="I373">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="J373">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="K373">
+        <v>0.1038</v>
+      </c>
+      <c r="L373">
+        <v>0.1045</v>
+      </c>
+      <c r="M373">
+        <v>0.105</v>
+      </c>
+      <c r="N373">
+        <v>0.1031</v>
+      </c>
+      <c r="O373">
+        <v>0.1032</v>
+      </c>
+      <c r="P373">
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C374">
+        <v>-8.3000000000000001E-3</v>
+      </c>
+      <c r="D374">
+        <v>-5.4000000000000003E-3</v>
+      </c>
+      <c r="E374">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="F374">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="G374">
+        <v>0.05</v>
+      </c>
+      <c r="H374">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="I374">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="J374">
+        <v>9.35E-2</v>
+      </c>
+      <c r="K374">
+        <v>0.1037</v>
+      </c>
+      <c r="L374">
+        <v>0.1045</v>
+      </c>
+      <c r="M374">
+        <v>0.105</v>
+      </c>
+      <c r="N374">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="O374">
+        <v>0.1032</v>
+      </c>
+      <c r="P374">
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C375">
+        <v>-9.5999999999999992E-3</v>
+      </c>
+      <c r="D375">
+        <v>-5.7999999999999996E-3</v>
+      </c>
+      <c r="E375">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F375">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="G375">
+        <v>0.05</v>
+      </c>
+      <c r="H375">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I375">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="J375">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="K375">
+        <v>0.1036</v>
+      </c>
+      <c r="L375">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M375">
+        <v>0.105</v>
+      </c>
+      <c r="N375">
+        <v>0.1031</v>
+      </c>
+      <c r="O375">
+        <v>0.1033</v>
+      </c>
+      <c r="P375">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <v>45932</v>
+      </c>
+      <c r="C376">
+        <v>-5.3E-3</v>
+      </c>
+      <c r="D376">
+        <v>-5.3E-3</v>
+      </c>
+      <c r="E376">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F376">
+        <v>0.04</v>
+      </c>
+      <c r="G376">
+        <v>0.05</v>
+      </c>
+      <c r="H376">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I376">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="J376">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="K376">
+        <v>0.1032</v>
+      </c>
+      <c r="L376">
+        <v>0.104</v>
+      </c>
+      <c r="M376">
+        <v>0.1047</v>
+      </c>
+      <c r="N376">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="O376">
+        <v>0.1032</v>
+      </c>
+      <c r="P376">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C377">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="D377">
+        <v>-5.4000000000000003E-3</v>
+      </c>
+      <c r="E377">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="F377">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="G377">
+        <v>0.05</v>
+      </c>
+      <c r="H377">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="I377">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="J377">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="K377">
+        <v>0.1028</v>
+      </c>
+      <c r="L377">
+        <v>0.1038</v>
+      </c>
+      <c r="M377">
+        <v>0.1046</v>
+      </c>
+      <c r="N377">
+        <v>0.1028</v>
+      </c>
+      <c r="O377">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="P377">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <v>45936</v>
+      </c>
+      <c r="C378">
+        <v>-7.1000000000000004E-3</v>
+      </c>
+      <c r="D378">
+        <v>-5.7999999999999996E-3</v>
+      </c>
+      <c r="E378">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F378">
+        <v>3.95E-2</v>
+      </c>
+      <c r="G378">
+        <v>4.99E-2</v>
+      </c>
+      <c r="H378">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="I378">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="J378">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="K378">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="L378">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="M378">
+        <v>0.1043</v>
+      </c>
+      <c r="N378">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="O378">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="P378">
+        <v>0.10290000000000001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C379">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="D379">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="E379">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F379">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="G379">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="H379">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="I379">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="J379">
+        <v>9.64E-2</v>
+      </c>
+      <c r="K379">
+        <v>0.107</v>
+      </c>
+      <c r="L379">
+        <v>0.1075</v>
+      </c>
+      <c r="M379">
+        <v>0.1075</v>
+      </c>
+      <c r="N379">
+        <v>0.1067</v>
+      </c>
+      <c r="O379">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="P379">
+        <v>0.10589999999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C380">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="D380">
+        <v>-5.4000000000000003E-3</v>
+      </c>
+      <c r="E380">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F380">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="G380">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="H380">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="I380">
+        <v>9.01E-2</v>
+      </c>
+      <c r="J380">
+        <v>0.1094</v>
+      </c>
+      <c r="K380">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="L380">
+        <v>0.1164</v>
+      </c>
+      <c r="M380">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="N380">
+        <v>0.1164</v>
+      </c>
+      <c r="O380">
+        <v>0.1159</v>
+      </c>
+      <c r="P380">
+        <v>0.1152</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C381">
+        <v>-6.4000000000000003E-3</v>
+      </c>
+      <c r="D381">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="E381">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="F381">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="G381">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="H381">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="I381">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="J381">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="K381">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="L381">
+        <v>0.1052</v>
+      </c>
+      <c r="M381">
+        <v>0.1056</v>
+      </c>
+      <c r="N381">
+        <v>0.106</v>
+      </c>
+      <c r="O381">
+        <v>0.1053</v>
+      </c>
+      <c r="P381">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
+        <v>45940</v>
+      </c>
+      <c r="C382">
+        <v>-5.3E-3</v>
+      </c>
+      <c r="D382">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="E382">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="F382">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="G382">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H382">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="I382">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="J382">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="K382">
+        <v>0.1045</v>
+      </c>
+      <c r="L382">
+        <v>0.1043</v>
+      </c>
+      <c r="M382">
+        <v>0.1046</v>
+      </c>
+      <c r="N382">
+        <v>0.1047</v>
+      </c>
+      <c r="O382">
+        <v>0.1045</v>
+      </c>
+      <c r="P382">
+        <v>0.1047</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4422A7-6B6A-477C-9387-D20C89C3F505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C91F720-E4D2-4043-B53D-34FF71DD0FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="910" yWindow="980" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2150" yWindow="2060" windowWidth="23020" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID064e95acb7924d2fb45222e0d0cc5a82" localSheetId="1" hidden="1">Planilha1!$D$4:$D$382</definedName>
-    <definedName name="_ECO_RANGE_ID12443cc36e6e4874bc62836aeccba943" localSheetId="0" hidden="1">Plan1!$F$4:$F$382</definedName>
-    <definedName name="_ECO_RANGE_ID17d4d8e2e9d44b979eb2e9e64787afb2" localSheetId="1" hidden="1">Planilha1!$H$4:$H$382</definedName>
-    <definedName name="_ECO_RANGE_ID2826e291eedb40619e9fd93606b8f6b3" localSheetId="2" hidden="1">Planilha2!$N$4:$N$382</definedName>
-    <definedName name="_ECO_RANGE_ID28ee40839d90456b9a1c8cd6e53fc22e" localSheetId="1" hidden="1">Planilha1!$N$4:$N$382</definedName>
-    <definedName name="_ECO_RANGE_ID29767e1a00094cd2a4a5467f0f25bbaa" localSheetId="2" hidden="1">Planilha2!$G$4:$G$382</definedName>
-    <definedName name="_ECO_RANGE_ID2b9505f53bcd45e0b2b50ed2ce11585f" localSheetId="1" hidden="1">Planilha1!$L$4:$L$382</definedName>
-    <definedName name="_ECO_RANGE_ID2c918ee279604fc19efe575452f88df4" localSheetId="1" hidden="1">Planilha1!$G$4:$G$382</definedName>
-    <definedName name="_ECO_RANGE_ID2efd1cb8605244dfba1d373c235b2d79" localSheetId="1" hidden="1">Planilha1!$K$4:$K$382</definedName>
-    <definedName name="_ECO_RANGE_ID34b62bf021264af6860ce1863ea474c1" localSheetId="2" hidden="1">Planilha2!$P$4:$P$382</definedName>
-    <definedName name="_ECO_RANGE_ID39423c02232f43a8b5b1e2a889f283b3" localSheetId="1" hidden="1">Planilha1!$J$4:$J$382</definedName>
-    <definedName name="_ECO_RANGE_ID3f90e3f742eb4cd986011513535d9971" localSheetId="2" hidden="1">Planilha2!$C$4:$C$382</definedName>
-    <definedName name="_ECO_RANGE_ID443cbf656ad54bc2a9f062b481054dab" localSheetId="1" hidden="1">Planilha1!$O$4:$O$382</definedName>
-    <definedName name="_ECO_RANGE_ID569f3c49e39f4541afb26aafc1024c59" localSheetId="2" hidden="1">Planilha2!$D$4:$D$382</definedName>
-    <definedName name="_ECO_RANGE_ID5cac606e317c4edbaad6f2eee5c49885" localSheetId="2" hidden="1">Planilha2!$K$4:$K$382</definedName>
-    <definedName name="_ECO_RANGE_ID5d22e5a1541b41d7a4247a4b2be2bd51" localSheetId="0" hidden="1">Plan1!$I$4:$I$382</definedName>
-    <definedName name="_ECO_RANGE_ID68e0b91a9dcb400e965c79afe1efd674" localSheetId="1" hidden="1">Planilha1!$I$4:$I$382</definedName>
-    <definedName name="_ECO_RANGE_ID7a6bf434e2954a23b3191d76d11dd4d2" localSheetId="2" hidden="1">Planilha2!$F$4:$F$382</definedName>
-    <definedName name="_ECO_RANGE_ID7ae3c13c31224f2aa0f7364a759a2321" localSheetId="0" hidden="1">Plan1!$M$4:$M$382</definedName>
-    <definedName name="_ECO_RANGE_ID7d99ae61d7c04f70beb58fa466edff07" localSheetId="1" hidden="1">Planilha1!$M$4:$M$382</definedName>
-    <definedName name="_ECO_RANGE_ID80cfd1851f4d4199ae9602e9de43432b" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID8b151bf5d60748d0802c22a88f249f17" localSheetId="0" hidden="1">Plan1!$L$4:$L$382</definedName>
-    <definedName name="_ECO_RANGE_ID9b4a53c09e544440bcf64e153263da74" localSheetId="1" hidden="1">Planilha1!$F$4:$F$382</definedName>
-    <definedName name="_ECO_RANGE_ID9d2c5d5dc6b7417a9369ebf61f2af7ba" localSheetId="0" hidden="1">Plan1!$C$4:$C$382</definedName>
-    <definedName name="_ECO_RANGE_IDa166fd37b3564b62877cee02235da633" localSheetId="0" hidden="1">Plan1!$N$4:$N$382</definedName>
-    <definedName name="_ECO_RANGE_IDa2dea355494e4684b5bf30f1422916a7" localSheetId="2" hidden="1">Planilha2!$I$4:$I$382</definedName>
-    <definedName name="_ECO_RANGE_IDa48dc846cb044574be9436903e090852" localSheetId="0" hidden="1">Plan1!$K$4:$K$382</definedName>
-    <definedName name="_ECO_RANGE_IDa48f922d35e548749e053ecb8b07528e" localSheetId="0" hidden="1">Plan1!$D$4:$D$382</definedName>
-    <definedName name="_ECO_RANGE_IDa5a0b26fd7f84d52824b0f997d1a2697" localSheetId="2" hidden="1">Planilha2!$A$4:$B$382</definedName>
-    <definedName name="_ECO_RANGE_IDadd5d60953254aa0b15c44973316cc3e" localSheetId="2" hidden="1">Planilha2!$H$4:$H$382</definedName>
-    <definedName name="_ECO_RANGE_IDb5aa21b951dc479faf50bd5c5ad951e9" localSheetId="1" hidden="1">Planilha1!$C$4:$C$382</definedName>
-    <definedName name="_ECO_RANGE_IDb98a6aa0ed5e470bb86081862c608ffc" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDbb08b04eab894ab8b93aaf4c09cb9602" localSheetId="0" hidden="1">Plan1!$O$4:$O$382</definedName>
-    <definedName name="_ECO_RANGE_IDbb580229a85d40e8921c5268d8ebb989" localSheetId="0" hidden="1">Plan1!$E$4:$E$382</definedName>
-    <definedName name="_ECO_RANGE_IDc157c3e710d14698b4683d08e2a63ea1" localSheetId="2" hidden="1">Planilha2!$E$4:$E$382</definedName>
-    <definedName name="_ECO_RANGE_IDcc79b3c761584f6994d15328488cff05" localSheetId="2" hidden="1">Planilha2!$M$4:$M$382</definedName>
-    <definedName name="_ECO_RANGE_IDd7b3fe88bf5641aa8a364c20a8e377af" localSheetId="1" hidden="1">Planilha1!$A$4:$B$382</definedName>
-    <definedName name="_ECO_RANGE_IDdc4744b8d368495285bf86a2b028ae43" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDdea1e60cdad24aac85a6c71805826027" localSheetId="0" hidden="1">Plan1!$G$4:$G$382</definedName>
-    <definedName name="_ECO_RANGE_IDdebc64d985b548bab43135e7d8fa25a0" localSheetId="2" hidden="1">Planilha2!$O$4:$O$382</definedName>
-    <definedName name="_ECO_RANGE_IDdf5ce28380a34357970db7c3712fbab7" localSheetId="0" hidden="1">Plan1!$J$4:$J$382</definedName>
-    <definedName name="_ECO_RANGE_IDe1fae42c441c4a678b69abc291f61190" localSheetId="1" hidden="1">Planilha1!$E$4:$E$382</definedName>
-    <definedName name="_ECO_RANGE_IDed38580b0fba41978fcde781fd2561de" localSheetId="2" hidden="1">Planilha2!$J$4:$J$382</definedName>
-    <definedName name="_ECO_RANGE_IDf0edec310a9443ff986da513db2d39b9" localSheetId="2" hidden="1">Planilha2!$L$4:$L$382</definedName>
-    <definedName name="_ECO_RANGE_IDfcac0f29fe024b1c9d32eae09ea5f09e" localSheetId="0" hidden="1">Plan1!$A$4:$B$382</definedName>
-    <definedName name="_ECO_RANGE_IDfdbe1b4b7b8d4cc386db5f40e53ff1df" localSheetId="0" hidden="1">Plan1!$H$4:$H$382</definedName>
+    <definedName name="_ECO_RANGE_ID0847206367364e49bd0d0b7701012f4a" localSheetId="1" hidden="1">Planilha1!$J$4:$J$390</definedName>
+    <definedName name="_ECO_RANGE_ID08c9be0116b845da9c099d0e470ee0fb" localSheetId="1" hidden="1">Planilha1!$L$4:$L$390</definedName>
+    <definedName name="_ECO_RANGE_ID097a313c780240e0b9a47080c78d1f87" localSheetId="0" hidden="1">Plan1!$D$4:$D$390</definedName>
+    <definedName name="_ECO_RANGE_ID0c7fc753edb24c9d8745303f8c68a32c" localSheetId="0" hidden="1">Plan1!$G$4:$G$390</definedName>
+    <definedName name="_ECO_RANGE_ID1121cd4dc7974b41b1387f3b3480865b" localSheetId="0" hidden="1">Plan1!$I$4:$I$390</definedName>
+    <definedName name="_ECO_RANGE_ID122be8e821f64c59a9519af0c093baaa" localSheetId="2" hidden="1">Planilha2!$I$4:$I$390</definedName>
+    <definedName name="_ECO_RANGE_ID15f6ea41b97548c7a3285986af7e93d4" localSheetId="0" hidden="1">Plan1!$K$4:$K$390</definedName>
+    <definedName name="_ECO_RANGE_ID1cc22ade798b40b0ab38f814629c6162" localSheetId="1" hidden="1">Planilha1!$G$4:$G$390</definedName>
+    <definedName name="_ECO_RANGE_ID279367ddb4f84c5b82fa75a7f3259113" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID2d034019c0d345b2afe86aa98c752ae8" localSheetId="2" hidden="1">Planilha2!$M$4:$M$390</definedName>
+    <definedName name="_ECO_RANGE_ID36fb50d930a441928eea768f0c772f10" localSheetId="1" hidden="1">Planilha1!$D$4:$D$390</definedName>
+    <definedName name="_ECO_RANGE_ID381f2b4ac10b480b9ca6d869d6732640" localSheetId="2" hidden="1">Planilha2!$A$4:$B$390</definedName>
+    <definedName name="_ECO_RANGE_ID3a56cf2d1b81468ab9cf272788bf556d" localSheetId="2" hidden="1">Planilha2!$P$4:$P$390</definedName>
+    <definedName name="_ECO_RANGE_ID3b2162e844d5401ab0c74b3223cc89ef" localSheetId="0" hidden="1">Plan1!$A$4:$B$390</definedName>
+    <definedName name="_ECO_RANGE_ID435d02cdf13843c397205111be9e18a2" localSheetId="2" hidden="1">Planilha2!$G$4:$G$390</definedName>
+    <definedName name="_ECO_RANGE_ID47844c14621f45dc97477489a4cb8dc0" localSheetId="0" hidden="1">Plan1!$C$4:$C$390</definedName>
+    <definedName name="_ECO_RANGE_ID47bc9821bca54c4fb337445aa6d138c0" localSheetId="0" hidden="1">Plan1!$E$4:$E$390</definedName>
+    <definedName name="_ECO_RANGE_ID4ab52bea3d784fe59aa0bb5e757b97cc" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID4d937d91f8b249f290ee70951601e368" localSheetId="1" hidden="1">Planilha1!$A$4:$B$390</definedName>
+    <definedName name="_ECO_RANGE_ID4ff3c0af2a6944778322ceb142c9a738" localSheetId="2" hidden="1">Planilha2!$J$4:$J$390</definedName>
+    <definedName name="_ECO_RANGE_ID592ed81a3d974658ba01eb47d7d25cc1" localSheetId="0" hidden="1">Plan1!$L$4:$L$390</definedName>
+    <definedName name="_ECO_RANGE_ID68e8eb8dd1ef43f7ad0786cea298b556" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID6b239c4a72ed431b9763c019e9b86155" localSheetId="1" hidden="1">Planilha1!$M$4:$M$390</definedName>
+    <definedName name="_ECO_RANGE_ID734d6b3487e84e28a84ab4b76cec820c" localSheetId="0" hidden="1">Plan1!$J$4:$J$390</definedName>
+    <definedName name="_ECO_RANGE_ID73eb77676c4f40e08fbeff3efc0a440b" localSheetId="0" hidden="1">Plan1!$H$4:$H$390</definedName>
+    <definedName name="_ECO_RANGE_ID7a5cbb5bff1846f3b566d82433b183e4" localSheetId="1" hidden="1">Planilha1!$K$4:$K$390</definedName>
+    <definedName name="_ECO_RANGE_ID80327f733ed344538095ed8c333d5ebe" localSheetId="2" hidden="1">Planilha2!$E$4:$E$390</definedName>
+    <definedName name="_ECO_RANGE_ID90d3392126b940299548582bcc6774fe" localSheetId="2" hidden="1">Planilha2!$F$4:$F$390</definedName>
+    <definedName name="_ECO_RANGE_ID985abf2ee4fe4b56a66d39ba6dce4f3b" localSheetId="1" hidden="1">Planilha1!$H$4:$H$390</definedName>
+    <definedName name="_ECO_RANGE_ID9a3d120ff8fb44969ae200be7ff629fc" localSheetId="0" hidden="1">Plan1!$F$4:$F$390</definedName>
+    <definedName name="_ECO_RANGE_IDa3487055aeb64b4697bfc10f5d951976" localSheetId="1" hidden="1">Planilha1!$O$4:$O$390</definedName>
+    <definedName name="_ECO_RANGE_IDa6bd916872fc44648f37aaf712a1c05b" localSheetId="1" hidden="1">Planilha1!$N$4:$N$390</definedName>
+    <definedName name="_ECO_RANGE_IDac36c66255bf4edebfb4439002e52a88" localSheetId="1" hidden="1">Planilha1!$F$4:$F$390</definedName>
+    <definedName name="_ECO_RANGE_IDb44582688bcd4186afe089f7e1300352" localSheetId="1" hidden="1">Planilha1!$C$4:$C$390</definedName>
+    <definedName name="_ECO_RANGE_IDb5cac288e1d649f4b1c1fa83cd56bf73" localSheetId="2" hidden="1">Planilha2!$K$4:$K$390</definedName>
+    <definedName name="_ECO_RANGE_IDb7964604e5fb4537a2b6929b89507e79" localSheetId="0" hidden="1">Plan1!$M$4:$M$390</definedName>
+    <definedName name="_ECO_RANGE_IDb8703d6ec57b49dab2503fbb5078f474" localSheetId="2" hidden="1">Planilha2!$H$4:$H$390</definedName>
+    <definedName name="_ECO_RANGE_IDbad050a8dac9423ea0da865f4d09efc5" localSheetId="1" hidden="1">Planilha1!$I$4:$I$390</definedName>
+    <definedName name="_ECO_RANGE_IDc0421ce5f914433ead05cca0fd6661c9" localSheetId="2" hidden="1">Planilha2!$D$4:$D$390</definedName>
+    <definedName name="_ECO_RANGE_IDc330327353ac4b58a29b15541e168645" localSheetId="1" hidden="1">Planilha1!$E$4:$E$390</definedName>
+    <definedName name="_ECO_RANGE_IDcaef589459bb419880487b7ddc802271" localSheetId="2" hidden="1">Planilha2!$O$4:$O$390</definedName>
+    <definedName name="_ECO_RANGE_IDce54b683a5da474c8291ed18aeedbd5b" localSheetId="0" hidden="1">Plan1!$O$4:$O$390</definedName>
+    <definedName name="_ECO_RANGE_IDd1c0fadfb7b64ba190bc665590f3c8a9" localSheetId="0" hidden="1">Plan1!$N$4:$N$390</definedName>
+    <definedName name="_ECO_RANGE_IDd2f35cdbd56848faa2dbfeed0e845b27" localSheetId="2" hidden="1">Planilha2!$N$4:$N$390</definedName>
+    <definedName name="_ECO_RANGE_IDd94533ea24f14a4eb2ceb68341a69b4f" localSheetId="2" hidden="1">Planilha2!$L$4:$L$390</definedName>
+    <definedName name="_ECO_RANGE_IDf7e24393fb3c4bcbad18399f5d07d9bf" localSheetId="2" hidden="1">Planilha2!$C$4:$C$390</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,329 +286,309 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>45708c3e-1f20-41b1-8af0-e34ff064b300</stp>
-        <tr r="F3" s="2"/>
+        <stp>21de92d6-dcfb-4db5-83e3-48de20d667cb</stp>
+        <tr r="H3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>89d364ca-e0a3-4b38-8b95-08063a7053ad</stp>
-        <tr r="I3" s="2"/>
+        <stp>21ca6e26-ea41-4027-b9ba-3f3f915d5872</stp>
+        <tr r="O3" s="2"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>976f367b-5169-409b-9f72-2fbac01a24be</stp>
+        <stp>9ba26926-9c25-4e17-9aeb-859a27868987</stp>
         <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f12c79ff-5b4a-4c58-bb3a-4e0edc5e351d</stp>
+        <stp>ef0a1ab3-6d67-4f53-8cd1-4abf69efb35a</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4936547d-45bf-411c-8772-b4152cdc072b</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2e445e36-94a1-4711-b4f4-76628d9410f8</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2de2a10d-5bcd-4767-b25e-3023f8edeef6</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2a4bb442-5a76-49e8-b25c-fc7b2632e65d</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b3bbf5df-f49b-4e23-bd78-0d1e19aaf75b</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9531084a-7b4e-4633-bdfb-3624f8ab1aaf</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>92139c8b-bf71-4a9a-85e4-647d9ea76f01</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>10ddb797-7063-4b95-b26e-f45d5231365a</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>51693789-36f8-497c-9f72-3b3fabfaec44</stp>
         <tr r="D3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>44034f61-2efa-4a4f-8348-17ed5d87ed0f</stp>
-        <tr r="M3" s="1"/>
+        <stp>c1621a29-3bd0-469a-b51b-30fd575051ea</stp>
+        <tr r="N3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f9463382-4cff-470c-ae56-ad147884b056</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a5050f6d-685e-4386-96b1-ad5497e42f0d</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>aec0c03a-24e2-4596-9a64-861fbb7a94dd</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8523f586-e278-4214-a179-c3ff35af9ff6</stp>
-        <tr r="K3" s="2"/>
+        <stp>e58a7a74-1075-4f34-8b61-fe3721d78630</stp>
+        <tr r="P3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>1495dc32-8ad7-4ef8-9ef0-52b9ff613ce0</stp>
-        <tr r="L3" s="2"/>
+        <stp>433a601c-9fc0-4ac8-974a-047d058a4334</stp>
+        <tr r="O3" s="3"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>02af89be-3202-42c2-9dc7-ef440429b232</stp>
-        <tr r="G3" s="3"/>
+        <stp>542cf253-d82b-44cb-9223-96f71ff25f1d</stp>
+        <tr r="E3" s="3"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>68df40df-34f9-4a41-ba63-0a5c6ff5732c</stp>
-        <tr r="N3" s="3"/>
+        <stp>92e52d67-289a-48b3-9cb0-079b70623658</stp>
+        <tr r="L3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2098b261-0bc3-44f8-a23c-d120fbf4db3e</stp>
+        <stp>9b35934b-0db9-4293-bc34-e0ec6f1fd08e</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ad853be1-fa38-4dc7-b513-91cfa04faadc</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4cc6a158-929d-4df3-a66c-18f2788166d9</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0bddc249-86eb-4957-9e28-b0efb0bcb6a0</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>537dfdca-192a-489f-9388-a10be6d8de5f</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6a360912-242e-490e-bd2d-0f17031b020d</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d20e8faa-8fe1-4603-9944-c5bbc7afa440</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>072a2b54-1ab9-4a3e-a6ed-998c387b2841</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>91370e4d-83d3-4105-9822-6ea4f01f3bfb</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>00ad5bea-b565-4028-8ea3-254987c7876c</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3fe67d86-9409-404a-b0f4-6b9120f7a1aa</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>baf9f643-f052-4298-bda4-1ce79fad43bf</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>afc399c4-78e0-4f18-a903-270e36dc00f9</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>837195bd-57a2-421c-bc8c-dd8cd89a0eb1</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ba0ec903-8115-4dba-b3ca-7a81405e6cda</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ebfdb34f-7c93-48c3-8ff9-fa5be1068014</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a04801cd-3c83-44fc-bead-3d5bbc48bd9a</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8fe216cc-d7a6-47ea-bb31-000a3aa5debc</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0a5938ab-84eb-4f53-afb8-5009f0f06e48</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>26a9a8a1-cb08-430a-8f92-9de4ca294d98</stp>
         <tr r="L3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>560edf43-4c16-4ea5-831a-28919b2c3299</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6875e9b2-947e-4eb5-b56e-01e8366b87ff</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1c688157-4437-4c84-80ad-4458c25ff998</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c386c996-5b25-4d6d-83da-2e3d5347fe35</stp>
-        <tr r="I3" s="3"/>
+        <stp>32038aa7-d8d4-43ce-a0ad-aa2a8d5f0bae</stp>
+        <tr r="L3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4b844f8b-8dee-4c3a-ad23-80f6d50d8f2f</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ce1f20c1-4fa9-4516-b91f-6cd3d95a42cc</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>06d8b8d8-2763-4c21-b64f-6b18eb92e7ed</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>40cf656c-b3db-47f0-95e2-60be1c48706b</stp>
+        <stp>be810169-714f-4a40-b533-84545466978a</stp>
         <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a28601b7-93dd-4aac-acf6-1909a0bf0fc6</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>42987282-c44c-45b2-8f0e-220aed550d2b</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f946b8d2-fcf1-4c10-82af-6b803b66ce36</stp>
-        <tr r="H3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>668e3120-276c-452d-a4b1-25c15aacd42f</stp>
-        <tr r="O3" s="3"/>
+        <stp>ae8fa069-20f0-4bc0-83db-13378d99b350</stp>
+        <tr r="J3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7abe5a9c-cb79-4873-b127-ea869cb49252</stp>
-        <tr r="L3" s="1"/>
+        <stp>34cd854c-39bf-4e60-9d20-2b6d86e263f2</stp>
+        <tr r="M3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b54fcc39-5cd9-40cb-9d07-fc81dc210c24</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a03ce66d-f84a-4436-8c29-e22f222bd1df</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>df139277-9533-4780-b83b-515113d80970</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ad9c9d8c-02bc-4511-aede-6923e0a2690a</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2bc8911f-9834-45f8-a666-2a4ec6c7af64</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ad0e0fd0-ddfd-428e-b0ec-c101558c77bd</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1a3a40e8-ee5a-44e3-9c70-8be8657d5339</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>129991b2-4891-47b7-9107-55e77f949798</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cf19dc61-cdd5-4e25-b303-3b12432b4e57</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9e54f613-a4ee-4c81-a1c0-f7d7ca908ae7</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1b196b1e-0004-4caa-88ae-2d59591bb458</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>82c99882-278b-42d8-90c0-b95e01d8e214</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>117b912d-c797-408a-b0f6-1f4139e0badb</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>edc9e060-ef2a-4800-8e70-19c9cb82206d</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3d7a9f96-ed4a-44f1-84b8-dc87280f0231</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2e9d390a-5412-4edd-a058-ecb66e57bb8a</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_31bbe829d2ca4e4fb0d227d33a417eb4">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>82296386-639a-466a-94da-668b4b75c98d</stp>
+        <stp>9e013460-13b5-4362-8440-7e49f1820d5e</stp>
         <tr r="C3" s="1"/>
       </tp>
     </main>
@@ -879,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O382"/>
+  <dimension ref="A1:O390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="A382" sqref="A382"/>
+    <sheetView topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18036,6 +18016,317 @@
         <v>7.3475999999999999</v>
       </c>
     </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
+        <v>45943</v>
+      </c>
+      <c r="C383">
+        <v>10.196099999999999</v>
+      </c>
+      <c r="D383">
+        <v>8.8996999999999993</v>
+      </c>
+      <c r="E383">
+        <v>8.3376999999999999</v>
+      </c>
+      <c r="F383">
+        <v>8.15</v>
+      </c>
+      <c r="G383">
+        <v>8.0698000000000008</v>
+      </c>
+      <c r="H383">
+        <v>7.98</v>
+      </c>
+      <c r="I383">
+        <v>7.9429999999999996</v>
+      </c>
+      <c r="J383">
+        <v>7.79</v>
+      </c>
+      <c r="K383">
+        <v>7.5777000000000001</v>
+      </c>
+      <c r="L383">
+        <v>7.4843999999999999</v>
+      </c>
+      <c r="M383">
+        <v>7.3825000000000003</v>
+      </c>
+      <c r="N383">
+        <v>7.34</v>
+      </c>
+      <c r="O383">
+        <v>7.3567999999999998</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C384">
+        <v>10.2361</v>
+      </c>
+      <c r="D384">
+        <v>8.94</v>
+      </c>
+      <c r="E384">
+        <v>8.3465000000000007</v>
+      </c>
+      <c r="F384">
+        <v>8.1586999999999996</v>
+      </c>
+      <c r="G384">
+        <v>8.0668000000000006</v>
+      </c>
+      <c r="H384">
+        <v>7.9640000000000004</v>
+      </c>
+      <c r="I384">
+        <v>7.9298000000000002</v>
+      </c>
+      <c r="J384">
+        <v>7.7793000000000001</v>
+      </c>
+      <c r="K384">
+        <v>7.58</v>
+      </c>
+      <c r="L384">
+        <v>7.49</v>
+      </c>
+      <c r="M384">
+        <v>7.3975</v>
+      </c>
+      <c r="N384">
+        <v>7.3552999999999997</v>
+      </c>
+      <c r="O384">
+        <v>7.3708</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C385">
+        <v>10.1708</v>
+      </c>
+      <c r="D385">
+        <v>8.9146999999999998</v>
+      </c>
+      <c r="E385">
+        <v>8.3301999999999996</v>
+      </c>
+      <c r="F385">
+        <v>8.1323000000000008</v>
+      </c>
+      <c r="G385">
+        <v>8.0380000000000003</v>
+      </c>
+      <c r="H385">
+        <v>7.9191000000000003</v>
+      </c>
+      <c r="I385">
+        <v>7.8830999999999998</v>
+      </c>
+      <c r="J385">
+        <v>7.7229000000000001</v>
+      </c>
+      <c r="K385">
+        <v>7.5411999999999999</v>
+      </c>
+      <c r="L385">
+        <v>7.4588000000000001</v>
+      </c>
+      <c r="M385">
+        <v>7.3655999999999997</v>
+      </c>
+      <c r="N385">
+        <v>7.3235000000000001</v>
+      </c>
+      <c r="O385">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
+        <v>45946</v>
+      </c>
+      <c r="C386">
+        <v>10.1265</v>
+      </c>
+      <c r="D386">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="E386">
+        <v>8.3207000000000004</v>
+      </c>
+      <c r="F386">
+        <v>8.1303000000000001</v>
+      </c>
+      <c r="G386">
+        <v>8.0467999999999993</v>
+      </c>
+      <c r="H386">
+        <v>7.9390000000000001</v>
+      </c>
+      <c r="I386">
+        <v>7.8788999999999998</v>
+      </c>
+      <c r="J386">
+        <v>7.7411000000000003</v>
+      </c>
+      <c r="K386">
+        <v>7.5670999999999999</v>
+      </c>
+      <c r="L386">
+        <v>7.5</v>
+      </c>
+      <c r="M386">
+        <v>7.4005000000000001</v>
+      </c>
+      <c r="N386">
+        <v>7.36</v>
+      </c>
+      <c r="O386">
+        <v>7.3777999999999997</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
+        <v>45947</v>
+      </c>
+      <c r="C387">
+        <v>10.089</v>
+      </c>
+      <c r="D387">
+        <v>8.8775999999999993</v>
+      </c>
+      <c r="E387">
+        <v>8.3614999999999995</v>
+      </c>
+      <c r="F387">
+        <v>8.18</v>
+      </c>
+      <c r="G387">
+        <v>8.0901999999999994</v>
+      </c>
+      <c r="H387">
+        <v>7.98</v>
+      </c>
+      <c r="I387">
+        <v>7.9333</v>
+      </c>
+      <c r="J387">
+        <v>7.7910000000000004</v>
+      </c>
+      <c r="K387">
+        <v>7.6067</v>
+      </c>
+      <c r="L387">
+        <v>7.5194999999999999</v>
+      </c>
+      <c r="M387">
+        <v>7.4086999999999996</v>
+      </c>
+      <c r="N387">
+        <v>7.3701999999999996</v>
+      </c>
+      <c r="O387">
+        <v>7.3795000000000002</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
+        <v>45950</v>
+      </c>
+      <c r="C388">
+        <v>10.1143</v>
+      </c>
+      <c r="D388">
+        <v>8.9001000000000001</v>
+      </c>
+      <c r="E388">
+        <v>8.3668999999999993</v>
+      </c>
+      <c r="F388">
+        <v>8.1677</v>
+      </c>
+      <c r="G388">
+        <v>8.0657999999999994</v>
+      </c>
+      <c r="H388">
+        <v>7.9320000000000004</v>
+      </c>
+      <c r="I388">
+        <v>7.8672000000000004</v>
+      </c>
+      <c r="J388">
+        <v>7.7255000000000003</v>
+      </c>
+      <c r="K388">
+        <v>7.5549999999999997</v>
+      </c>
+      <c r="L388">
+        <v>7.47</v>
+      </c>
+      <c r="M388">
+        <v>7.3635000000000002</v>
+      </c>
+      <c r="N388">
+        <v>7.3284000000000002</v>
+      </c>
+      <c r="O388">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A389" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C389">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="D389">
+        <v>8.9420999999999999</v>
+      </c>
+      <c r="E389">
+        <v>8.41</v>
+      </c>
+      <c r="F389">
+        <v>8.2082999999999995</v>
+      </c>
+      <c r="G389">
+        <v>8.0922000000000001</v>
+      </c>
+      <c r="H389">
+        <v>7.9436999999999998</v>
+      </c>
+      <c r="I389">
+        <v>7.8662000000000001</v>
+      </c>
+      <c r="J389">
+        <v>7.7114000000000003</v>
+      </c>
+      <c r="K389">
+        <v>7.5330000000000004</v>
+      </c>
+      <c r="L389">
+        <v>7.4364999999999997</v>
+      </c>
+      <c r="M389">
+        <v>7.3310000000000004</v>
+      </c>
+      <c r="N389">
+        <v>7.2960000000000003</v>
+      </c>
+      <c r="O389">
+        <v>7.3087</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A390" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18043,10 +18334,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O382"/>
+  <dimension ref="A1:O390"/>
   <sheetViews>
-    <sheetView topLeftCell="A360" workbookViewId="0">
-      <selection activeCell="A382" sqref="A382"/>
+    <sheetView topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35200,6 +35491,317 @@
         <v>3865.3415300000001</v>
       </c>
     </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
+        <v>45943</v>
+      </c>
+      <c r="C383">
+        <v>4454.4847030000001</v>
+      </c>
+      <c r="D383">
+        <v>4486.8717610000003</v>
+      </c>
+      <c r="E383">
+        <v>4348.1026250000004</v>
+      </c>
+      <c r="F383">
+        <v>4386.8450000000003</v>
+      </c>
+      <c r="G383">
+        <v>4249.5246029999998</v>
+      </c>
+      <c r="H383">
+        <v>4154.5638719999997</v>
+      </c>
+      <c r="I383">
+        <v>4195.4747989999996</v>
+      </c>
+      <c r="J383">
+        <v>4152.7187800000002</v>
+      </c>
+      <c r="K383">
+        <v>3996.601224</v>
+      </c>
+      <c r="L383">
+        <v>4012.4826819999998</v>
+      </c>
+      <c r="M383">
+        <v>3922.2645210000001</v>
+      </c>
+      <c r="N383">
+        <v>3970.141239</v>
+      </c>
+      <c r="O383">
+        <v>3862.8480049999998</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C384">
+        <v>4455.8461219999999</v>
+      </c>
+      <c r="D384">
+        <v>4486.9050939999997</v>
+      </c>
+      <c r="E384">
+        <v>4349.513798</v>
+      </c>
+      <c r="F384">
+        <v>4388.0504360000004</v>
+      </c>
+      <c r="G384">
+        <v>4252.2494539999998</v>
+      </c>
+      <c r="H384">
+        <v>4160.1570499999998</v>
+      </c>
+      <c r="I384">
+        <v>4200.7032259999996</v>
+      </c>
+      <c r="J384">
+        <v>4157.7692999999999</v>
+      </c>
+      <c r="K384">
+        <v>3997.8128579999998</v>
+      </c>
+      <c r="L384">
+        <v>4012.244162</v>
+      </c>
+      <c r="M384">
+        <v>3917.572623</v>
+      </c>
+      <c r="N384">
+        <v>3964.9721869999998</v>
+      </c>
+      <c r="O384">
+        <v>3858.0611530000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C385">
+        <v>4460.694614</v>
+      </c>
+      <c r="D385">
+        <v>4490.9490640000004</v>
+      </c>
+      <c r="E385">
+        <v>4353.5460949999997</v>
+      </c>
+      <c r="F385">
+        <v>4393.7501480000001</v>
+      </c>
+      <c r="G385">
+        <v>4259.2140140000001</v>
+      </c>
+      <c r="H385">
+        <v>4171.955586</v>
+      </c>
+      <c r="I385">
+        <v>4213.6819329999998</v>
+      </c>
+      <c r="J385">
+        <v>4175.2964279999997</v>
+      </c>
+      <c r="K385">
+        <v>4013.6096819999998</v>
+      </c>
+      <c r="L385">
+        <v>4026.891012</v>
+      </c>
+      <c r="M385">
+        <v>3933.7120460000001</v>
+      </c>
+      <c r="N385">
+        <v>3981.832938</v>
+      </c>
+      <c r="O385">
+        <v>3874.7938060000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
+        <v>45946</v>
+      </c>
+      <c r="C386">
+        <v>4464.2694220000003</v>
+      </c>
+      <c r="D386">
+        <v>4494.9915659999997</v>
+      </c>
+      <c r="E386">
+        <v>4356.3180060000004</v>
+      </c>
+      <c r="F386">
+        <v>4395.7736269999996</v>
+      </c>
+      <c r="G386">
+        <v>4259.4657630000002</v>
+      </c>
+      <c r="H386">
+        <v>4169.3277209999997</v>
+      </c>
+      <c r="I386">
+        <v>4216.304341</v>
+      </c>
+      <c r="J386">
+        <v>4171.9350009999998</v>
+      </c>
+      <c r="K386">
+        <v>4005.9396999999999</v>
+      </c>
+      <c r="L386">
+        <v>4011.75594</v>
+      </c>
+      <c r="M386">
+        <v>3919.676113</v>
+      </c>
+      <c r="N386">
+        <v>3966.2424959999998</v>
+      </c>
+      <c r="O386">
+        <v>3858.081404</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
+        <v>45947</v>
+      </c>
+      <c r="C387">
+        <v>4467.6169159999999</v>
+      </c>
+      <c r="D387">
+        <v>4497.0654549999999</v>
+      </c>
+      <c r="E387">
+        <v>4353.8434420000003</v>
+      </c>
+      <c r="F387">
+        <v>4391.1874710000002</v>
+      </c>
+      <c r="G387">
+        <v>4254.0511859999997</v>
+      </c>
+      <c r="H387">
+        <v>4162.2000070000004</v>
+      </c>
+      <c r="I387">
+        <v>4205.3972759999997</v>
+      </c>
+      <c r="J387">
+        <v>4159.9662939999998</v>
+      </c>
+      <c r="K387">
+        <v>3993.4589649999998</v>
+      </c>
+      <c r="L387">
+        <v>4005.425283</v>
+      </c>
+      <c r="M387">
+        <v>3917.512733</v>
+      </c>
+      <c r="N387">
+        <v>3962.9710660000001</v>
+      </c>
+      <c r="O387">
+        <v>3858.7113850000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
+        <v>45950</v>
+      </c>
+      <c r="C388">
+        <v>4468.9043089999996</v>
+      </c>
+      <c r="D388">
+        <v>4497.6306519999998</v>
+      </c>
+      <c r="E388">
+        <v>4355.0657499999998</v>
+      </c>
+      <c r="F388">
+        <v>4394.5240089999998</v>
+      </c>
+      <c r="G388">
+        <v>4259.7459019999997</v>
+      </c>
+      <c r="H388">
+        <v>4174.1185160000005</v>
+      </c>
+      <c r="I388">
+        <v>4222.3209619999998</v>
+      </c>
+      <c r="J388">
+        <v>4179.4252070000002</v>
+      </c>
+      <c r="K388">
+        <v>4013.2810890000001</v>
+      </c>
+      <c r="L388">
+        <v>4026.9079790000001</v>
+      </c>
+      <c r="M388">
+        <v>3939.0557950000002</v>
+      </c>
+      <c r="N388">
+        <v>3983.9757519999998</v>
+      </c>
+      <c r="O388">
+        <v>3879.1230070000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A389" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C389">
+        <v>4470.5110599999998</v>
+      </c>
+      <c r="D389">
+        <v>4497.0286999999998</v>
+      </c>
+      <c r="E389">
+        <v>4352.3808129999998</v>
+      </c>
+      <c r="F389">
+        <v>4391.1222820000003</v>
+      </c>
+      <c r="G389">
+        <v>4257.1252210000002</v>
+      </c>
+      <c r="H389">
+        <v>4173.2590840000003</v>
+      </c>
+      <c r="I389">
+        <v>4224.2107029999997</v>
+      </c>
+      <c r="J389">
+        <v>4184.8947470000003</v>
+      </c>
+      <c r="K389">
+        <v>4022.629226</v>
+      </c>
+      <c r="L389">
+        <v>4042.0204779999999</v>
+      </c>
+      <c r="M389">
+        <v>3955.0630470000001</v>
+      </c>
+      <c r="N389">
+        <v>4000.7074910000001</v>
+      </c>
+      <c r="O389">
+        <v>3895.7220779999998</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A390" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -35207,9 +35809,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z382"/>
+  <dimension ref="A1:Z390"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -52036,6 +52640,338 @@
         <v>0.1047</v>
       </c>
     </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
+        <v>45943</v>
+      </c>
+      <c r="C383">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="D383">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="E383">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F383">
+        <v>3.85E-2</v>
+      </c>
+      <c r="G383">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H383">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="I383">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="J383">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="K383">
+        <v>0.1033</v>
+      </c>
+      <c r="L383">
+        <v>0.1038</v>
+      </c>
+      <c r="M383">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="N383">
+        <v>0.1043</v>
+      </c>
+      <c r="O383">
+        <v>0.1042</v>
+      </c>
+      <c r="P383">
+        <v>0.1043</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C384">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="D384">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="E384">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="F384">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G384">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="H384">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="I384">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="J384">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="K384">
+        <v>0.1032</v>
+      </c>
+      <c r="L384">
+        <v>0.1037</v>
+      </c>
+      <c r="M384">
+        <v>0.1042</v>
+      </c>
+      <c r="N384">
+        <v>0.1041</v>
+      </c>
+      <c r="O384">
+        <v>0.104</v>
+      </c>
+      <c r="P384">
+        <v>0.1041</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C385">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="D385">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="E385">
+        <v>2.23E-2</v>
+      </c>
+      <c r="F385">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="G385">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H385">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="I385">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="J385">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="K385">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="L385">
+        <v>0.1036</v>
+      </c>
+      <c r="M385">
+        <v>0.1041</v>
+      </c>
+      <c r="N385">
+        <v>0.104</v>
+      </c>
+      <c r="O385">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="P385">
+        <v>0.1041</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
+        <v>45946</v>
+      </c>
+      <c r="C386">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="D386">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="E386">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F386">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="G386">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H386">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="I386">
+        <v>0.08</v>
+      </c>
+      <c r="J386">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="K386">
+        <v>0.1032</v>
+      </c>
+      <c r="L386">
+        <v>0.1037</v>
+      </c>
+      <c r="M386">
+        <v>0.104</v>
+      </c>
+      <c r="N386">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="O386">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="P386">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
+        <v>45947</v>
+      </c>
+      <c r="C387">
+        <v>-2E-3</v>
+      </c>
+      <c r="D387">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E387">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="F387">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G387">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="H387">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="I387">
+        <v>0.08</v>
+      </c>
+      <c r="J387">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="K387">
+        <v>0.104</v>
+      </c>
+      <c r="L387">
+        <v>0.104</v>
+      </c>
+      <c r="M387">
+        <v>0.1038</v>
+      </c>
+      <c r="N387">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="O387">
+        <v>0.1024</v>
+      </c>
+      <c r="P387">
+        <v>0.1022</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
+        <v>45950</v>
+      </c>
+      <c r="C388">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="D388">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="E388">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="F388">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="G388">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="H388">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="I388">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="J388">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="K388">
+        <v>0.1033</v>
+      </c>
+      <c r="L388">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="M388">
+        <v>0.1036</v>
+      </c>
+      <c r="N388">
+        <v>0.1032</v>
+      </c>
+      <c r="O388">
+        <v>0.1023</v>
+      </c>
+      <c r="P388">
+        <v>0.1022</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A389" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C389">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="D389">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="E389">
+        <v>2.47E-2</v>
+      </c>
+      <c r="F389">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="G389">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="H389">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I389">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="J389">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="K389">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="L389">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="M389">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="N389">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="O389">
+        <v>0.1022</v>
+      </c>
+      <c r="P389">
+        <v>0.1022</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A390" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C91F720-E4D2-4043-B53D-34FF71DD0FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2301C20C-A462-45B3-9C97-F46E1C883222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2150" yWindow="2060" windowWidth="23020" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="2170" windowWidth="19200" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID0847206367364e49bd0d0b7701012f4a" localSheetId="1" hidden="1">Planilha1!$J$4:$J$390</definedName>
-    <definedName name="_ECO_RANGE_ID08c9be0116b845da9c099d0e470ee0fb" localSheetId="1" hidden="1">Planilha1!$L$4:$L$390</definedName>
-    <definedName name="_ECO_RANGE_ID097a313c780240e0b9a47080c78d1f87" localSheetId="0" hidden="1">Plan1!$D$4:$D$390</definedName>
-    <definedName name="_ECO_RANGE_ID0c7fc753edb24c9d8745303f8c68a32c" localSheetId="0" hidden="1">Plan1!$G$4:$G$390</definedName>
-    <definedName name="_ECO_RANGE_ID1121cd4dc7974b41b1387f3b3480865b" localSheetId="0" hidden="1">Plan1!$I$4:$I$390</definedName>
-    <definedName name="_ECO_RANGE_ID122be8e821f64c59a9519af0c093baaa" localSheetId="2" hidden="1">Planilha2!$I$4:$I$390</definedName>
-    <definedName name="_ECO_RANGE_ID15f6ea41b97548c7a3285986af7e93d4" localSheetId="0" hidden="1">Plan1!$K$4:$K$390</definedName>
-    <definedName name="_ECO_RANGE_ID1cc22ade798b40b0ab38f814629c6162" localSheetId="1" hidden="1">Planilha1!$G$4:$G$390</definedName>
-    <definedName name="_ECO_RANGE_ID279367ddb4f84c5b82fa75a7f3259113" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID2d034019c0d345b2afe86aa98c752ae8" localSheetId="2" hidden="1">Planilha2!$M$4:$M$390</definedName>
-    <definedName name="_ECO_RANGE_ID36fb50d930a441928eea768f0c772f10" localSheetId="1" hidden="1">Planilha1!$D$4:$D$390</definedName>
-    <definedName name="_ECO_RANGE_ID381f2b4ac10b480b9ca6d869d6732640" localSheetId="2" hidden="1">Planilha2!$A$4:$B$390</definedName>
-    <definedName name="_ECO_RANGE_ID3a56cf2d1b81468ab9cf272788bf556d" localSheetId="2" hidden="1">Planilha2!$P$4:$P$390</definedName>
-    <definedName name="_ECO_RANGE_ID3b2162e844d5401ab0c74b3223cc89ef" localSheetId="0" hidden="1">Plan1!$A$4:$B$390</definedName>
-    <definedName name="_ECO_RANGE_ID435d02cdf13843c397205111be9e18a2" localSheetId="2" hidden="1">Planilha2!$G$4:$G$390</definedName>
-    <definedName name="_ECO_RANGE_ID47844c14621f45dc97477489a4cb8dc0" localSheetId="0" hidden="1">Plan1!$C$4:$C$390</definedName>
-    <definedName name="_ECO_RANGE_ID47bc9821bca54c4fb337445aa6d138c0" localSheetId="0" hidden="1">Plan1!$E$4:$E$390</definedName>
-    <definedName name="_ECO_RANGE_ID4ab52bea3d784fe59aa0bb5e757b97cc" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID4d937d91f8b249f290ee70951601e368" localSheetId="1" hidden="1">Planilha1!$A$4:$B$390</definedName>
-    <definedName name="_ECO_RANGE_ID4ff3c0af2a6944778322ceb142c9a738" localSheetId="2" hidden="1">Planilha2!$J$4:$J$390</definedName>
-    <definedName name="_ECO_RANGE_ID592ed81a3d974658ba01eb47d7d25cc1" localSheetId="0" hidden="1">Plan1!$L$4:$L$390</definedName>
-    <definedName name="_ECO_RANGE_ID68e8eb8dd1ef43f7ad0786cea298b556" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID6b239c4a72ed431b9763c019e9b86155" localSheetId="1" hidden="1">Planilha1!$M$4:$M$390</definedName>
-    <definedName name="_ECO_RANGE_ID734d6b3487e84e28a84ab4b76cec820c" localSheetId="0" hidden="1">Plan1!$J$4:$J$390</definedName>
-    <definedName name="_ECO_RANGE_ID73eb77676c4f40e08fbeff3efc0a440b" localSheetId="0" hidden="1">Plan1!$H$4:$H$390</definedName>
-    <definedName name="_ECO_RANGE_ID7a5cbb5bff1846f3b566d82433b183e4" localSheetId="1" hidden="1">Planilha1!$K$4:$K$390</definedName>
-    <definedName name="_ECO_RANGE_ID80327f733ed344538095ed8c333d5ebe" localSheetId="2" hidden="1">Planilha2!$E$4:$E$390</definedName>
-    <definedName name="_ECO_RANGE_ID90d3392126b940299548582bcc6774fe" localSheetId="2" hidden="1">Planilha2!$F$4:$F$390</definedName>
-    <definedName name="_ECO_RANGE_ID985abf2ee4fe4b56a66d39ba6dce4f3b" localSheetId="1" hidden="1">Planilha1!$H$4:$H$390</definedName>
-    <definedName name="_ECO_RANGE_ID9a3d120ff8fb44969ae200be7ff629fc" localSheetId="0" hidden="1">Plan1!$F$4:$F$390</definedName>
-    <definedName name="_ECO_RANGE_IDa3487055aeb64b4697bfc10f5d951976" localSheetId="1" hidden="1">Planilha1!$O$4:$O$390</definedName>
-    <definedName name="_ECO_RANGE_IDa6bd916872fc44648f37aaf712a1c05b" localSheetId="1" hidden="1">Planilha1!$N$4:$N$390</definedName>
-    <definedName name="_ECO_RANGE_IDac36c66255bf4edebfb4439002e52a88" localSheetId="1" hidden="1">Planilha1!$F$4:$F$390</definedName>
-    <definedName name="_ECO_RANGE_IDb44582688bcd4186afe089f7e1300352" localSheetId="1" hidden="1">Planilha1!$C$4:$C$390</definedName>
-    <definedName name="_ECO_RANGE_IDb5cac288e1d649f4b1c1fa83cd56bf73" localSheetId="2" hidden="1">Planilha2!$K$4:$K$390</definedName>
-    <definedName name="_ECO_RANGE_IDb7964604e5fb4537a2b6929b89507e79" localSheetId="0" hidden="1">Plan1!$M$4:$M$390</definedName>
-    <definedName name="_ECO_RANGE_IDb8703d6ec57b49dab2503fbb5078f474" localSheetId="2" hidden="1">Planilha2!$H$4:$H$390</definedName>
-    <definedName name="_ECO_RANGE_IDbad050a8dac9423ea0da865f4d09efc5" localSheetId="1" hidden="1">Planilha1!$I$4:$I$390</definedName>
-    <definedName name="_ECO_RANGE_IDc0421ce5f914433ead05cca0fd6661c9" localSheetId="2" hidden="1">Planilha2!$D$4:$D$390</definedName>
-    <definedName name="_ECO_RANGE_IDc330327353ac4b58a29b15541e168645" localSheetId="1" hidden="1">Planilha1!$E$4:$E$390</definedName>
-    <definedName name="_ECO_RANGE_IDcaef589459bb419880487b7ddc802271" localSheetId="2" hidden="1">Planilha2!$O$4:$O$390</definedName>
-    <definedName name="_ECO_RANGE_IDce54b683a5da474c8291ed18aeedbd5b" localSheetId="0" hidden="1">Plan1!$O$4:$O$390</definedName>
-    <definedName name="_ECO_RANGE_IDd1c0fadfb7b64ba190bc665590f3c8a9" localSheetId="0" hidden="1">Plan1!$N$4:$N$390</definedName>
-    <definedName name="_ECO_RANGE_IDd2f35cdbd56848faa2dbfeed0e845b27" localSheetId="2" hidden="1">Planilha2!$N$4:$N$390</definedName>
-    <definedName name="_ECO_RANGE_IDd94533ea24f14a4eb2ceb68341a69b4f" localSheetId="2" hidden="1">Planilha2!$L$4:$L$390</definedName>
-    <definedName name="_ECO_RANGE_IDf7e24393fb3c4bcbad18399f5d07d9bf" localSheetId="2" hidden="1">Planilha2!$C$4:$C$390</definedName>
+    <definedName name="_ECO_RANGE_ID01159917db654710b318139638f071ea" localSheetId="1" hidden="1">Planilha1!$O$4:$O$392</definedName>
+    <definedName name="_ECO_RANGE_ID0146c9088b194965b8ef9c41627fee15" localSheetId="0" hidden="1">Plan1!$D$4:$D$392</definedName>
+    <definedName name="_ECO_RANGE_ID01792ba5ea384be49e3f5eef585e27f2" localSheetId="1" hidden="1">Planilha1!$C$4:$C$392</definedName>
+    <definedName name="_ECO_RANGE_ID0abb9a7d3d52459a88b86ab42edb8c68" localSheetId="2" hidden="1">Planilha2!$E$4:$E$392</definedName>
+    <definedName name="_ECO_RANGE_ID0f527870a36b4b529c0f301e73104988" localSheetId="2" hidden="1">Planilha2!$K$4:$K$392</definedName>
+    <definedName name="_ECO_RANGE_ID10baa9e24f1b42bfad07c4852f6449ed" localSheetId="0" hidden="1">Plan1!$A$4:$B$392</definedName>
+    <definedName name="_ECO_RANGE_ID1344ef5b42194fb18a0b48551a60ffde" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID20aeb122f7bb4ffdb194724b50c5ad55" localSheetId="2" hidden="1">Planilha2!$D$4:$D$392</definedName>
+    <definedName name="_ECO_RANGE_ID2a320b27c8d74614baca496c740fa743" localSheetId="2" hidden="1">Planilha2!$G$4:$G$392</definedName>
+    <definedName name="_ECO_RANGE_ID2eb862978e49447795e2d8b29e404ac1" localSheetId="0" hidden="1">Plan1!$J$4:$J$392</definedName>
+    <definedName name="_ECO_RANGE_ID336ec97e804b492591db54a424d3410f" localSheetId="1" hidden="1">Planilha1!$F$4:$F$392</definedName>
+    <definedName name="_ECO_RANGE_ID36032c80f5ba4865bf0d226c948a4795" localSheetId="2" hidden="1">Planilha2!$J$4:$J$392</definedName>
+    <definedName name="_ECO_RANGE_ID38c3c044c20c4a94bf5f336b0ce57ab9" localSheetId="1" hidden="1">Planilha1!$I$4:$I$392</definedName>
+    <definedName name="_ECO_RANGE_ID3aebdbc6517943b6886d769df5c1e02a" localSheetId="1" hidden="1">Planilha1!$M$4:$M$392</definedName>
+    <definedName name="_ECO_RANGE_ID3d0b489289bc449d9796b529d0e58bf5" localSheetId="1" hidden="1">Planilha1!$E$4:$E$392</definedName>
+    <definedName name="_ECO_RANGE_ID5132593b51ca4e3daacbd829101d22a0" localSheetId="0" hidden="1">Plan1!$L$4:$L$392</definedName>
+    <definedName name="_ECO_RANGE_ID5414a494d4ae4cb99fcae2c9f340881c" localSheetId="0" hidden="1">Plan1!$M$4:$M$392</definedName>
+    <definedName name="_ECO_RANGE_ID5aec8154150348029624ac1f2a75f273" localSheetId="2" hidden="1">Planilha2!$N$4:$N$392</definedName>
+    <definedName name="_ECO_RANGE_ID5bcb4eb1f5e24b0a9a99c518ac9a8444" localSheetId="0" hidden="1">Plan1!$N$4:$N$392</definedName>
+    <definedName name="_ECO_RANGE_ID63ab41bad7344913b6e4b3a353e877cd" localSheetId="0" hidden="1">Plan1!$H$4:$H$392</definedName>
+    <definedName name="_ECO_RANGE_ID69780b8ce71b4c03812b0775d885d339" localSheetId="1" hidden="1">Planilha1!$A$4:$B$392</definedName>
+    <definedName name="_ECO_RANGE_ID6d825909bd414ad2a0c50cfeba2cfd37" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID709f8379cb224608bc778046fc47cf39" localSheetId="2" hidden="1">Planilha2!$M$4:$M$392</definedName>
+    <definedName name="_ECO_RANGE_ID7525c591701d4de9b020a1a704c7498f" localSheetId="2" hidden="1">Planilha2!$I$4:$I$392</definedName>
+    <definedName name="_ECO_RANGE_ID75864c9f0d7e4b89a75e13893cc91a83" localSheetId="2" hidden="1">Planilha2!$F$4:$F$392</definedName>
+    <definedName name="_ECO_RANGE_ID7b2ffdd4680a45199f97bdcff353214a" localSheetId="1" hidden="1">Planilha1!$D$4:$D$392</definedName>
+    <definedName name="_ECO_RANGE_ID7f06213c112b4e369efea5cd23926816" localSheetId="1" hidden="1">Planilha1!$G$4:$G$392</definedName>
+    <definedName name="_ECO_RANGE_ID8074973efca648bc998246897cff5dc1" localSheetId="0" hidden="1">Plan1!$F$4:$F$392</definedName>
+    <definedName name="_ECO_RANGE_ID81e8430983854bdb93b82f125851617e" localSheetId="0" hidden="1">Plan1!$K$4:$K$392</definedName>
+    <definedName name="_ECO_RANGE_ID85f8cac3bec343c7bb0d24a8e80239ef" localSheetId="2" hidden="1">Planilha2!$O$4:$O$392</definedName>
+    <definedName name="_ECO_RANGE_ID980726ca8cba471a858b0e20b6d37b35" localSheetId="2" hidden="1">Planilha2!$H$4:$H$392</definedName>
+    <definedName name="_ECO_RANGE_ID9b5e65a106d346fc96d94e8b426436d9" localSheetId="2" hidden="1">Planilha2!$L$4:$L$392</definedName>
+    <definedName name="_ECO_RANGE_ID9ed58d306636479fa42e800ce7d82ca7" localSheetId="2" hidden="1">Planilha2!$A$4:$B$392</definedName>
+    <definedName name="_ECO_RANGE_IDa83a26df50764de7950304a1374e7528" localSheetId="1" hidden="1">Planilha1!$L$4:$L$392</definedName>
+    <definedName name="_ECO_RANGE_IDb8e6c0e07eda436583f0141d25d31331" localSheetId="0" hidden="1">Plan1!$G$4:$G$392</definedName>
+    <definedName name="_ECO_RANGE_IDc30c1e0adec7425ab586747abb3dadb4" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDc4c32e2a11674a188bb4db59442cb1a9" localSheetId="1" hidden="1">Planilha1!$K$4:$K$392</definedName>
+    <definedName name="_ECO_RANGE_IDc5ae3fed13924deaa1dbc297537dde20" localSheetId="0" hidden="1">Plan1!$I$4:$I$392</definedName>
+    <definedName name="_ECO_RANGE_IDc741504cb86b4eee825b186fe47a6c03" localSheetId="1" hidden="1">Planilha1!$J$4:$J$392</definedName>
+    <definedName name="_ECO_RANGE_IDd7cf07a3b80f465a99ab658ccc0c8ce1" localSheetId="1" hidden="1">Planilha1!$N$4:$N$392</definedName>
+    <definedName name="_ECO_RANGE_IDdd452e1ca4944654a01a13d306e23aa8" localSheetId="0" hidden="1">Plan1!$C$4:$C$392</definedName>
+    <definedName name="_ECO_RANGE_IDe0a6c28fdacb4418b47a0540d238ad63" localSheetId="1" hidden="1">Planilha1!$H$4:$H$392</definedName>
+    <definedName name="_ECO_RANGE_IDe28ee9a12aff45ff816f39d2d191465e" localSheetId="2" hidden="1">Planilha2!$P$4:$P$392</definedName>
+    <definedName name="_ECO_RANGE_IDf14b49e19ae14a9cbc869765c4ccd75a" localSheetId="2" hidden="1">Planilha2!$C$4:$C$392</definedName>
+    <definedName name="_ECO_RANGE_IDf6f1648e6ed74eaf9e206cca4f063649" localSheetId="0" hidden="1">Plan1!$E$4:$E$392</definedName>
+    <definedName name="_ECO_RANGE_IDfc1f94d092bf4ec98452ccf1dc91d6be" localSheetId="0" hidden="1">Plan1!$O$4:$O$392</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,310 +286,304 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>21de92d6-dcfb-4db5-83e3-48de20d667cb</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>21ca6e26-ea41-4027-b9ba-3f3f915d5872</stp>
-        <tr r="O3" s="2"/>
+        <stp>b40cf2ea-9e7d-44c0-8834-ccd3d68bb3dd</stp>
+        <tr r="N3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>9ba26926-9c25-4e17-9aeb-859a27868987</stp>
+        <stp>54e68d4b-8377-4143-a56e-cb191e7301d9</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2e64f75f-8c07-48fc-96d6-b4a210f272ab</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>21a56a46-7ed6-4fe2-9b2a-c8df6795d307</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>53afbcb6-45b4-497f-9c0a-67400e83a855</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6da4ecdc-5b3e-4170-9d9e-81b2f2761a7c</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>40e6de22-cc89-4786-9a59-eea870a4e9d5</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8dd83d18-924e-473d-8667-cb4f110f8aa1</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9f45f826-9088-4ff5-86f1-a41a1ab4a8d9</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a52e7100-fac7-4af7-92b3-9580d8f25d2e</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ce09f8a9-e9fc-4ce4-ab78-f4eecc34e3cd</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7ceca024-9994-4800-9fba-e791baa8f371</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e54abbd4-93e7-4fb0-af60-34a5d78ec63b</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b1763a9e-6075-4d6c-9704-b73d0fbb06fe</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>84643531-d778-4d3f-a2e8-ee7d85cf4e09</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>401825b2-7410-4e39-be9e-94d0e4096b7b</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1e66137c-697d-4c6f-b148-1c43230eb201</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d08793c9-36fa-4370-bde5-52f6bbe8bd9d</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e2adb0e7-c2ce-4334-9cad-29e1e8070de0</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0e96fd5c-d89a-456e-b32c-d908187ffbb2</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>540d37d2-6210-4b39-95ce-48448d7b8d49</stp>
         <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ef0a1ab3-6d67-4f53-8cd1-4abf69efb35a</stp>
+        <stp>de4beace-edb7-440c-8056-91e4415bdcfd</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1a69a864-3e7c-44b2-b0dd-e74dd60b06ff</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1c56c1fd-7765-42a9-8c29-8a556e609a4b</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>92087571-900d-4f04-b54c-c4ce1b068c42</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8964bebd-0ac5-4d8a-ac0f-a68514d1e427</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>add4f9fc-3aa5-4c44-9b2d-7b3f029f3073</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>165ae877-1128-47ec-9cbc-bfb100dbda4e</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>949f165d-1c30-43f8-9dd1-2cafb6886357</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9d3a8c93-73cc-47c7-a63d-e8016121238b</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4aed7f23-bed7-42e9-bf08-c4209ee9c39e</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0f69a6bd-9cef-4971-84a2-24d9d24bc061</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>160af65b-29f9-4b65-a087-aeaaffce0365</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>68ceb7c1-00c5-4ebf-8db8-7d0e5a5a1279</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b3170e75-92b7-424c-9fff-f0df5fe48158</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>47dd06bb-2f05-4480-846d-b85be0d2105e</stp>
         <tr r="I3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4936547d-45bf-411c-8772-b4152cdc072b</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2e445e36-94a1-4711-b4f4-76628d9410f8</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2de2a10d-5bcd-4767-b25e-3023f8edeef6</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2a4bb442-5a76-49e8-b25c-fc7b2632e65d</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b3bbf5df-f49b-4e23-bd78-0d1e19aaf75b</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9531084a-7b4e-4633-bdfb-3624f8ab1aaf</stp>
+        <stp>fb5615b7-b550-400c-ae7d-ab2bd967e771</stp>
         <tr r="K3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>92139c8b-bf71-4a9a-85e4-647d9ea76f01</stp>
-        <tr r="N3" s="1"/>
+        <stp>cd64edfa-e192-4759-84b0-b48943cc8420</stp>
+        <tr r="D3" s="3"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>10ddb797-7063-4b95-b26e-f45d5231365a</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>51693789-36f8-497c-9f72-3b3fabfaec44</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c1621a29-3bd0-469a-b51b-30fd575051ea</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e58a7a74-1075-4f34-8b61-fe3721d78630</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>433a601c-9fc0-4ac8-974a-047d058a4334</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>542cf253-d82b-44cb-9223-96f71ff25f1d</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>92e52d67-289a-48b3-9cb0-079b70623658</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9b35934b-0db9-4293-bc34-e0ec6f1fd08e</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ad853be1-fa38-4dc7-b513-91cfa04faadc</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4cc6a158-929d-4df3-a66c-18f2788166d9</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0bddc249-86eb-4957-9e28-b0efb0bcb6a0</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>537dfdca-192a-489f-9388-a10be6d8de5f</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6a360912-242e-490e-bd2d-0f17031b020d</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d20e8faa-8fe1-4603-9944-c5bbc7afa440</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>072a2b54-1ab9-4a3e-a6ed-998c387b2841</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>91370e4d-83d3-4105-9822-6ea4f01f3bfb</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>00ad5bea-b565-4028-8ea3-254987c7876c</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3fe67d86-9409-404a-b0f4-6b9120f7a1aa</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>baf9f643-f052-4298-bda4-1ce79fad43bf</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>afc399c4-78e0-4f18-a903-270e36dc00f9</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>837195bd-57a2-421c-bc8c-dd8cd89a0eb1</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ba0ec903-8115-4dba-b3ca-7a81405e6cda</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ebfdb34f-7c93-48c3-8ff9-fa5be1068014</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a04801cd-3c83-44fc-bead-3d5bbc48bd9a</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8fe216cc-d7a6-47ea-bb31-000a3aa5debc</stp>
+        <stp>97ad8682-2999-4331-a7b1-2051ea0cf359</stp>
         <tr r="O3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0a5938ab-84eb-4f53-afb8-5009f0f06e48</stp>
-        <tr r="J3" s="2"/>
+        <stp>db4b1a92-dfb8-4eea-8bf5-220801c44a46</stp>
+        <tr r="E3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>26a9a8a1-cb08-430a-8f92-9de4ca294d98</stp>
-        <tr r="L3" s="3"/>
+        <stp>c19c4cbb-ca3f-41ca-8cff-b04eec4d6e94</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>58d04941-0e0a-450e-a047-5c8f757e7312</stp>
+        <tr r="C3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>32038aa7-d8d4-43ce-a0ad-aa2a8d5f0bae</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>be810169-714f-4a40-b533-84545466978a</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ae8fa069-20f0-4bc0-83db-13378d99b350</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>34cd854c-39bf-4e60-9d20-2b6d86e263f2</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a59d579c706a4f46a6a622044b714463">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9e013460-13b5-4362-8440-7e49f1820d5e</stp>
-        <tr r="C3" s="1"/>
+        <stp>be8b54e2-41d8-4c02-ab0d-7c59e9b4a8b5</stp>
+        <tr r="K3" s="3"/>
       </tp>
     </main>
   </volType>
@@ -859,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O390"/>
+  <dimension ref="A1:O392"/>
   <sheetViews>
-    <sheetView topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="A390" sqref="A390"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A392" sqref="A392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18325,7 +18319,95 @@
       </c>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A390" s="1"/>
+      <c r="A390" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C390">
+        <v>10.1379</v>
+      </c>
+      <c r="D390">
+        <v>8.91</v>
+      </c>
+      <c r="E390">
+        <v>8.3626000000000005</v>
+      </c>
+      <c r="F390">
+        <v>8.1555</v>
+      </c>
+      <c r="G390">
+        <v>8.0327000000000002</v>
+      </c>
+      <c r="H390">
+        <v>7.9057000000000004</v>
+      </c>
+      <c r="I390">
+        <v>7.8273000000000001</v>
+      </c>
+      <c r="J390">
+        <v>7.6584000000000003</v>
+      </c>
+      <c r="K390">
+        <v>7.4760999999999997</v>
+      </c>
+      <c r="L390">
+        <v>7.3747999999999996</v>
+      </c>
+      <c r="M390">
+        <v>7.2702</v>
+      </c>
+      <c r="N390">
+        <v>7.2263000000000002</v>
+      </c>
+      <c r="O390">
+        <v>7.2328999999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A391" s="1">
+        <v>45953</v>
+      </c>
+      <c r="C391">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="D391">
+        <v>8.8735999999999997</v>
+      </c>
+      <c r="E391">
+        <v>8.31</v>
+      </c>
+      <c r="F391">
+        <v>8.0901999999999994</v>
+      </c>
+      <c r="G391">
+        <v>7.9725000000000001</v>
+      </c>
+      <c r="H391">
+        <v>7.8543000000000003</v>
+      </c>
+      <c r="I391">
+        <v>7.78</v>
+      </c>
+      <c r="J391">
+        <v>7.5964999999999998</v>
+      </c>
+      <c r="K391">
+        <v>7.42</v>
+      </c>
+      <c r="L391">
+        <v>7.33</v>
+      </c>
+      <c r="M391">
+        <v>7.2431999999999999</v>
+      </c>
+      <c r="N391">
+        <v>7.2039</v>
+      </c>
+      <c r="O391">
+        <v>7.2141999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A392" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18334,10 +18416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O390"/>
+  <dimension ref="A1:O392"/>
   <sheetViews>
-    <sheetView topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="A390" sqref="A390"/>
+    <sheetView topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A392" sqref="A392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35800,7 +35882,95 @@
       </c>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A390" s="1"/>
+      <c r="A390" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C390">
+        <v>4472.3734180000001</v>
+      </c>
+      <c r="D390">
+        <v>4500.8998080000001</v>
+      </c>
+      <c r="E390">
+        <v>4359.0886309999996</v>
+      </c>
+      <c r="F390">
+        <v>4399.6210929999997</v>
+      </c>
+      <c r="G390">
+        <v>4268.5665900000004</v>
+      </c>
+      <c r="H390">
+        <v>4183.0512580000004</v>
+      </c>
+      <c r="I390">
+        <v>4234.878455</v>
+      </c>
+      <c r="J390">
+        <v>4201.0398459999997</v>
+      </c>
+      <c r="K390">
+        <v>4044.4821299999999</v>
+      </c>
+      <c r="L390">
+        <v>4068.7678649999998</v>
+      </c>
+      <c r="M390">
+        <v>3983.954749</v>
+      </c>
+      <c r="N390">
+        <v>4035.3350820000001</v>
+      </c>
+      <c r="O390">
+        <v>3934.2889180000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A391" s="1">
+        <v>45953</v>
+      </c>
+      <c r="C391">
+        <v>4474.7513879999997</v>
+      </c>
+      <c r="D391">
+        <v>4505.0269600000001</v>
+      </c>
+      <c r="E391">
+        <v>4366.3311869999998</v>
+      </c>
+      <c r="F391">
+        <v>4409.7175090000001</v>
+      </c>
+      <c r="G391">
+        <v>4280.1376970000001</v>
+      </c>
+      <c r="H391">
+        <v>4195.7409500000003</v>
+      </c>
+      <c r="I391">
+        <v>4247.5272720000003</v>
+      </c>
+      <c r="J391">
+        <v>4219.7005600000002</v>
+      </c>
+      <c r="K391">
+        <v>4066.1930600000001</v>
+      </c>
+      <c r="L391">
+        <v>4088.7572300000002</v>
+      </c>
+      <c r="M391">
+        <v>3997.707062</v>
+      </c>
+      <c r="N391">
+        <v>4047.5689539999998</v>
+      </c>
+      <c r="O391">
+        <v>3944.995007</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A392" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -35809,10 +35979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z390"/>
+  <dimension ref="A1:Z392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="A390" sqref="A390"/>
+    <sheetView topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A392" sqref="A392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52970,7 +53140,101 @@
       </c>
     </row>
     <row r="390" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A390" s="1"/>
+      <c r="A390" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C390">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="D390">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="E390">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="F390">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="G390">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="H390">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I390">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="J390">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="K390">
+        <v>0.1022</v>
+      </c>
+      <c r="L390">
+        <v>0.1026</v>
+      </c>
+      <c r="M390">
+        <v>0.1026</v>
+      </c>
+      <c r="N390">
+        <v>0.1026</v>
+      </c>
+      <c r="O390">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P390">
+        <v>0.1019</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A391" s="1">
+        <v>45953</v>
+      </c>
+      <c r="C391">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="D391">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="E391">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="F391">
+        <v>3.73E-2</v>
+      </c>
+      <c r="G391">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="H391">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="I391">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="J391">
+        <v>9.11E-2</v>
+      </c>
+      <c r="K391">
+        <v>0.1009</v>
+      </c>
+      <c r="L391">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="M391">
+        <v>0.1018</v>
+      </c>
+      <c r="N391">
+        <v>0.1018</v>
+      </c>
+      <c r="O391">
+        <v>0.1016</v>
+      </c>
+      <c r="P391">
+        <v>0.1016</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A392" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2301C20C-A462-45B3-9C97-F46E1C883222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D1B49-378A-4AF7-900D-E684152155AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2170" windowWidth="19200" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID01159917db654710b318139638f071ea" localSheetId="1" hidden="1">Planilha1!$O$4:$O$392</definedName>
-    <definedName name="_ECO_RANGE_ID0146c9088b194965b8ef9c41627fee15" localSheetId="0" hidden="1">Plan1!$D$4:$D$392</definedName>
-    <definedName name="_ECO_RANGE_ID01792ba5ea384be49e3f5eef585e27f2" localSheetId="1" hidden="1">Planilha1!$C$4:$C$392</definedName>
-    <definedName name="_ECO_RANGE_ID0abb9a7d3d52459a88b86ab42edb8c68" localSheetId="2" hidden="1">Planilha2!$E$4:$E$392</definedName>
-    <definedName name="_ECO_RANGE_ID0f527870a36b4b529c0f301e73104988" localSheetId="2" hidden="1">Planilha2!$K$4:$K$392</definedName>
-    <definedName name="_ECO_RANGE_ID10baa9e24f1b42bfad07c4852f6449ed" localSheetId="0" hidden="1">Plan1!$A$4:$B$392</definedName>
-    <definedName name="_ECO_RANGE_ID1344ef5b42194fb18a0b48551a60ffde" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID20aeb122f7bb4ffdb194724b50c5ad55" localSheetId="2" hidden="1">Planilha2!$D$4:$D$392</definedName>
-    <definedName name="_ECO_RANGE_ID2a320b27c8d74614baca496c740fa743" localSheetId="2" hidden="1">Planilha2!$G$4:$G$392</definedName>
-    <definedName name="_ECO_RANGE_ID2eb862978e49447795e2d8b29e404ac1" localSheetId="0" hidden="1">Plan1!$J$4:$J$392</definedName>
-    <definedName name="_ECO_RANGE_ID336ec97e804b492591db54a424d3410f" localSheetId="1" hidden="1">Planilha1!$F$4:$F$392</definedName>
-    <definedName name="_ECO_RANGE_ID36032c80f5ba4865bf0d226c948a4795" localSheetId="2" hidden="1">Planilha2!$J$4:$J$392</definedName>
-    <definedName name="_ECO_RANGE_ID38c3c044c20c4a94bf5f336b0ce57ab9" localSheetId="1" hidden="1">Planilha1!$I$4:$I$392</definedName>
-    <definedName name="_ECO_RANGE_ID3aebdbc6517943b6886d769df5c1e02a" localSheetId="1" hidden="1">Planilha1!$M$4:$M$392</definedName>
-    <definedName name="_ECO_RANGE_ID3d0b489289bc449d9796b529d0e58bf5" localSheetId="1" hidden="1">Planilha1!$E$4:$E$392</definedName>
-    <definedName name="_ECO_RANGE_ID5132593b51ca4e3daacbd829101d22a0" localSheetId="0" hidden="1">Plan1!$L$4:$L$392</definedName>
-    <definedName name="_ECO_RANGE_ID5414a494d4ae4cb99fcae2c9f340881c" localSheetId="0" hidden="1">Plan1!$M$4:$M$392</definedName>
-    <definedName name="_ECO_RANGE_ID5aec8154150348029624ac1f2a75f273" localSheetId="2" hidden="1">Planilha2!$N$4:$N$392</definedName>
-    <definedName name="_ECO_RANGE_ID5bcb4eb1f5e24b0a9a99c518ac9a8444" localSheetId="0" hidden="1">Plan1!$N$4:$N$392</definedName>
-    <definedName name="_ECO_RANGE_ID63ab41bad7344913b6e4b3a353e877cd" localSheetId="0" hidden="1">Plan1!$H$4:$H$392</definedName>
-    <definedName name="_ECO_RANGE_ID69780b8ce71b4c03812b0775d885d339" localSheetId="1" hidden="1">Planilha1!$A$4:$B$392</definedName>
-    <definedName name="_ECO_RANGE_ID6d825909bd414ad2a0c50cfeba2cfd37" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID709f8379cb224608bc778046fc47cf39" localSheetId="2" hidden="1">Planilha2!$M$4:$M$392</definedName>
-    <definedName name="_ECO_RANGE_ID7525c591701d4de9b020a1a704c7498f" localSheetId="2" hidden="1">Planilha2!$I$4:$I$392</definedName>
-    <definedName name="_ECO_RANGE_ID75864c9f0d7e4b89a75e13893cc91a83" localSheetId="2" hidden="1">Planilha2!$F$4:$F$392</definedName>
-    <definedName name="_ECO_RANGE_ID7b2ffdd4680a45199f97bdcff353214a" localSheetId="1" hidden="1">Planilha1!$D$4:$D$392</definedName>
-    <definedName name="_ECO_RANGE_ID7f06213c112b4e369efea5cd23926816" localSheetId="1" hidden="1">Planilha1!$G$4:$G$392</definedName>
-    <definedName name="_ECO_RANGE_ID8074973efca648bc998246897cff5dc1" localSheetId="0" hidden="1">Plan1!$F$4:$F$392</definedName>
-    <definedName name="_ECO_RANGE_ID81e8430983854bdb93b82f125851617e" localSheetId="0" hidden="1">Plan1!$K$4:$K$392</definedName>
-    <definedName name="_ECO_RANGE_ID85f8cac3bec343c7bb0d24a8e80239ef" localSheetId="2" hidden="1">Planilha2!$O$4:$O$392</definedName>
-    <definedName name="_ECO_RANGE_ID980726ca8cba471a858b0e20b6d37b35" localSheetId="2" hidden="1">Planilha2!$H$4:$H$392</definedName>
-    <definedName name="_ECO_RANGE_ID9b5e65a106d346fc96d94e8b426436d9" localSheetId="2" hidden="1">Planilha2!$L$4:$L$392</definedName>
-    <definedName name="_ECO_RANGE_ID9ed58d306636479fa42e800ce7d82ca7" localSheetId="2" hidden="1">Planilha2!$A$4:$B$392</definedName>
-    <definedName name="_ECO_RANGE_IDa83a26df50764de7950304a1374e7528" localSheetId="1" hidden="1">Planilha1!$L$4:$L$392</definedName>
-    <definedName name="_ECO_RANGE_IDb8e6c0e07eda436583f0141d25d31331" localSheetId="0" hidden="1">Plan1!$G$4:$G$392</definedName>
-    <definedName name="_ECO_RANGE_IDc30c1e0adec7425ab586747abb3dadb4" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDc4c32e2a11674a188bb4db59442cb1a9" localSheetId="1" hidden="1">Planilha1!$K$4:$K$392</definedName>
-    <definedName name="_ECO_RANGE_IDc5ae3fed13924deaa1dbc297537dde20" localSheetId="0" hidden="1">Plan1!$I$4:$I$392</definedName>
-    <definedName name="_ECO_RANGE_IDc741504cb86b4eee825b186fe47a6c03" localSheetId="1" hidden="1">Planilha1!$J$4:$J$392</definedName>
-    <definedName name="_ECO_RANGE_IDd7cf07a3b80f465a99ab658ccc0c8ce1" localSheetId="1" hidden="1">Planilha1!$N$4:$N$392</definedName>
-    <definedName name="_ECO_RANGE_IDdd452e1ca4944654a01a13d306e23aa8" localSheetId="0" hidden="1">Plan1!$C$4:$C$392</definedName>
-    <definedName name="_ECO_RANGE_IDe0a6c28fdacb4418b47a0540d238ad63" localSheetId="1" hidden="1">Planilha1!$H$4:$H$392</definedName>
-    <definedName name="_ECO_RANGE_IDe28ee9a12aff45ff816f39d2d191465e" localSheetId="2" hidden="1">Planilha2!$P$4:$P$392</definedName>
-    <definedName name="_ECO_RANGE_IDf14b49e19ae14a9cbc869765c4ccd75a" localSheetId="2" hidden="1">Planilha2!$C$4:$C$392</definedName>
-    <definedName name="_ECO_RANGE_IDf6f1648e6ed74eaf9e206cca4f063649" localSheetId="0" hidden="1">Plan1!$E$4:$E$392</definedName>
-    <definedName name="_ECO_RANGE_IDfc1f94d092bf4ec98452ccf1dc91d6be" localSheetId="0" hidden="1">Plan1!$O$4:$O$392</definedName>
+    <definedName name="_ECO_RANGE_ID009aca3c3f7f4ce48230fe234aabf12f" localSheetId="1" hidden="1">Planilha1!$C$4:$C$393</definedName>
+    <definedName name="_ECO_RANGE_ID03f21d1b7f66486cb19bd794d568ab20" localSheetId="0" hidden="1">Plan1!$G$4:$G$393</definedName>
+    <definedName name="_ECO_RANGE_ID073877756ec3463f875d2988460481d4" localSheetId="2" hidden="1">Planilha2!$P$4:$P$393</definedName>
+    <definedName name="_ECO_RANGE_ID0cb552db9d08485cb5965ef8c6389ffa" localSheetId="2" hidden="1">Planilha2!$M$4:$M$393</definedName>
+    <definedName name="_ECO_RANGE_ID19f9aa4ee8f242f4a77a8ed8a3f40152" localSheetId="0" hidden="1">Plan1!$E$4:$E$393</definedName>
+    <definedName name="_ECO_RANGE_ID351e444792484144a100aeaf237e089b" localSheetId="1" hidden="1">Planilha1!$M$4:$M$393</definedName>
+    <definedName name="_ECO_RANGE_ID368761b45d43435d812ebe0d64bc9f7a" localSheetId="2" hidden="1">Planilha2!$F$4:$F$393</definedName>
+    <definedName name="_ECO_RANGE_ID379ce52159c844469ae56f65562e3948" localSheetId="0" hidden="1">Plan1!$M$4:$M$393</definedName>
+    <definedName name="_ECO_RANGE_ID398249fe0db34f5e8459fc385d01e883" localSheetId="2" hidden="1">Planilha2!$O$4:$O$393</definedName>
+    <definedName name="_ECO_RANGE_ID3b5ef6f57df74af3bcc26969112e1259" localSheetId="0" hidden="1">Plan1!$N$4:$N$393</definedName>
+    <definedName name="_ECO_RANGE_ID4379cc7c125c4d2eae87f89af33d4381" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID451faa91fcb947128deb966d0b7cb201" localSheetId="0" hidden="1">Plan1!$H$4:$H$393</definedName>
+    <definedName name="_ECO_RANGE_ID4577cf81fa9b43b2a4bc803d169839f9" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID552c84708a734157bd7e5726c847efc1" localSheetId="2" hidden="1">Planilha2!$I$4:$I$393</definedName>
+    <definedName name="_ECO_RANGE_ID5531f6de199c4e10bd1220ff9927744f" localSheetId="1" hidden="1">Planilha1!$J$4:$J$393</definedName>
+    <definedName name="_ECO_RANGE_ID55867b28ceb04dbeaef8ca2f5d504cec" localSheetId="2" hidden="1">Planilha2!$H$4:$H$393</definedName>
+    <definedName name="_ECO_RANGE_ID560e0ded8b6c4d989c077bd5c06ccb0c" localSheetId="2" hidden="1">Planilha2!$G$4:$G$393</definedName>
+    <definedName name="_ECO_RANGE_ID57454f1f7e1b4e2fb9e2e0188a65d9ff" localSheetId="1" hidden="1">Planilha1!$N$4:$N$393</definedName>
+    <definedName name="_ECO_RANGE_ID5bd34ed3b2434a48920ad5b81eddb5d2" localSheetId="0" hidden="1">Plan1!$L$4:$L$393</definedName>
+    <definedName name="_ECO_RANGE_ID5c043b260a5e438a81882a9cb5da97fb" localSheetId="2" hidden="1">Planilha2!$J$4:$J$393</definedName>
+    <definedName name="_ECO_RANGE_ID6209c9e6a6b0458099b0e23bee87b127" localSheetId="2" hidden="1">Planilha2!$L$4:$L$393</definedName>
+    <definedName name="_ECO_RANGE_ID77e85b28d72347a5baea6e4beac0c5af" localSheetId="1" hidden="1">Planilha1!$H$4:$H$393</definedName>
+    <definedName name="_ECO_RANGE_ID7a059a850671438a8bcf09ddcde5e88c" localSheetId="2" hidden="1">Planilha2!$A$4:$B$393</definedName>
+    <definedName name="_ECO_RANGE_ID7d4afd95a7ef4c9ab59a29b93233e102" localSheetId="2" hidden="1">Planilha2!$E$4:$E$393</definedName>
+    <definedName name="_ECO_RANGE_ID7e00cb58c97340a6a6157077eb63a6d5" localSheetId="0" hidden="1">Plan1!$D$4:$D$393</definedName>
+    <definedName name="_ECO_RANGE_ID804f8ec735d840c8a6ca603cdf18f4b6" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID834690eb6c534886849ec4e95c9f2ff9" localSheetId="0" hidden="1">Plan1!$C$4:$C$393</definedName>
+    <definedName name="_ECO_RANGE_ID8347ba83173c4cc5b9c8aa4bea25f016" localSheetId="2" hidden="1">Planilha2!$K$4:$K$393</definedName>
+    <definedName name="_ECO_RANGE_ID842491501bb44078b314c4d61dbf2be9" localSheetId="0" hidden="1">Plan1!$I$4:$I$393</definedName>
+    <definedName name="_ECO_RANGE_ID8b100f60dcc8496d98ad80799c594f9c" localSheetId="1" hidden="1">Planilha1!$D$4:$D$393</definedName>
+    <definedName name="_ECO_RANGE_ID986b7ee864d049a18b7747d7c9146772" localSheetId="1" hidden="1">Planilha1!$K$4:$K$393</definedName>
+    <definedName name="_ECO_RANGE_IDa13394b606834f1186bab6b4f60fb886" localSheetId="1" hidden="1">Planilha1!$F$4:$F$393</definedName>
+    <definedName name="_ECO_RANGE_IDa83fd41c5608465388d0e4ff0f5f3dbf" localSheetId="1" hidden="1">Planilha1!$O$4:$O$393</definedName>
+    <definedName name="_ECO_RANGE_IDaa536f06dec24f528970408f638749dc" localSheetId="1" hidden="1">Planilha1!$G$4:$G$393</definedName>
+    <definedName name="_ECO_RANGE_IDb411b4b8da124abf8e4acdaab0f8a87d" localSheetId="1" hidden="1">Planilha1!$E$4:$E$393</definedName>
+    <definedName name="_ECO_RANGE_IDbdbf9492565d4e8b9a869ca605470521" localSheetId="1" hidden="1">Planilha1!$L$4:$L$393</definedName>
+    <definedName name="_ECO_RANGE_IDc12a247172984f96874d628e6b18a672" localSheetId="1" hidden="1">Planilha1!$A$4:$B$393</definedName>
+    <definedName name="_ECO_RANGE_IDc212a3403b8043638b067235d69e81ca" localSheetId="0" hidden="1">Plan1!$J$4:$J$393</definedName>
+    <definedName name="_ECO_RANGE_IDca04e8df4dfe484b9087a0f824a80685" localSheetId="2" hidden="1">Planilha2!$D$4:$D$393</definedName>
+    <definedName name="_ECO_RANGE_IDcb31e01eed614455987a320af1a13adc" localSheetId="2" hidden="1">Planilha2!$N$4:$N$393</definedName>
+    <definedName name="_ECO_RANGE_IDcb7470d9879246c8a821cad64703351b" localSheetId="0" hidden="1">Plan1!$K$4:$K$393</definedName>
+    <definedName name="_ECO_RANGE_IDe8df6ed257d945a6be9639b1c95cef0b" localSheetId="0" hidden="1">Plan1!$A$4:$B$393</definedName>
+    <definedName name="_ECO_RANGE_IDed062b2d329146ffa152bb014c8f7a44" localSheetId="1" hidden="1">Planilha1!$I$4:$I$393</definedName>
+    <definedName name="_ECO_RANGE_IDef889c660de84e3fa2189d26c2832518" localSheetId="0" hidden="1">Plan1!$F$4:$F$393</definedName>
+    <definedName name="_ECO_RANGE_IDf093aebf15bf42d6b0c674242219ae34" localSheetId="0" hidden="1">Plan1!$O$4:$O$393</definedName>
+    <definedName name="_ECO_RANGE_IDf151ec2d7e5546b79fd36e8d9e0a70d0" localSheetId="2" hidden="1">Planilha2!$C$4:$C$393</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,304 +286,306 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b40cf2ea-9e7d-44c0-8834-ccd3d68bb3dd</stp>
-        <tr r="N3" s="2"/>
+        <stp>f6520c54-ce7d-4bf7-bb1f-87e90ef1c855</stp>
+        <tr r="E3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>54e68d4b-8377-4143-a56e-cb191e7301d9</stp>
-        <tr r="O3" s="2"/>
+        <stp>50e16436-83ef-42a5-9158-c2701fed0273</stp>
+        <tr r="L3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2e64f75f-8c07-48fc-96d6-b4a210f272ab</stp>
-        <tr r="H3" s="1"/>
+        <stp>635b4e12-433a-4f33-a4f7-023ecdf20814</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ecd8a08b-c12e-410d-b8b2-69b29d66e5a8</stp>
+        <tr r="E3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>21a56a46-7ed6-4fe2-9b2a-c8df6795d307</stp>
-        <tr r="I3" s="1"/>
+        <stp>032f99d3-7882-4dc2-9eff-207f566841b2</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>33c4b9ab-41a7-49f9-b754-970de98dbc8a</stp>
+        <tr r="O3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>53afbcb6-45b4-497f-9c0a-67400e83a855</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6da4ecdc-5b3e-4170-9d9e-81b2f2761a7c</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>40e6de22-cc89-4786-9a59-eea870a4e9d5</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8dd83d18-924e-473d-8667-cb4f110f8aa1</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9f45f826-9088-4ff5-86f1-a41a1ab4a8d9</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a52e7100-fac7-4af7-92b3-9580d8f25d2e</stp>
+        <stp>5b29c446-4140-4379-ad97-145fb9a2e0f2</stp>
         <tr r="H3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ce09f8a9-e9fc-4ce4-ab78-f4eecc34e3cd</stp>
+        <stp>9e522e7b-b5ef-408d-8c8d-f088c064fa9b</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8b23a41c-5816-402f-95d3-8e703aa559ad</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a926dfab-ecf9-4bf3-ae6a-c5c81ce2d521</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3f42dda8-86ca-4afe-b339-3c9fca0de3c4</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>22b23c23-6904-44ae-8086-dabe2e1b4ce9</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f7cc7aca-caae-475d-9e4e-7b28fc339603</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6333dc01-34aa-4ca5-a7ab-442c45923d59</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ae365738-4c52-4c6a-85b8-0d9f1a00307a</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c4052d48-dcda-46a6-a35b-d4e2a4e3ba33</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ffa873ba-c9c6-451b-bb7d-a4580653c6c3</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fdb8a02d-5f55-44ce-97ac-b413ad15dac7</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f01ff4bd-5855-4ecd-876c-b087c770604c</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ed91aeca-5e04-4062-b651-455607809d44</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0d3dbf60-6991-4bc6-9474-bb7063b661b9</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>299ee3a5-9d5c-414d-b7ec-a550b08cbb12</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>42827373-9ee1-4b0e-b29c-db51d8fcc572</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>144840cb-7036-4ca5-b3c5-96fbc9c26b3d</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a856ab79-1cf5-46b1-9d49-90b12534dcca</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>332310b3-51cd-4486-9a76-9b6bee170920</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>39e18ca0-5e32-4cd4-94f5-3dce6720fa5b</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>43fc1c58-5c44-441f-a489-936e3e834a5e</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>baffa5ba-82f2-447f-ba45-c339175ce828</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>986dbf93-7e59-4d43-8c5d-58138c15c61b</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>adc2f484-fd48-4660-866f-c736b21f07a4</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>32f2584f-c125-4abb-b6e0-b176dd0d8878</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>edb95a73-2fe0-40f5-8066-eebc6c398216</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a35035ec-179e-4357-b634-e0ffcb963afb</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3f64a1fc-bc99-4bd6-9828-a22fdc947a9b</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>24613b12-f650-4788-901d-08a3f9da4953</stp>
         <tr r="H3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7ceca024-9994-4800-9fba-e791baa8f371</stp>
-        <tr r="G3" s="3"/>
+        <stp>e4e45171-b3fc-4f1e-afce-10d61ab4b67e</stp>
+        <tr r="A3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>e54abbd4-93e7-4fb0-af60-34a5d78ec63b</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b1763a9e-6075-4d6c-9704-b73d0fbb06fe</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>84643531-d778-4d3f-a2e8-ee7d85cf4e09</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>401825b2-7410-4e39-be9e-94d0e4096b7b</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1e66137c-697d-4c6f-b148-1c43230eb201</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d08793c9-36fa-4370-bde5-52f6bbe8bd9d</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e2adb0e7-c2ce-4334-9cad-29e1e8070de0</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0e96fd5c-d89a-456e-b32c-d908187ffbb2</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>540d37d2-6210-4b39-95ce-48448d7b8d49</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>de4beace-edb7-440c-8056-91e4415bdcfd</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1a69a864-3e7c-44b2-b0dd-e74dd60b06ff</stp>
+        <stp>3be2d4b6-703e-434c-9ca8-54faa5bc1d88</stp>
         <tr r="C3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>1c56c1fd-7765-42a9-8c29-8a556e609a4b</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>92087571-900d-4f04-b54c-c4ce1b068c42</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8964bebd-0ac5-4d8a-ac0f-a68514d1e427</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>add4f9fc-3aa5-4c44-9b2d-7b3f029f3073</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>165ae877-1128-47ec-9cbc-bfb100dbda4e</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>949f165d-1c30-43f8-9dd1-2cafb6886357</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9d3a8c93-73cc-47c7-a63d-e8016121238b</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4aed7f23-bed7-42e9-bf08-c4209ee9c39e</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0f69a6bd-9cef-4971-84a2-24d9d24bc061</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>160af65b-29f9-4b65-a087-aeaaffce0365</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>68ceb7c1-00c5-4ebf-8db8-7d0e5a5a1279</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b3170e75-92b7-424c-9fff-f0df5fe48158</stp>
+        <stp>bb301880-81c4-45e5-8c0c-9a041d5e3dac</stp>
         <tr r="F3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>47dd06bb-2f05-4480-846d-b85be0d2105e</stp>
-        <tr r="I3" s="2"/>
+        <stp>b3df93a4-9391-4df2-a0fc-a79feef43918</stp>
+        <tr r="J3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>fb5615b7-b550-400c-ae7d-ab2bd967e771</stp>
-        <tr r="K3" s="2"/>
+        <stp>f2aacd72-7cf2-4323-bac8-9273daccef33</stp>
+        <tr r="G3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>cd64edfa-e192-4759-84b0-b48943cc8420</stp>
-        <tr r="D3" s="3"/>
+        <stp>0bd2713a-e3eb-4bdc-b835-dcf100ddb0c5</stp>
+        <tr r="F3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
+    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>97ad8682-2999-4331-a7b1-2051ea0cf359</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>db4b1a92-dfb8-4eea-8bf5-220801c44a46</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c19c4cbb-ca3f-41ca-8cff-b04eec4d6e94</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_aef1477226f64660963268c26a378261">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>58d04941-0e0a-450e-a047-5c8f757e7312</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>be8b54e2-41d8-4c02-ab0d-7c59e9b4a8b5</stp>
-        <tr r="K3" s="3"/>
+        <stp>fffc3047-40a9-4130-bbb9-9929a9e665d9</stp>
+        <tr r="C3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -853,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O392"/>
+  <dimension ref="A1:O393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A392" sqref="A392"/>
+    <sheetView topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="A393" sqref="A393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18407,7 +18409,51 @@
       </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A392" s="1"/>
+      <c r="A392" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C392">
+        <v>10.1714</v>
+      </c>
+      <c r="D392">
+        <v>8.8270999999999997</v>
+      </c>
+      <c r="E392">
+        <v>8.2271999999999998</v>
+      </c>
+      <c r="F392">
+        <v>8.0078999999999994</v>
+      </c>
+      <c r="G392">
+        <v>7.8838999999999997</v>
+      </c>
+      <c r="H392">
+        <v>7.7523</v>
+      </c>
+      <c r="I392">
+        <v>7.6902999999999997</v>
+      </c>
+      <c r="J392">
+        <v>7.51</v>
+      </c>
+      <c r="K392">
+        <v>7.3525999999999998</v>
+      </c>
+      <c r="L392">
+        <v>7.2739000000000003</v>
+      </c>
+      <c r="M392">
+        <v>7.1946000000000003</v>
+      </c>
+      <c r="N392">
+        <v>7.1595000000000004</v>
+      </c>
+      <c r="O392">
+        <v>7.1666999999999996</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A393" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18416,10 +18462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O392"/>
+  <dimension ref="A1:O393"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A392" sqref="A392"/>
+      <selection activeCell="A393" sqref="A393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35970,7 +36016,51 @@
       </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A392" s="1"/>
+      <c r="A392" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C392">
+        <v>4475.5472</v>
+      </c>
+      <c r="D392">
+        <v>4509.7522760000002</v>
+      </c>
+      <c r="E392">
+        <v>4376.7173339999999</v>
+      </c>
+      <c r="F392">
+        <v>4422.0002940000004</v>
+      </c>
+      <c r="G392">
+        <v>4296.4129370000001</v>
+      </c>
+      <c r="H392">
+        <v>4219.4150310000005</v>
+      </c>
+      <c r="I392">
+        <v>4270.1297569999997</v>
+      </c>
+      <c r="J392">
+        <v>4245.2923110000002</v>
+      </c>
+      <c r="K392">
+        <v>4092.153906</v>
+      </c>
+      <c r="L392">
+        <v>4113.5845259999996</v>
+      </c>
+      <c r="M392">
+        <v>4021.4269300000001</v>
+      </c>
+      <c r="N392">
+        <v>4070.508934</v>
+      </c>
+      <c r="O392">
+        <v>3970.123877</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A393" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -35979,10 +36069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z392"/>
+  <dimension ref="A1:Z393"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A392" sqref="A392"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A393" sqref="A393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53234,7 +53324,54 @@
       </c>
     </row>
     <row r="392" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A392" s="1"/>
+      <c r="A392" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C392">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="D392">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="E392">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="F392">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="G392">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="H392">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="I392">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J392">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="K392">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="L392">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="M392">
+        <v>0.1012</v>
+      </c>
+      <c r="N392">
+        <v>0.1012</v>
+      </c>
+      <c r="O392">
+        <v>0.1014</v>
+      </c>
+      <c r="P392">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A393" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D1B49-378A-4AF7-900D-E684152155AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F72AC-75D8-40A3-8A54-B026085EC58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="4320" windowWidth="28800" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID009aca3c3f7f4ce48230fe234aabf12f" localSheetId="1" hidden="1">Planilha1!$C$4:$C$393</definedName>
-    <definedName name="_ECO_RANGE_ID03f21d1b7f66486cb19bd794d568ab20" localSheetId="0" hidden="1">Plan1!$G$4:$G$393</definedName>
-    <definedName name="_ECO_RANGE_ID073877756ec3463f875d2988460481d4" localSheetId="2" hidden="1">Planilha2!$P$4:$P$393</definedName>
-    <definedName name="_ECO_RANGE_ID0cb552db9d08485cb5965ef8c6389ffa" localSheetId="2" hidden="1">Planilha2!$M$4:$M$393</definedName>
-    <definedName name="_ECO_RANGE_ID19f9aa4ee8f242f4a77a8ed8a3f40152" localSheetId="0" hidden="1">Plan1!$E$4:$E$393</definedName>
-    <definedName name="_ECO_RANGE_ID351e444792484144a100aeaf237e089b" localSheetId="1" hidden="1">Planilha1!$M$4:$M$393</definedName>
-    <definedName name="_ECO_RANGE_ID368761b45d43435d812ebe0d64bc9f7a" localSheetId="2" hidden="1">Planilha2!$F$4:$F$393</definedName>
-    <definedName name="_ECO_RANGE_ID379ce52159c844469ae56f65562e3948" localSheetId="0" hidden="1">Plan1!$M$4:$M$393</definedName>
-    <definedName name="_ECO_RANGE_ID398249fe0db34f5e8459fc385d01e883" localSheetId="2" hidden="1">Planilha2!$O$4:$O$393</definedName>
-    <definedName name="_ECO_RANGE_ID3b5ef6f57df74af3bcc26969112e1259" localSheetId="0" hidden="1">Plan1!$N$4:$N$393</definedName>
-    <definedName name="_ECO_RANGE_ID4379cc7c125c4d2eae87f89af33d4381" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID451faa91fcb947128deb966d0b7cb201" localSheetId="0" hidden="1">Plan1!$H$4:$H$393</definedName>
-    <definedName name="_ECO_RANGE_ID4577cf81fa9b43b2a4bc803d169839f9" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID552c84708a734157bd7e5726c847efc1" localSheetId="2" hidden="1">Planilha2!$I$4:$I$393</definedName>
-    <definedName name="_ECO_RANGE_ID5531f6de199c4e10bd1220ff9927744f" localSheetId="1" hidden="1">Planilha1!$J$4:$J$393</definedName>
-    <definedName name="_ECO_RANGE_ID55867b28ceb04dbeaef8ca2f5d504cec" localSheetId="2" hidden="1">Planilha2!$H$4:$H$393</definedName>
-    <definedName name="_ECO_RANGE_ID560e0ded8b6c4d989c077bd5c06ccb0c" localSheetId="2" hidden="1">Planilha2!$G$4:$G$393</definedName>
-    <definedName name="_ECO_RANGE_ID57454f1f7e1b4e2fb9e2e0188a65d9ff" localSheetId="1" hidden="1">Planilha1!$N$4:$N$393</definedName>
-    <definedName name="_ECO_RANGE_ID5bd34ed3b2434a48920ad5b81eddb5d2" localSheetId="0" hidden="1">Plan1!$L$4:$L$393</definedName>
-    <definedName name="_ECO_RANGE_ID5c043b260a5e438a81882a9cb5da97fb" localSheetId="2" hidden="1">Planilha2!$J$4:$J$393</definedName>
-    <definedName name="_ECO_RANGE_ID6209c9e6a6b0458099b0e23bee87b127" localSheetId="2" hidden="1">Planilha2!$L$4:$L$393</definedName>
-    <definedName name="_ECO_RANGE_ID77e85b28d72347a5baea6e4beac0c5af" localSheetId="1" hidden="1">Planilha1!$H$4:$H$393</definedName>
-    <definedName name="_ECO_RANGE_ID7a059a850671438a8bcf09ddcde5e88c" localSheetId="2" hidden="1">Planilha2!$A$4:$B$393</definedName>
-    <definedName name="_ECO_RANGE_ID7d4afd95a7ef4c9ab59a29b93233e102" localSheetId="2" hidden="1">Planilha2!$E$4:$E$393</definedName>
-    <definedName name="_ECO_RANGE_ID7e00cb58c97340a6a6157077eb63a6d5" localSheetId="0" hidden="1">Plan1!$D$4:$D$393</definedName>
-    <definedName name="_ECO_RANGE_ID804f8ec735d840c8a6ca603cdf18f4b6" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID834690eb6c534886849ec4e95c9f2ff9" localSheetId="0" hidden="1">Plan1!$C$4:$C$393</definedName>
-    <definedName name="_ECO_RANGE_ID8347ba83173c4cc5b9c8aa4bea25f016" localSheetId="2" hidden="1">Planilha2!$K$4:$K$393</definedName>
-    <definedName name="_ECO_RANGE_ID842491501bb44078b314c4d61dbf2be9" localSheetId="0" hidden="1">Plan1!$I$4:$I$393</definedName>
-    <definedName name="_ECO_RANGE_ID8b100f60dcc8496d98ad80799c594f9c" localSheetId="1" hidden="1">Planilha1!$D$4:$D$393</definedName>
-    <definedName name="_ECO_RANGE_ID986b7ee864d049a18b7747d7c9146772" localSheetId="1" hidden="1">Planilha1!$K$4:$K$393</definedName>
-    <definedName name="_ECO_RANGE_IDa13394b606834f1186bab6b4f60fb886" localSheetId="1" hidden="1">Planilha1!$F$4:$F$393</definedName>
-    <definedName name="_ECO_RANGE_IDa83fd41c5608465388d0e4ff0f5f3dbf" localSheetId="1" hidden="1">Planilha1!$O$4:$O$393</definedName>
-    <definedName name="_ECO_RANGE_IDaa536f06dec24f528970408f638749dc" localSheetId="1" hidden="1">Planilha1!$G$4:$G$393</definedName>
-    <definedName name="_ECO_RANGE_IDb411b4b8da124abf8e4acdaab0f8a87d" localSheetId="1" hidden="1">Planilha1!$E$4:$E$393</definedName>
-    <definedName name="_ECO_RANGE_IDbdbf9492565d4e8b9a869ca605470521" localSheetId="1" hidden="1">Planilha1!$L$4:$L$393</definedName>
-    <definedName name="_ECO_RANGE_IDc12a247172984f96874d628e6b18a672" localSheetId="1" hidden="1">Planilha1!$A$4:$B$393</definedName>
-    <definedName name="_ECO_RANGE_IDc212a3403b8043638b067235d69e81ca" localSheetId="0" hidden="1">Plan1!$J$4:$J$393</definedName>
-    <definedName name="_ECO_RANGE_IDca04e8df4dfe484b9087a0f824a80685" localSheetId="2" hidden="1">Planilha2!$D$4:$D$393</definedName>
-    <definedName name="_ECO_RANGE_IDcb31e01eed614455987a320af1a13adc" localSheetId="2" hidden="1">Planilha2!$N$4:$N$393</definedName>
-    <definedName name="_ECO_RANGE_IDcb7470d9879246c8a821cad64703351b" localSheetId="0" hidden="1">Plan1!$K$4:$K$393</definedName>
-    <definedName name="_ECO_RANGE_IDe8df6ed257d945a6be9639b1c95cef0b" localSheetId="0" hidden="1">Plan1!$A$4:$B$393</definedName>
-    <definedName name="_ECO_RANGE_IDed062b2d329146ffa152bb014c8f7a44" localSheetId="1" hidden="1">Planilha1!$I$4:$I$393</definedName>
-    <definedName name="_ECO_RANGE_IDef889c660de84e3fa2189d26c2832518" localSheetId="0" hidden="1">Plan1!$F$4:$F$393</definedName>
-    <definedName name="_ECO_RANGE_IDf093aebf15bf42d6b0c674242219ae34" localSheetId="0" hidden="1">Plan1!$O$4:$O$393</definedName>
-    <definedName name="_ECO_RANGE_IDf151ec2d7e5546b79fd36e8d9e0a70d0" localSheetId="2" hidden="1">Planilha2!$C$4:$C$393</definedName>
+    <definedName name="_ECO_RANGE_ID10a9d2037c2f4193ad0155963dffdb19" localSheetId="1" hidden="1">Planilha1!$C$4:$C$397</definedName>
+    <definedName name="_ECO_RANGE_ID10daaa550f484a54bd0188b029ed5c90" localSheetId="1" hidden="1">Planilha1!$N$4:$N$397</definedName>
+    <definedName name="_ECO_RANGE_ID1335f937a5f940a0ab437e77d7fe7074" localSheetId="1" hidden="1">Planilha1!$I$4:$I$397</definedName>
+    <definedName name="_ECO_RANGE_ID1705deb399084ef2bd84fd8c57f49dac" localSheetId="1" hidden="1">Planilha1!$J$4:$J$397</definedName>
+    <definedName name="_ECO_RANGE_ID190c9c29285c4fdeb4852747a4018619" localSheetId="1" hidden="1">Planilha1!$L$4:$L$397</definedName>
+    <definedName name="_ECO_RANGE_ID19a8de4db3044d98881f333354199260" localSheetId="1" hidden="1">Planilha1!$M$4:$M$397</definedName>
+    <definedName name="_ECO_RANGE_ID23b8cf7b01954c43a2a606dfbdc91a54" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID262a1697529b425cbbd9bd22a0dd674f" localSheetId="1" hidden="1">Planilha1!$K$4:$K$397</definedName>
+    <definedName name="_ECO_RANGE_ID26799b6e92864791b81fe6259810f6fb" localSheetId="1" hidden="1">Planilha1!$E$4:$E$397</definedName>
+    <definedName name="_ECO_RANGE_ID30f689910c874e11b58455ae16ae7e7d" localSheetId="2" hidden="1">Planilha2!$F$4:$F$397</definedName>
+    <definedName name="_ECO_RANGE_ID3461295057d7441ea4361ef8f8db2f4b" localSheetId="2" hidden="1">Planilha2!$L$4:$L$397</definedName>
+    <definedName name="_ECO_RANGE_ID353e8ecfa2c64e5e898bae46857d9f17" localSheetId="0" hidden="1">Plan1!$L$4:$L$397</definedName>
+    <definedName name="_ECO_RANGE_ID36b0b877b5774076bf3b1f4c22c31927" localSheetId="0" hidden="1">Plan1!$A$4:$B$397</definedName>
+    <definedName name="_ECO_RANGE_ID3ae9b34096314f848016eaa3c2f37cb4" localSheetId="1" hidden="1">Planilha1!$D$4:$D$397</definedName>
+    <definedName name="_ECO_RANGE_ID3bb99b5e9e2c40e7b8218fbba24c3477" localSheetId="0" hidden="1">Plan1!$J$4:$J$397</definedName>
+    <definedName name="_ECO_RANGE_ID3bc9a39506a54e6b95cd222a72481e6a" localSheetId="0" hidden="1">Plan1!$N$4:$N$397</definedName>
+    <definedName name="_ECO_RANGE_ID3e336c4050de4d8da93675b2889fbc82" localSheetId="0" hidden="1">Plan1!$D$4:$D$397</definedName>
+    <definedName name="_ECO_RANGE_ID44b38cccfcf5485898cf2c10e862bb20" localSheetId="1" hidden="1">Planilha1!$O$4:$O$397</definedName>
+    <definedName name="_ECO_RANGE_ID4cbcbe4c9baa4151a3156fad2cdcdd54" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID4d5c6d8f034e45a1855082050f9a70f5" localSheetId="2" hidden="1">Planilha2!$H$4:$H$397</definedName>
+    <definedName name="_ECO_RANGE_ID4e53bd4c3feb4963967ec368e0c837a3" localSheetId="2" hidden="1">Planilha2!$P$4:$P$397</definedName>
+    <definedName name="_ECO_RANGE_ID50bc1f0dd2f44927865d338347b12c52" localSheetId="1" hidden="1">Planilha1!$H$4:$H$397</definedName>
+    <definedName name="_ECO_RANGE_ID5918405efa3549aa8370709e49033c60" localSheetId="0" hidden="1">Plan1!$F$4:$F$397</definedName>
+    <definedName name="_ECO_RANGE_ID5a37990d3c3d4f20ab11d9bf4d73e687" localSheetId="0" hidden="1">Plan1!$G$4:$G$397</definedName>
+    <definedName name="_ECO_RANGE_ID5a7f76257aba4e03bdfee7d970e5f926" localSheetId="1" hidden="1">Planilha1!$A$4:$B$397</definedName>
+    <definedName name="_ECO_RANGE_ID611a5d142aa14e2286aa9904a463d58a" localSheetId="0" hidden="1">Plan1!$K$4:$K$397</definedName>
+    <definedName name="_ECO_RANGE_ID634552d9a3364ecea62460f3e0eb8103" localSheetId="2" hidden="1">Planilha2!$K$4:$K$397</definedName>
+    <definedName name="_ECO_RANGE_ID6375e663cc8d4ddb946bc3c0e4ff0b9a" localSheetId="0" hidden="1">Plan1!$C$4:$C$397</definedName>
+    <definedName name="_ECO_RANGE_ID65260204abea4b0db75ed020754ace43" localSheetId="1" hidden="1">Planilha1!$G$4:$G$397</definedName>
+    <definedName name="_ECO_RANGE_ID67a2919861354678b060475e87d66818" localSheetId="0" hidden="1">Plan1!$M$4:$M$397</definedName>
+    <definedName name="_ECO_RANGE_ID775af43e17754b45bc2ce27b99aa6321" localSheetId="2" hidden="1">Planilha2!$C$4:$C$397</definedName>
+    <definedName name="_ECO_RANGE_ID84415044b125424c98f6ed5559f721af" localSheetId="2" hidden="1">Planilha2!$G$4:$G$397</definedName>
+    <definedName name="_ECO_RANGE_ID956e911feb3647909a61f5068620690f" localSheetId="0" hidden="1">Plan1!$E$4:$E$397</definedName>
+    <definedName name="_ECO_RANGE_ID971c3275d1c54e75ab4737d968e317b0" localSheetId="0" hidden="1">Plan1!$I$4:$I$397</definedName>
+    <definedName name="_ECO_RANGE_IDa3e6fe9608ce4211910222a6b99be026" localSheetId="0" hidden="1">Plan1!$H$4:$H$397</definedName>
+    <definedName name="_ECO_RANGE_IDa7271c15e09c4f3fbfdeb46b4638b9b8" localSheetId="1" hidden="1">Planilha1!$F$4:$F$397</definedName>
+    <definedName name="_ECO_RANGE_IDa7efdd08ddd44f26a8fca81bdaad0513" localSheetId="2" hidden="1">Planilha2!$M$4:$M$397</definedName>
+    <definedName name="_ECO_RANGE_IDa8e53741daae40faad4331c4eb7dcf4b" localSheetId="2" hidden="1">Planilha2!$A$4:$B$397</definedName>
+    <definedName name="_ECO_RANGE_IDaa53be9ff5d74539a382a67c6ecff604" localSheetId="2" hidden="1">Planilha2!$I$4:$I$397</definedName>
+    <definedName name="_ECO_RANGE_IDb5190f7519aa4a2997446b9ae9a9186e" localSheetId="0" hidden="1">Plan1!$O$4:$O$397</definedName>
+    <definedName name="_ECO_RANGE_IDc2d5e84c21f84f9b9c0ab97f54b5e86c" localSheetId="2" hidden="1">Planilha2!$E$4:$E$397</definedName>
+    <definedName name="_ECO_RANGE_IDd5f9e7055750413b96e4e5fb4f91e632" localSheetId="2" hidden="1">Planilha2!$J$4:$J$397</definedName>
+    <definedName name="_ECO_RANGE_IDe769ff3db85943599545f14a778f24db" localSheetId="2" hidden="1">Planilha2!$O$4:$O$397</definedName>
+    <definedName name="_ECO_RANGE_IDe867d5f8621943d897657a90a7fc9f8a" localSheetId="2" hidden="1">Planilha2!$D$4:$D$397</definedName>
+    <definedName name="_ECO_RANGE_IDed363b04f5bf41588b222fd84077f1e9" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDf37b0d0158fd449cb5fe87ec2fe1472c" localSheetId="2" hidden="1">Planilha2!$N$4:$N$397</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,306 +286,302 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>f6520c54-ce7d-4bf7-bb1f-87e90ef1c855</stp>
+        <stp>5970bb90-a7ab-45b5-b0f5-8c7e5b3f391d</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>62750198-57c4-4e23-bb6a-161a9708ccf7</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>e61de73b-5cba-4e26-8482-a007d829ca1d</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>dcc38f05-b105-463c-900f-a75741740ace</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>366dfda4-47a6-439b-a938-204b1e4d016d</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>01de841b-6138-4fe7-97d4-11ae6ba71acc</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>017adf02-a946-44be-a1a0-a11c8b1ea30b</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>bf8d53d3-44f0-44b4-82aa-d36cc04cce76</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>86689150-da42-4ccb-90d0-e3ed64a076c6</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>357b72fd-0212-487e-b7dc-1a2f7a4cdb9b</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6ecd9e08-424c-4e46-a187-016dbd23583d</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>49f4464e-57de-48ca-a8f1-7c7c91a558d5</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>0a499021-5253-428c-a13a-3a88b25ee0a6</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>673dffbd-8f0e-46ec-b1ff-5bc7b4f80c64</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c2884e93-2e15-4958-87bb-15706dce965f</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6c9388db-7c47-4d74-8ed4-442cfd9db7d9</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>03aa5957-6331-48c5-820c-032d4e36a5d5</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a989ffaa-19ec-422e-a7f4-7a7fead897c3</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9d3a5cf4-9249-4cc6-af19-b250fc937520</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9f90dd1f-8134-45cb-911f-618b340b106f</stp>
+        <tr r="G3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a184d01d-2a31-4b70-a05e-88ae7b60a3eb</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>843219bb-ac88-4939-b88c-227a496f58cf</stp>
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>50e16436-83ef-42a5-9158-c2701fed0273</stp>
-        <tr r="L3" s="2"/>
+        <stp>03f81001-a57c-4e7f-9cd9-a73a8a63a737</stp>
+        <tr r="M3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>635b4e12-433a-4f33-a4f7-023ecdf20814</stp>
+        <stp>45302f42-bd32-4ad4-861d-01852475c051</stp>
         <tr r="D3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>ecd8a08b-c12e-410d-b8b2-69b29d66e5a8</stp>
+        <stp>ee2e675c-5ffb-48f1-bdd9-214a47b4f405</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9cf55441-d37b-490e-9b1e-efbb375465a2</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>4365f4dc-7da7-43c2-9522-d4f5d5108304</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>f6f64514-7de5-41be-9392-3be1f1c1b9f7</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>797911a7-eaeb-4833-b1ad-01b5b3b81873</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>5253935b-1dd1-461c-86bc-9b0afa4dd723</stp>
         <tr r="E3" s="2"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>032f99d3-7882-4dc2-9eff-207f566841b2</stp>
-        <tr r="P3" s="3"/>
+        <stp>2d93569c-498b-4447-b1d6-d4f6f18f35ee</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c02287a4-6174-4136-a705-2be583ceab56</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>06e8743a-86c9-4abe-9289-f6909e3f5073</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>03ca4172-82c8-4915-93b0-100b8ad35862</stp>
+        <tr r="F3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>33c4b9ab-41a7-49f9-b754-970de98dbc8a</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5b29c446-4140-4379-ad97-145fb9a2e0f2</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9e522e7b-b5ef-408d-8c8d-f088c064fa9b</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8b23a41c-5816-402f-95d3-8e703aa559ad</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a926dfab-ecf9-4bf3-ae6a-c5c81ce2d521</stp>
+        <stp>6e918f1e-6ab1-49c0-bdb5-964d52ae6e58</stp>
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>3f42dda8-86ca-4afe-b339-3c9fca0de3c4</stp>
-        <tr r="H3" s="1"/>
+        <stp>747e118c-3232-40ea-b3eb-4bde7a40b8e0</stp>
+        <tr r="M3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>22b23c23-6904-44ae-8086-dabe2e1b4ce9</stp>
-        <tr r="N3" s="3"/>
+        <stp>15841cb6-a59e-4a91-83be-6e513136d881</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a47a7870-59d3-439f-8dc3-90c346f20269</stp>
+        <tr r="O3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>f7cc7aca-caae-475d-9e4e-7b28fc339603</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6333dc01-34aa-4ca5-a7ab-442c45923d59</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ae365738-4c52-4c6a-85b8-0d9f1a00307a</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c4052d48-dcda-46a6-a35b-d4e2a4e3ba33</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ffa873ba-c9c6-451b-bb7d-a4580653c6c3</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fdb8a02d-5f55-44ce-97ac-b413ad15dac7</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f01ff4bd-5855-4ecd-876c-b087c770604c</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ed91aeca-5e04-4062-b651-455607809d44</stp>
+        <stp>c87314ba-ba16-4b3a-8964-fb77e37aab69</stp>
         <tr r="K3" s="2"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>0d3dbf60-6991-4bc6-9474-bb7063b661b9</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>299ee3a5-9d5c-414d-b7ec-a550b08cbb12</stp>
-        <tr r="J3" s="3"/>
+        <stp>a6e84028-42ce-45d6-b873-6684b778e8a8</stp>
+        <tr r="O3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>42827373-9ee1-4b0e-b29c-db51d8fcc572</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>144840cb-7036-4ca5-b3c5-96fbc9c26b3d</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a856ab79-1cf5-46b1-9d49-90b12534dcca</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>332310b3-51cd-4486-9a76-9b6bee170920</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>39e18ca0-5e32-4cd4-94f5-3dce6720fa5b</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>43fc1c58-5c44-441f-a489-936e3e834a5e</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>baffa5ba-82f2-447f-ba45-c339175ce828</stp>
+        <stp>e7aad30c-83a1-4aed-aedf-160bc78fc064</stp>
         <tr r="I3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
+    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>986dbf93-7e59-4d43-8c5d-58138c15c61b</stp>
-        <tr r="N3" s="1"/>
+        <stp>dcc9a7b2-05b7-4b3c-b091-768ce0a924c4</stp>
+        <tr r="D3" s="2"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>adc2f484-fd48-4660-866f-c736b21f07a4</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>32f2584f-c125-4abb-b6e0-b176dd0d8878</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>edb95a73-2fe0-40f5-8066-eebc6c398216</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a35035ec-179e-4357-b634-e0ffcb963afb</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3f64a1fc-bc99-4bd6-9828-a22fdc947a9b</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>24613b12-f650-4788-901d-08a3f9da4953</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e4e45171-b3fc-4f1e-afce-10d61ab4b67e</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3be2d4b6-703e-434c-9ca8-54faa5bc1d88</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bb301880-81c4-45e5-8c0c-9a041d5e3dac</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b3df93a4-9391-4df2-a0fc-a79feef43918</stp>
+        <stp>2cd4f920-0036-478b-8b40-b2cc910cc0cf</stp>
         <tr r="J3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f2aacd72-7cf2-4323-bac8-9273daccef33</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0bd2713a-e3eb-4bdc-b835-dcf100ddb0c5</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_fa31aadde2c04d7cbb4e753ab8c1a3a0">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fffc3047-40a9-4130-bbb9-9929a9e665d9</stp>
-        <tr r="C3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -855,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O393"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
-    <sheetView topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="A393" sqref="A393"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="M398" sqref="A398:XFD398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18453,7 +18449,224 @@
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A393" s="1"/>
+      <c r="A393" s="1">
+        <v>45957</v>
+      </c>
+      <c r="C393">
+        <v>10.131600000000001</v>
+      </c>
+      <c r="D393">
+        <v>8.7688000000000006</v>
+      </c>
+      <c r="E393">
+        <v>8.1760000000000002</v>
+      </c>
+      <c r="F393">
+        <v>7.96</v>
+      </c>
+      <c r="G393">
+        <v>7.84</v>
+      </c>
+      <c r="H393">
+        <v>7.7248000000000001</v>
+      </c>
+      <c r="I393">
+        <v>7.67</v>
+      </c>
+      <c r="J393">
+        <v>7.5113000000000003</v>
+      </c>
+      <c r="K393">
+        <v>7.35</v>
+      </c>
+      <c r="L393">
+        <v>7.274</v>
+      </c>
+      <c r="M393">
+        <v>7.1989999999999998</v>
+      </c>
+      <c r="N393">
+        <v>7.1646000000000001</v>
+      </c>
+      <c r="O393">
+        <v>7.1734999999999998</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A394" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C394">
+        <v>10.1363</v>
+      </c>
+      <c r="D394">
+        <v>8.75</v>
+      </c>
+      <c r="E394">
+        <v>8.1798999999999999</v>
+      </c>
+      <c r="F394">
+        <v>7.98</v>
+      </c>
+      <c r="G394">
+        <v>7.87</v>
+      </c>
+      <c r="H394">
+        <v>7.7531999999999996</v>
+      </c>
+      <c r="I394">
+        <v>7.7</v>
+      </c>
+      <c r="J394">
+        <v>7.5575000000000001</v>
+      </c>
+      <c r="K394">
+        <v>7.3975</v>
+      </c>
+      <c r="L394">
+        <v>7.31</v>
+      </c>
+      <c r="M394">
+        <v>7.2356999999999996</v>
+      </c>
+      <c r="N394">
+        <v>7.1867000000000001</v>
+      </c>
+      <c r="O394">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A395" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C395">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="D395">
+        <v>8.7459000000000007</v>
+      </c>
+      <c r="E395">
+        <v>8.2035</v>
+      </c>
+      <c r="F395">
+        <v>8.0245999999999995</v>
+      </c>
+      <c r="G395">
+        <v>7.9154</v>
+      </c>
+      <c r="H395">
+        <v>7.7927999999999997</v>
+      </c>
+      <c r="I395">
+        <v>7.7325999999999997</v>
+      </c>
+      <c r="J395">
+        <v>7.5728</v>
+      </c>
+      <c r="K395">
+        <v>7.42</v>
+      </c>
+      <c r="L395">
+        <v>7.3301999999999996</v>
+      </c>
+      <c r="M395">
+        <v>7.2466999999999997</v>
+      </c>
+      <c r="N395">
+        <v>7.2054</v>
+      </c>
+      <c r="O395">
+        <v>7.2169999999999996</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A396" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C396">
+        <v>10.132</v>
+      </c>
+      <c r="D396">
+        <v>8.8152000000000008</v>
+      </c>
+      <c r="E396">
+        <v>8.2533999999999992</v>
+      </c>
+      <c r="F396">
+        <v>8.0702999999999996</v>
+      </c>
+      <c r="G396">
+        <v>7.9428999999999998</v>
+      </c>
+      <c r="H396">
+        <v>7.81</v>
+      </c>
+      <c r="I396">
+        <v>7.7401</v>
+      </c>
+      <c r="J396">
+        <v>7.5872000000000002</v>
+      </c>
+      <c r="K396">
+        <v>7.4423000000000004</v>
+      </c>
+      <c r="L396">
+        <v>7.3479000000000001</v>
+      </c>
+      <c r="M396">
+        <v>7.27</v>
+      </c>
+      <c r="N396">
+        <v>7.2271000000000001</v>
+      </c>
+      <c r="O396">
+        <v>7.2424999999999997</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A397" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C397">
+        <v>10.0061</v>
+      </c>
+      <c r="D397">
+        <v>8.7349999999999994</v>
+      </c>
+      <c r="E397">
+        <v>8.1887000000000008</v>
+      </c>
+      <c r="F397">
+        <v>8.0269999999999992</v>
+      </c>
+      <c r="G397">
+        <v>7.9114000000000004</v>
+      </c>
+      <c r="H397">
+        <v>7.79</v>
+      </c>
+      <c r="I397">
+        <v>7.74</v>
+      </c>
+      <c r="J397">
+        <v>7.5868000000000002</v>
+      </c>
+      <c r="K397">
+        <v>7.4433999999999996</v>
+      </c>
+      <c r="L397">
+        <v>7.3167</v>
+      </c>
+      <c r="M397">
+        <v>7.2234999999999996</v>
+      </c>
+      <c r="N397">
+        <v>7.2</v>
+      </c>
+      <c r="O397">
+        <v>7.2169999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18462,10 +18675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O393"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
     <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A393" sqref="A393"/>
+      <selection activeCell="A398" sqref="A398:XFD398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36060,7 +36273,224 @@
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A393" s="1"/>
+      <c r="A393" s="1">
+        <v>45957</v>
+      </c>
+      <c r="C393">
+        <v>4478.0099840000003</v>
+      </c>
+      <c r="D393">
+        <v>4514.2311980000004</v>
+      </c>
+      <c r="E393">
+        <v>4382.9036480000004</v>
+      </c>
+      <c r="F393">
+        <v>4428.9610890000004</v>
+      </c>
+      <c r="G393">
+        <v>4304.4509520000001</v>
+      </c>
+      <c r="H393">
+        <v>4226.1305009999996</v>
+      </c>
+      <c r="I393">
+        <v>4275.6399709999996</v>
+      </c>
+      <c r="J393">
+        <v>4245.6524719999998</v>
+      </c>
+      <c r="K393">
+        <v>4093.7769189999999</v>
+      </c>
+      <c r="L393">
+        <v>4114.2063580000004</v>
+      </c>
+      <c r="M393">
+        <v>4020.0439710000001</v>
+      </c>
+      <c r="N393">
+        <v>4068.6778939999999</v>
+      </c>
+      <c r="O393">
+        <v>3967.3424020000002</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A394" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C394">
+        <v>4479.8706110000003</v>
+      </c>
+      <c r="D394">
+        <v>4517.1613280000001</v>
+      </c>
+      <c r="E394">
+        <v>4384.1515380000001</v>
+      </c>
+      <c r="F394">
+        <v>4428.0366510000003</v>
+      </c>
+      <c r="G394">
+        <v>4301.0694430000003</v>
+      </c>
+      <c r="H394">
+        <v>4221.4988880000001</v>
+      </c>
+      <c r="I394">
+        <v>4270.1450999999997</v>
+      </c>
+      <c r="J394">
+        <v>4234.3319659999997</v>
+      </c>
+      <c r="K394">
+        <v>4077.9499209999999</v>
+      </c>
+      <c r="L394">
+        <v>4100.6472309999999</v>
+      </c>
+      <c r="M394">
+        <v>4004.6134870000001</v>
+      </c>
+      <c r="N394">
+        <v>4059.3706889999999</v>
+      </c>
+      <c r="O394">
+        <v>3960.4547480000001</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A395" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C395">
+        <v>4482.0780759999998</v>
+      </c>
+      <c r="D395">
+        <v>4519.2024760000004</v>
+      </c>
+      <c r="E395">
+        <v>4383.3563599999998</v>
+      </c>
+      <c r="F395">
+        <v>4423.9834060000003</v>
+      </c>
+      <c r="G395">
+        <v>4295.1745080000001</v>
+      </c>
+      <c r="H395">
+        <v>4214.4677039999997</v>
+      </c>
+      <c r="I395">
+        <v>4264.0657199999996</v>
+      </c>
+      <c r="J395">
+        <v>4231.5978329999998</v>
+      </c>
+      <c r="K395">
+        <v>4071.2423159999998</v>
+      </c>
+      <c r="L395">
+        <v>4093.694825</v>
+      </c>
+      <c r="M395">
+        <v>4000.9704790000001</v>
+      </c>
+      <c r="N395">
+        <v>4051.7451649999998</v>
+      </c>
+      <c r="O395">
+        <v>3948.380619</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A396" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C396">
+        <v>4484.0212709999996</v>
+      </c>
+      <c r="D396">
+        <v>4516.8698400000003</v>
+      </c>
+      <c r="E396">
+        <v>4379.8472469999997</v>
+      </c>
+      <c r="F396">
+        <v>4419.8110290000004</v>
+      </c>
+      <c r="G396">
+        <v>4292.2388989999999</v>
+      </c>
+      <c r="H396">
+        <v>4212.288528</v>
+      </c>
+      <c r="I396">
+        <v>4263.8555820000001</v>
+      </c>
+      <c r="J396">
+        <v>4229.1187449999998</v>
+      </c>
+      <c r="K396">
+        <v>4064.6250409999998</v>
+      </c>
+      <c r="L396">
+        <v>4087.799657</v>
+      </c>
+      <c r="M396">
+        <v>3991.7488349999999</v>
+      </c>
+      <c r="N396">
+        <v>4042.7138329999998</v>
+      </c>
+      <c r="O396">
+        <v>3937.1304490000002</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A397" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C397">
+        <v>4489.9741089999998</v>
+      </c>
+      <c r="D397">
+        <v>4523.4497220000003</v>
+      </c>
+      <c r="E397">
+        <v>4388.2016789999998</v>
+      </c>
+      <c r="F397">
+        <v>4426.9638750000004</v>
+      </c>
+      <c r="G397">
+        <v>4298.9865950000003</v>
+      </c>
+      <c r="H397">
+        <v>4218.132431</v>
+      </c>
+      <c r="I397">
+        <v>4265.4197560000002</v>
+      </c>
+      <c r="J397">
+        <v>4230.7353899999998</v>
+      </c>
+      <c r="K397">
+        <v>4065.6516780000002</v>
+      </c>
+      <c r="L397">
+        <v>4102.1149619999997</v>
+      </c>
+      <c r="M397">
+        <v>4014.3002070000002</v>
+      </c>
+      <c r="N397">
+        <v>4057.1083039999999</v>
+      </c>
+      <c r="O397">
+        <v>3951.0801510000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -36069,10 +36499,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z393"/>
+  <dimension ref="A1:Z397"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A393" sqref="A393"/>
+      <selection activeCell="D386" sqref="D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53371,7 +53801,239 @@
       </c>
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A393" s="1"/>
+      <c r="A393" s="1">
+        <v>45957</v>
+      </c>
+      <c r="C393">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="D393">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="E393">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F393">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G393">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="H393">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="I393">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="J393">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="K393">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L393">
+        <v>0.1</v>
+      </c>
+      <c r="M393">
+        <v>0.1009</v>
+      </c>
+      <c r="N393">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="O393">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="P393">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A394" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C394">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="D394">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="E394">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F394">
+        <v>3.73E-2</v>
+      </c>
+      <c r="G394">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="H394">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="I394">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="J394">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="K394">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="L394">
+        <v>0.1</v>
+      </c>
+      <c r="M394">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="N394">
+        <v>0.1017</v>
+      </c>
+      <c r="O394">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="P394">
+        <v>0.1013</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A395" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C395">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="D395">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="E395">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F395">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="G395">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="H395">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="I395">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="J395">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="K395">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="L395">
+        <v>0.1</v>
+      </c>
+      <c r="M395">
+        <v>0.1007</v>
+      </c>
+      <c r="N395">
+        <v>0.1016</v>
+      </c>
+      <c r="O395">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="P395">
+        <v>0.1014</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A396" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C396">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="D396">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="E396">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F396">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="G396">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="H396">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="I396">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="J396">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="K396">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="L396">
+        <v>0.1</v>
+      </c>
+      <c r="M396">
+        <v>0.1007</v>
+      </c>
+      <c r="N396">
+        <v>0.1016</v>
+      </c>
+      <c r="O396">
+        <v>0.1016</v>
+      </c>
+      <c r="P396">
+        <v>0.1014</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A397" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C397">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="D397">
+        <v>-2E-3</v>
+      </c>
+      <c r="E397">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="F397">
+        <v>3.73E-2</v>
+      </c>
+      <c r="G397">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="H397">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="I397">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="J397">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="K397">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="L397">
+        <v>0.1</v>
+      </c>
+      <c r="M397">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="N397">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="O397">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="P397">
+        <v>0.10150000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F72AC-75D8-40A3-8A54-B026085EC58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FC64D4-ABB2-4CAD-826D-7BD65421C865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="4320" windowWidth="28800" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID10a9d2037c2f4193ad0155963dffdb19" localSheetId="1" hidden="1">Planilha1!$C$4:$C$397</definedName>
-    <definedName name="_ECO_RANGE_ID10daaa550f484a54bd0188b029ed5c90" localSheetId="1" hidden="1">Planilha1!$N$4:$N$397</definedName>
-    <definedName name="_ECO_RANGE_ID1335f937a5f940a0ab437e77d7fe7074" localSheetId="1" hidden="1">Planilha1!$I$4:$I$397</definedName>
-    <definedName name="_ECO_RANGE_ID1705deb399084ef2bd84fd8c57f49dac" localSheetId="1" hidden="1">Planilha1!$J$4:$J$397</definedName>
-    <definedName name="_ECO_RANGE_ID190c9c29285c4fdeb4852747a4018619" localSheetId="1" hidden="1">Planilha1!$L$4:$L$397</definedName>
-    <definedName name="_ECO_RANGE_ID19a8de4db3044d98881f333354199260" localSheetId="1" hidden="1">Planilha1!$M$4:$M$397</definedName>
-    <definedName name="_ECO_RANGE_ID23b8cf7b01954c43a2a606dfbdc91a54" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID262a1697529b425cbbd9bd22a0dd674f" localSheetId="1" hidden="1">Planilha1!$K$4:$K$397</definedName>
-    <definedName name="_ECO_RANGE_ID26799b6e92864791b81fe6259810f6fb" localSheetId="1" hidden="1">Planilha1!$E$4:$E$397</definedName>
-    <definedName name="_ECO_RANGE_ID30f689910c874e11b58455ae16ae7e7d" localSheetId="2" hidden="1">Planilha2!$F$4:$F$397</definedName>
-    <definedName name="_ECO_RANGE_ID3461295057d7441ea4361ef8f8db2f4b" localSheetId="2" hidden="1">Planilha2!$L$4:$L$397</definedName>
-    <definedName name="_ECO_RANGE_ID353e8ecfa2c64e5e898bae46857d9f17" localSheetId="0" hidden="1">Plan1!$L$4:$L$397</definedName>
-    <definedName name="_ECO_RANGE_ID36b0b877b5774076bf3b1f4c22c31927" localSheetId="0" hidden="1">Plan1!$A$4:$B$397</definedName>
-    <definedName name="_ECO_RANGE_ID3ae9b34096314f848016eaa3c2f37cb4" localSheetId="1" hidden="1">Planilha1!$D$4:$D$397</definedName>
-    <definedName name="_ECO_RANGE_ID3bb99b5e9e2c40e7b8218fbba24c3477" localSheetId="0" hidden="1">Plan1!$J$4:$J$397</definedName>
-    <definedName name="_ECO_RANGE_ID3bc9a39506a54e6b95cd222a72481e6a" localSheetId="0" hidden="1">Plan1!$N$4:$N$397</definedName>
-    <definedName name="_ECO_RANGE_ID3e336c4050de4d8da93675b2889fbc82" localSheetId="0" hidden="1">Plan1!$D$4:$D$397</definedName>
-    <definedName name="_ECO_RANGE_ID44b38cccfcf5485898cf2c10e862bb20" localSheetId="1" hidden="1">Planilha1!$O$4:$O$397</definedName>
-    <definedName name="_ECO_RANGE_ID4cbcbe4c9baa4151a3156fad2cdcdd54" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID4d5c6d8f034e45a1855082050f9a70f5" localSheetId="2" hidden="1">Planilha2!$H$4:$H$397</definedName>
-    <definedName name="_ECO_RANGE_ID4e53bd4c3feb4963967ec368e0c837a3" localSheetId="2" hidden="1">Planilha2!$P$4:$P$397</definedName>
-    <definedName name="_ECO_RANGE_ID50bc1f0dd2f44927865d338347b12c52" localSheetId="1" hidden="1">Planilha1!$H$4:$H$397</definedName>
-    <definedName name="_ECO_RANGE_ID5918405efa3549aa8370709e49033c60" localSheetId="0" hidden="1">Plan1!$F$4:$F$397</definedName>
-    <definedName name="_ECO_RANGE_ID5a37990d3c3d4f20ab11d9bf4d73e687" localSheetId="0" hidden="1">Plan1!$G$4:$G$397</definedName>
-    <definedName name="_ECO_RANGE_ID5a7f76257aba4e03bdfee7d970e5f926" localSheetId="1" hidden="1">Planilha1!$A$4:$B$397</definedName>
-    <definedName name="_ECO_RANGE_ID611a5d142aa14e2286aa9904a463d58a" localSheetId="0" hidden="1">Plan1!$K$4:$K$397</definedName>
-    <definedName name="_ECO_RANGE_ID634552d9a3364ecea62460f3e0eb8103" localSheetId="2" hidden="1">Planilha2!$K$4:$K$397</definedName>
-    <definedName name="_ECO_RANGE_ID6375e663cc8d4ddb946bc3c0e4ff0b9a" localSheetId="0" hidden="1">Plan1!$C$4:$C$397</definedName>
-    <definedName name="_ECO_RANGE_ID65260204abea4b0db75ed020754ace43" localSheetId="1" hidden="1">Planilha1!$G$4:$G$397</definedName>
-    <definedName name="_ECO_RANGE_ID67a2919861354678b060475e87d66818" localSheetId="0" hidden="1">Plan1!$M$4:$M$397</definedName>
-    <definedName name="_ECO_RANGE_ID775af43e17754b45bc2ce27b99aa6321" localSheetId="2" hidden="1">Planilha2!$C$4:$C$397</definedName>
-    <definedName name="_ECO_RANGE_ID84415044b125424c98f6ed5559f721af" localSheetId="2" hidden="1">Planilha2!$G$4:$G$397</definedName>
-    <definedName name="_ECO_RANGE_ID956e911feb3647909a61f5068620690f" localSheetId="0" hidden="1">Plan1!$E$4:$E$397</definedName>
-    <definedName name="_ECO_RANGE_ID971c3275d1c54e75ab4737d968e317b0" localSheetId="0" hidden="1">Plan1!$I$4:$I$397</definedName>
-    <definedName name="_ECO_RANGE_IDa3e6fe9608ce4211910222a6b99be026" localSheetId="0" hidden="1">Plan1!$H$4:$H$397</definedName>
-    <definedName name="_ECO_RANGE_IDa7271c15e09c4f3fbfdeb46b4638b9b8" localSheetId="1" hidden="1">Planilha1!$F$4:$F$397</definedName>
-    <definedName name="_ECO_RANGE_IDa7efdd08ddd44f26a8fca81bdaad0513" localSheetId="2" hidden="1">Planilha2!$M$4:$M$397</definedName>
-    <definedName name="_ECO_RANGE_IDa8e53741daae40faad4331c4eb7dcf4b" localSheetId="2" hidden="1">Planilha2!$A$4:$B$397</definedName>
-    <definedName name="_ECO_RANGE_IDaa53be9ff5d74539a382a67c6ecff604" localSheetId="2" hidden="1">Planilha2!$I$4:$I$397</definedName>
-    <definedName name="_ECO_RANGE_IDb5190f7519aa4a2997446b9ae9a9186e" localSheetId="0" hidden="1">Plan1!$O$4:$O$397</definedName>
-    <definedName name="_ECO_RANGE_IDc2d5e84c21f84f9b9c0ab97f54b5e86c" localSheetId="2" hidden="1">Planilha2!$E$4:$E$397</definedName>
-    <definedName name="_ECO_RANGE_IDd5f9e7055750413b96e4e5fb4f91e632" localSheetId="2" hidden="1">Planilha2!$J$4:$J$397</definedName>
-    <definedName name="_ECO_RANGE_IDe769ff3db85943599545f14a778f24db" localSheetId="2" hidden="1">Planilha2!$O$4:$O$397</definedName>
-    <definedName name="_ECO_RANGE_IDe867d5f8621943d897657a90a7fc9f8a" localSheetId="2" hidden="1">Planilha2!$D$4:$D$397</definedName>
-    <definedName name="_ECO_RANGE_IDed363b04f5bf41588b222fd84077f1e9" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDf37b0d0158fd449cb5fe87ec2fe1472c" localSheetId="2" hidden="1">Planilha2!$N$4:$N$397</definedName>
+    <definedName name="_ECO_RANGE_ID01ecae8147f04d3aa2ae0b6dc0d1c41a" localSheetId="1" hidden="1">Planilha1!$O$4:$O$399</definedName>
+    <definedName name="_ECO_RANGE_ID0c4e3e877ec448bcbb67f51b4415377e" localSheetId="0" hidden="1">Plan1!$I$4:$I$399</definedName>
+    <definedName name="_ECO_RANGE_ID0f11b4118c134cf2aa7a2751b24f261a" localSheetId="2" hidden="1">Planilha2!$K$4:$K$400</definedName>
+    <definedName name="_ECO_RANGE_ID10c7052e4e0241b6a285a4c280005831" localSheetId="2" hidden="1">Planilha2!$M$4:$M$400</definedName>
+    <definedName name="_ECO_RANGE_ID1145b00dd43c4eb0a9c7e3baa3a1253d" localSheetId="1" hidden="1">Planilha1!$D$4:$D$399</definedName>
+    <definedName name="_ECO_RANGE_ID1dd04836964849038951db5a70f91528" localSheetId="2" hidden="1">Planilha2!$H$4:$H$400</definedName>
+    <definedName name="_ECO_RANGE_ID267d054af3f44c0f8578d285843e7e9a" localSheetId="1" hidden="1">Planilha1!$J$4:$J$399</definedName>
+    <definedName name="_ECO_RANGE_ID276a000b03bb4b47a7d1e35aed6accbb" localSheetId="0" hidden="1">Plan1!$H$4:$H$399</definedName>
+    <definedName name="_ECO_RANGE_ID29257be8950b4727b93f8174b0bcec37" localSheetId="0" hidden="1">Plan1!$A$4:$B$399</definedName>
+    <definedName name="_ECO_RANGE_ID292de61692e14b068cd8fe1d17a6b1fb" localSheetId="2" hidden="1">Planilha2!$D$4:$D$400</definedName>
+    <definedName name="_ECO_RANGE_ID2ac2ddeaa9ce444b961155088fee5c96" localSheetId="1" hidden="1">Planilha1!$I$4:$I$399</definedName>
+    <definedName name="_ECO_RANGE_ID2c0d0a54fd734f139cacc654898f2fca" localSheetId="2" hidden="1">Planilha2!$P$4:$P$400</definedName>
+    <definedName name="_ECO_RANGE_ID3e64935878a046c086f373a728b4e660" localSheetId="2" hidden="1">Planilha2!$I$4:$I$400</definedName>
+    <definedName name="_ECO_RANGE_ID4c74a6fad8464c51ba3acbde1200b490" localSheetId="2" hidden="1">Planilha2!$A$4:$B$400</definedName>
+    <definedName name="_ECO_RANGE_ID52420a28e17c449a90d5ad738c913c1a" localSheetId="0" hidden="1">Plan1!$O$4:$O$399</definedName>
+    <definedName name="_ECO_RANGE_ID586f2c89383e4415bb5e29897eb2cff5" localSheetId="2" hidden="1">Planilha2!$O$4:$O$400</definedName>
+    <definedName name="_ECO_RANGE_ID5958454be9c5422a87801cb962f4c1df" localSheetId="0" hidden="1">Plan1!$N$4:$N$399</definedName>
+    <definedName name="_ECO_RANGE_ID5ee235e260d94b99935fcd9b57074607" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID60a95a34ba6f48e8854e4a308f2cabe5" localSheetId="1" hidden="1">Planilha1!$L$4:$L$399</definedName>
+    <definedName name="_ECO_RANGE_ID650fd712508b4bf8acdf02c479fc5bd8" localSheetId="0" hidden="1">Plan1!$C$4:$C$399</definedName>
+    <definedName name="_ECO_RANGE_ID6a81e2c9930e40cebdcea65cd979a7f0" localSheetId="1" hidden="1">Planilha1!$K$4:$K$399</definedName>
+    <definedName name="_ECO_RANGE_ID6c1d908e41854de3ad14f3d7465f764a" localSheetId="1" hidden="1">Planilha1!$A$4:$B$399</definedName>
+    <definedName name="_ECO_RANGE_ID6e8e828921e74281b9c07af3e3736b4d" localSheetId="2" hidden="1">Planilha2!$L$4:$L$400</definedName>
+    <definedName name="_ECO_RANGE_ID708b293113e444a1abda1a59062e94b0" localSheetId="2" hidden="1">Planilha2!$E$4:$E$400</definedName>
+    <definedName name="_ECO_RANGE_ID71bc41837ae1437e8507e036a35bec42" localSheetId="0" hidden="1">Plan1!$F$4:$F$399</definedName>
+    <definedName name="_ECO_RANGE_ID8378e213a9584cfaa030e4840d103d53" localSheetId="1" hidden="1">Planilha1!$M$4:$M$399</definedName>
+    <definedName name="_ECO_RANGE_ID877d0db84f6d44778b4c66be016adce3" localSheetId="1" hidden="1">Planilha1!$F$4:$F$399</definedName>
+    <definedName name="_ECO_RANGE_ID8d0f08bcf6e04affb2053a4c4aba769c" localSheetId="0" hidden="1">Plan1!$K$4:$K$399</definedName>
+    <definedName name="_ECO_RANGE_ID92598117be3b43ae96f3a746d0049088" localSheetId="0" hidden="1">Plan1!$J$4:$J$399</definedName>
+    <definedName name="_ECO_RANGE_ID93f87c6c77724016b5f22e61a02a22f6" localSheetId="1" hidden="1">Planilha1!$E$4:$E$399</definedName>
+    <definedName name="_ECO_RANGE_ID99d5d93d861c43d6a6b2ce06bf39443e" localSheetId="0" hidden="1">Plan1!$L$4:$L$399</definedName>
+    <definedName name="_ECO_RANGE_ID9d305d672b5b4f25942f3d458e145b4c" localSheetId="1" hidden="1">Planilha1!$N$4:$N$399</definedName>
+    <definedName name="_ECO_RANGE_IDa7d8db3064dd44b584ed5f192a9a4384" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDaed81fa4ca854109bf84230986e9f078" localSheetId="1" hidden="1">Planilha1!$G$4:$G$399</definedName>
+    <definedName name="_ECO_RANGE_IDb7e6b5f86b8043fd87f318e80e35c277" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDb8cee2ea7b3d4a4597887634cbfd1498" localSheetId="2" hidden="1">Planilha2!$G$4:$G$400</definedName>
+    <definedName name="_ECO_RANGE_IDbcf438185e5345dbadbd8f2e649ad6df" localSheetId="1" hidden="1">Planilha1!$H$4:$H$399</definedName>
+    <definedName name="_ECO_RANGE_IDd2641ac8b0e44ed4b3a4920d3848eaea" localSheetId="0" hidden="1">Plan1!$E$4:$E$399</definedName>
+    <definedName name="_ECO_RANGE_IDd8b746d4bac948e8b3731a311f18db3c" localSheetId="2" hidden="1">Planilha2!$J$4:$J$400</definedName>
+    <definedName name="_ECO_RANGE_IDdce239da623b4661bf575425634df95e" localSheetId="0" hidden="1">Plan1!$G$4:$G$399</definedName>
+    <definedName name="_ECO_RANGE_IDe17df1288a2d42dfa1405b77d9563519" localSheetId="1" hidden="1">Planilha1!$C$4:$C$399</definedName>
+    <definedName name="_ECO_RANGE_IDe753de25748f431a8633ddcca3078c96" localSheetId="2" hidden="1">Planilha2!$F$4:$F$400</definedName>
+    <definedName name="_ECO_RANGE_IDee8dd73b092847b8ab826a0f514636f7" localSheetId="0" hidden="1">Plan1!$D$4:$D$399</definedName>
+    <definedName name="_ECO_RANGE_IDf17919964d504440a217a2aae48bcf0a" localSheetId="0" hidden="1">Plan1!$M$4:$M$399</definedName>
+    <definedName name="_ECO_RANGE_IDfd611b0867084080acebe94419b0a9c4" localSheetId="2" hidden="1">Planilha2!$C$4:$C$400</definedName>
+    <definedName name="_ECO_RANGE_IDfe066c708d9e4f509f546c022f7e2b11" localSheetId="2" hidden="1">Planilha2!$N$4:$N$400</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,302 +286,306 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>5970bb90-a7ab-45b5-b0f5-8c7e5b3f391d</stp>
-        <tr r="J3" s="3"/>
+        <stp>c8c5b4b4-030b-491d-b6d2-eecf4c759316</stp>
+        <tr r="H3" s="3"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>62750198-57c4-4e23-bb6a-161a9708ccf7</stp>
-        <tr r="C3" s="1"/>
+        <stp>1d79f82d-2032-4851-993a-2638fa17f23c</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0ce4f7dc-20cc-4e18-b4a0-d16d03967604</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>582a5ff3-074f-4857-a0fa-be3f5e4105c2</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>96e52dc1-0ab9-4d27-a04f-0e9c91f958e2</stp>
+        <tr r="N3" s="3"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>e61de73b-5cba-4e26-8482-a007d829ca1d</stp>
-        <tr r="I3" s="1"/>
+        <stp>ab20b9f9-2871-4f45-bfff-557dfd6b2fb6</stp>
+        <tr r="K3" s="3"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>dcc38f05-b105-463c-900f-a75741740ace</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>366dfda4-47a6-439b-a938-204b1e4d016d</stp>
+        <stp>e2b0bc2a-9822-453c-935c-17fab73c72dc</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>01de841b-6138-4fe7-97d4-11ae6ba71acc</stp>
-        <tr r="H3" s="2"/>
+        <stp>5f94543c-7041-49ce-859b-f369f2c174e9</stp>
+        <tr r="J3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>017adf02-a946-44be-a1a0-a11c8b1ea30b</stp>
+        <stp>67d49233-6763-4244-a712-abd35a2e19e9</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b4f23585-e1a4-4bb2-84bf-07a789ba95f7</stp>
         <tr r="M3" s="3"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>bf8d53d3-44f0-44b4-82aa-d36cc04cce76</stp>
+        <stp>47f32a12-94e8-4ad4-a638-535b0dfc00fb</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9de20aee-7b0d-4145-9987-75499b259fb7</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5228bfe0-d1b0-4376-bd2b-c07333edb9e5</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a8e67782-6b44-47db-8a5f-785cfe491276</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c4b9b9ea-dadc-4d7b-9065-4962712e8534</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b5390ef8-139d-4479-bc72-28c973775f13</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3c74144a-ea61-4b6c-aa2e-d6c12e88227a</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2754476e-3eed-499f-b1db-cbfb4e9b33f0</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>62c28195-7230-4633-b44f-f28d1e723aa3</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8212bc55-2bd9-4050-a775-e75845501c3b</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>668cf497-e310-443e-8b10-a70ce95888e1</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>22033991-77b0-4e01-ac8d-7b57fc7af215</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7c028848-23e3-4e36-99f9-43fc8976a54f</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>51e31e0e-fc3e-45ae-ad47-554bf88f07ec</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>acde417d-7728-4498-815a-b2d6df899d54</stp>
         <tr r="F3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>86689150-da42-4ccb-90d0-e3ed64a076c6</stp>
-        <tr r="A3" s="1"/>
+        <stp>1ec9c922-9d87-4a37-8020-c94febcbda69</stp>
+        <tr r="N3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>357b72fd-0212-487e-b7dc-1a2f7a4cdb9b</stp>
-        <tr r="O3" s="3"/>
+        <stp>1941668f-06a1-446e-b74f-bac770ff5be5</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b3c51954-d3ea-42ef-86e4-d4a0e5abf096</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5dc21b3d-4320-48f6-8340-30e839a8af4d</stp>
+        <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>6ecd9e08-424c-4e46-a187-016dbd23583d</stp>
+        <stp>685e56b0-ca3e-424d-85be-fb11e20ebeea</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4c220dbe-2c21-4f6a-9306-ba9acce4a825</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1e1d7e64-11d2-414f-a7af-fe472184737f</stp>
         <tr r="F3" s="2"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>49f4464e-57de-48ca-a8f1-7c7c91a558d5</stp>
-        <tr r="A3" s="2"/>
+        <stp>1cda3032-a0d2-43dc-8065-91b16c2e8e82</stp>
+        <tr r="L3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>0a499021-5253-428c-a13a-3a88b25ee0a6</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>673dffbd-8f0e-46ec-b1ff-5bc7b4f80c64</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c2884e93-2e15-4958-87bb-15706dce965f</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6c9388db-7c47-4d74-8ed4-442cfd9db7d9</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>03aa5957-6331-48c5-820c-032d4e36a5d5</stp>
+        <stp>a6e273de-aba2-4d1a-bcbf-5b47aae8c444</stp>
         <tr r="E3" s="3"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>a989ffaa-19ec-422e-a7f4-7a7fead897c3</stp>
-        <tr r="N3" s="3"/>
+        <stp>e85c2fe1-582b-4dbd-8047-cd2c39abd546</stp>
+        <tr r="H3" s="2"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>9d3a5cf4-9249-4cc6-af19-b250fc937520</stp>
+        <stp>4a956583-77ff-425d-96e6-c322e5811666</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1920828a-31ea-4e94-988f-177d20bdda49</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1b965e75-7587-4508-8956-d61fea2a580b</stp>
         <tr r="G3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>9f90dd1f-8134-45cb-911f-618b340b106f</stp>
-        <tr r="G3" s="3"/>
+        <stp>5ef7ebdd-6ed6-455d-9e51-3d631098eafb</stp>
+        <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>a184d01d-2a31-4b70-a05e-88ae7b60a3eb</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>843219bb-ac88-4939-b88c-227a496f58cf</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>03f81001-a57c-4e7f-9cd9-a73a8a63a737</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>45302f42-bd32-4ad4-861d-01852475c051</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ee2e675c-5ffb-48f1-bdd9-214a47b4f405</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9cf55441-d37b-490e-9b1e-efbb375465a2</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>4365f4dc-7da7-43c2-9522-d4f5d5108304</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f6f64514-7de5-41be-9392-3be1f1c1b9f7</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>797911a7-eaeb-4833-b1ad-01b5b3b81873</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5253935b-1dd1-461c-86bc-9b0afa4dd723</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>2d93569c-498b-4447-b1d6-d4f6f18f35ee</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c02287a4-6174-4136-a705-2be583ceab56</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>06e8743a-86c9-4abe-9289-f6909e3f5073</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>03ca4172-82c8-4915-93b0-100b8ad35862</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6e918f1e-6ab1-49c0-bdb5-964d52ae6e58</stp>
+        <stp>777f5b4c-01c1-4dc7-9238-4c635d845284</stp>
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>747e118c-3232-40ea-b3eb-4bde7a40b8e0</stp>
-        <tr r="M3" s="2"/>
+        <stp>b4363976-7e3c-49c6-ae9d-45c5f2e13f8e</stp>
+        <tr r="D3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
+    <main first="rtdsrv_eco_74c8ed0de239401481d462cca287e30a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>15841cb6-a59e-4a91-83be-6e513136d881</stp>
-        <tr r="L3" s="1"/>
+        <stp>74fe9833-5866-4cbe-8085-155c3c584d2b</stp>
+        <tr r="G3" s="3"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>a47a7870-59d3-439f-8dc3-90c346f20269</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c87314ba-ba16-4b3a-8964-fb77e37aab69</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a6e84028-42ce-45d6-b873-6684b778e8a8</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e7aad30c-83a1-4aed-aedf-160bc78fc064</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_a8f39508c89b44dd855b244af8d35255">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>dcc9a7b2-05b7-4b3c-b091-768ce0a924c4</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>2cd4f920-0036-478b-8b40-b2cc910cc0cf</stp>
-        <tr r="J3" s="2"/>
+        <stp>2538ceac-f5c0-4e1a-952f-c3aee36a337c</stp>
+        <tr r="C3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -851,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O397"/>
+  <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="M398" sqref="A398:XFD398"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A400" sqref="A400:XFD400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18668,6 +18672,94 @@
         <v>7.2169999999999996</v>
       </c>
     </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A398" s="1">
+        <v>45964</v>
+      </c>
+      <c r="C398">
+        <v>9.9892000000000003</v>
+      </c>
+      <c r="D398">
+        <v>8.7331000000000003</v>
+      </c>
+      <c r="E398">
+        <v>8.2085000000000008</v>
+      </c>
+      <c r="F398">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G398">
+        <v>7.9372999999999996</v>
+      </c>
+      <c r="H398">
+        <v>7.81</v>
+      </c>
+      <c r="I398">
+        <v>7.7680999999999996</v>
+      </c>
+      <c r="J398">
+        <v>7.6132999999999997</v>
+      </c>
+      <c r="K398">
+        <v>7.4512999999999998</v>
+      </c>
+      <c r="L398">
+        <v>7.3226000000000004</v>
+      </c>
+      <c r="M398">
+        <v>7.2323000000000004</v>
+      </c>
+      <c r="N398">
+        <v>7.21</v>
+      </c>
+      <c r="O398">
+        <v>7.2328999999999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A399" s="1">
+        <v>45965</v>
+      </c>
+      <c r="C399">
+        <v>9.9443000000000001</v>
+      </c>
+      <c r="D399">
+        <v>8.7036999999999995</v>
+      </c>
+      <c r="E399">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F399">
+        <v>8.0747</v>
+      </c>
+      <c r="G399">
+        <v>7.96</v>
+      </c>
+      <c r="H399">
+        <v>7.8395000000000001</v>
+      </c>
+      <c r="I399">
+        <v>7.7919</v>
+      </c>
+      <c r="J399">
+        <v>7.63</v>
+      </c>
+      <c r="K399">
+        <v>7.48</v>
+      </c>
+      <c r="L399">
+        <v>7.3467000000000002</v>
+      </c>
+      <c r="M399">
+        <v>7.2549000000000001</v>
+      </c>
+      <c r="N399">
+        <v>7.24</v>
+      </c>
+      <c r="O399">
+        <v>7.2506000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18675,10 +18767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O397"/>
+  <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A398" sqref="A398:XFD398"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="C400" sqref="A400:XFD400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36492,6 +36584,94 @@
         <v>3951.0801510000001</v>
       </c>
     </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A398" s="1">
+        <v>45964</v>
+      </c>
+      <c r="C398">
+        <v>4492.4927989999996</v>
+      </c>
+      <c r="D398">
+        <v>4525.3593350000001</v>
+      </c>
+      <c r="E398">
+        <v>4387.8125399999999</v>
+      </c>
+      <c r="F398">
+        <v>4425.6877439999998</v>
+      </c>
+      <c r="G398">
+        <v>4296.3199500000001</v>
+      </c>
+      <c r="H398">
+        <v>4215.3510379999998</v>
+      </c>
+      <c r="I398">
+        <v>4260.4199310000004</v>
+      </c>
+      <c r="J398">
+        <v>4224.9304590000002</v>
+      </c>
+      <c r="K398">
+        <v>4064.237959</v>
+      </c>
+      <c r="L398">
+        <v>4101.091359</v>
+      </c>
+      <c r="M398">
+        <v>4011.6515020000002</v>
+      </c>
+      <c r="N398">
+        <v>4053.68235</v>
+      </c>
+      <c r="O398">
+        <v>3944.563627</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A399" s="1">
+        <v>45965</v>
+      </c>
+      <c r="C399">
+        <v>4495.8740010000001</v>
+      </c>
+      <c r="D399">
+        <v>4528.9023459999999</v>
+      </c>
+      <c r="E399">
+        <v>4389.3165310000004</v>
+      </c>
+      <c r="F399">
+        <v>4424.2015799999999</v>
+      </c>
+      <c r="G399">
+        <v>4294.1866849999997</v>
+      </c>
+      <c r="H399">
+        <v>4210.5392069999998</v>
+      </c>
+      <c r="I399">
+        <v>4256.4321840000002</v>
+      </c>
+      <c r="J399">
+        <v>4221.8436600000005</v>
+      </c>
+      <c r="K399">
+        <v>4055.3652900000002</v>
+      </c>
+      <c r="L399">
+        <v>4092.5495500000002</v>
+      </c>
+      <c r="M399">
+        <v>4002.7252239999998</v>
+      </c>
+      <c r="N399">
+        <v>4040.6986980000001</v>
+      </c>
+      <c r="O399">
+        <v>3937.1885940000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -36499,10 +36679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z397"/>
+  <dimension ref="A1:Z400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="D386" sqref="D386"/>
+    <sheetView topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="A400" sqref="A400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -54035,6 +54215,103 @@
         <v>0.10150000000000001</v>
       </c>
     </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A398" s="1">
+        <v>45964</v>
+      </c>
+      <c r="C398">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="D398">
+        <v>-2E-3</v>
+      </c>
+      <c r="E398">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="F398">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="G398">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="H398">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="I398">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="J398">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="K398">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="L398">
+        <v>0.1</v>
+      </c>
+      <c r="M398">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="N398">
+        <v>0.1013</v>
+      </c>
+      <c r="O398">
+        <v>0.1014</v>
+      </c>
+      <c r="P398">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A399" s="1">
+        <v>45965</v>
+      </c>
+      <c r="C399">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="D399">
+        <v>-2E-3</v>
+      </c>
+      <c r="E399">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="F399">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="G399">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="H399">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="I399">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="J399">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K399">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="L399">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="M399">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="N399">
+        <v>0.1017</v>
+      </c>
+      <c r="O399">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P399">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A400" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B68538-AFEE-48B4-AA5E-FB76922658F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661F7A75-B1FF-4E76-8072-37B326536483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="4968" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16764" yWindow="3096" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID12b627242883405eb25f0011569b6965" localSheetId="0" hidden="1">Plan1!$O$4:$O$413</definedName>
-    <definedName name="_ECO_RANGE_ID19219f72418745ad8b4d6d5298a5d3d7" localSheetId="2" hidden="1">Planilha2!$P$4:$P$413</definedName>
-    <definedName name="_ECO_RANGE_ID1ac0b207b09549979ca55d2378c6e5e5" localSheetId="0" hidden="1">Plan1!$M$4:$M$413</definedName>
-    <definedName name="_ECO_RANGE_ID28c5126c6e4c42b0846518d81c5ecbc4" localSheetId="1" hidden="1">Planilha1!$N$4:$N$413</definedName>
-    <definedName name="_ECO_RANGE_ID2e4941ac11a04e1dbb843112fa92f42a" localSheetId="2" hidden="1">Planilha2!$M$4:$M$413</definedName>
-    <definedName name="_ECO_RANGE_ID2fee673c5d544c34ae08cf80a202efd8" localSheetId="1" hidden="1">Planilha1!$J$4:$J$413</definedName>
-    <definedName name="_ECO_RANGE_ID31e58f5855d3443e87b62fb3cc7832ff" localSheetId="2" hidden="1">Planilha2!$J$4:$J$413</definedName>
-    <definedName name="_ECO_RANGE_ID340de701d6a84ed99d851d55612158b1" localSheetId="1" hidden="1">Planilha1!$G$4:$G$413</definedName>
-    <definedName name="_ECO_RANGE_ID39ab45b65b3249cabaafbd0af2534f7a" localSheetId="2" hidden="1">Planilha2!$H$4:$H$413</definedName>
-    <definedName name="_ECO_RANGE_ID3a68a00fa2ba4b048bd296a1c8192627" localSheetId="2" hidden="1">Planilha2!$K$4:$K$413</definedName>
-    <definedName name="_ECO_RANGE_ID40237bebed254998bcf38d17fb5bb50e" localSheetId="1" hidden="1">Planilha1!$L$4:$L$413</definedName>
-    <definedName name="_ECO_RANGE_ID490dfbcba112409db740b949a61e76b9" localSheetId="2" hidden="1">Planilha2!$O$4:$O$413</definedName>
-    <definedName name="_ECO_RANGE_ID4f09bcd4479140aa98889fa93c77b333" localSheetId="0" hidden="1">Plan1!$K$4:$K$413</definedName>
-    <definedName name="_ECO_RANGE_ID50a74518d702405bb1f9b34fb85efc35" localSheetId="0" hidden="1">Plan1!$L$4:$L$413</definedName>
-    <definedName name="_ECO_RANGE_ID54938c55674140c8b8d1d539aa1ba0db" localSheetId="0" hidden="1">Plan1!$D$4:$D$413</definedName>
-    <definedName name="_ECO_RANGE_ID5629c0d8f8774013beee68f9bb6119ce" localSheetId="1" hidden="1">Planilha1!$C$4:$C$413</definedName>
-    <definedName name="_ECO_RANGE_ID57b16828643e4ee9a90949f85d32e3fb" localSheetId="1" hidden="1">Planilha1!$E$4:$E$413</definedName>
-    <definedName name="_ECO_RANGE_ID5af2c2fa15da4b5eb9c783f7d8a102c9" localSheetId="1" hidden="1">Planilha1!$M$4:$M$413</definedName>
-    <definedName name="_ECO_RANGE_ID63750dc37352447688ed1ce843833105" localSheetId="2" hidden="1">Planilha2!$F$4:$F$413</definedName>
-    <definedName name="_ECO_RANGE_ID735379963dd143caa6a0e272ee89dc00" localSheetId="1" hidden="1">Planilha1!$H$4:$H$413</definedName>
-    <definedName name="_ECO_RANGE_ID7e6eaa0fedcb428d9277b63ea4a272b9" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID7fb942c5d135459d815a024678547ee6" localSheetId="0" hidden="1">Plan1!$I$4:$I$413</definedName>
-    <definedName name="_ECO_RANGE_ID856825ec615f4fe79ec7bf3f29e1e720" localSheetId="1" hidden="1">Planilha1!$F$4:$F$413</definedName>
-    <definedName name="_ECO_RANGE_ID858d380364354bfb9a9ec6c02ce4253e" localSheetId="1" hidden="1">Planilha1!$I$4:$I$413</definedName>
-    <definedName name="_ECO_RANGE_ID8b19ec17b706429984fd1999f748290a" localSheetId="1" hidden="1">Planilha1!$D$4:$D$413</definedName>
-    <definedName name="_ECO_RANGE_ID8cced50bfdd24f3c904a08c655d60fe6" localSheetId="0" hidden="1">Plan1!$E$4:$E$413</definedName>
-    <definedName name="_ECO_RANGE_ID92177aba82464df08b2bfe866b3f0060" localSheetId="0" hidden="1">Plan1!$F$4:$F$413</definedName>
-    <definedName name="_ECO_RANGE_ID9a0e144eb12446c488a2220d805934cf" localSheetId="0" hidden="1">Plan1!$C$4:$C$413</definedName>
-    <definedName name="_ECO_RANGE_ID9b5e6a6a9d67460f94e7a0ca7235e136" localSheetId="1" hidden="1">Planilha1!$O$4:$O$413</definedName>
-    <definedName name="_ECO_RANGE_ID9b6a82be2e6b4267ac9a56cd8223d818" localSheetId="2" hidden="1">Planilha2!$C$4:$C$413</definedName>
-    <definedName name="_ECO_RANGE_ID9df20e814b2c49f4ae742b015fed5604" localSheetId="2" hidden="1">Planilha2!$N$4:$N$413</definedName>
-    <definedName name="_ECO_RANGE_IDa4e20b3d62d04de7964a41f0c379ee9a" localSheetId="0" hidden="1">Plan1!$J$4:$J$413</definedName>
-    <definedName name="_ECO_RANGE_IDab73a5c15478463496ae5a155b7e391f" localSheetId="2" hidden="1">Planilha2!$L$4:$L$413</definedName>
-    <definedName name="_ECO_RANGE_IDab8bff4dfbe74fd1a03ed6d5f4f6918a" localSheetId="0" hidden="1">Plan1!$H$4:$H$413</definedName>
-    <definedName name="_ECO_RANGE_IDc26deef7cdb24f5da76d96f762705e6c" localSheetId="1" hidden="1">Planilha1!$K$4:$K$413</definedName>
-    <definedName name="_ECO_RANGE_IDc2967813e24c403988d7c7ac46801223" localSheetId="2" hidden="1">Planilha2!$E$4:$E$413</definedName>
-    <definedName name="_ECO_RANGE_IDc7f6f95f964f49e8816e0ea36d1b46db" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDc98585b017fe49ba88082345d3f46f6f" localSheetId="0" hidden="1">Plan1!$G$4:$G$413</definedName>
-    <definedName name="_ECO_RANGE_IDd01fce66d0f84c8594524ec9de0ab275" localSheetId="2" hidden="1">Planilha2!$G$4:$G$413</definedName>
-    <definedName name="_ECO_RANGE_IDd8ff894cdf0342a68fbc81210689decf" localSheetId="1" hidden="1">Planilha1!$A$4:$B$413</definedName>
-    <definedName name="_ECO_RANGE_IDdac891c544584284816f71fedbb887e6" localSheetId="2" hidden="1">Planilha2!$A$4:$B$413</definedName>
-    <definedName name="_ECO_RANGE_IDdef1c8cc5c9148f89b3bb9ac289e023e" localSheetId="0" hidden="1">Plan1!$N$4:$N$413</definedName>
-    <definedName name="_ECO_RANGE_IDe4f5c5ea02b546a582a0aae2a71adfb8" localSheetId="2" hidden="1">Planilha2!$I$4:$I$413</definedName>
-    <definedName name="_ECO_RANGE_IDea78dd11ce2547d38444f3db80459035" localSheetId="0" hidden="1">Plan1!$A$4:$B$413</definedName>
-    <definedName name="_ECO_RANGE_IDed19801c0264446dbea98b9a6fe5f2f0" localSheetId="2" hidden="1">Planilha2!$D$4:$D$413</definedName>
-    <definedName name="_ECO_RANGE_IDfb50c147fd784c41b3e701191cd120bd" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID02532323a7fe449b82f9a863873ef59f" localSheetId="2" hidden="1">Planilha2!$J$4:$J$422</definedName>
+    <definedName name="_ECO_RANGE_ID05f1472c681c4b1e8bf058abf0e3a90d" localSheetId="2" hidden="1">Planilha2!$E$4:$E$422</definedName>
+    <definedName name="_ECO_RANGE_ID081f31b506cf4dabb73d843f9e92a35a" localSheetId="0" hidden="1">Plan1!$G$4:$G$422</definedName>
+    <definedName name="_ECO_RANGE_ID1293d1e6a90e4436b832084858c9bc33" localSheetId="1" hidden="1">Planilha1!$M$4:$M$422</definedName>
+    <definedName name="_ECO_RANGE_ID152f1939f98b4035be629d9b45932c2d" localSheetId="2" hidden="1">Planilha2!$O$4:$O$422</definedName>
+    <definedName name="_ECO_RANGE_ID15fdb96769954bcea00b56376b25b514" localSheetId="0" hidden="1">Plan1!$K$4:$K$422</definedName>
+    <definedName name="_ECO_RANGE_ID219fc2d7333f433199b28ae3530d54ea" localSheetId="0" hidden="1">Plan1!$A$4:$B$422</definedName>
+    <definedName name="_ECO_RANGE_ID24a4e41f0ebd49cbb791743c8e4bee87" localSheetId="0" hidden="1">Plan1!$C$4:$C$422</definedName>
+    <definedName name="_ECO_RANGE_ID28aa488e4c4840da82d1705db011cb31" localSheetId="1" hidden="1">Planilha1!$D$4:$D$422</definedName>
+    <definedName name="_ECO_RANGE_ID2e0a9cd8ab244b1283e95911ff806cd7" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID2e2ae3342c8a46c49c18740b248e4011" localSheetId="0" hidden="1">Plan1!$J$4:$J$422</definedName>
+    <definedName name="_ECO_RANGE_ID2e2c4936fc7e423c9565e31b1650905d" localSheetId="2" hidden="1">Planilha2!$N$4:$N$422</definedName>
+    <definedName name="_ECO_RANGE_ID2e7b851d759248c9b47512541de88e57" localSheetId="2" hidden="1">Planilha2!$M$4:$M$422</definedName>
+    <definedName name="_ECO_RANGE_ID2fa9a138981f4cbeac5e31c807ebeb48" localSheetId="0" hidden="1">Plan1!$O$4:$O$422</definedName>
+    <definedName name="_ECO_RANGE_ID31693bddcd614844baf863998cd50d40" localSheetId="2" hidden="1">Planilha2!$C$4:$C$422</definedName>
+    <definedName name="_ECO_RANGE_ID31aeedce096a4790b966493a3cc8dd2b" localSheetId="1" hidden="1">Planilha1!$H$4:$H$422</definedName>
+    <definedName name="_ECO_RANGE_ID33378aa949df4baa9e338e30cfaa5be2" localSheetId="2" hidden="1">Planilha2!$D$4:$D$422</definedName>
+    <definedName name="_ECO_RANGE_ID3f95e1b9e827409e8c438dbad301cbda" localSheetId="0" hidden="1">Plan1!$N$4:$N$422</definedName>
+    <definedName name="_ECO_RANGE_ID4343dfae72f440caaa1f06c6395dbe29" localSheetId="1" hidden="1">Planilha1!$I$4:$I$422</definedName>
+    <definedName name="_ECO_RANGE_ID44280c5cff914b7db5fe2ae617da79d7" localSheetId="1" hidden="1">Planilha1!$L$4:$L$422</definedName>
+    <definedName name="_ECO_RANGE_ID5388fff34fed49d1a8d7c942b6c45fa7" localSheetId="1" hidden="1">Planilha1!$O$4:$O$422</definedName>
+    <definedName name="_ECO_RANGE_ID576a8c261364400fbe6c162cb5387801" localSheetId="2" hidden="1">Planilha2!$F$4:$F$422</definedName>
+    <definedName name="_ECO_RANGE_ID686ebebd1a5843b4a6109f976d5b4c9a" localSheetId="2" hidden="1">Planilha2!$A$4:$B$422</definedName>
+    <definedName name="_ECO_RANGE_ID6dcf324b06cb425f9c29558b4efc478e" localSheetId="0" hidden="1">Plan1!$I$4:$I$422</definedName>
+    <definedName name="_ECO_RANGE_ID792ad18a17a94f5d999954b01dca5fc5" localSheetId="2" hidden="1">Planilha2!$G$4:$G$422</definedName>
+    <definedName name="_ECO_RANGE_ID7dd65e04691a46ec8dc6d6a6d55c2fa9" localSheetId="1" hidden="1">Planilha1!$F$4:$F$422</definedName>
+    <definedName name="_ECO_RANGE_ID7fe7e6af5bc14584af7dc076728df095" localSheetId="2" hidden="1">Planilha2!$P$4:$P$422</definedName>
+    <definedName name="_ECO_RANGE_ID8d44ad324e7c4c1f9e7a39d5e6ff65ed" localSheetId="1" hidden="1">Planilha1!$K$4:$K$422</definedName>
+    <definedName name="_ECO_RANGE_ID90e0e52802cd49289ba3032c11c5a36f" localSheetId="1" hidden="1">Planilha1!$C$4:$C$422</definedName>
+    <definedName name="_ECO_RANGE_ID91b1acc6407042d8898718c6ab4cc637" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID92b7d85f748c4720aeb33b7ea180c6b2" localSheetId="1" hidden="1">Planilha1!$J$4:$J$422</definedName>
+    <definedName name="_ECO_RANGE_ID9387313db27547dab497af0edd759c55" localSheetId="0" hidden="1">Plan1!$L$4:$L$422</definedName>
+    <definedName name="_ECO_RANGE_ID968886fa20374d7299fe5487d035522a" localSheetId="0" hidden="1">Plan1!$M$4:$M$422</definedName>
+    <definedName name="_ECO_RANGE_ID99e0a06905154b60a49ecac6818aa3b0" localSheetId="2" hidden="1">Planilha2!$H$4:$H$422</definedName>
+    <definedName name="_ECO_RANGE_ID9e0166fc96d94e1399a1838664533708" localSheetId="0" hidden="1">Plan1!$D$4:$D$422</definedName>
+    <definedName name="_ECO_RANGE_ID9e2398febac3412eb7525925a469b880" localSheetId="1" hidden="1">Planilha1!$A$4:$B$422</definedName>
+    <definedName name="_ECO_RANGE_IDa712dc2e288d4e168d7f106c743c5e8f" localSheetId="2" hidden="1">Planilha2!$K$4:$K$422</definedName>
+    <definedName name="_ECO_RANGE_IDaccbeed755b64b63b9929a71bef1bded" localSheetId="1" hidden="1">Planilha1!$E$4:$E$422</definedName>
+    <definedName name="_ECO_RANGE_IDb201dc44b8ba4e37b0836e337866f866" localSheetId="1" hidden="1">Planilha1!$G$4:$G$422</definedName>
+    <definedName name="_ECO_RANGE_IDb38f5f95dab24ff9a394f3de8c4bbe66" localSheetId="2" hidden="1">Planilha2!$L$4:$L$422</definedName>
+    <definedName name="_ECO_RANGE_IDb860293cf7524d7abac32bf6d4fd6f71" localSheetId="0" hidden="1">Plan1!$E$4:$E$422</definedName>
+    <definedName name="_ECO_RANGE_IDbd5fdca1800548bfa76125336304db1d" localSheetId="0" hidden="1">Plan1!$F$4:$F$422</definedName>
+    <definedName name="_ECO_RANGE_IDc894ce6aee2c4d399b1d934e63f8f9c2" localSheetId="0" hidden="1">Plan1!$H$4:$H$422</definedName>
+    <definedName name="_ECO_RANGE_IDd0be9d35b2764fa8816fc905acc74c02" localSheetId="2" hidden="1">Planilha2!$I$4:$I$422</definedName>
+    <definedName name="_ECO_RANGE_IDee231b4c48554a77aa65a39fcbe03f53" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDfbba93657fc243609a8b0bc5eaa40f8e" localSheetId="1" hidden="1">Planilha1!$N$4:$N$422</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,304 +286,298 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>67ec77a0-1db4-4980-be67-c1c32764bc5b</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>00919c88-bd1e-46c2-b25d-c3a87ae024a5</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>86c0975c-e40b-401c-891d-90cb0df863d9</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e117cbf6-7502-411e-92c7-5a06a47d4a27</stp>
-        <tr r="I3" s="3"/>
+        <stp>63211564-8c7b-446b-9acb-10f79240045e</stp>
+        <tr r="F3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>8e6b8a34-ce19-4051-8cfc-8fc416f0c6a0</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9d8e7e09-dcd0-4a77-8ca8-7cef309fc7f4</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2feb9ae5-14a1-475e-b9a5-5a349277a4dd</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1740b7fe-b1e8-47c1-a5ba-22756eca0313</stp>
-        <tr r="K3" s="3"/>
+        <stp>c442e8a3-4774-4ac6-82c9-3c77123cb500</stp>
+        <tr r="O3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ddbd62ce-ceeb-408b-9c90-892ab58378df</stp>
+        <stp>c0b10c92-9cb9-44a5-b4cd-44ceeae75ca7</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4c864689-dc06-4d1c-892f-3e7e8757489f</stp>
         <tr r="G3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>3b92d570-d4f2-42f8-9124-5dbee04267ab</stp>
-        <tr r="A3" s="2"/>
+        <stp>0034d6a2-372f-495e-885a-29e29483ecab</stp>
+        <tr r="A3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>1887d26a-65a1-4a16-ac19-658bae67a1a3</stp>
-        <tr r="C3" s="1"/>
+        <stp>5735dedd-e762-4d8a-8974-e975bd0af768</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c1f688e2-8031-4181-b124-d9149655a1e0</stp>
+        <tr r="C3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>767e94cb-10d3-4c17-a78d-6414cb4d819b</stp>
-        <tr r="L3" s="3"/>
+        <stp>6b689984-3549-481d-810c-604acf7c2f65</stp>
+        <tr r="N3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>8b1fe99b-9880-486e-b2a5-a8fc0cd4fe85</stp>
-        <tr r="M3" s="3"/>
+        <stp>04c321ea-17e9-48c7-8c9c-31f600b1b68d</stp>
+        <tr r="A3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>8e5900a3-6ee4-4ffe-9770-4864b3e56b4c</stp>
-        <tr r="D3" s="1"/>
+        <stp>287d1eaa-3b77-4765-ab27-681359261f15</stp>
+        <tr r="L3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b8781b57-bd77-487f-aeb8-6bcf626ab548</stp>
+        <stp>da1e48eb-9871-4f8e-a32e-1c47dc773868</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6874db2d-7152-462f-988e-e30bd89ec704</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0298766e-0b0b-4921-b6f3-4dcd11d0d901</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d0beec62-3a5c-4adf-94c3-0fbb5658e5b8</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>96f8c31a-c138-4a74-9d50-64772f0305fc</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>416cceb4-739e-4706-8da3-b19a8c3c6fa5</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c33011ea-fe87-442d-8207-7194bc00ba89</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3d5e4c8e-6f01-4622-ad08-7dbce1ba0e80</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b4e23665-44d4-41d2-9f25-247f67cfe0cd</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a19105c1-31a0-4a54-9e37-8b5051e09fbb</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4f70ca28-ccb9-4330-b76e-fb5312a2b471</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a65679a4-1f70-4b19-bacf-d8ae09b4cc8d</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a437ec83-62b2-4b78-931b-01dbaed7ed45</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b32cef18-bdbd-4ff7-b88e-17fdff3d23b5</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4963bccf-f68f-42d4-9e00-5b8e3176b1b6</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>86c02d03-ea46-483e-9593-f0c1cebb1ef4</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3ccd93cf-65b8-4efe-a3fc-f0321644e842</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>67bada1b-71c1-40fc-9007-5ab0b829e629</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5d69ce2a-c313-4119-8210-f55b4347a118</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1d21a43d-dd6b-45eb-977f-4f4c588e0b38</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2536b844-43bd-4cdf-a3fc-b647773c5e39</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f2ba516b-70ef-4564-962d-573899e48bb5</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b35cb2f2-87ee-4cfa-8911-a5c8b028a28b</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dccf0a46-870a-42f6-8a57-51f627571af2</stp>
         <tr r="N3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>fc548075-3065-4b86-a997-feadcbeea13a</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9921fec6-a0ba-45bf-b06e-255ab5a07362</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f65749f5-9191-41b5-8d91-9ffafa698be6</stp>
-        <tr r="J3" s="3"/>
+        <stp>9ec5026e-87ce-495c-a10b-90c874af7fb4</stp>
+        <tr r="L3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6d4ad912-2e54-4256-82e8-dd336a120e16</stp>
-        <tr r="H3" s="1"/>
+        <stp>76b9317b-6ae0-497b-bb9b-04acea572aff</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>85c5fbed-ff58-4c74-9f7c-0603fe973017</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>41cbfddc-3f2c-4697-9a12-c6df0149948a</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e7177eb7-a3ee-42f1-8160-f55133ae7faa</stp>
+        <tr r="O3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>e8735c8e-e24c-4c75-b8cf-d500f3c5a2c8</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3c1e3cca-6f95-41c3-9622-072d8efbc881</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>83bdb6a4-be08-4704-a223-a29397a619fc</stp>
+        <stp>8fdf5189-d51c-4631-a2a3-c3fa63da1748</stp>
         <tr r="P3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>f25e8e0e-5b97-473a-a0e9-7fca5d49d9a1</stp>
-        <tr r="E3" s="3"/>
+        <stp>56adb5fc-f463-47ac-a11f-5dbf52ee6429</stp>
+        <tr r="M3" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>23a5e531-36d2-4538-b4e3-5db9e74b4fe5</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3478e2ce-beaa-42b3-a281-ce761899801b</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>59ae6581-6b86-4f66-97af-6f96f845f012</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a9948b1a-8546-4ae0-98c0-3159382a6807</stp>
+        <stp>1a9427a5-5eb0-4210-80d4-a30e0b16419f</stp>
         <tr r="I3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6dd091f9-fdd3-4854-8265-2bc826b1acad</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>056e063b-cb5b-47cb-81a9-bde9c6d806b5</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4dea30f9-7ab1-4607-a231-9625608b7fd6</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>00e51e4c-3cb9-4593-b219-c58baf20a04d</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>eb89b33c-bded-4682-9f40-b0298fc84f04</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0dc10a12-e68d-4aba-b341-abf52825ce03</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5fee6c0b-7bb8-493f-a23d-bc74b91c86e5</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>03fae9b1-738d-4e58-981e-29a86da37b82</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>25bb3695-e6f3-4d47-914d-3e64102e296b</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>738e7339-553b-4412-a012-f93e73ff65da</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>dfc9117f-f727-41f4-9d1a-357929f47156</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0b733976-bb25-469c-b8f0-3076f07da328</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6442584a-dd03-484d-a4ce-97b5567a4b79</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_dd654ba30bc747959989d73e4ac03e8c">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>13ce4c84-14c9-4bf4-82cf-e53de725b9de</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>36f02cea-e352-4ce0-aaef-e91645ad7df9</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e8a77077-bec0-4a35-a24c-2abc2bc6ee77</stp>
-        <tr r="L3" s="1"/>
+        <stp>9c74b0d8-7c54-4cf5-85f5-7fb0631445cd</stp>
+        <tr r="K3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -853,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O413"/>
+  <dimension ref="A1:O422"/>
   <sheetViews>
-    <sheetView topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410"/>
+    <sheetView topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19335,6 +19329,361 @@
         <v>7.04</v>
       </c>
     </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C414">
+        <v>10.0779</v>
+      </c>
+      <c r="D414">
+        <v>8.5236000000000001</v>
+      </c>
+      <c r="E414">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="F414">
+        <v>7.8457999999999997</v>
+      </c>
+      <c r="G414">
+        <v>7.7057000000000002</v>
+      </c>
+      <c r="H414">
+        <v>7.5651000000000002</v>
+      </c>
+      <c r="I414">
+        <v>7.5114999999999998</v>
+      </c>
+      <c r="J414">
+        <v>7.3129</v>
+      </c>
+      <c r="K414">
+        <v>7.1447000000000003</v>
+      </c>
+      <c r="L414">
+        <v>7.0877999999999997</v>
+      </c>
+      <c r="M414">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="N414">
+        <v>7.0122999999999998</v>
+      </c>
+      <c r="O414">
+        <v>6.9930000000000003</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C415">
+        <v>10.0314</v>
+      </c>
+      <c r="D415">
+        <v>8.4957999999999991</v>
+      </c>
+      <c r="E415">
+        <v>8.0091000000000001</v>
+      </c>
+      <c r="F415">
+        <v>7.8197999999999999</v>
+      </c>
+      <c r="G415">
+        <v>7.6620999999999997</v>
+      </c>
+      <c r="H415">
+        <v>7.53</v>
+      </c>
+      <c r="I415">
+        <v>7.4709000000000003</v>
+      </c>
+      <c r="J415">
+        <v>7.29</v>
+      </c>
+      <c r="K415">
+        <v>7.1125999999999996</v>
+      </c>
+      <c r="L415">
+        <v>7.0656999999999996</v>
+      </c>
+      <c r="M415">
+        <v>6.9866999999999999</v>
+      </c>
+      <c r="N415">
+        <v>7</v>
+      </c>
+      <c r="O415">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C416">
+        <v>10.042</v>
+      </c>
+      <c r="D416">
+        <v>8.52</v>
+      </c>
+      <c r="E416">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="F416">
+        <v>7.8197999999999999</v>
+      </c>
+      <c r="G416">
+        <v>7.6604999999999999</v>
+      </c>
+      <c r="H416">
+        <v>7.5182000000000002</v>
+      </c>
+      <c r="I416">
+        <v>7.476</v>
+      </c>
+      <c r="J416">
+        <v>7.2927999999999997</v>
+      </c>
+      <c r="K416">
+        <v>7.0993000000000004</v>
+      </c>
+      <c r="L416">
+        <v>7.0696000000000003</v>
+      </c>
+      <c r="M416">
+        <v>6.9936999999999996</v>
+      </c>
+      <c r="N416">
+        <v>7.0110000000000001</v>
+      </c>
+      <c r="O416">
+        <v>6.9843000000000002</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C417">
+        <v>10.0588</v>
+      </c>
+      <c r="D417">
+        <v>8.5703999999999994</v>
+      </c>
+      <c r="E417">
+        <v>8.0623000000000005</v>
+      </c>
+      <c r="F417">
+        <v>7.84</v>
+      </c>
+      <c r="G417">
+        <v>7.6768999999999998</v>
+      </c>
+      <c r="H417">
+        <v>7.5347999999999997</v>
+      </c>
+      <c r="I417">
+        <v>7.5030000000000001</v>
+      </c>
+      <c r="J417">
+        <v>7.3117999999999999</v>
+      </c>
+      <c r="K417">
+        <v>7.11</v>
+      </c>
+      <c r="L417">
+        <v>7.08</v>
+      </c>
+      <c r="M417">
+        <v>7.0209000000000001</v>
+      </c>
+      <c r="N417">
+        <v>7.03</v>
+      </c>
+      <c r="O417">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C418">
+        <v>10.09</v>
+      </c>
+      <c r="D418">
+        <v>8.6259999999999994</v>
+      </c>
+      <c r="E418">
+        <v>8.1006999999999998</v>
+      </c>
+      <c r="F418">
+        <v>7.8754999999999997</v>
+      </c>
+      <c r="G418">
+        <v>7.7169999999999996</v>
+      </c>
+      <c r="H418">
+        <v>7.5640000000000001</v>
+      </c>
+      <c r="I418">
+        <v>7.5395000000000003</v>
+      </c>
+      <c r="J418">
+        <v>7.3310000000000004</v>
+      </c>
+      <c r="K418">
+        <v>7.1233000000000004</v>
+      </c>
+      <c r="L418">
+        <v>7.0975000000000001</v>
+      </c>
+      <c r="M418">
+        <v>7.0416999999999996</v>
+      </c>
+      <c r="N418">
+        <v>7.0492999999999997</v>
+      </c>
+      <c r="O418">
+        <v>7.0259</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C419">
+        <v>10.036199999999999</v>
+      </c>
+      <c r="D419">
+        <v>8.5593000000000004</v>
+      </c>
+      <c r="E419">
+        <v>8.02</v>
+      </c>
+      <c r="F419">
+        <v>7.8067000000000002</v>
+      </c>
+      <c r="G419">
+        <v>7.6429999999999998</v>
+      </c>
+      <c r="H419">
+        <v>7.4958999999999998</v>
+      </c>
+      <c r="I419">
+        <v>7.4729999999999999</v>
+      </c>
+      <c r="J419">
+        <v>7.27</v>
+      </c>
+      <c r="K419">
+        <v>7.0568999999999997</v>
+      </c>
+      <c r="L419">
+        <v>7.0396000000000001</v>
+      </c>
+      <c r="M419">
+        <v>6.9851000000000001</v>
+      </c>
+      <c r="N419">
+        <v>6.9909999999999997</v>
+      </c>
+      <c r="O419">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C420">
+        <v>9.9762000000000004</v>
+      </c>
+      <c r="D420">
+        <v>8.5183</v>
+      </c>
+      <c r="E420">
+        <v>7.9812000000000003</v>
+      </c>
+      <c r="F420">
+        <v>7.7571000000000003</v>
+      </c>
+      <c r="G420">
+        <v>7.5853999999999999</v>
+      </c>
+      <c r="H420">
+        <v>7.4320000000000004</v>
+      </c>
+      <c r="I420">
+        <v>7.4177999999999997</v>
+      </c>
+      <c r="J420">
+        <v>7.2206000000000001</v>
+      </c>
+      <c r="K420">
+        <v>7.0198</v>
+      </c>
+      <c r="L420">
+        <v>6.9978999999999996</v>
+      </c>
+      <c r="M420">
+        <v>6.9530000000000003</v>
+      </c>
+      <c r="N420">
+        <v>6.9562999999999997</v>
+      </c>
+      <c r="O420">
+        <v>6.9398</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C421">
+        <v>10.015700000000001</v>
+      </c>
+      <c r="D421">
+        <v>8.5129999999999999</v>
+      </c>
+      <c r="E421">
+        <v>7.9802999999999997</v>
+      </c>
+      <c r="F421">
+        <v>7.7293000000000003</v>
+      </c>
+      <c r="G421">
+        <v>7.5576999999999996</v>
+      </c>
+      <c r="H421">
+        <v>7.4046000000000003</v>
+      </c>
+      <c r="I421">
+        <v>7.3832000000000004</v>
+      </c>
+      <c r="J421">
+        <v>7.1826999999999996</v>
+      </c>
+      <c r="K421">
+        <v>6.9798</v>
+      </c>
+      <c r="L421">
+        <v>6.9626000000000001</v>
+      </c>
+      <c r="M421">
+        <v>6.9218000000000002</v>
+      </c>
+      <c r="N421">
+        <v>6.9192999999999998</v>
+      </c>
+      <c r="O421">
+        <v>6.9076000000000004</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A422" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19342,10 +19691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O413"/>
+  <dimension ref="A1:O422"/>
   <sheetViews>
-    <sheetView topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410"/>
+    <sheetView topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37824,6 +38173,361 @@
         <v>4059.363981</v>
       </c>
     </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C414">
+        <v>4518.4261729999998</v>
+      </c>
+      <c r="D414">
+        <v>4427.8092429999997</v>
+      </c>
+      <c r="E414">
+        <v>4429.5301069999996</v>
+      </c>
+      <c r="F414">
+        <v>4339.5887409999996</v>
+      </c>
+      <c r="G414">
+        <v>4356.5554510000002</v>
+      </c>
+      <c r="H414">
+        <v>4289.9210590000002</v>
+      </c>
+      <c r="I414">
+        <v>4207.0274740000004</v>
+      </c>
+      <c r="J414">
+        <v>4194.6071300000003</v>
+      </c>
+      <c r="K414">
+        <v>4196.5197079999998</v>
+      </c>
+      <c r="L414">
+        <v>4084.8689859999999</v>
+      </c>
+      <c r="M414">
+        <v>4137.4260759999997</v>
+      </c>
+      <c r="N414">
+        <v>4034.9685089999998</v>
+      </c>
+      <c r="O414">
+        <v>4085.3026260000001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C415">
+        <v>4522.031215</v>
+      </c>
+      <c r="D415">
+        <v>4431.3759360000004</v>
+      </c>
+      <c r="E415">
+        <v>4433.5580900000004</v>
+      </c>
+      <c r="F415">
+        <v>4344.7014909999998</v>
+      </c>
+      <c r="G415">
+        <v>4365.5323920000001</v>
+      </c>
+      <c r="H415">
+        <v>4299.3281999999999</v>
+      </c>
+      <c r="I415">
+        <v>4218.3282689999996</v>
+      </c>
+      <c r="J415">
+        <v>4202.7473209999998</v>
+      </c>
+      <c r="K415">
+        <v>4210.1748639999996</v>
+      </c>
+      <c r="L415">
+        <v>4095.967838</v>
+      </c>
+      <c r="M415">
+        <v>4147.2849900000001</v>
+      </c>
+      <c r="N415">
+        <v>4042.7013569999999</v>
+      </c>
+      <c r="O415">
+        <v>4093.6761200000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C416">
+        <v>4523.494479</v>
+      </c>
+      <c r="D416">
+        <v>4431.4732350000004</v>
+      </c>
+      <c r="E416">
+        <v>4432.8291060000001</v>
+      </c>
+      <c r="F416">
+        <v>4346.044175</v>
+      </c>
+      <c r="G416">
+        <v>4367.1218200000003</v>
+      </c>
+      <c r="H416">
+        <v>4303.1858410000004</v>
+      </c>
+      <c r="I416">
+        <v>4218.3730869999999</v>
+      </c>
+      <c r="J416">
+        <v>4203.1754529999998</v>
+      </c>
+      <c r="K416">
+        <v>4216.350692</v>
+      </c>
+      <c r="L416">
+        <v>4095.4452679999999</v>
+      </c>
+      <c r="M416">
+        <v>4145.1012229999997</v>
+      </c>
+      <c r="N416">
+        <v>4038.3206049999999</v>
+      </c>
+      <c r="O416">
+        <v>4092.569176</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C417">
+        <v>4525.2074919999995</v>
+      </c>
+      <c r="D417">
+        <v>4430.5010670000001</v>
+      </c>
+      <c r="E417">
+        <v>4431.3731159999998</v>
+      </c>
+      <c r="F417">
+        <v>4345.2547830000003</v>
+      </c>
+      <c r="G417">
+        <v>4366.1657130000003</v>
+      </c>
+      <c r="H417">
+        <v>4301.2596469999999</v>
+      </c>
+      <c r="I417">
+        <v>4213.6528930000004</v>
+      </c>
+      <c r="J417">
+        <v>4199.4352870000002</v>
+      </c>
+      <c r="K417">
+        <v>4213.9314009999998</v>
+      </c>
+      <c r="L417">
+        <v>4092.5156000000002</v>
+      </c>
+      <c r="M417">
+        <v>4133.7119590000002</v>
+      </c>
+      <c r="N417">
+        <v>4030.3443910000001</v>
+      </c>
+      <c r="O417">
+        <v>4080.7223840000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C418">
+        <v>4526.5235570000004</v>
+      </c>
+      <c r="D418">
+        <v>4429.2501080000002</v>
+      </c>
+      <c r="E418">
+        <v>4429.3049019999999</v>
+      </c>
+      <c r="F418">
+        <v>4342.5473789999996</v>
+      </c>
+      <c r="G418">
+        <v>4361.3326660000002</v>
+      </c>
+      <c r="H418">
+        <v>4296.597855</v>
+      </c>
+      <c r="I418">
+        <v>4206.7170610000003</v>
+      </c>
+      <c r="J418">
+        <v>4195.6531930000001</v>
+      </c>
+      <c r="K418">
+        <v>4210.5480900000002</v>
+      </c>
+      <c r="L418">
+        <v>4086.5487579999999</v>
+      </c>
+      <c r="M418">
+        <v>4125.4115629999997</v>
+      </c>
+      <c r="N418">
+        <v>4022.2568670000001</v>
+      </c>
+      <c r="O418">
+        <v>4074.0100130000001</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C419">
+        <v>4530.2419140000002</v>
+      </c>
+      <c r="D419">
+        <v>4434.9538689999999</v>
+      </c>
+      <c r="E419">
+        <v>4439.3241680000001</v>
+      </c>
+      <c r="F419">
+        <v>4352.9639539999998</v>
+      </c>
+      <c r="G419">
+        <v>4375.2127490000003</v>
+      </c>
+      <c r="H419">
+        <v>4313.1289299999999</v>
+      </c>
+      <c r="I419">
+        <v>4224.0332829999998</v>
+      </c>
+      <c r="J419">
+        <v>4214.4615519999998</v>
+      </c>
+      <c r="K419">
+        <v>4237.0665470000004</v>
+      </c>
+      <c r="L419">
+        <v>4113.0039409999999</v>
+      </c>
+      <c r="M419">
+        <v>4153.848199</v>
+      </c>
+      <c r="N419">
+        <v>4052.879222</v>
+      </c>
+      <c r="O419">
+        <v>4104.6286769999997</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C420">
+        <v>4534.1208550000001</v>
+      </c>
+      <c r="D420">
+        <v>4439.1927269999996</v>
+      </c>
+      <c r="E420">
+        <v>4445.0889129999996</v>
+      </c>
+      <c r="F420">
+        <v>4360.9712200000004</v>
+      </c>
+      <c r="G420">
+        <v>4386.4239239999997</v>
+      </c>
+      <c r="H420">
+        <v>4328.7956770000001</v>
+      </c>
+      <c r="I420">
+        <v>4238.7406940000001</v>
+      </c>
+      <c r="J420">
+        <v>4230.0676839999996</v>
+      </c>
+      <c r="K420">
+        <v>4252.675056</v>
+      </c>
+      <c r="L420">
+        <v>4132.6276269999998</v>
+      </c>
+      <c r="M420">
+        <v>4170.7769959999996</v>
+      </c>
+      <c r="N420">
+        <v>4071.889154</v>
+      </c>
+      <c r="O420">
+        <v>4122.0272809999997</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C421">
+        <v>4535.2051730000003</v>
+      </c>
+      <c r="D421">
+        <v>4441.3998339999998</v>
+      </c>
+      <c r="E421">
+        <v>4446.9997439999997</v>
+      </c>
+      <c r="F421">
+        <v>4366.2258419999998</v>
+      </c>
+      <c r="G421">
+        <v>4392.7226419999997</v>
+      </c>
+      <c r="H421">
+        <v>4336.4905959999996</v>
+      </c>
+      <c r="I421">
+        <v>4248.595765</v>
+      </c>
+      <c r="J421">
+        <v>4242.4568749999999</v>
+      </c>
+      <c r="K421">
+        <v>4269.4561139999996</v>
+      </c>
+      <c r="L421">
+        <v>4149.5650619999997</v>
+      </c>
+      <c r="M421">
+        <v>4187.3576009999997</v>
+      </c>
+      <c r="N421">
+        <v>4092.1911089999999</v>
+      </c>
+      <c r="O421">
+        <v>4140.5988120000002</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A422" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -37831,10 +38535,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z413"/>
+  <dimension ref="A1:Z422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56077,6 +56781,385 @@
         <v>0.1018</v>
       </c>
     </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C414">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D414">
+        <v>-4.1999999999999997E-3</v>
+      </c>
+      <c r="E414">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="F414">
+        <v>3.85E-2</v>
+      </c>
+      <c r="G414">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H414">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="I414">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="J414">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="K414">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="L414">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M414">
+        <v>0.1017</v>
+      </c>
+      <c r="N414">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="O414">
+        <v>0.1019</v>
+      </c>
+      <c r="P414">
+        <v>0.1019</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C415">
+        <v>1.55E-2</v>
+      </c>
+      <c r="D415">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+      <c r="E415">
+        <v>2.63E-2</v>
+      </c>
+      <c r="F415">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G415">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="H415">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="I415">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="J415">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="K415">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="L415">
+        <v>0.1011</v>
+      </c>
+      <c r="M415">
+        <v>0.1018</v>
+      </c>
+      <c r="N415">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="O415">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P415">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C416">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="D416">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="E416">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="F416">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="G416">
+        <v>5.11E-2</v>
+      </c>
+      <c r="H416">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I416">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="J416">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="K416">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="L416">
+        <v>0.1013</v>
+      </c>
+      <c r="M416">
+        <v>0.1018</v>
+      </c>
+      <c r="N416">
+        <v>0.1024</v>
+      </c>
+      <c r="O416">
+        <v>0.1022</v>
+      </c>
+      <c r="P416">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C417">
+        <v>1.52E-2</v>
+      </c>
+      <c r="D417">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="E417">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="F417">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="G417">
+        <v>5.11E-2</v>
+      </c>
+      <c r="H417">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I417">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="J417">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="K417">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="L417">
+        <v>0.1013</v>
+      </c>
+      <c r="M417">
+        <v>0.1019</v>
+      </c>
+      <c r="N417">
+        <v>0.1023</v>
+      </c>
+      <c r="O417">
+        <v>0.1022</v>
+      </c>
+      <c r="P417">
+        <v>0.1021</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C418">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D418">
+        <v>-1.17E-2</v>
+      </c>
+      <c r="E418">
+        <v>2.76E-2</v>
+      </c>
+      <c r="F418">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="G418">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="H418">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I418">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="J418">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="K418">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="L418">
+        <v>0.1017</v>
+      </c>
+      <c r="M418">
+        <v>0.1023</v>
+      </c>
+      <c r="N418">
+        <v>0.1026</v>
+      </c>
+      <c r="O418">
+        <v>0.1024</v>
+      </c>
+      <c r="P418">
+        <v>0.1022</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C419">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D419">
+        <v>-1.35E-2</v>
+      </c>
+      <c r="E419">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F419">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="G419">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="H419">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I419">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="J419">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="K419">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="L419">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="M419">
+        <v>0.1026</v>
+      </c>
+      <c r="N419">
+        <v>0.1028</v>
+      </c>
+      <c r="O419">
+        <v>0.1027</v>
+      </c>
+      <c r="P419">
+        <v>0.10249999999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C420">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D420">
+        <v>-1.44E-2</v>
+      </c>
+      <c r="E420">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="F420">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="G420">
+        <v>5.28E-2</v>
+      </c>
+      <c r="H420">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="I420">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="J420">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="K420">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="L420">
+        <v>0.1031</v>
+      </c>
+      <c r="M420">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="N420">
+        <v>0.104</v>
+      </c>
+      <c r="O420">
+        <v>0.1036</v>
+      </c>
+      <c r="P420">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C421">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="D421">
+        <v>-1.49E-2</v>
+      </c>
+      <c r="E421">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="F421">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="G421">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="H421">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I421">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J421">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K421">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="L421">
+        <v>0.1041</v>
+      </c>
+      <c r="M421">
+        <v>0.1042</v>
+      </c>
+      <c r="N421">
+        <v>0.1046</v>
+      </c>
+      <c r="O421">
+        <v>0.1045</v>
+      </c>
+      <c r="P421">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A422" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661F7A75-B1FF-4E76-8072-37B326536483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08724ABF-59BA-426B-83D2-3F07669047BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16764" yWindow="3096" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="696" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID02532323a7fe449b82f9a863873ef59f" localSheetId="2" hidden="1">Planilha2!$J$4:$J$422</definedName>
-    <definedName name="_ECO_RANGE_ID05f1472c681c4b1e8bf058abf0e3a90d" localSheetId="2" hidden="1">Planilha2!$E$4:$E$422</definedName>
-    <definedName name="_ECO_RANGE_ID081f31b506cf4dabb73d843f9e92a35a" localSheetId="0" hidden="1">Plan1!$G$4:$G$422</definedName>
-    <definedName name="_ECO_RANGE_ID1293d1e6a90e4436b832084858c9bc33" localSheetId="1" hidden="1">Planilha1!$M$4:$M$422</definedName>
-    <definedName name="_ECO_RANGE_ID152f1939f98b4035be629d9b45932c2d" localSheetId="2" hidden="1">Planilha2!$O$4:$O$422</definedName>
-    <definedName name="_ECO_RANGE_ID15fdb96769954bcea00b56376b25b514" localSheetId="0" hidden="1">Plan1!$K$4:$K$422</definedName>
-    <definedName name="_ECO_RANGE_ID219fc2d7333f433199b28ae3530d54ea" localSheetId="0" hidden="1">Plan1!$A$4:$B$422</definedName>
-    <definedName name="_ECO_RANGE_ID24a4e41f0ebd49cbb791743c8e4bee87" localSheetId="0" hidden="1">Plan1!$C$4:$C$422</definedName>
-    <definedName name="_ECO_RANGE_ID28aa488e4c4840da82d1705db011cb31" localSheetId="1" hidden="1">Planilha1!$D$4:$D$422</definedName>
-    <definedName name="_ECO_RANGE_ID2e0a9cd8ab244b1283e95911ff806cd7" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID2e2ae3342c8a46c49c18740b248e4011" localSheetId="0" hidden="1">Plan1!$J$4:$J$422</definedName>
-    <definedName name="_ECO_RANGE_ID2e2c4936fc7e423c9565e31b1650905d" localSheetId="2" hidden="1">Planilha2!$N$4:$N$422</definedName>
-    <definedName name="_ECO_RANGE_ID2e7b851d759248c9b47512541de88e57" localSheetId="2" hidden="1">Planilha2!$M$4:$M$422</definedName>
-    <definedName name="_ECO_RANGE_ID2fa9a138981f4cbeac5e31c807ebeb48" localSheetId="0" hidden="1">Plan1!$O$4:$O$422</definedName>
-    <definedName name="_ECO_RANGE_ID31693bddcd614844baf863998cd50d40" localSheetId="2" hidden="1">Planilha2!$C$4:$C$422</definedName>
-    <definedName name="_ECO_RANGE_ID31aeedce096a4790b966493a3cc8dd2b" localSheetId="1" hidden="1">Planilha1!$H$4:$H$422</definedName>
-    <definedName name="_ECO_RANGE_ID33378aa949df4baa9e338e30cfaa5be2" localSheetId="2" hidden="1">Planilha2!$D$4:$D$422</definedName>
-    <definedName name="_ECO_RANGE_ID3f95e1b9e827409e8c438dbad301cbda" localSheetId="0" hidden="1">Plan1!$N$4:$N$422</definedName>
-    <definedName name="_ECO_RANGE_ID4343dfae72f440caaa1f06c6395dbe29" localSheetId="1" hidden="1">Planilha1!$I$4:$I$422</definedName>
-    <definedName name="_ECO_RANGE_ID44280c5cff914b7db5fe2ae617da79d7" localSheetId="1" hidden="1">Planilha1!$L$4:$L$422</definedName>
-    <definedName name="_ECO_RANGE_ID5388fff34fed49d1a8d7c942b6c45fa7" localSheetId="1" hidden="1">Planilha1!$O$4:$O$422</definedName>
-    <definedName name="_ECO_RANGE_ID576a8c261364400fbe6c162cb5387801" localSheetId="2" hidden="1">Planilha2!$F$4:$F$422</definedName>
-    <definedName name="_ECO_RANGE_ID686ebebd1a5843b4a6109f976d5b4c9a" localSheetId="2" hidden="1">Planilha2!$A$4:$B$422</definedName>
-    <definedName name="_ECO_RANGE_ID6dcf324b06cb425f9c29558b4efc478e" localSheetId="0" hidden="1">Plan1!$I$4:$I$422</definedName>
-    <definedName name="_ECO_RANGE_ID792ad18a17a94f5d999954b01dca5fc5" localSheetId="2" hidden="1">Planilha2!$G$4:$G$422</definedName>
-    <definedName name="_ECO_RANGE_ID7dd65e04691a46ec8dc6d6a6d55c2fa9" localSheetId="1" hidden="1">Planilha1!$F$4:$F$422</definedName>
-    <definedName name="_ECO_RANGE_ID7fe7e6af5bc14584af7dc076728df095" localSheetId="2" hidden="1">Planilha2!$P$4:$P$422</definedName>
-    <definedName name="_ECO_RANGE_ID8d44ad324e7c4c1f9e7a39d5e6ff65ed" localSheetId="1" hidden="1">Planilha1!$K$4:$K$422</definedName>
-    <definedName name="_ECO_RANGE_ID90e0e52802cd49289ba3032c11c5a36f" localSheetId="1" hidden="1">Planilha1!$C$4:$C$422</definedName>
-    <definedName name="_ECO_RANGE_ID91b1acc6407042d8898718c6ab4cc637" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID92b7d85f748c4720aeb33b7ea180c6b2" localSheetId="1" hidden="1">Planilha1!$J$4:$J$422</definedName>
-    <definedName name="_ECO_RANGE_ID9387313db27547dab497af0edd759c55" localSheetId="0" hidden="1">Plan1!$L$4:$L$422</definedName>
-    <definedName name="_ECO_RANGE_ID968886fa20374d7299fe5487d035522a" localSheetId="0" hidden="1">Plan1!$M$4:$M$422</definedName>
-    <definedName name="_ECO_RANGE_ID99e0a06905154b60a49ecac6818aa3b0" localSheetId="2" hidden="1">Planilha2!$H$4:$H$422</definedName>
-    <definedName name="_ECO_RANGE_ID9e0166fc96d94e1399a1838664533708" localSheetId="0" hidden="1">Plan1!$D$4:$D$422</definedName>
-    <definedName name="_ECO_RANGE_ID9e2398febac3412eb7525925a469b880" localSheetId="1" hidden="1">Planilha1!$A$4:$B$422</definedName>
-    <definedName name="_ECO_RANGE_IDa712dc2e288d4e168d7f106c743c5e8f" localSheetId="2" hidden="1">Planilha2!$K$4:$K$422</definedName>
-    <definedName name="_ECO_RANGE_IDaccbeed755b64b63b9929a71bef1bded" localSheetId="1" hidden="1">Planilha1!$E$4:$E$422</definedName>
-    <definedName name="_ECO_RANGE_IDb201dc44b8ba4e37b0836e337866f866" localSheetId="1" hidden="1">Planilha1!$G$4:$G$422</definedName>
-    <definedName name="_ECO_RANGE_IDb38f5f95dab24ff9a394f3de8c4bbe66" localSheetId="2" hidden="1">Planilha2!$L$4:$L$422</definedName>
-    <definedName name="_ECO_RANGE_IDb860293cf7524d7abac32bf6d4fd6f71" localSheetId="0" hidden="1">Plan1!$E$4:$E$422</definedName>
-    <definedName name="_ECO_RANGE_IDbd5fdca1800548bfa76125336304db1d" localSheetId="0" hidden="1">Plan1!$F$4:$F$422</definedName>
-    <definedName name="_ECO_RANGE_IDc894ce6aee2c4d399b1d934e63f8f9c2" localSheetId="0" hidden="1">Plan1!$H$4:$H$422</definedName>
-    <definedName name="_ECO_RANGE_IDd0be9d35b2764fa8816fc905acc74c02" localSheetId="2" hidden="1">Planilha2!$I$4:$I$422</definedName>
-    <definedName name="_ECO_RANGE_IDee231b4c48554a77aa65a39fcbe03f53" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDfbba93657fc243609a8b0bc5eaa40f8e" localSheetId="1" hidden="1">Planilha1!$N$4:$N$422</definedName>
+    <definedName name="_ECO_RANGE_ID01a00504c9444271866f7518edff819d" localSheetId="2" hidden="1">Planilha2!$A$4:$B$433</definedName>
+    <definedName name="_ECO_RANGE_ID0288ed934f0049d589b8385e4b93fc84" localSheetId="0" hidden="1">Plan1!$O$4:$O$433</definedName>
+    <definedName name="_ECO_RANGE_ID04c3b7ff583143138145bc33de9a404a" localSheetId="0" hidden="1">Plan1!$H$4:$H$433</definedName>
+    <definedName name="_ECO_RANGE_ID1cbe0178eaec4e4cb8c02f6371cae56f" localSheetId="2" hidden="1">Planilha2!$O$4:$O$433</definedName>
+    <definedName name="_ECO_RANGE_ID23942b58234d4bb2995e4f06227301f9" localSheetId="0" hidden="1">Plan1!$L$4:$L$433</definedName>
+    <definedName name="_ECO_RANGE_ID23d72a2b18ba4dcf9146736f4a2f0d51" localSheetId="2" hidden="1">Planilha2!$C$4:$C$433</definedName>
+    <definedName name="_ECO_RANGE_ID240dfd9cd0b34560b725f9bdd3272390" localSheetId="1" hidden="1">Planilha1!$A$4:$B$433</definedName>
+    <definedName name="_ECO_RANGE_ID299de904be1744e19447146362a5052e" localSheetId="1" hidden="1">Planilha1!$J$4:$J$433</definedName>
+    <definedName name="_ECO_RANGE_ID2a5b8c456df444d9b63c897b250c0bed" localSheetId="2" hidden="1">Planilha2!$E$4:$E$433</definedName>
+    <definedName name="_ECO_RANGE_ID3166da5eef5a453cb46382081f19c668" localSheetId="1" hidden="1">Planilha1!$D$4:$D$433</definedName>
+    <definedName name="_ECO_RANGE_ID3560b0ba449b4ba69c0895c7910e1a3d" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID365101bffd2d48a99f50964533bf5ffe" localSheetId="0" hidden="1">Plan1!$I$4:$I$433</definedName>
+    <definedName name="_ECO_RANGE_ID46e56752dd5d468786bb8db217ae90a5" localSheetId="1" hidden="1">Planilha1!$F$4:$F$433</definedName>
+    <definedName name="_ECO_RANGE_ID473e4acc536245f2b221207363d2782b" localSheetId="1" hidden="1">Planilha1!$E$4:$E$433</definedName>
+    <definedName name="_ECO_RANGE_ID50b24c9a79da4bbbbac8653b2f461e6e" localSheetId="1" hidden="1">Planilha1!$N$4:$N$433</definedName>
+    <definedName name="_ECO_RANGE_ID52b5e5fc394e4607b699b8cca451b7e3" localSheetId="1" hidden="1">Planilha1!$M$4:$M$433</definedName>
+    <definedName name="_ECO_RANGE_ID5358743ae2e14eb6bb322f7eb375c727" localSheetId="2" hidden="1">Planilha2!$F$4:$F$433</definedName>
+    <definedName name="_ECO_RANGE_ID5483b25378374a479a69d950a4e8b199" localSheetId="2" hidden="1">Planilha2!$M$4:$M$433</definedName>
+    <definedName name="_ECO_RANGE_ID575eeff4352f432fbcaac226e80d9a2a" localSheetId="2" hidden="1">Planilha2!$N$4:$N$433</definedName>
+    <definedName name="_ECO_RANGE_ID58f8214e29524c6087e4259f98c2f6fe" localSheetId="1" hidden="1">Planilha1!$C$4:$C$433</definedName>
+    <definedName name="_ECO_RANGE_ID6047d2c029a34356b37494c77090c359" localSheetId="0" hidden="1">Plan1!$J$4:$J$433</definedName>
+    <definedName name="_ECO_RANGE_ID61e682f8984f4f2fbf366390f4946d5f" localSheetId="2" hidden="1">Planilha2!$P$4:$P$433</definedName>
+    <definedName name="_ECO_RANGE_ID67fc4f88988b40c99483c885cefaa927" localSheetId="0" hidden="1">Plan1!$D$4:$D$433</definedName>
+    <definedName name="_ECO_RANGE_ID6aa846a25ccd4a769ac3f5404847cd7c" localSheetId="0" hidden="1">Plan1!$G$4:$G$433</definedName>
+    <definedName name="_ECO_RANGE_ID6b36bd044f934a0a8a012aeb1a307218" localSheetId="1" hidden="1">Planilha1!$H$4:$H$433</definedName>
+    <definedName name="_ECO_RANGE_ID6b3acb6135f747bfbf485c3efbc6a5eb" localSheetId="2" hidden="1">Planilha2!$I$4:$I$433</definedName>
+    <definedName name="_ECO_RANGE_ID708b287162a4457eb348a973154b4385" localSheetId="2" hidden="1">Planilha2!$L$4:$L$433</definedName>
+    <definedName name="_ECO_RANGE_ID7566328a442247d7bfecb4bcbab2246c" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID7658af640d2644b98943ed399bff52b4" localSheetId="0" hidden="1">Plan1!$N$4:$N$433</definedName>
+    <definedName name="_ECO_RANGE_ID7738a599301d4f99814365a0c93d688a" localSheetId="0" hidden="1">Plan1!$E$4:$E$433</definedName>
+    <definedName name="_ECO_RANGE_ID789a21b7b879411d870b9bbe2a80477d" localSheetId="2" hidden="1">Planilha2!$G$4:$G$433</definedName>
+    <definedName name="_ECO_RANGE_ID845da2f01608419f9e21fc3226a3c5c5" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID88b7a63f4d0a4e0d949346744b8e5bf1" localSheetId="1" hidden="1">Planilha1!$K$4:$K$433</definedName>
+    <definedName name="_ECO_RANGE_ID943ab3b9dc7e4e0f8e74ff45eddc8037" localSheetId="0" hidden="1">Plan1!$C$4:$C$433</definedName>
+    <definedName name="_ECO_RANGE_IDaec48c5580ee4c55a3a8651e2f580284" localSheetId="0" hidden="1">Plan1!$M$4:$M$433</definedName>
+    <definedName name="_ECO_RANGE_IDb4a7b8492e014ce7bb161028a2aefc77" localSheetId="0" hidden="1">Plan1!$A$4:$B$433</definedName>
+    <definedName name="_ECO_RANGE_IDc14ff89a3fc14ccc85aed5f58a544c91" localSheetId="2" hidden="1">Planilha2!$D$4:$D$433</definedName>
+    <definedName name="_ECO_RANGE_IDcf35bb82d59e4124b0bdef8a6205c83d" localSheetId="2" hidden="1">Planilha2!$K$4:$K$433</definedName>
+    <definedName name="_ECO_RANGE_IDd98a9741d90a44fdace0556f5b492bb0" localSheetId="2" hidden="1">Planilha2!$J$4:$J$433</definedName>
+    <definedName name="_ECO_RANGE_IDe2b1fef05ee24fba8950f2fb9ee23a78" localSheetId="1" hidden="1">Planilha1!$L$4:$L$433</definedName>
+    <definedName name="_ECO_RANGE_IDe655805bc601419080cebef1f833d85e" localSheetId="0" hidden="1">Plan1!$K$4:$K$433</definedName>
+    <definedName name="_ECO_RANGE_IDea74086133f84435816cbd67247a39a7" localSheetId="1" hidden="1">Planilha1!$G$4:$G$433</definedName>
+    <definedName name="_ECO_RANGE_IDf0bc705e73f84efcb9ebc4d0090b2542" localSheetId="1" hidden="1">Planilha1!$I$4:$I$433</definedName>
+    <definedName name="_ECO_RANGE_IDf3aa8078a64a4ef9b23b6cbdc75cf1ba" localSheetId="0" hidden="1">Plan1!$F$4:$F$433</definedName>
+    <definedName name="_ECO_RANGE_IDf70e22aa9422438f9418ce5f3f0a7dea" localSheetId="2" hidden="1">Planilha2!$H$4:$H$433</definedName>
+    <definedName name="_ECO_RANGE_IDfee95705c33f40e2a83e652d5e9ec0dd" localSheetId="1" hidden="1">Planilha1!$O$4:$O$433</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,298 +286,304 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>63211564-8c7b-446b-9acb-10f79240045e</stp>
-        <tr r="F3" s="2"/>
+        <stp>d6e3f97b-ed38-4dd0-94e9-62f842a0d687</stp>
+        <tr r="J3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c442e8a3-4774-4ac6-82c9-3c77123cb500</stp>
+        <stp>39d09f55-5abc-4b15-b625-fb9b6b031e79</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f636a5d6-caed-4a91-b5ed-0c1c9988cf80</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>562c30fb-91aa-4ea2-8ed1-d6a1a7f80c97</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e2b58e48-ddc3-4fb1-8dba-b9f1ac09e0aa</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e058a632-8870-4cc8-bf6b-feda394cea99</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bd245a38-0bb4-4239-bf3c-b580a4f36385</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c9819c3c-bc76-4868-af12-b89efdb12aba</stp>
         <tr r="O3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c0b10c92-9cb9-44a5-b4cd-44ceeae75ca7</stp>
+        <stp>302e8fa1-e152-4993-a563-f0a1a83ea10b</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>eefa5927-e1a9-438d-b469-139071e56f0c</stp>
+        <tr r="O3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>313ffd8c-6410-43b9-b6e6-25aa2046d4d6</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d1ec6ccd-b639-4960-84ec-1f04ba122ce4</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0aee983d-42f2-4b7a-9f8e-571a5c5a9aae</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fe29a647-053d-4d8d-8fd7-3d0da14cf66e</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>eba07e23-5aec-40f3-ad0f-66b810e067ca</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dbfff649-7406-4c2a-9f0a-8b5554f1fd8f</stp>
         <tr r="C3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4c864689-dc06-4d1c-892f-3e7e8757489f</stp>
+        <stp>d7f955d3-a780-468d-8a79-9558e7a9e236</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bb236245-cd54-4fcb-8c91-f8a885d78f8d</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b77121e7-aa67-41ae-bc4c-63ce0d58dc68</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6b4b4143-1f71-447e-842f-20b80d224ec8</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>707bfea6-66fb-4980-8365-afe2b41fb3b3</stp>
+        <tr r="A3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0dd30c73-7c90-4827-bbcf-269663efdf7c</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f140bc46-dbaf-4c5f-aee2-9f88166cdbf6</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>821f0b18-bc3f-44b6-8393-026a010908aa</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ae3480bd-46be-4d1b-9d0d-35f7752b95a4</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>00fa5c0a-24dd-4ec9-b9b3-dbd3adaa8dbc</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e313f86e-22ea-4c9c-9141-9573f4554445</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>045726c3-0899-4f5c-9380-98c375c67901</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e8e6c8ae-b8f4-47bf-889a-b52423763da6</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7e3efb00-468c-4507-84f7-3a7729ad7d59</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>923393ce-eb59-467c-a79a-467d1a194743</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a34cda8b-aa5f-4577-afaa-ba55ddd070a8</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9166e56c-4f13-45dd-8c05-6d0bf20f8a23</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8dd3c9a0-044c-4d38-94df-22ba7e56d42f</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>66e9f25a-0984-49f2-99b7-a210a09094fb</stp>
         <tr r="G3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0034d6a2-372f-495e-885a-29e29483ecab</stp>
-        <tr r="A3" s="1"/>
+        <stp>ad45c20f-244f-4223-beaa-a7be3eeb0638</stp>
+        <tr r="F3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>5735dedd-e762-4d8a-8974-e975bd0af768</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c1f688e2-8031-4181-b124-d9149655a1e0</stp>
-        <tr r="C3" s="3"/>
+        <stp>8f196591-78f3-4392-a2f0-b1e696d59b31</stp>
+        <tr r="I3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6b689984-3549-481d-810c-604acf7c2f65</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>04c321ea-17e9-48c7-8c9c-31f600b1b68d</stp>
-        <tr r="A3" s="2"/>
+        <stp>323bf7d9-594e-4012-bf81-3242eec5b867</stp>
+        <tr r="I3" s="3"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>287d1eaa-3b77-4765-ab27-681359261f15</stp>
-        <tr r="L3" s="3"/>
+        <stp>641dc17d-8356-44f6-a01e-72dd3d55d9f1</stp>
+        <tr r="N3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>da1e48eb-9871-4f8e-a32e-1c47dc773868</stp>
-        <tr r="F3" s="1"/>
+        <stp>20bcc4eb-4d81-46b9-b6ab-74ed39d000cc</stp>
+        <tr r="P3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
+    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6874db2d-7152-462f-988e-e30bd89ec704</stp>
-        <tr r="H3" s="2"/>
+        <stp>8b8ff9b9-02d2-49a7-aa43-3143e48be90b</stp>
+        <tr r="K3" s="2"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0298766e-0b0b-4921-b6f3-4dcd11d0d901</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d0beec62-3a5c-4adf-94c3-0fbb5658e5b8</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>96f8c31a-c138-4a74-9d50-64772f0305fc</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>416cceb4-739e-4706-8da3-b19a8c3c6fa5</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c33011ea-fe87-442d-8207-7194bc00ba89</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3d5e4c8e-6f01-4622-ad08-7dbce1ba0e80</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b4e23665-44d4-41d2-9f25-247f67cfe0cd</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a19105c1-31a0-4a54-9e37-8b5051e09fbb</stp>
-        <tr r="K3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4f70ca28-ccb9-4330-b76e-fb5312a2b471</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a65679a4-1f70-4b19-bacf-d8ae09b4cc8d</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a437ec83-62b2-4b78-931b-01dbaed7ed45</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b32cef18-bdbd-4ff7-b88e-17fdff3d23b5</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4963bccf-f68f-42d4-9e00-5b8e3176b1b6</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>86c02d03-ea46-483e-9593-f0c1cebb1ef4</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3ccd93cf-65b8-4efe-a3fc-f0321644e842</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>67bada1b-71c1-40fc-9007-5ab0b829e629</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5d69ce2a-c313-4119-8210-f55b4347a118</stp>
+        <stp>2758514a-d032-41fe-9494-3ae8119ca988</stp>
         <tr r="N3" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>1d21a43d-dd6b-45eb-977f-4f4c588e0b38</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2536b844-43bd-4cdf-a3fc-b647773c5e39</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f2ba516b-70ef-4564-962d-573899e48bb5</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b35cb2f2-87ee-4cfa-8911-a5c8b028a28b</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>dccf0a46-870a-42f6-8a57-51f627571af2</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9ec5026e-87ce-495c-a10b-90c874af7fb4</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>76b9317b-6ae0-497b-bb9b-04acea572aff</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>85c5fbed-ff58-4c74-9f7c-0603fe973017</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>41cbfddc-3f2c-4697-9a12-c6df0149948a</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e7177eb7-a3ee-42f1-8160-f55133ae7faa</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8fdf5189-d51c-4631-a2a3-c3fa63da1748</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>56adb5fc-f463-47ac-a11f-5dbf52ee6429</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7389a717040b4825bf49b76e0237dafc">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1a9427a5-5eb0-4210-80d4-a30e0b16419f</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9c74b0d8-7c54-4cf5-85f5-7fb0631445cd</stp>
-        <tr r="K3" s="1"/>
+        <stp>76bcc1b2-dd88-402f-8b52-61c454afbcc9</stp>
+        <tr r="J3" s="3"/>
       </tp>
     </main>
   </volType>
@@ -847,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O422"/>
+  <dimension ref="A1:O433"/>
   <sheetViews>
-    <sheetView topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422"/>
+    <sheetView topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19682,7 +19688,532 @@
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A422" s="1"/>
+      <c r="A422" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C422">
+        <v>10.296799999999999</v>
+      </c>
+      <c r="D422">
+        <v>8.6540999999999997</v>
+      </c>
+      <c r="E422">
+        <v>8.1759000000000004</v>
+      </c>
+      <c r="F422">
+        <v>7.9474999999999998</v>
+      </c>
+      <c r="G422">
+        <v>7.7588999999999997</v>
+      </c>
+      <c r="H422">
+        <v>7.5865</v>
+      </c>
+      <c r="I422">
+        <v>7.5754000000000001</v>
+      </c>
+      <c r="J422">
+        <v>7.3705999999999996</v>
+      </c>
+      <c r="K422">
+        <v>7.1421999999999999</v>
+      </c>
+      <c r="L422">
+        <v>7.1189</v>
+      </c>
+      <c r="M422">
+        <v>7.1082999999999998</v>
+      </c>
+      <c r="N422">
+        <v>7.1078999999999999</v>
+      </c>
+      <c r="O422">
+        <v>7.0959000000000003</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C423">
+        <v>10.336499999999999</v>
+      </c>
+      <c r="D423">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E423">
+        <v>8.1709999999999994</v>
+      </c>
+      <c r="F423">
+        <v>7.9386000000000001</v>
+      </c>
+      <c r="G423">
+        <v>7.77</v>
+      </c>
+      <c r="H423">
+        <v>7.5867000000000004</v>
+      </c>
+      <c r="I423">
+        <v>7.5749000000000004</v>
+      </c>
+      <c r="J423">
+        <v>7.3807999999999998</v>
+      </c>
+      <c r="K423">
+        <v>7.13</v>
+      </c>
+      <c r="L423">
+        <v>7.1132</v>
+      </c>
+      <c r="M423">
+        <v>7.1002000000000001</v>
+      </c>
+      <c r="N423">
+        <v>7.0926999999999998</v>
+      </c>
+      <c r="O423">
+        <v>7.0869</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C424">
+        <v>10.3284</v>
+      </c>
+      <c r="D424">
+        <v>8.65</v>
+      </c>
+      <c r="E424">
+        <v>8.2345000000000006</v>
+      </c>
+      <c r="F424">
+        <v>7.9859</v>
+      </c>
+      <c r="G424">
+        <v>7.8624999999999998</v>
+      </c>
+      <c r="H424">
+        <v>7.6837999999999997</v>
+      </c>
+      <c r="I424">
+        <v>7.6604999999999999</v>
+      </c>
+      <c r="J424">
+        <v>7.4531999999999998</v>
+      </c>
+      <c r="K424">
+        <v>7.1851000000000003</v>
+      </c>
+      <c r="L424">
+        <v>7.16</v>
+      </c>
+      <c r="M424">
+        <v>7.1570999999999998</v>
+      </c>
+      <c r="N424">
+        <v>7.1406000000000001</v>
+      </c>
+      <c r="O424">
+        <v>7.1268000000000002</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C425">
+        <v>10.386100000000001</v>
+      </c>
+      <c r="D425">
+        <v>8.6920000000000002</v>
+      </c>
+      <c r="E425">
+        <v>8.2596000000000007</v>
+      </c>
+      <c r="F425">
+        <v>8.0230999999999995</v>
+      </c>
+      <c r="G425">
+        <v>7.9141000000000004</v>
+      </c>
+      <c r="H425">
+        <v>7.7203999999999997</v>
+      </c>
+      <c r="I425">
+        <v>7.6993</v>
+      </c>
+      <c r="J425">
+        <v>7.4558999999999997</v>
+      </c>
+      <c r="K425">
+        <v>7.2</v>
+      </c>
+      <c r="L425">
+        <v>7.1624999999999996</v>
+      </c>
+      <c r="M425">
+        <v>7.1586999999999996</v>
+      </c>
+      <c r="N425">
+        <v>7.15</v>
+      </c>
+      <c r="O425">
+        <v>7.1369999999999996</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C426">
+        <v>10.367599999999999</v>
+      </c>
+      <c r="D426">
+        <v>8.6702999999999992</v>
+      </c>
+      <c r="E426">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F426">
+        <v>7.96</v>
+      </c>
+      <c r="G426">
+        <v>7.83</v>
+      </c>
+      <c r="H426">
+        <v>7.63</v>
+      </c>
+      <c r="I426">
+        <v>7.6055999999999999</v>
+      </c>
+      <c r="J426">
+        <v>7.37</v>
+      </c>
+      <c r="K426">
+        <v>7.13</v>
+      </c>
+      <c r="L426">
+        <v>7.0933000000000002</v>
+      </c>
+      <c r="M426">
+        <v>7.09</v>
+      </c>
+      <c r="N426">
+        <v>7.08</v>
+      </c>
+      <c r="O426">
+        <v>7.0675999999999997</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C427">
+        <v>10.2784</v>
+      </c>
+      <c r="D427">
+        <v>8.5604999999999993</v>
+      </c>
+      <c r="E427">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F427">
+        <v>7.8819999999999997</v>
+      </c>
+      <c r="G427">
+        <v>7.7667999999999999</v>
+      </c>
+      <c r="H427">
+        <v>7.5843999999999996</v>
+      </c>
+      <c r="I427">
+        <v>7.5670999999999999</v>
+      </c>
+      <c r="J427">
+        <v>7.3532999999999999</v>
+      </c>
+      <c r="K427">
+        <v>7.1234000000000002</v>
+      </c>
+      <c r="L427">
+        <v>7.0738000000000003</v>
+      </c>
+      <c r="M427">
+        <v>7.0673000000000004</v>
+      </c>
+      <c r="N427">
+        <v>7.0536000000000003</v>
+      </c>
+      <c r="O427">
+        <v>7.0408999999999997</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C428">
+        <v>10.264200000000001</v>
+      </c>
+      <c r="D428">
+        <v>8.5434999999999999</v>
+      </c>
+      <c r="E428">
+        <v>8.0787999999999993</v>
+      </c>
+      <c r="F428">
+        <v>7.84</v>
+      </c>
+      <c r="G428">
+        <v>7.7240000000000002</v>
+      </c>
+      <c r="H428">
+        <v>7.5667999999999997</v>
+      </c>
+      <c r="I428">
+        <v>7.5487000000000002</v>
+      </c>
+      <c r="J428">
+        <v>7.3308999999999997</v>
+      </c>
+      <c r="K428">
+        <v>7.1083999999999996</v>
+      </c>
+      <c r="L428">
+        <v>7.0622999999999996</v>
+      </c>
+      <c r="M428">
+        <v>7.06</v>
+      </c>
+      <c r="N428">
+        <v>7.0414000000000003</v>
+      </c>
+      <c r="O428">
+        <v>7.0373999999999999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C429">
+        <v>10.3063</v>
+      </c>
+      <c r="D429">
+        <v>8.5821000000000005</v>
+      </c>
+      <c r="E429">
+        <v>8.1390999999999991</v>
+      </c>
+      <c r="F429">
+        <v>7.9302999999999999</v>
+      </c>
+      <c r="G429">
+        <v>7.7900999999999998</v>
+      </c>
+      <c r="H429">
+        <v>7.6394000000000002</v>
+      </c>
+      <c r="I429">
+        <v>7.62</v>
+      </c>
+      <c r="J429">
+        <v>7.4</v>
+      </c>
+      <c r="K429">
+        <v>7.17</v>
+      </c>
+      <c r="L429">
+        <v>7.1189</v>
+      </c>
+      <c r="M429">
+        <v>7.1153000000000004</v>
+      </c>
+      <c r="N429">
+        <v>7.09</v>
+      </c>
+      <c r="O429">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C430">
+        <v>10.375</v>
+      </c>
+      <c r="D430">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E430">
+        <v>8.2528000000000006</v>
+      </c>
+      <c r="F430">
+        <v>8.0634999999999994</v>
+      </c>
+      <c r="G430">
+        <v>7.94</v>
+      </c>
+      <c r="H430">
+        <v>7.7857000000000003</v>
+      </c>
+      <c r="I430">
+        <v>7.7548000000000004</v>
+      </c>
+      <c r="J430">
+        <v>7.5327999999999999</v>
+      </c>
+      <c r="K430">
+        <v>7.33</v>
+      </c>
+      <c r="L430">
+        <v>7.2766999999999999</v>
+      </c>
+      <c r="M430">
+        <v>7.2595000000000001</v>
+      </c>
+      <c r="N430">
+        <v>7.23</v>
+      </c>
+      <c r="O430">
+        <v>7.2248999999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C431">
+        <v>10.3538</v>
+      </c>
+      <c r="D431">
+        <v>8.7253000000000007</v>
+      </c>
+      <c r="E431">
+        <v>8.27</v>
+      </c>
+      <c r="F431">
+        <v>8.07</v>
+      </c>
+      <c r="G431">
+        <v>7.94</v>
+      </c>
+      <c r="H431">
+        <v>7.79</v>
+      </c>
+      <c r="I431">
+        <v>7.76</v>
+      </c>
+      <c r="J431">
+        <v>7.5381</v>
+      </c>
+      <c r="K431">
+        <v>7.3353999999999999</v>
+      </c>
+      <c r="L431">
+        <v>7.2607999999999997</v>
+      </c>
+      <c r="M431">
+        <v>7.2356999999999996</v>
+      </c>
+      <c r="N431">
+        <v>7.2053000000000003</v>
+      </c>
+      <c r="O431">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C432">
+        <v>10.32</v>
+      </c>
+      <c r="D432">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="E432">
+        <v>8.16</v>
+      </c>
+      <c r="F432">
+        <v>7.9596999999999998</v>
+      </c>
+      <c r="G432">
+        <v>7.84</v>
+      </c>
+      <c r="H432">
+        <v>7.7123999999999997</v>
+      </c>
+      <c r="I432">
+        <v>7.6736000000000004</v>
+      </c>
+      <c r="J432">
+        <v>7.42</v>
+      </c>
+      <c r="K432">
+        <v>7.2694999999999999</v>
+      </c>
+      <c r="L432">
+        <v>7.2236000000000002</v>
+      </c>
+      <c r="M432">
+        <v>7.2</v>
+      </c>
+      <c r="N432">
+        <v>7.17</v>
+      </c>
+      <c r="O432">
+        <v>7.1874000000000002</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C433">
+        <v>10.32</v>
+      </c>
+      <c r="D433">
+        <v>8.6195000000000004</v>
+      </c>
+      <c r="E433">
+        <v>8.18</v>
+      </c>
+      <c r="F433">
+        <v>7.99</v>
+      </c>
+      <c r="G433">
+        <v>7.8827999999999996</v>
+      </c>
+      <c r="H433">
+        <v>7.7797000000000001</v>
+      </c>
+      <c r="I433">
+        <v>7.7556000000000003</v>
+      </c>
+      <c r="J433">
+        <v>7.4983000000000004</v>
+      </c>
+      <c r="K433">
+        <v>7.3513999999999999</v>
+      </c>
+      <c r="L433">
+        <v>7.2774000000000001</v>
+      </c>
+      <c r="M433">
+        <v>7.2457000000000003</v>
+      </c>
+      <c r="N433">
+        <v>7.2134999999999998</v>
+      </c>
+      <c r="O433">
+        <v>7.2367999999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19691,10 +20222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O422"/>
+  <dimension ref="A1:O433"/>
   <sheetViews>
-    <sheetView topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422"/>
+    <sheetView topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38526,7 +39057,532 @@
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A422" s="1"/>
+      <c r="A422" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C422">
+        <v>4529.6248020000003</v>
+      </c>
+      <c r="D422">
+        <v>4435.3573560000004</v>
+      </c>
+      <c r="E422">
+        <v>4429.0762089999998</v>
+      </c>
+      <c r="F422">
+        <v>4340.5965539999997</v>
+      </c>
+      <c r="G422">
+        <v>4361.4773690000002</v>
+      </c>
+      <c r="H422">
+        <v>4298.5014520000004</v>
+      </c>
+      <c r="I422">
+        <v>4204.9329260000004</v>
+      </c>
+      <c r="J422">
+        <v>4191.0276100000001</v>
+      </c>
+      <c r="K422">
+        <v>4209.866481</v>
+      </c>
+      <c r="L422">
+        <v>4083.57204</v>
+      </c>
+      <c r="M422">
+        <v>4100.3095819999999</v>
+      </c>
+      <c r="N422">
+        <v>3999.3772680000002</v>
+      </c>
+      <c r="O422">
+        <v>4044.1812570000002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C423">
+        <v>4530.7773049999996</v>
+      </c>
+      <c r="D423">
+        <v>4439.1999800000003</v>
+      </c>
+      <c r="E423">
+        <v>4431.4151080000001</v>
+      </c>
+      <c r="F423">
+        <v>4343.4789469999996</v>
+      </c>
+      <c r="G423">
+        <v>4361.4243560000004</v>
+      </c>
+      <c r="H423">
+        <v>4300.1596049999998</v>
+      </c>
+      <c r="I423">
+        <v>4206.7091600000003</v>
+      </c>
+      <c r="J423">
+        <v>4189.7962509999998</v>
+      </c>
+      <c r="K423">
+        <v>4216.0108030000001</v>
+      </c>
+      <c r="L423">
+        <v>4087.5512749999998</v>
+      </c>
+      <c r="M423">
+        <v>4105.6428800000003</v>
+      </c>
+      <c r="N423">
+        <v>4008.3593890000002</v>
+      </c>
+      <c r="O423">
+        <v>4050.2990180000002</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C424">
+        <v>4533.2413219999999</v>
+      </c>
+      <c r="D424">
+        <v>4439.4429380000001</v>
+      </c>
+      <c r="E424">
+        <v>4426.8917099999999</v>
+      </c>
+      <c r="F424">
+        <v>4339.3575170000004</v>
+      </c>
+      <c r="G424">
+        <v>4348.1529719999999</v>
+      </c>
+      <c r="H424">
+        <v>4280.8917309999997</v>
+      </c>
+      <c r="I424">
+        <v>4188.4000999999998</v>
+      </c>
+      <c r="J424">
+        <v>4171.2432520000002</v>
+      </c>
+      <c r="K424">
+        <v>4197.099604</v>
+      </c>
+      <c r="L424">
+        <v>4069.1657169999999</v>
+      </c>
+      <c r="M424">
+        <v>4080.7117509999998</v>
+      </c>
+      <c r="N424">
+        <v>3986.4016310000002</v>
+      </c>
+      <c r="O424">
+        <v>4031.5440170000002</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C425">
+        <v>4533.1625059999997</v>
+      </c>
+      <c r="D425">
+        <v>4438.2826370000002</v>
+      </c>
+      <c r="E425">
+        <v>4425.4946200000004</v>
+      </c>
+      <c r="F425">
+        <v>4335.7820410000004</v>
+      </c>
+      <c r="G425">
+        <v>4340.8442500000001</v>
+      </c>
+      <c r="H425">
+        <v>4274.0166950000003</v>
+      </c>
+      <c r="I425">
+        <v>4180.3612590000002</v>
+      </c>
+      <c r="J425">
+        <v>4171.4201549999998</v>
+      </c>
+      <c r="K425">
+        <v>4192.4730959999997</v>
+      </c>
+      <c r="L425">
+        <v>4068.9652470000001</v>
+      </c>
+      <c r="M425">
+        <v>4080.8349389999998</v>
+      </c>
+      <c r="N425">
+        <v>3982.6655479999999</v>
+      </c>
+      <c r="O425">
+        <v>4027.2340039999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C426">
+        <v>4535.867123</v>
+      </c>
+      <c r="D426">
+        <v>4441.3803630000002</v>
+      </c>
+      <c r="E426">
+        <v>4432.2647820000002</v>
+      </c>
+      <c r="F426">
+        <v>4345.362916</v>
+      </c>
+      <c r="G426">
+        <v>4356.1691049999999</v>
+      </c>
+      <c r="H426">
+        <v>4295.133554</v>
+      </c>
+      <c r="I426">
+        <v>4203.7721359999996</v>
+      </c>
+      <c r="J426">
+        <v>4196.9457309999998</v>
+      </c>
+      <c r="K426">
+        <v>4220.047673</v>
+      </c>
+      <c r="L426">
+        <v>4099.9733180000003</v>
+      </c>
+      <c r="M426">
+        <v>4114.338925</v>
+      </c>
+      <c r="N426">
+        <v>4018.4402770000002</v>
+      </c>
+      <c r="O426">
+        <v>4064.0318870000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C427">
+        <v>4540.4640449999997</v>
+      </c>
+      <c r="D427">
+        <v>4449.3681560000005</v>
+      </c>
+      <c r="E427">
+        <v>4443.0757540000004</v>
+      </c>
+      <c r="F427">
+        <v>4356.8099810000003</v>
+      </c>
+      <c r="G427">
+        <v>4368.138132</v>
+      </c>
+      <c r="H427">
+        <v>4306.6489789999996</v>
+      </c>
+      <c r="I427">
+        <v>4214.3878299999997</v>
+      </c>
+      <c r="J427">
+        <v>4203.2013370000004</v>
+      </c>
+      <c r="K427">
+        <v>4224.0663400000003</v>
+      </c>
+      <c r="L427">
+        <v>4109.8434729999999</v>
+      </c>
+      <c r="M427">
+        <v>4126.5089710000002</v>
+      </c>
+      <c r="N427">
+        <v>4032.9774609999999</v>
+      </c>
+      <c r="O427">
+        <v>4079.2496940000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C428">
+        <v>4543.0372539999998</v>
+      </c>
+      <c r="D428">
+        <v>4452.1840949999996</v>
+      </c>
+      <c r="E428">
+        <v>4448.9987499999997</v>
+      </c>
+      <c r="F428">
+        <v>4363.771358</v>
+      </c>
+      <c r="G428">
+        <v>4376.805222</v>
+      </c>
+      <c r="H428">
+        <v>4312.1157620000004</v>
+      </c>
+      <c r="I428">
+        <v>4220.3120269999999</v>
+      </c>
+      <c r="J428">
+        <v>4211.0621879999999</v>
+      </c>
+      <c r="K428">
+        <v>4231.2299439999997</v>
+      </c>
+      <c r="L428">
+        <v>4116.2970420000001</v>
+      </c>
+      <c r="M428">
+        <v>4131.4559920000002</v>
+      </c>
+      <c r="N428">
+        <v>4040.5114319999998</v>
+      </c>
+      <c r="O428">
+        <v>4082.5424429999998</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C429">
+        <v>4544.6101079999999</v>
+      </c>
+      <c r="D429">
+        <v>4452.4036480000004</v>
+      </c>
+      <c r="E429">
+        <v>4445.2500140000002</v>
+      </c>
+      <c r="F429">
+        <v>4354.7302579999996</v>
+      </c>
+      <c r="G429">
+        <v>4368.2604540000002</v>
+      </c>
+      <c r="H429">
+        <v>4298.561659</v>
+      </c>
+      <c r="I429">
+        <v>4205.7426839999998</v>
+      </c>
+      <c r="J429">
+        <v>4193.7757730000003</v>
+      </c>
+      <c r="K429">
+        <v>4210.2771279999997</v>
+      </c>
+      <c r="L429">
+        <v>4093.9814329999999</v>
+      </c>
+      <c r="M429">
+        <v>4107.4842040000003</v>
+      </c>
+      <c r="N429">
+        <v>4018.3631770000002</v>
+      </c>
+      <c r="O429">
+        <v>4062.5877209999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C430">
+        <v>4545.4976230000002</v>
+      </c>
+      <c r="D430">
+        <v>4448.2660400000004</v>
+      </c>
+      <c r="E430">
+        <v>4436.2143900000001</v>
+      </c>
+      <c r="F430">
+        <v>4340.4412579999998</v>
+      </c>
+      <c r="G430">
+        <v>4346.2522019999997</v>
+      </c>
+      <c r="H430">
+        <v>4269.3337769999998</v>
+      </c>
+      <c r="I430">
+        <v>4176.5918449999999</v>
+      </c>
+      <c r="J430">
+        <v>4159.0035680000001</v>
+      </c>
+      <c r="K430">
+        <v>4153.4440809999996</v>
+      </c>
+      <c r="L430">
+        <v>4029.3614579999999</v>
+      </c>
+      <c r="M430">
+        <v>4043.013289</v>
+      </c>
+      <c r="N430">
+        <v>3952.246439</v>
+      </c>
+      <c r="O430">
+        <v>3991.5560329999998</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C431">
+        <v>4548.7632089999997</v>
+      </c>
+      <c r="D431">
+        <v>4449.2619009999999</v>
+      </c>
+      <c r="E431">
+        <v>4436.8099469999997</v>
+      </c>
+      <c r="F431">
+        <v>4341.8632269999998</v>
+      </c>
+      <c r="G431">
+        <v>4348.4573209999999</v>
+      </c>
+      <c r="H431">
+        <v>4270.5582999999997</v>
+      </c>
+      <c r="I431">
+        <v>4177.4864619999998</v>
+      </c>
+      <c r="J431">
+        <v>4159.5927799999999</v>
+      </c>
+      <c r="K431">
+        <v>4153.4925579999999</v>
+      </c>
+      <c r="L431">
+        <v>4037.9450109999998</v>
+      </c>
+      <c r="M431">
+        <v>4055.8112550000001</v>
+      </c>
+      <c r="N431">
+        <v>3966.018172</v>
+      </c>
+      <c r="O431">
+        <v>4000.8772410000001</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C432">
+        <v>4552.3546800000004</v>
+      </c>
+      <c r="D432">
+        <v>4456.8717180000003</v>
+      </c>
+      <c r="E432">
+        <v>4450.0430120000001</v>
+      </c>
+      <c r="F432">
+        <v>4357.7159819999997</v>
+      </c>
+      <c r="G432">
+        <v>4366.7767100000001</v>
+      </c>
+      <c r="H432">
+        <v>4289.2871359999999</v>
+      </c>
+      <c r="I432">
+        <v>4199.5534589999997</v>
+      </c>
+      <c r="J432">
+        <v>4194.3438829999996</v>
+      </c>
+      <c r="K432">
+        <v>4179.5933299999997</v>
+      </c>
+      <c r="L432">
+        <v>4055.4828590000002</v>
+      </c>
+      <c r="M432">
+        <v>4074.1257289999999</v>
+      </c>
+      <c r="N432">
+        <v>3984.9866489999999</v>
+      </c>
+      <c r="O432">
+        <v>4014.0669640000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C433">
+        <v>4555.059929</v>
+      </c>
+      <c r="D433">
+        <v>4459.8227909999996</v>
+      </c>
+      <c r="E433">
+        <v>4450.3484840000001</v>
+      </c>
+      <c r="F433">
+        <v>4356.186412</v>
+      </c>
+      <c r="G433">
+        <v>4362.0741150000003</v>
+      </c>
+      <c r="H433">
+        <v>4277.0432430000001</v>
+      </c>
+      <c r="I433">
+        <v>4182.6890320000002</v>
+      </c>
+      <c r="J433">
+        <v>4174.67407</v>
+      </c>
+      <c r="K433">
+        <v>4151.7088270000004</v>
+      </c>
+      <c r="L433">
+        <v>4034.9108940000001</v>
+      </c>
+      <c r="M433">
+        <v>4055.1541609999999</v>
+      </c>
+      <c r="N433">
+        <v>3965.8824960000002</v>
+      </c>
+      <c r="O433">
+        <v>3991.4278979999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -38535,10 +39591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z422"/>
+  <dimension ref="A1:Z433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57158,7 +58214,568 @@
       </c>
     </row>
     <row r="422" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A422" s="1"/>
+      <c r="A422" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C422">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D422">
+        <v>-1.37E-2</v>
+      </c>
+      <c r="E422">
+        <v>3.04E-2</v>
+      </c>
+      <c r="F422">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="G422">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H422">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I422">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="J422">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="K422">
+        <v>0.1018</v>
+      </c>
+      <c r="L422">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="M422">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="N422">
+        <v>0.104</v>
+      </c>
+      <c r="O422">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="P422">
+        <v>0.1037</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C423">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D423">
+        <v>-1.38E-2</v>
+      </c>
+      <c r="E423">
+        <v>3.04E-2</v>
+      </c>
+      <c r="F423">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="G423">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="H423">
+        <v>5.79E-2</v>
+      </c>
+      <c r="I423">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="J423">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="K423">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="L423">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="M423">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="N423">
+        <v>0.1033</v>
+      </c>
+      <c r="O423">
+        <v>0.1037</v>
+      </c>
+      <c r="P423">
+        <v>0.1037</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C424">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D424">
+        <v>-1.26E-2</v>
+      </c>
+      <c r="E424">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="F424">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G424">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="H424">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="I424">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="J424">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="K424">
+        <v>0.1002</v>
+      </c>
+      <c r="L424">
+        <v>0.1021</v>
+      </c>
+      <c r="M424">
+        <v>0.1022</v>
+      </c>
+      <c r="N424">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="O424">
+        <v>0.1032</v>
+      </c>
+      <c r="P424">
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C425">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="D425">
+        <v>-1.3599999999999999E-2</v>
+      </c>
+      <c r="E425">
+        <v>3.09E-2</v>
+      </c>
+      <c r="F425">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G425">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H425">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="I425">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="J425">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="K425">
+        <v>0.1</v>
+      </c>
+      <c r="L425">
+        <v>0.1013</v>
+      </c>
+      <c r="M425">
+        <v>0.1018</v>
+      </c>
+      <c r="N425">
+        <v>0.1021</v>
+      </c>
+      <c r="O425">
+        <v>0.1031</v>
+      </c>
+      <c r="P425">
+        <v>0.10290000000000001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C426">
+        <v>1.52E-2</v>
+      </c>
+      <c r="D426">
+        <v>-1.41E-2</v>
+      </c>
+      <c r="E426">
+        <v>3.09E-2</v>
+      </c>
+      <c r="F426">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G426">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="H426">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="I426">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="J426">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="K426">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="L426">
+        <v>0.1004</v>
+      </c>
+      <c r="M426">
+        <v>0.1013</v>
+      </c>
+      <c r="N426">
+        <v>0.1016</v>
+      </c>
+      <c r="O426">
+        <v>0.1027</v>
+      </c>
+      <c r="P426">
+        <v>0.1028</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>46003</v>
+      </c>
+      <c r="C427">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="D427">
+        <v>-1.43E-2</v>
+      </c>
+      <c r="E427">
+        <v>3.04E-2</v>
+      </c>
+      <c r="F427">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G427">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="H427">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="I427">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="J427">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="K427">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="L427">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="M427">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="N427">
+        <v>0.1012</v>
+      </c>
+      <c r="O427">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="P427">
+        <v>0.10249999999999999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C428">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="D428">
+        <v>-1.38E-2</v>
+      </c>
+      <c r="E428">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F428">
+        <v>0.04</v>
+      </c>
+      <c r="G428">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H428">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="I428">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J428">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K428">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="L428">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="M428">
+        <v>0.1002</v>
+      </c>
+      <c r="N428">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="O428">
+        <v>0.1026</v>
+      </c>
+      <c r="P428">
+        <v>0.10249999999999999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C429">
+        <v>8.6E-3</v>
+      </c>
+      <c r="D429">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="E429">
+        <v>2.86E-2</v>
+      </c>
+      <c r="F429">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G429">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="H429">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I429">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="J429">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K429">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L429">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="M429">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="N429">
+        <v>0.1007</v>
+      </c>
+      <c r="O429">
+        <v>0.1021</v>
+      </c>
+      <c r="P429">
+        <v>0.1021</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C430">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D430">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="E430">
+        <v>2.76E-2</v>
+      </c>
+      <c r="F430">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="G430">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="H430">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="I430">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="J430">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="K430">
+        <v>9.64E-2</v>
+      </c>
+      <c r="L430">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="M430">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="N430">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="O430">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P430">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C431">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D431">
+        <v>-1.0500000000000001E-2</v>
+      </c>
+      <c r="E431">
+        <v>2.69E-2</v>
+      </c>
+      <c r="F431">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="G431">
+        <v>4.65E-2</v>
+      </c>
+      <c r="H431">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I431">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="J431">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="K431">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="L431">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="M431">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="N431">
+        <v>0.1</v>
+      </c>
+      <c r="O431">
+        <v>0.1016</v>
+      </c>
+      <c r="P431">
+        <v>0.1016</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C432">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D432">
+        <v>-1.01E-2</v>
+      </c>
+      <c r="E432">
+        <v>2.46E-2</v>
+      </c>
+      <c r="F432">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="G432">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="H432">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I432">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="J432">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="K432">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="L432">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="M432">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="N432">
+        <v>0.1003</v>
+      </c>
+      <c r="O432">
+        <v>0.1014</v>
+      </c>
+      <c r="P432">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C433">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="D433">
+        <v>-0.01</v>
+      </c>
+      <c r="E433">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="F433">
+        <v>3.44E-2</v>
+      </c>
+      <c r="G433">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="H433">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="I433">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="J433">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="K433">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="L433">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="M433">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="N433">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="O433">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="P433">
+        <v>0.1016</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08724ABF-59BA-426B-83D2-3F07669047BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6C7FBB-1FB1-444B-AB46-7A08EEA96A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="696" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID01a00504c9444271866f7518edff819d" localSheetId="2" hidden="1">Planilha2!$A$4:$B$433</definedName>
-    <definedName name="_ECO_RANGE_ID0288ed934f0049d589b8385e4b93fc84" localSheetId="0" hidden="1">Plan1!$O$4:$O$433</definedName>
-    <definedName name="_ECO_RANGE_ID04c3b7ff583143138145bc33de9a404a" localSheetId="0" hidden="1">Plan1!$H$4:$H$433</definedName>
-    <definedName name="_ECO_RANGE_ID1cbe0178eaec4e4cb8c02f6371cae56f" localSheetId="2" hidden="1">Planilha2!$O$4:$O$433</definedName>
-    <definedName name="_ECO_RANGE_ID23942b58234d4bb2995e4f06227301f9" localSheetId="0" hidden="1">Plan1!$L$4:$L$433</definedName>
-    <definedName name="_ECO_RANGE_ID23d72a2b18ba4dcf9146736f4a2f0d51" localSheetId="2" hidden="1">Planilha2!$C$4:$C$433</definedName>
-    <definedName name="_ECO_RANGE_ID240dfd9cd0b34560b725f9bdd3272390" localSheetId="1" hidden="1">Planilha1!$A$4:$B$433</definedName>
-    <definedName name="_ECO_RANGE_ID299de904be1744e19447146362a5052e" localSheetId="1" hidden="1">Planilha1!$J$4:$J$433</definedName>
-    <definedName name="_ECO_RANGE_ID2a5b8c456df444d9b63c897b250c0bed" localSheetId="2" hidden="1">Planilha2!$E$4:$E$433</definedName>
-    <definedName name="_ECO_RANGE_ID3166da5eef5a453cb46382081f19c668" localSheetId="1" hidden="1">Planilha1!$D$4:$D$433</definedName>
-    <definedName name="_ECO_RANGE_ID3560b0ba449b4ba69c0895c7910e1a3d" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID365101bffd2d48a99f50964533bf5ffe" localSheetId="0" hidden="1">Plan1!$I$4:$I$433</definedName>
-    <definedName name="_ECO_RANGE_ID46e56752dd5d468786bb8db217ae90a5" localSheetId="1" hidden="1">Planilha1!$F$4:$F$433</definedName>
-    <definedName name="_ECO_RANGE_ID473e4acc536245f2b221207363d2782b" localSheetId="1" hidden="1">Planilha1!$E$4:$E$433</definedName>
-    <definedName name="_ECO_RANGE_ID50b24c9a79da4bbbbac8653b2f461e6e" localSheetId="1" hidden="1">Planilha1!$N$4:$N$433</definedName>
-    <definedName name="_ECO_RANGE_ID52b5e5fc394e4607b699b8cca451b7e3" localSheetId="1" hidden="1">Planilha1!$M$4:$M$433</definedName>
-    <definedName name="_ECO_RANGE_ID5358743ae2e14eb6bb322f7eb375c727" localSheetId="2" hidden="1">Planilha2!$F$4:$F$433</definedName>
-    <definedName name="_ECO_RANGE_ID5483b25378374a479a69d950a4e8b199" localSheetId="2" hidden="1">Planilha2!$M$4:$M$433</definedName>
-    <definedName name="_ECO_RANGE_ID575eeff4352f432fbcaac226e80d9a2a" localSheetId="2" hidden="1">Planilha2!$N$4:$N$433</definedName>
-    <definedName name="_ECO_RANGE_ID58f8214e29524c6087e4259f98c2f6fe" localSheetId="1" hidden="1">Planilha1!$C$4:$C$433</definedName>
-    <definedName name="_ECO_RANGE_ID6047d2c029a34356b37494c77090c359" localSheetId="0" hidden="1">Plan1!$J$4:$J$433</definedName>
-    <definedName name="_ECO_RANGE_ID61e682f8984f4f2fbf366390f4946d5f" localSheetId="2" hidden="1">Planilha2!$P$4:$P$433</definedName>
-    <definedName name="_ECO_RANGE_ID67fc4f88988b40c99483c885cefaa927" localSheetId="0" hidden="1">Plan1!$D$4:$D$433</definedName>
-    <definedName name="_ECO_RANGE_ID6aa846a25ccd4a769ac3f5404847cd7c" localSheetId="0" hidden="1">Plan1!$G$4:$G$433</definedName>
-    <definedName name="_ECO_RANGE_ID6b36bd044f934a0a8a012aeb1a307218" localSheetId="1" hidden="1">Planilha1!$H$4:$H$433</definedName>
-    <definedName name="_ECO_RANGE_ID6b3acb6135f747bfbf485c3efbc6a5eb" localSheetId="2" hidden="1">Planilha2!$I$4:$I$433</definedName>
-    <definedName name="_ECO_RANGE_ID708b287162a4457eb348a973154b4385" localSheetId="2" hidden="1">Planilha2!$L$4:$L$433</definedName>
-    <definedName name="_ECO_RANGE_ID7566328a442247d7bfecb4bcbab2246c" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID7658af640d2644b98943ed399bff52b4" localSheetId="0" hidden="1">Plan1!$N$4:$N$433</definedName>
-    <definedName name="_ECO_RANGE_ID7738a599301d4f99814365a0c93d688a" localSheetId="0" hidden="1">Plan1!$E$4:$E$433</definedName>
-    <definedName name="_ECO_RANGE_ID789a21b7b879411d870b9bbe2a80477d" localSheetId="2" hidden="1">Planilha2!$G$4:$G$433</definedName>
-    <definedName name="_ECO_RANGE_ID845da2f01608419f9e21fc3226a3c5c5" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID88b7a63f4d0a4e0d949346744b8e5bf1" localSheetId="1" hidden="1">Planilha1!$K$4:$K$433</definedName>
-    <definedName name="_ECO_RANGE_ID943ab3b9dc7e4e0f8e74ff45eddc8037" localSheetId="0" hidden="1">Plan1!$C$4:$C$433</definedName>
-    <definedName name="_ECO_RANGE_IDaec48c5580ee4c55a3a8651e2f580284" localSheetId="0" hidden="1">Plan1!$M$4:$M$433</definedName>
-    <definedName name="_ECO_RANGE_IDb4a7b8492e014ce7bb161028a2aefc77" localSheetId="0" hidden="1">Plan1!$A$4:$B$433</definedName>
-    <definedName name="_ECO_RANGE_IDc14ff89a3fc14ccc85aed5f58a544c91" localSheetId="2" hidden="1">Planilha2!$D$4:$D$433</definedName>
-    <definedName name="_ECO_RANGE_IDcf35bb82d59e4124b0bdef8a6205c83d" localSheetId="2" hidden="1">Planilha2!$K$4:$K$433</definedName>
-    <definedName name="_ECO_RANGE_IDd98a9741d90a44fdace0556f5b492bb0" localSheetId="2" hidden="1">Planilha2!$J$4:$J$433</definedName>
-    <definedName name="_ECO_RANGE_IDe2b1fef05ee24fba8950f2fb9ee23a78" localSheetId="1" hidden="1">Planilha1!$L$4:$L$433</definedName>
-    <definedName name="_ECO_RANGE_IDe655805bc601419080cebef1f833d85e" localSheetId="0" hidden="1">Plan1!$K$4:$K$433</definedName>
-    <definedName name="_ECO_RANGE_IDea74086133f84435816cbd67247a39a7" localSheetId="1" hidden="1">Planilha1!$G$4:$G$433</definedName>
-    <definedName name="_ECO_RANGE_IDf0bc705e73f84efcb9ebc4d0090b2542" localSheetId="1" hidden="1">Planilha1!$I$4:$I$433</definedName>
-    <definedName name="_ECO_RANGE_IDf3aa8078a64a4ef9b23b6cbdc75cf1ba" localSheetId="0" hidden="1">Plan1!$F$4:$F$433</definedName>
-    <definedName name="_ECO_RANGE_IDf70e22aa9422438f9418ce5f3f0a7dea" localSheetId="2" hidden="1">Planilha2!$H$4:$H$433</definedName>
-    <definedName name="_ECO_RANGE_IDfee95705c33f40e2a83e652d5e9ec0dd" localSheetId="1" hidden="1">Planilha1!$O$4:$O$433</definedName>
+    <definedName name="_ECO_RANGE_ID029908733f44442dbf6813900d8e281f" localSheetId="1" hidden="1">Planilha1!$J$4:$J$440</definedName>
+    <definedName name="_ECO_RANGE_ID04f75194931c49499c6df7f2146eb5f0" localSheetId="2" hidden="1">Planilha2!$J$4:$J$440</definedName>
+    <definedName name="_ECO_RANGE_ID08393428050f4c189c03805297bef887" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID0af41b9e2e2d42c8bfc417428c804302" localSheetId="1" hidden="1">Planilha1!$L$4:$L$440</definedName>
+    <definedName name="_ECO_RANGE_ID1c6bcbd145e44162bd4d71607d97924d" localSheetId="0" hidden="1">Plan1!$M$4:$M$440</definedName>
+    <definedName name="_ECO_RANGE_ID1d3f2a03c5dd4e158f34621943cac467" localSheetId="1" hidden="1">Planilha1!$H$4:$H$440</definedName>
+    <definedName name="_ECO_RANGE_ID24cce96aa19f4c1eb0d770dbf62b34ac" localSheetId="1" hidden="1">Planilha1!$D$4:$D$440</definedName>
+    <definedName name="_ECO_RANGE_ID2e16a2dbf2e5497a868aa9f48e90d9e0" localSheetId="0" hidden="1">Plan1!$H$4:$H$440</definedName>
+    <definedName name="_ECO_RANGE_ID2fa70b5e4ce54838aba0befa5b87486e" localSheetId="2" hidden="1">Planilha2!$A$4:$B$440</definedName>
+    <definedName name="_ECO_RANGE_ID39f10083bcf642d7b13695520cb5d5c4" localSheetId="1" hidden="1">Planilha1!$E$4:$E$440</definedName>
+    <definedName name="_ECO_RANGE_ID4edaa2fb1e554565b912f49f74610ed2" localSheetId="2" hidden="1">Planilha2!$F$4:$F$440</definedName>
+    <definedName name="_ECO_RANGE_ID50085697d54f45558f3b70556c56139f" localSheetId="2" hidden="1">Planilha2!$P$4:$P$440</definedName>
+    <definedName name="_ECO_RANGE_ID5667c7bc4c0d488da862a1bd725b5b25" localSheetId="0" hidden="1">Plan1!$D$4:$D$440</definedName>
+    <definedName name="_ECO_RANGE_ID5adcaa22d943403386128f327f6fe940" localSheetId="2" hidden="1">Planilha2!$H$4:$H$440</definedName>
+    <definedName name="_ECO_RANGE_ID5f6d2b62fda54eee885f97badebb2494" localSheetId="0" hidden="1">Plan1!$G$4:$G$440</definedName>
+    <definedName name="_ECO_RANGE_ID5fcc2c76facf4669afce9975355bff1f" localSheetId="2" hidden="1">Planilha2!$L$4:$L$440</definedName>
+    <definedName name="_ECO_RANGE_ID6109c8639fe1484b98751b868c813af5" localSheetId="2" hidden="1">Planilha2!$C$4:$C$440</definedName>
+    <definedName name="_ECO_RANGE_ID66c4f8da5ca84f97a6862bfb9ee92207" localSheetId="0" hidden="1">Plan1!$O$4:$O$440</definedName>
+    <definedName name="_ECO_RANGE_ID72b181e511444be7aca30b89c5ccddd0" localSheetId="1" hidden="1">Planilha1!$O$4:$O$440</definedName>
+    <definedName name="_ECO_RANGE_ID72e817c6c223498bb78f55c53c767202" localSheetId="1" hidden="1">Planilha1!$C$4:$C$440</definedName>
+    <definedName name="_ECO_RANGE_ID73c5651691db456ea0b4f662e9892c5b" localSheetId="1" hidden="1">Planilha1!$F$4:$F$440</definedName>
+    <definedName name="_ECO_RANGE_ID75b1289bd1864537a378c0783bb67756" localSheetId="0" hidden="1">Plan1!$I$4:$I$440</definedName>
+    <definedName name="_ECO_RANGE_ID799a97eb1ef7420486f512254440ca72" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID7accaef5025e424dbe6dc8bbba1fd76f" localSheetId="0" hidden="1">Plan1!$J$4:$J$440</definedName>
+    <definedName name="_ECO_RANGE_ID86152eecd07442b1a462bc83b7941c93" localSheetId="1" hidden="1">Planilha1!$N$4:$N$440</definedName>
+    <definedName name="_ECO_RANGE_ID86c9856eb7b44ac596195ea08607de1e" localSheetId="0" hidden="1">Plan1!$C$4:$C$440</definedName>
+    <definedName name="_ECO_RANGE_ID89aea58f58dd4e9986a73f0ce409d39e" localSheetId="2" hidden="1">Planilha2!$E$4:$E$440</definedName>
+    <definedName name="_ECO_RANGE_ID9d44b1dd06ad474486571333c8ca192d" localSheetId="0" hidden="1">Plan1!$E$4:$E$440</definedName>
+    <definedName name="_ECO_RANGE_IDa0f9c2afc51e4bf58d0b44e92658cb78" localSheetId="2" hidden="1">Planilha2!$I$4:$I$440</definedName>
+    <definedName name="_ECO_RANGE_IDa3ddebcec1ae4d449d4e4944c8ef478c" localSheetId="1" hidden="1">Planilha1!$K$4:$K$440</definedName>
+    <definedName name="_ECO_RANGE_IDb2177026ff5a4c0bbe3b3a43a00ee125" localSheetId="2" hidden="1">Planilha2!$D$4:$D$440</definedName>
+    <definedName name="_ECO_RANGE_IDb7c25b93a0334a93835ffed09c9c62e0" localSheetId="0" hidden="1">Plan1!$F$4:$F$440</definedName>
+    <definedName name="_ECO_RANGE_IDbe19e7b51c4f4e5ea15de492f4fd937a" localSheetId="2" hidden="1">Planilha2!$O$4:$O$440</definedName>
+    <definedName name="_ECO_RANGE_IDc15202fefb47432597ad7b67d8f487bd" localSheetId="1" hidden="1">Planilha1!$M$4:$M$440</definedName>
+    <definedName name="_ECO_RANGE_IDc2ff25f6befa4a91a45936004ccdb406" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDc4c11a0f83cf40b89e1782c2f2c247eb" localSheetId="2" hidden="1">Planilha2!$N$4:$N$440</definedName>
+    <definedName name="_ECO_RANGE_IDd3c08c2ba4b142e0920d55b0cccc9f8f" localSheetId="2" hidden="1">Planilha2!$G$4:$G$440</definedName>
+    <definedName name="_ECO_RANGE_IDd8606d32f81047fd85aa206d5d66ab52" localSheetId="2" hidden="1">Planilha2!$M$4:$M$440</definedName>
+    <definedName name="_ECO_RANGE_IDda0ceade8adc42bc9e7a1fb2d795af78" localSheetId="1" hidden="1">Planilha1!$I$4:$I$440</definedName>
+    <definedName name="_ECO_RANGE_IDda444cd0e18f42af9eebd94b2eec1373" localSheetId="1" hidden="1">Planilha1!$G$4:$G$440</definedName>
+    <definedName name="_ECO_RANGE_IDdcc724547f3846d1a020a11d1d5be547" localSheetId="1" hidden="1">Planilha1!$A$4:$B$440</definedName>
+    <definedName name="_ECO_RANGE_IDde7e164b8e904c1fa417b74e91c0ccaf" localSheetId="0" hidden="1">Plan1!$N$4:$N$440</definedName>
+    <definedName name="_ECO_RANGE_IDe300d24185f541c2af34fd48c93913c6" localSheetId="0" hidden="1">Plan1!$K$4:$K$440</definedName>
+    <definedName name="_ECO_RANGE_IDe8beb41137244b0d9f0f055f6dc2eadf" localSheetId="0" hidden="1">Plan1!$A$4:$B$440</definedName>
+    <definedName name="_ECO_RANGE_IDf146b8d9597d4116b8c95c966ddaae49" localSheetId="2" hidden="1">Planilha2!$K$4:$K$440</definedName>
+    <definedName name="_ECO_RANGE_IDf50c790842e04a8ea6cd9cfa18f11b2a" localSheetId="0" hidden="1">Plan1!$L$4:$L$440</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,304 +286,308 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>d6e3f97b-ed38-4dd0-94e9-62f842a0d687</stp>
-        <tr r="J3" s="1"/>
+        <stp>612a03b2-5b8f-418f-a660-6c2e6adf00bb</stp>
+        <tr r="G3" s="3"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>39d09f55-5abc-4b15-b625-fb9b6b031e79</stp>
+        <stp>f4958906-ca69-4784-9d31-b6fbf293e9b2</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>3d160c78-c355-4f88-9c09-da0dc941bcfe</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>bfd8e4cc-a222-46ab-b8e0-3b4fcd2bae0c</stp>
+        <tr r="I3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9209eae4-01eb-4def-af7a-db04628f5557</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>94c99e42-25f8-45a7-91e2-7039a68fda3a</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>444ac73a-5daa-48b9-88ef-c0dbf8a4b479</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>32b1c078-dbab-4d18-bc07-b1a50771a913</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>8d83911a-623a-46ab-acb8-69b8f8a9c322</stp>
+        <tr r="L3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>0adaf50c-106d-4fb1-a958-4a5e050b0e29</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>f0126f9b-3164-496d-8064-67138e451582</stp>
         <tr r="M3" s="3"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>f636a5d6-caed-4a91-b5ed-0c1c9988cf80</stp>
+        <stp>a87090b3-5f19-4577-88ff-5999b3a22646</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>d4fc273a-a40f-428c-86a1-482103a06890</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>614f3a13-08c5-4fba-bcec-e225f7ce3232</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6a174227-71ce-4a0b-b76a-668571789e68</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a338e93f-ffe9-4da3-94d6-1f395f90fdc9</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>24a032fa-0741-480a-b127-1918ea002eb4</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>d8aefa51-8bd1-4aa2-9d9e-d6dcb4caa0b6</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>4368cd24-05d3-4419-a300-ea111a921655</stp>
         <tr r="M3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>562c30fb-91aa-4ea2-8ed1-d6a1a7f80c97</stp>
+        <stp>1f6244ff-02aa-4600-981e-2530e585a863</stp>
+        <tr r="D3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>0cbfb593-245a-4f40-b38d-7875eddf150b</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>48e348a0-248c-42a5-807d-d644c76d3535</stp>
         <tr r="M3" s="2"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>e2b58e48-ddc3-4fb1-8dba-b9f1ac09e0aa</stp>
-        <tr r="L3" s="2"/>
+        <stp>dee4882d-28db-4c0e-ab88-413e05744270</stp>
+        <tr r="A3" s="3"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>e058a632-8870-4cc8-bf6b-feda394cea99</stp>
-        <tr r="J3" s="2"/>
+        <stp>ce7b7cbe-e603-4ad5-a5f7-0a9ed7d34bb5</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>0c13e52a-7dd2-4b0d-ae50-7cbefdf813bb</stp>
+        <tr r="N3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>bd245a38-0bb4-4239-bf3c-b580a4f36385</stp>
-        <tr r="I3" s="2"/>
+        <stp>dd22e271-ee14-46ff-8488-383704dbef23</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>cc18e618-e6a5-472e-a5b2-46e9539eb4ad</stp>
+        <tr r="O3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>c9819c3c-bc76-4868-af12-b89efdb12aba</stp>
-        <tr r="O3" s="1"/>
+        <stp>fe7de5d7-3f3b-439c-b1f5-b0ae14517ba0</stp>
+        <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>302e8fa1-e152-4993-a563-f0a1a83ea10b</stp>
-        <tr r="H3" s="2"/>
+        <stp>75b8279a-ae81-4d86-8aa5-f25c06b9030b</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>fe208e6b-060c-4e4d-9655-2c4bc76b8628</stp>
+        <tr r="C3" s="2"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>eefa5927-e1a9-438d-b469-139071e56f0c</stp>
+        <stp>11ecbc53-7c00-4744-bdea-4f104ed7c5d8</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>80171aac-dcbd-4e42-bc65-4a0141d45c0d</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>b62adf36-4f0e-49c6-8f24-bf8fca6b3e15</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>3163bcf9-ebc0-4633-a0c7-21e8fee1a162</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>55265756-282e-4597-831e-e76a2b176ad7</stp>
+        <tr r="H3" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c6553f08-25a1-4fab-9fe5-c05ec58b8b42</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>1df1da48-a72e-4fb9-ad74-ddeaeb914c30</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>ff425870-bcba-4f1d-a7ef-22bcd8188992</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c9047d6e-f911-48bd-826b-fcf08f533e33</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>af68d357-5090-45e1-9b09-7ca592fb08ed</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>90d6f0dd-a60a-4216-888c-fd3706fae6a7</stp>
         <tr r="O3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
+    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>313ffd8c-6410-43b9-b6e6-25aa2046d4d6</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d1ec6ccd-b639-4960-84ec-1f04ba122ce4</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0aee983d-42f2-4b7a-9f8e-571a5c5a9aae</stp>
-        <tr r="K3" s="3"/>
+        <stp>a9934f5a-782f-4ab2-90d4-e9cd8540385c</stp>
+        <tr r="O3" s="3"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>fe29a647-053d-4d8d-8fd7-3d0da14cf66e</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>eba07e23-5aec-40f3-ad0f-66b810e067ca</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>dbfff649-7406-4c2a-9f0a-8b5554f1fd8f</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d7f955d3-a780-468d-8a79-9558e7a9e236</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bb236245-cd54-4fcb-8c91-f8a885d78f8d</stp>
-        <tr r="L3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b77121e7-aa67-41ae-bc4c-63ce0d58dc68</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6b4b4143-1f71-447e-842f-20b80d224ec8</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>707bfea6-66fb-4980-8365-afe2b41fb3b3</stp>
-        <tr r="A3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0dd30c73-7c90-4827-bbcf-269663efdf7c</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f140bc46-dbaf-4c5f-aee2-9f88166cdbf6</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>821f0b18-bc3f-44b6-8393-026a010908aa</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ae3480bd-46be-4d1b-9d0d-35f7752b95a4</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>00fa5c0a-24dd-4ec9-b9b3-dbd3adaa8dbc</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e313f86e-22ea-4c9c-9141-9573f4554445</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>045726c3-0899-4f5c-9380-98c375c67901</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e8e6c8ae-b8f4-47bf-889a-b52423763da6</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7e3efb00-468c-4507-84f7-3a7729ad7d59</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>923393ce-eb59-467c-a79a-467d1a194743</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a34cda8b-aa5f-4577-afaa-ba55ddd070a8</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9166e56c-4f13-45dd-8c05-6d0bf20f8a23</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8dd3c9a0-044c-4d38-94df-22ba7e56d42f</stp>
-        <tr r="D3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>66e9f25a-0984-49f2-99b7-a210a09094fb</stp>
-        <tr r="G3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ad45c20f-244f-4223-beaa-a7be3eeb0638</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8f196591-78f3-4392-a2f0-b1e696d59b31</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>323bf7d9-594e-4012-bf81-3242eec5b867</stp>
-        <tr r="I3" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>641dc17d-8356-44f6-a01e-72dd3d55d9f1</stp>
-        <tr r="N3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>20bcc4eb-4d81-46b9-b6ab-74ed39d000cc</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_3ca2e058cfa24896ad34f239fb31cf9b">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8b8ff9b9-02d2-49a7-aa43-3143e48be90b</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2758514a-d032-41fe-9494-3ae8119ca988</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>76bcc1b2-dd88-402f-8b52-61c454afbcc9</stp>
-        <tr r="J3" s="3"/>
+        <stp>1924362f-5811-49d6-bcbd-11acee86902c</stp>
+        <tr r="J3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -853,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O433"/>
+  <dimension ref="A1:O440"/>
   <sheetViews>
-    <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="C448" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20215,6 +20219,275 @@
         <v>7.2367999999999997</v>
       </c>
     </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C434">
+        <v>10.34</v>
+      </c>
+      <c r="D434">
+        <v>8.5775000000000006</v>
+      </c>
+      <c r="E434">
+        <v>8.1433999999999997</v>
+      </c>
+      <c r="F434">
+        <v>7.95</v>
+      </c>
+      <c r="G434">
+        <v>7.8449</v>
+      </c>
+      <c r="H434">
+        <v>7.7507000000000001</v>
+      </c>
+      <c r="I434">
+        <v>7.74</v>
+      </c>
+      <c r="J434">
+        <v>7.4798999999999998</v>
+      </c>
+      <c r="K434">
+        <v>7.3372999999999999</v>
+      </c>
+      <c r="L434">
+        <v>7.2531999999999996</v>
+      </c>
+      <c r="M434">
+        <v>7.2389000000000001</v>
+      </c>
+      <c r="N434">
+        <v>7.1996000000000002</v>
+      </c>
+      <c r="O434">
+        <v>7.2149000000000001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>46015</v>
+      </c>
+      <c r="C435">
+        <v>10.34</v>
+      </c>
+      <c r="D435">
+        <v>8.5775000000000006</v>
+      </c>
+      <c r="E435">
+        <v>8.1433999999999997</v>
+      </c>
+      <c r="F435">
+        <v>7.95</v>
+      </c>
+      <c r="G435">
+        <v>7.8449</v>
+      </c>
+      <c r="H435">
+        <v>7.7507000000000001</v>
+      </c>
+      <c r="I435">
+        <v>7.74</v>
+      </c>
+      <c r="J435">
+        <v>7.4798999999999998</v>
+      </c>
+      <c r="K435">
+        <v>7.3372999999999999</v>
+      </c>
+      <c r="L435">
+        <v>7.2531999999999996</v>
+      </c>
+      <c r="M435">
+        <v>7.2389000000000001</v>
+      </c>
+      <c r="N435">
+        <v>7.1996000000000002</v>
+      </c>
+      <c r="O435">
+        <v>7.2149000000000001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>46016</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>46017</v>
+      </c>
+      <c r="C437">
+        <v>10.3</v>
+      </c>
+      <c r="D437">
+        <v>8.4844000000000008</v>
+      </c>
+      <c r="E437">
+        <v>8.0463000000000005</v>
+      </c>
+      <c r="F437">
+        <v>7.8667999999999996</v>
+      </c>
+      <c r="G437">
+        <v>7.7641999999999998</v>
+      </c>
+      <c r="H437">
+        <v>7.68</v>
+      </c>
+      <c r="I437">
+        <v>7.6748000000000003</v>
+      </c>
+      <c r="J437">
+        <v>7.4260999999999999</v>
+      </c>
+      <c r="K437">
+        <v>7.2991999999999999</v>
+      </c>
+      <c r="L437">
+        <v>7.2159000000000004</v>
+      </c>
+      <c r="M437">
+        <v>7.2068000000000003</v>
+      </c>
+      <c r="N437">
+        <v>7.1677</v>
+      </c>
+      <c r="O437">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C438">
+        <v>10.3032</v>
+      </c>
+      <c r="D438">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E438">
+        <v>8.0104000000000006</v>
+      </c>
+      <c r="F438">
+        <v>7.84</v>
+      </c>
+      <c r="G438">
+        <v>7.74</v>
+      </c>
+      <c r="H438">
+        <v>7.66</v>
+      </c>
+      <c r="I438">
+        <v>7.66</v>
+      </c>
+      <c r="J438">
+        <v>7.39</v>
+      </c>
+      <c r="K438">
+        <v>7.2685000000000004</v>
+      </c>
+      <c r="L438">
+        <v>7.1896000000000004</v>
+      </c>
+      <c r="M438">
+        <v>7.1757999999999997</v>
+      </c>
+      <c r="N438">
+        <v>7.1338999999999997</v>
+      </c>
+      <c r="O438">
+        <v>7.1738</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C439">
+        <v>10.309200000000001</v>
+      </c>
+      <c r="D439">
+        <v>8.4861000000000004</v>
+      </c>
+      <c r="E439">
+        <v>8.0101999999999993</v>
+      </c>
+      <c r="F439">
+        <v>7.84</v>
+      </c>
+      <c r="G439">
+        <v>7.7378999999999998</v>
+      </c>
+      <c r="H439">
+        <v>7.6645000000000003</v>
+      </c>
+      <c r="I439">
+        <v>7.6627000000000001</v>
+      </c>
+      <c r="J439">
+        <v>7.39</v>
+      </c>
+      <c r="K439">
+        <v>7.27</v>
+      </c>
+      <c r="L439">
+        <v>7.1696999999999997</v>
+      </c>
+      <c r="M439">
+        <v>7.1577999999999999</v>
+      </c>
+      <c r="N439">
+        <v>7.1173999999999999</v>
+      </c>
+      <c r="O439">
+        <v>7.1620999999999997</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C440">
+        <v>10.309200000000001</v>
+      </c>
+      <c r="D440">
+        <v>8.4861000000000004</v>
+      </c>
+      <c r="E440">
+        <v>8.0101999999999993</v>
+      </c>
+      <c r="F440">
+        <v>7.84</v>
+      </c>
+      <c r="G440">
+        <v>7.7378999999999998</v>
+      </c>
+      <c r="H440">
+        <v>7.6645000000000003</v>
+      </c>
+      <c r="I440">
+        <v>7.6627000000000001</v>
+      </c>
+      <c r="J440">
+        <v>7.39</v>
+      </c>
+      <c r="K440">
+        <v>7.27</v>
+      </c>
+      <c r="L440">
+        <v>7.1696999999999997</v>
+      </c>
+      <c r="M440">
+        <v>7.1577999999999999</v>
+      </c>
+      <c r="N440">
+        <v>7.1173999999999999</v>
+      </c>
+      <c r="O440">
+        <v>7.1620999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20222,10 +20495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O433"/>
+  <dimension ref="A1:O440"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433"/>
+      <selection activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39584,6 +39857,275 @@
         <v>3991.4278979999999</v>
       </c>
     </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C434">
+        <v>4557.249041</v>
+      </c>
+      <c r="D434">
+        <v>4464.4953409999998</v>
+      </c>
+      <c r="E434">
+        <v>4456.2819870000003</v>
+      </c>
+      <c r="F434">
+        <v>4363.349835</v>
+      </c>
+      <c r="G434">
+        <v>4370.3872380000003</v>
+      </c>
+      <c r="H434">
+        <v>4285.3801720000001</v>
+      </c>
+      <c r="I434">
+        <v>4188.3802370000003</v>
+      </c>
+      <c r="J434">
+        <v>4181.8141299999997</v>
+      </c>
+      <c r="K434">
+        <v>4158.8533450000004</v>
+      </c>
+      <c r="L434">
+        <v>4046.9687079999999</v>
+      </c>
+      <c r="M434">
+        <v>4060.2107390000001</v>
+      </c>
+      <c r="N434">
+        <v>3974.4852900000001</v>
+      </c>
+      <c r="O434">
+        <v>4004.2089369999999</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>46015</v>
+      </c>
+      <c r="C435">
+        <v>4558.5980529999997</v>
+      </c>
+      <c r="D435">
+        <v>4465.5328529999997</v>
+      </c>
+      <c r="E435">
+        <v>4457.2470720000001</v>
+      </c>
+      <c r="F435">
+        <v>4364.2596510000003</v>
+      </c>
+      <c r="G435">
+        <v>4371.2826619999996</v>
+      </c>
+      <c r="H435">
+        <v>4286.2424540000002</v>
+      </c>
+      <c r="I435">
+        <v>4189.224236</v>
+      </c>
+      <c r="J435">
+        <v>4182.6175720000001</v>
+      </c>
+      <c r="K435">
+        <v>4159.6269309999998</v>
+      </c>
+      <c r="L435">
+        <v>4047.7116919999999</v>
+      </c>
+      <c r="M435">
+        <v>4060.9570469999999</v>
+      </c>
+      <c r="N435">
+        <v>3975.2076750000001</v>
+      </c>
+      <c r="O435">
+        <v>4004.9376619999998</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>46016</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>46017</v>
+      </c>
+      <c r="C437">
+        <v>4562.1354259999998</v>
+      </c>
+      <c r="D437">
+        <v>4472.7800399999996</v>
+      </c>
+      <c r="E437">
+        <v>4468.986543</v>
+      </c>
+      <c r="F437">
+        <v>4376.5789699999996</v>
+      </c>
+      <c r="G437">
+        <v>4386.3258320000004</v>
+      </c>
+      <c r="H437">
+        <v>4303.3356489999996</v>
+      </c>
+      <c r="I437">
+        <v>4206.205653</v>
+      </c>
+      <c r="J437">
+        <v>4199.414882</v>
+      </c>
+      <c r="K437">
+        <v>4175.3634700000002</v>
+      </c>
+      <c r="L437">
+        <v>4065.1461380000001</v>
+      </c>
+      <c r="M437">
+        <v>4077.4418270000001</v>
+      </c>
+      <c r="N437">
+        <v>3992.3832969999999</v>
+      </c>
+      <c r="O437">
+        <v>4019.1070869999999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C438">
+        <v>4564.5662549999997</v>
+      </c>
+      <c r="D438">
+        <v>4475.7319020000004</v>
+      </c>
+      <c r="E438">
+        <v>4474.6472169999997</v>
+      </c>
+      <c r="F438">
+        <v>4381.9180660000002</v>
+      </c>
+      <c r="G438">
+        <v>4392.2477479999998</v>
+      </c>
+      <c r="H438">
+        <v>4309.5874059999996</v>
+      </c>
+      <c r="I438">
+        <v>4211.5492469999999</v>
+      </c>
+      <c r="J438">
+        <v>4211.3387169999996</v>
+      </c>
+      <c r="K438">
+        <v>4188.450484</v>
+      </c>
+      <c r="L438">
+        <v>4078.0185369999999</v>
+      </c>
+      <c r="M438">
+        <v>4093.5061949999999</v>
+      </c>
+      <c r="N438">
+        <v>4010.5941330000001</v>
+      </c>
+      <c r="O438">
+        <v>4028.9742849999998</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C439">
+        <v>4566.9290890000002</v>
+      </c>
+      <c r="D439">
+        <v>4477.0275579999998</v>
+      </c>
+      <c r="E439">
+        <v>4476.7574869999999</v>
+      </c>
+      <c r="F439">
+        <v>4383.9401079999998</v>
+      </c>
+      <c r="G439">
+        <v>4394.6010379999998</v>
+      </c>
+      <c r="H439">
+        <v>4310.5769799999998</v>
+      </c>
+      <c r="I439">
+        <v>4212.8388189999996</v>
+      </c>
+      <c r="J439">
+        <v>4213.2095939999999</v>
+      </c>
+      <c r="K439">
+        <v>4189.7454779999998</v>
+      </c>
+      <c r="L439">
+        <v>4088.226326</v>
+      </c>
+      <c r="M439">
+        <v>4103.6249379999999</v>
+      </c>
+      <c r="N439">
+        <v>4020.4202479999999</v>
+      </c>
+      <c r="O439">
+        <v>4036.6107630000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C440">
+        <v>4569.4482260000004</v>
+      </c>
+      <c r="D440">
+        <v>4479.1979540000002</v>
+      </c>
+      <c r="E440">
+        <v>4478.8500100000001</v>
+      </c>
+      <c r="F440">
+        <v>4385.9626879999996</v>
+      </c>
+      <c r="G440">
+        <v>4396.6116069999998</v>
+      </c>
+      <c r="H440">
+        <v>4312.5373419999996</v>
+      </c>
+      <c r="I440">
+        <v>4214.755913</v>
+      </c>
+      <c r="J440">
+        <v>4215.0855439999996</v>
+      </c>
+      <c r="K440">
+        <v>4191.590166</v>
+      </c>
+      <c r="L440">
+        <v>4090.0133999999998</v>
+      </c>
+      <c r="M440">
+        <v>4105.4145010000002</v>
+      </c>
+      <c r="N440">
+        <v>4022.1688920000001</v>
+      </c>
+      <c r="O440">
+        <v>4038.371181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -39591,10 +40133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z433"/>
+  <dimension ref="A1:Z440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433"/>
+    <sheetView topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="A443" sqref="A441:XFD443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58777,6 +59319,293 @@
         <v>0.1016</v>
       </c>
     </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C434">
+        <v>5.3E-3</v>
+      </c>
+      <c r="D434">
+        <v>-0.01</v>
+      </c>
+      <c r="E434">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F434">
+        <v>3.39E-2</v>
+      </c>
+      <c r="G434">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="H434">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="I434">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="J434">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="K434">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="L434">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="M434">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="N434">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="O434">
+        <v>0.1012</v>
+      </c>
+      <c r="P434">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>46015</v>
+      </c>
+      <c r="C435">
+        <v>5.3E-3</v>
+      </c>
+      <c r="D435">
+        <v>-0.01</v>
+      </c>
+      <c r="E435">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F435">
+        <v>3.39E-2</v>
+      </c>
+      <c r="G435">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="H435">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="I435">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="J435">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="K435">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="L435">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="M435">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="N435">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="O435">
+        <v>0.1012</v>
+      </c>
+      <c r="P435">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>46016</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>46017</v>
+      </c>
+      <c r="C437">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D437">
+        <v>-0.01</v>
+      </c>
+      <c r="E437">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F437">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G437">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="H437">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="I437">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="J437">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="K437">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="L437">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="M437">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="N437">
+        <v>0.1007</v>
+      </c>
+      <c r="O437">
+        <v>0.1011</v>
+      </c>
+      <c r="P437">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C438">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D438">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+      <c r="E438">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="F438">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G438">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="H438">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="I438">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="J438">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="K438">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="L438">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="M438">
+        <v>0.1002</v>
+      </c>
+      <c r="N438">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="O438">
+        <v>0.1012</v>
+      </c>
+      <c r="P438">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C439">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="D439">
+        <v>-9.1000000000000004E-3</v>
+      </c>
+      <c r="E439">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="F439">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G439">
+        <v>4.87E-2</v>
+      </c>
+      <c r="H439">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="I439">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="J439">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="K439">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="L439">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="M439">
+        <v>0.1</v>
+      </c>
+      <c r="N439">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="O439">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P439">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C440">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="D440">
+        <v>-9.1000000000000004E-3</v>
+      </c>
+      <c r="E440">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="F440">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G440">
+        <v>4.87E-2</v>
+      </c>
+      <c r="H440">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="I440">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="J440">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="K440">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="L440">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="M440">
+        <v>0.1</v>
+      </c>
+      <c r="N440">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="O440">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P440">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados/Atualizar.xlsx
+++ b/Dados/Atualizar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\22.0-Hedge\PagJuros\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6C7FBB-1FB1-444B-AB46-7A08EEA96A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC04719E-49A3-405E-B275-007A63F5194A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,52 +18,52 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID029908733f44442dbf6813900d8e281f" localSheetId="1" hidden="1">Planilha1!$J$4:$J$440</definedName>
-    <definedName name="_ECO_RANGE_ID04f75194931c49499c6df7f2146eb5f0" localSheetId="2" hidden="1">Planilha2!$J$4:$J$440</definedName>
-    <definedName name="_ECO_RANGE_ID08393428050f4c189c03805297bef887" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID0af41b9e2e2d42c8bfc417428c804302" localSheetId="1" hidden="1">Planilha1!$L$4:$L$440</definedName>
-    <definedName name="_ECO_RANGE_ID1c6bcbd145e44162bd4d71607d97924d" localSheetId="0" hidden="1">Plan1!$M$4:$M$440</definedName>
-    <definedName name="_ECO_RANGE_ID1d3f2a03c5dd4e158f34621943cac467" localSheetId="1" hidden="1">Planilha1!$H$4:$H$440</definedName>
-    <definedName name="_ECO_RANGE_ID24cce96aa19f4c1eb0d770dbf62b34ac" localSheetId="1" hidden="1">Planilha1!$D$4:$D$440</definedName>
-    <definedName name="_ECO_RANGE_ID2e16a2dbf2e5497a868aa9f48e90d9e0" localSheetId="0" hidden="1">Plan1!$H$4:$H$440</definedName>
-    <definedName name="_ECO_RANGE_ID2fa70b5e4ce54838aba0befa5b87486e" localSheetId="2" hidden="1">Planilha2!$A$4:$B$440</definedName>
-    <definedName name="_ECO_RANGE_ID39f10083bcf642d7b13695520cb5d5c4" localSheetId="1" hidden="1">Planilha1!$E$4:$E$440</definedName>
-    <definedName name="_ECO_RANGE_ID4edaa2fb1e554565b912f49f74610ed2" localSheetId="2" hidden="1">Planilha2!$F$4:$F$440</definedName>
-    <definedName name="_ECO_RANGE_ID50085697d54f45558f3b70556c56139f" localSheetId="2" hidden="1">Planilha2!$P$4:$P$440</definedName>
-    <definedName name="_ECO_RANGE_ID5667c7bc4c0d488da862a1bd725b5b25" localSheetId="0" hidden="1">Plan1!$D$4:$D$440</definedName>
-    <definedName name="_ECO_RANGE_ID5adcaa22d943403386128f327f6fe940" localSheetId="2" hidden="1">Planilha2!$H$4:$H$440</definedName>
-    <definedName name="_ECO_RANGE_ID5f6d2b62fda54eee885f97badebb2494" localSheetId="0" hidden="1">Plan1!$G$4:$G$440</definedName>
-    <definedName name="_ECO_RANGE_ID5fcc2c76facf4669afce9975355bff1f" localSheetId="2" hidden="1">Planilha2!$L$4:$L$440</definedName>
-    <definedName name="_ECO_RANGE_ID6109c8639fe1484b98751b868c813af5" localSheetId="2" hidden="1">Planilha2!$C$4:$C$440</definedName>
-    <definedName name="_ECO_RANGE_ID66c4f8da5ca84f97a6862bfb9ee92207" localSheetId="0" hidden="1">Plan1!$O$4:$O$440</definedName>
-    <definedName name="_ECO_RANGE_ID72b181e511444be7aca30b89c5ccddd0" localSheetId="1" hidden="1">Planilha1!$O$4:$O$440</definedName>
-    <definedName name="_ECO_RANGE_ID72e817c6c223498bb78f55c53c767202" localSheetId="1" hidden="1">Planilha1!$C$4:$C$440</definedName>
-    <definedName name="_ECO_RANGE_ID73c5651691db456ea0b4f662e9892c5b" localSheetId="1" hidden="1">Planilha1!$F$4:$F$440</definedName>
-    <definedName name="_ECO_RANGE_ID75b1289bd1864537a378c0783bb67756" localSheetId="0" hidden="1">Plan1!$I$4:$I$440</definedName>
-    <definedName name="_ECO_RANGE_ID799a97eb1ef7420486f512254440ca72" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID7accaef5025e424dbe6dc8bbba1fd76f" localSheetId="0" hidden="1">Plan1!$J$4:$J$440</definedName>
-    <definedName name="_ECO_RANGE_ID86152eecd07442b1a462bc83b7941c93" localSheetId="1" hidden="1">Planilha1!$N$4:$N$440</definedName>
-    <definedName name="_ECO_RANGE_ID86c9856eb7b44ac596195ea08607de1e" localSheetId="0" hidden="1">Plan1!$C$4:$C$440</definedName>
-    <definedName name="_ECO_RANGE_ID89aea58f58dd4e9986a73f0ce409d39e" localSheetId="2" hidden="1">Planilha2!$E$4:$E$440</definedName>
-    <definedName name="_ECO_RANGE_ID9d44b1dd06ad474486571333c8ca192d" localSheetId="0" hidden="1">Plan1!$E$4:$E$440</definedName>
-    <definedName name="_ECO_RANGE_IDa0f9c2afc51e4bf58d0b44e92658cb78" localSheetId="2" hidden="1">Planilha2!$I$4:$I$440</definedName>
-    <definedName name="_ECO_RANGE_IDa3ddebcec1ae4d449d4e4944c8ef478c" localSheetId="1" hidden="1">Planilha1!$K$4:$K$440</definedName>
-    <definedName name="_ECO_RANGE_IDb2177026ff5a4c0bbe3b3a43a00ee125" localSheetId="2" hidden="1">Planilha2!$D$4:$D$440</definedName>
-    <definedName name="_ECO_RANGE_IDb7c25b93a0334a93835ffed09c9c62e0" localSheetId="0" hidden="1">Plan1!$F$4:$F$440</definedName>
-    <definedName name="_ECO_RANGE_IDbe19e7b51c4f4e5ea15de492f4fd937a" localSheetId="2" hidden="1">Planilha2!$O$4:$O$440</definedName>
-    <definedName name="_ECO_RANGE_IDc15202fefb47432597ad7b67d8f487bd" localSheetId="1" hidden="1">Planilha1!$M$4:$M$440</definedName>
-    <definedName name="_ECO_RANGE_IDc2ff25f6befa4a91a45936004ccdb406" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDc4c11a0f83cf40b89e1782c2f2c247eb" localSheetId="2" hidden="1">Planilha2!$N$4:$N$440</definedName>
-    <definedName name="_ECO_RANGE_IDd3c08c2ba4b142e0920d55b0cccc9f8f" localSheetId="2" hidden="1">Planilha2!$G$4:$G$440</definedName>
-    <definedName name="_ECO_RANGE_IDd8606d32f81047fd85aa206d5d66ab52" localSheetId="2" hidden="1">Planilha2!$M$4:$M$440</definedName>
-    <definedName name="_ECO_RANGE_IDda0ceade8adc42bc9e7a1fb2d795af78" localSheetId="1" hidden="1">Planilha1!$I$4:$I$440</definedName>
-    <definedName name="_ECO_RANGE_IDda444cd0e18f42af9eebd94b2eec1373" localSheetId="1" hidden="1">Planilha1!$G$4:$G$440</definedName>
-    <definedName name="_ECO_RANGE_IDdcc724547f3846d1a020a11d1d5be547" localSheetId="1" hidden="1">Planilha1!$A$4:$B$440</definedName>
-    <definedName name="_ECO_RANGE_IDde7e164b8e904c1fa417b74e91c0ccaf" localSheetId="0" hidden="1">Plan1!$N$4:$N$440</definedName>
-    <definedName name="_ECO_RANGE_IDe300d24185f541c2af34fd48c93913c6" localSheetId="0" hidden="1">Plan1!$K$4:$K$440</definedName>
-    <definedName name="_ECO_RANGE_IDe8beb41137244b0d9f0f055f6dc2eadf" localSheetId="0" hidden="1">Plan1!$A$4:$B$440</definedName>
-    <definedName name="_ECO_RANGE_IDf146b8d9597d4116b8c95c966ddaae49" localSheetId="2" hidden="1">Planilha2!$K$4:$K$440</definedName>
-    <definedName name="_ECO_RANGE_IDf50c790842e04a8ea6cd9cfa18f11b2a" localSheetId="0" hidden="1">Plan1!$L$4:$L$440</definedName>
+    <definedName name="_ECO_RANGE_ID05c7812a23f34f5f977fa5cdfd685716" localSheetId="1" hidden="1">Planilha1!$M$4:$M$452</definedName>
+    <definedName name="_ECO_RANGE_ID095de75469e64788ab657422d3e4fbd4" localSheetId="2" hidden="1">Planilha2!$D$4:$D$452</definedName>
+    <definedName name="_ECO_RANGE_ID0ca1ed1192714474af2d2f1446c2a469" localSheetId="2" hidden="1">Planilha2!$F$4:$F$452</definedName>
+    <definedName name="_ECO_RANGE_ID0eedf44f02ef4e7a907e1c5f91d0f31a" localSheetId="1" hidden="1">Planilha1!$H$4:$H$452</definedName>
+    <definedName name="_ECO_RANGE_ID113f90e2d08749f484a7ba349d0f75ac" localSheetId="2" hidden="1">Planilha2!$M$4:$M$452</definedName>
+    <definedName name="_ECO_RANGE_ID1c916c64bef9464fb50898ac23582003" localSheetId="0" hidden="1">Plan1!$H$4:$H$452</definedName>
+    <definedName name="_ECO_RANGE_ID22e24785a72046108b5610f1dc776ecd" localSheetId="0" hidden="1">Plan1!$G$4:$G$452</definedName>
+    <definedName name="_ECO_RANGE_ID284d3845769a43839142ba4d453afc5a" localSheetId="2" hidden="1">Planilha2!$A$4:$B$452</definedName>
+    <definedName name="_ECO_RANGE_ID285d080de1ff40d68d6d304bc612ca47" localSheetId="1" hidden="1">Planilha1!$F$4:$F$452</definedName>
+    <definedName name="_ECO_RANGE_ID2febbd07ccd5449facbf5c59fd248263" localSheetId="1" hidden="1">Planilha1!$N$4:$N$452</definedName>
+    <definedName name="_ECO_RANGE_ID30ac926d74264035aea43fcd5c489914" localSheetId="2" hidden="1">Planilha2!$E$4:$E$452</definedName>
+    <definedName name="_ECO_RANGE_ID3405a25796be4373af2ad9da2310f7bc" localSheetId="1" hidden="1">Planilha1!$D$4:$D$452</definedName>
+    <definedName name="_ECO_RANGE_ID3448641a253547a6bb5cd7a8b1255ac4" localSheetId="2" hidden="1">Planilha2!$G$4:$G$452</definedName>
+    <definedName name="_ECO_RANGE_ID34547f18e9d445c0833c009332d48efe" localSheetId="1" hidden="1">Planilha1!$E$4:$E$452</definedName>
+    <definedName name="_ECO_RANGE_ID38c8bdf4fa5942dbbb7fa7729f33c6bf" localSheetId="2" hidden="1">Planilha2!$H$4:$H$452</definedName>
+    <definedName name="_ECO_RANGE_ID3d722e189e274663a5c98825b3dd16a3" localSheetId="0" hidden="1">Plan1!$F$4:$F$452</definedName>
+    <definedName name="_ECO_RANGE_ID3f51807dee24418f9308b5b8514542ee" localSheetId="0" hidden="1">Plan1!$O$4:$O$452</definedName>
+    <definedName name="_ECO_RANGE_ID42b882a9232c483389e626046ff9d5ef" localSheetId="1" hidden="1">Planilha1!$I$4:$I$452</definedName>
+    <definedName name="_ECO_RANGE_ID46bf8e24ba514401b0892b802abd9950" localSheetId="2" hidden="1">Planilha2!$P$4:$P$452</definedName>
+    <definedName name="_ECO_RANGE_ID4730bc0f91654058983a7009753c0882" localSheetId="2" hidden="1">Planilha2!$N$4:$N$452</definedName>
+    <definedName name="_ECO_RANGE_ID473ad601246a492f9b17ff520a69f7d9" localSheetId="0" hidden="1">Plan1!$K$4:$K$452</definedName>
+    <definedName name="_ECO_RANGE_ID4c35c019ea9340d790931d7e531952f3" localSheetId="0" hidden="1">Plan1!$N$4:$N$452</definedName>
+    <definedName name="_ECO_RANGE_ID4f8a8652fc014acdb39fc592f8b73711" localSheetId="2" hidden="1">Planilha2!$J$4:$J$452</definedName>
+    <definedName name="_ECO_RANGE_ID57ed4c60211b4da4b426c1c646f0ae3e" localSheetId="1" hidden="1">Planilha1!$C$4:$C$452</definedName>
+    <definedName name="_ECO_RANGE_ID722fa72e38c44eb2a52a56b511861aa9" localSheetId="1" hidden="1">Planilha1!$G$4:$G$452</definedName>
+    <definedName name="_ECO_RANGE_ID7242af7193654132b2868cbc6f38347d" localSheetId="1" hidden="1">Planilha1!$L$4:$L$452</definedName>
+    <definedName name="_ECO_RANGE_ID834cc279d09843bc8b3acb7f56342bde" localSheetId="2" hidden="1">Planilha2!$I$4:$I$452</definedName>
+    <definedName name="_ECO_RANGE_ID85f6d63669cc4530bfb56c7a0f0e893e" localSheetId="2" hidden="1">Planilha2!$O$4:$O$452</definedName>
+    <definedName name="_ECO_RANGE_ID890101524b224f12bc2d2fb07faf1629" localSheetId="0" hidden="1">Plan1!$A$4:$B$452</definedName>
+    <definedName name="_ECO_RANGE_ID8e0538d0756c44e4b249cc74a406630c" localSheetId="0" hidden="1">Plan1!$J$4:$J$452</definedName>
+    <definedName name="_ECO_RANGE_ID95e240ca0f98473daccb797eafaea5d1" localSheetId="0" hidden="1">Plan1!$E$4:$E$452</definedName>
+    <definedName name="_ECO_RANGE_ID9dc63b531ada4899ba2b0dd1dce09c3c" localSheetId="0" hidden="1">Plan1!$D$4:$D$452</definedName>
+    <definedName name="_ECO_RANGE_IDa04117fedbe941ca914f3a19d9af74c3" localSheetId="2" hidden="1">Planilha2!$L$4:$L$452</definedName>
+    <definedName name="_ECO_RANGE_IDb2a58d29c18a49acae94354353a5b666" localSheetId="0" hidden="1">Plan1!$L$4:$L$452</definedName>
+    <definedName name="_ECO_RANGE_IDbaf007fdbfbe4ec9a9805ff74941b111" localSheetId="2" hidden="1">Planilha2!$C$4:$C$452</definedName>
+    <definedName name="_ECO_RANGE_IDc1efab8198ca4c68823f6a3c81554580" localSheetId="2" hidden="1">Planilha2!$K$4:$K$452</definedName>
+    <definedName name="_ECO_RANGE_IDc332c53243d64a8fa9a07456abcdd449" localSheetId="0" hidden="1">Plan1!$M$4:$M$452</definedName>
+    <definedName name="_ECO_RANGE_IDc5a713c2b2234280829d9b065e14dd4f" localSheetId="0" hidden="1">Plan1!$C$4:$C$452</definedName>
+    <definedName name="_ECO_RANGE_IDc73d1583c1c949bb93d2031e13af6120" localSheetId="1" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDca3453d146fe45a788c3d10a56432ded" localSheetId="2" hidden="1">Planilha2!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDce90e7cc1cb144a68078735619c4248d" localSheetId="0" hidden="1">Plan1!$I$4:$I$452</definedName>
+    <definedName name="_ECO_RANGE_IDe6d4e891befd464c8e0c54936408cc50" localSheetId="0" hidden="1">Plan1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDe83adb277c704f9c80d2c6e804a47baa" localSheetId="1" hidden="1">Planilha1!$A$4:$B$452</definedName>
+    <definedName name="_ECO_RANGE_IDf6e06bb8c84c4c9e819ad4feafc25212" localSheetId="1" hidden="1">Planilha1!$J$4:$J$452</definedName>
+    <definedName name="_ECO_RANGE_IDfaeeeeb485cd4ef883050a36a15facd0" localSheetId="1" hidden="1">Planilha1!$K$4:$K$452</definedName>
+    <definedName name="_ECO_RANGE_IDffaf7970b4f74134b207bc158afbac98" localSheetId="1" hidden="1">Planilha1!$O$4:$O$452</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,308 +286,306 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>612a03b2-5b8f-418f-a660-6c2e6adf00bb</stp>
-        <tr r="G3" s="3"/>
+        <stp>e5d7d38b-8b5e-4ad8-8d4c-d9755d3083d5</stp>
+        <tr r="H3" s="3"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>f4958906-ca69-4784-9d31-b6fbf293e9b2</stp>
+        <stp>364eab60-e9a0-4aa6-8e9c-f5be93333d7f</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fe3c7262-97fe-4a5e-b1e3-2b978f95661b</stp>
+        <tr r="F3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0b57bcd0-78bd-4d79-91b8-ba7ccb1b53ff</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f98832bc-e615-46c9-8516-1662641dc955</stp>
+        <tr r="O3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>399c6b6e-2b2a-4ccf-94a3-caad3d91555d</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a7a14ea2-34dd-479c-88e5-b58348339263</stp>
+        <tr r="C3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2e2c8aca-5ecf-478c-ab88-b531de278cae</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>44aceb1e-1336-47e1-9e85-ce850302aba5</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>99a3ab3f-ed94-45a0-ac2f-ffea5c383cd5</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6eae1c4b-b230-4d9d-aa90-a4b94b2035ef</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4502f404-20aa-4a50-9357-fa3ff63425b3</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3de57339-a317-4b19-8852-89509bb9e42e</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e19550cf-3d82-4599-8ea0-e3d084540844</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f6a02f0c-8ad7-4654-99d8-c15edff398b2</stp>
+        <tr r="E3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d886e46f-6494-4392-9caf-158ca576d9e4</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d1cc945b-340e-4211-9e28-125de3b1de5d</stp>
+        <tr r="P3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c84d5d63-ea46-4f28-a4e7-221dce644ba8</stp>
+        <tr r="N3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8498b235-0fbb-49d6-82f5-54cae2868294</stp>
+        <tr r="M3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5c6bb4a3-fd8e-4f76-bf58-04ea00c7cd10</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>52df353f-68c3-46c8-a9b1-6ab15a4e29a0</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>407dc455-322e-4ff5-ba54-32cd27654a39</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8ea02cf2-1baf-4e17-abfe-adfe171d4f16</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4ecc655d-ce28-4fc8-9575-de9351bf1df3</stp>
         <tr r="K3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>3d160c78-c355-4f88-9c09-da0dc941bcfe</stp>
+        <stp>a08beba3-e0ec-41b0-986a-f2663610b993</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ab246e2e-5adf-47e6-a801-69b218ae79d6</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5a48f4c8-ef29-43fa-9937-c94114ea8c74</stp>
         <tr r="E3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>bfd8e4cc-a222-46ab-b8e0-3b4fcd2bae0c</stp>
+        <stp>e6af3654-9472-4ede-8f17-5f582c65ceb2</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1d79aace-d449-4b55-9395-024ef7532e2f</stp>
+        <tr r="J3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f297415a-5d46-41ae-a486-4d9e475ba626</stp>
+        <tr r="K3" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d61b10a1-2cdf-42d4-ba0e-7e4388525b07</stp>
         <tr r="I3" s="3"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>9209eae4-01eb-4def-af7a-db04628f5557</stp>
-        <tr r="L3" s="1"/>
+        <stp>8225e81a-b22a-4caa-8342-465b218042ef</stp>
+        <tr r="D3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>94c99e42-25f8-45a7-91e2-7039a68fda3a</stp>
-        <tr r="F3" s="1"/>
+        <stp>2885a97c-34aa-4918-857b-763a8fd28de7</stp>
+        <tr r="L3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>444ac73a-5daa-48b9-88ef-c0dbf8a4b479</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>32b1c078-dbab-4d18-bc07-b1a50771a913</stp>
-        <tr r="N3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>8d83911a-623a-46ab-acb8-69b8f8a9c322</stp>
-        <tr r="L3" s="3"/>
+        <stp>d92c232d-5537-4c54-ab93-3ddacaba6246</stp>
+        <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>0adaf50c-106d-4fb1-a958-4a5e050b0e29</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f0126f9b-3164-496d-8064-67138e451582</stp>
-        <tr r="M3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a87090b3-5f19-4577-88ff-5999b3a22646</stp>
-        <tr r="C3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d4fc273a-a40f-428c-86a1-482103a06890</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>614f3a13-08c5-4fba-bcec-e225f7ce3232</stp>
+        <stp>e76fe827-5ad6-44ee-9861-39dfbbeec7b1</stp>
         <tr r="A3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>6a174227-71ce-4a0b-b76a-668571789e68</stp>
-        <tr r="L3" s="2"/>
+        <stp>f0cc3491-6194-4035-84bf-66df3402ab1f</stp>
+        <tr r="D3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>a338e93f-ffe9-4da3-94d6-1f395f90fdc9</stp>
-        <tr r="K3" s="3"/>
+        <stp>aaa7ec46-79ed-4aef-b8ac-4df00ced531a</stp>
+        <tr r="K3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>24a032fa-0741-480a-b127-1918ea002eb4</stp>
-        <tr r="I3" s="2"/>
+        <stp>325118dd-0814-4482-8b8b-22e8b11164d1</stp>
+        <tr r="G3" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>d8aefa51-8bd1-4aa2-9d9e-d6dcb4caa0b6</stp>
-        <tr r="N3" s="2"/>
+        <stp>7d2a6299-c7f8-433b-85cb-bb47a0797dd0</stp>
+        <tr r="O3" s="2"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>4368cd24-05d3-4419-a300-ea111a921655</stp>
-        <tr r="M3" s="1"/>
+        <stp>965fdb55-0107-4a4c-ab55-3af4c3989bfa</stp>
+        <tr r="N3" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8673e501-3848-4652-81df-e64d86861dab</stp>
+        <tr r="J3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>1f6244ff-02aa-4600-981e-2530e585a863</stp>
-        <tr r="D3" s="3"/>
+        <stp>4911b72e-8ffa-4991-9eca-27ce85a65e8c</stp>
+        <tr r="F3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
+    <main first="rtdsrv_eco_dbc96eb8adc14b75bdd7785f8320fa2a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>0cbfb593-245a-4f40-b38d-7875eddf150b</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>48e348a0-248c-42a5-807d-d644c76d3535</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>dee4882d-28db-4c0e-ab88-413e05744270</stp>
+        <stp>9d59370a-4fa7-4f7d-bf6a-65e914198794</stp>
         <tr r="A3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ce7b7cbe-e603-4ad5-a5f7-0a9ed7d34bb5</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>0c13e52a-7dd2-4b0d-ae50-7cbefdf813bb</stp>
-        <tr r="N3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>dd22e271-ee14-46ff-8488-383704dbef23</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>cc18e618-e6a5-472e-a5b2-46e9539eb4ad</stp>
-        <tr r="O3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>fe7de5d7-3f3b-439c-b1f5-b0ae14517ba0</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>75b8279a-ae81-4d86-8aa5-f25c06b9030b</stp>
-        <tr r="J3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>fe208e6b-060c-4e4d-9655-2c4bc76b8628</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>11ecbc53-7c00-4744-bdea-4f104ed7c5d8</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>80171aac-dcbd-4e42-bc65-4a0141d45c0d</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>b62adf36-4f0e-49c6-8f24-bf8fca6b3e15</stp>
-        <tr r="F3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>3163bcf9-ebc0-4633-a0c7-21e8fee1a162</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>55265756-282e-4597-831e-e76a2b176ad7</stp>
-        <tr r="H3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c6553f08-25a1-4fab-9fe5-c05ec58b8b42</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>1df1da48-a72e-4fb9-ad74-ddeaeb914c30</stp>
-        <tr r="P3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ff425870-bcba-4f1d-a7ef-22bcd8188992</stp>
-        <tr r="E3" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c9047d6e-f911-48bd-826b-fcf08f533e33</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>af68d357-5090-45e1-9b09-7ca592fb08ed</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>90d6f0dd-a60a-4216-888c-fd3706fae6a7</stp>
-        <tr r="O3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_bb4db4a9a7dc4fcfbc00a33109f63fdc">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a9934f5a-782f-4ab2-90d4-e9cd8540385c</stp>
-        <tr r="O3" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>1924362f-5811-49d6-bcbd-11acee86902c</stp>
-        <tr r="J3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -857,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O440"/>
+  <dimension ref="A1:O452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="C448" sqref="C448"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="A452" sqref="A452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20488,6 +20486,495 @@
         <v>7.1620999999999997</v>
       </c>
     </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C442">
+        <v>10.333299999999999</v>
+      </c>
+      <c r="D442">
+        <v>8.4494000000000007</v>
+      </c>
+      <c r="E442">
+        <v>7.96</v>
+      </c>
+      <c r="F442">
+        <v>7.7944000000000004</v>
+      </c>
+      <c r="G442">
+        <v>7.6908000000000003</v>
+      </c>
+      <c r="H442">
+        <v>7.6292999999999997</v>
+      </c>
+      <c r="I442">
+        <v>7.6334999999999997</v>
+      </c>
+      <c r="J442">
+        <v>7.3601999999999999</v>
+      </c>
+      <c r="K442">
+        <v>7.2599</v>
+      </c>
+      <c r="L442">
+        <v>7.1551</v>
+      </c>
+      <c r="M442">
+        <v>7.1329000000000002</v>
+      </c>
+      <c r="N442">
+        <v>7.0956000000000001</v>
+      </c>
+      <c r="O442">
+        <v>7.1492000000000004</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C443">
+        <v>10.3299</v>
+      </c>
+      <c r="D443">
+        <v>8.4501000000000008</v>
+      </c>
+      <c r="E443">
+        <v>7.9530000000000003</v>
+      </c>
+      <c r="F443">
+        <v>7.8028000000000004</v>
+      </c>
+      <c r="G443">
+        <v>7.71</v>
+      </c>
+      <c r="H443">
+        <v>7.6612</v>
+      </c>
+      <c r="I443">
+        <v>7.6809000000000003</v>
+      </c>
+      <c r="J443">
+        <v>7.43</v>
+      </c>
+      <c r="K443">
+        <v>7.3338000000000001</v>
+      </c>
+      <c r="L443">
+        <v>7.2157</v>
+      </c>
+      <c r="M443">
+        <v>7.1749999999999998</v>
+      </c>
+      <c r="N443">
+        <v>7.1403999999999996</v>
+      </c>
+      <c r="O443">
+        <v>7.1783000000000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C444">
+        <v>10.3279</v>
+      </c>
+      <c r="D444">
+        <v>8.4850999999999992</v>
+      </c>
+      <c r="E444">
+        <v>7.9821999999999997</v>
+      </c>
+      <c r="F444">
+        <v>7.8375000000000004</v>
+      </c>
+      <c r="G444">
+        <v>7.7465999999999999</v>
+      </c>
+      <c r="H444">
+        <v>7.7070999999999996</v>
+      </c>
+      <c r="I444">
+        <v>7.7332000000000001</v>
+      </c>
+      <c r="J444">
+        <v>7.5029000000000003</v>
+      </c>
+      <c r="K444">
+        <v>7.3977000000000004</v>
+      </c>
+      <c r="L444">
+        <v>7.2766999999999999</v>
+      </c>
+      <c r="M444">
+        <v>7.23</v>
+      </c>
+      <c r="N444">
+        <v>7.1756000000000002</v>
+      </c>
+      <c r="O444">
+        <v>7.2065999999999999</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C445">
+        <v>10.3428</v>
+      </c>
+      <c r="D445">
+        <v>8.4796999999999993</v>
+      </c>
+      <c r="E445">
+        <v>7.9794</v>
+      </c>
+      <c r="F445">
+        <v>7.85</v>
+      </c>
+      <c r="G445">
+        <v>7.7801999999999998</v>
+      </c>
+      <c r="H445">
+        <v>7.7388000000000003</v>
+      </c>
+      <c r="I445">
+        <v>7.7493999999999996</v>
+      </c>
+      <c r="J445">
+        <v>7.54</v>
+      </c>
+      <c r="K445">
+        <v>7.3970000000000002</v>
+      </c>
+      <c r="L445">
+        <v>7.2763999999999998</v>
+      </c>
+      <c r="M445">
+        <v>7.2236000000000002</v>
+      </c>
+      <c r="N445">
+        <v>7.18</v>
+      </c>
+      <c r="O445">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C446">
+        <v>10.325200000000001</v>
+      </c>
+      <c r="D446">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E446">
+        <v>7.9846000000000004</v>
+      </c>
+      <c r="F446">
+        <v>7.8545999999999996</v>
+      </c>
+      <c r="G446">
+        <v>7.78</v>
+      </c>
+      <c r="H446">
+        <v>7.7317999999999998</v>
+      </c>
+      <c r="I446">
+        <v>7.7313000000000001</v>
+      </c>
+      <c r="J446">
+        <v>7.52</v>
+      </c>
+      <c r="K446">
+        <v>7.3697999999999997</v>
+      </c>
+      <c r="L446">
+        <v>7.2606999999999999</v>
+      </c>
+      <c r="M446">
+        <v>7.2226999999999997</v>
+      </c>
+      <c r="N446">
+        <v>7.1703999999999999</v>
+      </c>
+      <c r="O446">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C447">
+        <v>10.3024</v>
+      </c>
+      <c r="D447">
+        <v>8.5220000000000002</v>
+      </c>
+      <c r="E447">
+        <v>8.0437999999999992</v>
+      </c>
+      <c r="F447">
+        <v>7.9</v>
+      </c>
+      <c r="G447">
+        <v>7.8163</v>
+      </c>
+      <c r="H447">
+        <v>7.7617000000000003</v>
+      </c>
+      <c r="I447">
+        <v>7.76</v>
+      </c>
+      <c r="J447">
+        <v>7.56</v>
+      </c>
+      <c r="K447">
+        <v>7.4071999999999996</v>
+      </c>
+      <c r="L447">
+        <v>7.2941000000000003</v>
+      </c>
+      <c r="M447">
+        <v>7.25</v>
+      </c>
+      <c r="N447">
+        <v>7.2026000000000003</v>
+      </c>
+      <c r="O447">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C448">
+        <v>10.300800000000001</v>
+      </c>
+      <c r="D448">
+        <v>8.5173000000000005</v>
+      </c>
+      <c r="E448">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F448">
+        <v>7.9073000000000002</v>
+      </c>
+      <c r="G448">
+        <v>7.83</v>
+      </c>
+      <c r="H448">
+        <v>7.7727000000000004</v>
+      </c>
+      <c r="I448">
+        <v>7.76</v>
+      </c>
+      <c r="J448">
+        <v>7.5716999999999999</v>
+      </c>
+      <c r="K448">
+        <v>7.4</v>
+      </c>
+      <c r="L448">
+        <v>7.3064999999999998</v>
+      </c>
+      <c r="M448">
+        <v>7.2502000000000004</v>
+      </c>
+      <c r="N448">
+        <v>7.2054999999999998</v>
+      </c>
+      <c r="O448">
+        <v>7.2477</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C449">
+        <v>10.2826</v>
+      </c>
+      <c r="D449">
+        <v>8.4924999999999997</v>
+      </c>
+      <c r="E449">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="F449">
+        <v>7.9088000000000003</v>
+      </c>
+      <c r="G449">
+        <v>7.8296000000000001</v>
+      </c>
+      <c r="H449">
+        <v>7.7737999999999996</v>
+      </c>
+      <c r="I449">
+        <v>7.7685000000000004</v>
+      </c>
+      <c r="J449">
+        <v>7.5606</v>
+      </c>
+      <c r="K449">
+        <v>7.4217000000000004</v>
+      </c>
+      <c r="L449">
+        <v>7.3258000000000001</v>
+      </c>
+      <c r="M449">
+        <v>7.27</v>
+      </c>
+      <c r="N449">
+        <v>7.2205000000000004</v>
+      </c>
+      <c r="O449">
+        <v>7.2607999999999997</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C450">
+        <v>10.2798</v>
+      </c>
+      <c r="D450">
+        <v>8.5427999999999997</v>
+      </c>
+      <c r="E450">
+        <v>8.1390999999999991</v>
+      </c>
+      <c r="F450">
+        <v>7.9911000000000003</v>
+      </c>
+      <c r="G450">
+        <v>7.9042000000000003</v>
+      </c>
+      <c r="H450">
+        <v>7.8509000000000002</v>
+      </c>
+      <c r="I450">
+        <v>7.8480999999999996</v>
+      </c>
+      <c r="J450">
+        <v>7.69</v>
+      </c>
+      <c r="K450">
+        <v>7.4980000000000002</v>
+      </c>
+      <c r="L450">
+        <v>7.3966000000000003</v>
+      </c>
+      <c r="M450">
+        <v>7.3391999999999999</v>
+      </c>
+      <c r="N450">
+        <v>7.2896999999999998</v>
+      </c>
+      <c r="O450">
+        <v>7.3331999999999997</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C451">
+        <v>10.299899999999999</v>
+      </c>
+      <c r="D451">
+        <v>8.57</v>
+      </c>
+      <c r="E451">
+        <v>8.1563999999999997</v>
+      </c>
+      <c r="F451">
+        <v>8.0038</v>
+      </c>
+      <c r="G451">
+        <v>7.9226999999999999</v>
+      </c>
+      <c r="H451">
+        <v>7.8602999999999996</v>
+      </c>
+      <c r="I451">
+        <v>7.8478000000000003</v>
+      </c>
+      <c r="J451">
+        <v>7.6821999999999999</v>
+      </c>
+      <c r="K451">
+        <v>7.4924999999999997</v>
+      </c>
+      <c r="L451">
+        <v>7.3819999999999997</v>
+      </c>
+      <c r="M451">
+        <v>7.3221999999999996</v>
+      </c>
+      <c r="N451">
+        <v>7.2725</v>
+      </c>
+      <c r="O451">
+        <v>7.3060999999999998</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C452">
+        <v>10.3102</v>
+      </c>
+      <c r="D452">
+        <v>8.6165000000000003</v>
+      </c>
+      <c r="E452">
+        <v>8.1834000000000007</v>
+      </c>
+      <c r="F452">
+        <v>8.0488999999999997</v>
+      </c>
+      <c r="G452">
+        <v>7.9646999999999997</v>
+      </c>
+      <c r="H452">
+        <v>7.9</v>
+      </c>
+      <c r="I452">
+        <v>7.91</v>
+      </c>
+      <c r="J452">
+        <v>7.7371999999999996</v>
+      </c>
+      <c r="K452">
+        <v>7.5204000000000004</v>
+      </c>
+      <c r="L452">
+        <v>7.3853999999999997</v>
+      </c>
+      <c r="M452">
+        <v>7.3228999999999997</v>
+      </c>
+      <c r="N452">
+        <v>7.27</v>
+      </c>
+      <c r="O452">
+        <v>7.3060999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20495,10 +20982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2426C424-F8DA-489F-86D1-16CF91ECBA06}">
-  <dimension ref="A1:O440"/>
+  <dimension ref="A1:O452"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442"/>
+      <selection activeCell="A452" sqref="A452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40126,6 +40613,495 @@
         <v>4038.371181</v>
       </c>
     </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C442">
+        <v>4571.3682150000004</v>
+      </c>
+      <c r="D442">
+        <v>4483.351619</v>
+      </c>
+      <c r="E442">
+        <v>4485.9204110000001</v>
+      </c>
+      <c r="F442">
+        <v>4393.622496</v>
+      </c>
+      <c r="G442">
+        <v>4406.2420849999999</v>
+      </c>
+      <c r="H442">
+        <v>4322.0580719999998</v>
+      </c>
+      <c r="I442">
+        <v>4223.4412050000001</v>
+      </c>
+      <c r="J442">
+        <v>4225.2773639999996</v>
+      </c>
+      <c r="K442">
+        <v>4197.1442900000002</v>
+      </c>
+      <c r="L442">
+        <v>4097.9962649999998</v>
+      </c>
+      <c r="M442">
+        <v>4118.7709649999997</v>
+      </c>
+      <c r="N442">
+        <v>4034.6373199999998</v>
+      </c>
+      <c r="O442">
+        <v>4046.634172</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C443">
+        <v>4573.9756600000001</v>
+      </c>
+      <c r="D443">
+        <v>4485.4822889999996</v>
+      </c>
+      <c r="E443">
+        <v>4488.7018109999999</v>
+      </c>
+      <c r="F443">
+        <v>4394.6028980000001</v>
+      </c>
+      <c r="G443">
+        <v>4405.1407669999999</v>
+      </c>
+      <c r="H443">
+        <v>4317.1694809999999</v>
+      </c>
+      <c r="I443">
+        <v>4214.3737339999998</v>
+      </c>
+      <c r="J443">
+        <v>4207.7011240000002</v>
+      </c>
+      <c r="K443">
+        <v>4171.9612150000003</v>
+      </c>
+      <c r="L443">
+        <v>4074.1435919999999</v>
+      </c>
+      <c r="M443">
+        <v>4101.0309589999997</v>
+      </c>
+      <c r="N443">
+        <v>4014.4015209999998</v>
+      </c>
+      <c r="O443">
+        <v>4033.7598760000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C444">
+        <v>4576.5471850000004</v>
+      </c>
+      <c r="D444">
+        <v>4485.7721949999996</v>
+      </c>
+      <c r="E444">
+        <v>4487.9020959999998</v>
+      </c>
+      <c r="F444">
+        <v>4392.3405560000001</v>
+      </c>
+      <c r="G444">
+        <v>4401.2449139999999</v>
+      </c>
+      <c r="H444">
+        <v>4309.3064960000002</v>
+      </c>
+      <c r="I444">
+        <v>4204.2268190000004</v>
+      </c>
+      <c r="J444">
+        <v>4189.3953819999997</v>
+      </c>
+      <c r="K444">
+        <v>4150.6357719999996</v>
+      </c>
+      <c r="L444">
+        <v>4050.360968</v>
+      </c>
+      <c r="M444">
+        <v>4077.5229260000001</v>
+      </c>
+      <c r="N444">
+        <v>3999.0143320000002</v>
+      </c>
+      <c r="O444">
+        <v>4021.3714180000002</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C445">
+        <v>4578.7071150000002</v>
+      </c>
+      <c r="D445">
+        <v>4488.2381349999996</v>
+      </c>
+      <c r="E445">
+        <v>4490.2721750000001</v>
+      </c>
+      <c r="F445">
+        <v>4392.8260700000001</v>
+      </c>
+      <c r="G445">
+        <v>4397.8424530000002</v>
+      </c>
+      <c r="H445">
+        <v>4304.5102399999996</v>
+      </c>
+      <c r="I445">
+        <v>4202.4188270000004</v>
+      </c>
+      <c r="J445">
+        <v>4181.0568229999999</v>
+      </c>
+      <c r="K445">
+        <v>4152.7360189999999</v>
+      </c>
+      <c r="L445">
+        <v>4052.2709220000002</v>
+      </c>
+      <c r="M445">
+        <v>4082.2455289999998</v>
+      </c>
+      <c r="N445">
+        <v>3998.6253999999999</v>
+      </c>
+      <c r="O445">
+        <v>4021.4396360000001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C446">
+        <v>4581.6648779999996</v>
+      </c>
+      <c r="D446">
+        <v>4490.9292690000002</v>
+      </c>
+      <c r="E446">
+        <v>4491.8548149999997</v>
+      </c>
+      <c r="F446">
+        <v>4394.2875750000003</v>
+      </c>
+      <c r="G446">
+        <v>4399.8958350000003</v>
+      </c>
+      <c r="H446">
+        <v>4307.9689289999997</v>
+      </c>
+      <c r="I446">
+        <v>4208.5093580000002</v>
+      </c>
+      <c r="J446">
+        <v>4188.4451639999997</v>
+      </c>
+      <c r="K446">
+        <v>4164.4267799999998</v>
+      </c>
+      <c r="L446">
+        <v>4060.6143929999998</v>
+      </c>
+      <c r="M446">
+        <v>4084.444919</v>
+      </c>
+      <c r="N446">
+        <v>4005.031215</v>
+      </c>
+      <c r="O446">
+        <v>4023.1984969999999</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C447">
+        <v>4584.3724830000001</v>
+      </c>
+      <c r="D447">
+        <v>4489.9728709999999</v>
+      </c>
+      <c r="E447">
+        <v>4487.7596290000001</v>
+      </c>
+      <c r="F447">
+        <v>4390.3861159999997</v>
+      </c>
+      <c r="G447">
+        <v>4395.7290579999999</v>
+      </c>
+      <c r="H447">
+        <v>4303.2265109999998</v>
+      </c>
+      <c r="I447">
+        <v>4203.4931230000002</v>
+      </c>
+      <c r="J447">
+        <v>4178.9916560000001</v>
+      </c>
+      <c r="K447">
+        <v>4152.4144150000002</v>
+      </c>
+      <c r="L447">
+        <v>4048.139983</v>
+      </c>
+      <c r="M447">
+        <v>4073.420439</v>
+      </c>
+      <c r="N447">
+        <v>3990.8660289999998</v>
+      </c>
+      <c r="O447">
+        <v>4009.740452</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C448">
+        <v>4586.9157740000001</v>
+      </c>
+      <c r="D448">
+        <v>4492.3867769999997</v>
+      </c>
+      <c r="E448">
+        <v>4489.2336720000003</v>
+      </c>
+      <c r="F448">
+        <v>4391.5057390000002</v>
+      </c>
+      <c r="G448">
+        <v>4395.5341980000003</v>
+      </c>
+      <c r="H448">
+        <v>4302.8384020000003</v>
+      </c>
+      <c r="I448">
+        <v>4205.3991990000004</v>
+      </c>
+      <c r="J448">
+        <v>4177.6445389999999</v>
+      </c>
+      <c r="K448">
+        <v>4156.842294</v>
+      </c>
+      <c r="L448">
+        <v>4044.751233</v>
+      </c>
+      <c r="M448">
+        <v>4075.0998719999998</v>
+      </c>
+      <c r="N448">
+        <v>3991.1942730000001</v>
+      </c>
+      <c r="O448">
+        <v>4007.6747479999999</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C449">
+        <v>4589.8539510000001</v>
+      </c>
+      <c r="D449">
+        <v>4495.8601699999999</v>
+      </c>
+      <c r="E449">
+        <v>4492.2986179999998</v>
+      </c>
+      <c r="F449">
+        <v>4393.3360839999996</v>
+      </c>
+      <c r="G449">
+        <v>4397.6035279999996</v>
+      </c>
+      <c r="H449">
+        <v>4304.5585769999998</v>
+      </c>
+      <c r="I449">
+        <v>4205.3531039999998</v>
+      </c>
+      <c r="J449">
+        <v>4182.5536760000005</v>
+      </c>
+      <c r="K449">
+        <v>4150.8480790000003</v>
+      </c>
+      <c r="L449">
+        <v>4038.5102459999998</v>
+      </c>
+      <c r="M449">
+        <v>4067.8552279999999</v>
+      </c>
+      <c r="N449">
+        <v>3985.696614</v>
+      </c>
+      <c r="O449">
+        <v>4002.9497390000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C450">
+        <v>4592.4215979999999</v>
+      </c>
+      <c r="D450">
+        <v>4495.3644169999998</v>
+      </c>
+      <c r="E450">
+        <v>4484.6918400000004</v>
+      </c>
+      <c r="F450">
+        <v>4385.2965949999998</v>
+      </c>
+      <c r="G450">
+        <v>4387.6850880000002</v>
+      </c>
+      <c r="H450">
+        <v>4290.1786320000001</v>
+      </c>
+      <c r="I450">
+        <v>4189.0504680000004</v>
+      </c>
+      <c r="J450">
+        <v>4149.119995</v>
+      </c>
+      <c r="K450">
+        <v>4125.3313349999999</v>
+      </c>
+      <c r="L450">
+        <v>4011.1054260000001</v>
+      </c>
+      <c r="M450">
+        <v>4038.3553379999998</v>
+      </c>
+      <c r="N450">
+        <v>3954.359226</v>
+      </c>
+      <c r="O450">
+        <v>3969.2861630000002</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C451">
+        <v>4594.4534739999999</v>
+      </c>
+      <c r="D451">
+        <v>4496.1018050000002</v>
+      </c>
+      <c r="E451">
+        <v>4485.0974230000002</v>
+      </c>
+      <c r="F451">
+        <v>4385.7782859999998</v>
+      </c>
+      <c r="G451">
+        <v>4386.7503399999996</v>
+      </c>
+      <c r="H451">
+        <v>4290.1547879999998</v>
+      </c>
+      <c r="I451">
+        <v>4191.0328129999998</v>
+      </c>
+      <c r="J451">
+        <v>4153.1043749999999</v>
+      </c>
+      <c r="K451">
+        <v>4129.1285760000001</v>
+      </c>
+      <c r="L451">
+        <v>4018.8646640000002</v>
+      </c>
+      <c r="M451">
+        <v>4047.7740939999999</v>
+      </c>
+      <c r="N451">
+        <v>3964.2600010000001</v>
+      </c>
+      <c r="O451">
+        <v>3984.2146149999999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C452">
+        <v>4596.7540410000001</v>
+      </c>
+      <c r="D452">
+        <v>4495.8640569999998</v>
+      </c>
+      <c r="E452">
+        <v>4484.6010660000002</v>
+      </c>
+      <c r="F452">
+        <v>4382.3490670000001</v>
+      </c>
+      <c r="G452">
+        <v>4382.115186</v>
+      </c>
+      <c r="H452">
+        <v>4283.7749659999999</v>
+      </c>
+      <c r="I452">
+        <v>4178.821868</v>
+      </c>
+      <c r="J452">
+        <v>4140.1122150000001</v>
+      </c>
+      <c r="K452">
+        <v>4121.0440079999998</v>
+      </c>
+      <c r="L452">
+        <v>4019.2597719999999</v>
+      </c>
+      <c r="M452">
+        <v>4049.2516129999999</v>
+      </c>
+      <c r="N452">
+        <v>3967.2051259999998</v>
+      </c>
+      <c r="O452">
+        <v>3985.9798350000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -40133,10 +41109,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE81DAD-ED15-4633-A0F7-1D8C32328F6D}">
-  <dimension ref="A1:Z440"/>
+  <dimension ref="A1:Z452"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A443" sqref="A441:XFD443"/>
+    <sheetView topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="A452" sqref="A452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59606,6 +60582,528 @@
         <v>0.10150000000000001</v>
       </c>
     </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C442">
+        <v>1.34E-2</v>
+      </c>
+      <c r="D442">
+        <v>-8.3000000000000001E-3</v>
+      </c>
+      <c r="E442">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F442">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="G442">
+        <v>4.82E-2</v>
+      </c>
+      <c r="H442">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="I442">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="J442">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="K442">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L442">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="M442">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="N442">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="O442">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P442">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C443">
+        <v>1.21E-2</v>
+      </c>
+      <c r="D443">
+        <v>-9.4999999999999998E-3</v>
+      </c>
+      <c r="E443">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F443">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="G443">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H443">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="I443">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="J443">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="K443">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="L443">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="M443">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="N443">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="O443">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P443">
+        <v>0.1013</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C444">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D444">
+        <v>-1.14E-2</v>
+      </c>
+      <c r="E444">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="F444">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="G444">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="H444">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="I444">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="J444">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K444">
+        <v>9.64E-2</v>
+      </c>
+      <c r="L444">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="M444">
+        <v>9.98E-2</v>
+      </c>
+      <c r="N444">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="O444">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="P444">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C445">
+        <v>1.78E-2</v>
+      </c>
+      <c r="D445">
+        <v>-1.2800000000000001E-2</v>
+      </c>
+      <c r="E445">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="F445">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="G445">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="H445">
+        <v>5.57E-2</v>
+      </c>
+      <c r="I445">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="J445">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="K445">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="L445">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="M445">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="N445">
+        <v>0.1002</v>
+      </c>
+      <c r="O445">
+        <v>0.1002</v>
+      </c>
+      <c r="P445">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C446">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="D446">
+        <v>-1.38E-2</v>
+      </c>
+      <c r="E446">
+        <v>2.01E-2</v>
+      </c>
+      <c r="F446">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="G446">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="H446">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I446">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="J446">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="K446">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="L446">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="M446">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="N446">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="O446">
+        <v>0.1002</v>
+      </c>
+      <c r="P446">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C447">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="D447">
+        <v>-1.34E-2</v>
+      </c>
+      <c r="E447">
+        <v>2.07E-2</v>
+      </c>
+      <c r="F447">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="G447">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="H447">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="I447">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="J447">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="K447">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="L447">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="M447">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="N447">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="O447">
+        <v>0.1</v>
+      </c>
+      <c r="P447">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C448">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="D448">
+        <v>-1.43E-2</v>
+      </c>
+      <c r="E448">
+        <v>2.06E-2</v>
+      </c>
+      <c r="F448">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="G448">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H448">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="I448">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="J448">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="K448">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="L448">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="M448">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="N448">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="O448">
+        <v>0.1</v>
+      </c>
+      <c r="P448">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C449">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="D449">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+      <c r="E449">
+        <v>2.18E-2</v>
+      </c>
+      <c r="F449">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G449">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="H449">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="I449">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J449">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K449">
+        <v>9.11E-2</v>
+      </c>
+      <c r="L449">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="M449">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="N449">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="O449">
+        <v>0.1</v>
+      </c>
+      <c r="P449">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C450">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D450">
+        <v>-1.47E-2</v>
+      </c>
+      <c r="E450">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="F450">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G450">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="H450">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="I450">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="J450">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K450">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L450">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="M450">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="N450">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="O450">
+        <v>9.98E-2</v>
+      </c>
+      <c r="P450">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>46037</v>
+      </c>
+      <c r="C451">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="D451">
+        <v>-1.47E-2</v>
+      </c>
+      <c r="E451">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="F451">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G451">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="H451">
+        <v>5.33E-2</v>
+      </c>
+      <c r="I451">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="J451">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="K451">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="L451">
+        <v>9.35E-2</v>
+      </c>
+      <c r="M451">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="N451">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O451">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="P451">
+        <v>0.10050000000000001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>46038</v>
+      </c>
+      <c r="C452">
+        <v>2.18E-2</v>
+      </c>
+      <c r="D452">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="E452">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="F452">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G452">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="H452">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="I452">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="J452">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="K452">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="L452">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="M452">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="N452">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="O452">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="P452">
+        <v>0.1004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
